--- a/Aurora.xlsx
+++ b/Aurora.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ec562523a0c953df/Documentos/planilhas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="6_{30539F51-C84A-45DF-B73B-9BAA80983C9E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{A8DBD77D-10DC-4106-BD36-D1A94384D571}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="6_{30539F51-C84A-45DF-B73B-9BAA80983C9E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{8CF18232-03D6-6F4F-8CD0-028A184B6AD2}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3600" windowWidth="20490" windowHeight="7665" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3600" windowWidth="20490" windowHeight="7665" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2017.1" sheetId="1" r:id="rId1"/>
@@ -394,7 +394,7 @@
     <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="167" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1188,14 +1188,14 @@
     <xf numFmtId="2" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1209,6 +1209,129 @@
   </cellStyles>
   <dxfs count="92">
     <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1216,20 +1339,125 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="164" formatCode="0.0"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1260,6 +1488,28 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1288,10 +1538,55 @@
     <dxf>
       <font>
         <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -1345,6 +1640,15 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -1379,19 +1683,16 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
+        <b/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
+        <name val="Constantia"/>
+        <family val="1"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="0.0"/>
@@ -1402,13 +1703,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1444,6 +1738,59 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1461,6 +1808,29 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="0.0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Constantia"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1504,6 +1874,28 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1534,6 +1926,28 @@
         <bottom/>
       </border>
       <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1569,6 +1983,16 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1612,6 +2036,26 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1645,6 +2089,16 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
       <fill>
         <patternFill patternType="none">
@@ -1655,6 +2109,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
       <fill>
         <patternFill patternType="none">
@@ -1665,6 +2128,63 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FFFFFFFF"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
       <fill>
         <patternFill patternType="none">
@@ -1675,6 +2195,35 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
       <fill>
         <patternFill patternType="none">
@@ -1685,12 +2234,14 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -1701,14 +2252,28 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1744,6 +2309,16 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
       <fill>
         <patternFill patternType="none">
@@ -1761,7 +2336,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -1774,6 +2349,35 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
       <fill>
         <patternFill patternType="none">
@@ -1782,6 +2386,32 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -1833,635 +2463,6 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Constantia"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Constantia"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color rgb="FFFFFFFF"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
@@ -2488,15 +2489,15 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{707C8E72-449F-434C-81D2-E6CAE60FDC64}" name="G_20184" displayName="G_20184" ref="A1:G3" totalsRowCount="1" tableBorderDxfId="91" dataCellStyle="Normal">
   <autoFilter ref="A1:G2" xr:uid="{1BB8EF35-A1C5-4DA1-AE25-87B25A5E3E01}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{359F37B9-9617-418F-81F4-00F8F142D6C9}" name="data" dataDxfId="90" totalsRowDxfId="34" dataCellStyle="Normal"/>
-    <tableColumn id="2" xr3:uid="{5B407B50-7529-43FD-BA94-ADB3D3459328}" name="km ini" totalsRowFunction="min" dataDxfId="89" totalsRowDxfId="33" dataCellStyle="Normal"/>
-    <tableColumn id="3" xr3:uid="{08934F92-A85D-4FCC-AAF8-CE32E5CED8EC}" name="km fim" totalsRowFunction="max" dataDxfId="88" totalsRowDxfId="32" dataCellStyle="Normal"/>
-    <tableColumn id="4" xr3:uid="{53CA1E60-5853-464E-B828-BFEECE0B41CF}" name="km" totalsRowFunction="average" dataDxfId="87" totalsRowDxfId="31" dataCellStyle="Normal">
+    <tableColumn id="1" xr3:uid="{359F37B9-9617-418F-81F4-00F8F142D6C9}" name="data" dataDxfId="90" totalsRowDxfId="89" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{5B407B50-7529-43FD-BA94-ADB3D3459328}" name="km ini" totalsRowFunction="min" dataDxfId="88" totalsRowDxfId="87" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{08934F92-A85D-4FCC-AAF8-CE32E5CED8EC}" name="km fim" totalsRowFunction="max" dataDxfId="86" totalsRowDxfId="85" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{53CA1E60-5853-464E-B828-BFEECE0B41CF}" name="km" totalsRowFunction="average" dataDxfId="84" totalsRowDxfId="83" dataCellStyle="Normal">
       <calculatedColumnFormula>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{57D64090-3B83-46A5-A370-00C001CC3A22}" name="valor" totalsRowFunction="average" dataDxfId="86" totalsRowDxfId="30" dataCellStyle="Normal"/>
-    <tableColumn id="6" xr3:uid="{EA59C9C8-15C0-4DBA-A159-0B2B8BDC9698}" name="preço" totalsRowFunction="average" dataDxfId="85" totalsRowDxfId="29" dataCellStyle="Normal"/>
-    <tableColumn id="7" xr3:uid="{051A8F7F-91AF-40BD-BAE4-405E1FF53171}" name="litros" totalsRowFunction="average" dataDxfId="84" totalsRowDxfId="28" dataCellStyle="Normal">
+    <tableColumn id="5" xr3:uid="{57D64090-3B83-46A5-A370-00C001CC3A22}" name="valor" totalsRowFunction="average" dataDxfId="82" totalsRowDxfId="81" dataCellStyle="Normal"/>
+    <tableColumn id="6" xr3:uid="{EA59C9C8-15C0-4DBA-A159-0B2B8BDC9698}" name="preço" totalsRowFunction="average" dataDxfId="80" totalsRowDxfId="79" dataCellStyle="Normal"/>
+    <tableColumn id="7" xr3:uid="{051A8F7F-91AF-40BD-BAE4-405E1FF53171}" name="litros" totalsRowFunction="average" dataDxfId="78" totalsRowDxfId="77" dataCellStyle="Normal">
       <calculatedColumnFormula>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2505,21 +2506,21 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{F4E8D315-69AB-466D-B82A-109C081FA398}" name="G_2018" displayName="G_2018" ref="A1:G35" totalsRowCount="1" tableBorderDxfId="83" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{F4E8D315-69AB-466D-B82A-109C081FA398}" name="G_2018" displayName="G_2018" ref="A1:G35" totalsRowCount="1" tableBorderDxfId="76" dataCellStyle="Normal">
   <autoFilter ref="A1:G34" xr:uid="{1BB8EF35-A1C5-4DA1-AE25-87B25A5E3E01}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G34">
     <sortCondition ref="A1:A34"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{87768D9A-701C-45DE-920E-7BFC2026C313}" name="data" dataDxfId="82" totalsRowDxfId="41" dataCellStyle="Normal"/>
-    <tableColumn id="2" xr3:uid="{A4AC1043-1F00-40C3-A363-30D037C79583}" name="km ini" totalsRowFunction="min" dataDxfId="81" totalsRowDxfId="40" dataCellStyle="Normal"/>
-    <tableColumn id="3" xr3:uid="{0E5B3C2A-0DDB-40AB-96C9-1BE6758D96EA}" name="km fim" totalsRowFunction="max" dataDxfId="80" totalsRowDxfId="39" dataCellStyle="Normal"/>
-    <tableColumn id="4" xr3:uid="{60E1EC99-F30E-4DB1-A214-9390FFB3442F}" name="km" totalsRowFunction="sum" dataDxfId="79" totalsRowDxfId="38" dataCellStyle="Normal">
+    <tableColumn id="1" xr3:uid="{87768D9A-701C-45DE-920E-7BFC2026C313}" name="data" dataDxfId="75" totalsRowDxfId="74" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{A4AC1043-1F00-40C3-A363-30D037C79583}" name="km ini" totalsRowFunction="min" dataDxfId="73" totalsRowDxfId="72" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{0E5B3C2A-0DDB-40AB-96C9-1BE6758D96EA}" name="km fim" totalsRowFunction="max" dataDxfId="71" totalsRowDxfId="70" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{60E1EC99-F30E-4DB1-A214-9390FFB3442F}" name="km" totalsRowFunction="sum" dataDxfId="69" totalsRowDxfId="68" dataCellStyle="Normal">
       <calculatedColumnFormula>G_2018[[#This Row],[km fim]]-G_2018[[#This Row],[km ini]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{E2DE9863-217C-4C16-A993-DD1B8782AA27}" name="valor" totalsRowFunction="sum" dataDxfId="78" totalsRowDxfId="37" dataCellStyle="Normal"/>
-    <tableColumn id="6" xr3:uid="{1150101B-6F63-4A48-ADE5-664BEE3344D7}" name="preço" totalsRowFunction="average" dataDxfId="77" totalsRowDxfId="36" dataCellStyle="Normal"/>
-    <tableColumn id="7" xr3:uid="{B21A0A4B-7255-42FE-8E4A-B5C699477A83}" name="litros" totalsRowFunction="sum" dataDxfId="76" totalsRowDxfId="35" dataCellStyle="Normal">
+    <tableColumn id="5" xr3:uid="{E2DE9863-217C-4C16-A993-DD1B8782AA27}" name="valor" totalsRowFunction="sum" dataDxfId="67" totalsRowDxfId="66" dataCellStyle="Normal"/>
+    <tableColumn id="6" xr3:uid="{1150101B-6F63-4A48-ADE5-664BEE3344D7}" name="preço" totalsRowFunction="average" dataDxfId="65" totalsRowDxfId="64" dataCellStyle="Normal"/>
+    <tableColumn id="7" xr3:uid="{B21A0A4B-7255-42FE-8E4A-B5C699477A83}" name="litros" totalsRowFunction="sum" dataDxfId="63" totalsRowDxfId="62" dataCellStyle="Normal">
       <calculatedColumnFormula>G_2018[[#This Row],[valor]]/G_2018[[#This Row],[preço]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2528,19 +2529,21 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8D4DA0DB-1768-4A87-8BAC-0BC3711A5C7C}" name="G_2019" displayName="G_2019" ref="A1:H3" totalsRowCount="1" tableBorderDxfId="75" dataCellStyle="Normal">
-  <autoFilter ref="A1:H2" xr:uid="{1BB8EF35-A1C5-4DA1-AE25-87B25A5E3E01}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8D4DA0DB-1768-4A87-8BAC-0BC3711A5C7C}" name="G_2019" displayName="G_2019" ref="A1:H4" totalsRowCount="1" tableBorderDxfId="61" dataCellStyle="Normal">
+  <autoFilter ref="A1:H3" xr:uid="{1BB8EF35-A1C5-4DA1-AE25-87B25A5E3E01}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{0CA686D4-5E48-4762-9327-629FEB3146B0}" name="data" dataDxfId="74" totalsRowDxfId="27" dataCellStyle="Normal"/>
-    <tableColumn id="8" xr3:uid="{C4E19C72-93B2-4837-B485-42F08F5ECEBF}" name="hora" totalsRowFunction="average" dataDxfId="73" totalsRowDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{A24831E8-3DCE-4E6E-B7B2-ED8EF5796F22}" name="km ini" totalsRowFunction="min" dataDxfId="72" totalsRowDxfId="25" dataCellStyle="Normal"/>
-    <tableColumn id="3" xr3:uid="{8E05EFCC-4A39-40D2-A035-793B1708027E}" name="km fim" totalsRowFunction="max" dataDxfId="71" totalsRowDxfId="24" dataCellStyle="Normal"/>
-    <tableColumn id="4" xr3:uid="{76C9D5C3-4417-44BE-9E71-9E5CAEE19B17}" name="km" totalsRowFunction="average" dataDxfId="70" totalsRowDxfId="23" dataCellStyle="Normal">
+    <tableColumn id="1" xr3:uid="{0CA686D4-5E48-4762-9327-629FEB3146B0}" name="data" dataDxfId="60" totalsRowDxfId="7" dataCellStyle="Normal"/>
+    <tableColumn id="8" xr3:uid="{C4E19C72-93B2-4837-B485-42F08F5ECEBF}" name="hora" totalsRowFunction="average" dataDxfId="59" totalsRowDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{A24831E8-3DCE-4E6E-B7B2-ED8EF5796F22}" name="km ini" totalsRowFunction="min" dataDxfId="58" totalsRowDxfId="5" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{8E05EFCC-4A39-40D2-A035-793B1708027E}" name="km fim" totalsRowFunction="max" dataDxfId="8" totalsRowDxfId="4" dataCellStyle="Normal">
+      <calculatedColumnFormula>C3</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{76C9D5C3-4417-44BE-9E71-9E5CAEE19B17}" name="km" totalsRowFunction="average" dataDxfId="57" totalsRowDxfId="3" dataCellStyle="Normal">
       <calculatedColumnFormula>G_2019[[#This Row],[km fim]]-G_2019[[#This Row],[km ini]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{98628619-61B6-4221-97AB-017207261795}" name="valor" totalsRowFunction="average" dataDxfId="69" totalsRowDxfId="22" dataCellStyle="Normal"/>
-    <tableColumn id="6" xr3:uid="{7269D260-3F9C-4B41-A43E-C2AC48A542E9}" name="preço" totalsRowFunction="average" dataDxfId="68" totalsRowDxfId="21" dataCellStyle="Normal"/>
-    <tableColumn id="7" xr3:uid="{24937D08-B4ED-442D-9694-24626A006DBC}" name="litros" totalsRowFunction="average" dataDxfId="67" totalsRowDxfId="20" dataCellStyle="Normal">
+    <tableColumn id="5" xr3:uid="{98628619-61B6-4221-97AB-017207261795}" name="valor" totalsRowFunction="average" dataDxfId="56" totalsRowDxfId="2" dataCellStyle="Normal"/>
+    <tableColumn id="6" xr3:uid="{7269D260-3F9C-4B41-A43E-C2AC48A542E9}" name="preço" totalsRowFunction="average" dataDxfId="55" totalsRowDxfId="1" dataCellStyle="Normal"/>
+    <tableColumn id="7" xr3:uid="{24937D08-B4ED-442D-9694-24626A006DBC}" name="litros" totalsRowFunction="average" dataDxfId="54" totalsRowDxfId="0" dataCellStyle="Normal">
       <calculatedColumnFormula>G_2019[[#This Row],[valor]]/G_2019[[#This Row],[preço]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2549,32 +2552,32 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{8349ADA9-D7F2-436E-8D85-D66EBD35D289}" name="Viagens" displayName="Viagens" ref="A1:N27" totalsRowCount="1" headerRowDxfId="66" dataDxfId="65" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{8349ADA9-D7F2-436E-8D85-D66EBD35D289}" name="Viagens" displayName="Viagens" ref="A1:N27" totalsRowCount="1" headerRowDxfId="53" dataDxfId="52" dataCellStyle="Normal">
   <autoFilter ref="A1:N26" xr:uid="{91B7E7A6-3E74-4A30-BB6B-4EEBB1B73D97}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N24">
     <sortCondition ref="A1:A24"/>
   </sortState>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{943F9AB6-E0CE-4D16-8D0D-D6CD20DB4E3D}" name="começo/fim da viagem" dataDxfId="64" totalsRowDxfId="19" dataCellStyle="Normal"/>
-    <tableColumn id="8" xr3:uid="{8B7A80CD-1D41-4286-9AE6-30D2E4669859}" name="hora ini" totalsRowFunction="average" dataDxfId="63" totalsRowDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{F79333F5-CCDB-4E3B-A65F-7954CDBED5AC}" name="hora fim" totalsRowFunction="average" dataDxfId="62" totalsRowDxfId="17" dataCellStyle="Normal"/>
-    <tableColumn id="14" xr3:uid="{595493D2-D75D-41DE-91AD-11281D062CA9}" name="horas" totalsRowFunction="average" dataDxfId="61" totalsRowDxfId="16">
+    <tableColumn id="1" xr3:uid="{943F9AB6-E0CE-4D16-8D0D-D6CD20DB4E3D}" name="começo/fim da viagem" dataDxfId="51" totalsRowDxfId="50" dataCellStyle="Normal"/>
+    <tableColumn id="8" xr3:uid="{8B7A80CD-1D41-4286-9AE6-30D2E4669859}" name="hora ini" totalsRowFunction="average" dataDxfId="49" totalsRowDxfId="48"/>
+    <tableColumn id="2" xr3:uid="{F79333F5-CCDB-4E3B-A65F-7954CDBED5AC}" name="hora fim" totalsRowFunction="average" dataDxfId="47" totalsRowDxfId="46" dataCellStyle="Normal"/>
+    <tableColumn id="14" xr3:uid="{595493D2-D75D-41DE-91AD-11281D062CA9}" name="horas" totalsRowFunction="average" dataDxfId="45" totalsRowDxfId="44">
       <calculatedColumnFormula>Viagens[[#This Row],[hora fim]]-Viagens[[#This Row],[hora ini]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{254E01DF-E2FE-4492-9476-CAE2652CB982}" name="km ini" totalsRowFunction="min" dataDxfId="60" totalsRowDxfId="15" dataCellStyle="Normal"/>
-    <tableColumn id="4" xr3:uid="{B85A4F29-C8A5-4E05-A6C0-542D9DF6CB11}" name="km fim" totalsRowFunction="max" dataDxfId="59" totalsRowDxfId="14" dataCellStyle="Normal"/>
-    <tableColumn id="11" xr3:uid="{B2109811-F1C6-4D1C-9E75-85349990007B}" name="km" totalsRowFunction="average" dataDxfId="58" totalsRowDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{A504539A-42D5-4734-99A3-1C79CBD10ADD}" name="L ini" totalsRowFunction="average" dataDxfId="57" totalsRowDxfId="12" dataCellStyle="Normal"/>
-    <tableColumn id="6" xr3:uid="{5168ADB9-DA6A-4473-9847-62692963BE45}" name="L fim" totalsRowFunction="average" dataDxfId="56" totalsRowDxfId="11" dataCellStyle="Normal"/>
-    <tableColumn id="7" xr3:uid="{7A851BFB-669C-4DCC-AB14-044369ECFE05}" name="L" totalsRowFunction="average" dataDxfId="55" totalsRowDxfId="10" dataCellStyle="Normal">
+    <tableColumn id="3" xr3:uid="{254E01DF-E2FE-4492-9476-CAE2652CB982}" name="km ini" totalsRowFunction="min" dataDxfId="43" totalsRowDxfId="42" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{B85A4F29-C8A5-4E05-A6C0-542D9DF6CB11}" name="km fim" totalsRowFunction="max" dataDxfId="41" totalsRowDxfId="40" dataCellStyle="Normal"/>
+    <tableColumn id="11" xr3:uid="{B2109811-F1C6-4D1C-9E75-85349990007B}" name="km" totalsRowFunction="average" dataDxfId="39" totalsRowDxfId="38"/>
+    <tableColumn id="5" xr3:uid="{A504539A-42D5-4734-99A3-1C79CBD10ADD}" name="L ini" totalsRowFunction="average" dataDxfId="37" totalsRowDxfId="36" dataCellStyle="Normal"/>
+    <tableColumn id="6" xr3:uid="{5168ADB9-DA6A-4473-9847-62692963BE45}" name="L fim" totalsRowFunction="average" dataDxfId="35" totalsRowDxfId="34" dataCellStyle="Normal"/>
+    <tableColumn id="7" xr3:uid="{7A851BFB-669C-4DCC-AB14-044369ECFE05}" name="L" totalsRowFunction="average" dataDxfId="33" totalsRowDxfId="32" dataCellStyle="Normal">
       <calculatedColumnFormula>Viagens[[#This Row],[L ini]]-Viagens[[#This Row],[L fim]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{B57F3DE7-B27D-49F3-962C-E191C7F39D71}" name="consumo" totalsRowFunction="average" dataDxfId="54" totalsRowDxfId="9" dataCellStyle="Normal"/>
-    <tableColumn id="10" xr3:uid="{DF9137D7-756E-494C-BCFA-15BA5349D04E}" name="preço" totalsRowFunction="average" dataDxfId="53" totalsRowDxfId="8" dataCellStyle="Normal"/>
-    <tableColumn id="12" xr3:uid="{9BBF57AB-EB30-47D6-BE16-889D42E241F3}" name="custo km" totalsRowFunction="average" dataDxfId="52" totalsRowDxfId="7" dataCellStyle="Normal">
+    <tableColumn id="9" xr3:uid="{B57F3DE7-B27D-49F3-962C-E191C7F39D71}" name="consumo" totalsRowFunction="average" dataDxfId="31" totalsRowDxfId="30" dataCellStyle="Normal"/>
+    <tableColumn id="10" xr3:uid="{DF9137D7-756E-494C-BCFA-15BA5349D04E}" name="preço" totalsRowFunction="average" dataDxfId="29" totalsRowDxfId="28" dataCellStyle="Normal"/>
+    <tableColumn id="12" xr3:uid="{9BBF57AB-EB30-47D6-BE16-889D42E241F3}" name="custo km" totalsRowFunction="average" dataDxfId="27" totalsRowDxfId="26" dataCellStyle="Normal">
       <calculatedColumnFormula>Viagens[[#This Row],[preço]]/Viagens[[#This Row],[consumo]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{1573DC55-E347-4C35-96EE-F132F6B74719}" name="custo total" totalsRowFunction="average" dataDxfId="51" totalsRowDxfId="6" dataCellStyle="Normal">
+    <tableColumn id="13" xr3:uid="{1573DC55-E347-4C35-96EE-F132F6B74719}" name="custo total" totalsRowFunction="average" dataDxfId="25" totalsRowDxfId="24" dataCellStyle="Normal">
       <calculatedColumnFormula>Viagens[[#This Row],[L]]*Viagens[[#This Row],[preço]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2583,17 +2586,17 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{137CCE77-ADDB-4C8C-995A-CD5917FE5216}" name="Etanol" displayName="Etanol" ref="A1:F21" totalsRowCount="1" headerRowDxfId="50" dataDxfId="49" totalsRowDxfId="48">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{137CCE77-ADDB-4C8C-995A-CD5917FE5216}" name="Etanol" displayName="Etanol" ref="A1:F21" totalsRowCount="1" headerRowDxfId="23" dataDxfId="22" totalsRowDxfId="21">
   <autoFilter ref="A1:F20" xr:uid="{BA0B08BB-754D-4819-AC93-39A0554A2FF6}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{FC48604D-710C-4BBA-B35F-209384F01637}" name="data" dataDxfId="47" totalsRowDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{A139AE0A-C5DF-448F-8E20-931AD1CD8489}" name="hora" totalsRowFunction="average" dataDxfId="46" totalsRowDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{69037EB3-F18F-4F01-86AC-2F03E2616671}" name="valor" totalsRowFunction="sum" dataDxfId="45" totalsRowDxfId="3">
+    <tableColumn id="1" xr3:uid="{FC48604D-710C-4BBA-B35F-209384F01637}" name="data" dataDxfId="20" totalsRowDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{A139AE0A-C5DF-448F-8E20-931AD1CD8489}" name="hora" totalsRowFunction="average" dataDxfId="18" totalsRowDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{69037EB3-F18F-4F01-86AC-2F03E2616671}" name="valor" totalsRowFunction="sum" dataDxfId="16" totalsRowDxfId="15">
       <calculatedColumnFormula>Etanol[[#This Row],[preço]]*Etanol[[#This Row],[litros]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{D7C46694-E6CD-4C31-9617-E21EBBD7D56E}" name="preço" totalsRowFunction="average" dataDxfId="44" totalsRowDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{F099CEFF-1A72-4F01-8112-F305B04A303E}" name="litros" totalsRowFunction="sum" dataDxfId="43" totalsRowDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{539451E7-6D16-4B47-A7EF-A1E0AFF83B9A}" name="km" dataDxfId="42" totalsRowDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{D7C46694-E6CD-4C31-9617-E21EBBD7D56E}" name="preço" totalsRowFunction="average" dataDxfId="14" totalsRowDxfId="13"/>
+    <tableColumn id="7" xr3:uid="{F099CEFF-1A72-4F01-8112-F305B04A303E}" name="litros" totalsRowFunction="sum" dataDxfId="12" totalsRowDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{539451E7-6D16-4B47-A7EF-A1E0AFF83B9A}" name="km" dataDxfId="10" totalsRowDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -2898,66 +2901,66 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
       <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" customWidth="1"/>
-    <col min="3" max="3" width="6" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" customWidth="1"/>
-    <col min="5" max="5" width="7" customWidth="1"/>
-    <col min="6" max="6" width="6.85546875" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" customWidth="1"/>
-    <col min="9" max="9" width="6" customWidth="1"/>
-    <col min="10" max="10" width="5.7109375" customWidth="1"/>
-    <col min="11" max="11" width="7" customWidth="1"/>
-    <col min="12" max="12" width="6.85546875" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" customWidth="1"/>
-    <col min="15" max="15" width="6" customWidth="1"/>
-    <col min="16" max="16" width="6.28515625" customWidth="1"/>
-    <col min="17" max="17" width="7" customWidth="1"/>
-    <col min="18" max="18" width="7.140625" customWidth="1"/>
-    <col min="19" max="19" width="16.7109375" customWidth="1"/>
-    <col min="20" max="20" width="16.42578125" customWidth="1"/>
-    <col min="21" max="21" width="10.28515625" customWidth="1"/>
+    <col min="1" max="1" width="10.76171875" customWidth="1"/>
+    <col min="2" max="2" width="9.14453125" customWidth="1"/>
+    <col min="3" max="3" width="6.05078125" customWidth="1"/>
+    <col min="4" max="4" width="6.72265625" customWidth="1"/>
+    <col min="5" max="5" width="6.9921875" customWidth="1"/>
+    <col min="6" max="6" width="6.859375" customWidth="1"/>
+    <col min="7" max="7" width="10.76171875" customWidth="1"/>
+    <col min="8" max="8" width="9.14453125" customWidth="1"/>
+    <col min="9" max="9" width="6.05078125" customWidth="1"/>
+    <col min="10" max="10" width="5.6484375" customWidth="1"/>
+    <col min="11" max="11" width="6.9921875" customWidth="1"/>
+    <col min="12" max="12" width="6.859375" customWidth="1"/>
+    <col min="13" max="13" width="10.76171875" customWidth="1"/>
+    <col min="14" max="14" width="9.14453125" customWidth="1"/>
+    <col min="15" max="15" width="6.05078125" customWidth="1"/>
+    <col min="16" max="16" width="6.3203125" customWidth="1"/>
+    <col min="17" max="17" width="6.9921875" customWidth="1"/>
+    <col min="18" max="18" width="7.12890625" customWidth="1"/>
+    <col min="19" max="19" width="16.6796875" customWidth="1"/>
+    <col min="20" max="20" width="16.41015625" customWidth="1"/>
+    <col min="21" max="21" width="10.22265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="164" t="s">
+    <row r="1" spans="1:22">
+      <c r="A1" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="164"/>
-      <c r="C1" s="164"/>
-      <c r="D1" s="164"/>
-      <c r="E1" s="164"/>
-      <c r="F1" s="164"/>
-      <c r="G1" s="164" t="s">
+      <c r="B1" s="166"/>
+      <c r="C1" s="166"/>
+      <c r="D1" s="166"/>
+      <c r="E1" s="166"/>
+      <c r="F1" s="166"/>
+      <c r="G1" s="166" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="164"/>
-      <c r="I1" s="164"/>
-      <c r="J1" s="164"/>
-      <c r="K1" s="164"/>
-      <c r="L1" s="164"/>
-      <c r="M1" s="164" t="s">
+      <c r="H1" s="166"/>
+      <c r="I1" s="166"/>
+      <c r="J1" s="166"/>
+      <c r="K1" s="166"/>
+      <c r="L1" s="166"/>
+      <c r="M1" s="166" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="164"/>
-      <c r="O1" s="164"/>
-      <c r="P1" s="164"/>
-      <c r="Q1" s="164"/>
-      <c r="R1" s="164"/>
+      <c r="N1" s="166"/>
+      <c r="O1" s="166"/>
+      <c r="P1" s="166"/>
+      <c r="Q1" s="166"/>
+      <c r="R1" s="166"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="6"/>
       <c r="V1" s="6"/>
     </row>
-    <row r="2" spans="1:22" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" s="6" customFormat="1">
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
@@ -3020,7 +3023,7 @@
         <v>1767.03</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22">
       <c r="A3" s="19">
         <v>42726</v>
       </c>
@@ -3087,7 +3090,7 @@
       <c r="U3" s="6"/>
       <c r="V3" s="6"/>
     </row>
-    <row r="4" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22">
       <c r="A4" s="2">
         <v>42728</v>
       </c>
@@ -3154,7 +3157,7 @@
       <c r="U4" s="6"/>
       <c r="V4" s="6"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22">
       <c r="A5" s="2">
         <v>42733</v>
       </c>
@@ -3223,7 +3226,7 @@
       <c r="U5" s="6"/>
       <c r="V5" s="6"/>
     </row>
-    <row r="6" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" ht="15" customHeight="1">
       <c r="A6" s="17">
         <v>42737</v>
       </c>
@@ -3285,7 +3288,7 @@
       <c r="U6" s="6"/>
       <c r="V6" s="6"/>
     </row>
-    <row r="7" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" ht="15" customHeight="1">
       <c r="A7" s="2">
         <v>42744</v>
       </c>
@@ -3339,7 +3342,7 @@
       <c r="U7" s="6"/>
       <c r="V7" s="6"/>
     </row>
-    <row r="8" spans="1:22" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="A8" s="67"/>
       <c r="B8" s="68">
         <f>SUM(B4:B7)</f>
@@ -3395,7 +3398,7 @@
       </c>
       <c r="R8" s="73"/>
     </row>
-    <row r="9" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" ht="18" customHeight="1">
       <c r="A9" s="61"/>
       <c r="B9" s="62">
         <f>SUM(B10:B14,H14)</f>
@@ -3455,7 +3458,7 @@
       <c r="U9" s="6"/>
       <c r="V9" s="6"/>
     </row>
-    <row r="10" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" ht="15" customHeight="1">
       <c r="A10" s="2">
         <v>42848</v>
       </c>
@@ -3494,7 +3497,7 @@
       <c r="U10" s="6"/>
       <c r="V10" s="6"/>
     </row>
-    <row r="11" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" ht="15" customHeight="1">
       <c r="A11" s="17">
         <v>42841</v>
       </c>
@@ -3533,7 +3536,7 @@
       <c r="U11" s="6"/>
       <c r="V11" s="6"/>
     </row>
-    <row r="12" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" ht="15" customHeight="1">
       <c r="A12" s="2">
         <v>42841</v>
       </c>
@@ -3577,7 +3580,7 @@
       <c r="U12" s="6"/>
       <c r="V12" s="6"/>
     </row>
-    <row r="13" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" ht="15" customHeight="1">
       <c r="A13" s="2">
         <v>42839</v>
       </c>
@@ -3646,7 +3649,7 @@
       <c r="U13" s="6"/>
       <c r="V13" s="6"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22">
       <c r="A14" s="17">
         <v>42838</v>
       </c>
@@ -3708,7 +3711,7 @@
       <c r="U14" s="6"/>
       <c r="V14" s="6"/>
     </row>
-    <row r="15" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22">
       <c r="A15" s="8" t="s">
         <v>3</v>
       </c>
@@ -3768,49 +3771,49 @@
       <c r="U15" s="6"/>
       <c r="V15" s="6"/>
     </row>
-    <row r="16" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="164" t="s">
+    <row r="16" spans="1:22">
+      <c r="A16" s="166" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="164"/>
-      <c r="C16" s="164"/>
-      <c r="D16" s="164"/>
-      <c r="E16" s="164"/>
-      <c r="F16" s="164" t="s">
+      <c r="B16" s="166"/>
+      <c r="C16" s="166"/>
+      <c r="D16" s="166"/>
+      <c r="E16" s="166"/>
+      <c r="F16" s="166" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="164"/>
-      <c r="H16" s="164"/>
-      <c r="I16" s="164"/>
-      <c r="J16" s="164"/>
-      <c r="K16" s="164"/>
-      <c r="L16" s="164"/>
-      <c r="M16" s="164" t="s">
+      <c r="G16" s="166"/>
+      <c r="H16" s="166"/>
+      <c r="I16" s="166"/>
+      <c r="J16" s="166"/>
+      <c r="K16" s="166"/>
+      <c r="L16" s="166"/>
+      <c r="M16" s="166" t="s">
         <v>15</v>
       </c>
-      <c r="N16" s="164"/>
-      <c r="O16" s="164"/>
-      <c r="P16" s="164"/>
-      <c r="Q16" s="164"/>
-      <c r="R16" s="164"/>
+      <c r="N16" s="166"/>
+      <c r="O16" s="166"/>
+      <c r="P16" s="166"/>
+      <c r="Q16" s="166"/>
+      <c r="R16" s="166"/>
       <c r="S16" s="6"/>
       <c r="T16" s="6"/>
       <c r="U16" s="6"/>
       <c r="V16" s="6"/>
     </row>
-    <row r="17" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:3" ht="15.75" customHeight="1">
       <c r="C17" s="6"/>
     </row>
-    <row r="18" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:3" ht="15" customHeight="1">
       <c r="C18" s="6"/>
     </row>
-    <row r="19" spans="3:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:3" ht="18" customHeight="1">
       <c r="C19" s="6"/>
     </row>
-    <row r="20" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:3" ht="15.75" customHeight="1">
       <c r="C20" s="6"/>
     </row>
-    <row r="21" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:3" ht="15" customHeight="1">
       <c r="C21" s="6"/>
     </row>
   </sheetData>
@@ -3836,55 +3839,55 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}">
       <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.5703125" customWidth="1"/>
-    <col min="6" max="6" width="7.28515625" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.140625" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.28515625" customWidth="1"/>
-    <col min="17" max="17" width="7.28515625" customWidth="1"/>
-    <col min="19" max="19" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.76171875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.3203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.58984375" customWidth="1"/>
+    <col min="6" max="6" width="7.26171875" customWidth="1"/>
+    <col min="7" max="7" width="10.76171875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.45703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.859375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.203125" customWidth="1"/>
+    <col min="13" max="13" width="10.76171875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.3203125" customWidth="1"/>
+    <col min="17" max="17" width="7.26171875" customWidth="1"/>
+    <col min="19" max="19" width="16.8125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="164" t="s">
+    <row r="1" spans="1:20">
+      <c r="A1" s="166" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="164"/>
-      <c r="C1" s="164"/>
-      <c r="D1" s="164"/>
-      <c r="E1" s="164"/>
-      <c r="F1" s="164"/>
-      <c r="G1" s="164" t="s">
+      <c r="B1" s="166"/>
+      <c r="C1" s="166"/>
+      <c r="D1" s="166"/>
+      <c r="E1" s="166"/>
+      <c r="F1" s="166"/>
+      <c r="G1" s="166" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="164"/>
-      <c r="I1" s="164"/>
-      <c r="J1" s="164"/>
-      <c r="K1" s="164"/>
-      <c r="L1" s="164"/>
-      <c r="M1" s="164" t="s">
+      <c r="H1" s="166"/>
+      <c r="I1" s="166"/>
+      <c r="J1" s="166"/>
+      <c r="K1" s="166"/>
+      <c r="L1" s="166"/>
+      <c r="M1" s="166" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="164"/>
-      <c r="O1" s="164"/>
-      <c r="P1" s="164"/>
-      <c r="Q1" s="164"/>
-      <c r="R1" s="164"/>
+      <c r="N1" s="166"/>
+      <c r="O1" s="166"/>
+      <c r="P1" s="166"/>
+      <c r="Q1" s="166"/>
+      <c r="R1" s="166"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
     </row>
-    <row r="2" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20">
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
@@ -3947,7 +3950,7 @@
         <v>1339.05</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20">
       <c r="A3" s="2">
         <v>42940</v>
       </c>
@@ -4018,7 +4021,7 @@
         <v>299.38911804244378</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20">
       <c r="A4" s="2">
         <v>42946</v>
       </c>
@@ -4083,7 +4086,7 @@
         <v>3282</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20">
       <c r="A5" s="2">
         <v>42946</v>
       </c>
@@ -4133,7 +4136,7 @@
         <v>4.472607450649444</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20">
       <c r="A6" s="17">
         <v>42946</v>
       </c>
@@ -4178,7 +4181,7 @@
       <c r="S6" s="6"/>
       <c r="T6" s="6"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="5"/>
@@ -4200,7 +4203,7 @@
       <c r="S7" s="6"/>
       <c r="T7" s="6"/>
     </row>
-    <row r="8" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20">
       <c r="A8" s="67"/>
       <c r="B8" s="68">
         <f>SUM(B3:B7)</f>
@@ -4255,7 +4258,7 @@
       <c r="S8" s="6"/>
       <c r="T8" s="6"/>
     </row>
-    <row r="9" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20">
       <c r="A9" s="61"/>
       <c r="B9" s="62">
         <f>SUM(B10:B11)</f>
@@ -4313,7 +4316,7 @@
       <c r="S9" s="6"/>
       <c r="T9" s="6"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20">
       <c r="A10" s="2">
         <v>43020</v>
       </c>
@@ -4364,7 +4367,7 @@
       <c r="S10" s="6"/>
       <c r="T10" s="6"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20">
       <c r="A11" s="2">
         <v>43034</v>
       </c>
@@ -4422,7 +4425,7 @@
       <c r="S11" s="6"/>
       <c r="T11" s="6"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20">
       <c r="A12" s="2"/>
       <c r="B12" s="3"/>
       <c r="C12" s="5"/>
@@ -4449,7 +4452,7 @@
       <c r="S12" s="6"/>
       <c r="T12" s="6"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20">
       <c r="A13" s="2"/>
       <c r="B13" s="3"/>
       <c r="C13" s="5"/>
@@ -4483,7 +4486,7 @@
       <c r="S13" s="6"/>
       <c r="T13" s="6"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20">
       <c r="A14" s="2"/>
       <c r="B14" s="3"/>
       <c r="C14" s="5"/>
@@ -4514,7 +4517,7 @@
       <c r="S14" s="6"/>
       <c r="T14" s="6"/>
     </row>
-    <row r="15" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20">
       <c r="A15" s="8" t="s">
         <v>3</v>
       </c>
@@ -4572,35 +4575,35 @@
       <c r="S15" s="6"/>
       <c r="T15" s="6"/>
     </row>
-    <row r="16" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="164" t="s">
+    <row r="16" spans="1:20">
+      <c r="A16" s="166" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="164"/>
-      <c r="C16" s="164"/>
-      <c r="D16" s="164"/>
-      <c r="E16" s="164"/>
-      <c r="F16" s="164" t="s">
+      <c r="B16" s="166"/>
+      <c r="C16" s="166"/>
+      <c r="D16" s="166"/>
+      <c r="E16" s="166"/>
+      <c r="F16" s="166" t="s">
         <v>21</v>
       </c>
-      <c r="G16" s="164"/>
-      <c r="H16" s="164"/>
-      <c r="I16" s="164"/>
-      <c r="J16" s="164"/>
-      <c r="K16" s="164"/>
-      <c r="L16" s="164"/>
-      <c r="M16" s="164" t="s">
+      <c r="G16" s="166"/>
+      <c r="H16" s="166"/>
+      <c r="I16" s="166"/>
+      <c r="J16" s="166"/>
+      <c r="K16" s="166"/>
+      <c r="L16" s="166"/>
+      <c r="M16" s="166" t="s">
         <v>22</v>
       </c>
-      <c r="N16" s="164"/>
-      <c r="O16" s="164"/>
-      <c r="P16" s="164"/>
-      <c r="Q16" s="164"/>
-      <c r="R16" s="164"/>
+      <c r="N16" s="166"/>
+      <c r="O16" s="166"/>
+      <c r="P16" s="166"/>
+      <c r="Q16" s="166"/>
+      <c r="R16" s="166"/>
       <c r="S16" s="6"/>
       <c r="T16" s="6"/>
     </row>
-    <row r="18" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="10:10">
       <c r="J18" s="99"/>
     </row>
   </sheetData>
@@ -4626,24 +4629,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82D5A34F-EB28-41C8-A1E3-151E9E71FB07}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView workbookViewId="0" xr3:uid="{8D3781B8-FEA9-57BA-A236-8A0110A48394}">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="6"/>
-    <col min="3" max="3" width="9.28515625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="6"/>
-    <col min="5" max="5" width="9.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.140625" style="6"/>
-    <col min="8" max="8" width="9" style="6" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="12.10546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="9.14453125" style="6"/>
+    <col min="3" max="3" width="9.28125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="9.14453125" style="6"/>
+    <col min="5" max="5" width="9.4140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.14453125" style="6"/>
+    <col min="8" max="8" width="9.01171875" style="6" customWidth="1"/>
+    <col min="9" max="9" width="10.76171875" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.14453125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="6" t="s">
         <v>3</v>
       </c>
@@ -4666,7 +4669,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="98">
         <v>43093</v>
       </c>
@@ -4691,8 +4694,8 @@
         <v>28.776978417266186</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="165"/>
+    <row r="3" spans="1:7">
+      <c r="A3" s="164"/>
       <c r="B3" s="133">
         <f>SUBTOTAL(105,G_20184[km ini])</f>
         <v>71683</v>
@@ -4731,20 +4734,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB98AEA6-30EA-4D94-808F-A65CE5265EE7}">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
+    <sheetView topLeftCell="A23" workbookViewId="0" xr3:uid="{57EF5C90-13A6-5C11-B0DA-7A714F44E738}">
       <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.140625" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.10546875" customWidth="1"/>
+    <col min="3" max="3" width="9.28125" customWidth="1"/>
+    <col min="5" max="5" width="10.76171875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.01171875" customWidth="1"/>
+    <col min="9" max="9" width="10.76171875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="6" customFormat="1">
       <c r="A1" s="6" t="s">
         <v>3</v>
       </c>
@@ -4767,7 +4770,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="98">
         <v>43105</v>
       </c>
@@ -4792,7 +4795,7 @@
         <v>28.639618138424819</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="98">
         <v>43115</v>
       </c>
@@ -4818,7 +4821,7 @@
         <v>28.639618138424819</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="98">
         <v>43119</v>
       </c>
@@ -4843,7 +4846,7 @@
         <v>33.799533799533798</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="98">
         <v>43122</v>
       </c>
@@ -4869,7 +4872,7 @@
         <v>27.972027972027973</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="98">
         <v>43128</v>
       </c>
@@ -4894,7 +4897,7 @@
         <v>20.049180327868854</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" s="98">
         <v>43136</v>
       </c>
@@ -4920,7 +4923,7 @@
         <v>26.726057906458795</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" s="98">
         <v>43148</v>
       </c>
@@ -4945,7 +4948,7 @@
         <v>38.982182628062361</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="98">
         <v>43158</v>
       </c>
@@ -4971,7 +4974,7 @@
         <v>29.339853300733498</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" s="98">
         <v>43186</v>
       </c>
@@ -4997,7 +5000,7 @@
         <v>34.168564920273354</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" s="98">
         <v>43207</v>
       </c>
@@ -5022,7 +5025,7 @@
         <v>18.648018648018649</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" s="98">
         <v>43222</v>
       </c>
@@ -5047,7 +5050,7 @@
         <v>8.908685968819599</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" s="98">
         <v>43237</v>
       </c>
@@ -5073,7 +5076,7 @@
         <v>17.429193899782135</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" s="98">
         <v>43243</v>
       </c>
@@ -5099,7 +5102,7 @@
         <v>13.363028953229398</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" s="98">
         <v>43271</v>
       </c>
@@ -5125,7 +5128,7 @@
         <v>12.793176972281449</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" s="98">
         <v>43285</v>
       </c>
@@ -5151,7 +5154,7 @@
         <v>12.526096033402922</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" s="98">
         <v>43286</v>
       </c>
@@ -5177,7 +5180,7 @@
         <v>29.156862745098042</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" s="98">
         <v>43289</v>
       </c>
@@ -5202,7 +5205,7 @@
         <v>32.782881002087684</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" s="138">
         <v>43306</v>
       </c>
@@ -5227,7 +5230,7 @@
         <v>22.271714922048996</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20" s="98">
         <v>43318</v>
       </c>
@@ -5253,7 +5256,7 @@
         <v>22.271714922048996</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" s="98">
         <v>43333</v>
       </c>
@@ -5279,7 +5282,7 @@
         <v>22.779043280182233</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22" s="98">
         <v>43340</v>
       </c>
@@ -5305,7 +5308,7 @@
         <v>18.648018648018649</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" s="136">
         <v>43349</v>
       </c>
@@ -5331,7 +5334,7 @@
         <v>13.986013986013987</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="A24" s="136">
         <v>43352</v>
       </c>
@@ -5356,7 +5359,7 @@
         <v>21.419624217118997</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="A25" s="136">
         <v>43355</v>
       </c>
@@ -5381,7 +5384,7 @@
         <v>37.789144050104383</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7">
       <c r="A26" s="136">
         <v>43373</v>
       </c>
@@ -5407,7 +5410,7 @@
         <v>21.786492374727668</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7">
       <c r="A27" s="136">
         <v>43384</v>
       </c>
@@ -5433,7 +5436,7 @@
         <v>12.526096033402922</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7">
       <c r="A28" s="136">
         <v>43386</v>
       </c>
@@ -5458,7 +5461,7 @@
         <v>29.999999999999996</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7">
       <c r="A29" s="136">
         <v>43399</v>
       </c>
@@ -5483,7 +5486,7 @@
         <v>12.024048096192384</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7">
       <c r="A30" s="136">
         <v>43410</v>
       </c>
@@ -5509,7 +5512,7 @@
         <v>24.048096192384769</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7">
       <c r="A31" s="136">
         <v>43418</v>
       </c>
@@ -5535,7 +5538,7 @@
         <v>17.057569296375267</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7">
       <c r="A32" s="136">
         <v>43426</v>
       </c>
@@ -5561,7 +5564,7 @@
         <v>12.320328542094456</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7">
       <c r="A33" s="136">
         <v>43433</v>
       </c>
@@ -5587,7 +5590,7 @@
         <v>13.071895424836601</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7">
       <c r="A34" s="136">
         <v>43442</v>
       </c>
@@ -5613,8 +5616,8 @@
         <v>16.701461377870565</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="165"/>
+    <row r="35" spans="1:7">
+      <c r="A35" s="164"/>
       <c r="B35" s="133">
         <f>SUBTOTAL(105,G_2018[km ini])</f>
         <v>71872</v>
@@ -5651,26 +5654,26 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B43933D-4CC7-4766-9778-D69CB537A172}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{8AA1B97D-5C90-5FD5-A4E7-F81983934B23}">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="6"/>
-    <col min="5" max="5" width="9.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.140625" style="6"/>
-    <col min="8" max="8" width="9" style="6" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="12.10546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="11.8359375" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="9.14453125" style="6"/>
+    <col min="5" max="5" width="9.4140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.14453125" style="6"/>
+    <col min="8" max="8" width="9.01171875" style="6" customWidth="1"/>
+    <col min="9" max="9" width="10.76171875" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.14453125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="6" t="s">
         <v>3</v>
       </c>
@@ -5696,18 +5699,23 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="136">
         <v>43476</v>
       </c>
       <c r="B2" s="149">
         <v>0.70833333333333337</v>
       </c>
-      <c r="C2" s="133"/>
-      <c r="D2" s="133"/>
+      <c r="C2" s="133">
+        <v>81120</v>
+      </c>
+      <c r="D2" s="133">
+        <f t="shared" ref="D2:D3" si="0">C3</f>
+        <v>81216</v>
+      </c>
       <c r="E2" s="111">
         <f>G_2019[[#This Row],[km fim]]-G_2019[[#This Row],[km ini]]</f>
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="F2" s="145">
         <v>60</v>
@@ -5720,35 +5728,64 @@
         <v>14.457831325301203</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="165"/>
+    <row r="3" spans="1:8">
+      <c r="A3" s="136">
+        <v>43487</v>
+      </c>
       <c r="B3" s="149">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="C3" s="133">
+        <v>81216</v>
+      </c>
+      <c r="D3" s="133">
+        <f t="shared" si="0"/>
+        <v>81120</v>
+      </c>
+      <c r="E3" s="111">
+        <f>G_2019[[#This Row],[km fim]]-G_2019[[#This Row],[km ini]]</f>
+        <v>-96</v>
+      </c>
+      <c r="F3" s="145">
+        <v>60</v>
+      </c>
+      <c r="G3" s="137">
+        <v>4.25</v>
+      </c>
+      <c r="H3" s="117">
+        <f>G_2019[[#This Row],[valor]]/G_2019[[#This Row],[preço]]</f>
+        <v>14.117647058823529</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="164"/>
+      <c r="B4" s="149">
         <f>SUBTOTAL(101,G_2019[hora])</f>
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="C3" s="133">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="C4" s="133">
         <f>SUBTOTAL(105,G_2019[km ini])</f>
-        <v>0</v>
-      </c>
-      <c r="D3" s="133">
+        <v>81120</v>
+      </c>
+      <c r="D4" s="133">
         <f>SUBTOTAL(104,G_2019[km fim])</f>
-        <v>0</v>
-      </c>
-      <c r="E3" s="111">
+        <v>81216</v>
+      </c>
+      <c r="E4" s="111">
         <f>SUBTOTAL(101,G_2019[km])</f>
         <v>0</v>
       </c>
-      <c r="F3" s="145">
+      <c r="F4" s="145">
         <f>SUBTOTAL(101,G_2019[valor])</f>
         <v>60</v>
       </c>
-      <c r="G3" s="145">
+      <c r="G4" s="145">
         <f>SUBTOTAL(101,G_2019[preço])</f>
-        <v>4.1500000000000004</v>
-      </c>
-      <c r="H3" s="117">
+        <v>4.2</v>
+      </c>
+      <c r="H4" s="117">
         <f>SUBTOTAL(101,G_2019[litros])</f>
-        <v>14.457831325301203</v>
+        <v>14.287739192062366</v>
       </c>
     </row>
   </sheetData>
@@ -5767,29 +5804,29 @@
   </sheetPr>
   <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0" xr3:uid="{C90B185E-D5F8-5C1D-B199-BFB8565D8E33}">
       <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.7109375" customWidth="1"/>
-    <col min="11" max="11" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.76171875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7421875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.4140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.72265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.859375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.53125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.6484375" customWidth="1"/>
+    <col min="11" max="11" width="11.296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.33984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.609375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.56640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
       <c r="A1" s="104" t="s">
         <v>25</v>
       </c>
@@ -5833,7 +5870,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="A2" s="140">
         <v>42737</v>
       </c>
@@ -5876,7 +5913,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="A3" s="140">
         <v>42790</v>
       </c>
@@ -5919,7 +5956,7 @@
         <v>109.29330000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="A4" s="140">
         <v>42806</v>
       </c>
@@ -5962,7 +5999,7 @@
         <v>127.03999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
       <c r="A5" s="140">
         <v>42838</v>
       </c>
@@ -6005,7 +6042,7 @@
         <v>97.25139999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14">
       <c r="A6" s="140">
         <v>42841</v>
       </c>
@@ -6048,7 +6085,7 @@
         <v>113.5491</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14">
       <c r="A7" s="140">
         <v>42935</v>
       </c>
@@ -6091,7 +6128,7 @@
         <v>120.003</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14">
       <c r="A8" s="140">
         <v>42945</v>
       </c>
@@ -6134,7 +6171,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14">
       <c r="A9" s="140">
         <v>42946</v>
       </c>
@@ -6177,7 +6214,7 @@
         <v>109.2</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14">
       <c r="A10" s="140">
         <v>42961</v>
       </c>
@@ -6220,7 +6257,7 @@
         <v>133.7029</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14">
       <c r="A11" s="140">
         <v>43040</v>
       </c>
@@ -6263,7 +6300,7 @@
         <v>104.93840000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14">
       <c r="A12" s="140">
         <v>43044</v>
       </c>
@@ -6306,7 +6343,7 @@
         <v>118.07829999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14">
       <c r="A13" s="140">
         <v>43087</v>
       </c>
@@ -6349,7 +6386,7 @@
         <v>120.38789999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14">
       <c r="A14" s="140">
         <v>43119</v>
       </c>
@@ -6399,7 +6436,7 @@
         <v>114.97199999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14">
       <c r="A15" s="140">
         <v>43128</v>
       </c>
@@ -6449,7 +6486,7 @@
         <v>115.17044</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14">
       <c r="A16" s="140">
         <v>43148</v>
       </c>
@@ -6492,7 +6529,7 @@
         <v>121.14918</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14">
       <c r="A17" s="140">
         <v>43187</v>
       </c>
@@ -6542,7 +6579,7 @@
         <v>114.88000000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14">
       <c r="A18" s="140">
         <v>43190</v>
       </c>
@@ -6592,7 +6629,7 @@
         <v>116.74000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14">
       <c r="A19" s="140">
         <v>43287</v>
       </c>
@@ -6642,7 +6679,7 @@
         <v>128.51999999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14">
       <c r="A20" s="140">
         <v>43289</v>
       </c>
@@ -6692,7 +6729,7 @@
         <v>119.75</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14">
       <c r="A21" s="141">
         <v>43350</v>
       </c>
@@ -6742,7 +6779,7 @@
         <v>124.54</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14">
       <c r="A22" s="141">
         <v>43352</v>
       </c>
@@ -6792,7 +6829,7 @@
         <v>143.69999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14">
       <c r="A23" s="141">
         <v>43385</v>
       </c>
@@ -6842,7 +6879,7 @@
         <v>158.07</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14">
       <c r="A24" s="141">
         <v>43388</v>
       </c>
@@ -6892,7 +6929,7 @@
         <v>138.32000000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14">
       <c r="A25" s="141">
         <v>43456</v>
       </c>
@@ -6942,7 +6979,7 @@
         <v>130.5</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14">
       <c r="A26" s="140">
         <v>43824</v>
       </c>
@@ -6992,8 +7029,8 @@
         <v>134.56</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="165"/>
+    <row r="27" spans="1:14" ht="18" customHeight="1">
+      <c r="A27" s="164"/>
       <c r="B27" s="115">
         <f>SUBTOTAL(101,Viagens[hora ini])</f>
         <v>0.45364583333333336</v>
@@ -7047,7 +7084,7 @@
         <v>121.65263680000002</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14">
       <c r="A28" s="112"/>
       <c r="B28" s="107"/>
       <c r="C28" s="103"/>
@@ -7057,7 +7094,7 @@
       <c r="G28" s="106"/>
       <c r="H28" s="106"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14">
       <c r="A29" s="112"/>
       <c r="B29" s="107"/>
       <c r="C29" s="103"/>
@@ -7067,7 +7104,7 @@
       <c r="G29" s="106"/>
       <c r="H29" s="106"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14">
       <c r="A30" s="113"/>
       <c r="B30" s="113"/>
       <c r="C30" s="106"/>
@@ -7077,7 +7114,7 @@
       <c r="G30" s="106"/>
       <c r="H30" s="106"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14">
       <c r="A31" s="113"/>
       <c r="B31" s="113"/>
       <c r="C31" s="106"/>
@@ -7087,7 +7124,7 @@
       <c r="G31" s="106"/>
       <c r="H31" s="106"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14">
       <c r="A32" s="113"/>
       <c r="B32" s="113"/>
       <c r="C32" s="106"/>
@@ -7097,7 +7134,7 @@
       <c r="G32" s="106"/>
       <c r="H32" s="106"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8">
       <c r="A33" s="113"/>
       <c r="B33" s="113"/>
       <c r="C33" s="106"/>
@@ -7107,7 +7144,7 @@
       <c r="G33" s="106"/>
       <c r="H33" s="106"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8">
       <c r="A34" s="113"/>
       <c r="B34" s="113"/>
       <c r="C34" s="106"/>
@@ -7117,7 +7154,7 @@
       <c r="G34" s="106"/>
       <c r="H34" s="106"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8">
       <c r="A35" s="113"/>
       <c r="B35" s="113"/>
       <c r="C35" s="106"/>
@@ -7127,7 +7164,7 @@
       <c r="G35" s="106"/>
       <c r="H35" s="106"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8">
       <c r="A36" s="113"/>
       <c r="B36" s="113"/>
       <c r="C36" s="106"/>
@@ -7137,7 +7174,7 @@
       <c r="G36" s="106"/>
       <c r="H36" s="106"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8">
       <c r="A37" s="113"/>
       <c r="B37" s="113"/>
       <c r="C37" s="106"/>
@@ -7163,16 +7200,16 @@
   </sheetPr>
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView workbookViewId="0" xr3:uid="{1811AD09-42D4-5ED3-9404-4B34E85B0196}">
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.76171875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="158" t="s">
         <v>3</v>
       </c>
@@ -7192,7 +7229,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="152">
         <v>42900</v>
       </c>
@@ -7211,7 +7248,7 @@
         <v>67245</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="152">
         <v>43006</v>
       </c>
@@ -7230,7 +7267,7 @@
         <v>69760</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="152">
         <v>43069</v>
       </c>
@@ -7247,7 +7284,7 @@
       </c>
       <c r="F4" s="155"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="152">
         <v>43078</v>
       </c>
@@ -7264,7 +7301,7 @@
       </c>
       <c r="F5" s="155"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="152">
         <v>43169</v>
       </c>
@@ -7281,7 +7318,7 @@
       </c>
       <c r="F6" s="155"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="152">
         <v>43194</v>
       </c>
@@ -7298,7 +7335,7 @@
       </c>
       <c r="F7" s="155"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="152">
         <v>43207</v>
       </c>
@@ -7315,7 +7352,7 @@
       </c>
       <c r="F8" s="155"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="152">
         <v>43222</v>
       </c>
@@ -7332,7 +7369,7 @@
       </c>
       <c r="F9" s="155"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="152">
         <v>43243</v>
       </c>
@@ -7349,7 +7386,7 @@
       </c>
       <c r="F10" s="155"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="152">
         <v>43263</v>
       </c>
@@ -7366,7 +7403,7 @@
       </c>
       <c r="F11" s="155"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="152">
         <v>43290</v>
       </c>
@@ -7385,7 +7422,7 @@
         <v>76592</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="152">
         <v>43341</v>
       </c>
@@ -7404,7 +7441,7 @@
         <v>77312</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="152">
         <v>43349</v>
       </c>
@@ -7423,7 +7460,7 @@
         <v>77437</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="152">
         <v>43355</v>
       </c>
@@ -7442,7 +7479,7 @@
         <v>78273</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" s="152">
         <v>43388</v>
       </c>
@@ -7461,7 +7498,7 @@
         <v>79364</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="152">
         <v>43393</v>
       </c>
@@ -7480,7 +7517,7 @@
         <v>79498</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="152">
         <v>43410</v>
       </c>
@@ -7499,7 +7536,7 @@
         <v>79632</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" s="152">
         <v>43455</v>
       </c>
@@ -7520,7 +7557,7 @@
         <v>80148</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" s="152">
         <v>43467</v>
       </c>
@@ -7541,8 +7578,8 @@
         <v>81020</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="166"/>
+    <row r="21" spans="1:6">
+      <c r="A21" s="165"/>
       <c r="B21" s="156">
         <f>SUBTOTAL(101,Etanol[hora])</f>
         <v>0.43402777777777779</v>

--- a/Aurora.xlsx
+++ b/Aurora.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ec562523a0c953df/Documentos/planilhas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="36" documentId="6_{30539F51-C84A-45DF-B73B-9BAA80983C9E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{8CF18232-03D6-6F4F-8CD0-028A184B6AD2}"/>
+  <xr:revisionPtr revIDLastSave="129" documentId="6_{30539F51-C84A-45DF-B73B-9BAA80983C9E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{F4FAB1E2-9656-4B47-956E-02A5289D91A1}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3600" windowWidth="20490" windowHeight="7665" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3600" windowWidth="20490" windowHeight="7665" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2017.1" sheetId="1" r:id="rId1"/>
@@ -394,7 +394,7 @@
     <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="167" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -729,7 +729,7 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="167">
+  <cellXfs count="168">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
@@ -1197,6 +1197,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="20% - Ênfase4" xfId="3" builtinId="42"/>
@@ -1247,6 +1248,36 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -1308,6 +1339,45 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
@@ -1315,6 +1385,143 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2099,65 +2306,6 @@
       <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
       <border outline="0">
         <bottom style="thin">
           <color rgb="FFFFFFFF"/>
@@ -2319,153 +2467,6 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
       <border outline="0">
         <bottom style="thin">
           <color rgb="FFFFFFFF"/>
@@ -2486,18 +2487,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{707C8E72-449F-434C-81D2-E6CAE60FDC64}" name="G_20184" displayName="G_20184" ref="A1:G3" totalsRowCount="1" tableBorderDxfId="91" dataCellStyle="Normal">
-  <autoFilter ref="A1:G2" xr:uid="{1BB8EF35-A1C5-4DA1-AE25-87B25A5E3E01}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{707C8E72-449F-434C-81D2-E6CAE60FDC64}" name="G_20184" displayName="G_20184" ref="A1:G7" totalsRowCount="1" tableBorderDxfId="91" dataCellStyle="Normal">
+  <autoFilter ref="A1:G6" xr:uid="{1BB8EF35-A1C5-4DA1-AE25-87B25A5E3E01}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{359F37B9-9617-418F-81F4-00F8F142D6C9}" name="data" dataDxfId="90" totalsRowDxfId="89" dataCellStyle="Normal"/>
-    <tableColumn id="2" xr3:uid="{5B407B50-7529-43FD-BA94-ADB3D3459328}" name="km ini" totalsRowFunction="min" dataDxfId="88" totalsRowDxfId="87" dataCellStyle="Normal"/>
-    <tableColumn id="3" xr3:uid="{08934F92-A85D-4FCC-AAF8-CE32E5CED8EC}" name="km fim" totalsRowFunction="max" dataDxfId="86" totalsRowDxfId="85" dataCellStyle="Normal"/>
-    <tableColumn id="4" xr3:uid="{53CA1E60-5853-464E-B828-BFEECE0B41CF}" name="km" totalsRowFunction="average" dataDxfId="84" totalsRowDxfId="83" dataCellStyle="Normal">
+    <tableColumn id="1" xr3:uid="{359F37B9-9617-418F-81F4-00F8F142D6C9}" name="data" dataDxfId="29" totalsRowDxfId="22" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{5B407B50-7529-43FD-BA94-ADB3D3459328}" name="km ini" totalsRowFunction="min" dataDxfId="28" totalsRowDxfId="21" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{08934F92-A85D-4FCC-AAF8-CE32E5CED8EC}" name="km fim" totalsRowFunction="max" dataDxfId="27" totalsRowDxfId="20" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{53CA1E60-5853-464E-B828-BFEECE0B41CF}" name="km" totalsRowFunction="average" dataDxfId="26" totalsRowDxfId="19" dataCellStyle="Normal">
       <calculatedColumnFormula>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{57D64090-3B83-46A5-A370-00C001CC3A22}" name="valor" totalsRowFunction="average" dataDxfId="82" totalsRowDxfId="81" dataCellStyle="Normal"/>
-    <tableColumn id="6" xr3:uid="{EA59C9C8-15C0-4DBA-A159-0B2B8BDC9698}" name="preço" totalsRowFunction="average" dataDxfId="80" totalsRowDxfId="79" dataCellStyle="Normal"/>
-    <tableColumn id="7" xr3:uid="{051A8F7F-91AF-40BD-BAE4-405E1FF53171}" name="litros" totalsRowFunction="average" dataDxfId="78" totalsRowDxfId="77" dataCellStyle="Normal">
+    <tableColumn id="5" xr3:uid="{57D64090-3B83-46A5-A370-00C001CC3A22}" name="valor" totalsRowFunction="sum" dataDxfId="25" totalsRowDxfId="2" dataCellStyle="Normal"/>
+    <tableColumn id="6" xr3:uid="{EA59C9C8-15C0-4DBA-A159-0B2B8BDC9698}" name="preço" totalsRowFunction="average" dataDxfId="24" totalsRowDxfId="1" dataCellStyle="Normal"/>
+    <tableColumn id="7" xr3:uid="{051A8F7F-91AF-40BD-BAE4-405E1FF53171}" name="litros" totalsRowFunction="sum" dataDxfId="23" totalsRowDxfId="0" dataCellStyle="Normal">
       <calculatedColumnFormula>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2506,21 +2507,21 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{F4E8D315-69AB-466D-B82A-109C081FA398}" name="G_2018" displayName="G_2018" ref="A1:G35" totalsRowCount="1" tableBorderDxfId="76" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{F4E8D315-69AB-466D-B82A-109C081FA398}" name="G_2018" displayName="G_2018" ref="A1:G35" totalsRowCount="1" tableBorderDxfId="90" dataCellStyle="Normal">
   <autoFilter ref="A1:G34" xr:uid="{1BB8EF35-A1C5-4DA1-AE25-87B25A5E3E01}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G34">
     <sortCondition ref="A1:A34"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{87768D9A-701C-45DE-920E-7BFC2026C313}" name="data" dataDxfId="75" totalsRowDxfId="74" dataCellStyle="Normal"/>
-    <tableColumn id="2" xr3:uid="{A4AC1043-1F00-40C3-A363-30D037C79583}" name="km ini" totalsRowFunction="min" dataDxfId="73" totalsRowDxfId="72" dataCellStyle="Normal"/>
-    <tableColumn id="3" xr3:uid="{0E5B3C2A-0DDB-40AB-96C9-1BE6758D96EA}" name="km fim" totalsRowFunction="max" dataDxfId="71" totalsRowDxfId="70" dataCellStyle="Normal"/>
-    <tableColumn id="4" xr3:uid="{60E1EC99-F30E-4DB1-A214-9390FFB3442F}" name="km" totalsRowFunction="sum" dataDxfId="69" totalsRowDxfId="68" dataCellStyle="Normal">
+    <tableColumn id="1" xr3:uid="{87768D9A-701C-45DE-920E-7BFC2026C313}" name="data" dataDxfId="89" totalsRowDxfId="88" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{A4AC1043-1F00-40C3-A363-30D037C79583}" name="km ini" totalsRowFunction="min" dataDxfId="87" totalsRowDxfId="86" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{0E5B3C2A-0DDB-40AB-96C9-1BE6758D96EA}" name="km fim" totalsRowFunction="max" dataDxfId="85" totalsRowDxfId="84" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{60E1EC99-F30E-4DB1-A214-9390FFB3442F}" name="km" totalsRowFunction="sum" dataDxfId="83" totalsRowDxfId="82" dataCellStyle="Normal">
       <calculatedColumnFormula>G_2018[[#This Row],[km fim]]-G_2018[[#This Row],[km ini]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{E2DE9863-217C-4C16-A993-DD1B8782AA27}" name="valor" totalsRowFunction="sum" dataDxfId="67" totalsRowDxfId="66" dataCellStyle="Normal"/>
-    <tableColumn id="6" xr3:uid="{1150101B-6F63-4A48-ADE5-664BEE3344D7}" name="preço" totalsRowFunction="average" dataDxfId="65" totalsRowDxfId="64" dataCellStyle="Normal"/>
-    <tableColumn id="7" xr3:uid="{B21A0A4B-7255-42FE-8E4A-B5C699477A83}" name="litros" totalsRowFunction="sum" dataDxfId="63" totalsRowDxfId="62" dataCellStyle="Normal">
+    <tableColumn id="5" xr3:uid="{E2DE9863-217C-4C16-A993-DD1B8782AA27}" name="valor" totalsRowFunction="sum" dataDxfId="81" totalsRowDxfId="80" dataCellStyle="Normal"/>
+    <tableColumn id="6" xr3:uid="{1150101B-6F63-4A48-ADE5-664BEE3344D7}" name="preço" totalsRowFunction="average" dataDxfId="79" totalsRowDxfId="78" dataCellStyle="Normal"/>
+    <tableColumn id="7" xr3:uid="{B21A0A4B-7255-42FE-8E4A-B5C699477A83}" name="litros" totalsRowFunction="sum" dataDxfId="77" totalsRowDxfId="76" dataCellStyle="Normal">
       <calculatedColumnFormula>G_2018[[#This Row],[valor]]/G_2018[[#This Row],[preço]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2529,21 +2530,21 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8D4DA0DB-1768-4A87-8BAC-0BC3711A5C7C}" name="G_2019" displayName="G_2019" ref="A1:H4" totalsRowCount="1" tableBorderDxfId="61" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8D4DA0DB-1768-4A87-8BAC-0BC3711A5C7C}" name="G_2019" displayName="G_2019" ref="A1:H4" totalsRowCount="1" tableBorderDxfId="75" dataCellStyle="Normal">
   <autoFilter ref="A1:H3" xr:uid="{1BB8EF35-A1C5-4DA1-AE25-87B25A5E3E01}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{0CA686D4-5E48-4762-9327-629FEB3146B0}" name="data" dataDxfId="60" totalsRowDxfId="7" dataCellStyle="Normal"/>
-    <tableColumn id="8" xr3:uid="{C4E19C72-93B2-4837-B485-42F08F5ECEBF}" name="hora" totalsRowFunction="average" dataDxfId="59" totalsRowDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{A24831E8-3DCE-4E6E-B7B2-ED8EF5796F22}" name="km ini" totalsRowFunction="min" dataDxfId="58" totalsRowDxfId="5" dataCellStyle="Normal"/>
-    <tableColumn id="3" xr3:uid="{8E05EFCC-4A39-40D2-A035-793B1708027E}" name="km fim" totalsRowFunction="max" dataDxfId="8" totalsRowDxfId="4" dataCellStyle="Normal">
+    <tableColumn id="1" xr3:uid="{0CA686D4-5E48-4762-9327-629FEB3146B0}" name="data" dataDxfId="18" totalsRowDxfId="10" dataCellStyle="Normal"/>
+    <tableColumn id="8" xr3:uid="{C4E19C72-93B2-4837-B485-42F08F5ECEBF}" name="hora" totalsRowFunction="average" dataDxfId="17" totalsRowDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{A24831E8-3DCE-4E6E-B7B2-ED8EF5796F22}" name="km ini" totalsRowFunction="min" dataDxfId="16" totalsRowDxfId="8" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{8E05EFCC-4A39-40D2-A035-793B1708027E}" name="km fim" totalsRowFunction="max" dataDxfId="15" totalsRowDxfId="7" dataCellStyle="Normal">
       <calculatedColumnFormula>C3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{76C9D5C3-4417-44BE-9E71-9E5CAEE19B17}" name="km" totalsRowFunction="average" dataDxfId="57" totalsRowDxfId="3" dataCellStyle="Normal">
+    <tableColumn id="4" xr3:uid="{76C9D5C3-4417-44BE-9E71-9E5CAEE19B17}" name="km" totalsRowFunction="sum" dataDxfId="14" totalsRowDxfId="3" dataCellStyle="Normal">
       <calculatedColumnFormula>G_2019[[#This Row],[km fim]]-G_2019[[#This Row],[km ini]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{98628619-61B6-4221-97AB-017207261795}" name="valor" totalsRowFunction="average" dataDxfId="56" totalsRowDxfId="2" dataCellStyle="Normal"/>
-    <tableColumn id="6" xr3:uid="{7269D260-3F9C-4B41-A43E-C2AC48A542E9}" name="preço" totalsRowFunction="average" dataDxfId="55" totalsRowDxfId="1" dataCellStyle="Normal"/>
-    <tableColumn id="7" xr3:uid="{24937D08-B4ED-442D-9694-24626A006DBC}" name="litros" totalsRowFunction="average" dataDxfId="54" totalsRowDxfId="0" dataCellStyle="Normal">
+    <tableColumn id="5" xr3:uid="{98628619-61B6-4221-97AB-017207261795}" name="valor" totalsRowFunction="sum" dataDxfId="13" totalsRowDxfId="6" dataCellStyle="Normal"/>
+    <tableColumn id="6" xr3:uid="{7269D260-3F9C-4B41-A43E-C2AC48A542E9}" name="preço" totalsRowFunction="average" dataDxfId="12" totalsRowDxfId="5" dataCellStyle="Normal"/>
+    <tableColumn id="7" xr3:uid="{24937D08-B4ED-442D-9694-24626A006DBC}" name="litros" totalsRowFunction="sum" dataDxfId="11" totalsRowDxfId="4" dataCellStyle="Normal">
       <calculatedColumnFormula>G_2019[[#This Row],[valor]]/G_2019[[#This Row],[preço]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2552,32 +2553,32 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{8349ADA9-D7F2-436E-8D85-D66EBD35D289}" name="Viagens" displayName="Viagens" ref="A1:N27" totalsRowCount="1" headerRowDxfId="53" dataDxfId="52" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{8349ADA9-D7F2-436E-8D85-D66EBD35D289}" name="Viagens" displayName="Viagens" ref="A1:N27" totalsRowCount="1" headerRowDxfId="74" dataDxfId="73" dataCellStyle="Normal">
   <autoFilter ref="A1:N26" xr:uid="{91B7E7A6-3E74-4A30-BB6B-4EEBB1B73D97}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N24">
     <sortCondition ref="A1:A24"/>
   </sortState>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{943F9AB6-E0CE-4D16-8D0D-D6CD20DB4E3D}" name="começo/fim da viagem" dataDxfId="51" totalsRowDxfId="50" dataCellStyle="Normal"/>
-    <tableColumn id="8" xr3:uid="{8B7A80CD-1D41-4286-9AE6-30D2E4669859}" name="hora ini" totalsRowFunction="average" dataDxfId="49" totalsRowDxfId="48"/>
-    <tableColumn id="2" xr3:uid="{F79333F5-CCDB-4E3B-A65F-7954CDBED5AC}" name="hora fim" totalsRowFunction="average" dataDxfId="47" totalsRowDxfId="46" dataCellStyle="Normal"/>
-    <tableColumn id="14" xr3:uid="{595493D2-D75D-41DE-91AD-11281D062CA9}" name="horas" totalsRowFunction="average" dataDxfId="45" totalsRowDxfId="44">
+    <tableColumn id="1" xr3:uid="{943F9AB6-E0CE-4D16-8D0D-D6CD20DB4E3D}" name="começo/fim da viagem" dataDxfId="72" totalsRowDxfId="71" dataCellStyle="Normal"/>
+    <tableColumn id="8" xr3:uid="{8B7A80CD-1D41-4286-9AE6-30D2E4669859}" name="hora ini" totalsRowFunction="average" dataDxfId="70" totalsRowDxfId="69"/>
+    <tableColumn id="2" xr3:uid="{F79333F5-CCDB-4E3B-A65F-7954CDBED5AC}" name="hora fim" totalsRowFunction="average" dataDxfId="68" totalsRowDxfId="67" dataCellStyle="Normal"/>
+    <tableColumn id="14" xr3:uid="{595493D2-D75D-41DE-91AD-11281D062CA9}" name="horas" totalsRowFunction="average" dataDxfId="66" totalsRowDxfId="65">
       <calculatedColumnFormula>Viagens[[#This Row],[hora fim]]-Viagens[[#This Row],[hora ini]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{254E01DF-E2FE-4492-9476-CAE2652CB982}" name="km ini" totalsRowFunction="min" dataDxfId="43" totalsRowDxfId="42" dataCellStyle="Normal"/>
-    <tableColumn id="4" xr3:uid="{B85A4F29-C8A5-4E05-A6C0-542D9DF6CB11}" name="km fim" totalsRowFunction="max" dataDxfId="41" totalsRowDxfId="40" dataCellStyle="Normal"/>
-    <tableColumn id="11" xr3:uid="{B2109811-F1C6-4D1C-9E75-85349990007B}" name="km" totalsRowFunction="average" dataDxfId="39" totalsRowDxfId="38"/>
-    <tableColumn id="5" xr3:uid="{A504539A-42D5-4734-99A3-1C79CBD10ADD}" name="L ini" totalsRowFunction="average" dataDxfId="37" totalsRowDxfId="36" dataCellStyle="Normal"/>
-    <tableColumn id="6" xr3:uid="{5168ADB9-DA6A-4473-9847-62692963BE45}" name="L fim" totalsRowFunction="average" dataDxfId="35" totalsRowDxfId="34" dataCellStyle="Normal"/>
-    <tableColumn id="7" xr3:uid="{7A851BFB-669C-4DCC-AB14-044369ECFE05}" name="L" totalsRowFunction="average" dataDxfId="33" totalsRowDxfId="32" dataCellStyle="Normal">
+    <tableColumn id="3" xr3:uid="{254E01DF-E2FE-4492-9476-CAE2652CB982}" name="km ini" totalsRowFunction="min" dataDxfId="64" totalsRowDxfId="63" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{B85A4F29-C8A5-4E05-A6C0-542D9DF6CB11}" name="km fim" totalsRowFunction="max" dataDxfId="62" totalsRowDxfId="61" dataCellStyle="Normal"/>
+    <tableColumn id="11" xr3:uid="{B2109811-F1C6-4D1C-9E75-85349990007B}" name="km" totalsRowFunction="average" dataDxfId="60" totalsRowDxfId="59"/>
+    <tableColumn id="5" xr3:uid="{A504539A-42D5-4734-99A3-1C79CBD10ADD}" name="L ini" totalsRowFunction="average" dataDxfId="58" totalsRowDxfId="57" dataCellStyle="Normal"/>
+    <tableColumn id="6" xr3:uid="{5168ADB9-DA6A-4473-9847-62692963BE45}" name="L fim" totalsRowFunction="average" dataDxfId="56" totalsRowDxfId="55" dataCellStyle="Normal"/>
+    <tableColumn id="7" xr3:uid="{7A851BFB-669C-4DCC-AB14-044369ECFE05}" name="L" totalsRowFunction="average" dataDxfId="54" totalsRowDxfId="53" dataCellStyle="Normal">
       <calculatedColumnFormula>Viagens[[#This Row],[L ini]]-Viagens[[#This Row],[L fim]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{B57F3DE7-B27D-49F3-962C-E191C7F39D71}" name="consumo" totalsRowFunction="average" dataDxfId="31" totalsRowDxfId="30" dataCellStyle="Normal"/>
-    <tableColumn id="10" xr3:uid="{DF9137D7-756E-494C-BCFA-15BA5349D04E}" name="preço" totalsRowFunction="average" dataDxfId="29" totalsRowDxfId="28" dataCellStyle="Normal"/>
-    <tableColumn id="12" xr3:uid="{9BBF57AB-EB30-47D6-BE16-889D42E241F3}" name="custo km" totalsRowFunction="average" dataDxfId="27" totalsRowDxfId="26" dataCellStyle="Normal">
+    <tableColumn id="9" xr3:uid="{B57F3DE7-B27D-49F3-962C-E191C7F39D71}" name="consumo" totalsRowFunction="average" dataDxfId="52" totalsRowDxfId="51" dataCellStyle="Normal"/>
+    <tableColumn id="10" xr3:uid="{DF9137D7-756E-494C-BCFA-15BA5349D04E}" name="preço" totalsRowFunction="average" dataDxfId="50" totalsRowDxfId="49" dataCellStyle="Normal"/>
+    <tableColumn id="12" xr3:uid="{9BBF57AB-EB30-47D6-BE16-889D42E241F3}" name="custo km" totalsRowFunction="average" dataDxfId="48" totalsRowDxfId="47" dataCellStyle="Normal">
       <calculatedColumnFormula>Viagens[[#This Row],[preço]]/Viagens[[#This Row],[consumo]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{1573DC55-E347-4C35-96EE-F132F6B74719}" name="custo total" totalsRowFunction="average" dataDxfId="25" totalsRowDxfId="24" dataCellStyle="Normal">
+    <tableColumn id="13" xr3:uid="{1573DC55-E347-4C35-96EE-F132F6B74719}" name="custo total" totalsRowFunction="average" dataDxfId="46" totalsRowDxfId="45" dataCellStyle="Normal">
       <calculatedColumnFormula>Viagens[[#This Row],[L]]*Viagens[[#This Row],[preço]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2586,17 +2587,17 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{137CCE77-ADDB-4C8C-995A-CD5917FE5216}" name="Etanol" displayName="Etanol" ref="A1:F21" totalsRowCount="1" headerRowDxfId="23" dataDxfId="22" totalsRowDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{137CCE77-ADDB-4C8C-995A-CD5917FE5216}" name="Etanol" displayName="Etanol" ref="A1:F21" totalsRowCount="1" headerRowDxfId="44" dataDxfId="43" totalsRowDxfId="42">
   <autoFilter ref="A1:F20" xr:uid="{BA0B08BB-754D-4819-AC93-39A0554A2FF6}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{FC48604D-710C-4BBA-B35F-209384F01637}" name="data" dataDxfId="20" totalsRowDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{A139AE0A-C5DF-448F-8E20-931AD1CD8489}" name="hora" totalsRowFunction="average" dataDxfId="18" totalsRowDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{69037EB3-F18F-4F01-86AC-2F03E2616671}" name="valor" totalsRowFunction="sum" dataDxfId="16" totalsRowDxfId="15">
+    <tableColumn id="1" xr3:uid="{FC48604D-710C-4BBA-B35F-209384F01637}" name="data" dataDxfId="41" totalsRowDxfId="40"/>
+    <tableColumn id="2" xr3:uid="{A139AE0A-C5DF-448F-8E20-931AD1CD8489}" name="hora" totalsRowFunction="average" dataDxfId="39" totalsRowDxfId="38"/>
+    <tableColumn id="5" xr3:uid="{69037EB3-F18F-4F01-86AC-2F03E2616671}" name="valor" totalsRowFunction="sum" dataDxfId="37" totalsRowDxfId="36">
       <calculatedColumnFormula>Etanol[[#This Row],[preço]]*Etanol[[#This Row],[litros]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{D7C46694-E6CD-4C31-9617-E21EBBD7D56E}" name="preço" totalsRowFunction="average" dataDxfId="14" totalsRowDxfId="13"/>
-    <tableColumn id="7" xr3:uid="{F099CEFF-1A72-4F01-8112-F305B04A303E}" name="litros" totalsRowFunction="sum" dataDxfId="12" totalsRowDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{539451E7-6D16-4B47-A7EF-A1E0AFF83B9A}" name="km" dataDxfId="10" totalsRowDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{D7C46694-E6CD-4C31-9617-E21EBBD7D56E}" name="preço" totalsRowFunction="average" dataDxfId="35" totalsRowDxfId="34"/>
+    <tableColumn id="7" xr3:uid="{F099CEFF-1A72-4F01-8112-F305B04A303E}" name="litros" totalsRowFunction="sum" dataDxfId="33" totalsRowDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{539451E7-6D16-4B47-A7EF-A1E0AFF83B9A}" name="km" dataDxfId="31" totalsRowDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -2901,36 +2902,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.76171875" customWidth="1"/>
-    <col min="2" max="2" width="9.14453125" customWidth="1"/>
-    <col min="3" max="3" width="6.05078125" customWidth="1"/>
-    <col min="4" max="4" width="6.72265625" customWidth="1"/>
-    <col min="5" max="5" width="6.9921875" customWidth="1"/>
-    <col min="6" max="6" width="6.859375" customWidth="1"/>
-    <col min="7" max="7" width="10.76171875" customWidth="1"/>
-    <col min="8" max="8" width="9.14453125" customWidth="1"/>
-    <col min="9" max="9" width="6.05078125" customWidth="1"/>
-    <col min="10" max="10" width="5.6484375" customWidth="1"/>
-    <col min="11" max="11" width="6.9921875" customWidth="1"/>
-    <col min="12" max="12" width="6.859375" customWidth="1"/>
-    <col min="13" max="13" width="10.76171875" customWidth="1"/>
-    <col min="14" max="14" width="9.14453125" customWidth="1"/>
-    <col min="15" max="15" width="6.05078125" customWidth="1"/>
-    <col min="16" max="16" width="6.3203125" customWidth="1"/>
-    <col min="17" max="17" width="6.9921875" customWidth="1"/>
-    <col min="18" max="18" width="7.12890625" customWidth="1"/>
-    <col min="19" max="19" width="16.6796875" customWidth="1"/>
-    <col min="20" max="20" width="16.41015625" customWidth="1"/>
-    <col min="21" max="21" width="10.22265625" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="6" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" customWidth="1"/>
+    <col min="5" max="5" width="7" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" customWidth="1"/>
+    <col min="9" max="9" width="6" customWidth="1"/>
+    <col min="10" max="10" width="5.7109375" customWidth="1"/>
+    <col min="11" max="11" width="7" customWidth="1"/>
+    <col min="12" max="12" width="6.85546875" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" customWidth="1"/>
+    <col min="15" max="15" width="6" customWidth="1"/>
+    <col min="16" max="16" width="6.28515625" customWidth="1"/>
+    <col min="17" max="17" width="7" customWidth="1"/>
+    <col min="18" max="18" width="7.140625" customWidth="1"/>
+    <col min="19" max="19" width="16.7109375" customWidth="1"/>
+    <col min="20" max="20" width="16.42578125" customWidth="1"/>
+    <col min="21" max="21" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="166" t="s">
         <v>0</v>
       </c>
@@ -2960,7 +2961,7 @@
       <c r="U1" s="6"/>
       <c r="V1" s="6"/>
     </row>
-    <row r="2" spans="1:22" s="6" customFormat="1">
+    <row r="2" spans="1:22" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
@@ -3023,7 +3024,7 @@
         <v>1767.03</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="19">
         <v>42726</v>
       </c>
@@ -3090,7 +3091,7 @@
       <c r="U3" s="6"/>
       <c r="V3" s="6"/>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>42728</v>
       </c>
@@ -3157,7 +3158,7 @@
       <c r="U4" s="6"/>
       <c r="V4" s="6"/>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>42733</v>
       </c>
@@ -3226,7 +3227,7 @@
       <c r="U5" s="6"/>
       <c r="V5" s="6"/>
     </row>
-    <row r="6" spans="1:22" ht="15" customHeight="1">
+    <row r="6" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17">
         <v>42737</v>
       </c>
@@ -3288,7 +3289,7 @@
       <c r="U6" s="6"/>
       <c r="V6" s="6"/>
     </row>
-    <row r="7" spans="1:22" ht="15" customHeight="1">
+    <row r="7" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>42744</v>
       </c>
@@ -3342,7 +3343,7 @@
       <c r="U7" s="6"/>
       <c r="V7" s="6"/>
     </row>
-    <row r="8" spans="1:22" s="6" customFormat="1" ht="18" customHeight="1">
+    <row r="8" spans="1:22" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="67"/>
       <c r="B8" s="68">
         <f>SUM(B4:B7)</f>
@@ -3398,7 +3399,7 @@
       </c>
       <c r="R8" s="73"/>
     </row>
-    <row r="9" spans="1:22" ht="18" customHeight="1">
+    <row r="9" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="61"/>
       <c r="B9" s="62">
         <f>SUM(B10:B14,H14)</f>
@@ -3458,7 +3459,7 @@
       <c r="U9" s="6"/>
       <c r="V9" s="6"/>
     </row>
-    <row r="10" spans="1:22" ht="15" customHeight="1">
+    <row r="10" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>42848</v>
       </c>
@@ -3497,7 +3498,7 @@
       <c r="U10" s="6"/>
       <c r="V10" s="6"/>
     </row>
-    <row r="11" spans="1:22" ht="15" customHeight="1">
+    <row r="11" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17">
         <v>42841</v>
       </c>
@@ -3536,7 +3537,7 @@
       <c r="U11" s="6"/>
       <c r="V11" s="6"/>
     </row>
-    <row r="12" spans="1:22" ht="15" customHeight="1">
+    <row r="12" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>42841</v>
       </c>
@@ -3580,7 +3581,7 @@
       <c r="U12" s="6"/>
       <c r="V12" s="6"/>
     </row>
-    <row r="13" spans="1:22" ht="15" customHeight="1">
+    <row r="13" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>42839</v>
       </c>
@@ -3649,7 +3650,7 @@
       <c r="U13" s="6"/>
       <c r="V13" s="6"/>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="17">
         <v>42838</v>
       </c>
@@ -3711,7 +3712,7 @@
       <c r="U14" s="6"/>
       <c r="V14" s="6"/>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>3</v>
       </c>
@@ -3771,7 +3772,7 @@
       <c r="U15" s="6"/>
       <c r="V15" s="6"/>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="166" t="s">
         <v>13</v>
       </c>
@@ -3801,19 +3802,19 @@
       <c r="U16" s="6"/>
       <c r="V16" s="6"/>
     </row>
-    <row r="17" spans="3:3" ht="15.75" customHeight="1">
+    <row r="17" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="6"/>
     </row>
-    <row r="18" spans="3:3" ht="15" customHeight="1">
+    <row r="18" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="6"/>
     </row>
-    <row r="19" spans="3:3" ht="18" customHeight="1">
+    <row r="19" spans="3:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="6"/>
     </row>
-    <row r="20" spans="3:3" ht="15.75" customHeight="1">
+    <row r="20" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="6"/>
     </row>
-    <row r="21" spans="3:3" ht="15" customHeight="1">
+    <row r="21" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="6"/>
     </row>
   </sheetData>
@@ -3839,27 +3840,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T18"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.76171875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.3203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.58984375" customWidth="1"/>
-    <col min="6" max="6" width="7.26171875" customWidth="1"/>
-    <col min="7" max="7" width="10.76171875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.45703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.859375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.203125" customWidth="1"/>
-    <col min="13" max="13" width="10.76171875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.3203125" customWidth="1"/>
-    <col min="17" max="17" width="7.26171875" customWidth="1"/>
-    <col min="19" max="19" width="16.8125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.140625" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.28515625" customWidth="1"/>
+    <col min="17" max="17" width="7.28515625" customWidth="1"/>
+    <col min="19" max="19" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="166" t="s">
         <v>16</v>
       </c>
@@ -3887,7 +3888,7 @@
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
@@ -3950,7 +3951,7 @@
         <v>1339.05</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>42940</v>
       </c>
@@ -4021,7 +4022,7 @@
         <v>299.38911804244378</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>42946</v>
       </c>
@@ -4086,7 +4087,7 @@
         <v>3282</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>42946</v>
       </c>
@@ -4136,7 +4137,7 @@
         <v>4.472607450649444</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="17">
         <v>42946</v>
       </c>
@@ -4181,7 +4182,7 @@
       <c r="S6" s="6"/>
       <c r="T6" s="6"/>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="5"/>
@@ -4203,7 +4204,7 @@
       <c r="S7" s="6"/>
       <c r="T7" s="6"/>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="67"/>
       <c r="B8" s="68">
         <f>SUM(B3:B7)</f>
@@ -4258,7 +4259,7 @@
       <c r="S8" s="6"/>
       <c r="T8" s="6"/>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="61"/>
       <c r="B9" s="62">
         <f>SUM(B10:B11)</f>
@@ -4316,7 +4317,7 @@
       <c r="S9" s="6"/>
       <c r="T9" s="6"/>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>43020</v>
       </c>
@@ -4367,7 +4368,7 @@
       <c r="S10" s="6"/>
       <c r="T10" s="6"/>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>43034</v>
       </c>
@@ -4425,7 +4426,7 @@
       <c r="S11" s="6"/>
       <c r="T11" s="6"/>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="3"/>
       <c r="C12" s="5"/>
@@ -4452,7 +4453,7 @@
       <c r="S12" s="6"/>
       <c r="T12" s="6"/>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="3"/>
       <c r="C13" s="5"/>
@@ -4486,7 +4487,7 @@
       <c r="S13" s="6"/>
       <c r="T13" s="6"/>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="3"/>
       <c r="C14" s="5"/>
@@ -4517,7 +4518,7 @@
       <c r="S14" s="6"/>
       <c r="T14" s="6"/>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>3</v>
       </c>
@@ -4575,7 +4576,7 @@
       <c r="S15" s="6"/>
       <c r="T15" s="6"/>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="166" t="s">
         <v>20</v>
       </c>
@@ -4603,7 +4604,7 @@
       <c r="S16" s="6"/>
       <c r="T16" s="6"/>
     </row>
-    <row r="18" spans="10:10">
+    <row r="18" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J18" s="99"/>
     </row>
   </sheetData>
@@ -4627,26 +4628,26 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82D5A34F-EB28-41C8-A1E3-151E9E71FB07}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{8D3781B8-FEA9-57BA-A236-8A0110A48394}">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.10546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="9.14453125" style="6"/>
-    <col min="3" max="3" width="9.28125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="9.14453125" style="6"/>
-    <col min="5" max="5" width="9.4140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.14453125" style="6"/>
-    <col min="8" max="8" width="9.01171875" style="6" customWidth="1"/>
-    <col min="9" max="9" width="10.76171875" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.14453125" style="6"/>
+    <col min="1" max="1" width="12.140625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="6"/>
+    <col min="3" max="3" width="9.28515625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="6"/>
+    <col min="5" max="5" width="9.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" style="6"/>
+    <col min="8" max="8" width="9" style="6" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>3</v>
       </c>
@@ -4669,56 +4670,157 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="98">
-        <v>43093</v>
-      </c>
-      <c r="B2" s="128">
-        <v>71683</v>
-      </c>
-      <c r="C2" s="128">
-        <v>71872</v>
+        <v>43034</v>
+      </c>
+      <c r="B2" s="167">
+        <v>69879</v>
+      </c>
+      <c r="C2" s="129">
+        <v>70001</v>
       </c>
       <c r="D2" s="132">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
-        <v>189</v>
+        <v>122</v>
       </c>
       <c r="E2" s="130">
         <v>120</v>
       </c>
       <c r="F2" s="130">
-        <v>4.17</v>
+        <v>3.9</v>
       </c>
       <c r="G2" s="131">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
+        <v>30.76923076923077</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="98">
+        <v>43042</v>
+      </c>
+      <c r="B3" s="139">
+        <v>70379</v>
+      </c>
+      <c r="C3" s="129">
+        <v>70431</v>
+      </c>
+      <c r="D3" s="132">
+        <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
+        <v>52</v>
+      </c>
+      <c r="E3" s="130">
+        <v>158.99</v>
+      </c>
+      <c r="F3" s="130">
+        <v>4.09</v>
+      </c>
+      <c r="G3" s="131">
+        <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
+        <v>38.872860635696824</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="98">
+        <v>43057</v>
+      </c>
+      <c r="B4" s="129">
+        <v>70809</v>
+      </c>
+      <c r="C4" s="167">
+        <v>70965</v>
+      </c>
+      <c r="D4" s="132">
+        <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
+        <v>156</v>
+      </c>
+      <c r="E4" s="130">
+        <v>80</v>
+      </c>
+      <c r="F4" s="130">
+        <v>4.17</v>
+      </c>
+      <c r="G4" s="131">
+        <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
+        <v>19.18465227817746</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="98">
+        <v>43087</v>
+      </c>
+      <c r="B5" s="133">
+        <f>C4</f>
+        <v>70965</v>
+      </c>
+      <c r="C5" s="129">
+        <v>71219</v>
+      </c>
+      <c r="D5" s="132">
+        <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
+        <v>254</v>
+      </c>
+      <c r="E5" s="130">
+        <v>120.06</v>
+      </c>
+      <c r="F5" s="130">
+        <v>4.1790000000000003</v>
+      </c>
+      <c r="G5" s="131">
+        <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
+        <v>28.729361091170134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="98">
+        <v>43093</v>
+      </c>
+      <c r="B6" s="129">
+        <v>71683</v>
+      </c>
+      <c r="C6" s="128">
+        <v>71872</v>
+      </c>
+      <c r="D6" s="132">
+        <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
+        <v>189</v>
+      </c>
+      <c r="E6" s="130">
+        <v>120</v>
+      </c>
+      <c r="F6" s="130">
+        <v>4.17</v>
+      </c>
+      <c r="G6" s="131">
+        <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>28.776978417266186</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="164"/>
-      <c r="B3" s="133">
+    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="164"/>
+      <c r="B7" s="133">
         <f>SUBTOTAL(105,G_20184[km ini])</f>
-        <v>71683</v>
-      </c>
-      <c r="C3" s="133">
+        <v>69879</v>
+      </c>
+      <c r="C7" s="133">
         <f>SUBTOTAL(104,G_20184[km fim])</f>
         <v>71872</v>
       </c>
-      <c r="D3" s="111">
+      <c r="D7" s="111">
         <f>SUBTOTAL(101,G_20184[km])</f>
-        <v>189</v>
-      </c>
-      <c r="E3" s="145">
-        <f>SUBTOTAL(101,G_20184[valor])</f>
-        <v>120</v>
-      </c>
-      <c r="F3" s="145">
+        <v>154.6</v>
+      </c>
+      <c r="E7" s="145">
+        <f>SUBTOTAL(109,G_20184[valor])</f>
+        <v>599.04999999999995</v>
+      </c>
+      <c r="F7" s="145">
         <f>SUBTOTAL(101,G_20184[preço])</f>
-        <v>4.17</v>
-      </c>
-      <c r="G3" s="117">
-        <f>SUBTOTAL(101,G_20184[litros])</f>
-        <v>28.776978417266186</v>
+        <v>4.1017999999999999</v>
+      </c>
+      <c r="G7" s="117">
+        <f>SUBTOTAL(109,G_20184[litros])</f>
+        <v>146.33308319154139</v>
       </c>
     </row>
   </sheetData>
@@ -4734,20 +4836,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB98AEA6-30EA-4D94-808F-A65CE5265EE7}">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0" xr3:uid="{57EF5C90-13A6-5C11-B0DA-7A714F44E738}">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.10546875" customWidth="1"/>
-    <col min="3" max="3" width="9.28125" customWidth="1"/>
-    <col min="5" max="5" width="10.76171875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.01171875" customWidth="1"/>
-    <col min="9" max="9" width="10.76171875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="6" customFormat="1">
+    <row r="1" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>3</v>
       </c>
@@ -4770,7 +4872,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="98">
         <v>43105</v>
       </c>
@@ -4795,7 +4897,7 @@
         <v>28.639618138424819</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="98">
         <v>43115</v>
       </c>
@@ -4821,7 +4923,7 @@
         <v>28.639618138424819</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="98">
         <v>43119</v>
       </c>
@@ -4846,7 +4948,7 @@
         <v>33.799533799533798</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="98">
         <v>43122</v>
       </c>
@@ -4872,7 +4974,7 @@
         <v>27.972027972027973</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="98">
         <v>43128</v>
       </c>
@@ -4897,7 +4999,7 @@
         <v>20.049180327868854</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="98">
         <v>43136</v>
       </c>
@@ -4923,7 +5025,7 @@
         <v>26.726057906458795</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="98">
         <v>43148</v>
       </c>
@@ -4948,7 +5050,7 @@
         <v>38.982182628062361</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="98">
         <v>43158</v>
       </c>
@@ -4974,7 +5076,7 @@
         <v>29.339853300733498</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="98">
         <v>43186</v>
       </c>
@@ -5000,7 +5102,7 @@
         <v>34.168564920273354</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="98">
         <v>43207</v>
       </c>
@@ -5025,7 +5127,7 @@
         <v>18.648018648018649</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="98">
         <v>43222</v>
       </c>
@@ -5050,7 +5152,7 @@
         <v>8.908685968819599</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="98">
         <v>43237</v>
       </c>
@@ -5076,7 +5178,7 @@
         <v>17.429193899782135</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="98">
         <v>43243</v>
       </c>
@@ -5102,7 +5204,7 @@
         <v>13.363028953229398</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="98">
         <v>43271</v>
       </c>
@@ -5128,7 +5230,7 @@
         <v>12.793176972281449</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="98">
         <v>43285</v>
       </c>
@@ -5154,7 +5256,7 @@
         <v>12.526096033402922</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="98">
         <v>43286</v>
       </c>
@@ -5180,7 +5282,7 @@
         <v>29.156862745098042</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="98">
         <v>43289</v>
       </c>
@@ -5205,7 +5307,7 @@
         <v>32.782881002087684</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="138">
         <v>43306</v>
       </c>
@@ -5230,7 +5332,7 @@
         <v>22.271714922048996</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="98">
         <v>43318</v>
       </c>
@@ -5256,7 +5358,7 @@
         <v>22.271714922048996</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="98">
         <v>43333</v>
       </c>
@@ -5282,7 +5384,7 @@
         <v>22.779043280182233</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="98">
         <v>43340</v>
       </c>
@@ -5308,7 +5410,7 @@
         <v>18.648018648018649</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="136">
         <v>43349</v>
       </c>
@@ -5334,7 +5436,7 @@
         <v>13.986013986013987</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="136">
         <v>43352</v>
       </c>
@@ -5359,7 +5461,7 @@
         <v>21.419624217118997</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="136">
         <v>43355</v>
       </c>
@@ -5384,7 +5486,7 @@
         <v>37.789144050104383</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="136">
         <v>43373</v>
       </c>
@@ -5410,7 +5512,7 @@
         <v>21.786492374727668</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="136">
         <v>43384</v>
       </c>
@@ -5436,7 +5538,7 @@
         <v>12.526096033402922</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="136">
         <v>43386</v>
       </c>
@@ -5461,7 +5563,7 @@
         <v>29.999999999999996</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="136">
         <v>43399</v>
       </c>
@@ -5486,7 +5588,7 @@
         <v>12.024048096192384</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="136">
         <v>43410</v>
       </c>
@@ -5512,7 +5614,7 @@
         <v>24.048096192384769</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="136">
         <v>43418</v>
       </c>
@@ -5538,7 +5640,7 @@
         <v>17.057569296375267</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="136">
         <v>43426</v>
       </c>
@@ -5564,7 +5666,7 @@
         <v>12.320328542094456</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="136">
         <v>43433</v>
       </c>
@@ -5590,7 +5692,7 @@
         <v>13.071895424836601</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="136">
         <v>43442</v>
       </c>
@@ -5616,7 +5718,7 @@
         <v>16.701461377870565</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="164"/>
       <c r="B35" s="133">
         <f>SUBTOTAL(105,G_2018[km ini])</f>
@@ -5656,24 +5758,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B43933D-4CC7-4766-9778-D69CB537A172}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{8AA1B97D-5C90-5FD5-A4E7-F81983934B23}">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.10546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="11.8359375" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="9.14453125" style="6"/>
-    <col min="5" max="5" width="9.4140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.14453125" style="6"/>
-    <col min="8" max="8" width="9.01171875" style="6" customWidth="1"/>
-    <col min="9" max="9" width="10.76171875" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.14453125" style="6"/>
+    <col min="1" max="1" width="12.140625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="6"/>
+    <col min="5" max="5" width="9.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" style="6"/>
+    <col min="8" max="8" width="9" style="6" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>3</v>
       </c>
@@ -5699,7 +5801,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="136">
         <v>43476</v>
       </c>
@@ -5710,7 +5812,6 @@
         <v>81120</v>
       </c>
       <c r="D2" s="133">
-        <f t="shared" ref="D2:D3" si="0">C3</f>
         <v>81216</v>
       </c>
       <c r="E2" s="111">
@@ -5728,7 +5829,7 @@
         <v>14.457831325301203</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="136">
         <v>43487</v>
       </c>
@@ -5736,15 +5837,13 @@
         <v>0.4861111111111111</v>
       </c>
       <c r="C3" s="133">
+        <f>D2</f>
         <v>81216</v>
       </c>
-      <c r="D3" s="133">
-        <f t="shared" si="0"/>
-        <v>81120</v>
-      </c>
+      <c r="D3" s="133"/>
       <c r="E3" s="111">
         <f>G_2019[[#This Row],[km fim]]-G_2019[[#This Row],[km ini]]</f>
-        <v>-96</v>
+        <v>-81216</v>
       </c>
       <c r="F3" s="145">
         <v>60</v>
@@ -5757,7 +5856,7 @@
         <v>14.117647058823529</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="164"/>
       <c r="B4" s="149">
         <f>SUBTOTAL(101,G_2019[hora])</f>
@@ -5772,20 +5871,20 @@
         <v>81216</v>
       </c>
       <c r="E4" s="111">
-        <f>SUBTOTAL(101,G_2019[km])</f>
-        <v>0</v>
+        <f>SUBTOTAL(109,G_2019[km])</f>
+        <v>-81120</v>
       </c>
       <c r="F4" s="145">
-        <f>SUBTOTAL(101,G_2019[valor])</f>
-        <v>60</v>
+        <f>SUBTOTAL(109,G_2019[valor])</f>
+        <v>120</v>
       </c>
       <c r="G4" s="145">
         <f>SUBTOTAL(101,G_2019[preço])</f>
         <v>4.2</v>
       </c>
       <c r="H4" s="117">
-        <f>SUBTOTAL(101,G_2019[litros])</f>
-        <v>14.287739192062366</v>
+        <f>SUBTOTAL(109,G_2019[litros])</f>
+        <v>28.575478384124732</v>
       </c>
     </row>
   </sheetData>
@@ -5804,29 +5903,29 @@
   </sheetPr>
   <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{C90B185E-D5F8-5C1D-B199-BFB8565D8E33}">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.76171875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7421875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.4140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.72265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.859375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.53125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.6484375" customWidth="1"/>
-    <col min="11" max="11" width="11.296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.33984375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.609375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.56640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.7109375" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="104" t="s">
         <v>25</v>
       </c>
@@ -5870,7 +5969,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="140">
         <v>42737</v>
       </c>
@@ -5913,7 +6012,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="140">
         <v>42790</v>
       </c>
@@ -5956,7 +6055,7 @@
         <v>109.29330000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="140">
         <v>42806</v>
       </c>
@@ -5999,7 +6098,7 @@
         <v>127.03999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="140">
         <v>42838</v>
       </c>
@@ -6042,7 +6141,7 @@
         <v>97.25139999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="140">
         <v>42841</v>
       </c>
@@ -6085,7 +6184,7 @@
         <v>113.5491</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="140">
         <v>42935</v>
       </c>
@@ -6128,7 +6227,7 @@
         <v>120.003</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="140">
         <v>42945</v>
       </c>
@@ -6171,7 +6270,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="140">
         <v>42946</v>
       </c>
@@ -6214,7 +6313,7 @@
         <v>109.2</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="140">
         <v>42961</v>
       </c>
@@ -6257,7 +6356,7 @@
         <v>133.7029</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="140">
         <v>43040</v>
       </c>
@@ -6300,7 +6399,7 @@
         <v>104.93840000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="140">
         <v>43044</v>
       </c>
@@ -6343,7 +6442,7 @@
         <v>118.07829999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="140">
         <v>43087</v>
       </c>
@@ -6386,7 +6485,7 @@
         <v>120.38789999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="140">
         <v>43119</v>
       </c>
@@ -6436,7 +6535,7 @@
         <v>114.97199999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="140">
         <v>43128</v>
       </c>
@@ -6486,7 +6585,7 @@
         <v>115.17044</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="140">
         <v>43148</v>
       </c>
@@ -6529,7 +6628,7 @@
         <v>121.14918</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="140">
         <v>43187</v>
       </c>
@@ -6579,7 +6678,7 @@
         <v>114.88000000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="140">
         <v>43190</v>
       </c>
@@ -6629,7 +6728,7 @@
         <v>116.74000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="140">
         <v>43287</v>
       </c>
@@ -6679,7 +6778,7 @@
         <v>128.51999999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="140">
         <v>43289</v>
       </c>
@@ -6729,7 +6828,7 @@
         <v>119.75</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="141">
         <v>43350</v>
       </c>
@@ -6779,7 +6878,7 @@
         <v>124.54</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="141">
         <v>43352</v>
       </c>
@@ -6829,7 +6928,7 @@
         <v>143.69999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="141">
         <v>43385</v>
       </c>
@@ -6879,7 +6978,7 @@
         <v>158.07</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="141">
         <v>43388</v>
       </c>
@@ -6929,7 +7028,7 @@
         <v>138.32000000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="141">
         <v>43456</v>
       </c>
@@ -6979,7 +7078,7 @@
         <v>130.5</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="140">
         <v>43824</v>
       </c>
@@ -7029,7 +7128,7 @@
         <v>134.56</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="18" customHeight="1">
+    <row r="27" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="164"/>
       <c r="B27" s="115">
         <f>SUBTOTAL(101,Viagens[hora ini])</f>
@@ -7084,7 +7183,7 @@
         <v>121.65263680000002</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="112"/>
       <c r="B28" s="107"/>
       <c r="C28" s="103"/>
@@ -7094,7 +7193,7 @@
       <c r="G28" s="106"/>
       <c r="H28" s="106"/>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="112"/>
       <c r="B29" s="107"/>
       <c r="C29" s="103"/>
@@ -7104,7 +7203,7 @@
       <c r="G29" s="106"/>
       <c r="H29" s="106"/>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="113"/>
       <c r="B30" s="113"/>
       <c r="C30" s="106"/>
@@ -7114,7 +7213,7 @@
       <c r="G30" s="106"/>
       <c r="H30" s="106"/>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="113"/>
       <c r="B31" s="113"/>
       <c r="C31" s="106"/>
@@ -7124,7 +7223,7 @@
       <c r="G31" s="106"/>
       <c r="H31" s="106"/>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="113"/>
       <c r="B32" s="113"/>
       <c r="C32" s="106"/>
@@ -7134,7 +7233,7 @@
       <c r="G32" s="106"/>
       <c r="H32" s="106"/>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="113"/>
       <c r="B33" s="113"/>
       <c r="C33" s="106"/>
@@ -7144,7 +7243,7 @@
       <c r="G33" s="106"/>
       <c r="H33" s="106"/>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="113"/>
       <c r="B34" s="113"/>
       <c r="C34" s="106"/>
@@ -7154,7 +7253,7 @@
       <c r="G34" s="106"/>
       <c r="H34" s="106"/>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="113"/>
       <c r="B35" s="113"/>
       <c r="C35" s="106"/>
@@ -7164,7 +7263,7 @@
       <c r="G35" s="106"/>
       <c r="H35" s="106"/>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="113"/>
       <c r="B36" s="113"/>
       <c r="C36" s="106"/>
@@ -7174,7 +7273,7 @@
       <c r="G36" s="106"/>
       <c r="H36" s="106"/>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="113"/>
       <c r="B37" s="113"/>
       <c r="C37" s="106"/>
@@ -7200,16 +7299,16 @@
   </sheetPr>
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{1811AD09-42D4-5ED3-9404-4B34E85B0196}">
+    <sheetView workbookViewId="0">
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.76171875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="158" t="s">
         <v>3</v>
       </c>
@@ -7229,7 +7328,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="152">
         <v>42900</v>
       </c>
@@ -7248,7 +7347,7 @@
         <v>67245</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="152">
         <v>43006</v>
       </c>
@@ -7267,7 +7366,7 @@
         <v>69760</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="152">
         <v>43069</v>
       </c>
@@ -7284,7 +7383,7 @@
       </c>
       <c r="F4" s="155"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="152">
         <v>43078</v>
       </c>
@@ -7301,7 +7400,7 @@
       </c>
       <c r="F5" s="155"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="152">
         <v>43169</v>
       </c>
@@ -7318,7 +7417,7 @@
       </c>
       <c r="F6" s="155"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="152">
         <v>43194</v>
       </c>
@@ -7335,7 +7434,7 @@
       </c>
       <c r="F7" s="155"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="152">
         <v>43207</v>
       </c>
@@ -7352,7 +7451,7 @@
       </c>
       <c r="F8" s="155"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="152">
         <v>43222</v>
       </c>
@@ -7369,7 +7468,7 @@
       </c>
       <c r="F9" s="155"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="152">
         <v>43243</v>
       </c>
@@ -7386,7 +7485,7 @@
       </c>
       <c r="F10" s="155"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="152">
         <v>43263</v>
       </c>
@@ -7403,7 +7502,7 @@
       </c>
       <c r="F11" s="155"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="152">
         <v>43290</v>
       </c>
@@ -7422,7 +7521,7 @@
         <v>76592</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="152">
         <v>43341</v>
       </c>
@@ -7441,7 +7540,7 @@
         <v>77312</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="152">
         <v>43349</v>
       </c>
@@ -7460,7 +7559,7 @@
         <v>77437</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="152">
         <v>43355</v>
       </c>
@@ -7479,7 +7578,7 @@
         <v>78273</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="152">
         <v>43388</v>
       </c>
@@ -7498,7 +7597,7 @@
         <v>79364</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="152">
         <v>43393</v>
       </c>
@@ -7517,7 +7616,7 @@
         <v>79498</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="152">
         <v>43410</v>
       </c>
@@ -7536,7 +7635,7 @@
         <v>79632</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="152">
         <v>43455</v>
       </c>
@@ -7557,7 +7656,7 @@
         <v>80148</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="152">
         <v>43467</v>
       </c>
@@ -7578,7 +7677,7 @@
         <v>81020</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="165"/>
       <c r="B21" s="156">
         <f>SUBTOTAL(101,Etanol[hora])</f>

--- a/Aurora.xlsx
+++ b/Aurora.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ec562523a0c953df/Documentos/planilhas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="129" documentId="6_{30539F51-C84A-45DF-B73B-9BAA80983C9E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{F4FAB1E2-9656-4B47-956E-02A5289D91A1}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="6_{E5EC9A0D-554B-459E-9A44-355BF4B9042C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{15B361FE-9032-417B-A51A-A15A25EBCCA4}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3600" windowWidth="20490" windowHeight="7665" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3600" windowWidth="20490" windowHeight="7665" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2017.1" sheetId="1" r:id="rId1"/>
@@ -268,7 +268,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="38">
   <si>
     <t>janeiro</t>
   </si>
@@ -1194,10 +1194,10 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="20% - Ênfase4" xfId="3" builtinId="42"/>
@@ -1210,6 +1210,165 @@
   </cellStyles>
   <dxfs count="92">
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
       <numFmt numFmtId="2" formatCode="0.00"/>
       <fill>
         <patternFill patternType="none">
@@ -1218,8 +1377,21 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
       <numFmt numFmtId="2" formatCode="0.00"/>
       <fill>
         <patternFill patternType="none">
@@ -1227,19 +1399,49 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="0.000"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="1" formatCode="0"/>
       <fill>
         <patternFill patternType="none">
@@ -1250,6 +1452,22 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="2" formatCode="0.00"/>
       <fill>
         <patternFill patternType="none">
@@ -1260,6 +1478,18 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="2" formatCode="0.00"/>
       <fill>
         <patternFill patternType="none">
@@ -1267,17 +1497,40 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -1286,16 +1539,326 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Constantia"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Constantia"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Constantia"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Constantia"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
       <fill>
         <patternFill patternType="none">
@@ -1303,7 +1866,87 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1339,6 +1982,16 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
       <fill>
         <patternFill patternType="none">
@@ -1349,13 +2002,14 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -1368,6 +2022,35 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
       <fill>
         <patternFill patternType="none">
@@ -1378,35 +2061,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
       <fill>
         <patternFill patternType="none">
@@ -1425,6 +2079,42 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1466,6 +2156,16 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FFFFFFFF"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
       <fill>
         <patternFill patternType="none">
@@ -1476,13 +2176,14 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -1495,6 +2196,35 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
       <fill>
         <patternFill patternType="none">
@@ -1505,257 +2235,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
       <numFmt numFmtId="1" formatCode="0"/>
       <fill>
         <patternFill patternType="none">
@@ -1766,85 +2245,28 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -1853,414 +2275,6 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Constantia"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Constantia"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Constantia"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Constantia"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2297,18 +2311,11 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
         <bottom style="thin">
-          <color rgb="FFFFFFFF"/>
+          <color theme="0"/>
         </bottom>
       </border>
     </dxf>
@@ -2462,13 +2469,6 @@
     <dxf>
       <border outline="0">
         <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
           <color rgb="FFFFFFFF"/>
         </bottom>
       </border>
@@ -2490,15 +2490,15 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{707C8E72-449F-434C-81D2-E6CAE60FDC64}" name="G_20184" displayName="G_20184" ref="A1:G7" totalsRowCount="1" tableBorderDxfId="91" dataCellStyle="Normal">
   <autoFilter ref="A1:G6" xr:uid="{1BB8EF35-A1C5-4DA1-AE25-87B25A5E3E01}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{359F37B9-9617-418F-81F4-00F8F142D6C9}" name="data" dataDxfId="29" totalsRowDxfId="22" dataCellStyle="Normal"/>
-    <tableColumn id="2" xr3:uid="{5B407B50-7529-43FD-BA94-ADB3D3459328}" name="km ini" totalsRowFunction="min" dataDxfId="28" totalsRowDxfId="21" dataCellStyle="Normal"/>
-    <tableColumn id="3" xr3:uid="{08934F92-A85D-4FCC-AAF8-CE32E5CED8EC}" name="km fim" totalsRowFunction="max" dataDxfId="27" totalsRowDxfId="20" dataCellStyle="Normal"/>
-    <tableColumn id="4" xr3:uid="{53CA1E60-5853-464E-B828-BFEECE0B41CF}" name="km" totalsRowFunction="average" dataDxfId="26" totalsRowDxfId="19" dataCellStyle="Normal">
+    <tableColumn id="1" xr3:uid="{359F37B9-9617-418F-81F4-00F8F142D6C9}" name="data" dataDxfId="90" totalsRowDxfId="89" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{5B407B50-7529-43FD-BA94-ADB3D3459328}" name="km ini" totalsRowFunction="min" dataDxfId="88" totalsRowDxfId="87" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{08934F92-A85D-4FCC-AAF8-CE32E5CED8EC}" name="km fim" totalsRowFunction="max" dataDxfId="86" totalsRowDxfId="85" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{53CA1E60-5853-464E-B828-BFEECE0B41CF}" name="km" totalsRowFunction="average" dataDxfId="84" totalsRowDxfId="83" dataCellStyle="Normal">
       <calculatedColumnFormula>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{57D64090-3B83-46A5-A370-00C001CC3A22}" name="valor" totalsRowFunction="sum" dataDxfId="25" totalsRowDxfId="2" dataCellStyle="Normal"/>
-    <tableColumn id="6" xr3:uid="{EA59C9C8-15C0-4DBA-A159-0B2B8BDC9698}" name="preço" totalsRowFunction="average" dataDxfId="24" totalsRowDxfId="1" dataCellStyle="Normal"/>
-    <tableColumn id="7" xr3:uid="{051A8F7F-91AF-40BD-BAE4-405E1FF53171}" name="litros" totalsRowFunction="sum" dataDxfId="23" totalsRowDxfId="0" dataCellStyle="Normal">
+    <tableColumn id="5" xr3:uid="{57D64090-3B83-46A5-A370-00C001CC3A22}" name="valor" totalsRowFunction="sum" dataDxfId="82" totalsRowDxfId="81" dataCellStyle="Normal"/>
+    <tableColumn id="6" xr3:uid="{EA59C9C8-15C0-4DBA-A159-0B2B8BDC9698}" name="preço" totalsRowFunction="average" dataDxfId="80" totalsRowDxfId="79" dataCellStyle="Normal"/>
+    <tableColumn id="7" xr3:uid="{051A8F7F-91AF-40BD-BAE4-405E1FF53171}" name="litros" totalsRowFunction="sum" dataDxfId="78" totalsRowDxfId="77" dataCellStyle="Normal">
       <calculatedColumnFormula>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2507,21 +2507,21 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{F4E8D315-69AB-466D-B82A-109C081FA398}" name="G_2018" displayName="G_2018" ref="A1:G35" totalsRowCount="1" tableBorderDxfId="90" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{F4E8D315-69AB-466D-B82A-109C081FA398}" name="G_2018" displayName="G_2018" ref="A1:G35" totalsRowCount="1" tableBorderDxfId="76" dataCellStyle="Normal">
   <autoFilter ref="A1:G34" xr:uid="{1BB8EF35-A1C5-4DA1-AE25-87B25A5E3E01}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G34">
     <sortCondition ref="A1:A34"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{87768D9A-701C-45DE-920E-7BFC2026C313}" name="data" dataDxfId="89" totalsRowDxfId="88" dataCellStyle="Normal"/>
-    <tableColumn id="2" xr3:uid="{A4AC1043-1F00-40C3-A363-30D037C79583}" name="km ini" totalsRowFunction="min" dataDxfId="87" totalsRowDxfId="86" dataCellStyle="Normal"/>
-    <tableColumn id="3" xr3:uid="{0E5B3C2A-0DDB-40AB-96C9-1BE6758D96EA}" name="km fim" totalsRowFunction="max" dataDxfId="85" totalsRowDxfId="84" dataCellStyle="Normal"/>
-    <tableColumn id="4" xr3:uid="{60E1EC99-F30E-4DB1-A214-9390FFB3442F}" name="km" totalsRowFunction="sum" dataDxfId="83" totalsRowDxfId="82" dataCellStyle="Normal">
+    <tableColumn id="1" xr3:uid="{87768D9A-701C-45DE-920E-7BFC2026C313}" name="data" dataDxfId="75" totalsRowDxfId="74" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{A4AC1043-1F00-40C3-A363-30D037C79583}" name="km ini" totalsRowFunction="min" dataDxfId="73" totalsRowDxfId="72" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{0E5B3C2A-0DDB-40AB-96C9-1BE6758D96EA}" name="km fim" totalsRowFunction="max" dataDxfId="71" totalsRowDxfId="70" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{60E1EC99-F30E-4DB1-A214-9390FFB3442F}" name="km" totalsRowFunction="sum" dataDxfId="69" totalsRowDxfId="68" dataCellStyle="Normal">
       <calculatedColumnFormula>G_2018[[#This Row],[km fim]]-G_2018[[#This Row],[km ini]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{E2DE9863-217C-4C16-A993-DD1B8782AA27}" name="valor" totalsRowFunction="sum" dataDxfId="81" totalsRowDxfId="80" dataCellStyle="Normal"/>
-    <tableColumn id="6" xr3:uid="{1150101B-6F63-4A48-ADE5-664BEE3344D7}" name="preço" totalsRowFunction="average" dataDxfId="79" totalsRowDxfId="78" dataCellStyle="Normal"/>
-    <tableColumn id="7" xr3:uid="{B21A0A4B-7255-42FE-8E4A-B5C699477A83}" name="litros" totalsRowFunction="sum" dataDxfId="77" totalsRowDxfId="76" dataCellStyle="Normal">
+    <tableColumn id="5" xr3:uid="{E2DE9863-217C-4C16-A993-DD1B8782AA27}" name="valor" totalsRowFunction="sum" dataDxfId="67" totalsRowDxfId="66" dataCellStyle="Normal"/>
+    <tableColumn id="6" xr3:uid="{1150101B-6F63-4A48-ADE5-664BEE3344D7}" name="preço" totalsRowFunction="average" dataDxfId="65" totalsRowDxfId="64" dataCellStyle="Normal"/>
+    <tableColumn id="7" xr3:uid="{B21A0A4B-7255-42FE-8E4A-B5C699477A83}" name="litros" totalsRowFunction="sum" dataDxfId="63" totalsRowDxfId="62" dataCellStyle="Normal">
       <calculatedColumnFormula>G_2018[[#This Row],[valor]]/G_2018[[#This Row],[preço]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2530,21 +2530,21 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8D4DA0DB-1768-4A87-8BAC-0BC3711A5C7C}" name="G_2019" displayName="G_2019" ref="A1:H4" totalsRowCount="1" tableBorderDxfId="75" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8D4DA0DB-1768-4A87-8BAC-0BC3711A5C7C}" name="G_2019" displayName="G_2019" ref="A1:H4" totalsRowCount="1" tableBorderDxfId="61" dataCellStyle="Normal">
   <autoFilter ref="A1:H3" xr:uid="{1BB8EF35-A1C5-4DA1-AE25-87B25A5E3E01}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{0CA686D4-5E48-4762-9327-629FEB3146B0}" name="data" dataDxfId="18" totalsRowDxfId="10" dataCellStyle="Normal"/>
-    <tableColumn id="8" xr3:uid="{C4E19C72-93B2-4837-B485-42F08F5ECEBF}" name="hora" totalsRowFunction="average" dataDxfId="17" totalsRowDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{A24831E8-3DCE-4E6E-B7B2-ED8EF5796F22}" name="km ini" totalsRowFunction="min" dataDxfId="16" totalsRowDxfId="8" dataCellStyle="Normal"/>
-    <tableColumn id="3" xr3:uid="{8E05EFCC-4A39-40D2-A035-793B1708027E}" name="km fim" totalsRowFunction="max" dataDxfId="15" totalsRowDxfId="7" dataCellStyle="Normal">
+    <tableColumn id="1" xr3:uid="{0CA686D4-5E48-4762-9327-629FEB3146B0}" name="data" dataDxfId="60" totalsRowDxfId="59" dataCellStyle="Normal"/>
+    <tableColumn id="8" xr3:uid="{C4E19C72-93B2-4837-B485-42F08F5ECEBF}" name="hora" totalsRowFunction="average" dataDxfId="58" totalsRowDxfId="57"/>
+    <tableColumn id="2" xr3:uid="{A24831E8-3DCE-4E6E-B7B2-ED8EF5796F22}" name="km ini" totalsRowFunction="min" dataDxfId="56" totalsRowDxfId="55" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{8E05EFCC-4A39-40D2-A035-793B1708027E}" name="km fim" totalsRowFunction="max" dataDxfId="54" totalsRowDxfId="53" dataCellStyle="Normal">
       <calculatedColumnFormula>C3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{76C9D5C3-4417-44BE-9E71-9E5CAEE19B17}" name="km" totalsRowFunction="sum" dataDxfId="14" totalsRowDxfId="3" dataCellStyle="Normal">
+    <tableColumn id="4" xr3:uid="{76C9D5C3-4417-44BE-9E71-9E5CAEE19B17}" name="km" totalsRowFunction="sum" dataDxfId="52" totalsRowDxfId="51" dataCellStyle="Normal">
       <calculatedColumnFormula>G_2019[[#This Row],[km fim]]-G_2019[[#This Row],[km ini]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{98628619-61B6-4221-97AB-017207261795}" name="valor" totalsRowFunction="sum" dataDxfId="13" totalsRowDxfId="6" dataCellStyle="Normal"/>
-    <tableColumn id="6" xr3:uid="{7269D260-3F9C-4B41-A43E-C2AC48A542E9}" name="preço" totalsRowFunction="average" dataDxfId="12" totalsRowDxfId="5" dataCellStyle="Normal"/>
-    <tableColumn id="7" xr3:uid="{24937D08-B4ED-442D-9694-24626A006DBC}" name="litros" totalsRowFunction="sum" dataDxfId="11" totalsRowDxfId="4" dataCellStyle="Normal">
+    <tableColumn id="5" xr3:uid="{98628619-61B6-4221-97AB-017207261795}" name="valor" totalsRowFunction="sum" dataDxfId="50" totalsRowDxfId="49" dataCellStyle="Normal"/>
+    <tableColumn id="6" xr3:uid="{7269D260-3F9C-4B41-A43E-C2AC48A542E9}" name="preço" totalsRowFunction="average" dataDxfId="48" totalsRowDxfId="47" dataCellStyle="Normal"/>
+    <tableColumn id="7" xr3:uid="{24937D08-B4ED-442D-9694-24626A006DBC}" name="litros" totalsRowFunction="sum" dataDxfId="46" totalsRowDxfId="45" dataCellStyle="Normal">
       <calculatedColumnFormula>G_2019[[#This Row],[valor]]/G_2019[[#This Row],[preço]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2553,32 +2553,32 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{8349ADA9-D7F2-436E-8D85-D66EBD35D289}" name="Viagens" displayName="Viagens" ref="A1:N27" totalsRowCount="1" headerRowDxfId="74" dataDxfId="73" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{8349ADA9-D7F2-436E-8D85-D66EBD35D289}" name="Viagens" displayName="Viagens" ref="A1:N27" totalsRowCount="1" headerRowDxfId="44" dataDxfId="43" dataCellStyle="Normal">
   <autoFilter ref="A1:N26" xr:uid="{91B7E7A6-3E74-4A30-BB6B-4EEBB1B73D97}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N24">
     <sortCondition ref="A1:A24"/>
   </sortState>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{943F9AB6-E0CE-4D16-8D0D-D6CD20DB4E3D}" name="começo/fim da viagem" dataDxfId="72" totalsRowDxfId="71" dataCellStyle="Normal"/>
-    <tableColumn id="8" xr3:uid="{8B7A80CD-1D41-4286-9AE6-30D2E4669859}" name="hora ini" totalsRowFunction="average" dataDxfId="70" totalsRowDxfId="69"/>
-    <tableColumn id="2" xr3:uid="{F79333F5-CCDB-4E3B-A65F-7954CDBED5AC}" name="hora fim" totalsRowFunction="average" dataDxfId="68" totalsRowDxfId="67" dataCellStyle="Normal"/>
-    <tableColumn id="14" xr3:uid="{595493D2-D75D-41DE-91AD-11281D062CA9}" name="horas" totalsRowFunction="average" dataDxfId="66" totalsRowDxfId="65">
+    <tableColumn id="1" xr3:uid="{943F9AB6-E0CE-4D16-8D0D-D6CD20DB4E3D}" name="começo/fim da viagem" dataDxfId="42" totalsRowDxfId="41" dataCellStyle="Normal"/>
+    <tableColumn id="8" xr3:uid="{8B7A80CD-1D41-4286-9AE6-30D2E4669859}" name="hora ini" totalsRowFunction="average" dataDxfId="40" totalsRowDxfId="39"/>
+    <tableColumn id="2" xr3:uid="{F79333F5-CCDB-4E3B-A65F-7954CDBED5AC}" name="hora fim" totalsRowFunction="average" dataDxfId="38" totalsRowDxfId="37" dataCellStyle="Normal"/>
+    <tableColumn id="14" xr3:uid="{595493D2-D75D-41DE-91AD-11281D062CA9}" name="horas" totalsRowFunction="average" dataDxfId="36" totalsRowDxfId="35">
       <calculatedColumnFormula>Viagens[[#This Row],[hora fim]]-Viagens[[#This Row],[hora ini]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{254E01DF-E2FE-4492-9476-CAE2652CB982}" name="km ini" totalsRowFunction="min" dataDxfId="64" totalsRowDxfId="63" dataCellStyle="Normal"/>
-    <tableColumn id="4" xr3:uid="{B85A4F29-C8A5-4E05-A6C0-542D9DF6CB11}" name="km fim" totalsRowFunction="max" dataDxfId="62" totalsRowDxfId="61" dataCellStyle="Normal"/>
-    <tableColumn id="11" xr3:uid="{B2109811-F1C6-4D1C-9E75-85349990007B}" name="km" totalsRowFunction="average" dataDxfId="60" totalsRowDxfId="59"/>
-    <tableColumn id="5" xr3:uid="{A504539A-42D5-4734-99A3-1C79CBD10ADD}" name="L ini" totalsRowFunction="average" dataDxfId="58" totalsRowDxfId="57" dataCellStyle="Normal"/>
-    <tableColumn id="6" xr3:uid="{5168ADB9-DA6A-4473-9847-62692963BE45}" name="L fim" totalsRowFunction="average" dataDxfId="56" totalsRowDxfId="55" dataCellStyle="Normal"/>
-    <tableColumn id="7" xr3:uid="{7A851BFB-669C-4DCC-AB14-044369ECFE05}" name="L" totalsRowFunction="average" dataDxfId="54" totalsRowDxfId="53" dataCellStyle="Normal">
+    <tableColumn id="3" xr3:uid="{254E01DF-E2FE-4492-9476-CAE2652CB982}" name="km ini" totalsRowFunction="min" dataDxfId="34" totalsRowDxfId="33" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{B85A4F29-C8A5-4E05-A6C0-542D9DF6CB11}" name="km fim" totalsRowFunction="max" dataDxfId="32" totalsRowDxfId="31" dataCellStyle="Normal"/>
+    <tableColumn id="11" xr3:uid="{B2109811-F1C6-4D1C-9E75-85349990007B}" name="km" totalsRowFunction="average" dataDxfId="30" totalsRowDxfId="29"/>
+    <tableColumn id="5" xr3:uid="{A504539A-42D5-4734-99A3-1C79CBD10ADD}" name="L ini" totalsRowFunction="average" dataDxfId="28" totalsRowDxfId="27" dataCellStyle="Normal"/>
+    <tableColumn id="6" xr3:uid="{5168ADB9-DA6A-4473-9847-62692963BE45}" name="L fim" totalsRowFunction="average" dataDxfId="26" totalsRowDxfId="25" dataCellStyle="Normal"/>
+    <tableColumn id="7" xr3:uid="{7A851BFB-669C-4DCC-AB14-044369ECFE05}" name="L" totalsRowFunction="average" dataDxfId="24" totalsRowDxfId="23" dataCellStyle="Normal">
       <calculatedColumnFormula>Viagens[[#This Row],[L ini]]-Viagens[[#This Row],[L fim]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{B57F3DE7-B27D-49F3-962C-E191C7F39D71}" name="consumo" totalsRowFunction="average" dataDxfId="52" totalsRowDxfId="51" dataCellStyle="Normal"/>
-    <tableColumn id="10" xr3:uid="{DF9137D7-756E-494C-BCFA-15BA5349D04E}" name="preço" totalsRowFunction="average" dataDxfId="50" totalsRowDxfId="49" dataCellStyle="Normal"/>
-    <tableColumn id="12" xr3:uid="{9BBF57AB-EB30-47D6-BE16-889D42E241F3}" name="custo km" totalsRowFunction="average" dataDxfId="48" totalsRowDxfId="47" dataCellStyle="Normal">
+    <tableColumn id="9" xr3:uid="{B57F3DE7-B27D-49F3-962C-E191C7F39D71}" name="consumo" totalsRowFunction="average" dataDxfId="22" totalsRowDxfId="21" dataCellStyle="Normal"/>
+    <tableColumn id="10" xr3:uid="{DF9137D7-756E-494C-BCFA-15BA5349D04E}" name="preço" totalsRowFunction="average" dataDxfId="20" totalsRowDxfId="19" dataCellStyle="Normal"/>
+    <tableColumn id="12" xr3:uid="{9BBF57AB-EB30-47D6-BE16-889D42E241F3}" name="custo km" totalsRowFunction="average" dataDxfId="18" totalsRowDxfId="17" dataCellStyle="Normal">
       <calculatedColumnFormula>Viagens[[#This Row],[preço]]/Viagens[[#This Row],[consumo]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{1573DC55-E347-4C35-96EE-F132F6B74719}" name="custo total" totalsRowFunction="average" dataDxfId="46" totalsRowDxfId="45" dataCellStyle="Normal">
+    <tableColumn id="13" xr3:uid="{1573DC55-E347-4C35-96EE-F132F6B74719}" name="custo total" totalsRowFunction="average" dataDxfId="16" totalsRowDxfId="15" dataCellStyle="Normal">
       <calculatedColumnFormula>Viagens[[#This Row],[L]]*Viagens[[#This Row],[preço]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2587,17 +2587,17 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{137CCE77-ADDB-4C8C-995A-CD5917FE5216}" name="Etanol" displayName="Etanol" ref="A1:F21" totalsRowCount="1" headerRowDxfId="44" dataDxfId="43" totalsRowDxfId="42">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{137CCE77-ADDB-4C8C-995A-CD5917FE5216}" name="Etanol" displayName="Etanol" ref="A1:F21" totalsRowCount="1" headerRowDxfId="14" dataDxfId="13" totalsRowDxfId="12">
   <autoFilter ref="A1:F20" xr:uid="{BA0B08BB-754D-4819-AC93-39A0554A2FF6}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{FC48604D-710C-4BBA-B35F-209384F01637}" name="data" dataDxfId="41" totalsRowDxfId="40"/>
-    <tableColumn id="2" xr3:uid="{A139AE0A-C5DF-448F-8E20-931AD1CD8489}" name="hora" totalsRowFunction="average" dataDxfId="39" totalsRowDxfId="38"/>
-    <tableColumn id="5" xr3:uid="{69037EB3-F18F-4F01-86AC-2F03E2616671}" name="valor" totalsRowFunction="sum" dataDxfId="37" totalsRowDxfId="36">
+    <tableColumn id="1" xr3:uid="{FC48604D-710C-4BBA-B35F-209384F01637}" name="data" dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{A139AE0A-C5DF-448F-8E20-931AD1CD8489}" name="hora" totalsRowFunction="average" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{69037EB3-F18F-4F01-86AC-2F03E2616671}" name="valor" totalsRowFunction="sum" dataDxfId="7" totalsRowDxfId="6">
       <calculatedColumnFormula>Etanol[[#This Row],[preço]]*Etanol[[#This Row],[litros]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{D7C46694-E6CD-4C31-9617-E21EBBD7D56E}" name="preço" totalsRowFunction="average" dataDxfId="35" totalsRowDxfId="34"/>
-    <tableColumn id="7" xr3:uid="{F099CEFF-1A72-4F01-8112-F305B04A303E}" name="litros" totalsRowFunction="sum" dataDxfId="33" totalsRowDxfId="32"/>
-    <tableColumn id="3" xr3:uid="{539451E7-6D16-4B47-A7EF-A1E0AFF83B9A}" name="km" dataDxfId="31" totalsRowDxfId="30"/>
+    <tableColumn id="6" xr3:uid="{D7C46694-E6CD-4C31-9617-E21EBBD7D56E}" name="preço" totalsRowFunction="average" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{F099CEFF-1A72-4F01-8112-F305B04A303E}" name="litros" totalsRowFunction="sum" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{539451E7-6D16-4B47-A7EF-A1E0AFF83B9A}" name="km" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -2932,30 +2932,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="166" t="s">
+      <c r="A1" s="167" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="166"/>
-      <c r="C1" s="166"/>
-      <c r="D1" s="166"/>
-      <c r="E1" s="166"/>
-      <c r="F1" s="166"/>
-      <c r="G1" s="166" t="s">
+      <c r="B1" s="167"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="167"/>
+      <c r="F1" s="167"/>
+      <c r="G1" s="167" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="166"/>
-      <c r="I1" s="166"/>
-      <c r="J1" s="166"/>
-      <c r="K1" s="166"/>
-      <c r="L1" s="166"/>
-      <c r="M1" s="166" t="s">
+      <c r="H1" s="167"/>
+      <c r="I1" s="167"/>
+      <c r="J1" s="167"/>
+      <c r="K1" s="167"/>
+      <c r="L1" s="167"/>
+      <c r="M1" s="167" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="166"/>
-      <c r="O1" s="166"/>
-      <c r="P1" s="166"/>
-      <c r="Q1" s="166"/>
-      <c r="R1" s="166"/>
+      <c r="N1" s="167"/>
+      <c r="O1" s="167"/>
+      <c r="P1" s="167"/>
+      <c r="Q1" s="167"/>
+      <c r="R1" s="167"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="6"/>
@@ -3773,30 +3773,30 @@
       <c r="V15" s="6"/>
     </row>
     <row r="16" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="166" t="s">
+      <c r="A16" s="167" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="166"/>
-      <c r="C16" s="166"/>
-      <c r="D16" s="166"/>
-      <c r="E16" s="166"/>
-      <c r="F16" s="166" t="s">
+      <c r="B16" s="167"/>
+      <c r="C16" s="167"/>
+      <c r="D16" s="167"/>
+      <c r="E16" s="167"/>
+      <c r="F16" s="167" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="166"/>
-      <c r="H16" s="166"/>
-      <c r="I16" s="166"/>
-      <c r="J16" s="166"/>
-      <c r="K16" s="166"/>
-      <c r="L16" s="166"/>
-      <c r="M16" s="166" t="s">
+      <c r="G16" s="167"/>
+      <c r="H16" s="167"/>
+      <c r="I16" s="167"/>
+      <c r="J16" s="167"/>
+      <c r="K16" s="167"/>
+      <c r="L16" s="167"/>
+      <c r="M16" s="167" t="s">
         <v>15</v>
       </c>
-      <c r="N16" s="166"/>
-      <c r="O16" s="166"/>
-      <c r="P16" s="166"/>
-      <c r="Q16" s="166"/>
-      <c r="R16" s="166"/>
+      <c r="N16" s="167"/>
+      <c r="O16" s="167"/>
+      <c r="P16" s="167"/>
+      <c r="Q16" s="167"/>
+      <c r="R16" s="167"/>
       <c r="S16" s="6"/>
       <c r="T16" s="6"/>
       <c r="U16" s="6"/>
@@ -3840,8 +3840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3861,30 +3861,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="166" t="s">
+      <c r="A1" s="167" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="166"/>
-      <c r="C1" s="166"/>
-      <c r="D1" s="166"/>
-      <c r="E1" s="166"/>
-      <c r="F1" s="166"/>
-      <c r="G1" s="166" t="s">
+      <c r="B1" s="167"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="167"/>
+      <c r="F1" s="167"/>
+      <c r="G1" s="167" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="166"/>
-      <c r="I1" s="166"/>
-      <c r="J1" s="166"/>
-      <c r="K1" s="166"/>
-      <c r="L1" s="166"/>
-      <c r="M1" s="166" t="s">
+      <c r="H1" s="167"/>
+      <c r="I1" s="167"/>
+      <c r="J1" s="167"/>
+      <c r="K1" s="167"/>
+      <c r="L1" s="167"/>
+      <c r="M1" s="167" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="166"/>
-      <c r="O1" s="166"/>
-      <c r="P1" s="166"/>
-      <c r="Q1" s="166"/>
-      <c r="R1" s="166"/>
+      <c r="N1" s="167"/>
+      <c r="O1" s="167"/>
+      <c r="P1" s="167"/>
+      <c r="Q1" s="167"/>
+      <c r="R1" s="167"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
     </row>
@@ -3948,7 +3948,7 @@
       </c>
       <c r="T2" s="28">
         <f>SUM(B8,H8,N8,B9,H9,N9)</f>
-        <v>1339.05</v>
+        <v>1218.99</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -4019,7 +4019,7 @@
       </c>
       <c r="T3" s="28">
         <f>SUM(E8,K8,Q8,Q9,K9,E9)</f>
-        <v>299.38911804244378</v>
+        <v>270.65975695127366</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -4084,7 +4084,7 @@
       </c>
       <c r="T4" s="29">
         <f>SUM(D8,J8,P8,D9,J9,P9)</f>
-        <v>3282</v>
+        <v>3028</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -4134,7 +4134,7 @@
       </c>
       <c r="T5" s="28">
         <f>T2/T3</f>
-        <v>4.472607450649444</v>
+        <v>4.5037726100502349</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
@@ -4299,19 +4299,19 @@
       <c r="M9" s="66"/>
       <c r="N9" s="68">
         <f>N11</f>
-        <v>120.06</v>
+        <v>0</v>
       </c>
       <c r="O9" s="67">
         <f>O11</f>
-        <v>4.1790000000000003</v>
+        <v>0</v>
       </c>
       <c r="P9" s="68">
         <f t="shared" ref="P9:Q9" si="3">P11</f>
-        <v>254</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="68">
         <f t="shared" si="3"/>
-        <v>28.729361091170134</v>
+        <v>0</v>
       </c>
       <c r="R9" s="65"/>
       <c r="S9" s="6"/>
@@ -4350,20 +4350,11 @@
       </c>
       <c r="K10" s="54"/>
       <c r="L10" s="33"/>
-      <c r="M10" s="75" t="s">
-        <v>10</v>
-      </c>
-      <c r="N10" s="76">
-        <v>40</v>
-      </c>
-      <c r="O10" s="77">
-        <v>3.27</v>
-      </c>
+      <c r="M10" s="75"/>
+      <c r="N10" s="76"/>
+      <c r="O10" s="77"/>
       <c r="P10" s="78"/>
-      <c r="Q10" s="79">
-        <f>N10/O10</f>
-        <v>12.232415902140673</v>
-      </c>
+      <c r="Q10" s="79"/>
       <c r="R10" s="80"/>
       <c r="S10" s="6"/>
       <c r="T10" s="6"/>
@@ -4405,23 +4396,11 @@
         <v>38.872860635696824</v>
       </c>
       <c r="L11" s="83"/>
-      <c r="M11" s="92">
-        <v>43087</v>
-      </c>
-      <c r="N11" s="93">
-        <v>120.06</v>
-      </c>
-      <c r="O11" s="94">
-        <v>4.1790000000000003</v>
-      </c>
-      <c r="P11" s="95">
-        <f>71219-SUM($D$3:$D$6)-SUM($J$3:$J$6)-SUM($P$3:$P$4)-SUM($D$10:$D$11)-SUM($J$10:$J$13)</f>
-        <v>254</v>
-      </c>
-      <c r="Q11" s="79">
-        <f>N11/O11</f>
-        <v>28.729361091170134</v>
-      </c>
+      <c r="M11" s="92"/>
+      <c r="N11" s="93"/>
+      <c r="O11" s="94"/>
+      <c r="P11" s="95"/>
+      <c r="Q11" s="79"/>
       <c r="R11" s="97"/>
       <c r="S11" s="6"/>
       <c r="T11" s="6"/>
@@ -4577,30 +4556,30 @@
       <c r="T15" s="6"/>
     </row>
     <row r="16" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="166" t="s">
+      <c r="A16" s="167" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="166"/>
-      <c r="C16" s="166"/>
-      <c r="D16" s="166"/>
-      <c r="E16" s="166"/>
-      <c r="F16" s="166" t="s">
+      <c r="B16" s="167"/>
+      <c r="C16" s="167"/>
+      <c r="D16" s="167"/>
+      <c r="E16" s="167"/>
+      <c r="F16" s="167" t="s">
         <v>21</v>
       </c>
-      <c r="G16" s="166"/>
-      <c r="H16" s="166"/>
-      <c r="I16" s="166"/>
-      <c r="J16" s="166"/>
-      <c r="K16" s="166"/>
-      <c r="L16" s="166"/>
-      <c r="M16" s="166" t="s">
+      <c r="G16" s="167"/>
+      <c r="H16" s="167"/>
+      <c r="I16" s="167"/>
+      <c r="J16" s="167"/>
+      <c r="K16" s="167"/>
+      <c r="L16" s="167"/>
+      <c r="M16" s="167" t="s">
         <v>22</v>
       </c>
-      <c r="N16" s="166"/>
-      <c r="O16" s="166"/>
-      <c r="P16" s="166"/>
-      <c r="Q16" s="166"/>
-      <c r="R16" s="166"/>
+      <c r="N16" s="167"/>
+      <c r="O16" s="167"/>
+      <c r="P16" s="167"/>
+      <c r="Q16" s="167"/>
+      <c r="R16" s="167"/>
       <c r="S16" s="6"/>
       <c r="T16" s="6"/>
     </row>
@@ -4630,7 +4609,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82D5A34F-EB28-41C8-A1E3-151E9E71FB07}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -4674,7 +4653,7 @@
       <c r="A2" s="98">
         <v>43034</v>
       </c>
-      <c r="B2" s="167">
+      <c r="B2" s="166">
         <v>69879</v>
       </c>
       <c r="C2" s="129">
@@ -4727,7 +4706,7 @@
       <c r="B4" s="129">
         <v>70809</v>
       </c>
-      <c r="C4" s="167">
+      <c r="C4" s="166">
         <v>70965</v>
       </c>
       <c r="D4" s="132">
@@ -5759,7 +5738,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5903,8 +5882,8 @@
   </sheetPr>
   <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Aurora.xlsx
+++ b/Aurora.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ec562523a0c953df/Documentos/planilhas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="6_{E5EC9A0D-554B-459E-9A44-355BF4B9042C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{15B361FE-9032-417B-A51A-A15A25EBCCA4}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="107_{E6A6EEF9-E5F6-400A-A355-84C1BD44780A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{ACE5A470-E728-4325-ABA9-7969B622C67C}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="3600" windowWidth="20490" windowHeight="7665" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3841,7 +3841,7 @@
   <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4473,20 +4473,11 @@
       <c r="D14" s="40"/>
       <c r="E14" s="51"/>
       <c r="F14" s="31"/>
-      <c r="G14" s="86">
-        <v>43069</v>
-      </c>
-      <c r="H14" s="87">
-        <v>40</v>
-      </c>
-      <c r="I14" s="88">
-        <v>3.37</v>
-      </c>
+      <c r="G14" s="86"/>
+      <c r="H14" s="87"/>
+      <c r="I14" s="88"/>
       <c r="J14" s="89"/>
-      <c r="K14" s="90">
-        <f>H14/I14</f>
-        <v>11.869436201780415</v>
-      </c>
+      <c r="K14" s="90"/>
       <c r="L14" s="91"/>
       <c r="M14" s="92"/>
       <c r="N14" s="93"/>

--- a/Aurora.xlsx
+++ b/Aurora.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ec562523a0c953df/Documentos/planilhas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="107_{E6A6EEF9-E5F6-400A-A355-84C1BD44780A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{ACE5A470-E728-4325-ABA9-7969B622C67C}"/>
+  <xr:revisionPtr revIDLastSave="41" documentId="107_{E6A6EEF9-E5F6-400A-A355-84C1BD44780A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{8E8D63B0-1A3A-4BBA-8315-685FE9D40408}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="3600" windowWidth="20490" windowHeight="7665" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -729,7 +729,7 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="168">
+  <cellXfs count="169">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
@@ -1198,6 +1198,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="20% - Ênfase4" xfId="3" builtinId="42"/>
@@ -1209,6 +1210,153 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="92">
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -2320,153 +2468,6 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
       <border outline="0">
         <bottom style="thin">
           <color rgb="FFFFFFFF"/>
@@ -2487,18 +2488,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{707C8E72-449F-434C-81D2-E6CAE60FDC64}" name="G_20184" displayName="G_20184" ref="A1:G7" totalsRowCount="1" tableBorderDxfId="91" dataCellStyle="Normal">
-  <autoFilter ref="A1:G6" xr:uid="{1BB8EF35-A1C5-4DA1-AE25-87B25A5E3E01}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{707C8E72-449F-434C-81D2-E6CAE60FDC64}" name="G_20184" displayName="G_20184" ref="A1:G9" totalsRowCount="1" tableBorderDxfId="91" dataCellStyle="Normal">
+  <autoFilter ref="A1:G8" xr:uid="{1BB8EF35-A1C5-4DA1-AE25-87B25A5E3E01}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{359F37B9-9617-418F-81F4-00F8F142D6C9}" name="data" dataDxfId="90" totalsRowDxfId="89" dataCellStyle="Normal"/>
-    <tableColumn id="2" xr3:uid="{5B407B50-7529-43FD-BA94-ADB3D3459328}" name="km ini" totalsRowFunction="min" dataDxfId="88" totalsRowDxfId="87" dataCellStyle="Normal"/>
-    <tableColumn id="3" xr3:uid="{08934F92-A85D-4FCC-AAF8-CE32E5CED8EC}" name="km fim" totalsRowFunction="max" dataDxfId="86" totalsRowDxfId="85" dataCellStyle="Normal"/>
-    <tableColumn id="4" xr3:uid="{53CA1E60-5853-464E-B828-BFEECE0B41CF}" name="km" totalsRowFunction="average" dataDxfId="84" totalsRowDxfId="83" dataCellStyle="Normal">
+    <tableColumn id="1" xr3:uid="{359F37B9-9617-418F-81F4-00F8F142D6C9}" name="data" dataDxfId="13" totalsRowDxfId="6" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{5B407B50-7529-43FD-BA94-ADB3D3459328}" name="km ini" totalsRowFunction="min" dataDxfId="12" totalsRowDxfId="5" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{08934F92-A85D-4FCC-AAF8-CE32E5CED8EC}" name="km fim" totalsRowFunction="max" dataDxfId="11" totalsRowDxfId="4" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{53CA1E60-5853-464E-B828-BFEECE0B41CF}" name="km" totalsRowFunction="average" dataDxfId="10" totalsRowDxfId="3" dataCellStyle="Normal">
       <calculatedColumnFormula>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{57D64090-3B83-46A5-A370-00C001CC3A22}" name="valor" totalsRowFunction="sum" dataDxfId="82" totalsRowDxfId="81" dataCellStyle="Normal"/>
-    <tableColumn id="6" xr3:uid="{EA59C9C8-15C0-4DBA-A159-0B2B8BDC9698}" name="preço" totalsRowFunction="average" dataDxfId="80" totalsRowDxfId="79" dataCellStyle="Normal"/>
-    <tableColumn id="7" xr3:uid="{051A8F7F-91AF-40BD-BAE4-405E1FF53171}" name="litros" totalsRowFunction="sum" dataDxfId="78" totalsRowDxfId="77" dataCellStyle="Normal">
+    <tableColumn id="5" xr3:uid="{57D64090-3B83-46A5-A370-00C001CC3A22}" name="valor" totalsRowFunction="sum" dataDxfId="9" totalsRowDxfId="2" dataCellStyle="Normal"/>
+    <tableColumn id="6" xr3:uid="{EA59C9C8-15C0-4DBA-A159-0B2B8BDC9698}" name="preço" totalsRowFunction="average" dataDxfId="8" totalsRowDxfId="1" dataCellStyle="Normal"/>
+    <tableColumn id="7" xr3:uid="{051A8F7F-91AF-40BD-BAE4-405E1FF53171}" name="litros" totalsRowFunction="sum" dataDxfId="7" totalsRowDxfId="0" dataCellStyle="Normal">
       <calculatedColumnFormula>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2507,21 +2508,21 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{F4E8D315-69AB-466D-B82A-109C081FA398}" name="G_2018" displayName="G_2018" ref="A1:G35" totalsRowCount="1" tableBorderDxfId="76" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{F4E8D315-69AB-466D-B82A-109C081FA398}" name="G_2018" displayName="G_2018" ref="A1:G35" totalsRowCount="1" tableBorderDxfId="90" dataCellStyle="Normal">
   <autoFilter ref="A1:G34" xr:uid="{1BB8EF35-A1C5-4DA1-AE25-87B25A5E3E01}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G34">
     <sortCondition ref="A1:A34"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{87768D9A-701C-45DE-920E-7BFC2026C313}" name="data" dataDxfId="75" totalsRowDxfId="74" dataCellStyle="Normal"/>
-    <tableColumn id="2" xr3:uid="{A4AC1043-1F00-40C3-A363-30D037C79583}" name="km ini" totalsRowFunction="min" dataDxfId="73" totalsRowDxfId="72" dataCellStyle="Normal"/>
-    <tableColumn id="3" xr3:uid="{0E5B3C2A-0DDB-40AB-96C9-1BE6758D96EA}" name="km fim" totalsRowFunction="max" dataDxfId="71" totalsRowDxfId="70" dataCellStyle="Normal"/>
-    <tableColumn id="4" xr3:uid="{60E1EC99-F30E-4DB1-A214-9390FFB3442F}" name="km" totalsRowFunction="sum" dataDxfId="69" totalsRowDxfId="68" dataCellStyle="Normal">
+    <tableColumn id="1" xr3:uid="{87768D9A-701C-45DE-920E-7BFC2026C313}" name="data" dataDxfId="89" totalsRowDxfId="88" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{A4AC1043-1F00-40C3-A363-30D037C79583}" name="km ini" totalsRowFunction="min" dataDxfId="87" totalsRowDxfId="86" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{0E5B3C2A-0DDB-40AB-96C9-1BE6758D96EA}" name="km fim" totalsRowFunction="max" dataDxfId="85" totalsRowDxfId="84" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{60E1EC99-F30E-4DB1-A214-9390FFB3442F}" name="km" totalsRowFunction="sum" dataDxfId="83" totalsRowDxfId="82" dataCellStyle="Normal">
       <calculatedColumnFormula>G_2018[[#This Row],[km fim]]-G_2018[[#This Row],[km ini]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{E2DE9863-217C-4C16-A993-DD1B8782AA27}" name="valor" totalsRowFunction="sum" dataDxfId="67" totalsRowDxfId="66" dataCellStyle="Normal"/>
-    <tableColumn id="6" xr3:uid="{1150101B-6F63-4A48-ADE5-664BEE3344D7}" name="preço" totalsRowFunction="average" dataDxfId="65" totalsRowDxfId="64" dataCellStyle="Normal"/>
-    <tableColumn id="7" xr3:uid="{B21A0A4B-7255-42FE-8E4A-B5C699477A83}" name="litros" totalsRowFunction="sum" dataDxfId="63" totalsRowDxfId="62" dataCellStyle="Normal">
+    <tableColumn id="5" xr3:uid="{E2DE9863-217C-4C16-A993-DD1B8782AA27}" name="valor" totalsRowFunction="sum" dataDxfId="81" totalsRowDxfId="80" dataCellStyle="Normal"/>
+    <tableColumn id="6" xr3:uid="{1150101B-6F63-4A48-ADE5-664BEE3344D7}" name="preço" totalsRowFunction="average" dataDxfId="79" totalsRowDxfId="78" dataCellStyle="Normal"/>
+    <tableColumn id="7" xr3:uid="{B21A0A4B-7255-42FE-8E4A-B5C699477A83}" name="litros" totalsRowFunction="sum" dataDxfId="77" totalsRowDxfId="76" dataCellStyle="Normal">
       <calculatedColumnFormula>G_2018[[#This Row],[valor]]/G_2018[[#This Row],[preço]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2530,21 +2531,21 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8D4DA0DB-1768-4A87-8BAC-0BC3711A5C7C}" name="G_2019" displayName="G_2019" ref="A1:H4" totalsRowCount="1" tableBorderDxfId="61" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8D4DA0DB-1768-4A87-8BAC-0BC3711A5C7C}" name="G_2019" displayName="G_2019" ref="A1:H4" totalsRowCount="1" tableBorderDxfId="75" dataCellStyle="Normal">
   <autoFilter ref="A1:H3" xr:uid="{1BB8EF35-A1C5-4DA1-AE25-87B25A5E3E01}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{0CA686D4-5E48-4762-9327-629FEB3146B0}" name="data" dataDxfId="60" totalsRowDxfId="59" dataCellStyle="Normal"/>
-    <tableColumn id="8" xr3:uid="{C4E19C72-93B2-4837-B485-42F08F5ECEBF}" name="hora" totalsRowFunction="average" dataDxfId="58" totalsRowDxfId="57"/>
-    <tableColumn id="2" xr3:uid="{A24831E8-3DCE-4E6E-B7B2-ED8EF5796F22}" name="km ini" totalsRowFunction="min" dataDxfId="56" totalsRowDxfId="55" dataCellStyle="Normal"/>
-    <tableColumn id="3" xr3:uid="{8E05EFCC-4A39-40D2-A035-793B1708027E}" name="km fim" totalsRowFunction="max" dataDxfId="54" totalsRowDxfId="53" dataCellStyle="Normal">
+    <tableColumn id="1" xr3:uid="{0CA686D4-5E48-4762-9327-629FEB3146B0}" name="data" dataDxfId="74" totalsRowDxfId="73" dataCellStyle="Normal"/>
+    <tableColumn id="8" xr3:uid="{C4E19C72-93B2-4837-B485-42F08F5ECEBF}" name="hora" totalsRowFunction="average" dataDxfId="72" totalsRowDxfId="71"/>
+    <tableColumn id="2" xr3:uid="{A24831E8-3DCE-4E6E-B7B2-ED8EF5796F22}" name="km ini" totalsRowFunction="min" dataDxfId="70" totalsRowDxfId="69" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{8E05EFCC-4A39-40D2-A035-793B1708027E}" name="km fim" totalsRowFunction="max" dataDxfId="68" totalsRowDxfId="67" dataCellStyle="Normal">
       <calculatedColumnFormula>C3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{76C9D5C3-4417-44BE-9E71-9E5CAEE19B17}" name="km" totalsRowFunction="sum" dataDxfId="52" totalsRowDxfId="51" dataCellStyle="Normal">
+    <tableColumn id="4" xr3:uid="{76C9D5C3-4417-44BE-9E71-9E5CAEE19B17}" name="km" totalsRowFunction="sum" dataDxfId="66" totalsRowDxfId="65" dataCellStyle="Normal">
       <calculatedColumnFormula>G_2019[[#This Row],[km fim]]-G_2019[[#This Row],[km ini]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{98628619-61B6-4221-97AB-017207261795}" name="valor" totalsRowFunction="sum" dataDxfId="50" totalsRowDxfId="49" dataCellStyle="Normal"/>
-    <tableColumn id="6" xr3:uid="{7269D260-3F9C-4B41-A43E-C2AC48A542E9}" name="preço" totalsRowFunction="average" dataDxfId="48" totalsRowDxfId="47" dataCellStyle="Normal"/>
-    <tableColumn id="7" xr3:uid="{24937D08-B4ED-442D-9694-24626A006DBC}" name="litros" totalsRowFunction="sum" dataDxfId="46" totalsRowDxfId="45" dataCellStyle="Normal">
+    <tableColumn id="5" xr3:uid="{98628619-61B6-4221-97AB-017207261795}" name="valor" totalsRowFunction="sum" dataDxfId="64" totalsRowDxfId="63" dataCellStyle="Normal"/>
+    <tableColumn id="6" xr3:uid="{7269D260-3F9C-4B41-A43E-C2AC48A542E9}" name="preço" totalsRowFunction="average" dataDxfId="62" totalsRowDxfId="61" dataCellStyle="Normal"/>
+    <tableColumn id="7" xr3:uid="{24937D08-B4ED-442D-9694-24626A006DBC}" name="litros" totalsRowFunction="sum" dataDxfId="60" totalsRowDxfId="59" dataCellStyle="Normal">
       <calculatedColumnFormula>G_2019[[#This Row],[valor]]/G_2019[[#This Row],[preço]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2553,32 +2554,32 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{8349ADA9-D7F2-436E-8D85-D66EBD35D289}" name="Viagens" displayName="Viagens" ref="A1:N27" totalsRowCount="1" headerRowDxfId="44" dataDxfId="43" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{8349ADA9-D7F2-436E-8D85-D66EBD35D289}" name="Viagens" displayName="Viagens" ref="A1:N27" totalsRowCount="1" headerRowDxfId="58" dataDxfId="57" dataCellStyle="Normal">
   <autoFilter ref="A1:N26" xr:uid="{91B7E7A6-3E74-4A30-BB6B-4EEBB1B73D97}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N24">
     <sortCondition ref="A1:A24"/>
   </sortState>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{943F9AB6-E0CE-4D16-8D0D-D6CD20DB4E3D}" name="começo/fim da viagem" dataDxfId="42" totalsRowDxfId="41" dataCellStyle="Normal"/>
-    <tableColumn id="8" xr3:uid="{8B7A80CD-1D41-4286-9AE6-30D2E4669859}" name="hora ini" totalsRowFunction="average" dataDxfId="40" totalsRowDxfId="39"/>
-    <tableColumn id="2" xr3:uid="{F79333F5-CCDB-4E3B-A65F-7954CDBED5AC}" name="hora fim" totalsRowFunction="average" dataDxfId="38" totalsRowDxfId="37" dataCellStyle="Normal"/>
-    <tableColumn id="14" xr3:uid="{595493D2-D75D-41DE-91AD-11281D062CA9}" name="horas" totalsRowFunction="average" dataDxfId="36" totalsRowDxfId="35">
+    <tableColumn id="1" xr3:uid="{943F9AB6-E0CE-4D16-8D0D-D6CD20DB4E3D}" name="começo/fim da viagem" dataDxfId="56" totalsRowDxfId="55" dataCellStyle="Normal"/>
+    <tableColumn id="8" xr3:uid="{8B7A80CD-1D41-4286-9AE6-30D2E4669859}" name="hora ini" totalsRowFunction="average" dataDxfId="54" totalsRowDxfId="53"/>
+    <tableColumn id="2" xr3:uid="{F79333F5-CCDB-4E3B-A65F-7954CDBED5AC}" name="hora fim" totalsRowFunction="average" dataDxfId="52" totalsRowDxfId="51" dataCellStyle="Normal"/>
+    <tableColumn id="14" xr3:uid="{595493D2-D75D-41DE-91AD-11281D062CA9}" name="horas" totalsRowFunction="average" dataDxfId="50" totalsRowDxfId="49">
       <calculatedColumnFormula>Viagens[[#This Row],[hora fim]]-Viagens[[#This Row],[hora ini]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{254E01DF-E2FE-4492-9476-CAE2652CB982}" name="km ini" totalsRowFunction="min" dataDxfId="34" totalsRowDxfId="33" dataCellStyle="Normal"/>
-    <tableColumn id="4" xr3:uid="{B85A4F29-C8A5-4E05-A6C0-542D9DF6CB11}" name="km fim" totalsRowFunction="max" dataDxfId="32" totalsRowDxfId="31" dataCellStyle="Normal"/>
-    <tableColumn id="11" xr3:uid="{B2109811-F1C6-4D1C-9E75-85349990007B}" name="km" totalsRowFunction="average" dataDxfId="30" totalsRowDxfId="29"/>
-    <tableColumn id="5" xr3:uid="{A504539A-42D5-4734-99A3-1C79CBD10ADD}" name="L ini" totalsRowFunction="average" dataDxfId="28" totalsRowDxfId="27" dataCellStyle="Normal"/>
-    <tableColumn id="6" xr3:uid="{5168ADB9-DA6A-4473-9847-62692963BE45}" name="L fim" totalsRowFunction="average" dataDxfId="26" totalsRowDxfId="25" dataCellStyle="Normal"/>
-    <tableColumn id="7" xr3:uid="{7A851BFB-669C-4DCC-AB14-044369ECFE05}" name="L" totalsRowFunction="average" dataDxfId="24" totalsRowDxfId="23" dataCellStyle="Normal">
+    <tableColumn id="3" xr3:uid="{254E01DF-E2FE-4492-9476-CAE2652CB982}" name="km ini" totalsRowFunction="min" dataDxfId="48" totalsRowDxfId="47" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{B85A4F29-C8A5-4E05-A6C0-542D9DF6CB11}" name="km fim" totalsRowFunction="max" dataDxfId="46" totalsRowDxfId="45" dataCellStyle="Normal"/>
+    <tableColumn id="11" xr3:uid="{B2109811-F1C6-4D1C-9E75-85349990007B}" name="km" totalsRowFunction="average" dataDxfId="44" totalsRowDxfId="43"/>
+    <tableColumn id="5" xr3:uid="{A504539A-42D5-4734-99A3-1C79CBD10ADD}" name="L ini" totalsRowFunction="average" dataDxfId="42" totalsRowDxfId="41" dataCellStyle="Normal"/>
+    <tableColumn id="6" xr3:uid="{5168ADB9-DA6A-4473-9847-62692963BE45}" name="L fim" totalsRowFunction="average" dataDxfId="40" totalsRowDxfId="39" dataCellStyle="Normal"/>
+    <tableColumn id="7" xr3:uid="{7A851BFB-669C-4DCC-AB14-044369ECFE05}" name="L" totalsRowFunction="average" dataDxfId="38" totalsRowDxfId="37" dataCellStyle="Normal">
       <calculatedColumnFormula>Viagens[[#This Row],[L ini]]-Viagens[[#This Row],[L fim]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{B57F3DE7-B27D-49F3-962C-E191C7F39D71}" name="consumo" totalsRowFunction="average" dataDxfId="22" totalsRowDxfId="21" dataCellStyle="Normal"/>
-    <tableColumn id="10" xr3:uid="{DF9137D7-756E-494C-BCFA-15BA5349D04E}" name="preço" totalsRowFunction="average" dataDxfId="20" totalsRowDxfId="19" dataCellStyle="Normal"/>
-    <tableColumn id="12" xr3:uid="{9BBF57AB-EB30-47D6-BE16-889D42E241F3}" name="custo km" totalsRowFunction="average" dataDxfId="18" totalsRowDxfId="17" dataCellStyle="Normal">
+    <tableColumn id="9" xr3:uid="{B57F3DE7-B27D-49F3-962C-E191C7F39D71}" name="consumo" totalsRowFunction="average" dataDxfId="36" totalsRowDxfId="35" dataCellStyle="Normal"/>
+    <tableColumn id="10" xr3:uid="{DF9137D7-756E-494C-BCFA-15BA5349D04E}" name="preço" totalsRowFunction="average" dataDxfId="34" totalsRowDxfId="33" dataCellStyle="Normal"/>
+    <tableColumn id="12" xr3:uid="{9BBF57AB-EB30-47D6-BE16-889D42E241F3}" name="custo km" totalsRowFunction="average" dataDxfId="32" totalsRowDxfId="31" dataCellStyle="Normal">
       <calculatedColumnFormula>Viagens[[#This Row],[preço]]/Viagens[[#This Row],[consumo]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{1573DC55-E347-4C35-96EE-F132F6B74719}" name="custo total" totalsRowFunction="average" dataDxfId="16" totalsRowDxfId="15" dataCellStyle="Normal">
+    <tableColumn id="13" xr3:uid="{1573DC55-E347-4C35-96EE-F132F6B74719}" name="custo total" totalsRowFunction="average" dataDxfId="30" totalsRowDxfId="29" dataCellStyle="Normal">
       <calculatedColumnFormula>Viagens[[#This Row],[L]]*Viagens[[#This Row],[preço]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2587,17 +2588,17 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{137CCE77-ADDB-4C8C-995A-CD5917FE5216}" name="Etanol" displayName="Etanol" ref="A1:F21" totalsRowCount="1" headerRowDxfId="14" dataDxfId="13" totalsRowDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{137CCE77-ADDB-4C8C-995A-CD5917FE5216}" name="Etanol" displayName="Etanol" ref="A1:F21" totalsRowCount="1" headerRowDxfId="28" dataDxfId="27" totalsRowDxfId="26">
   <autoFilter ref="A1:F20" xr:uid="{BA0B08BB-754D-4819-AC93-39A0554A2FF6}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{FC48604D-710C-4BBA-B35F-209384F01637}" name="data" dataDxfId="11" totalsRowDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{A139AE0A-C5DF-448F-8E20-931AD1CD8489}" name="hora" totalsRowFunction="average" dataDxfId="9" totalsRowDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{69037EB3-F18F-4F01-86AC-2F03E2616671}" name="valor" totalsRowFunction="sum" dataDxfId="7" totalsRowDxfId="6">
+    <tableColumn id="1" xr3:uid="{FC48604D-710C-4BBA-B35F-209384F01637}" name="data" dataDxfId="25" totalsRowDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{A139AE0A-C5DF-448F-8E20-931AD1CD8489}" name="hora" totalsRowFunction="average" dataDxfId="23" totalsRowDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{69037EB3-F18F-4F01-86AC-2F03E2616671}" name="valor" totalsRowFunction="sum" dataDxfId="21" totalsRowDxfId="20">
       <calculatedColumnFormula>Etanol[[#This Row],[preço]]*Etanol[[#This Row],[litros]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{D7C46694-E6CD-4C31-9617-E21EBBD7D56E}" name="preço" totalsRowFunction="average" dataDxfId="5" totalsRowDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{F099CEFF-1A72-4F01-8112-F305B04A303E}" name="litros" totalsRowFunction="sum" dataDxfId="3" totalsRowDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{539451E7-6D16-4B47-A7EF-A1E0AFF83B9A}" name="km" dataDxfId="1" totalsRowDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{D7C46694-E6CD-4C31-9617-E21EBBD7D56E}" name="preço" totalsRowFunction="average" dataDxfId="19" totalsRowDxfId="18"/>
+    <tableColumn id="7" xr3:uid="{F099CEFF-1A72-4F01-8112-F305B04A303E}" name="litros" totalsRowFunction="sum" dataDxfId="17" totalsRowDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{539451E7-6D16-4B47-A7EF-A1E0AFF83B9A}" name="km" dataDxfId="15" totalsRowDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -3841,7 +3842,7 @@
   <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3948,7 +3949,7 @@
       </c>
       <c r="T2" s="28">
         <f>SUM(B8,H8,N8,B9,H9,N9)</f>
-        <v>1218.99</v>
+        <v>1178.99</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -4012,7 +4013,7 @@
       </c>
       <c r="R3" s="60">
         <f>P4/(Q3-3.5)</f>
-        <v>9.555521542817786</v>
+        <v>0</v>
       </c>
       <c r="S3" s="57" t="s">
         <v>11</v>
@@ -4058,27 +4059,12 @@
         <f>J5/(K4-1.5)</f>
         <v>11.750738511012228</v>
       </c>
-      <c r="M4" s="75">
-        <v>43006</v>
-      </c>
-      <c r="N4" s="76">
-        <v>40</v>
-      </c>
-      <c r="O4" s="77">
-        <v>3.25</v>
-      </c>
-      <c r="P4" s="78">
-        <f>69760-SUM($D$3:$D$6)-SUM($J$3:$J$6)-SUM($P$3)</f>
-        <v>149</v>
-      </c>
-      <c r="Q4" s="79">
-        <f>N4/O4</f>
-        <v>12.307692307692308</v>
-      </c>
-      <c r="R4" s="60">
-        <f>D10/(Q4+3.5)</f>
-        <v>7.5279805352798048</v>
-      </c>
+      <c r="M4" s="75"/>
+      <c r="N4" s="76"/>
+      <c r="O4" s="77"/>
+      <c r="P4" s="78"/>
+      <c r="Q4" s="79"/>
+      <c r="R4" s="60"/>
       <c r="S4" s="57" t="s">
         <v>12</v>
       </c>
@@ -4134,7 +4120,7 @@
       </c>
       <c r="T5" s="28">
         <f>T2/T3</f>
-        <v>4.5037726100502349</v>
+        <v>4.3559855860369048</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
@@ -4244,12 +4230,12 @@
       <c r="M8" s="72"/>
       <c r="N8" s="68">
         <f>SUM(N3:N7)</f>
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="O8" s="67"/>
       <c r="P8" s="74">
         <f>SUM(P3:P5)</f>
-        <v>323</v>
+        <v>174</v>
       </c>
       <c r="Q8" s="71">
         <f>SUM(Q3,K7)</f>
@@ -4271,7 +4257,7 @@
       </c>
       <c r="D9" s="62">
         <f t="shared" ref="D9:E9" si="2">SUM(D10:D11)</f>
-        <v>241</v>
+        <v>390</v>
       </c>
       <c r="E9" s="62">
         <f t="shared" si="2"/>
@@ -4329,7 +4315,7 @@
       </c>
       <c r="D10" s="40">
         <f>69879-SUM($D$3:$D$6)-SUM($J$3:$J$6)-SUM($P$3:$P$4)</f>
-        <v>119</v>
+        <v>268</v>
       </c>
       <c r="E10" s="51">
         <f>B10/C10</f>
@@ -4598,10 +4584,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82D5A34F-EB28-41C8-A1E3-151E9E71FB07}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E2" sqref="E2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4642,155 +4628,205 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="98">
-        <v>43034</v>
+        <v>42991</v>
       </c>
       <c r="B2" s="166">
-        <v>69879</v>
-      </c>
-      <c r="C2" s="129">
-        <v>70001</v>
+        <v>69437</v>
+      </c>
+      <c r="C2" s="168">
+        <v>69611</v>
       </c>
       <c r="D2" s="132">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
-        <v>122</v>
+        <v>174</v>
       </c>
       <c r="E2" s="130">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="F2" s="130">
-        <v>3.9</v>
+        <v>4.1900000000000004</v>
       </c>
       <c r="G2" s="131">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
-        <v>30.76923076923077</v>
+        <v>19.093078758949879</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="98">
-        <v>43042</v>
-      </c>
-      <c r="B3" s="139">
-        <v>70379</v>
-      </c>
-      <c r="C3" s="129">
-        <v>70431</v>
+        <v>43020</v>
+      </c>
+      <c r="B3" s="168">
+        <v>69760</v>
+      </c>
+      <c r="C3" s="166">
+        <v>69879</v>
       </c>
       <c r="D3" s="132">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="E3" s="130">
-        <v>158.99</v>
+        <v>80</v>
       </c>
       <c r="F3" s="130">
-        <v>4.09</v>
+        <v>3.9489999999999998</v>
       </c>
       <c r="G3" s="131">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
-        <v>38.872860635696824</v>
+        <v>20.258293238794632</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="98">
-        <v>43057</v>
-      </c>
-      <c r="B4" s="129">
-        <v>70809</v>
-      </c>
-      <c r="C4" s="166">
-        <v>70965</v>
+        <v>43034</v>
+      </c>
+      <c r="B4" s="166">
+        <f>C3</f>
+        <v>69879</v>
+      </c>
+      <c r="C4" s="129">
+        <v>70001</v>
       </c>
       <c r="D4" s="132">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
-        <v>156</v>
+        <v>122</v>
       </c>
       <c r="E4" s="130">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="F4" s="130">
-        <v>4.17</v>
+        <v>3.9</v>
       </c>
       <c r="G4" s="131">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
-        <v>19.18465227817746</v>
+        <v>30.76923076923077</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="98">
-        <v>43087</v>
-      </c>
-      <c r="B5" s="133">
-        <f>C4</f>
-        <v>70965</v>
+        <v>43042</v>
+      </c>
+      <c r="B5" s="139">
+        <v>70379</v>
       </c>
       <c r="C5" s="129">
-        <v>71219</v>
+        <v>70431</v>
       </c>
       <c r="D5" s="132">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
-        <v>254</v>
+        <v>52</v>
       </c>
       <c r="E5" s="130">
-        <v>120.06</v>
+        <v>158.99</v>
       </c>
       <c r="F5" s="130">
-        <v>4.1790000000000003</v>
+        <v>4.09</v>
       </c>
       <c r="G5" s="131">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
-        <v>28.729361091170134</v>
+        <v>38.872860635696824</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="98">
-        <v>43093</v>
+        <v>43057</v>
       </c>
       <c r="B6" s="129">
-        <v>71683</v>
-      </c>
-      <c r="C6" s="128">
-        <v>71872</v>
+        <v>70809</v>
+      </c>
+      <c r="C6" s="168">
+        <v>70965</v>
       </c>
       <c r="D6" s="132">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
-        <v>189</v>
+        <v>156</v>
       </c>
       <c r="E6" s="130">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="F6" s="130">
         <v>4.17</v>
       </c>
       <c r="G6" s="131">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
+        <v>19.18465227817746</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="98">
+        <v>43087</v>
+      </c>
+      <c r="B7" s="168">
+        <v>71109</v>
+      </c>
+      <c r="C7" s="129">
+        <v>71219</v>
+      </c>
+      <c r="D7" s="132">
+        <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
+        <v>110</v>
+      </c>
+      <c r="E7" s="130">
+        <v>120.06</v>
+      </c>
+      <c r="F7" s="130">
+        <v>4.1790000000000003</v>
+      </c>
+      <c r="G7" s="131">
+        <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
+        <v>28.729361091170134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="98">
+        <v>43093</v>
+      </c>
+      <c r="B8" s="129">
+        <v>71683</v>
+      </c>
+      <c r="C8" s="128">
+        <v>71872</v>
+      </c>
+      <c r="D8" s="132">
+        <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
+        <v>189</v>
+      </c>
+      <c r="E8" s="130">
+        <v>120</v>
+      </c>
+      <c r="F8" s="130">
+        <v>4.17</v>
+      </c>
+      <c r="G8" s="131">
+        <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>28.776978417266186</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="164"/>
-      <c r="B7" s="133">
+    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="164"/>
+      <c r="B9" s="133">
         <f>SUBTOTAL(105,G_20184[km ini])</f>
-        <v>69879</v>
-      </c>
-      <c r="C7" s="133">
+        <v>69437</v>
+      </c>
+      <c r="C9" s="133">
         <f>SUBTOTAL(104,G_20184[km fim])</f>
         <v>71872</v>
       </c>
-      <c r="D7" s="111">
+      <c r="D9" s="111">
         <f>SUBTOTAL(101,G_20184[km])</f>
-        <v>154.6</v>
-      </c>
-      <c r="E7" s="145">
+        <v>131.71428571428572</v>
+      </c>
+      <c r="E9" s="145">
         <f>SUBTOTAL(109,G_20184[valor])</f>
-        <v>599.04999999999995</v>
-      </c>
-      <c r="F7" s="145">
+        <v>759.05</v>
+      </c>
+      <c r="F9" s="145">
         <f>SUBTOTAL(101,G_20184[preço])</f>
-        <v>4.1017999999999999</v>
-      </c>
-      <c r="G7" s="117">
+        <v>4.0925714285714294</v>
+      </c>
+      <c r="G9" s="117">
         <f>SUBTOTAL(109,G_20184[litros])</f>
-        <v>146.33308319154139</v>
+        <v>185.6844551892859</v>
       </c>
     </row>
   </sheetData>
@@ -7270,7 +7306,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Aurora.xlsx
+++ b/Aurora.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ec562523a0c953df/Documentos/planilhas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="41" documentId="107_{E6A6EEF9-E5F6-400A-A355-84C1BD44780A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{8E8D63B0-1A3A-4BBA-8315-685FE9D40408}"/>
+  <xr:revisionPtr revIDLastSave="47" documentId="107_{E6A6EEF9-E5F6-400A-A355-84C1BD44780A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{B724D23A-620F-4C55-82F9-F4DF18FA32C4}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3600" windowWidth="20490" windowHeight="7665" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3600" windowWidth="20490" windowHeight="7665" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2017.1" sheetId="1" r:id="rId1"/>
@@ -268,7 +268,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="39">
   <si>
     <t>janeiro</t>
   </si>
@@ -382,6 +382,9 @@
   </si>
   <si>
     <t>custo total</t>
+  </si>
+  <si>
+    <t>22/12/2016</t>
   </si>
 </sst>
 </file>
@@ -729,7 +732,7 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="169">
+  <cellXfs count="165">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
@@ -1146,9 +1149,6 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1164,12 +1164,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1191,14 +1185,11 @@
     <xf numFmtId="14" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="20% - Ênfase4" xfId="3" builtinId="42"/>
@@ -1211,6 +1202,78 @@
   </cellStyles>
   <dxfs count="92">
     <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
       <numFmt numFmtId="2" formatCode="0.00"/>
       <fill>
         <patternFill patternType="none">
@@ -1219,8 +1282,52 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="2" formatCode="0.00"/>
       <fill>
         <patternFill patternType="none">
@@ -1228,19 +1335,183 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Constantia"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Constantia"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="1" formatCode="0"/>
       <fill>
         <patternFill patternType="none">
@@ -1249,22 +1520,89 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1300,803 +1638,6 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Constantia"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Constantia"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Constantia"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Constantia"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -2130,14 +1671,60 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -2148,127 +1735,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -2304,14 +1770,50 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color rgb="FFFFFFFF"/>
-        </bottom>
-      </border>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -2322,107 +1824,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -2458,6 +1859,538 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Constantia"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Constantia"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FFFFFFFF"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
@@ -2466,6 +2399,64 @@
           <color theme="0"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -2488,18 +2479,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{707C8E72-449F-434C-81D2-E6CAE60FDC64}" name="G_20184" displayName="G_20184" ref="A1:G9" totalsRowCount="1" tableBorderDxfId="91" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{707C8E72-449F-434C-81D2-E6CAE60FDC64}" name="G_20184" displayName="G_20184" ref="A1:G8" tableBorderDxfId="91" dataCellStyle="Normal">
   <autoFilter ref="A1:G8" xr:uid="{1BB8EF35-A1C5-4DA1-AE25-87B25A5E3E01}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{359F37B9-9617-418F-81F4-00F8F142D6C9}" name="data" dataDxfId="13" totalsRowDxfId="6" dataCellStyle="Normal"/>
-    <tableColumn id="2" xr3:uid="{5B407B50-7529-43FD-BA94-ADB3D3459328}" name="km ini" totalsRowFunction="min" dataDxfId="12" totalsRowDxfId="5" dataCellStyle="Normal"/>
-    <tableColumn id="3" xr3:uid="{08934F92-A85D-4FCC-AAF8-CE32E5CED8EC}" name="km fim" totalsRowFunction="max" dataDxfId="11" totalsRowDxfId="4" dataCellStyle="Normal"/>
-    <tableColumn id="4" xr3:uid="{53CA1E60-5853-464E-B828-BFEECE0B41CF}" name="km" totalsRowFunction="average" dataDxfId="10" totalsRowDxfId="3" dataCellStyle="Normal">
+    <tableColumn id="1" xr3:uid="{359F37B9-9617-418F-81F4-00F8F142D6C9}" name="data" dataDxfId="90" totalsRowDxfId="35" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{5B407B50-7529-43FD-BA94-ADB3D3459328}" name="km ini" totalsRowFunction="min" dataDxfId="89" totalsRowDxfId="36" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{08934F92-A85D-4FCC-AAF8-CE32E5CED8EC}" name="km fim" totalsRowFunction="max" dataDxfId="88" totalsRowDxfId="37" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{53CA1E60-5853-464E-B828-BFEECE0B41CF}" name="km" totalsRowFunction="average" dataDxfId="87" totalsRowDxfId="38" dataCellStyle="Normal">
       <calculatedColumnFormula>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{57D64090-3B83-46A5-A370-00C001CC3A22}" name="valor" totalsRowFunction="sum" dataDxfId="9" totalsRowDxfId="2" dataCellStyle="Normal"/>
-    <tableColumn id="6" xr3:uid="{EA59C9C8-15C0-4DBA-A159-0B2B8BDC9698}" name="preço" totalsRowFunction="average" dataDxfId="8" totalsRowDxfId="1" dataCellStyle="Normal"/>
-    <tableColumn id="7" xr3:uid="{051A8F7F-91AF-40BD-BAE4-405E1FF53171}" name="litros" totalsRowFunction="sum" dataDxfId="7" totalsRowDxfId="0" dataCellStyle="Normal">
+    <tableColumn id="5" xr3:uid="{57D64090-3B83-46A5-A370-00C001CC3A22}" name="valor" totalsRowFunction="sum" dataDxfId="86" totalsRowDxfId="39" dataCellStyle="Normal"/>
+    <tableColumn id="6" xr3:uid="{EA59C9C8-15C0-4DBA-A159-0B2B8BDC9698}" name="preço" totalsRowFunction="average" dataDxfId="85" totalsRowDxfId="40" dataCellStyle="Normal"/>
+    <tableColumn id="7" xr3:uid="{051A8F7F-91AF-40BD-BAE4-405E1FF53171}" name="litros" totalsRowFunction="sum" dataDxfId="84" totalsRowDxfId="41" dataCellStyle="Normal">
       <calculatedColumnFormula>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2508,21 +2499,21 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{F4E8D315-69AB-466D-B82A-109C081FA398}" name="G_2018" displayName="G_2018" ref="A1:G35" totalsRowCount="1" tableBorderDxfId="90" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{F4E8D315-69AB-466D-B82A-109C081FA398}" name="G_2018" displayName="G_2018" ref="A1:G34" tableBorderDxfId="83" dataCellStyle="Normal">
   <autoFilter ref="A1:G34" xr:uid="{1BB8EF35-A1C5-4DA1-AE25-87B25A5E3E01}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G34">
     <sortCondition ref="A1:A34"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{87768D9A-701C-45DE-920E-7BFC2026C313}" name="data" dataDxfId="89" totalsRowDxfId="88" dataCellStyle="Normal"/>
-    <tableColumn id="2" xr3:uid="{A4AC1043-1F00-40C3-A363-30D037C79583}" name="km ini" totalsRowFunction="min" dataDxfId="87" totalsRowDxfId="86" dataCellStyle="Normal"/>
-    <tableColumn id="3" xr3:uid="{0E5B3C2A-0DDB-40AB-96C9-1BE6758D96EA}" name="km fim" totalsRowFunction="max" dataDxfId="85" totalsRowDxfId="84" dataCellStyle="Normal"/>
-    <tableColumn id="4" xr3:uid="{60E1EC99-F30E-4DB1-A214-9390FFB3442F}" name="km" totalsRowFunction="sum" dataDxfId="83" totalsRowDxfId="82" dataCellStyle="Normal">
+    <tableColumn id="1" xr3:uid="{87768D9A-701C-45DE-920E-7BFC2026C313}" name="data" dataDxfId="82" totalsRowDxfId="28" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{A4AC1043-1F00-40C3-A363-30D037C79583}" name="km ini" totalsRowFunction="min" dataDxfId="81" totalsRowDxfId="29" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{0E5B3C2A-0DDB-40AB-96C9-1BE6758D96EA}" name="km fim" totalsRowFunction="max" dataDxfId="80" totalsRowDxfId="30" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{60E1EC99-F30E-4DB1-A214-9390FFB3442F}" name="km" totalsRowFunction="sum" dataDxfId="79" totalsRowDxfId="31" dataCellStyle="Normal">
       <calculatedColumnFormula>G_2018[[#This Row],[km fim]]-G_2018[[#This Row],[km ini]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{E2DE9863-217C-4C16-A993-DD1B8782AA27}" name="valor" totalsRowFunction="sum" dataDxfId="81" totalsRowDxfId="80" dataCellStyle="Normal"/>
-    <tableColumn id="6" xr3:uid="{1150101B-6F63-4A48-ADE5-664BEE3344D7}" name="preço" totalsRowFunction="average" dataDxfId="79" totalsRowDxfId="78" dataCellStyle="Normal"/>
-    <tableColumn id="7" xr3:uid="{B21A0A4B-7255-42FE-8E4A-B5C699477A83}" name="litros" totalsRowFunction="sum" dataDxfId="77" totalsRowDxfId="76" dataCellStyle="Normal">
+    <tableColumn id="5" xr3:uid="{E2DE9863-217C-4C16-A993-DD1B8782AA27}" name="valor" totalsRowFunction="sum" dataDxfId="78" totalsRowDxfId="32" dataCellStyle="Normal"/>
+    <tableColumn id="6" xr3:uid="{1150101B-6F63-4A48-ADE5-664BEE3344D7}" name="preço" totalsRowFunction="average" dataDxfId="77" totalsRowDxfId="33" dataCellStyle="Normal"/>
+    <tableColumn id="7" xr3:uid="{B21A0A4B-7255-42FE-8E4A-B5C699477A83}" name="litros" totalsRowFunction="sum" dataDxfId="76" totalsRowDxfId="34" dataCellStyle="Normal">
       <calculatedColumnFormula>G_2018[[#This Row],[valor]]/G_2018[[#This Row],[preço]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2531,21 +2522,21 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8D4DA0DB-1768-4A87-8BAC-0BC3711A5C7C}" name="G_2019" displayName="G_2019" ref="A1:H4" totalsRowCount="1" tableBorderDxfId="75" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8D4DA0DB-1768-4A87-8BAC-0BC3711A5C7C}" name="G_2019" displayName="G_2019" ref="A1:H3" tableBorderDxfId="75" dataCellStyle="Normal">
   <autoFilter ref="A1:H3" xr:uid="{1BB8EF35-A1C5-4DA1-AE25-87B25A5E3E01}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{0CA686D4-5E48-4762-9327-629FEB3146B0}" name="data" dataDxfId="74" totalsRowDxfId="73" dataCellStyle="Normal"/>
-    <tableColumn id="8" xr3:uid="{C4E19C72-93B2-4837-B485-42F08F5ECEBF}" name="hora" totalsRowFunction="average" dataDxfId="72" totalsRowDxfId="71"/>
-    <tableColumn id="2" xr3:uid="{A24831E8-3DCE-4E6E-B7B2-ED8EF5796F22}" name="km ini" totalsRowFunction="min" dataDxfId="70" totalsRowDxfId="69" dataCellStyle="Normal"/>
-    <tableColumn id="3" xr3:uid="{8E05EFCC-4A39-40D2-A035-793B1708027E}" name="km fim" totalsRowFunction="max" dataDxfId="68" totalsRowDxfId="67" dataCellStyle="Normal">
+    <tableColumn id="1" xr3:uid="{0CA686D4-5E48-4762-9327-629FEB3146B0}" name="data" dataDxfId="74" totalsRowDxfId="20" dataCellStyle="Normal"/>
+    <tableColumn id="8" xr3:uid="{C4E19C72-93B2-4837-B485-42F08F5ECEBF}" name="hora" totalsRowFunction="average" dataDxfId="73" totalsRowDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{A24831E8-3DCE-4E6E-B7B2-ED8EF5796F22}" name="km ini" totalsRowFunction="min" dataDxfId="72" totalsRowDxfId="22" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{8E05EFCC-4A39-40D2-A035-793B1708027E}" name="km fim" totalsRowFunction="max" dataDxfId="71" totalsRowDxfId="23" dataCellStyle="Normal">
       <calculatedColumnFormula>C3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{76C9D5C3-4417-44BE-9E71-9E5CAEE19B17}" name="km" totalsRowFunction="sum" dataDxfId="66" totalsRowDxfId="65" dataCellStyle="Normal">
+    <tableColumn id="4" xr3:uid="{76C9D5C3-4417-44BE-9E71-9E5CAEE19B17}" name="km" totalsRowFunction="sum" dataDxfId="70" totalsRowDxfId="24" dataCellStyle="Normal">
       <calculatedColumnFormula>G_2019[[#This Row],[km fim]]-G_2019[[#This Row],[km ini]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{98628619-61B6-4221-97AB-017207261795}" name="valor" totalsRowFunction="sum" dataDxfId="64" totalsRowDxfId="63" dataCellStyle="Normal"/>
-    <tableColumn id="6" xr3:uid="{7269D260-3F9C-4B41-A43E-C2AC48A542E9}" name="preço" totalsRowFunction="average" dataDxfId="62" totalsRowDxfId="61" dataCellStyle="Normal"/>
-    <tableColumn id="7" xr3:uid="{24937D08-B4ED-442D-9694-24626A006DBC}" name="litros" totalsRowFunction="sum" dataDxfId="60" totalsRowDxfId="59" dataCellStyle="Normal">
+    <tableColumn id="5" xr3:uid="{98628619-61B6-4221-97AB-017207261795}" name="valor" totalsRowFunction="sum" dataDxfId="69" totalsRowDxfId="25" dataCellStyle="Normal"/>
+    <tableColumn id="6" xr3:uid="{7269D260-3F9C-4B41-A43E-C2AC48A542E9}" name="preço" totalsRowFunction="average" dataDxfId="68" totalsRowDxfId="26" dataCellStyle="Normal"/>
+    <tableColumn id="7" xr3:uid="{24937D08-B4ED-442D-9694-24626A006DBC}" name="litros" totalsRowFunction="sum" dataDxfId="67" totalsRowDxfId="27" dataCellStyle="Normal">
       <calculatedColumnFormula>G_2019[[#This Row],[valor]]/G_2019[[#This Row],[preço]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2554,32 +2545,32 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{8349ADA9-D7F2-436E-8D85-D66EBD35D289}" name="Viagens" displayName="Viagens" ref="A1:N27" totalsRowCount="1" headerRowDxfId="58" dataDxfId="57" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{8349ADA9-D7F2-436E-8D85-D66EBD35D289}" name="Viagens" displayName="Viagens" ref="A1:N27" totalsRowCount="1" headerRowDxfId="66" dataDxfId="65" dataCellStyle="Normal">
   <autoFilter ref="A1:N26" xr:uid="{91B7E7A6-3E74-4A30-BB6B-4EEBB1B73D97}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N24">
     <sortCondition ref="A1:A24"/>
   </sortState>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{943F9AB6-E0CE-4D16-8D0D-D6CD20DB4E3D}" name="começo/fim da viagem" dataDxfId="56" totalsRowDxfId="55" dataCellStyle="Normal"/>
-    <tableColumn id="8" xr3:uid="{8B7A80CD-1D41-4286-9AE6-30D2E4669859}" name="hora ini" totalsRowFunction="average" dataDxfId="54" totalsRowDxfId="53"/>
-    <tableColumn id="2" xr3:uid="{F79333F5-CCDB-4E3B-A65F-7954CDBED5AC}" name="hora fim" totalsRowFunction="average" dataDxfId="52" totalsRowDxfId="51" dataCellStyle="Normal"/>
-    <tableColumn id="14" xr3:uid="{595493D2-D75D-41DE-91AD-11281D062CA9}" name="horas" totalsRowFunction="average" dataDxfId="50" totalsRowDxfId="49">
+    <tableColumn id="1" xr3:uid="{943F9AB6-E0CE-4D16-8D0D-D6CD20DB4E3D}" name="começo/fim da viagem" totalsRowLabel="22/12/2016" dataDxfId="64" totalsRowDxfId="19" dataCellStyle="Normal"/>
+    <tableColumn id="8" xr3:uid="{8B7A80CD-1D41-4286-9AE6-30D2E4669859}" name="hora ini" totalsRowFunction="average" dataDxfId="63" totalsRowDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{F79333F5-CCDB-4E3B-A65F-7954CDBED5AC}" name="hora fim" totalsRowFunction="average" dataDxfId="62" totalsRowDxfId="17" dataCellStyle="Normal"/>
+    <tableColumn id="14" xr3:uid="{595493D2-D75D-41DE-91AD-11281D062CA9}" name="horas" totalsRowFunction="average" dataDxfId="61" totalsRowDxfId="16">
       <calculatedColumnFormula>Viagens[[#This Row],[hora fim]]-Viagens[[#This Row],[hora ini]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{254E01DF-E2FE-4492-9476-CAE2652CB982}" name="km ini" totalsRowFunction="min" dataDxfId="48" totalsRowDxfId="47" dataCellStyle="Normal"/>
-    <tableColumn id="4" xr3:uid="{B85A4F29-C8A5-4E05-A6C0-542D9DF6CB11}" name="km fim" totalsRowFunction="max" dataDxfId="46" totalsRowDxfId="45" dataCellStyle="Normal"/>
-    <tableColumn id="11" xr3:uid="{B2109811-F1C6-4D1C-9E75-85349990007B}" name="km" totalsRowFunction="average" dataDxfId="44" totalsRowDxfId="43"/>
-    <tableColumn id="5" xr3:uid="{A504539A-42D5-4734-99A3-1C79CBD10ADD}" name="L ini" totalsRowFunction="average" dataDxfId="42" totalsRowDxfId="41" dataCellStyle="Normal"/>
-    <tableColumn id="6" xr3:uid="{5168ADB9-DA6A-4473-9847-62692963BE45}" name="L fim" totalsRowFunction="average" dataDxfId="40" totalsRowDxfId="39" dataCellStyle="Normal"/>
-    <tableColumn id="7" xr3:uid="{7A851BFB-669C-4DCC-AB14-044369ECFE05}" name="L" totalsRowFunction="average" dataDxfId="38" totalsRowDxfId="37" dataCellStyle="Normal">
+    <tableColumn id="3" xr3:uid="{254E01DF-E2FE-4492-9476-CAE2652CB982}" name="km ini" totalsRowFunction="min" dataDxfId="60" totalsRowDxfId="15" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{B85A4F29-C8A5-4E05-A6C0-542D9DF6CB11}" name="km fim" totalsRowFunction="average" dataDxfId="59" totalsRowDxfId="6" dataCellStyle="Normal"/>
+    <tableColumn id="11" xr3:uid="{B2109811-F1C6-4D1C-9E75-85349990007B}" name="km" totalsRowFunction="average" dataDxfId="58" totalsRowDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{A504539A-42D5-4734-99A3-1C79CBD10ADD}" name="L ini" totalsRowFunction="average" dataDxfId="57" totalsRowDxfId="13" dataCellStyle="Normal"/>
+    <tableColumn id="6" xr3:uid="{5168ADB9-DA6A-4473-9847-62692963BE45}" name="L fim" totalsRowFunction="average" dataDxfId="56" totalsRowDxfId="12" dataCellStyle="Normal"/>
+    <tableColumn id="7" xr3:uid="{7A851BFB-669C-4DCC-AB14-044369ECFE05}" name="L" totalsRowFunction="average" dataDxfId="55" totalsRowDxfId="11" dataCellStyle="Normal">
       <calculatedColumnFormula>Viagens[[#This Row],[L ini]]-Viagens[[#This Row],[L fim]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{B57F3DE7-B27D-49F3-962C-E191C7F39D71}" name="consumo" totalsRowFunction="average" dataDxfId="36" totalsRowDxfId="35" dataCellStyle="Normal"/>
-    <tableColumn id="10" xr3:uid="{DF9137D7-756E-494C-BCFA-15BA5349D04E}" name="preço" totalsRowFunction="average" dataDxfId="34" totalsRowDxfId="33" dataCellStyle="Normal"/>
-    <tableColumn id="12" xr3:uid="{9BBF57AB-EB30-47D6-BE16-889D42E241F3}" name="custo km" totalsRowFunction="average" dataDxfId="32" totalsRowDxfId="31" dataCellStyle="Normal">
+    <tableColumn id="9" xr3:uid="{B57F3DE7-B27D-49F3-962C-E191C7F39D71}" name="consumo" totalsRowFunction="average" dataDxfId="54" totalsRowDxfId="10" dataCellStyle="Normal"/>
+    <tableColumn id="10" xr3:uid="{DF9137D7-756E-494C-BCFA-15BA5349D04E}" name="preço" totalsRowFunction="average" dataDxfId="53" totalsRowDxfId="9" dataCellStyle="Normal"/>
+    <tableColumn id="12" xr3:uid="{9BBF57AB-EB30-47D6-BE16-889D42E241F3}" name="custo km" totalsRowFunction="average" dataDxfId="52" totalsRowDxfId="8" dataCellStyle="Normal">
       <calculatedColumnFormula>Viagens[[#This Row],[preço]]/Viagens[[#This Row],[consumo]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{1573DC55-E347-4C35-96EE-F132F6B74719}" name="custo total" totalsRowFunction="average" dataDxfId="30" totalsRowDxfId="29" dataCellStyle="Normal">
+    <tableColumn id="13" xr3:uid="{1573DC55-E347-4C35-96EE-F132F6B74719}" name="custo total" totalsRowFunction="average" dataDxfId="51" totalsRowDxfId="7" dataCellStyle="Normal">
       <calculatedColumnFormula>Viagens[[#This Row],[L]]*Viagens[[#This Row],[preço]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2588,17 +2579,17 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{137CCE77-ADDB-4C8C-995A-CD5917FE5216}" name="Etanol" displayName="Etanol" ref="A1:F21" totalsRowCount="1" headerRowDxfId="28" dataDxfId="27" totalsRowDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{137CCE77-ADDB-4C8C-995A-CD5917FE5216}" name="Etanol" displayName="Etanol" ref="A1:F20" headerRowDxfId="50" dataDxfId="49" totalsRowDxfId="48">
   <autoFilter ref="A1:F20" xr:uid="{BA0B08BB-754D-4819-AC93-39A0554A2FF6}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{FC48604D-710C-4BBA-B35F-209384F01637}" name="data" dataDxfId="25" totalsRowDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{A139AE0A-C5DF-448F-8E20-931AD1CD8489}" name="hora" totalsRowFunction="average" dataDxfId="23" totalsRowDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{69037EB3-F18F-4F01-86AC-2F03E2616671}" name="valor" totalsRowFunction="sum" dataDxfId="21" totalsRowDxfId="20">
+    <tableColumn id="1" xr3:uid="{FC48604D-710C-4BBA-B35F-209384F01637}" name="data" dataDxfId="47" totalsRowDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{A139AE0A-C5DF-448F-8E20-931AD1CD8489}" name="hora" totalsRowFunction="average" dataDxfId="46" totalsRowDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{69037EB3-F18F-4F01-86AC-2F03E2616671}" name="valor" totalsRowFunction="sum" dataDxfId="45" totalsRowDxfId="2">
       <calculatedColumnFormula>Etanol[[#This Row],[preço]]*Etanol[[#This Row],[litros]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{D7C46694-E6CD-4C31-9617-E21EBBD7D56E}" name="preço" totalsRowFunction="average" dataDxfId="19" totalsRowDxfId="18"/>
-    <tableColumn id="7" xr3:uid="{F099CEFF-1A72-4F01-8112-F305B04A303E}" name="litros" totalsRowFunction="sum" dataDxfId="17" totalsRowDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{539451E7-6D16-4B47-A7EF-A1E0AFF83B9A}" name="km" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{D7C46694-E6CD-4C31-9617-E21EBBD7D56E}" name="preço" totalsRowFunction="average" dataDxfId="44" totalsRowDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{F099CEFF-1A72-4F01-8112-F305B04A303E}" name="litros" totalsRowFunction="sum" dataDxfId="43" totalsRowDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{539451E7-6D16-4B47-A7EF-A1E0AFF83B9A}" name="km" dataDxfId="42" totalsRowDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -2933,30 +2924,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="167" t="s">
+      <c r="A1" s="164" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="167"/>
-      <c r="C1" s="167"/>
-      <c r="D1" s="167"/>
-      <c r="E1" s="167"/>
-      <c r="F1" s="167"/>
-      <c r="G1" s="167" t="s">
+      <c r="B1" s="164"/>
+      <c r="C1" s="164"/>
+      <c r="D1" s="164"/>
+      <c r="E1" s="164"/>
+      <c r="F1" s="164"/>
+      <c r="G1" s="164" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="167"/>
-      <c r="I1" s="167"/>
-      <c r="J1" s="167"/>
-      <c r="K1" s="167"/>
-      <c r="L1" s="167"/>
-      <c r="M1" s="167" t="s">
+      <c r="H1" s="164"/>
+      <c r="I1" s="164"/>
+      <c r="J1" s="164"/>
+      <c r="K1" s="164"/>
+      <c r="L1" s="164"/>
+      <c r="M1" s="164" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="167"/>
-      <c r="O1" s="167"/>
-      <c r="P1" s="167"/>
-      <c r="Q1" s="167"/>
-      <c r="R1" s="167"/>
+      <c r="N1" s="164"/>
+      <c r="O1" s="164"/>
+      <c r="P1" s="164"/>
+      <c r="Q1" s="164"/>
+      <c r="R1" s="164"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="6"/>
@@ -3774,30 +3765,30 @@
       <c r="V15" s="6"/>
     </row>
     <row r="16" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="167" t="s">
+      <c r="A16" s="164" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="167"/>
-      <c r="C16" s="167"/>
-      <c r="D16" s="167"/>
-      <c r="E16" s="167"/>
-      <c r="F16" s="167" t="s">
+      <c r="B16" s="164"/>
+      <c r="C16" s="164"/>
+      <c r="D16" s="164"/>
+      <c r="E16" s="164"/>
+      <c r="F16" s="164" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="167"/>
-      <c r="H16" s="167"/>
-      <c r="I16" s="167"/>
-      <c r="J16" s="167"/>
-      <c r="K16" s="167"/>
-      <c r="L16" s="167"/>
-      <c r="M16" s="167" t="s">
+      <c r="G16" s="164"/>
+      <c r="H16" s="164"/>
+      <c r="I16" s="164"/>
+      <c r="J16" s="164"/>
+      <c r="K16" s="164"/>
+      <c r="L16" s="164"/>
+      <c r="M16" s="164" t="s">
         <v>15</v>
       </c>
-      <c r="N16" s="167"/>
-      <c r="O16" s="167"/>
-      <c r="P16" s="167"/>
-      <c r="Q16" s="167"/>
-      <c r="R16" s="167"/>
+      <c r="N16" s="164"/>
+      <c r="O16" s="164"/>
+      <c r="P16" s="164"/>
+      <c r="Q16" s="164"/>
+      <c r="R16" s="164"/>
       <c r="S16" s="6"/>
       <c r="T16" s="6"/>
       <c r="U16" s="6"/>
@@ -3841,7 +3832,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
@@ -3862,30 +3853,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="167" t="s">
+      <c r="A1" s="164" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="167"/>
-      <c r="C1" s="167"/>
-      <c r="D1" s="167"/>
-      <c r="E1" s="167"/>
-      <c r="F1" s="167"/>
-      <c r="G1" s="167" t="s">
+      <c r="B1" s="164"/>
+      <c r="C1" s="164"/>
+      <c r="D1" s="164"/>
+      <c r="E1" s="164"/>
+      <c r="F1" s="164"/>
+      <c r="G1" s="164" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="167"/>
-      <c r="I1" s="167"/>
-      <c r="J1" s="167"/>
-      <c r="K1" s="167"/>
-      <c r="L1" s="167"/>
-      <c r="M1" s="167" t="s">
+      <c r="H1" s="164"/>
+      <c r="I1" s="164"/>
+      <c r="J1" s="164"/>
+      <c r="K1" s="164"/>
+      <c r="L1" s="164"/>
+      <c r="M1" s="164" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="167"/>
-      <c r="O1" s="167"/>
-      <c r="P1" s="167"/>
-      <c r="Q1" s="167"/>
-      <c r="R1" s="167"/>
+      <c r="N1" s="164"/>
+      <c r="O1" s="164"/>
+      <c r="P1" s="164"/>
+      <c r="Q1" s="164"/>
+      <c r="R1" s="164"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
     </row>
@@ -4533,30 +4524,30 @@
       <c r="T15" s="6"/>
     </row>
     <row r="16" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="167" t="s">
+      <c r="A16" s="164" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="167"/>
-      <c r="C16" s="167"/>
-      <c r="D16" s="167"/>
-      <c r="E16" s="167"/>
-      <c r="F16" s="167" t="s">
+      <c r="B16" s="164"/>
+      <c r="C16" s="164"/>
+      <c r="D16" s="164"/>
+      <c r="E16" s="164"/>
+      <c r="F16" s="164" t="s">
         <v>21</v>
       </c>
-      <c r="G16" s="167"/>
-      <c r="H16" s="167"/>
-      <c r="I16" s="167"/>
-      <c r="J16" s="167"/>
-      <c r="K16" s="167"/>
-      <c r="L16" s="167"/>
-      <c r="M16" s="167" t="s">
+      <c r="G16" s="164"/>
+      <c r="H16" s="164"/>
+      <c r="I16" s="164"/>
+      <c r="J16" s="164"/>
+      <c r="K16" s="164"/>
+      <c r="L16" s="164"/>
+      <c r="M16" s="164" t="s">
         <v>22</v>
       </c>
-      <c r="N16" s="167"/>
-      <c r="O16" s="167"/>
-      <c r="P16" s="167"/>
-      <c r="Q16" s="167"/>
-      <c r="R16" s="167"/>
+      <c r="N16" s="164"/>
+      <c r="O16" s="164"/>
+      <c r="P16" s="164"/>
+      <c r="Q16" s="164"/>
+      <c r="R16" s="164"/>
       <c r="S16" s="6"/>
       <c r="T16" s="6"/>
     </row>
@@ -4584,10 +4575,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82D5A34F-EB28-41C8-A1E3-151E9E71FB07}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4630,10 +4621,10 @@
       <c r="A2" s="98">
         <v>42991</v>
       </c>
-      <c r="B2" s="166">
+      <c r="B2" s="162">
         <v>69437</v>
       </c>
-      <c r="C2" s="168">
+      <c r="C2" s="163">
         <v>69611</v>
       </c>
       <c r="D2" s="132">
@@ -4655,10 +4646,10 @@
       <c r="A3" s="98">
         <v>43020</v>
       </c>
-      <c r="B3" s="168">
+      <c r="B3" s="163">
         <v>69760</v>
       </c>
-      <c r="C3" s="166">
+      <c r="C3" s="162">
         <v>69879</v>
       </c>
       <c r="D3" s="132">
@@ -4680,7 +4671,7 @@
       <c r="A4" s="98">
         <v>43034</v>
       </c>
-      <c r="B4" s="166">
+      <c r="B4" s="162">
         <f>C3</f>
         <v>69879</v>
       </c>
@@ -4734,7 +4725,7 @@
       <c r="B6" s="129">
         <v>70809</v>
       </c>
-      <c r="C6" s="168">
+      <c r="C6" s="163">
         <v>70965</v>
       </c>
       <c r="D6" s="132">
@@ -4756,7 +4747,7 @@
       <c r="A7" s="98">
         <v>43087</v>
       </c>
-      <c r="B7" s="168">
+      <c r="B7" s="163">
         <v>71109</v>
       </c>
       <c r="C7" s="129">
@@ -4800,33 +4791,6 @@
       <c r="G8" s="131">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>28.776978417266186</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="164"/>
-      <c r="B9" s="133">
-        <f>SUBTOTAL(105,G_20184[km ini])</f>
-        <v>69437</v>
-      </c>
-      <c r="C9" s="133">
-        <f>SUBTOTAL(104,G_20184[km fim])</f>
-        <v>71872</v>
-      </c>
-      <c r="D9" s="111">
-        <f>SUBTOTAL(101,G_20184[km])</f>
-        <v>131.71428571428572</v>
-      </c>
-      <c r="E9" s="145">
-        <f>SUBTOTAL(109,G_20184[valor])</f>
-        <v>759.05</v>
-      </c>
-      <c r="F9" s="145">
-        <f>SUBTOTAL(101,G_20184[preço])</f>
-        <v>4.0925714285714294</v>
-      </c>
-      <c r="G9" s="117">
-        <f>SUBTOTAL(109,G_20184[litros])</f>
-        <v>185.6844551892859</v>
       </c>
     </row>
   </sheetData>
@@ -4840,7 +4804,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB98AEA6-30EA-4D94-808F-A65CE5265EE7}">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
@@ -5724,33 +5688,6 @@
         <v>16.701461377870565</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="164"/>
-      <c r="B35" s="133">
-        <f>SUBTOTAL(105,G_2018[km ini])</f>
-        <v>71872</v>
-      </c>
-      <c r="C35" s="133">
-        <f>SUBTOTAL(104,G_2018[km fim])</f>
-        <v>80148</v>
-      </c>
-      <c r="D35" s="111">
-        <f>SUBTOTAL(109,G_2018[km])</f>
-        <v>3956</v>
-      </c>
-      <c r="E35" s="145">
-        <f>SUBTOTAL(109,G_2018[valor])</f>
-        <v>3318.3099999999995</v>
-      </c>
-      <c r="F35" s="145">
-        <f>SUBTOTAL(101,G_2018[preço])</f>
-        <v>4.5509090909090917</v>
-      </c>
-      <c r="G35" s="117">
-        <f>SUBTOTAL(109,G_2018[litros])</f>
-        <v>732.62584271794913</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5762,10 +5699,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B43933D-4CC7-4766-9778-D69CB537A172}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5862,37 +5799,6 @@
         <v>14.117647058823529</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="164"/>
-      <c r="B4" s="149">
-        <f>SUBTOTAL(101,G_2019[hora])</f>
-        <v>0.59722222222222221</v>
-      </c>
-      <c r="C4" s="133">
-        <f>SUBTOTAL(105,G_2019[km ini])</f>
-        <v>81120</v>
-      </c>
-      <c r="D4" s="133">
-        <f>SUBTOTAL(104,G_2019[km fim])</f>
-        <v>81216</v>
-      </c>
-      <c r="E4" s="111">
-        <f>SUBTOTAL(109,G_2019[km])</f>
-        <v>-81120</v>
-      </c>
-      <c r="F4" s="145">
-        <f>SUBTOTAL(109,G_2019[valor])</f>
-        <v>120</v>
-      </c>
-      <c r="G4" s="145">
-        <f>SUBTOTAL(101,G_2019[preço])</f>
-        <v>4.2</v>
-      </c>
-      <c r="H4" s="117">
-        <f>SUBTOTAL(109,G_2019[litros])</f>
-        <v>28.575478384124732</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5909,8 +5815,8 @@
   </sheetPr>
   <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5965,13 +5871,13 @@
       <c r="K1" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="159" t="s">
+      <c r="L1" s="156" t="s">
         <v>24</v>
       </c>
       <c r="M1" s="148" t="s">
         <v>36</v>
       </c>
-      <c r="N1" s="159" t="s">
+      <c r="N1" s="156" t="s">
         <v>37</v>
       </c>
     </row>
@@ -6006,14 +5912,14 @@
         <f>Viagens[[#This Row],[km]]/Viagens[[#This Row],[L]]</f>
         <v>12.648648648648649</v>
       </c>
-      <c r="L2" s="160">
+      <c r="L2" s="157">
         <v>4</v>
       </c>
       <c r="M2" s="146">
         <f>Viagens[[#This Row],[preço]]/Viagens[[#This Row],[consumo]]</f>
         <v>0.31623931623931623</v>
       </c>
-      <c r="N2" s="162">
+      <c r="N2" s="159">
         <f>Viagens[[#This Row],[L]]*Viagens[[#This Row],[preço]]</f>
         <v>111</v>
       </c>
@@ -6049,14 +5955,14 @@
         <f>Viagens[[#This Row],[km]]/Viagens[[#This Row],[L]]</f>
         <v>13.592233009708737</v>
       </c>
-      <c r="L3" s="160">
+      <c r="L3" s="157">
         <v>3.93</v>
       </c>
       <c r="M3" s="146">
         <f>Viagens[[#This Row],[preço]]/Viagens[[#This Row],[consumo]]</f>
         <v>0.28913571428571433</v>
       </c>
-      <c r="N3" s="162">
+      <c r="N3" s="159">
         <f>Viagens[[#This Row],[L]]*Viagens[[#This Row],[preço]]</f>
         <v>109.29330000000002</v>
       </c>
@@ -6092,14 +5998,14 @@
         <f>Viagens[[#This Row],[km]]/Viagens[[#This Row],[L]]</f>
         <v>12.562972292191436</v>
       </c>
-      <c r="L4" s="160">
+      <c r="L4" s="157">
         <v>4</v>
       </c>
       <c r="M4" s="146">
         <f>Viagens[[#This Row],[preço]]/Viagens[[#This Row],[consumo]]</f>
         <v>0.31839598997493734</v>
       </c>
-      <c r="N4" s="162">
+      <c r="N4" s="159">
         <f>Viagens[[#This Row],[L]]*Viagens[[#This Row],[preço]]</f>
         <v>127.03999999999999</v>
       </c>
@@ -6135,14 +6041,14 @@
         <f>Viagens[[#This Row],[km]]/Viagens[[#This Row],[L]]</f>
         <v>14.964925954793454</v>
       </c>
-      <c r="L5" s="160">
+      <c r="L5" s="157">
         <v>3.79</v>
       </c>
       <c r="M5" s="146">
         <f>Viagens[[#This Row],[preço]]/Viagens[[#This Row],[consumo]]</f>
         <v>0.25325885416666666</v>
       </c>
-      <c r="N5" s="162">
+      <c r="N5" s="159">
         <f>Viagens[[#This Row],[L]]*Viagens[[#This Row],[preço]]</f>
         <v>97.25139999999999</v>
       </c>
@@ -6178,14 +6084,14 @@
         <f>Viagens[[#This Row],[km]]/Viagens[[#This Row],[L]]</f>
         <v>12.709832134292567</v>
       </c>
-      <c r="L6" s="160">
+      <c r="L6" s="157">
         <v>3.89</v>
       </c>
       <c r="M6" s="146">
         <f>Viagens[[#This Row],[preço]]/Viagens[[#This Row],[consumo]]</f>
         <v>0.3060622641509434</v>
       </c>
-      <c r="N6" s="162">
+      <c r="N6" s="159">
         <f>Viagens[[#This Row],[L]]*Viagens[[#This Row],[preço]]</f>
         <v>113.5491</v>
       </c>
@@ -6221,14 +6127,14 @@
         <f>Viagens[[#This Row],[km]]/Viagens[[#This Row],[L]]</f>
         <v>12.036199095022624</v>
       </c>
-      <c r="L7" s="160">
+      <c r="L7" s="157">
         <v>3.62</v>
       </c>
       <c r="M7" s="146">
         <f>Viagens[[#This Row],[preço]]/Viagens[[#This Row],[consumo]]</f>
         <v>0.30075939849624062</v>
       </c>
-      <c r="N7" s="162">
+      <c r="N7" s="159">
         <f>Viagens[[#This Row],[L]]*Viagens[[#This Row],[preço]]</f>
         <v>120.003</v>
       </c>
@@ -6264,14 +6170,14 @@
         <f>Viagens[[#This Row],[km]]/Viagens[[#This Row],[L]]</f>
         <v>13.103448275862069</v>
       </c>
-      <c r="L8" s="160">
+      <c r="L8" s="157">
         <v>4</v>
       </c>
       <c r="M8" s="146">
         <f>Viagens[[#This Row],[preço]]/Viagens[[#This Row],[consumo]]</f>
         <v>0.30526315789473685</v>
       </c>
-      <c r="N8" s="162">
+      <c r="N8" s="159">
         <f>Viagens[[#This Row],[L]]*Viagens[[#This Row],[preço]]</f>
         <v>116</v>
       </c>
@@ -6307,14 +6213,14 @@
         <f>Viagens[[#This Row],[km]]/Viagens[[#This Row],[L]]</f>
         <v>12.428571428571429</v>
       </c>
-      <c r="L9" s="160">
+      <c r="L9" s="157">
         <v>3.9</v>
       </c>
       <c r="M9" s="146">
         <f>Viagens[[#This Row],[preço]]/Viagens[[#This Row],[consumo]]</f>
         <v>0.31379310344827582</v>
       </c>
-      <c r="N9" s="162">
+      <c r="N9" s="159">
         <f>Viagens[[#This Row],[L]]*Viagens[[#This Row],[preço]]</f>
         <v>109.2</v>
       </c>
@@ -6350,14 +6256,14 @@
         <f>Viagens[[#This Row],[km]]/Viagens[[#This Row],[L]]</f>
         <v>11.751801942964589</v>
       </c>
-      <c r="L10" s="160">
+      <c r="L10" s="157">
         <v>4.1900000000000004</v>
       </c>
       <c r="M10" s="146">
         <f>Viagens[[#This Row],[preço]]/Viagens[[#This Row],[consumo]]</f>
         <v>0.35654106666666668</v>
       </c>
-      <c r="N10" s="162">
+      <c r="N10" s="159">
         <f>Viagens[[#This Row],[L]]*Viagens[[#This Row],[preço]]</f>
         <v>133.7029</v>
       </c>
@@ -6393,14 +6299,14 @@
         <f>Viagens[[#This Row],[km]]/Viagens[[#This Row],[L]]</f>
         <v>14.120283899887932</v>
       </c>
-      <c r="L11" s="160">
+      <c r="L11" s="157">
         <v>3.92</v>
       </c>
       <c r="M11" s="146">
         <f>Viagens[[#This Row],[preço]]/Viagens[[#This Row],[consumo]]</f>
         <v>0.27761481481481487</v>
       </c>
-      <c r="N11" s="162">
+      <c r="N11" s="159">
         <f>Viagens[[#This Row],[L]]*Viagens[[#This Row],[preço]]</f>
         <v>104.93840000000002</v>
       </c>
@@ -6436,14 +6342,14 @@
         <f>Viagens[[#This Row],[km]]/Viagens[[#This Row],[L]]</f>
         <v>13.093176307585731</v>
       </c>
-      <c r="L12" s="160">
+      <c r="L12" s="157">
         <v>4.09</v>
       </c>
       <c r="M12" s="146">
         <f>Viagens[[#This Row],[preço]]/Viagens[[#This Row],[consumo]]</f>
         <v>0.312376455026455</v>
       </c>
-      <c r="N12" s="162">
+      <c r="N12" s="159">
         <f>Viagens[[#This Row],[L]]*Viagens[[#This Row],[preço]]</f>
         <v>118.07829999999998</v>
       </c>
@@ -6479,14 +6385,14 @@
         <f>Viagens[[#This Row],[km]]/Viagens[[#This Row],[L]]</f>
         <v>13.578108763422239</v>
       </c>
-      <c r="L13" s="160">
+      <c r="L13" s="157">
         <v>4.17</v>
       </c>
       <c r="M13" s="146">
         <f>Viagens[[#This Row],[preço]]/Viagens[[#This Row],[consumo]]</f>
         <v>0.30711198979591831</v>
       </c>
-      <c r="N13" s="162">
+      <c r="N13" s="159">
         <f>Viagens[[#This Row],[L]]*Viagens[[#This Row],[preço]]</f>
         <v>120.38789999999999</v>
       </c>
@@ -6529,14 +6435,14 @@
         <f>Viagens[[#This Row],[km]]/Viagens[[#This Row],[L]]</f>
         <v>13.992537313432837</v>
       </c>
-      <c r="L14" s="160">
+      <c r="L14" s="157">
         <v>4.29</v>
       </c>
       <c r="M14" s="146">
         <f>Viagens[[#This Row],[preço]]/Viagens[[#This Row],[consumo]]</f>
         <v>0.30659199999999998</v>
       </c>
-      <c r="N14" s="162">
+      <c r="N14" s="159">
         <f>Viagens[[#This Row],[L]]*Viagens[[#This Row],[preço]]</f>
         <v>114.97199999999999</v>
       </c>
@@ -6579,14 +6485,14 @@
         <f>Viagens[[#This Row],[km]]/Viagens[[#This Row],[L]]</f>
         <v>13.903307133323446</v>
       </c>
-      <c r="L15" s="160">
+      <c r="L15" s="157">
         <v>4.2699999999999996</v>
       </c>
       <c r="M15" s="146">
         <f>Viagens[[#This Row],[preço]]/Viagens[[#This Row],[consumo]]</f>
         <v>0.30712117333333333</v>
       </c>
-      <c r="N15" s="162">
+      <c r="N15" s="159">
         <f>Viagens[[#This Row],[L]]*Viagens[[#This Row],[preço]]</f>
         <v>115.17044</v>
       </c>
@@ -6622,14 +6528,14 @@
         <f>Viagens[[#This Row],[km]]/Viagens[[#This Row],[L]]</f>
         <v>13.119857682899712</v>
       </c>
-      <c r="L16" s="161">
+      <c r="L16" s="158">
         <v>4.49</v>
       </c>
       <c r="M16" s="146">
         <f>Viagens[[#This Row],[preço]]/Viagens[[#This Row],[consumo]]</f>
         <v>0.34222932203389833</v>
       </c>
-      <c r="N16" s="162">
+      <c r="N16" s="159">
         <f>Viagens[[#This Row],[L]]*Viagens[[#This Row],[preço]]</f>
         <v>121.14918</v>
       </c>
@@ -6672,14 +6578,14 @@
         <f>Viagens[[#This Row],[km]]/Viagens[[#This Row],[L]]</f>
         <v>14.024460306406683</v>
       </c>
-      <c r="L17" s="161">
+      <c r="L17" s="158">
         <v>4.3899999999999997</v>
       </c>
       <c r="M17" s="146">
         <f>Viagens[[#This Row],[preço]]/Viagens[[#This Row],[consumo]]</f>
         <v>0.31302452316076296</v>
       </c>
-      <c r="N17" s="162">
+      <c r="N17" s="159">
         <f>Viagens[[#This Row],[L]]*Viagens[[#This Row],[preço]]</f>
         <v>114.88000000000002</v>
       </c>
@@ -6722,14 +6628,14 @@
         <f>Viagens[[#This Row],[km]]/Viagens[[#This Row],[L]]</f>
         <v>13.5</v>
       </c>
-      <c r="L18" s="161">
+      <c r="L18" s="158">
         <v>4.49</v>
       </c>
       <c r="M18" s="146">
         <f>Viagens[[#This Row],[preço]]/Viagens[[#This Row],[consumo]]</f>
         <v>0.33259259259259261</v>
       </c>
-      <c r="N18" s="162">
+      <c r="N18" s="159">
         <f>Viagens[[#This Row],[L]]*Viagens[[#This Row],[preço]]</f>
         <v>116.74000000000001</v>
       </c>
@@ -6772,14 +6678,14 @@
         <f>Viagens[[#This Row],[km]]/Viagens[[#This Row],[L]]</f>
         <v>13.25</v>
       </c>
-      <c r="L19" s="161">
+      <c r="L19" s="158">
         <v>4.59</v>
       </c>
       <c r="M19" s="146">
         <f>Viagens[[#This Row],[preço]]/Viagens[[#This Row],[consumo]]</f>
         <v>0.34641509433962264</v>
       </c>
-      <c r="N19" s="162">
+      <c r="N19" s="159">
         <f>Viagens[[#This Row],[L]]*Viagens[[#This Row],[preço]]</f>
         <v>128.51999999999998</v>
       </c>
@@ -6822,14 +6728,14 @@
         <f>Viagens[[#This Row],[km]]/Viagens[[#This Row],[L]]</f>
         <v>14.08</v>
       </c>
-      <c r="L20" s="161">
+      <c r="L20" s="158">
         <v>4.79</v>
       </c>
       <c r="M20" s="146">
         <f>Viagens[[#This Row],[preço]]/Viagens[[#This Row],[consumo]]</f>
         <v>0.34019886363636365</v>
       </c>
-      <c r="N20" s="162">
+      <c r="N20" s="159">
         <f>Viagens[[#This Row],[L]]*Viagens[[#This Row],[preço]]</f>
         <v>119.75</v>
       </c>
@@ -6872,14 +6778,14 @@
         <f>Viagens[[#This Row],[km]]/Viagens[[#This Row],[L]]</f>
         <v>14.307692307692308</v>
       </c>
-      <c r="L21" s="161">
+      <c r="L21" s="158">
         <v>4.79</v>
       </c>
       <c r="M21" s="146">
         <f>Viagens[[#This Row],[preço]]/Viagens[[#This Row],[consumo]]</f>
         <v>0.33478494623655913</v>
       </c>
-      <c r="N21" s="162">
+      <c r="N21" s="159">
         <f>Viagens[[#This Row],[L]]*Viagens[[#This Row],[preço]]</f>
         <v>124.54</v>
       </c>
@@ -6922,14 +6828,14 @@
         <f>Viagens[[#This Row],[km]]/Viagens[[#This Row],[L]]</f>
         <v>12.133333333333333</v>
       </c>
-      <c r="L22" s="161">
+      <c r="L22" s="158">
         <v>4.79</v>
       </c>
       <c r="M22" s="146">
         <f>Viagens[[#This Row],[preço]]/Viagens[[#This Row],[consumo]]</f>
         <v>0.39478021978021982</v>
       </c>
-      <c r="N22" s="162">
+      <c r="N22" s="159">
         <f>Viagens[[#This Row],[L]]*Viagens[[#This Row],[preço]]</f>
         <v>143.69999999999999</v>
       </c>
@@ -6972,14 +6878,14 @@
         <f>Viagens[[#This Row],[km]]/Viagens[[#This Row],[L]]</f>
         <v>11</v>
       </c>
-      <c r="L23" s="161">
+      <c r="L23" s="158">
         <v>4.79</v>
       </c>
       <c r="M23" s="146">
         <f>Viagens[[#This Row],[preço]]/Viagens[[#This Row],[consumo]]</f>
         <v>0.43545454545454548</v>
       </c>
-      <c r="N23" s="162">
+      <c r="N23" s="159">
         <f>Viagens[[#This Row],[L]]*Viagens[[#This Row],[preço]]</f>
         <v>158.07</v>
       </c>
@@ -7022,14 +6928,14 @@
         <f>Viagens[[#This Row],[km]]/Viagens[[#This Row],[L]]</f>
         <v>12.571428571428571</v>
       </c>
-      <c r="L24" s="161">
+      <c r="L24" s="158">
         <v>4.9400000000000004</v>
       </c>
       <c r="M24" s="146">
         <f>Viagens[[#This Row],[preço]]/Viagens[[#This Row],[consumo]]</f>
         <v>0.3929545454545455</v>
       </c>
-      <c r="N24" s="162">
+      <c r="N24" s="159">
         <f>Viagens[[#This Row],[L]]*Viagens[[#This Row],[preço]]</f>
         <v>138.32000000000002</v>
       </c>
@@ -7072,14 +6978,14 @@
         <f>Viagens[[#This Row],[km]]/Viagens[[#This Row],[L]]</f>
         <v>11.866666666666667</v>
       </c>
-      <c r="L25" s="161">
+      <c r="L25" s="158">
         <v>4.3499999999999996</v>
       </c>
       <c r="M25" s="146">
         <f>Viagens[[#This Row],[preço]]/Viagens[[#This Row],[consumo]]</f>
         <v>0.36657303370786515</v>
       </c>
-      <c r="N25" s="162">
+      <c r="N25" s="159">
         <f>Viagens[[#This Row],[L]]*Viagens[[#This Row],[preço]]</f>
         <v>130.5</v>
       </c>
@@ -7122,20 +7028,22 @@
         <f>Viagens[[#This Row],[km]]/Viagens[[#This Row],[L]]</f>
         <v>12.413793103448276</v>
       </c>
-      <c r="L26" s="161">
+      <c r="L26" s="158">
         <v>4.6399999999999997</v>
       </c>
       <c r="M26" s="146">
         <f>Viagens[[#This Row],[preço]]/Viagens[[#This Row],[consumo]]</f>
         <v>0.37377777777777776</v>
       </c>
-      <c r="N26" s="162">
+      <c r="N26" s="159">
         <f>Viagens[[#This Row],[L]]*Viagens[[#This Row],[preço]]</f>
         <v>134.56</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="164"/>
+      <c r="A27" s="161" t="s">
+        <v>38</v>
+      </c>
       <c r="B27" s="115">
         <f>SUBTOTAL(101,Viagens[hora ini])</f>
         <v>0.45364583333333336</v>
@@ -7153,8 +7061,8 @@
         <v>63873</v>
       </c>
       <c r="F27" s="119">
-        <f>SUBTOTAL(104,Viagens[km fim])</f>
-        <v>80925</v>
+        <f>SUBTOTAL(101,Viagens[km fim])</f>
+        <v>72484</v>
       </c>
       <c r="G27" s="125">
         <f>SUBTOTAL(101,Viagens[km])</f>
@@ -7176,7 +7084,7 @@
         <f>SUBTOTAL(101,Viagens[consumo])</f>
         <v>13.070131126863332</v>
       </c>
-      <c r="L27" s="161">
+      <c r="L27" s="158">
         <f>SUBTOTAL(101,Viagens[preço])</f>
         <v>4.2844000000000007</v>
       </c>
@@ -7184,7 +7092,7 @@
         <f>SUBTOTAL(101,Viagens[custo km])</f>
         <v>0.32972203049875093</v>
       </c>
-      <c r="N27" s="163">
+      <c r="N27" s="160">
         <f>SUBTOTAL(101,Viagens[custo total])</f>
         <v>121.65263680000002</v>
       </c>
@@ -7303,10 +7211,10 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7315,393 +7223,373 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="158" t="s">
+      <c r="A1" s="155" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="158" t="s">
+      <c r="B1" s="155" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="158" t="s">
+      <c r="C1" s="155" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="158" t="s">
+      <c r="D1" s="155" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="158" t="s">
+      <c r="E1" s="155" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="158" t="s">
+      <c r="F1" s="155" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="152">
+      <c r="A2" s="151">
         <v>42900</v>
       </c>
-      <c r="B2" s="153"/>
-      <c r="C2" s="151">
+      <c r="B2" s="152"/>
+      <c r="C2" s="150">
         <f>Etanol[[#This Row],[preço]]*Etanol[[#This Row],[litros]]</f>
         <v>29.999999999999996</v>
       </c>
-      <c r="D2" s="151">
+      <c r="D2" s="150">
         <v>3.29</v>
       </c>
-      <c r="E2" s="154">
+      <c r="E2" s="153">
         <v>9.1185410334346493</v>
       </c>
-      <c r="F2" s="155">
+      <c r="F2" s="154">
         <v>67245</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="152">
+      <c r="A3" s="151">
         <v>43006</v>
       </c>
-      <c r="B3" s="153"/>
-      <c r="C3" s="151">
+      <c r="B3" s="152"/>
+      <c r="C3" s="150">
         <f>Etanol[[#This Row],[preço]]*Etanol[[#This Row],[litros]]</f>
         <v>40</v>
       </c>
-      <c r="D3" s="151">
+      <c r="D3" s="150">
         <v>3.25</v>
       </c>
-      <c r="E3" s="154">
+      <c r="E3" s="153">
         <v>12.307692307692308</v>
       </c>
-      <c r="F3" s="155">
+      <c r="F3" s="154">
         <v>69760</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="152">
+      <c r="A4" s="151">
         <v>43069</v>
       </c>
-      <c r="B4" s="153"/>
-      <c r="C4" s="151">
+      <c r="B4" s="152"/>
+      <c r="C4" s="150">
         <f>Etanol[[#This Row],[preço]]*Etanol[[#This Row],[litros]]</f>
         <v>40</v>
       </c>
-      <c r="D4" s="151">
+      <c r="D4" s="150">
         <v>3.37</v>
       </c>
-      <c r="E4" s="154">
+      <c r="E4" s="153">
         <v>11.869436201780415</v>
       </c>
-      <c r="F4" s="155"/>
+      <c r="F4" s="154"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="152">
+      <c r="A5" s="151">
         <v>43078</v>
       </c>
-      <c r="B5" s="153"/>
-      <c r="C5" s="151">
+      <c r="B5" s="152"/>
+      <c r="C5" s="150">
         <f>Etanol[[#This Row],[preço]]*Etanol[[#This Row],[litros]]</f>
         <v>40</v>
       </c>
-      <c r="D5" s="151">
+      <c r="D5" s="150">
         <v>3.27</v>
       </c>
-      <c r="E5" s="154">
+      <c r="E5" s="153">
         <v>12.232415902140673</v>
       </c>
-      <c r="F5" s="155"/>
+      <c r="F5" s="154"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="152">
+      <c r="A6" s="151">
         <v>43169</v>
       </c>
-      <c r="B6" s="153"/>
-      <c r="C6" s="151">
+      <c r="B6" s="152"/>
+      <c r="C6" s="150">
         <f>Etanol[[#This Row],[preço]]*Etanol[[#This Row],[litros]]</f>
         <v>40</v>
       </c>
-      <c r="D6" s="151">
+      <c r="D6" s="150">
         <v>3.59</v>
       </c>
-      <c r="E6" s="154">
+      <c r="E6" s="153">
         <v>11.142061281337048</v>
       </c>
-      <c r="F6" s="155"/>
+      <c r="F6" s="154"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="152">
+      <c r="A7" s="151">
         <v>43194</v>
       </c>
-      <c r="B7" s="153"/>
-      <c r="C7" s="151">
+      <c r="B7" s="152"/>
+      <c r="C7" s="150">
         <f>Etanol[[#This Row],[preço]]*Etanol[[#This Row],[litros]]</f>
         <v>40</v>
       </c>
-      <c r="D7" s="151">
+      <c r="D7" s="150">
         <v>3.59</v>
       </c>
-      <c r="E7" s="154">
+      <c r="E7" s="153">
         <v>11.142061281337048</v>
       </c>
-      <c r="F7" s="155"/>
+      <c r="F7" s="154"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="152">
+      <c r="A8" s="151">
         <v>43207</v>
       </c>
-      <c r="B8" s="153"/>
-      <c r="C8" s="151">
+      <c r="B8" s="152"/>
+      <c r="C8" s="150">
         <f>Etanol[[#This Row],[preço]]*Etanol[[#This Row],[litros]]</f>
         <v>20</v>
       </c>
-      <c r="D8" s="151">
+      <c r="D8" s="150">
         <v>3.59</v>
       </c>
-      <c r="E8" s="154">
+      <c r="E8" s="153">
         <v>5.5710306406685239</v>
       </c>
-      <c r="F8" s="155"/>
+      <c r="F8" s="154"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="152">
+      <c r="A9" s="151">
         <v>43222</v>
       </c>
-      <c r="B9" s="153"/>
-      <c r="C9" s="151">
+      <c r="B9" s="152"/>
+      <c r="C9" s="150">
         <f>Etanol[[#This Row],[preço]]*Etanol[[#This Row],[litros]]</f>
         <v>40</v>
       </c>
-      <c r="D9" s="151">
+      <c r="D9" s="150">
         <v>3.59</v>
       </c>
-      <c r="E9" s="154">
+      <c r="E9" s="153">
         <v>11.142061281337048</v>
       </c>
-      <c r="F9" s="155"/>
+      <c r="F9" s="154"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="152">
+      <c r="A10" s="151">
         <v>43243</v>
       </c>
-      <c r="B10" s="153"/>
-      <c r="C10" s="151">
+      <c r="B10" s="152"/>
+      <c r="C10" s="150">
         <f>Etanol[[#This Row],[preço]]*Etanol[[#This Row],[litros]]</f>
         <v>60</v>
       </c>
-      <c r="D10" s="151">
+      <c r="D10" s="150">
         <v>3.59</v>
       </c>
-      <c r="E10" s="154">
+      <c r="E10" s="153">
         <v>16.713091922005571</v>
       </c>
-      <c r="F10" s="155"/>
+      <c r="F10" s="154"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="152">
+      <c r="A11" s="151">
         <v>43263</v>
       </c>
-      <c r="B11" s="153"/>
-      <c r="C11" s="151">
+      <c r="B11" s="152"/>
+      <c r="C11" s="150">
         <f>Etanol[[#This Row],[preço]]*Etanol[[#This Row],[litros]]</f>
         <v>40</v>
       </c>
-      <c r="D11" s="151">
+      <c r="D11" s="150">
         <v>3.67</v>
       </c>
-      <c r="E11" s="154">
+      <c r="E11" s="153">
         <v>10.899182561307903</v>
       </c>
-      <c r="F11" s="155"/>
+      <c r="F11" s="154"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="152">
+      <c r="A12" s="151">
         <v>43290</v>
       </c>
-      <c r="B12" s="153"/>
-      <c r="C12" s="151">
+      <c r="B12" s="152"/>
+      <c r="C12" s="150">
         <f>Etanol[[#This Row],[preço]]*Etanol[[#This Row],[litros]]</f>
         <v>40</v>
       </c>
-      <c r="D12" s="151">
+      <c r="D12" s="150">
         <v>3.69</v>
       </c>
-      <c r="E12" s="154">
+      <c r="E12" s="153">
         <v>10.840108401084011</v>
       </c>
-      <c r="F12" s="155">
+      <c r="F12" s="154">
         <v>76592</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="152">
+      <c r="A13" s="151">
         <v>43341</v>
       </c>
-      <c r="B13" s="153"/>
-      <c r="C13" s="151">
+      <c r="B13" s="152"/>
+      <c r="C13" s="150">
         <f>Etanol[[#This Row],[preço]]*Etanol[[#This Row],[litros]]</f>
         <v>55.984000000000002</v>
       </c>
-      <c r="D13" s="151">
+      <c r="D13" s="150">
         <v>3.4990000000000001</v>
       </c>
-      <c r="E13" s="154">
+      <c r="E13" s="153">
         <v>16</v>
       </c>
-      <c r="F13" s="155">
+      <c r="F13" s="154">
         <v>77312</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="152">
+      <c r="A14" s="151">
         <v>43349</v>
       </c>
-      <c r="B14" s="153"/>
-      <c r="C14" s="151">
+      <c r="B14" s="152"/>
+      <c r="C14" s="150">
         <f>Etanol[[#This Row],[preço]]*Etanol[[#This Row],[litros]]</f>
         <v>28.72</v>
       </c>
-      <c r="D14" s="151">
+      <c r="D14" s="150">
         <v>3.59</v>
       </c>
-      <c r="E14" s="154">
+      <c r="E14" s="153">
         <v>8</v>
       </c>
-      <c r="F14" s="155">
+      <c r="F14" s="154">
         <v>77437</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="152">
+      <c r="A15" s="151">
         <v>43355</v>
       </c>
-      <c r="B15" s="153"/>
-      <c r="C15" s="151">
+      <c r="B15" s="152"/>
+      <c r="C15" s="150">
         <f>Etanol[[#This Row],[preço]]*Etanol[[#This Row],[litros]]</f>
         <v>28.56</v>
       </c>
-      <c r="D15" s="151">
+      <c r="D15" s="150">
         <v>3.57</v>
       </c>
-      <c r="E15" s="154">
+      <c r="E15" s="153">
         <v>8</v>
       </c>
-      <c r="F15" s="155">
+      <c r="F15" s="154">
         <v>78273</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="152">
+      <c r="A16" s="151">
         <v>43388</v>
       </c>
-      <c r="B16" s="153"/>
-      <c r="C16" s="151">
+      <c r="B16" s="152"/>
+      <c r="C16" s="150">
         <f>Etanol[[#This Row],[preço]]*Etanol[[#This Row],[litros]]</f>
         <v>56</v>
       </c>
-      <c r="D16" s="151">
+      <c r="D16" s="150">
         <v>3.5</v>
       </c>
-      <c r="E16" s="154">
+      <c r="E16" s="153">
         <v>16</v>
       </c>
-      <c r="F16" s="155">
+      <c r="F16" s="154">
         <v>79364</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="152">
+      <c r="A17" s="151">
         <v>43393</v>
       </c>
-      <c r="B17" s="153"/>
-      <c r="C17" s="151">
+      <c r="B17" s="152"/>
+      <c r="C17" s="150">
         <f>Etanol[[#This Row],[preço]]*Etanol[[#This Row],[litros]]</f>
         <v>56.72</v>
       </c>
-      <c r="D17" s="151">
+      <c r="D17" s="150">
         <v>3.5449999999999999</v>
       </c>
-      <c r="E17" s="154">
+      <c r="E17" s="153">
         <v>16</v>
       </c>
-      <c r="F17" s="155">
+      <c r="F17" s="154">
         <v>79498</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="152">
+      <c r="A18" s="151">
         <v>43410</v>
       </c>
-      <c r="B18" s="153"/>
-      <c r="C18" s="151">
+      <c r="B18" s="152"/>
+      <c r="C18" s="150">
         <f>Etanol[[#This Row],[preço]]*Etanol[[#This Row],[litros]]</f>
         <v>57.44</v>
       </c>
-      <c r="D18" s="151">
+      <c r="D18" s="150">
         <v>3.59</v>
       </c>
-      <c r="E18" s="154">
+      <c r="E18" s="153">
         <v>16</v>
       </c>
-      <c r="F18" s="155">
+      <c r="F18" s="154">
         <v>79632</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="152">
+      <c r="A19" s="151">
         <v>43455</v>
       </c>
-      <c r="B19" s="153">
+      <c r="B19" s="152">
         <v>0.38194444444444442</v>
       </c>
-      <c r="C19" s="151">
+      <c r="C19" s="150">
         <f>Etanol[[#This Row],[preço]]*Etanol[[#This Row],[litros]]</f>
         <v>54.4</v>
       </c>
-      <c r="D19" s="151">
+      <c r="D19" s="150">
         <v>3.4</v>
       </c>
-      <c r="E19" s="154">
+      <c r="E19" s="153">
         <v>16</v>
       </c>
-      <c r="F19" s="155">
+      <c r="F19" s="154">
         <v>80148</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="152">
+      <c r="A20" s="151">
         <v>43467</v>
       </c>
-      <c r="B20" s="153">
+      <c r="B20" s="152">
         <v>0.4861111111111111</v>
       </c>
-      <c r="C20" s="151">
+      <c r="C20" s="150">
         <f>Etanol[[#This Row],[preço]]*Etanol[[#This Row],[litros]]</f>
         <v>54.24</v>
       </c>
-      <c r="D20" s="151">
+      <c r="D20" s="150">
         <v>3.39</v>
       </c>
-      <c r="E20" s="154">
+      <c r="E20" s="153">
         <v>16</v>
       </c>
-      <c r="F20" s="155">
+      <c r="F20" s="154">
         <v>81020</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="165"/>
-      <c r="B21" s="156">
-        <f>SUBTOTAL(101,Etanol[hora])</f>
-        <v>0.43402777777777779</v>
-      </c>
-      <c r="C21" s="157">
-        <f>SUBTOTAL(109,Etanol[valor])</f>
-        <v>822.06399999999996</v>
-      </c>
-      <c r="D21" s="131">
-        <f>SUBTOTAL(101,Etanol[preço])</f>
-        <v>3.5038947368421045</v>
-      </c>
-      <c r="E21" s="132">
-        <f>SUBTOTAL(109,Etanol[litros])</f>
-        <v>234.97768281412522</v>
-      </c>
-      <c r="F21" s="150"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Aurora.xlsx
+++ b/Aurora.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ec562523a0c953df/Documentos/planilhas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="47" documentId="107_{E6A6EEF9-E5F6-400A-A355-84C1BD44780A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{B724D23A-620F-4C55-82F9-F4DF18FA32C4}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="6_{2535CCC5-FD1A-40E7-AA6C-F167BD34522F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{6EBA868F-4FF1-4399-9CC9-CA7FD09D0C7F}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3600" windowWidth="20490" windowHeight="7665" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3600" windowWidth="20490" windowHeight="7665" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2017.1" sheetId="1" r:id="rId1"/>
@@ -397,7 +397,7 @@
     <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="167" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -553,12 +553,6 @@
       <color theme="1"/>
       <name val="Constantia"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -732,7 +726,7 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="165">
+  <cellXfs count="164">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
@@ -1137,13 +1131,13 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -1180,9 +1174,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1202,26 +1193,241 @@
   </cellStyles>
   <dxfs count="92">
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="164" formatCode="0.0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Constantia"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Constantia"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1270,244 +1476,6 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color theme="1"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Constantia"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Constantia"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="none"/>
@@ -1605,6 +1573,522 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Constantia"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Constantia"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1638,6 +2122,127 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FFFFFFFF"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1671,7 +2276,37 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1687,14 +2322,27 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
@@ -1707,27 +2355,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
+      <numFmt numFmtId="1" formatCode="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1735,6 +2363,38 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1770,692 +2430,6 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Constantia"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Constantia"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color rgb="FFFFFFFF"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
@@ -2482,15 +2456,15 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{707C8E72-449F-434C-81D2-E6CAE60FDC64}" name="G_20184" displayName="G_20184" ref="A1:G8" tableBorderDxfId="91" dataCellStyle="Normal">
   <autoFilter ref="A1:G8" xr:uid="{1BB8EF35-A1C5-4DA1-AE25-87B25A5E3E01}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{359F37B9-9617-418F-81F4-00F8F142D6C9}" name="data" dataDxfId="90" totalsRowDxfId="35" dataCellStyle="Normal"/>
-    <tableColumn id="2" xr3:uid="{5B407B50-7529-43FD-BA94-ADB3D3459328}" name="km ini" totalsRowFunction="min" dataDxfId="89" totalsRowDxfId="36" dataCellStyle="Normal"/>
-    <tableColumn id="3" xr3:uid="{08934F92-A85D-4FCC-AAF8-CE32E5CED8EC}" name="km fim" totalsRowFunction="max" dataDxfId="88" totalsRowDxfId="37" dataCellStyle="Normal"/>
-    <tableColumn id="4" xr3:uid="{53CA1E60-5853-464E-B828-BFEECE0B41CF}" name="km" totalsRowFunction="average" dataDxfId="87" totalsRowDxfId="38" dataCellStyle="Normal">
+    <tableColumn id="1" xr3:uid="{359F37B9-9617-418F-81F4-00F8F142D6C9}" name="data" dataDxfId="90" totalsRowDxfId="89" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{5B407B50-7529-43FD-BA94-ADB3D3459328}" name="km ini" totalsRowFunction="min" dataDxfId="88" totalsRowDxfId="87" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{08934F92-A85D-4FCC-AAF8-CE32E5CED8EC}" name="km fim" totalsRowFunction="max" dataDxfId="86" totalsRowDxfId="85" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{53CA1E60-5853-464E-B828-BFEECE0B41CF}" name="km" totalsRowFunction="average" dataDxfId="84" totalsRowDxfId="83" dataCellStyle="Normal">
       <calculatedColumnFormula>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{57D64090-3B83-46A5-A370-00C001CC3A22}" name="valor" totalsRowFunction="sum" dataDxfId="86" totalsRowDxfId="39" dataCellStyle="Normal"/>
-    <tableColumn id="6" xr3:uid="{EA59C9C8-15C0-4DBA-A159-0B2B8BDC9698}" name="preço" totalsRowFunction="average" dataDxfId="85" totalsRowDxfId="40" dataCellStyle="Normal"/>
-    <tableColumn id="7" xr3:uid="{051A8F7F-91AF-40BD-BAE4-405E1FF53171}" name="litros" totalsRowFunction="sum" dataDxfId="84" totalsRowDxfId="41" dataCellStyle="Normal">
+    <tableColumn id="5" xr3:uid="{57D64090-3B83-46A5-A370-00C001CC3A22}" name="valor" totalsRowFunction="sum" dataDxfId="82" totalsRowDxfId="81" dataCellStyle="Normal"/>
+    <tableColumn id="6" xr3:uid="{EA59C9C8-15C0-4DBA-A159-0B2B8BDC9698}" name="preço" totalsRowFunction="average" dataDxfId="80" totalsRowDxfId="79" dataCellStyle="Normal"/>
+    <tableColumn id="7" xr3:uid="{051A8F7F-91AF-40BD-BAE4-405E1FF53171}" name="litros" totalsRowFunction="sum" dataDxfId="78" totalsRowDxfId="77" dataCellStyle="Normal">
       <calculatedColumnFormula>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2499,21 +2473,21 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{F4E8D315-69AB-466D-B82A-109C081FA398}" name="G_2018" displayName="G_2018" ref="A1:G34" tableBorderDxfId="83" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{F4E8D315-69AB-466D-B82A-109C081FA398}" name="G_2018" displayName="G_2018" ref="A1:G34" tableBorderDxfId="76" dataCellStyle="Normal">
   <autoFilter ref="A1:G34" xr:uid="{1BB8EF35-A1C5-4DA1-AE25-87B25A5E3E01}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G34">
     <sortCondition ref="A1:A34"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{87768D9A-701C-45DE-920E-7BFC2026C313}" name="data" dataDxfId="82" totalsRowDxfId="28" dataCellStyle="Normal"/>
-    <tableColumn id="2" xr3:uid="{A4AC1043-1F00-40C3-A363-30D037C79583}" name="km ini" totalsRowFunction="min" dataDxfId="81" totalsRowDxfId="29" dataCellStyle="Normal"/>
-    <tableColumn id="3" xr3:uid="{0E5B3C2A-0DDB-40AB-96C9-1BE6758D96EA}" name="km fim" totalsRowFunction="max" dataDxfId="80" totalsRowDxfId="30" dataCellStyle="Normal"/>
-    <tableColumn id="4" xr3:uid="{60E1EC99-F30E-4DB1-A214-9390FFB3442F}" name="km" totalsRowFunction="sum" dataDxfId="79" totalsRowDxfId="31" dataCellStyle="Normal">
+    <tableColumn id="1" xr3:uid="{87768D9A-701C-45DE-920E-7BFC2026C313}" name="data" dataDxfId="75" totalsRowDxfId="74" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{A4AC1043-1F00-40C3-A363-30D037C79583}" name="km ini" totalsRowFunction="min" dataDxfId="73" totalsRowDxfId="72" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{0E5B3C2A-0DDB-40AB-96C9-1BE6758D96EA}" name="km fim" totalsRowFunction="max" dataDxfId="71" totalsRowDxfId="70" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{60E1EC99-F30E-4DB1-A214-9390FFB3442F}" name="km" totalsRowFunction="sum" dataDxfId="69" totalsRowDxfId="68" dataCellStyle="Normal">
       <calculatedColumnFormula>G_2018[[#This Row],[km fim]]-G_2018[[#This Row],[km ini]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{E2DE9863-217C-4C16-A993-DD1B8782AA27}" name="valor" totalsRowFunction="sum" dataDxfId="78" totalsRowDxfId="32" dataCellStyle="Normal"/>
-    <tableColumn id="6" xr3:uid="{1150101B-6F63-4A48-ADE5-664BEE3344D7}" name="preço" totalsRowFunction="average" dataDxfId="77" totalsRowDxfId="33" dataCellStyle="Normal"/>
-    <tableColumn id="7" xr3:uid="{B21A0A4B-7255-42FE-8E4A-B5C699477A83}" name="litros" totalsRowFunction="sum" dataDxfId="76" totalsRowDxfId="34" dataCellStyle="Normal">
+    <tableColumn id="5" xr3:uid="{E2DE9863-217C-4C16-A993-DD1B8782AA27}" name="valor" totalsRowFunction="sum" dataDxfId="67" totalsRowDxfId="66" dataCellStyle="Normal"/>
+    <tableColumn id="6" xr3:uid="{1150101B-6F63-4A48-ADE5-664BEE3344D7}" name="preço" totalsRowFunction="average" dataDxfId="65" totalsRowDxfId="64" dataCellStyle="Normal"/>
+    <tableColumn id="7" xr3:uid="{B21A0A4B-7255-42FE-8E4A-B5C699477A83}" name="litros" totalsRowFunction="sum" dataDxfId="63" totalsRowDxfId="62" dataCellStyle="Normal">
       <calculatedColumnFormula>G_2018[[#This Row],[valor]]/G_2018[[#This Row],[preço]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2522,21 +2496,21 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8D4DA0DB-1768-4A87-8BAC-0BC3711A5C7C}" name="G_2019" displayName="G_2019" ref="A1:H3" tableBorderDxfId="75" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8D4DA0DB-1768-4A87-8BAC-0BC3711A5C7C}" name="G_2019" displayName="G_2019" ref="A1:H3" tableBorderDxfId="61" dataCellStyle="Normal">
   <autoFilter ref="A1:H3" xr:uid="{1BB8EF35-A1C5-4DA1-AE25-87B25A5E3E01}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{0CA686D4-5E48-4762-9327-629FEB3146B0}" name="data" dataDxfId="74" totalsRowDxfId="20" dataCellStyle="Normal"/>
-    <tableColumn id="8" xr3:uid="{C4E19C72-93B2-4837-B485-42F08F5ECEBF}" name="hora" totalsRowFunction="average" dataDxfId="73" totalsRowDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{A24831E8-3DCE-4E6E-B7B2-ED8EF5796F22}" name="km ini" totalsRowFunction="min" dataDxfId="72" totalsRowDxfId="22" dataCellStyle="Normal"/>
-    <tableColumn id="3" xr3:uid="{8E05EFCC-4A39-40D2-A035-793B1708027E}" name="km fim" totalsRowFunction="max" dataDxfId="71" totalsRowDxfId="23" dataCellStyle="Normal">
+    <tableColumn id="1" xr3:uid="{0CA686D4-5E48-4762-9327-629FEB3146B0}" name="data" dataDxfId="60" totalsRowDxfId="59" dataCellStyle="Normal"/>
+    <tableColumn id="8" xr3:uid="{C4E19C72-93B2-4837-B485-42F08F5ECEBF}" name="hora" totalsRowFunction="average" dataDxfId="58" totalsRowDxfId="57"/>
+    <tableColumn id="2" xr3:uid="{A24831E8-3DCE-4E6E-B7B2-ED8EF5796F22}" name="km ini" totalsRowFunction="min" dataDxfId="56" totalsRowDxfId="55" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{8E05EFCC-4A39-40D2-A035-793B1708027E}" name="km fim" totalsRowFunction="max" dataDxfId="54" totalsRowDxfId="53" dataCellStyle="Normal">
       <calculatedColumnFormula>C3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{76C9D5C3-4417-44BE-9E71-9E5CAEE19B17}" name="km" totalsRowFunction="sum" dataDxfId="70" totalsRowDxfId="24" dataCellStyle="Normal">
+    <tableColumn id="4" xr3:uid="{76C9D5C3-4417-44BE-9E71-9E5CAEE19B17}" name="km" totalsRowFunction="sum" dataDxfId="52" totalsRowDxfId="51" dataCellStyle="Normal">
       <calculatedColumnFormula>G_2019[[#This Row],[km fim]]-G_2019[[#This Row],[km ini]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{98628619-61B6-4221-97AB-017207261795}" name="valor" totalsRowFunction="sum" dataDxfId="69" totalsRowDxfId="25" dataCellStyle="Normal"/>
-    <tableColumn id="6" xr3:uid="{7269D260-3F9C-4B41-A43E-C2AC48A542E9}" name="preço" totalsRowFunction="average" dataDxfId="68" totalsRowDxfId="26" dataCellStyle="Normal"/>
-    <tableColumn id="7" xr3:uid="{24937D08-B4ED-442D-9694-24626A006DBC}" name="litros" totalsRowFunction="sum" dataDxfId="67" totalsRowDxfId="27" dataCellStyle="Normal">
+    <tableColumn id="5" xr3:uid="{98628619-61B6-4221-97AB-017207261795}" name="valor" totalsRowFunction="sum" dataDxfId="50" totalsRowDxfId="49" dataCellStyle="Normal"/>
+    <tableColumn id="6" xr3:uid="{7269D260-3F9C-4B41-A43E-C2AC48A542E9}" name="preço" totalsRowFunction="average" dataDxfId="48" totalsRowDxfId="47" dataCellStyle="Normal"/>
+    <tableColumn id="7" xr3:uid="{24937D08-B4ED-442D-9694-24626A006DBC}" name="litros" totalsRowFunction="sum" dataDxfId="46" totalsRowDxfId="45" dataCellStyle="Normal">
       <calculatedColumnFormula>G_2019[[#This Row],[valor]]/G_2019[[#This Row],[preço]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2545,32 +2519,32 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{8349ADA9-D7F2-436E-8D85-D66EBD35D289}" name="Viagens" displayName="Viagens" ref="A1:N27" totalsRowCount="1" headerRowDxfId="66" dataDxfId="65" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{8349ADA9-D7F2-436E-8D85-D66EBD35D289}" name="Viagens" displayName="Viagens" ref="A1:N27" totalsRowCount="1" headerRowDxfId="44" dataDxfId="43" dataCellStyle="Normal">
   <autoFilter ref="A1:N26" xr:uid="{91B7E7A6-3E74-4A30-BB6B-4EEBB1B73D97}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N24">
     <sortCondition ref="A1:A24"/>
   </sortState>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{943F9AB6-E0CE-4D16-8D0D-D6CD20DB4E3D}" name="começo/fim da viagem" totalsRowLabel="22/12/2016" dataDxfId="64" totalsRowDxfId="19" dataCellStyle="Normal"/>
-    <tableColumn id="8" xr3:uid="{8B7A80CD-1D41-4286-9AE6-30D2E4669859}" name="hora ini" totalsRowFunction="average" dataDxfId="63" totalsRowDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{F79333F5-CCDB-4E3B-A65F-7954CDBED5AC}" name="hora fim" totalsRowFunction="average" dataDxfId="62" totalsRowDxfId="17" dataCellStyle="Normal"/>
-    <tableColumn id="14" xr3:uid="{595493D2-D75D-41DE-91AD-11281D062CA9}" name="horas" totalsRowFunction="average" dataDxfId="61" totalsRowDxfId="16">
+    <tableColumn id="1" xr3:uid="{943F9AB6-E0CE-4D16-8D0D-D6CD20DB4E3D}" name="começo/fim da viagem" totalsRowLabel="22/12/2016" dataDxfId="14" totalsRowDxfId="13" dataCellStyle="Normal"/>
+    <tableColumn id="8" xr3:uid="{8B7A80CD-1D41-4286-9AE6-30D2E4669859}" name="hora ini" totalsRowFunction="average" dataDxfId="42" totalsRowDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{F79333F5-CCDB-4E3B-A65F-7954CDBED5AC}" name="hora fim" totalsRowFunction="average" dataDxfId="41" totalsRowDxfId="11" dataCellStyle="Normal"/>
+    <tableColumn id="14" xr3:uid="{595493D2-D75D-41DE-91AD-11281D062CA9}" name="horas" totalsRowFunction="average" dataDxfId="40" totalsRowDxfId="10">
       <calculatedColumnFormula>Viagens[[#This Row],[hora fim]]-Viagens[[#This Row],[hora ini]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{254E01DF-E2FE-4492-9476-CAE2652CB982}" name="km ini" totalsRowFunction="min" dataDxfId="60" totalsRowDxfId="15" dataCellStyle="Normal"/>
-    <tableColumn id="4" xr3:uid="{B85A4F29-C8A5-4E05-A6C0-542D9DF6CB11}" name="km fim" totalsRowFunction="average" dataDxfId="59" totalsRowDxfId="6" dataCellStyle="Normal"/>
-    <tableColumn id="11" xr3:uid="{B2109811-F1C6-4D1C-9E75-85349990007B}" name="km" totalsRowFunction="average" dataDxfId="58" totalsRowDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{A504539A-42D5-4734-99A3-1C79CBD10ADD}" name="L ini" totalsRowFunction="average" dataDxfId="57" totalsRowDxfId="13" dataCellStyle="Normal"/>
-    <tableColumn id="6" xr3:uid="{5168ADB9-DA6A-4473-9847-62692963BE45}" name="L fim" totalsRowFunction="average" dataDxfId="56" totalsRowDxfId="12" dataCellStyle="Normal"/>
-    <tableColumn id="7" xr3:uid="{7A851BFB-669C-4DCC-AB14-044369ECFE05}" name="L" totalsRowFunction="average" dataDxfId="55" totalsRowDxfId="11" dataCellStyle="Normal">
+    <tableColumn id="3" xr3:uid="{254E01DF-E2FE-4492-9476-CAE2652CB982}" name="km ini" totalsRowFunction="min" dataDxfId="39" totalsRowDxfId="9" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{B85A4F29-C8A5-4E05-A6C0-542D9DF6CB11}" name="km fim" totalsRowFunction="average" dataDxfId="38" totalsRowDxfId="8" dataCellStyle="Normal"/>
+    <tableColumn id="11" xr3:uid="{B2109811-F1C6-4D1C-9E75-85349990007B}" name="km" totalsRowFunction="average" dataDxfId="37" totalsRowDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{A504539A-42D5-4734-99A3-1C79CBD10ADD}" name="L ini" totalsRowFunction="average" dataDxfId="36" totalsRowDxfId="6" dataCellStyle="Normal"/>
+    <tableColumn id="6" xr3:uid="{5168ADB9-DA6A-4473-9847-62692963BE45}" name="L fim" totalsRowFunction="average" dataDxfId="35" totalsRowDxfId="5" dataCellStyle="Normal"/>
+    <tableColumn id="7" xr3:uid="{7A851BFB-669C-4DCC-AB14-044369ECFE05}" name="L" totalsRowFunction="average" dataDxfId="34" totalsRowDxfId="4" dataCellStyle="Normal">
       <calculatedColumnFormula>Viagens[[#This Row],[L ini]]-Viagens[[#This Row],[L fim]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{B57F3DE7-B27D-49F3-962C-E191C7F39D71}" name="consumo" totalsRowFunction="average" dataDxfId="54" totalsRowDxfId="10" dataCellStyle="Normal"/>
-    <tableColumn id="10" xr3:uid="{DF9137D7-756E-494C-BCFA-15BA5349D04E}" name="preço" totalsRowFunction="average" dataDxfId="53" totalsRowDxfId="9" dataCellStyle="Normal"/>
-    <tableColumn id="12" xr3:uid="{9BBF57AB-EB30-47D6-BE16-889D42E241F3}" name="custo km" totalsRowFunction="average" dataDxfId="52" totalsRowDxfId="8" dataCellStyle="Normal">
+    <tableColumn id="9" xr3:uid="{B57F3DE7-B27D-49F3-962C-E191C7F39D71}" name="consumo" totalsRowFunction="average" dataDxfId="33" totalsRowDxfId="3" dataCellStyle="Normal"/>
+    <tableColumn id="10" xr3:uid="{DF9137D7-756E-494C-BCFA-15BA5349D04E}" name="preço" totalsRowFunction="average" dataDxfId="32" totalsRowDxfId="2" dataCellStyle="Normal"/>
+    <tableColumn id="12" xr3:uid="{9BBF57AB-EB30-47D6-BE16-889D42E241F3}" name="custo km" totalsRowFunction="average" dataDxfId="31" totalsRowDxfId="1" dataCellStyle="Normal">
       <calculatedColumnFormula>Viagens[[#This Row],[preço]]/Viagens[[#This Row],[consumo]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{1573DC55-E347-4C35-96EE-F132F6B74719}" name="custo total" totalsRowFunction="average" dataDxfId="51" totalsRowDxfId="7" dataCellStyle="Normal">
+    <tableColumn id="13" xr3:uid="{1573DC55-E347-4C35-96EE-F132F6B74719}" name="custo total" totalsRowFunction="average" dataDxfId="30" totalsRowDxfId="0" dataCellStyle="Normal">
       <calculatedColumnFormula>Viagens[[#This Row],[L]]*Viagens[[#This Row],[preço]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2579,17 +2553,17 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{137CCE77-ADDB-4C8C-995A-CD5917FE5216}" name="Etanol" displayName="Etanol" ref="A1:F20" headerRowDxfId="50" dataDxfId="49" totalsRowDxfId="48">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{137CCE77-ADDB-4C8C-995A-CD5917FE5216}" name="Etanol" displayName="Etanol" ref="A1:F20" headerRowDxfId="29" dataDxfId="28" totalsRowDxfId="27">
   <autoFilter ref="A1:F20" xr:uid="{BA0B08BB-754D-4819-AC93-39A0554A2FF6}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{FC48604D-710C-4BBA-B35F-209384F01637}" name="data" dataDxfId="47" totalsRowDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{A139AE0A-C5DF-448F-8E20-931AD1CD8489}" name="hora" totalsRowFunction="average" dataDxfId="46" totalsRowDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{69037EB3-F18F-4F01-86AC-2F03E2616671}" name="valor" totalsRowFunction="sum" dataDxfId="45" totalsRowDxfId="2">
+    <tableColumn id="1" xr3:uid="{FC48604D-710C-4BBA-B35F-209384F01637}" name="data" dataDxfId="26" totalsRowDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{A139AE0A-C5DF-448F-8E20-931AD1CD8489}" name="hora" totalsRowFunction="average" dataDxfId="24" totalsRowDxfId="23"/>
+    <tableColumn id="5" xr3:uid="{69037EB3-F18F-4F01-86AC-2F03E2616671}" name="valor" totalsRowFunction="sum" dataDxfId="22" totalsRowDxfId="21">
       <calculatedColumnFormula>Etanol[[#This Row],[preço]]*Etanol[[#This Row],[litros]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{D7C46694-E6CD-4C31-9617-E21EBBD7D56E}" name="preço" totalsRowFunction="average" dataDxfId="44" totalsRowDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{F099CEFF-1A72-4F01-8112-F305B04A303E}" name="litros" totalsRowFunction="sum" dataDxfId="43" totalsRowDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{539451E7-6D16-4B47-A7EF-A1E0AFF83B9A}" name="km" dataDxfId="42" totalsRowDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{D7C46694-E6CD-4C31-9617-E21EBBD7D56E}" name="preço" totalsRowFunction="average" dataDxfId="20" totalsRowDxfId="19"/>
+    <tableColumn id="7" xr3:uid="{F099CEFF-1A72-4F01-8112-F305B04A303E}" name="litros" totalsRowFunction="sum" dataDxfId="18" totalsRowDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{539451E7-6D16-4B47-A7EF-A1E0AFF83B9A}" name="km" dataDxfId="16" totalsRowDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -2924,30 +2898,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="164" t="s">
+      <c r="A1" s="163" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="164"/>
-      <c r="C1" s="164"/>
-      <c r="D1" s="164"/>
-      <c r="E1" s="164"/>
-      <c r="F1" s="164"/>
-      <c r="G1" s="164" t="s">
+      <c r="B1" s="163"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="163"/>
+      <c r="E1" s="163"/>
+      <c r="F1" s="163"/>
+      <c r="G1" s="163" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="164"/>
-      <c r="I1" s="164"/>
-      <c r="J1" s="164"/>
-      <c r="K1" s="164"/>
-      <c r="L1" s="164"/>
-      <c r="M1" s="164" t="s">
+      <c r="H1" s="163"/>
+      <c r="I1" s="163"/>
+      <c r="J1" s="163"/>
+      <c r="K1" s="163"/>
+      <c r="L1" s="163"/>
+      <c r="M1" s="163" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="164"/>
-      <c r="O1" s="164"/>
-      <c r="P1" s="164"/>
-      <c r="Q1" s="164"/>
-      <c r="R1" s="164"/>
+      <c r="N1" s="163"/>
+      <c r="O1" s="163"/>
+      <c r="P1" s="163"/>
+      <c r="Q1" s="163"/>
+      <c r="R1" s="163"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="6"/>
@@ -3765,30 +3739,30 @@
       <c r="V15" s="6"/>
     </row>
     <row r="16" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="164" t="s">
+      <c r="A16" s="163" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="164"/>
-      <c r="C16" s="164"/>
-      <c r="D16" s="164"/>
-      <c r="E16" s="164"/>
-      <c r="F16" s="164" t="s">
+      <c r="B16" s="163"/>
+      <c r="C16" s="163"/>
+      <c r="D16" s="163"/>
+      <c r="E16" s="163"/>
+      <c r="F16" s="163" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="164"/>
-      <c r="H16" s="164"/>
-      <c r="I16" s="164"/>
-      <c r="J16" s="164"/>
-      <c r="K16" s="164"/>
-      <c r="L16" s="164"/>
-      <c r="M16" s="164" t="s">
+      <c r="G16" s="163"/>
+      <c r="H16" s="163"/>
+      <c r="I16" s="163"/>
+      <c r="J16" s="163"/>
+      <c r="K16" s="163"/>
+      <c r="L16" s="163"/>
+      <c r="M16" s="163" t="s">
         <v>15</v>
       </c>
-      <c r="N16" s="164"/>
-      <c r="O16" s="164"/>
-      <c r="P16" s="164"/>
-      <c r="Q16" s="164"/>
-      <c r="R16" s="164"/>
+      <c r="N16" s="163"/>
+      <c r="O16" s="163"/>
+      <c r="P16" s="163"/>
+      <c r="Q16" s="163"/>
+      <c r="R16" s="163"/>
       <c r="S16" s="6"/>
       <c r="T16" s="6"/>
       <c r="U16" s="6"/>
@@ -3853,30 +3827,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="164" t="s">
+      <c r="A1" s="163" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="164"/>
-      <c r="C1" s="164"/>
-      <c r="D1" s="164"/>
-      <c r="E1" s="164"/>
-      <c r="F1" s="164"/>
-      <c r="G1" s="164" t="s">
+      <c r="B1" s="163"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="163"/>
+      <c r="E1" s="163"/>
+      <c r="F1" s="163"/>
+      <c r="G1" s="163" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="164"/>
-      <c r="I1" s="164"/>
-      <c r="J1" s="164"/>
-      <c r="K1" s="164"/>
-      <c r="L1" s="164"/>
-      <c r="M1" s="164" t="s">
+      <c r="H1" s="163"/>
+      <c r="I1" s="163"/>
+      <c r="J1" s="163"/>
+      <c r="K1" s="163"/>
+      <c r="L1" s="163"/>
+      <c r="M1" s="163" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="164"/>
-      <c r="O1" s="164"/>
-      <c r="P1" s="164"/>
-      <c r="Q1" s="164"/>
-      <c r="R1" s="164"/>
+      <c r="N1" s="163"/>
+      <c r="O1" s="163"/>
+      <c r="P1" s="163"/>
+      <c r="Q1" s="163"/>
+      <c r="R1" s="163"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
     </row>
@@ -4524,30 +4498,30 @@
       <c r="T15" s="6"/>
     </row>
     <row r="16" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="164" t="s">
+      <c r="A16" s="163" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="164"/>
-      <c r="C16" s="164"/>
-      <c r="D16" s="164"/>
-      <c r="E16" s="164"/>
-      <c r="F16" s="164" t="s">
+      <c r="B16" s="163"/>
+      <c r="C16" s="163"/>
+      <c r="D16" s="163"/>
+      <c r="E16" s="163"/>
+      <c r="F16" s="163" t="s">
         <v>21</v>
       </c>
-      <c r="G16" s="164"/>
-      <c r="H16" s="164"/>
-      <c r="I16" s="164"/>
-      <c r="J16" s="164"/>
-      <c r="K16" s="164"/>
-      <c r="L16" s="164"/>
-      <c r="M16" s="164" t="s">
+      <c r="G16" s="163"/>
+      <c r="H16" s="163"/>
+      <c r="I16" s="163"/>
+      <c r="J16" s="163"/>
+      <c r="K16" s="163"/>
+      <c r="L16" s="163"/>
+      <c r="M16" s="163" t="s">
         <v>22</v>
       </c>
-      <c r="N16" s="164"/>
-      <c r="O16" s="164"/>
-      <c r="P16" s="164"/>
-      <c r="Q16" s="164"/>
-      <c r="R16" s="164"/>
+      <c r="N16" s="163"/>
+      <c r="O16" s="163"/>
+      <c r="P16" s="163"/>
+      <c r="Q16" s="163"/>
+      <c r="R16" s="163"/>
       <c r="S16" s="6"/>
       <c r="T16" s="6"/>
     </row>
@@ -4577,7 +4551,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82D5A34F-EB28-41C8-A1E3-151E9E71FB07}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -4621,10 +4595,10 @@
       <c r="A2" s="98">
         <v>42991</v>
       </c>
-      <c r="B2" s="162">
+      <c r="B2" s="161">
         <v>69437</v>
       </c>
-      <c r="C2" s="163">
+      <c r="C2" s="162">
         <v>69611</v>
       </c>
       <c r="D2" s="132">
@@ -4646,10 +4620,10 @@
       <c r="A3" s="98">
         <v>43020</v>
       </c>
-      <c r="B3" s="163">
+      <c r="B3" s="162">
         <v>69760</v>
       </c>
-      <c r="C3" s="162">
+      <c r="C3" s="161">
         <v>69879</v>
       </c>
       <c r="D3" s="132">
@@ -4671,7 +4645,7 @@
       <c r="A4" s="98">
         <v>43034</v>
       </c>
-      <c r="B4" s="162">
+      <c r="B4" s="161">
         <f>C3</f>
         <v>69879</v>
       </c>
@@ -4725,7 +4699,7 @@
       <c r="B6" s="129">
         <v>70809</v>
       </c>
-      <c r="C6" s="163">
+      <c r="C6" s="162">
         <v>70965</v>
       </c>
       <c r="D6" s="132">
@@ -4747,7 +4721,7 @@
       <c r="A7" s="98">
         <v>43087</v>
       </c>
-      <c r="B7" s="163">
+      <c r="B7" s="162">
         <v>71109</v>
       </c>
       <c r="C7" s="129">
@@ -5815,8 +5789,8 @@
   </sheetPr>
   <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7041,7 +7015,7 @@
       </c>
     </row>
     <row r="27" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="161" t="s">
+      <c r="A27" s="140" t="s">
         <v>38</v>
       </c>
       <c r="B27" s="115">

--- a/Aurora.xlsx
+++ b/Aurora.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ec562523a0c953df/Documentos/planilhas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="6_{2535CCC5-FD1A-40E7-AA6C-F167BD34522F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{6EBA868F-4FF1-4399-9CC9-CA7FD09D0C7F}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="6_{6F616136-9CB5-4D90-8E8D-70B7249672C3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{439BDA17-E289-47C1-B3BA-AF1628E33CCC}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="3600" windowWidth="20490" windowHeight="7665" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -726,7 +726,7 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="164">
+  <cellXfs count="165">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
@@ -1180,6 +1180,9 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1221,6 +1224,28 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1249,10 +1274,55 @@
     <dxf>
       <font>
         <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -1306,6 +1376,15 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -1340,19 +1419,16 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
+        <b/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
+        <name val="Constantia"/>
+        <family val="1"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="0.0"/>
@@ -1363,13 +1439,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1405,6 +1474,59 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1422,6 +1544,29 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="0.0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Constantia"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1465,6 +1610,28 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1495,6 +1662,28 @@
         <bottom/>
       </border>
       <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1530,6 +1719,16 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1573,13 +1772,27 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1734,222 +1947,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Constantia"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Constantia"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2525,26 +2522,26 @@
     <sortCondition ref="A1:A24"/>
   </sortState>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{943F9AB6-E0CE-4D16-8D0D-D6CD20DB4E3D}" name="começo/fim da viagem" totalsRowLabel="22/12/2016" dataDxfId="14" totalsRowDxfId="13" dataCellStyle="Normal"/>
-    <tableColumn id="8" xr3:uid="{8B7A80CD-1D41-4286-9AE6-30D2E4669859}" name="hora ini" totalsRowFunction="average" dataDxfId="42" totalsRowDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{F79333F5-CCDB-4E3B-A65F-7954CDBED5AC}" name="hora fim" totalsRowFunction="average" dataDxfId="41" totalsRowDxfId="11" dataCellStyle="Normal"/>
-    <tableColumn id="14" xr3:uid="{595493D2-D75D-41DE-91AD-11281D062CA9}" name="horas" totalsRowFunction="average" dataDxfId="40" totalsRowDxfId="10">
+    <tableColumn id="1" xr3:uid="{943F9AB6-E0CE-4D16-8D0D-D6CD20DB4E3D}" name="começo/fim da viagem" totalsRowLabel="22/12/2016" dataDxfId="27" totalsRowDxfId="26" dataCellStyle="Normal"/>
+    <tableColumn id="8" xr3:uid="{8B7A80CD-1D41-4286-9AE6-30D2E4669859}" name="hora ini" totalsRowFunction="average" dataDxfId="25" totalsRowDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{F79333F5-CCDB-4E3B-A65F-7954CDBED5AC}" name="hora fim" totalsRowFunction="average" dataDxfId="23" totalsRowDxfId="22" dataCellStyle="Normal"/>
+    <tableColumn id="14" xr3:uid="{595493D2-D75D-41DE-91AD-11281D062CA9}" name="horas" totalsRowFunction="average" dataDxfId="21" totalsRowDxfId="20">
       <calculatedColumnFormula>Viagens[[#This Row],[hora fim]]-Viagens[[#This Row],[hora ini]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{254E01DF-E2FE-4492-9476-CAE2652CB982}" name="km ini" totalsRowFunction="min" dataDxfId="39" totalsRowDxfId="9" dataCellStyle="Normal"/>
-    <tableColumn id="4" xr3:uid="{B85A4F29-C8A5-4E05-A6C0-542D9DF6CB11}" name="km fim" totalsRowFunction="average" dataDxfId="38" totalsRowDxfId="8" dataCellStyle="Normal"/>
-    <tableColumn id="11" xr3:uid="{B2109811-F1C6-4D1C-9E75-85349990007B}" name="km" totalsRowFunction="average" dataDxfId="37" totalsRowDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{A504539A-42D5-4734-99A3-1C79CBD10ADD}" name="L ini" totalsRowFunction="average" dataDxfId="36" totalsRowDxfId="6" dataCellStyle="Normal"/>
-    <tableColumn id="6" xr3:uid="{5168ADB9-DA6A-4473-9847-62692963BE45}" name="L fim" totalsRowFunction="average" dataDxfId="35" totalsRowDxfId="5" dataCellStyle="Normal"/>
-    <tableColumn id="7" xr3:uid="{7A851BFB-669C-4DCC-AB14-044369ECFE05}" name="L" totalsRowFunction="average" dataDxfId="34" totalsRowDxfId="4" dataCellStyle="Normal">
+    <tableColumn id="3" xr3:uid="{254E01DF-E2FE-4492-9476-CAE2652CB982}" name="km ini" totalsRowFunction="min" dataDxfId="19" totalsRowDxfId="18" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{B85A4F29-C8A5-4E05-A6C0-542D9DF6CB11}" name="km fim" totalsRowFunction="average" dataDxfId="17" totalsRowDxfId="16" dataCellStyle="Normal"/>
+    <tableColumn id="11" xr3:uid="{B2109811-F1C6-4D1C-9E75-85349990007B}" name="km" totalsRowFunction="average" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{A504539A-42D5-4734-99A3-1C79CBD10ADD}" name="L ini" totalsRowFunction="average" dataDxfId="13" totalsRowDxfId="12" dataCellStyle="Normal"/>
+    <tableColumn id="6" xr3:uid="{5168ADB9-DA6A-4473-9847-62692963BE45}" name="L fim" totalsRowFunction="average" dataDxfId="11" totalsRowDxfId="10" dataCellStyle="Normal"/>
+    <tableColumn id="7" xr3:uid="{7A851BFB-669C-4DCC-AB14-044369ECFE05}" name="L" totalsRowFunction="average" dataDxfId="9" totalsRowDxfId="8" dataCellStyle="Normal">
       <calculatedColumnFormula>Viagens[[#This Row],[L ini]]-Viagens[[#This Row],[L fim]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{B57F3DE7-B27D-49F3-962C-E191C7F39D71}" name="consumo" totalsRowFunction="average" dataDxfId="33" totalsRowDxfId="3" dataCellStyle="Normal"/>
-    <tableColumn id="10" xr3:uid="{DF9137D7-756E-494C-BCFA-15BA5349D04E}" name="preço" totalsRowFunction="average" dataDxfId="32" totalsRowDxfId="2" dataCellStyle="Normal"/>
-    <tableColumn id="12" xr3:uid="{9BBF57AB-EB30-47D6-BE16-889D42E241F3}" name="custo km" totalsRowFunction="average" dataDxfId="31" totalsRowDxfId="1" dataCellStyle="Normal">
+    <tableColumn id="9" xr3:uid="{B57F3DE7-B27D-49F3-962C-E191C7F39D71}" name="consumo" totalsRowFunction="average" dataDxfId="7" totalsRowDxfId="6" dataCellStyle="Normal"/>
+    <tableColumn id="10" xr3:uid="{DF9137D7-756E-494C-BCFA-15BA5349D04E}" name="preço" totalsRowFunction="average" dataDxfId="5" totalsRowDxfId="4" dataCellStyle="Normal"/>
+    <tableColumn id="12" xr3:uid="{9BBF57AB-EB30-47D6-BE16-889D42E241F3}" name="custo km" totalsRowFunction="average" dataDxfId="3" totalsRowDxfId="2" dataCellStyle="Normal">
       <calculatedColumnFormula>Viagens[[#This Row],[preço]]/Viagens[[#This Row],[consumo]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{1573DC55-E347-4C35-96EE-F132F6B74719}" name="custo total" totalsRowFunction="average" dataDxfId="30" totalsRowDxfId="0" dataCellStyle="Normal">
+    <tableColumn id="13" xr3:uid="{1573DC55-E347-4C35-96EE-F132F6B74719}" name="custo total" totalsRowFunction="average" dataDxfId="1" totalsRowDxfId="0" dataCellStyle="Normal">
       <calculatedColumnFormula>Viagens[[#This Row],[L]]*Viagens[[#This Row],[preço]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2553,17 +2550,17 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{137CCE77-ADDB-4C8C-995A-CD5917FE5216}" name="Etanol" displayName="Etanol" ref="A1:F20" headerRowDxfId="29" dataDxfId="28" totalsRowDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{137CCE77-ADDB-4C8C-995A-CD5917FE5216}" name="Etanol" displayName="Etanol" ref="A1:F20" headerRowDxfId="42" dataDxfId="41" totalsRowDxfId="40">
   <autoFilter ref="A1:F20" xr:uid="{BA0B08BB-754D-4819-AC93-39A0554A2FF6}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{FC48604D-710C-4BBA-B35F-209384F01637}" name="data" dataDxfId="26" totalsRowDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{A139AE0A-C5DF-448F-8E20-931AD1CD8489}" name="hora" totalsRowFunction="average" dataDxfId="24" totalsRowDxfId="23"/>
-    <tableColumn id="5" xr3:uid="{69037EB3-F18F-4F01-86AC-2F03E2616671}" name="valor" totalsRowFunction="sum" dataDxfId="22" totalsRowDxfId="21">
+    <tableColumn id="1" xr3:uid="{FC48604D-710C-4BBA-B35F-209384F01637}" name="data" dataDxfId="39" totalsRowDxfId="38"/>
+    <tableColumn id="2" xr3:uid="{A139AE0A-C5DF-448F-8E20-931AD1CD8489}" name="hora" totalsRowFunction="average" dataDxfId="37" totalsRowDxfId="36"/>
+    <tableColumn id="5" xr3:uid="{69037EB3-F18F-4F01-86AC-2F03E2616671}" name="valor" totalsRowFunction="sum" dataDxfId="35" totalsRowDxfId="34">
       <calculatedColumnFormula>Etanol[[#This Row],[preço]]*Etanol[[#This Row],[litros]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{D7C46694-E6CD-4C31-9617-E21EBBD7D56E}" name="preço" totalsRowFunction="average" dataDxfId="20" totalsRowDxfId="19"/>
-    <tableColumn id="7" xr3:uid="{F099CEFF-1A72-4F01-8112-F305B04A303E}" name="litros" totalsRowFunction="sum" dataDxfId="18" totalsRowDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{539451E7-6D16-4B47-A7EF-A1E0AFF83B9A}" name="km" dataDxfId="16" totalsRowDxfId="15"/>
+    <tableColumn id="6" xr3:uid="{D7C46694-E6CD-4C31-9617-E21EBBD7D56E}" name="preço" totalsRowFunction="average" dataDxfId="33" totalsRowDxfId="32"/>
+    <tableColumn id="7" xr3:uid="{F099CEFF-1A72-4F01-8112-F305B04A303E}" name="litros" totalsRowFunction="sum" dataDxfId="31" totalsRowDxfId="30"/>
+    <tableColumn id="3" xr3:uid="{539451E7-6D16-4B47-A7EF-A1E0AFF83B9A}" name="km" dataDxfId="29" totalsRowDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -5790,7 +5787,7 @@
   <dimension ref="A1:N37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7015,7 +7012,7 @@
       </c>
     </row>
     <row r="27" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="140" t="s">
+      <c r="A27" s="164" t="s">
         <v>38</v>
       </c>
       <c r="B27" s="115">

--- a/Aurora.xlsx
+++ b/Aurora.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ec562523a0c953df/Documentos/planilhas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="6_{6F616136-9CB5-4D90-8E8D-70B7249672C3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{439BDA17-E289-47C1-B3BA-AF1628E33CCC}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="6_{74847523-0B1B-4C18-AEEF-86C307F5E899}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{C1405C4B-942E-4722-936B-6CB9A84F7768}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="3600" windowWidth="20490" windowHeight="7665" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -268,7 +268,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="38">
   <si>
     <t>janeiro</t>
   </si>
@@ -382,9 +382,6 @@
   </si>
   <si>
     <t>custo total</t>
-  </si>
-  <si>
-    <t>22/12/2016</t>
   </si>
 </sst>
 </file>
@@ -726,7 +723,7 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="165">
+  <cellXfs count="157">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
@@ -1069,15 +1066,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1090,13 +1078,7 @@
     <xf numFmtId="1" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1134,9 +1116,6 @@
     <xf numFmtId="165" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1171,18 +1150,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1195,6 +1168,20 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="92">
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1208,11 +1195,11 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color theme="1"/>
-        <name val="Calibri Light"/>
+        <name val="Calibri"/>
         <family val="2"/>
-        <scheme val="major"/>
+        <scheme val="none"/>
       </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
+      <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1220,29 +1207,13 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
       <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1255,13 +1226,13 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="10"/>
+        <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="165" formatCode="0.000"/>
+      <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1269,17 +1240,26 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
       <font>
         <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="10"/>
+        <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
         <family val="2"/>
@@ -1293,6 +1273,13 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1307,11 +1294,11 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color theme="1"/>
-        <name val="Calibri Light"/>
+        <name val="Calibri"/>
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
+      <numFmt numFmtId="1" formatCode="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1319,21 +1306,32 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="12"/>
         <color theme="1"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
+        <name val="Constantia"/>
+        <family val="1"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
+      <numFmt numFmtId="164" formatCode="0.0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1376,6 +1374,23 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1383,6 +1398,13 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1419,29 +1441,6 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Constantia"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1474,16 +1473,6 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1496,8 +1485,304 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
         <name val="Calibri"/>
         <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Constantia"/>
+        <family val="1"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="0.0"/>
@@ -1508,13 +1793,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
@@ -1527,23 +1805,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Constantia"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
+      <numFmt numFmtId="1" formatCode="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1577,11 +1839,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -1600,13 +1858,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1631,77 +1882,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
       <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
       <fill>
         <patternFill patternType="none">
@@ -1710,13 +1890,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
@@ -1729,22 +1902,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
       <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
       <fill>
         <patternFill patternType="none">
@@ -1753,47 +1910,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
@@ -1804,149 +1920,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2516,32 +2489,32 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{8349ADA9-D7F2-436E-8D85-D66EBD35D289}" name="Viagens" displayName="Viagens" ref="A1:N27" totalsRowCount="1" headerRowDxfId="44" dataDxfId="43" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{8349ADA9-D7F2-436E-8D85-D66EBD35D289}" name="Viagens" displayName="Viagens" ref="A1:N26" headerRowDxfId="44" dataDxfId="43" dataCellStyle="Normal">
   <autoFilter ref="A1:N26" xr:uid="{91B7E7A6-3E74-4A30-BB6B-4EEBB1B73D97}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N24">
     <sortCondition ref="A1:A24"/>
   </sortState>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{943F9AB6-E0CE-4D16-8D0D-D6CD20DB4E3D}" name="começo/fim da viagem" totalsRowLabel="22/12/2016" dataDxfId="27" totalsRowDxfId="26" dataCellStyle="Normal"/>
-    <tableColumn id="8" xr3:uid="{8B7A80CD-1D41-4286-9AE6-30D2E4669859}" name="hora ini" totalsRowFunction="average" dataDxfId="25" totalsRowDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{F79333F5-CCDB-4E3B-A65F-7954CDBED5AC}" name="hora fim" totalsRowFunction="average" dataDxfId="23" totalsRowDxfId="22" dataCellStyle="Normal"/>
-    <tableColumn id="14" xr3:uid="{595493D2-D75D-41DE-91AD-11281D062CA9}" name="horas" totalsRowFunction="average" dataDxfId="21" totalsRowDxfId="20">
+    <tableColumn id="1" xr3:uid="{943F9AB6-E0CE-4D16-8D0D-D6CD20DB4E3D}" name="começo/fim da viagem" totalsRowLabel="22/12/2016" dataDxfId="42" totalsRowDxfId="0" dataCellStyle="Normal"/>
+    <tableColumn id="8" xr3:uid="{8B7A80CD-1D41-4286-9AE6-30D2E4669859}" name="hora ini" totalsRowFunction="average" dataDxfId="41" totalsRowDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{F79333F5-CCDB-4E3B-A65F-7954CDBED5AC}" name="hora fim" totalsRowFunction="average" dataDxfId="40" totalsRowDxfId="2" dataCellStyle="Normal"/>
+    <tableColumn id="14" xr3:uid="{595493D2-D75D-41DE-91AD-11281D062CA9}" name="horas" totalsRowFunction="average" dataDxfId="39" totalsRowDxfId="3">
       <calculatedColumnFormula>Viagens[[#This Row],[hora fim]]-Viagens[[#This Row],[hora ini]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{254E01DF-E2FE-4492-9476-CAE2652CB982}" name="km ini" totalsRowFunction="min" dataDxfId="19" totalsRowDxfId="18" dataCellStyle="Normal"/>
-    <tableColumn id="4" xr3:uid="{B85A4F29-C8A5-4E05-A6C0-542D9DF6CB11}" name="km fim" totalsRowFunction="average" dataDxfId="17" totalsRowDxfId="16" dataCellStyle="Normal"/>
-    <tableColumn id="11" xr3:uid="{B2109811-F1C6-4D1C-9E75-85349990007B}" name="km" totalsRowFunction="average" dataDxfId="15" totalsRowDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{A504539A-42D5-4734-99A3-1C79CBD10ADD}" name="L ini" totalsRowFunction="average" dataDxfId="13" totalsRowDxfId="12" dataCellStyle="Normal"/>
-    <tableColumn id="6" xr3:uid="{5168ADB9-DA6A-4473-9847-62692963BE45}" name="L fim" totalsRowFunction="average" dataDxfId="11" totalsRowDxfId="10" dataCellStyle="Normal"/>
-    <tableColumn id="7" xr3:uid="{7A851BFB-669C-4DCC-AB14-044369ECFE05}" name="L" totalsRowFunction="average" dataDxfId="9" totalsRowDxfId="8" dataCellStyle="Normal">
+    <tableColumn id="3" xr3:uid="{254E01DF-E2FE-4492-9476-CAE2652CB982}" name="km ini" totalsRowFunction="min" dataDxfId="38" totalsRowDxfId="4" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{B85A4F29-C8A5-4E05-A6C0-542D9DF6CB11}" name="km fim" totalsRowFunction="average" dataDxfId="37" totalsRowDxfId="5" dataCellStyle="Normal"/>
+    <tableColumn id="11" xr3:uid="{B2109811-F1C6-4D1C-9E75-85349990007B}" name="km" totalsRowFunction="average" dataDxfId="36" totalsRowDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{A504539A-42D5-4734-99A3-1C79CBD10ADD}" name="L ini" totalsRowFunction="average" dataDxfId="35" totalsRowDxfId="7" dataCellStyle="Normal"/>
+    <tableColumn id="6" xr3:uid="{5168ADB9-DA6A-4473-9847-62692963BE45}" name="L fim" totalsRowFunction="average" dataDxfId="34" totalsRowDxfId="8" dataCellStyle="Normal"/>
+    <tableColumn id="7" xr3:uid="{7A851BFB-669C-4DCC-AB14-044369ECFE05}" name="L" totalsRowFunction="average" dataDxfId="33" totalsRowDxfId="9" dataCellStyle="Normal">
       <calculatedColumnFormula>Viagens[[#This Row],[L ini]]-Viagens[[#This Row],[L fim]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{B57F3DE7-B27D-49F3-962C-E191C7F39D71}" name="consumo" totalsRowFunction="average" dataDxfId="7" totalsRowDxfId="6" dataCellStyle="Normal"/>
-    <tableColumn id="10" xr3:uid="{DF9137D7-756E-494C-BCFA-15BA5349D04E}" name="preço" totalsRowFunction="average" dataDxfId="5" totalsRowDxfId="4" dataCellStyle="Normal"/>
-    <tableColumn id="12" xr3:uid="{9BBF57AB-EB30-47D6-BE16-889D42E241F3}" name="custo km" totalsRowFunction="average" dataDxfId="3" totalsRowDxfId="2" dataCellStyle="Normal">
+    <tableColumn id="9" xr3:uid="{B57F3DE7-B27D-49F3-962C-E191C7F39D71}" name="consumo" totalsRowFunction="average" dataDxfId="32" totalsRowDxfId="10" dataCellStyle="Normal"/>
+    <tableColumn id="10" xr3:uid="{DF9137D7-756E-494C-BCFA-15BA5349D04E}" name="preço" totalsRowFunction="average" dataDxfId="31" totalsRowDxfId="11" dataCellStyle="Normal"/>
+    <tableColumn id="12" xr3:uid="{9BBF57AB-EB30-47D6-BE16-889D42E241F3}" name="custo km" totalsRowFunction="average" dataDxfId="30" totalsRowDxfId="12" dataCellStyle="Normal">
       <calculatedColumnFormula>Viagens[[#This Row],[preço]]/Viagens[[#This Row],[consumo]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{1573DC55-E347-4C35-96EE-F132F6B74719}" name="custo total" totalsRowFunction="average" dataDxfId="1" totalsRowDxfId="0" dataCellStyle="Normal">
+    <tableColumn id="13" xr3:uid="{1573DC55-E347-4C35-96EE-F132F6B74719}" name="custo total" totalsRowFunction="average" dataDxfId="29" totalsRowDxfId="13" dataCellStyle="Normal">
       <calculatedColumnFormula>Viagens[[#This Row],[L]]*Viagens[[#This Row],[preço]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2550,17 +2523,17 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{137CCE77-ADDB-4C8C-995A-CD5917FE5216}" name="Etanol" displayName="Etanol" ref="A1:F20" headerRowDxfId="42" dataDxfId="41" totalsRowDxfId="40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{137CCE77-ADDB-4C8C-995A-CD5917FE5216}" name="Etanol" displayName="Etanol" ref="A1:F20" headerRowDxfId="28" dataDxfId="27" totalsRowDxfId="26">
   <autoFilter ref="A1:F20" xr:uid="{BA0B08BB-754D-4819-AC93-39A0554A2FF6}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{FC48604D-710C-4BBA-B35F-209384F01637}" name="data" dataDxfId="39" totalsRowDxfId="38"/>
-    <tableColumn id="2" xr3:uid="{A139AE0A-C5DF-448F-8E20-931AD1CD8489}" name="hora" totalsRowFunction="average" dataDxfId="37" totalsRowDxfId="36"/>
-    <tableColumn id="5" xr3:uid="{69037EB3-F18F-4F01-86AC-2F03E2616671}" name="valor" totalsRowFunction="sum" dataDxfId="35" totalsRowDxfId="34">
+    <tableColumn id="1" xr3:uid="{FC48604D-710C-4BBA-B35F-209384F01637}" name="data" dataDxfId="25" totalsRowDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{A139AE0A-C5DF-448F-8E20-931AD1CD8489}" name="hora" totalsRowFunction="average" dataDxfId="23" totalsRowDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{69037EB3-F18F-4F01-86AC-2F03E2616671}" name="valor" totalsRowFunction="sum" dataDxfId="21" totalsRowDxfId="20">
       <calculatedColumnFormula>Etanol[[#This Row],[preço]]*Etanol[[#This Row],[litros]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{D7C46694-E6CD-4C31-9617-E21EBBD7D56E}" name="preço" totalsRowFunction="average" dataDxfId="33" totalsRowDxfId="32"/>
-    <tableColumn id="7" xr3:uid="{F099CEFF-1A72-4F01-8112-F305B04A303E}" name="litros" totalsRowFunction="sum" dataDxfId="31" totalsRowDxfId="30"/>
-    <tableColumn id="3" xr3:uid="{539451E7-6D16-4B47-A7EF-A1E0AFF83B9A}" name="km" dataDxfId="29" totalsRowDxfId="28"/>
+    <tableColumn id="6" xr3:uid="{D7C46694-E6CD-4C31-9617-E21EBBD7D56E}" name="preço" totalsRowFunction="average" dataDxfId="19" totalsRowDxfId="18"/>
+    <tableColumn id="7" xr3:uid="{F099CEFF-1A72-4F01-8112-F305B04A303E}" name="litros" totalsRowFunction="sum" dataDxfId="17" totalsRowDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{539451E7-6D16-4B47-A7EF-A1E0AFF83B9A}" name="km" dataDxfId="15" totalsRowDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -2895,30 +2868,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="163" t="s">
+      <c r="A1" s="156" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="163"/>
-      <c r="C1" s="163"/>
-      <c r="D1" s="163"/>
-      <c r="E1" s="163"/>
-      <c r="F1" s="163"/>
-      <c r="G1" s="163" t="s">
+      <c r="B1" s="156"/>
+      <c r="C1" s="156"/>
+      <c r="D1" s="156"/>
+      <c r="E1" s="156"/>
+      <c r="F1" s="156"/>
+      <c r="G1" s="156" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="163"/>
-      <c r="I1" s="163"/>
-      <c r="J1" s="163"/>
-      <c r="K1" s="163"/>
-      <c r="L1" s="163"/>
-      <c r="M1" s="163" t="s">
+      <c r="H1" s="156"/>
+      <c r="I1" s="156"/>
+      <c r="J1" s="156"/>
+      <c r="K1" s="156"/>
+      <c r="L1" s="156"/>
+      <c r="M1" s="156" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="163"/>
-      <c r="O1" s="163"/>
-      <c r="P1" s="163"/>
-      <c r="Q1" s="163"/>
-      <c r="R1" s="163"/>
+      <c r="N1" s="156"/>
+      <c r="O1" s="156"/>
+      <c r="P1" s="156"/>
+      <c r="Q1" s="156"/>
+      <c r="R1" s="156"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="6"/>
@@ -3736,30 +3709,30 @@
       <c r="V15" s="6"/>
     </row>
     <row r="16" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="163" t="s">
+      <c r="A16" s="156" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="163"/>
-      <c r="C16" s="163"/>
-      <c r="D16" s="163"/>
-      <c r="E16" s="163"/>
-      <c r="F16" s="163" t="s">
+      <c r="B16" s="156"/>
+      <c r="C16" s="156"/>
+      <c r="D16" s="156"/>
+      <c r="E16" s="156"/>
+      <c r="F16" s="156" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="163"/>
-      <c r="H16" s="163"/>
-      <c r="I16" s="163"/>
-      <c r="J16" s="163"/>
-      <c r="K16" s="163"/>
-      <c r="L16" s="163"/>
-      <c r="M16" s="163" t="s">
+      <c r="G16" s="156"/>
+      <c r="H16" s="156"/>
+      <c r="I16" s="156"/>
+      <c r="J16" s="156"/>
+      <c r="K16" s="156"/>
+      <c r="L16" s="156"/>
+      <c r="M16" s="156" t="s">
         <v>15</v>
       </c>
-      <c r="N16" s="163"/>
-      <c r="O16" s="163"/>
-      <c r="P16" s="163"/>
-      <c r="Q16" s="163"/>
-      <c r="R16" s="163"/>
+      <c r="N16" s="156"/>
+      <c r="O16" s="156"/>
+      <c r="P16" s="156"/>
+      <c r="Q16" s="156"/>
+      <c r="R16" s="156"/>
       <c r="S16" s="6"/>
       <c r="T16" s="6"/>
       <c r="U16" s="6"/>
@@ -3824,30 +3797,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="163" t="s">
+      <c r="A1" s="156" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="163"/>
-      <c r="C1" s="163"/>
-      <c r="D1" s="163"/>
-      <c r="E1" s="163"/>
-      <c r="F1" s="163"/>
-      <c r="G1" s="163" t="s">
+      <c r="B1" s="156"/>
+      <c r="C1" s="156"/>
+      <c r="D1" s="156"/>
+      <c r="E1" s="156"/>
+      <c r="F1" s="156"/>
+      <c r="G1" s="156" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="163"/>
-      <c r="I1" s="163"/>
-      <c r="J1" s="163"/>
-      <c r="K1" s="163"/>
-      <c r="L1" s="163"/>
-      <c r="M1" s="163" t="s">
+      <c r="H1" s="156"/>
+      <c r="I1" s="156"/>
+      <c r="J1" s="156"/>
+      <c r="K1" s="156"/>
+      <c r="L1" s="156"/>
+      <c r="M1" s="156" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="163"/>
-      <c r="O1" s="163"/>
-      <c r="P1" s="163"/>
-      <c r="Q1" s="163"/>
-      <c r="R1" s="163"/>
+      <c r="N1" s="156"/>
+      <c r="O1" s="156"/>
+      <c r="P1" s="156"/>
+      <c r="Q1" s="156"/>
+      <c r="R1" s="156"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
     </row>
@@ -4495,30 +4468,30 @@
       <c r="T15" s="6"/>
     </row>
     <row r="16" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="163" t="s">
+      <c r="A16" s="156" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="163"/>
-      <c r="C16" s="163"/>
-      <c r="D16" s="163"/>
-      <c r="E16" s="163"/>
-      <c r="F16" s="163" t="s">
+      <c r="B16" s="156"/>
+      <c r="C16" s="156"/>
+      <c r="D16" s="156"/>
+      <c r="E16" s="156"/>
+      <c r="F16" s="156" t="s">
         <v>21</v>
       </c>
-      <c r="G16" s="163"/>
-      <c r="H16" s="163"/>
-      <c r="I16" s="163"/>
-      <c r="J16" s="163"/>
-      <c r="K16" s="163"/>
-      <c r="L16" s="163"/>
-      <c r="M16" s="163" t="s">
+      <c r="G16" s="156"/>
+      <c r="H16" s="156"/>
+      <c r="I16" s="156"/>
+      <c r="J16" s="156"/>
+      <c r="K16" s="156"/>
+      <c r="L16" s="156"/>
+      <c r="M16" s="156" t="s">
         <v>22</v>
       </c>
-      <c r="N16" s="163"/>
-      <c r="O16" s="163"/>
-      <c r="P16" s="163"/>
-      <c r="Q16" s="163"/>
-      <c r="R16" s="163"/>
+      <c r="N16" s="156"/>
+      <c r="O16" s="156"/>
+      <c r="P16" s="156"/>
+      <c r="Q16" s="156"/>
+      <c r="R16" s="156"/>
       <c r="S16" s="6"/>
       <c r="T16" s="6"/>
     </row>
@@ -4578,7 +4551,7 @@
       <c r="D1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="144" t="s">
+      <c r="E1" s="139" t="s">
         <v>23</v>
       </c>
       <c r="F1" s="6" t="s">
@@ -4592,23 +4565,23 @@
       <c r="A2" s="98">
         <v>42991</v>
       </c>
-      <c r="B2" s="161">
+      <c r="B2" s="154">
         <v>69437</v>
       </c>
-      <c r="C2" s="162">
+      <c r="C2" s="155">
         <v>69611</v>
       </c>
-      <c r="D2" s="132">
+      <c r="D2" s="127">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
         <v>174</v>
       </c>
-      <c r="E2" s="130">
+      <c r="E2" s="125">
         <v>80</v>
       </c>
-      <c r="F2" s="130">
+      <c r="F2" s="125">
         <v>4.1900000000000004</v>
       </c>
-      <c r="G2" s="131">
+      <c r="G2" s="126">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>19.093078758949879</v>
       </c>
@@ -4617,23 +4590,23 @@
       <c r="A3" s="98">
         <v>43020</v>
       </c>
-      <c r="B3" s="162">
+      <c r="B3" s="155">
         <v>69760</v>
       </c>
-      <c r="C3" s="161">
+      <c r="C3" s="154">
         <v>69879</v>
       </c>
-      <c r="D3" s="132">
+      <c r="D3" s="127">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
         <v>119</v>
       </c>
-      <c r="E3" s="130">
+      <c r="E3" s="125">
         <v>80</v>
       </c>
-      <c r="F3" s="130">
+      <c r="F3" s="125">
         <v>3.9489999999999998</v>
       </c>
-      <c r="G3" s="131">
+      <c r="G3" s="126">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>20.258293238794632</v>
       </c>
@@ -4642,24 +4615,24 @@
       <c r="A4" s="98">
         <v>43034</v>
       </c>
-      <c r="B4" s="161">
+      <c r="B4" s="154">
         <f>C3</f>
         <v>69879</v>
       </c>
-      <c r="C4" s="129">
+      <c r="C4" s="124">
         <v>70001</v>
       </c>
-      <c r="D4" s="132">
+      <c r="D4" s="127">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
         <v>122</v>
       </c>
-      <c r="E4" s="130">
+      <c r="E4" s="125">
         <v>120</v>
       </c>
-      <c r="F4" s="130">
+      <c r="F4" s="125">
         <v>3.9</v>
       </c>
-      <c r="G4" s="131">
+      <c r="G4" s="126">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>30.76923076923077</v>
       </c>
@@ -4668,23 +4641,23 @@
       <c r="A5" s="98">
         <v>43042</v>
       </c>
-      <c r="B5" s="139">
+      <c r="B5" s="134">
         <v>70379</v>
       </c>
-      <c r="C5" s="129">
+      <c r="C5" s="124">
         <v>70431</v>
       </c>
-      <c r="D5" s="132">
+      <c r="D5" s="127">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
         <v>52</v>
       </c>
-      <c r="E5" s="130">
+      <c r="E5" s="125">
         <v>158.99</v>
       </c>
-      <c r="F5" s="130">
+      <c r="F5" s="125">
         <v>4.09</v>
       </c>
-      <c r="G5" s="131">
+      <c r="G5" s="126">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>38.872860635696824</v>
       </c>
@@ -4693,23 +4666,23 @@
       <c r="A6" s="98">
         <v>43057</v>
       </c>
-      <c r="B6" s="129">
+      <c r="B6" s="124">
         <v>70809</v>
       </c>
-      <c r="C6" s="162">
+      <c r="C6" s="155">
         <v>70965</v>
       </c>
-      <c r="D6" s="132">
+      <c r="D6" s="127">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
         <v>156</v>
       </c>
-      <c r="E6" s="130">
+      <c r="E6" s="125">
         <v>80</v>
       </c>
-      <c r="F6" s="130">
+      <c r="F6" s="125">
         <v>4.17</v>
       </c>
-      <c r="G6" s="131">
+      <c r="G6" s="126">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>19.18465227817746</v>
       </c>
@@ -4718,23 +4691,23 @@
       <c r="A7" s="98">
         <v>43087</v>
       </c>
-      <c r="B7" s="162">
+      <c r="B7" s="155">
         <v>71109</v>
       </c>
-      <c r="C7" s="129">
+      <c r="C7" s="124">
         <v>71219</v>
       </c>
-      <c r="D7" s="132">
+      <c r="D7" s="127">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
         <v>110</v>
       </c>
-      <c r="E7" s="130">
+      <c r="E7" s="125">
         <v>120.06</v>
       </c>
-      <c r="F7" s="130">
+      <c r="F7" s="125">
         <v>4.1790000000000003</v>
       </c>
-      <c r="G7" s="131">
+      <c r="G7" s="126">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>28.729361091170134</v>
       </c>
@@ -4743,23 +4716,23 @@
       <c r="A8" s="98">
         <v>43093</v>
       </c>
-      <c r="B8" s="129">
+      <c r="B8" s="124">
         <v>71683</v>
       </c>
-      <c r="C8" s="128">
+      <c r="C8" s="123">
         <v>71872</v>
       </c>
-      <c r="D8" s="132">
+      <c r="D8" s="127">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
         <v>189</v>
       </c>
-      <c r="E8" s="130">
+      <c r="E8" s="125">
         <v>120</v>
       </c>
-      <c r="F8" s="130">
+      <c r="F8" s="125">
         <v>4.17</v>
       </c>
-      <c r="G8" s="131">
+      <c r="G8" s="126">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>28.776978417266186</v>
       </c>
@@ -4803,7 +4776,7 @@
       <c r="D1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="144" t="s">
+      <c r="E1" s="139" t="s">
         <v>23</v>
       </c>
       <c r="F1" s="6" t="s">
@@ -4817,23 +4790,23 @@
       <c r="A2" s="98">
         <v>43105</v>
       </c>
-      <c r="B2" s="128">
+      <c r="B2" s="123">
         <v>71872</v>
       </c>
-      <c r="C2" s="128">
+      <c r="C2" s="123">
         <v>72053</v>
       </c>
-      <c r="D2" s="132">
+      <c r="D2" s="127">
         <f>G_2018[[#This Row],[km fim]]-G_2018[[#This Row],[km ini]]</f>
         <v>181</v>
       </c>
-      <c r="E2" s="130">
+      <c r="E2" s="125">
         <v>120</v>
       </c>
-      <c r="F2" s="130">
+      <c r="F2" s="125">
         <v>4.1900000000000004</v>
       </c>
-      <c r="G2" s="131">
+      <c r="G2" s="126">
         <f>G_2018[[#This Row],[valor]]/G_2018[[#This Row],[preço]]</f>
         <v>28.639618138424819</v>
       </c>
@@ -4842,24 +4815,24 @@
       <c r="A3" s="98">
         <v>43115</v>
       </c>
-      <c r="B3" s="128">
+      <c r="B3" s="123">
         <f>C2</f>
         <v>72053</v>
       </c>
-      <c r="C3" s="129">
+      <c r="C3" s="124">
         <v>72158</v>
       </c>
-      <c r="D3" s="132">
+      <c r="D3" s="127">
         <f>G_2018[[#This Row],[km fim]]-G_2018[[#This Row],[km ini]]</f>
         <v>105</v>
       </c>
-      <c r="E3" s="130">
+      <c r="E3" s="125">
         <v>120</v>
       </c>
-      <c r="F3" s="130">
+      <c r="F3" s="125">
         <v>4.1900000000000004</v>
       </c>
-      <c r="G3" s="131">
+      <c r="G3" s="126">
         <f>G_2018[[#This Row],[valor]]/G_2018[[#This Row],[preço]]</f>
         <v>28.639618138424819</v>
       </c>
@@ -4868,23 +4841,23 @@
       <c r="A4" s="98">
         <v>43119</v>
       </c>
-      <c r="B4" s="129">
+      <c r="B4" s="124">
         <v>72533</v>
       </c>
-      <c r="C4" s="128">
+      <c r="C4" s="123">
         <v>72612</v>
       </c>
-      <c r="D4" s="132">
+      <c r="D4" s="127">
         <f>G_2018[[#This Row],[km fim]]-G_2018[[#This Row],[km ini]]</f>
         <v>79</v>
       </c>
-      <c r="E4" s="130">
+      <c r="E4" s="125">
         <v>145</v>
       </c>
-      <c r="F4" s="130">
+      <c r="F4" s="125">
         <v>4.29</v>
       </c>
-      <c r="G4" s="131">
+      <c r="G4" s="126">
         <f>G_2018[[#This Row],[valor]]/G_2018[[#This Row],[preço]]</f>
         <v>33.799533799533798</v>
       </c>
@@ -4893,24 +4866,24 @@
       <c r="A5" s="98">
         <v>43122</v>
       </c>
-      <c r="B5" s="128">
+      <c r="B5" s="123">
         <f>C4</f>
         <v>72612</v>
       </c>
-      <c r="C5" s="129">
+      <c r="C5" s="124">
         <v>72667</v>
       </c>
-      <c r="D5" s="132">
+      <c r="D5" s="127">
         <f>G_2018[[#This Row],[km fim]]-G_2018[[#This Row],[km ini]]</f>
         <v>55</v>
       </c>
-      <c r="E5" s="130">
+      <c r="E5" s="125">
         <v>120</v>
       </c>
-      <c r="F5" s="130">
+      <c r="F5" s="125">
         <v>4.29</v>
       </c>
-      <c r="G5" s="131">
+      <c r="G5" s="126">
         <f>G_2018[[#This Row],[valor]]/G_2018[[#This Row],[preço]]</f>
         <v>27.972027972027973</v>
       </c>
@@ -4919,23 +4892,23 @@
       <c r="A6" s="98">
         <v>43128</v>
       </c>
-      <c r="B6" s="129">
+      <c r="B6" s="124">
         <v>73042</v>
       </c>
-      <c r="C6" s="128">
+      <c r="C6" s="123">
         <v>73123</v>
       </c>
-      <c r="D6" s="132">
+      <c r="D6" s="127">
         <f>G_2018[[#This Row],[km fim]]-G_2018[[#This Row],[km ini]]</f>
         <v>81</v>
       </c>
-      <c r="E6" s="130">
+      <c r="E6" s="125">
         <v>85.61</v>
       </c>
-      <c r="F6" s="130">
+      <c r="F6" s="125">
         <v>4.2699999999999996</v>
       </c>
-      <c r="G6" s="131">
+      <c r="G6" s="126">
         <f>G_2018[[#This Row],[valor]]/G_2018[[#This Row],[preço]]</f>
         <v>20.049180327868854</v>
       </c>
@@ -4944,24 +4917,24 @@
       <c r="A7" s="98">
         <v>43136</v>
       </c>
-      <c r="B7" s="128">
+      <c r="B7" s="123">
         <f>C6</f>
         <v>73123</v>
       </c>
-      <c r="C7" s="129">
+      <c r="C7" s="124">
         <v>73312</v>
       </c>
-      <c r="D7" s="132">
+      <c r="D7" s="127">
         <f>G_2018[[#This Row],[km fim]]-G_2018[[#This Row],[km ini]]</f>
         <v>189</v>
       </c>
-      <c r="E7" s="130">
+      <c r="E7" s="125">
         <v>120</v>
       </c>
-      <c r="F7" s="130">
+      <c r="F7" s="125">
         <v>4.49</v>
       </c>
-      <c r="G7" s="131">
+      <c r="G7" s="126">
         <f>G_2018[[#This Row],[valor]]/G_2018[[#This Row],[preço]]</f>
         <v>26.726057906458795</v>
       </c>
@@ -4970,23 +4943,23 @@
       <c r="A8" s="98">
         <v>43148</v>
       </c>
-      <c r="B8" s="129">
+      <c r="B8" s="124">
         <v>73666</v>
       </c>
-      <c r="C8" s="128">
+      <c r="C8" s="123">
         <v>73760</v>
       </c>
-      <c r="D8" s="132">
+      <c r="D8" s="127">
         <f>G_2018[[#This Row],[km fim]]-G_2018[[#This Row],[km ini]]</f>
         <v>94</v>
       </c>
-      <c r="E8" s="130">
+      <c r="E8" s="125">
         <v>175.03</v>
       </c>
-      <c r="F8" s="130">
+      <c r="F8" s="125">
         <v>4.49</v>
       </c>
-      <c r="G8" s="131">
+      <c r="G8" s="126">
         <f>G_2018[[#This Row],[valor]]/G_2018[[#This Row],[preço]]</f>
         <v>38.982182628062361</v>
       </c>
@@ -4995,24 +4968,24 @@
       <c r="A9" s="98">
         <v>43158</v>
       </c>
-      <c r="B9" s="128">
+      <c r="B9" s="123">
         <f>C8</f>
         <v>73760</v>
       </c>
-      <c r="C9" s="128">
+      <c r="C9" s="123">
         <v>73913</v>
       </c>
-      <c r="D9" s="132">
+      <c r="D9" s="127">
         <f>G_2018[[#This Row],[km fim]]-G_2018[[#This Row],[km ini]]</f>
         <v>153</v>
       </c>
-      <c r="E9" s="130">
+      <c r="E9" s="125">
         <v>120</v>
       </c>
-      <c r="F9" s="130">
+      <c r="F9" s="125">
         <v>4.09</v>
       </c>
-      <c r="G9" s="131">
+      <c r="G9" s="126">
         <f>G_2018[[#This Row],[valor]]/G_2018[[#This Row],[preço]]</f>
         <v>29.339853300733498</v>
       </c>
@@ -5021,24 +4994,24 @@
       <c r="A10" s="98">
         <v>43186</v>
       </c>
-      <c r="B10" s="135">
+      <c r="B10" s="130">
         <f>C9</f>
         <v>73913</v>
       </c>
-      <c r="C10" s="129">
+      <c r="C10" s="124">
         <v>74082</v>
       </c>
-      <c r="D10" s="132">
+      <c r="D10" s="127">
         <f>G_2018[[#This Row],[km fim]]-G_2018[[#This Row],[km ini]]</f>
         <v>169</v>
       </c>
-      <c r="E10" s="130">
+      <c r="E10" s="125">
         <v>150</v>
       </c>
-      <c r="F10" s="130">
+      <c r="F10" s="125">
         <v>4.3899999999999997</v>
       </c>
-      <c r="G10" s="131">
+      <c r="G10" s="126">
         <f>G_2018[[#This Row],[valor]]/G_2018[[#This Row],[preço]]</f>
         <v>34.168564920273354</v>
       </c>
@@ -5047,23 +5020,23 @@
       <c r="A11" s="98">
         <v>43207</v>
       </c>
-      <c r="B11" s="134">
+      <c r="B11" s="129">
         <v>74825</v>
       </c>
-      <c r="C11" s="128">
+      <c r="C11" s="123">
         <v>75015</v>
       </c>
-      <c r="D11" s="132">
+      <c r="D11" s="127">
         <f>G_2018[[#This Row],[km fim]]-G_2018[[#This Row],[km ini]]</f>
         <v>190</v>
       </c>
-      <c r="E11" s="130">
+      <c r="E11" s="125">
         <v>80</v>
       </c>
-      <c r="F11" s="130">
+      <c r="F11" s="125">
         <v>4.29</v>
       </c>
-      <c r="G11" s="131">
+      <c r="G11" s="126">
         <f>G_2018[[#This Row],[valor]]/G_2018[[#This Row],[preço]]</f>
         <v>18.648018648018649</v>
       </c>
@@ -5072,23 +5045,23 @@
       <c r="A12" s="98">
         <v>43222</v>
       </c>
-      <c r="B12" s="135">
+      <c r="B12" s="130">
         <v>75188</v>
       </c>
-      <c r="C12" s="128">
+      <c r="C12" s="123">
         <v>75309</v>
       </c>
-      <c r="D12" s="132">
+      <c r="D12" s="127">
         <f>G_2018[[#This Row],[km fim]]-G_2018[[#This Row],[km ini]]</f>
         <v>121</v>
       </c>
-      <c r="E12" s="130">
+      <c r="E12" s="125">
         <v>40</v>
       </c>
-      <c r="F12" s="130">
+      <c r="F12" s="125">
         <v>4.49</v>
       </c>
-      <c r="G12" s="131">
+      <c r="G12" s="126">
         <f>G_2018[[#This Row],[valor]]/G_2018[[#This Row],[preço]]</f>
         <v>8.908685968819599</v>
       </c>
@@ -5097,24 +5070,24 @@
       <c r="A13" s="98">
         <v>43237</v>
       </c>
-      <c r="B13" s="128">
+      <c r="B13" s="123">
         <f>C12</f>
         <v>75309</v>
       </c>
-      <c r="C13" s="128">
+      <c r="C13" s="123">
         <v>75424</v>
       </c>
-      <c r="D13" s="132">
+      <c r="D13" s="127">
         <f>G_2018[[#This Row],[km fim]]-G_2018[[#This Row],[km ini]]</f>
         <v>115</v>
       </c>
-      <c r="E13" s="130">
+      <c r="E13" s="125">
         <v>80</v>
       </c>
-      <c r="F13" s="130">
+      <c r="F13" s="125">
         <v>4.59</v>
       </c>
-      <c r="G13" s="131">
+      <c r="G13" s="126">
         <f>G_2018[[#This Row],[valor]]/G_2018[[#This Row],[preço]]</f>
         <v>17.429193899782135</v>
       </c>
@@ -5123,24 +5096,24 @@
       <c r="A14" s="98">
         <v>43243</v>
       </c>
-      <c r="B14" s="135">
+      <c r="B14" s="130">
         <f>C13</f>
         <v>75424</v>
       </c>
-      <c r="C14" s="128">
+      <c r="C14" s="123">
         <v>75758</v>
       </c>
-      <c r="D14" s="132">
+      <c r="D14" s="127">
         <f>G_2018[[#This Row],[km fim]]-G_2018[[#This Row],[km ini]]</f>
         <v>334</v>
       </c>
-      <c r="E14" s="130">
+      <c r="E14" s="125">
         <v>60</v>
       </c>
-      <c r="F14" s="130">
+      <c r="F14" s="125">
         <v>4.49</v>
       </c>
-      <c r="G14" s="131">
+      <c r="G14" s="126">
         <f>G_2018[[#This Row],[valor]]/G_2018[[#This Row],[preço]]</f>
         <v>13.363028953229398</v>
       </c>
@@ -5149,24 +5122,24 @@
       <c r="A15" s="98">
         <v>43271</v>
       </c>
-      <c r="B15" s="135">
+      <c r="B15" s="130">
         <f>C14</f>
         <v>75758</v>
       </c>
-      <c r="C15" s="128">
+      <c r="C15" s="123">
         <v>75867</v>
       </c>
-      <c r="D15" s="132">
+      <c r="D15" s="127">
         <f>G_2018[[#This Row],[km fim]]-G_2018[[#This Row],[km ini]]</f>
         <v>109</v>
       </c>
-      <c r="E15" s="130">
+      <c r="E15" s="125">
         <v>60</v>
       </c>
-      <c r="F15" s="130">
+      <c r="F15" s="125">
         <v>4.6900000000000004</v>
       </c>
-      <c r="G15" s="131">
+      <c r="G15" s="126">
         <f>G_2018[[#This Row],[valor]]/G_2018[[#This Row],[preço]]</f>
         <v>12.793176972281449</v>
       </c>
@@ -5182,17 +5155,17 @@
       <c r="C16" s="6">
         <v>75885</v>
       </c>
-      <c r="D16" s="132">
+      <c r="D16" s="127">
         <f>G_2018[[#This Row],[km fim]]-G_2018[[#This Row],[km ini]]</f>
         <v>18</v>
       </c>
-      <c r="E16" s="130">
+      <c r="E16" s="125">
         <v>60</v>
       </c>
       <c r="F16" s="101">
         <v>4.79</v>
       </c>
-      <c r="G16" s="131">
+      <c r="G16" s="126">
         <f>G_2018[[#This Row],[valor]]/G_2018[[#This Row],[preço]]</f>
         <v>12.526096033402922</v>
       </c>
@@ -5205,20 +5178,20 @@
         <f>C16</f>
         <v>75885</v>
       </c>
-      <c r="C17" s="134">
+      <c r="C17" s="129">
         <v>75894</v>
       </c>
-      <c r="D17" s="132">
+      <c r="D17" s="127">
         <f>G_2018[[#This Row],[km fim]]-G_2018[[#This Row],[km ini]]</f>
         <v>9</v>
       </c>
-      <c r="E17" s="130">
+      <c r="E17" s="125">
         <v>133.83000000000001</v>
       </c>
       <c r="F17" s="101">
         <v>4.59</v>
       </c>
-      <c r="G17" s="131">
+      <c r="G17" s="126">
         <f>G_2018[[#This Row],[valor]]/G_2018[[#This Row],[preço]]</f>
         <v>29.156862745098042</v>
       </c>
@@ -5227,48 +5200,48 @@
       <c r="A18" s="98">
         <v>43289</v>
       </c>
-      <c r="B18" s="143">
+      <c r="B18" s="138">
         <v>76265</v>
       </c>
-      <c r="C18" s="143">
+      <c r="C18" s="138">
         <v>76308</v>
       </c>
-      <c r="D18" s="132">
+      <c r="D18" s="127">
         <f>G_2018[[#This Row],[km fim]]-G_2018[[#This Row],[km ini]]</f>
         <v>43</v>
       </c>
-      <c r="E18" s="130">
+      <c r="E18" s="125">
         <v>157.03</v>
       </c>
       <c r="F18" s="101">
         <v>4.79</v>
       </c>
-      <c r="G18" s="131">
+      <c r="G18" s="126">
         <f>G_2018[[#This Row],[valor]]/G_2018[[#This Row],[preço]]</f>
         <v>32.782881002087684</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="138">
+      <c r="A19" s="133">
         <v>43306</v>
       </c>
-      <c r="B19" s="139">
+      <c r="B19" s="134">
         <v>76660</v>
       </c>
-      <c r="C19" s="133">
+      <c r="C19" s="128">
         <v>76814</v>
       </c>
-      <c r="D19" s="132">
+      <c r="D19" s="127">
         <f>G_2018[[#This Row],[km fim]]-G_2018[[#This Row],[km ini]]</f>
         <v>154</v>
       </c>
-      <c r="E19" s="130">
+      <c r="E19" s="125">
         <v>100</v>
       </c>
       <c r="F19" s="101">
         <v>4.49</v>
       </c>
-      <c r="G19" s="131">
+      <c r="G19" s="126">
         <f>G_2018[[#This Row],[valor]]/G_2018[[#This Row],[preço]]</f>
         <v>22.271714922048996</v>
       </c>
@@ -5277,21 +5250,21 @@
       <c r="A20" s="98">
         <v>43318</v>
       </c>
-      <c r="B20" s="133">
+      <c r="B20" s="128">
         <f>C19</f>
         <v>76814</v>
       </c>
-      <c r="C20" s="133">
+      <c r="C20" s="128">
         <v>76951</v>
       </c>
       <c r="D20" s="111">
         <f>G_2018[[#This Row],[km fim]]-G_2018[[#This Row],[km ini]]</f>
         <v>137</v>
       </c>
-      <c r="E20" s="145">
+      <c r="E20" s="140">
         <v>100</v>
       </c>
-      <c r="F20" s="137">
+      <c r="F20" s="132">
         <v>4.49</v>
       </c>
       <c r="G20" s="117">
@@ -5303,21 +5276,21 @@
       <c r="A21" s="98">
         <v>43333</v>
       </c>
-      <c r="B21" s="133">
+      <c r="B21" s="128">
         <f>C20</f>
         <v>76951</v>
       </c>
-      <c r="C21" s="133">
+      <c r="C21" s="128">
         <v>77139</v>
       </c>
       <c r="D21" s="111">
         <f>G_2018[[#This Row],[km fim]]-G_2018[[#This Row],[km ini]]</f>
         <v>188</v>
       </c>
-      <c r="E21" s="145">
+      <c r="E21" s="140">
         <v>100</v>
       </c>
-      <c r="F21" s="137">
+      <c r="F21" s="132">
         <v>4.3899999999999997</v>
       </c>
       <c r="G21" s="117">
@@ -5329,21 +5302,21 @@
       <c r="A22" s="98">
         <v>43340</v>
       </c>
-      <c r="B22" s="133">
+      <c r="B22" s="128">
         <f>C21</f>
         <v>77139</v>
       </c>
-      <c r="C22" s="133">
+      <c r="C22" s="128">
         <v>77296</v>
       </c>
       <c r="D22" s="111">
         <f>G_2018[[#This Row],[km fim]]-G_2018[[#This Row],[km ini]]</f>
         <v>157</v>
       </c>
-      <c r="E22" s="145">
+      <c r="E22" s="140">
         <v>80</v>
       </c>
-      <c r="F22" s="137">
+      <c r="F22" s="132">
         <v>4.29</v>
       </c>
       <c r="G22" s="117">
@@ -5352,24 +5325,24 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="136">
+      <c r="A23" s="131">
         <v>43349</v>
       </c>
-      <c r="B23" s="139">
+      <c r="B23" s="134">
         <f>C22</f>
         <v>77296</v>
       </c>
-      <c r="C23" s="142">
+      <c r="C23" s="137">
         <v>77444</v>
       </c>
       <c r="D23" s="111">
         <f>G_2018[[#This Row],[km fim]]-G_2018[[#This Row],[km ini]]</f>
         <v>148</v>
       </c>
-      <c r="E23" s="145">
+      <c r="E23" s="140">
         <v>60</v>
       </c>
-      <c r="F23" s="137">
+      <c r="F23" s="132">
         <v>4.29</v>
       </c>
       <c r="G23" s="117">
@@ -5378,23 +5351,23 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="136">
+      <c r="A24" s="131">
         <v>43352</v>
       </c>
-      <c r="B24" s="142">
+      <c r="B24" s="137">
         <v>77816</v>
       </c>
-      <c r="C24" s="142">
+      <c r="C24" s="137">
         <v>77858</v>
       </c>
       <c r="D24" s="111">
         <f>G_2018[[#This Row],[km fim]]-G_2018[[#This Row],[km ini]]</f>
         <v>42</v>
       </c>
-      <c r="E24" s="145">
+      <c r="E24" s="140">
         <v>102.6</v>
       </c>
-      <c r="F24" s="137">
+      <c r="F24" s="132">
         <v>4.79</v>
       </c>
       <c r="G24" s="117">
@@ -5403,23 +5376,23 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="136">
+      <c r="A25" s="131">
         <v>43355</v>
       </c>
-      <c r="B25" s="133">
+      <c r="B25" s="128">
         <v>78222</v>
       </c>
-      <c r="C25" s="139">
+      <c r="C25" s="134">
         <v>78278</v>
       </c>
       <c r="D25" s="111">
         <f>G_2018[[#This Row],[km fim]]-G_2018[[#This Row],[km ini]]</f>
         <v>56</v>
       </c>
-      <c r="E25" s="145">
+      <c r="E25" s="140">
         <v>181.01</v>
       </c>
-      <c r="F25" s="137">
+      <c r="F25" s="132">
         <v>4.79</v>
       </c>
       <c r="G25" s="117">
@@ -5428,24 +5401,24 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="136">
+      <c r="A26" s="131">
         <v>43373</v>
       </c>
-      <c r="B26" s="133">
+      <c r="B26" s="128">
         <f>C25</f>
         <v>78278</v>
       </c>
-      <c r="C26" s="133">
+      <c r="C26" s="128">
         <v>78474</v>
       </c>
       <c r="D26" s="111">
         <f>G_2018[[#This Row],[km fim]]-G_2018[[#This Row],[km ini]]</f>
         <v>196</v>
       </c>
-      <c r="E26" s="145">
+      <c r="E26" s="140">
         <v>100</v>
       </c>
-      <c r="F26" s="137">
+      <c r="F26" s="132">
         <v>4.59</v>
       </c>
       <c r="G26" s="117">
@@ -5454,24 +5427,24 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="136">
+      <c r="A27" s="131">
         <v>43384</v>
       </c>
-      <c r="B27" s="133">
+      <c r="B27" s="128">
         <f>C26</f>
         <v>78474</v>
       </c>
-      <c r="C27" s="139">
+      <c r="C27" s="134">
         <v>78567</v>
       </c>
       <c r="D27" s="111">
         <f>G_2018[[#This Row],[km fim]]-G_2018[[#This Row],[km ini]]</f>
         <v>93</v>
       </c>
-      <c r="E27" s="145">
+      <c r="E27" s="140">
         <v>60</v>
       </c>
-      <c r="F27" s="137">
+      <c r="F27" s="132">
         <v>4.79</v>
       </c>
       <c r="G27" s="117">
@@ -5480,23 +5453,23 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="136">
+      <c r="A28" s="131">
         <v>43386</v>
       </c>
-      <c r="B28" s="133">
+      <c r="B28" s="128">
         <v>78960</v>
       </c>
-      <c r="C28" s="142">
+      <c r="C28" s="137">
         <v>78983</v>
       </c>
       <c r="D28" s="111">
         <f>G_2018[[#This Row],[km fim]]-G_2018[[#This Row],[km ini]]</f>
         <v>23</v>
       </c>
-      <c r="E28" s="145">
+      <c r="E28" s="140">
         <v>148.19999999999999</v>
       </c>
-      <c r="F28" s="137">
+      <c r="F28" s="132">
         <v>4.9400000000000004</v>
       </c>
       <c r="G28" s="117">
@@ -5505,23 +5478,23 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="136">
+      <c r="A29" s="131">
         <v>43399</v>
       </c>
-      <c r="B29" s="139">
+      <c r="B29" s="134">
         <v>79431</v>
       </c>
-      <c r="C29" s="133">
+      <c r="C29" s="128">
         <v>79502</v>
       </c>
       <c r="D29" s="111">
         <f>G_2018[[#This Row],[km fim]]-G_2018[[#This Row],[km ini]]</f>
         <v>71</v>
       </c>
-      <c r="E29" s="145">
+      <c r="E29" s="140">
         <v>60</v>
       </c>
-      <c r="F29" s="137">
+      <c r="F29" s="132">
         <v>4.99</v>
       </c>
       <c r="G29" s="117">
@@ -5530,24 +5503,24 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="136">
+      <c r="A30" s="131">
         <v>43410</v>
       </c>
-      <c r="B30" s="133">
+      <c r="B30" s="128">
         <f>C29</f>
         <v>79502</v>
       </c>
-      <c r="C30" s="133">
+      <c r="C30" s="128">
         <v>79730</v>
       </c>
       <c r="D30" s="111">
         <f>G_2018[[#This Row],[km fim]]-G_2018[[#This Row],[km ini]]</f>
         <v>228</v>
       </c>
-      <c r="E30" s="145">
+      <c r="E30" s="140">
         <v>120</v>
       </c>
-      <c r="F30" s="137">
+      <c r="F30" s="132">
         <v>4.99</v>
       </c>
       <c r="G30" s="117">
@@ -5556,50 +5529,50 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="136">
+      <c r="A31" s="131">
         <v>43418</v>
       </c>
-      <c r="B31" s="133">
+      <c r="B31" s="128">
         <f>C30</f>
         <v>79730</v>
       </c>
-      <c r="C31" s="133">
+      <c r="C31" s="128">
         <v>79820</v>
       </c>
       <c r="D31" s="111">
         <f>G_2018[[#This Row],[km fim]]-G_2018[[#This Row],[km ini]]</f>
         <v>90</v>
       </c>
-      <c r="E31" s="145">
+      <c r="E31" s="140">
         <v>80</v>
       </c>
-      <c r="F31" s="130">
+      <c r="F31" s="125">
         <v>4.6900000000000004</v>
       </c>
-      <c r="G31" s="131">
+      <c r="G31" s="126">
         <f>G_2018[[#This Row],[valor]]/G_2018[[#This Row],[preço]]</f>
         <v>17.057569296375267</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="136">
+      <c r="A32" s="131">
         <v>43426</v>
       </c>
-      <c r="B32" s="133">
+      <c r="B32" s="128">
         <f>C31</f>
         <v>79820</v>
       </c>
-      <c r="C32" s="133">
+      <c r="C32" s="128">
         <v>79915</v>
       </c>
       <c r="D32" s="111">
         <f>G_2018[[#This Row],[km fim]]-G_2018[[#This Row],[km ini]]</f>
         <v>95</v>
       </c>
-      <c r="E32" s="145">
+      <c r="E32" s="140">
         <v>60</v>
       </c>
-      <c r="F32" s="137">
+      <c r="F32" s="132">
         <v>4.87</v>
       </c>
       <c r="G32" s="117">
@@ -5608,24 +5581,24 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="136">
+      <c r="A33" s="131">
         <v>43433</v>
       </c>
-      <c r="B33" s="133">
+      <c r="B33" s="128">
         <f>C32</f>
         <v>79915</v>
       </c>
-      <c r="C33" s="133">
+      <c r="C33" s="128">
         <v>80030</v>
       </c>
       <c r="D33" s="111">
         <f>G_2018[[#This Row],[km fim]]-G_2018[[#This Row],[km ini]]</f>
         <v>115</v>
       </c>
-      <c r="E33" s="145">
+      <c r="E33" s="140">
         <v>60</v>
       </c>
-      <c r="F33" s="137">
+      <c r="F33" s="132">
         <v>4.59</v>
       </c>
       <c r="G33" s="117">
@@ -5634,24 +5607,24 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="136">
+      <c r="A34" s="131">
         <v>43442</v>
       </c>
-      <c r="B34" s="133">
+      <c r="B34" s="128">
         <f>C33</f>
         <v>80030</v>
       </c>
-      <c r="C34" s="133">
+      <c r="C34" s="128">
         <v>80148</v>
       </c>
       <c r="D34" s="111">
         <f>G_2018[[#This Row],[km fim]]-G_2018[[#This Row],[km ini]]</f>
         <v>118</v>
       </c>
-      <c r="E34" s="145">
+      <c r="E34" s="140">
         <v>80</v>
       </c>
-      <c r="F34" s="137">
+      <c r="F34" s="132">
         <v>4.79</v>
       </c>
       <c r="G34" s="117">
@@ -5705,7 +5678,7 @@
       <c r="E1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="144" t="s">
+      <c r="F1" s="139" t="s">
         <v>23</v>
       </c>
       <c r="G1" s="6" t="s">
@@ -5716,26 +5689,26 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="136">
+      <c r="A2" s="131">
         <v>43476</v>
       </c>
-      <c r="B2" s="149">
+      <c r="B2" s="143">
         <v>0.70833333333333337</v>
       </c>
-      <c r="C2" s="133">
+      <c r="C2" s="128">
         <v>81120</v>
       </c>
-      <c r="D2" s="133">
+      <c r="D2" s="128">
         <v>81216</v>
       </c>
       <c r="E2" s="111">
         <f>G_2019[[#This Row],[km fim]]-G_2019[[#This Row],[km ini]]</f>
         <v>96</v>
       </c>
-      <c r="F2" s="145">
+      <c r="F2" s="140">
         <v>60</v>
       </c>
-      <c r="G2" s="137">
+      <c r="G2" s="132">
         <v>4.1500000000000004</v>
       </c>
       <c r="H2" s="117">
@@ -5744,25 +5717,25 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="136">
+      <c r="A3" s="131">
         <v>43487</v>
       </c>
-      <c r="B3" s="149">
+      <c r="B3" s="143">
         <v>0.4861111111111111</v>
       </c>
-      <c r="C3" s="133">
+      <c r="C3" s="128">
         <f>D2</f>
         <v>81216</v>
       </c>
-      <c r="D3" s="133"/>
+      <c r="D3" s="128"/>
       <c r="E3" s="111">
         <f>G_2019[[#This Row],[km fim]]-G_2019[[#This Row],[km ini]]</f>
         <v>-81216</v>
       </c>
-      <c r="F3" s="145">
+      <c r="F3" s="140">
         <v>60</v>
       </c>
-      <c r="G3" s="137">
+      <c r="G3" s="132">
         <v>4.25</v>
       </c>
       <c r="H3" s="117">
@@ -5784,10 +5757,10 @@
   <sheetPr>
     <tabColor theme="0" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:N37"/>
+  <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5827,7 +5800,7 @@
       <c r="F1" s="102" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="121" t="s">
+      <c r="G1" s="118" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="105" t="s">
@@ -5836,36 +5809,36 @@
       <c r="I1" s="102" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="121" t="s">
+      <c r="J1" s="118" t="s">
         <v>33</v>
       </c>
       <c r="K1" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="156" t="s">
+      <c r="L1" s="150" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="148" t="s">
+      <c r="M1" s="142" t="s">
         <v>36</v>
       </c>
-      <c r="N1" s="156" t="s">
+      <c r="N1" s="150" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="140">
+      <c r="A2" s="135">
         <v>42737</v>
       </c>
       <c r="B2" s="116"/>
       <c r="C2" s="115"/>
       <c r="D2" s="115"/>
-      <c r="E2" s="122">
+      <c r="E2" s="119">
         <v>63873</v>
       </c>
-      <c r="F2" s="122">
+      <c r="F2" s="119">
         <v>64224</v>
       </c>
-      <c r="G2" s="123">
+      <c r="G2" s="120">
         <f t="shared" ref="G2:G26" si="0">F2-E2</f>
         <v>351</v>
       </c>
@@ -5875,7 +5848,7 @@
       <c r="I2" s="111">
         <v>12</v>
       </c>
-      <c r="J2" s="126">
+      <c r="J2" s="122">
         <f>Viagens[[#This Row],[L ini]]-Viagens[[#This Row],[L fim]]</f>
         <v>27.75</v>
       </c>
@@ -5883,32 +5856,32 @@
         <f>Viagens[[#This Row],[km]]/Viagens[[#This Row],[L]]</f>
         <v>12.648648648648649</v>
       </c>
-      <c r="L2" s="157">
+      <c r="L2" s="151">
         <v>4</v>
       </c>
-      <c r="M2" s="146">
+      <c r="M2" s="141">
         <f>Viagens[[#This Row],[preço]]/Viagens[[#This Row],[consumo]]</f>
         <v>0.31623931623931623</v>
       </c>
-      <c r="N2" s="159">
+      <c r="N2" s="153">
         <f>Viagens[[#This Row],[L]]*Viagens[[#This Row],[preço]]</f>
         <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="140">
+      <c r="A3" s="135">
         <v>42790</v>
       </c>
       <c r="B3" s="116"/>
       <c r="C3" s="115"/>
       <c r="D3" s="115"/>
-      <c r="E3" s="122">
+      <c r="E3" s="119">
         <v>64569</v>
       </c>
-      <c r="F3" s="122">
+      <c r="F3" s="119">
         <v>64947</v>
       </c>
-      <c r="G3" s="123">
+      <c r="G3" s="120">
         <f t="shared" si="0"/>
         <v>378</v>
       </c>
@@ -5918,7 +5891,7 @@
       <c r="I3" s="111">
         <v>10</v>
       </c>
-      <c r="J3" s="126">
+      <c r="J3" s="122">
         <f>Viagens[[#This Row],[L ini]]-Viagens[[#This Row],[L fim]]</f>
         <v>27.810000000000002</v>
       </c>
@@ -5926,32 +5899,32 @@
         <f>Viagens[[#This Row],[km]]/Viagens[[#This Row],[L]]</f>
         <v>13.592233009708737</v>
       </c>
-      <c r="L3" s="157">
+      <c r="L3" s="151">
         <v>3.93</v>
       </c>
-      <c r="M3" s="146">
+      <c r="M3" s="141">
         <f>Viagens[[#This Row],[preço]]/Viagens[[#This Row],[consumo]]</f>
         <v>0.28913571428571433</v>
       </c>
-      <c r="N3" s="159">
+      <c r="N3" s="153">
         <f>Viagens[[#This Row],[L]]*Viagens[[#This Row],[preço]]</f>
         <v>109.29330000000002</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="140">
+      <c r="A4" s="135">
         <v>42806</v>
       </c>
       <c r="B4" s="116"/>
       <c r="C4" s="115"/>
       <c r="D4" s="115"/>
-      <c r="E4" s="122">
+      <c r="E4" s="119">
         <v>65175</v>
       </c>
-      <c r="F4" s="122">
+      <c r="F4" s="119">
         <v>65574</v>
       </c>
-      <c r="G4" s="123">
+      <c r="G4" s="120">
         <f t="shared" si="0"/>
         <v>399</v>
       </c>
@@ -5961,7 +5934,7 @@
       <c r="I4" s="111">
         <v>15.5</v>
       </c>
-      <c r="J4" s="126">
+      <c r="J4" s="122">
         <f>Viagens[[#This Row],[L ini]]-Viagens[[#This Row],[L fim]]</f>
         <v>31.759999999999998</v>
       </c>
@@ -5969,32 +5942,32 @@
         <f>Viagens[[#This Row],[km]]/Viagens[[#This Row],[L]]</f>
         <v>12.562972292191436</v>
       </c>
-      <c r="L4" s="157">
+      <c r="L4" s="151">
         <v>4</v>
       </c>
-      <c r="M4" s="146">
+      <c r="M4" s="141">
         <f>Viagens[[#This Row],[preço]]/Viagens[[#This Row],[consumo]]</f>
         <v>0.31839598997493734</v>
       </c>
-      <c r="N4" s="159">
+      <c r="N4" s="153">
         <f>Viagens[[#This Row],[L]]*Viagens[[#This Row],[preço]]</f>
         <v>127.03999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="140">
+      <c r="A5" s="135">
         <v>42838</v>
       </c>
       <c r="B5" s="116"/>
       <c r="C5" s="115"/>
       <c r="D5" s="115"/>
-      <c r="E5" s="122">
+      <c r="E5" s="119">
         <v>65820</v>
       </c>
-      <c r="F5" s="122">
+      <c r="F5" s="119">
         <v>66204</v>
       </c>
-      <c r="G5" s="123">
+      <c r="G5" s="120">
         <f t="shared" si="0"/>
         <v>384</v>
       </c>
@@ -6004,7 +5977,7 @@
       <c r="I5" s="111">
         <v>12</v>
       </c>
-      <c r="J5" s="126">
+      <c r="J5" s="122">
         <f>Viagens[[#This Row],[L ini]]-Viagens[[#This Row],[L fim]]</f>
         <v>25.659999999999997</v>
       </c>
@@ -6012,32 +5985,32 @@
         <f>Viagens[[#This Row],[km]]/Viagens[[#This Row],[L]]</f>
         <v>14.964925954793454</v>
       </c>
-      <c r="L5" s="157">
+      <c r="L5" s="151">
         <v>3.79</v>
       </c>
-      <c r="M5" s="146">
+      <c r="M5" s="141">
         <f>Viagens[[#This Row],[preço]]/Viagens[[#This Row],[consumo]]</f>
         <v>0.25325885416666666</v>
       </c>
-      <c r="N5" s="159">
+      <c r="N5" s="153">
         <f>Viagens[[#This Row],[L]]*Viagens[[#This Row],[preço]]</f>
         <v>97.25139999999999</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="140">
+      <c r="A6" s="135">
         <v>42841</v>
       </c>
       <c r="B6" s="116"/>
       <c r="C6" s="115"/>
       <c r="D6" s="115"/>
-      <c r="E6" s="122">
+      <c r="E6" s="119">
         <v>66301</v>
       </c>
-      <c r="F6" s="122">
+      <c r="F6" s="119">
         <v>66672</v>
       </c>
-      <c r="G6" s="123">
+      <c r="G6" s="120">
         <f t="shared" si="0"/>
         <v>371</v>
       </c>
@@ -6047,7 +6020,7 @@
       <c r="I6" s="111">
         <v>10</v>
       </c>
-      <c r="J6" s="126">
+      <c r="J6" s="122">
         <f>Viagens[[#This Row],[L ini]]-Viagens[[#This Row],[L fim]]</f>
         <v>29.189999999999998</v>
       </c>
@@ -6055,32 +6028,32 @@
         <f>Viagens[[#This Row],[km]]/Viagens[[#This Row],[L]]</f>
         <v>12.709832134292567</v>
       </c>
-      <c r="L6" s="157">
+      <c r="L6" s="151">
         <v>3.89</v>
       </c>
-      <c r="M6" s="146">
+      <c r="M6" s="141">
         <f>Viagens[[#This Row],[preço]]/Viagens[[#This Row],[consumo]]</f>
         <v>0.3060622641509434</v>
       </c>
-      <c r="N6" s="159">
+      <c r="N6" s="153">
         <f>Viagens[[#This Row],[L]]*Viagens[[#This Row],[preço]]</f>
         <v>113.5491</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="140">
+      <c r="A7" s="135">
         <v>42935</v>
       </c>
       <c r="B7" s="116"/>
       <c r="C7" s="115"/>
       <c r="D7" s="115"/>
-      <c r="E7" s="122">
+      <c r="E7" s="119">
         <v>67538</v>
       </c>
-      <c r="F7" s="122">
+      <c r="F7" s="119">
         <v>67937</v>
       </c>
-      <c r="G7" s="123">
+      <c r="G7" s="120">
         <f t="shared" si="0"/>
         <v>399</v>
       </c>
@@ -6090,7 +6063,7 @@
       <c r="I7" s="111">
         <v>6</v>
       </c>
-      <c r="J7" s="126">
+      <c r="J7" s="122">
         <f>Viagens[[#This Row],[L ini]]-Viagens[[#This Row],[L fim]]</f>
         <v>33.15</v>
       </c>
@@ -6098,32 +6071,32 @@
         <f>Viagens[[#This Row],[km]]/Viagens[[#This Row],[L]]</f>
         <v>12.036199095022624</v>
       </c>
-      <c r="L7" s="157">
+      <c r="L7" s="151">
         <v>3.62</v>
       </c>
-      <c r="M7" s="146">
+      <c r="M7" s="141">
         <f>Viagens[[#This Row],[preço]]/Viagens[[#This Row],[consumo]]</f>
         <v>0.30075939849624062</v>
       </c>
-      <c r="N7" s="159">
+      <c r="N7" s="153">
         <f>Viagens[[#This Row],[L]]*Viagens[[#This Row],[preço]]</f>
         <v>120.003</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="140">
+      <c r="A8" s="135">
         <v>42945</v>
       </c>
       <c r="B8" s="116"/>
       <c r="C8" s="115"/>
       <c r="D8" s="115"/>
-      <c r="E8" s="122">
+      <c r="E8" s="119">
         <v>68001</v>
       </c>
-      <c r="F8" s="122">
+      <c r="F8" s="119">
         <v>68381</v>
       </c>
-      <c r="G8" s="123">
+      <c r="G8" s="120">
         <f t="shared" si="0"/>
         <v>380</v>
       </c>
@@ -6133,7 +6106,7 @@
       <c r="I8" s="111">
         <v>12</v>
       </c>
-      <c r="J8" s="126">
+      <c r="J8" s="122">
         <f>Viagens[[#This Row],[L ini]]-Viagens[[#This Row],[L fim]]</f>
         <v>29</v>
       </c>
@@ -6141,32 +6114,32 @@
         <f>Viagens[[#This Row],[km]]/Viagens[[#This Row],[L]]</f>
         <v>13.103448275862069</v>
       </c>
-      <c r="L8" s="157">
+      <c r="L8" s="151">
         <v>4</v>
       </c>
-      <c r="M8" s="146">
+      <c r="M8" s="141">
         <f>Viagens[[#This Row],[preço]]/Viagens[[#This Row],[consumo]]</f>
         <v>0.30526315789473685</v>
       </c>
-      <c r="N8" s="159">
+      <c r="N8" s="153">
         <f>Viagens[[#This Row],[L]]*Viagens[[#This Row],[preço]]</f>
         <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="140">
+      <c r="A9" s="135">
         <v>42946</v>
       </c>
       <c r="B9" s="116"/>
       <c r="C9" s="115"/>
       <c r="D9" s="115"/>
-      <c r="E9" s="122">
+      <c r="E9" s="119">
         <v>68381</v>
       </c>
-      <c r="F9" s="122">
+      <c r="F9" s="119">
         <v>68729</v>
       </c>
-      <c r="G9" s="123">
+      <c r="G9" s="120">
         <f t="shared" si="0"/>
         <v>348</v>
       </c>
@@ -6176,7 +6149,7 @@
       <c r="I9" s="111">
         <v>15</v>
       </c>
-      <c r="J9" s="126">
+      <c r="J9" s="122">
         <f>Viagens[[#This Row],[L ini]]-Viagens[[#This Row],[L fim]]</f>
         <v>28</v>
       </c>
@@ -6184,32 +6157,32 @@
         <f>Viagens[[#This Row],[km]]/Viagens[[#This Row],[L]]</f>
         <v>12.428571428571429</v>
       </c>
-      <c r="L9" s="157">
+      <c r="L9" s="151">
         <v>3.9</v>
       </c>
-      <c r="M9" s="146">
+      <c r="M9" s="141">
         <f>Viagens[[#This Row],[preço]]/Viagens[[#This Row],[consumo]]</f>
         <v>0.31379310344827582</v>
       </c>
-      <c r="N9" s="159">
+      <c r="N9" s="153">
         <f>Viagens[[#This Row],[L]]*Viagens[[#This Row],[preço]]</f>
         <v>109.2</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="140">
+      <c r="A10" s="135">
         <v>42961</v>
       </c>
       <c r="B10" s="116"/>
       <c r="C10" s="115"/>
       <c r="D10" s="115"/>
-      <c r="E10" s="122">
+      <c r="E10" s="119">
         <v>68995</v>
       </c>
-      <c r="F10" s="122">
+      <c r="F10" s="119">
         <v>69370</v>
       </c>
-      <c r="G10" s="123">
+      <c r="G10" s="120">
         <f t="shared" si="0"/>
         <v>375</v>
       </c>
@@ -6219,7 +6192,7 @@
       <c r="I10" s="111">
         <v>10.5</v>
       </c>
-      <c r="J10" s="126">
+      <c r="J10" s="122">
         <f>Viagens[[#This Row],[L ini]]-Viagens[[#This Row],[L fim]]</f>
         <v>31.909999999999997</v>
       </c>
@@ -6227,32 +6200,32 @@
         <f>Viagens[[#This Row],[km]]/Viagens[[#This Row],[L]]</f>
         <v>11.751801942964589</v>
       </c>
-      <c r="L10" s="157">
+      <c r="L10" s="151">
         <v>4.1900000000000004</v>
       </c>
-      <c r="M10" s="146">
+      <c r="M10" s="141">
         <f>Viagens[[#This Row],[preço]]/Viagens[[#This Row],[consumo]]</f>
         <v>0.35654106666666668</v>
       </c>
-      <c r="N10" s="159">
+      <c r="N10" s="153">
         <f>Viagens[[#This Row],[L]]*Viagens[[#This Row],[preço]]</f>
         <v>133.7029</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="140">
+      <c r="A11" s="135">
         <v>43040</v>
       </c>
       <c r="B11" s="116"/>
       <c r="C11" s="115"/>
       <c r="D11" s="115"/>
-      <c r="E11" s="122">
+      <c r="E11" s="119">
         <v>70001</v>
       </c>
-      <c r="F11" s="122">
+      <c r="F11" s="119">
         <v>70379</v>
       </c>
-      <c r="G11" s="123">
+      <c r="G11" s="120">
         <f t="shared" si="0"/>
         <v>378</v>
       </c>
@@ -6262,7 +6235,7 @@
       <c r="I11" s="111">
         <v>9</v>
       </c>
-      <c r="J11" s="126">
+      <c r="J11" s="122">
         <f>Viagens[[#This Row],[L ini]]-Viagens[[#This Row],[L fim]]</f>
         <v>26.770000000000003</v>
       </c>
@@ -6270,32 +6243,32 @@
         <f>Viagens[[#This Row],[km]]/Viagens[[#This Row],[L]]</f>
         <v>14.120283899887932</v>
       </c>
-      <c r="L11" s="157">
+      <c r="L11" s="151">
         <v>3.92</v>
       </c>
-      <c r="M11" s="146">
+      <c r="M11" s="141">
         <f>Viagens[[#This Row],[preço]]/Viagens[[#This Row],[consumo]]</f>
         <v>0.27761481481481487</v>
       </c>
-      <c r="N11" s="159">
+      <c r="N11" s="153">
         <f>Viagens[[#This Row],[L]]*Viagens[[#This Row],[preço]]</f>
         <v>104.93840000000002</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="140">
+      <c r="A12" s="135">
         <v>43044</v>
       </c>
       <c r="B12" s="116"/>
       <c r="C12" s="115"/>
       <c r="D12" s="115"/>
-      <c r="E12" s="122">
+      <c r="E12" s="119">
         <v>70431</v>
       </c>
-      <c r="F12" s="122">
+      <c r="F12" s="119">
         <v>70809</v>
       </c>
-      <c r="G12" s="123">
+      <c r="G12" s="120">
         <f t="shared" si="0"/>
         <v>378</v>
       </c>
@@ -6305,7 +6278,7 @@
       <c r="I12" s="111">
         <v>10</v>
       </c>
-      <c r="J12" s="126">
+      <c r="J12" s="122">
         <f>Viagens[[#This Row],[L ini]]-Viagens[[#This Row],[L fim]]</f>
         <v>28.869999999999997</v>
       </c>
@@ -6313,32 +6286,32 @@
         <f>Viagens[[#This Row],[km]]/Viagens[[#This Row],[L]]</f>
         <v>13.093176307585731</v>
       </c>
-      <c r="L12" s="157">
+      <c r="L12" s="151">
         <v>4.09</v>
       </c>
-      <c r="M12" s="146">
+      <c r="M12" s="141">
         <f>Viagens[[#This Row],[preço]]/Viagens[[#This Row],[consumo]]</f>
         <v>0.312376455026455</v>
       </c>
-      <c r="N12" s="159">
+      <c r="N12" s="153">
         <f>Viagens[[#This Row],[L]]*Viagens[[#This Row],[preço]]</f>
         <v>118.07829999999998</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="140">
+      <c r="A13" s="135">
         <v>43087</v>
       </c>
       <c r="B13" s="116"/>
       <c r="C13" s="115"/>
       <c r="D13" s="115"/>
-      <c r="E13" s="122">
+      <c r="E13" s="119">
         <v>71219</v>
       </c>
-      <c r="F13" s="122">
+      <c r="F13" s="119">
         <v>71611</v>
       </c>
-      <c r="G13" s="123">
+      <c r="G13" s="120">
         <f t="shared" si="0"/>
         <v>392</v>
       </c>
@@ -6348,7 +6321,7 @@
       <c r="I13" s="111">
         <v>10</v>
       </c>
-      <c r="J13" s="126">
+      <c r="J13" s="122">
         <f>Viagens[[#This Row],[L ini]]-Viagens[[#This Row],[L fim]]</f>
         <v>28.869999999999997</v>
       </c>
@@ -6356,20 +6329,20 @@
         <f>Viagens[[#This Row],[km]]/Viagens[[#This Row],[L]]</f>
         <v>13.578108763422239</v>
       </c>
-      <c r="L13" s="157">
+      <c r="L13" s="151">
         <v>4.17</v>
       </c>
-      <c r="M13" s="146">
+      <c r="M13" s="141">
         <f>Viagens[[#This Row],[preço]]/Viagens[[#This Row],[consumo]]</f>
         <v>0.30711198979591831</v>
       </c>
-      <c r="N13" s="159">
+      <c r="N13" s="153">
         <f>Viagens[[#This Row],[L]]*Viagens[[#This Row],[preço]]</f>
         <v>120.38789999999999</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="140">
+      <c r="A14" s="135">
         <v>43119</v>
       </c>
       <c r="B14" s="116">
@@ -6382,13 +6355,13 @@
         <f>Viagens[[#This Row],[hora fim]]-Viagens[[#This Row],[hora ini]]</f>
         <v>0.19791666666666663</v>
       </c>
-      <c r="E14" s="122">
+      <c r="E14" s="119">
         <v>72158</v>
       </c>
-      <c r="F14" s="122">
+      <c r="F14" s="119">
         <v>72533</v>
       </c>
-      <c r="G14" s="123">
+      <c r="G14" s="120">
         <f t="shared" si="0"/>
         <v>375</v>
       </c>
@@ -6398,7 +6371,7 @@
       <c r="I14" s="111">
         <v>16</v>
       </c>
-      <c r="J14" s="126">
+      <c r="J14" s="122">
         <f>Viagens[[#This Row],[L ini]]-Viagens[[#This Row],[L fim]]</f>
         <v>26.799999999999997</v>
       </c>
@@ -6406,20 +6379,20 @@
         <f>Viagens[[#This Row],[km]]/Viagens[[#This Row],[L]]</f>
         <v>13.992537313432837</v>
       </c>
-      <c r="L14" s="157">
+      <c r="L14" s="151">
         <v>4.29</v>
       </c>
-      <c r="M14" s="146">
+      <c r="M14" s="141">
         <f>Viagens[[#This Row],[preço]]/Viagens[[#This Row],[consumo]]</f>
         <v>0.30659199999999998</v>
       </c>
-      <c r="N14" s="159">
+      <c r="N14" s="153">
         <f>Viagens[[#This Row],[L]]*Viagens[[#This Row],[preço]]</f>
         <v>114.97199999999999</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="140">
+      <c r="A15" s="135">
         <v>43128</v>
       </c>
       <c r="B15" s="116">
@@ -6432,13 +6405,13 @@
         <f>Viagens[[#This Row],[hora fim]]-Viagens[[#This Row],[hora ini]]</f>
         <v>0.22916666666666663</v>
       </c>
-      <c r="E15" s="122">
+      <c r="E15" s="119">
         <v>72667</v>
       </c>
-      <c r="F15" s="122">
+      <c r="F15" s="119">
         <v>73042</v>
       </c>
-      <c r="G15" s="123">
+      <c r="G15" s="120">
         <f t="shared" si="0"/>
         <v>375</v>
       </c>
@@ -6448,7 +6421,7 @@
       <c r="I15" s="111">
         <v>9</v>
       </c>
-      <c r="J15" s="126">
+      <c r="J15" s="122">
         <f>Viagens[[#This Row],[L ini]]-Viagens[[#This Row],[L fim]]</f>
         <v>26.972000000000001</v>
       </c>
@@ -6456,32 +6429,32 @@
         <f>Viagens[[#This Row],[km]]/Viagens[[#This Row],[L]]</f>
         <v>13.903307133323446</v>
       </c>
-      <c r="L15" s="157">
+      <c r="L15" s="151">
         <v>4.2699999999999996</v>
       </c>
-      <c r="M15" s="146">
+      <c r="M15" s="141">
         <f>Viagens[[#This Row],[preço]]/Viagens[[#This Row],[consumo]]</f>
         <v>0.30712117333333333</v>
       </c>
-      <c r="N15" s="159">
+      <c r="N15" s="153">
         <f>Viagens[[#This Row],[L]]*Viagens[[#This Row],[preço]]</f>
         <v>115.17044</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="140">
+      <c r="A16" s="135">
         <v>43148</v>
       </c>
       <c r="B16" s="116"/>
       <c r="C16" s="115"/>
       <c r="D16" s="115"/>
-      <c r="E16" s="122">
+      <c r="E16" s="119">
         <v>73312</v>
       </c>
-      <c r="F16" s="122">
+      <c r="F16" s="119">
         <v>73666</v>
       </c>
-      <c r="G16" s="123">
+      <c r="G16" s="120">
         <f t="shared" si="0"/>
         <v>354</v>
       </c>
@@ -6491,7 +6464,7 @@
       <c r="I16" s="111">
         <v>18</v>
       </c>
-      <c r="J16" s="126">
+      <c r="J16" s="122">
         <f>Viagens[[#This Row],[L ini]]-Viagens[[#This Row],[L fim]]</f>
         <v>26.981999999999999</v>
       </c>
@@ -6499,20 +6472,20 @@
         <f>Viagens[[#This Row],[km]]/Viagens[[#This Row],[L]]</f>
         <v>13.119857682899712</v>
       </c>
-      <c r="L16" s="158">
+      <c r="L16" s="152">
         <v>4.49</v>
       </c>
-      <c r="M16" s="146">
+      <c r="M16" s="141">
         <f>Viagens[[#This Row],[preço]]/Viagens[[#This Row],[consumo]]</f>
         <v>0.34222932203389833</v>
       </c>
-      <c r="N16" s="159">
+      <c r="N16" s="153">
         <f>Viagens[[#This Row],[L]]*Viagens[[#This Row],[preço]]</f>
         <v>121.14918</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="140">
+      <c r="A17" s="135">
         <v>43187</v>
       </c>
       <c r="B17" s="116">
@@ -6525,13 +6498,13 @@
         <f>Viagens[[#This Row],[hora fim]]-Viagens[[#This Row],[hora ini]]</f>
         <v>0.21805555555555556</v>
       </c>
-      <c r="E17" s="122">
+      <c r="E17" s="119">
         <v>74082</v>
       </c>
-      <c r="F17" s="122">
+      <c r="F17" s="119">
         <v>74449</v>
       </c>
-      <c r="G17" s="123">
+      <c r="G17" s="120">
         <f t="shared" si="0"/>
         <v>367</v>
       </c>
@@ -6541,7 +6514,7 @@
       <c r="I17" s="111">
         <v>8</v>
       </c>
-      <c r="J17" s="126">
+      <c r="J17" s="122">
         <f>Viagens[[#This Row],[L ini]]-Viagens[[#This Row],[L fim]]</f>
         <v>26.168564920273354</v>
       </c>
@@ -6549,20 +6522,20 @@
         <f>Viagens[[#This Row],[km]]/Viagens[[#This Row],[L]]</f>
         <v>14.024460306406683</v>
       </c>
-      <c r="L17" s="158">
+      <c r="L17" s="152">
         <v>4.3899999999999997</v>
       </c>
-      <c r="M17" s="146">
+      <c r="M17" s="141">
         <f>Viagens[[#This Row],[preço]]/Viagens[[#This Row],[consumo]]</f>
         <v>0.31302452316076296</v>
       </c>
-      <c r="N17" s="159">
+      <c r="N17" s="153">
         <f>Viagens[[#This Row],[L]]*Viagens[[#This Row],[preço]]</f>
         <v>114.88000000000002</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="140">
+      <c r="A18" s="135">
         <v>43190</v>
       </c>
       <c r="B18" s="116">
@@ -6575,13 +6548,13 @@
         <f>Viagens[[#This Row],[hora fim]]-Viagens[[#This Row],[hora ini]]</f>
         <v>0.18402777777777779</v>
       </c>
-      <c r="E18" s="122">
+      <c r="E18" s="119">
         <v>74474</v>
       </c>
-      <c r="F18" s="122">
+      <c r="F18" s="119">
         <v>74825</v>
       </c>
-      <c r="G18" s="123">
+      <c r="G18" s="120">
         <f t="shared" si="0"/>
         <v>351</v>
       </c>
@@ -6591,7 +6564,7 @@
       <c r="I18" s="111">
         <v>22</v>
       </c>
-      <c r="J18" s="126">
+      <c r="J18" s="122">
         <f>Viagens[[#This Row],[L ini]]-Viagens[[#This Row],[L fim]]</f>
         <v>26</v>
       </c>
@@ -6599,20 +6572,20 @@
         <f>Viagens[[#This Row],[km]]/Viagens[[#This Row],[L]]</f>
         <v>13.5</v>
       </c>
-      <c r="L18" s="158">
+      <c r="L18" s="152">
         <v>4.49</v>
       </c>
-      <c r="M18" s="146">
+      <c r="M18" s="141">
         <f>Viagens[[#This Row],[preço]]/Viagens[[#This Row],[consumo]]</f>
         <v>0.33259259259259261</v>
       </c>
-      <c r="N18" s="159">
+      <c r="N18" s="153">
         <f>Viagens[[#This Row],[L]]*Viagens[[#This Row],[preço]]</f>
         <v>116.74000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="140">
+      <c r="A19" s="135">
         <v>43287</v>
       </c>
       <c r="B19" s="116">
@@ -6625,13 +6598,13 @@
         <f>Viagens[[#This Row],[hora fim]]-Viagens[[#This Row],[hora ini]]</f>
         <v>0.21944444444444441</v>
       </c>
-      <c r="E19" s="122">
+      <c r="E19" s="119">
         <v>75894</v>
       </c>
-      <c r="F19" s="122">
+      <c r="F19" s="119">
         <v>76265</v>
       </c>
-      <c r="G19" s="123">
+      <c r="G19" s="120">
         <f t="shared" si="0"/>
         <v>371</v>
       </c>
@@ -6641,7 +6614,7 @@
       <c r="I19" s="111">
         <v>20</v>
       </c>
-      <c r="J19" s="126">
+      <c r="J19" s="122">
         <f>Viagens[[#This Row],[L ini]]-Viagens[[#This Row],[L fim]]</f>
         <v>28</v>
       </c>
@@ -6649,20 +6622,20 @@
         <f>Viagens[[#This Row],[km]]/Viagens[[#This Row],[L]]</f>
         <v>13.25</v>
       </c>
-      <c r="L19" s="158">
+      <c r="L19" s="152">
         <v>4.59</v>
       </c>
-      <c r="M19" s="146">
+      <c r="M19" s="141">
         <f>Viagens[[#This Row],[preço]]/Viagens[[#This Row],[consumo]]</f>
         <v>0.34641509433962264</v>
       </c>
-      <c r="N19" s="159">
+      <c r="N19" s="153">
         <f>Viagens[[#This Row],[L]]*Viagens[[#This Row],[preço]]</f>
         <v>128.51999999999998</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="140">
+      <c r="A20" s="135">
         <v>43289</v>
       </c>
       <c r="B20" s="116">
@@ -6675,13 +6648,13 @@
         <f>Viagens[[#This Row],[hora fim]]-Viagens[[#This Row],[hora ini]]</f>
         <v>0.14861111111111125</v>
       </c>
-      <c r="E20" s="122">
+      <c r="E20" s="119">
         <v>76308</v>
       </c>
-      <c r="F20" s="122">
+      <c r="F20" s="119">
         <v>76660</v>
       </c>
-      <c r="G20" s="123">
+      <c r="G20" s="120">
         <f t="shared" si="0"/>
         <v>352</v>
       </c>
@@ -6691,7 +6664,7 @@
       <c r="I20" s="111">
         <v>23</v>
       </c>
-      <c r="J20" s="126">
+      <c r="J20" s="122">
         <f>Viagens[[#This Row],[L ini]]-Viagens[[#This Row],[L fim]]</f>
         <v>25</v>
       </c>
@@ -6699,20 +6672,20 @@
         <f>Viagens[[#This Row],[km]]/Viagens[[#This Row],[L]]</f>
         <v>14.08</v>
       </c>
-      <c r="L20" s="158">
+      <c r="L20" s="152">
         <v>4.79</v>
       </c>
-      <c r="M20" s="146">
+      <c r="M20" s="141">
         <f>Viagens[[#This Row],[preço]]/Viagens[[#This Row],[consumo]]</f>
         <v>0.34019886363636365</v>
       </c>
-      <c r="N20" s="159">
+      <c r="N20" s="153">
         <f>Viagens[[#This Row],[L]]*Viagens[[#This Row],[preço]]</f>
         <v>119.75</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="141">
+      <c r="A21" s="136">
         <v>43350</v>
       </c>
       <c r="B21" s="116">
@@ -6725,13 +6698,13 @@
         <f>Viagens[[#This Row],[hora fim]]-Viagens[[#This Row],[hora ini]]</f>
         <v>0.19583333333333341</v>
       </c>
-      <c r="E21" s="122">
+      <c r="E21" s="119">
         <v>77444</v>
       </c>
-      <c r="F21" s="122">
+      <c r="F21" s="119">
         <v>77816</v>
       </c>
-      <c r="G21" s="124">
+      <c r="G21" s="121">
         <f t="shared" si="0"/>
         <v>372</v>
       </c>
@@ -6741,7 +6714,7 @@
       <c r="I21" s="111">
         <v>14</v>
       </c>
-      <c r="J21" s="126">
+      <c r="J21" s="122">
         <f>Viagens[[#This Row],[L ini]]-Viagens[[#This Row],[L fim]]</f>
         <v>26</v>
       </c>
@@ -6749,20 +6722,20 @@
         <f>Viagens[[#This Row],[km]]/Viagens[[#This Row],[L]]</f>
         <v>14.307692307692308</v>
       </c>
-      <c r="L21" s="158">
+      <c r="L21" s="152">
         <v>4.79</v>
       </c>
-      <c r="M21" s="146">
+      <c r="M21" s="141">
         <f>Viagens[[#This Row],[preço]]/Viagens[[#This Row],[consumo]]</f>
         <v>0.33478494623655913</v>
       </c>
-      <c r="N21" s="159">
+      <c r="N21" s="153">
         <f>Viagens[[#This Row],[L]]*Viagens[[#This Row],[preço]]</f>
         <v>124.54</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="141">
+      <c r="A22" s="136">
         <v>43352</v>
       </c>
       <c r="B22" s="116">
@@ -6775,13 +6748,13 @@
         <f>Viagens[[#This Row],[hora fim]]-Viagens[[#This Row],[hora ini]]</f>
         <v>0.20625000000000004</v>
       </c>
-      <c r="E22" s="122">
+      <c r="E22" s="119">
         <v>77858</v>
       </c>
-      <c r="F22" s="122">
+      <c r="F22" s="119">
         <v>78222</v>
       </c>
-      <c r="G22" s="124">
+      <c r="G22" s="121">
         <f t="shared" si="0"/>
         <v>364</v>
       </c>
@@ -6791,7 +6764,7 @@
       <c r="I22" s="111">
         <v>18</v>
       </c>
-      <c r="J22" s="126">
+      <c r="J22" s="122">
         <f>Viagens[[#This Row],[L ini]]-Viagens[[#This Row],[L fim]]</f>
         <v>30</v>
       </c>
@@ -6799,20 +6772,20 @@
         <f>Viagens[[#This Row],[km]]/Viagens[[#This Row],[L]]</f>
         <v>12.133333333333333</v>
       </c>
-      <c r="L22" s="158">
+      <c r="L22" s="152">
         <v>4.79</v>
       </c>
-      <c r="M22" s="146">
+      <c r="M22" s="141">
         <f>Viagens[[#This Row],[preço]]/Viagens[[#This Row],[consumo]]</f>
         <v>0.39478021978021982</v>
       </c>
-      <c r="N22" s="159">
+      <c r="N22" s="153">
         <f>Viagens[[#This Row],[L]]*Viagens[[#This Row],[preço]]</f>
         <v>143.69999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="141">
+      <c r="A23" s="136">
         <v>43385</v>
       </c>
       <c r="B23" s="116">
@@ -6825,13 +6798,13 @@
         <f>Viagens[[#This Row],[hora fim]]-Viagens[[#This Row],[hora ini]]</f>
         <v>0.20277777777777778</v>
       </c>
-      <c r="E23" s="122">
+      <c r="E23" s="119">
         <v>78597</v>
       </c>
-      <c r="F23" s="122">
+      <c r="F23" s="119">
         <v>78960</v>
       </c>
-      <c r="G23" s="124">
+      <c r="G23" s="121">
         <f t="shared" si="0"/>
         <v>363</v>
       </c>
@@ -6841,7 +6814,7 @@
       <c r="I23" s="111">
         <v>12</v>
       </c>
-      <c r="J23" s="126">
+      <c r="J23" s="122">
         <f>Viagens[[#This Row],[L ini]]-Viagens[[#This Row],[L fim]]</f>
         <v>33</v>
       </c>
@@ -6849,20 +6822,20 @@
         <f>Viagens[[#This Row],[km]]/Viagens[[#This Row],[L]]</f>
         <v>11</v>
       </c>
-      <c r="L23" s="158">
+      <c r="L23" s="152">
         <v>4.79</v>
       </c>
-      <c r="M23" s="146">
+      <c r="M23" s="141">
         <f>Viagens[[#This Row],[preço]]/Viagens[[#This Row],[consumo]]</f>
         <v>0.43545454545454548</v>
       </c>
-      <c r="N23" s="159">
+      <c r="N23" s="153">
         <f>Viagens[[#This Row],[L]]*Viagens[[#This Row],[preço]]</f>
         <v>158.07</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="141">
+      <c r="A24" s="136">
         <v>43388</v>
       </c>
       <c r="B24" s="115">
@@ -6875,13 +6848,13 @@
         <f>Viagens[[#This Row],[hora fim]]-Viagens[[#This Row],[hora ini]]</f>
         <v>0.17916666666666675</v>
       </c>
-      <c r="E24" s="122">
+      <c r="E24" s="119">
         <v>79000</v>
       </c>
-      <c r="F24" s="122">
+      <c r="F24" s="119">
         <v>79352</v>
       </c>
-      <c r="G24" s="124">
+      <c r="G24" s="121">
         <f t="shared" si="0"/>
         <v>352</v>
       </c>
@@ -6891,7 +6864,7 @@
       <c r="I24" s="111">
         <v>6</v>
       </c>
-      <c r="J24" s="126">
+      <c r="J24" s="122">
         <f>Viagens[[#This Row],[L ini]]-Viagens[[#This Row],[L fim]]</f>
         <v>28</v>
       </c>
@@ -6899,20 +6872,20 @@
         <f>Viagens[[#This Row],[km]]/Viagens[[#This Row],[L]]</f>
         <v>12.571428571428571</v>
       </c>
-      <c r="L24" s="158">
+      <c r="L24" s="152">
         <v>4.9400000000000004</v>
       </c>
-      <c r="M24" s="146">
+      <c r="M24" s="141">
         <f>Viagens[[#This Row],[preço]]/Viagens[[#This Row],[consumo]]</f>
         <v>0.3929545454545455</v>
       </c>
-      <c r="N24" s="159">
+      <c r="N24" s="153">
         <f>Viagens[[#This Row],[L]]*Viagens[[#This Row],[preço]]</f>
         <v>138.32000000000002</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="141">
+      <c r="A25" s="136">
         <v>43456</v>
       </c>
       <c r="B25" s="115">
@@ -6925,13 +6898,13 @@
         <f>Viagens[[#This Row],[hora fim]]-Viagens[[#This Row],[hora ini]]</f>
         <v>0.21250000000000008</v>
       </c>
-      <c r="E25" s="122">
+      <c r="E25" s="119">
         <v>80192</v>
       </c>
-      <c r="F25" s="122">
+      <c r="F25" s="119">
         <v>80548</v>
       </c>
-      <c r="G25" s="124">
+      <c r="G25" s="121">
         <f t="shared" si="0"/>
         <v>356</v>
       </c>
@@ -6941,7 +6914,7 @@
       <c r="I25" s="111">
         <v>13</v>
       </c>
-      <c r="J25" s="126">
+      <c r="J25" s="122">
         <f>Viagens[[#This Row],[L ini]]-Viagens[[#This Row],[L fim]]</f>
         <v>30</v>
       </c>
@@ -6949,20 +6922,20 @@
         <f>Viagens[[#This Row],[km]]/Viagens[[#This Row],[L]]</f>
         <v>11.866666666666667</v>
       </c>
-      <c r="L25" s="158">
+      <c r="L25" s="152">
         <v>4.3499999999999996</v>
       </c>
-      <c r="M25" s="146">
+      <c r="M25" s="141">
         <f>Viagens[[#This Row],[preço]]/Viagens[[#This Row],[consumo]]</f>
         <v>0.36657303370786515</v>
       </c>
-      <c r="N25" s="159">
+      <c r="N25" s="153">
         <f>Viagens[[#This Row],[L]]*Viagens[[#This Row],[preço]]</f>
         <v>130.5</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="140">
+      <c r="A26" s="135">
         <v>43824</v>
       </c>
       <c r="B26" s="115">
@@ -6975,13 +6948,13 @@
         <f>Viagens[[#This Row],[hora fim]]-Viagens[[#This Row],[hora ini]]</f>
         <v>0.19791666666666674</v>
       </c>
-      <c r="E26" s="122">
+      <c r="E26" s="119">
         <v>80565</v>
       </c>
-      <c r="F26" s="122">
+      <c r="F26" s="119">
         <v>80925</v>
       </c>
-      <c r="G26" s="124">
+      <c r="G26" s="121">
         <f t="shared" si="0"/>
         <v>360</v>
       </c>
@@ -6991,7 +6964,7 @@
       <c r="I26" s="111">
         <v>19</v>
       </c>
-      <c r="J26" s="126">
+      <c r="J26" s="122">
         <f>Viagens[[#This Row],[L ini]]-Viagens[[#This Row],[L fim]]</f>
         <v>29</v>
       </c>
@@ -6999,74 +6972,27 @@
         <f>Viagens[[#This Row],[km]]/Viagens[[#This Row],[L]]</f>
         <v>12.413793103448276</v>
       </c>
-      <c r="L26" s="158">
+      <c r="L26" s="152">
         <v>4.6399999999999997</v>
       </c>
-      <c r="M26" s="146">
+      <c r="M26" s="141">
         <f>Viagens[[#This Row],[preço]]/Viagens[[#This Row],[consumo]]</f>
         <v>0.37377777777777776</v>
       </c>
-      <c r="N26" s="159">
+      <c r="N26" s="153">
         <f>Viagens[[#This Row],[L]]*Viagens[[#This Row],[preço]]</f>
         <v>134.56</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="164" t="s">
-        <v>38</v>
-      </c>
-      <c r="B27" s="115">
-        <f>SUBTOTAL(101,Viagens[hora ini])</f>
-        <v>0.45364583333333336</v>
-      </c>
-      <c r="C27" s="118">
-        <f>SUBTOTAL(101,Viagens[hora fim])</f>
-        <v>0.65295138888888882</v>
-      </c>
-      <c r="D27" s="118">
-        <f>SUBTOTAL(101,Viagens[horas])</f>
-        <v>0.19930555555555554</v>
-      </c>
-      <c r="E27" s="119">
-        <f>SUBTOTAL(105,Viagens[km ini])</f>
-        <v>63873</v>
-      </c>
-      <c r="F27" s="119">
-        <f>SUBTOTAL(101,Viagens[km fim])</f>
-        <v>72484</v>
-      </c>
-      <c r="G27" s="125">
-        <f>SUBTOTAL(101,Viagens[km])</f>
-        <v>369.8</v>
-      </c>
-      <c r="H27" s="120">
-        <f>SUBTOTAL(101,Viagens[L ini])</f>
-        <v>41.62650259681093</v>
-      </c>
-      <c r="I27" s="120">
-        <f>SUBTOTAL(101,Viagens[L fim])</f>
-        <v>13.2</v>
-      </c>
-      <c r="J27" s="127">
-        <f>SUBTOTAL(101,Viagens[L])</f>
-        <v>28.426502596810934</v>
-      </c>
-      <c r="K27" s="120">
-        <f>SUBTOTAL(101,Viagens[consumo])</f>
-        <v>13.070131126863332</v>
-      </c>
-      <c r="L27" s="158">
-        <f>SUBTOTAL(101,Viagens[preço])</f>
-        <v>4.2844000000000007</v>
-      </c>
-      <c r="M27" s="147">
-        <f>SUBTOTAL(101,Viagens[custo km])</f>
-        <v>0.32972203049875093</v>
-      </c>
-      <c r="N27" s="160">
-        <f>SUBTOTAL(101,Viagens[custo total])</f>
-        <v>121.65263680000002</v>
-      </c>
+      <c r="A27" s="112"/>
+      <c r="B27" s="107"/>
+      <c r="C27" s="103"/>
+      <c r="D27" s="111"/>
+      <c r="E27" s="108"/>
+      <c r="F27" s="109"/>
+      <c r="G27" s="106"/>
+      <c r="H27" s="106"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="112"/>
@@ -7079,11 +7005,11 @@
       <c r="H28" s="106"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="112"/>
-      <c r="B29" s="107"/>
-      <c r="C29" s="103"/>
-      <c r="D29" s="111"/>
-      <c r="E29" s="108"/>
+      <c r="A29" s="113"/>
+      <c r="B29" s="113"/>
+      <c r="C29" s="106"/>
+      <c r="D29" s="110"/>
+      <c r="E29" s="114"/>
       <c r="F29" s="109"/>
       <c r="G29" s="106"/>
       <c r="H29" s="106"/>
@@ -7157,16 +7083,6 @@
       <c r="F36" s="109"/>
       <c r="G36" s="106"/>
       <c r="H36" s="106"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="113"/>
-      <c r="B37" s="113"/>
-      <c r="C37" s="106"/>
-      <c r="D37" s="110"/>
-      <c r="E37" s="114"/>
-      <c r="F37" s="109"/>
-      <c r="G37" s="106"/>
-      <c r="H37" s="106"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -7194,371 +7110,371 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="155" t="s">
+      <c r="A1" s="149" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="155" t="s">
+      <c r="B1" s="149" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="155" t="s">
+      <c r="C1" s="149" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="155" t="s">
+      <c r="D1" s="149" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="155" t="s">
+      <c r="E1" s="149" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="155" t="s">
+      <c r="F1" s="149" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="151">
+      <c r="A2" s="145">
         <v>42900</v>
       </c>
-      <c r="B2" s="152"/>
-      <c r="C2" s="150">
+      <c r="B2" s="146"/>
+      <c r="C2" s="144">
         <f>Etanol[[#This Row],[preço]]*Etanol[[#This Row],[litros]]</f>
         <v>29.999999999999996</v>
       </c>
-      <c r="D2" s="150">
+      <c r="D2" s="144">
         <v>3.29</v>
       </c>
-      <c r="E2" s="153">
+      <c r="E2" s="147">
         <v>9.1185410334346493</v>
       </c>
-      <c r="F2" s="154">
+      <c r="F2" s="148">
         <v>67245</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="151">
+      <c r="A3" s="145">
         <v>43006</v>
       </c>
-      <c r="B3" s="152"/>
-      <c r="C3" s="150">
+      <c r="B3" s="146"/>
+      <c r="C3" s="144">
         <f>Etanol[[#This Row],[preço]]*Etanol[[#This Row],[litros]]</f>
         <v>40</v>
       </c>
-      <c r="D3" s="150">
+      <c r="D3" s="144">
         <v>3.25</v>
       </c>
-      <c r="E3" s="153">
+      <c r="E3" s="147">
         <v>12.307692307692308</v>
       </c>
-      <c r="F3" s="154">
+      <c r="F3" s="148">
         <v>69760</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="151">
+      <c r="A4" s="145">
         <v>43069</v>
       </c>
-      <c r="B4" s="152"/>
-      <c r="C4" s="150">
+      <c r="B4" s="146"/>
+      <c r="C4" s="144">
         <f>Etanol[[#This Row],[preço]]*Etanol[[#This Row],[litros]]</f>
         <v>40</v>
       </c>
-      <c r="D4" s="150">
+      <c r="D4" s="144">
         <v>3.37</v>
       </c>
-      <c r="E4" s="153">
+      <c r="E4" s="147">
         <v>11.869436201780415</v>
       </c>
-      <c r="F4" s="154"/>
+      <c r="F4" s="148"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="151">
+      <c r="A5" s="145">
         <v>43078</v>
       </c>
-      <c r="B5" s="152"/>
-      <c r="C5" s="150">
+      <c r="B5" s="146"/>
+      <c r="C5" s="144">
         <f>Etanol[[#This Row],[preço]]*Etanol[[#This Row],[litros]]</f>
         <v>40</v>
       </c>
-      <c r="D5" s="150">
+      <c r="D5" s="144">
         <v>3.27</v>
       </c>
-      <c r="E5" s="153">
+      <c r="E5" s="147">
         <v>12.232415902140673</v>
       </c>
-      <c r="F5" s="154"/>
+      <c r="F5" s="148"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="151">
+      <c r="A6" s="145">
         <v>43169</v>
       </c>
-      <c r="B6" s="152"/>
-      <c r="C6" s="150">
+      <c r="B6" s="146"/>
+      <c r="C6" s="144">
         <f>Etanol[[#This Row],[preço]]*Etanol[[#This Row],[litros]]</f>
         <v>40</v>
       </c>
-      <c r="D6" s="150">
+      <c r="D6" s="144">
         <v>3.59</v>
       </c>
-      <c r="E6" s="153">
+      <c r="E6" s="147">
         <v>11.142061281337048</v>
       </c>
-      <c r="F6" s="154"/>
+      <c r="F6" s="148"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="151">
+      <c r="A7" s="145">
         <v>43194</v>
       </c>
-      <c r="B7" s="152"/>
-      <c r="C7" s="150">
+      <c r="B7" s="146"/>
+      <c r="C7" s="144">
         <f>Etanol[[#This Row],[preço]]*Etanol[[#This Row],[litros]]</f>
         <v>40</v>
       </c>
-      <c r="D7" s="150">
+      <c r="D7" s="144">
         <v>3.59</v>
       </c>
-      <c r="E7" s="153">
+      <c r="E7" s="147">
         <v>11.142061281337048</v>
       </c>
-      <c r="F7" s="154"/>
+      <c r="F7" s="148"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="151">
+      <c r="A8" s="145">
         <v>43207</v>
       </c>
-      <c r="B8" s="152"/>
-      <c r="C8" s="150">
+      <c r="B8" s="146"/>
+      <c r="C8" s="144">
         <f>Etanol[[#This Row],[preço]]*Etanol[[#This Row],[litros]]</f>
         <v>20</v>
       </c>
-      <c r="D8" s="150">
+      <c r="D8" s="144">
         <v>3.59</v>
       </c>
-      <c r="E8" s="153">
+      <c r="E8" s="147">
         <v>5.5710306406685239</v>
       </c>
-      <c r="F8" s="154"/>
+      <c r="F8" s="148"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="151">
+      <c r="A9" s="145">
         <v>43222</v>
       </c>
-      <c r="B9" s="152"/>
-      <c r="C9" s="150">
+      <c r="B9" s="146"/>
+      <c r="C9" s="144">
         <f>Etanol[[#This Row],[preço]]*Etanol[[#This Row],[litros]]</f>
         <v>40</v>
       </c>
-      <c r="D9" s="150">
+      <c r="D9" s="144">
         <v>3.59</v>
       </c>
-      <c r="E9" s="153">
+      <c r="E9" s="147">
         <v>11.142061281337048</v>
       </c>
-      <c r="F9" s="154"/>
+      <c r="F9" s="148"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="151">
+      <c r="A10" s="145">
         <v>43243</v>
       </c>
-      <c r="B10" s="152"/>
-      <c r="C10" s="150">
+      <c r="B10" s="146"/>
+      <c r="C10" s="144">
         <f>Etanol[[#This Row],[preço]]*Etanol[[#This Row],[litros]]</f>
         <v>60</v>
       </c>
-      <c r="D10" s="150">
+      <c r="D10" s="144">
         <v>3.59</v>
       </c>
-      <c r="E10" s="153">
+      <c r="E10" s="147">
         <v>16.713091922005571</v>
       </c>
-      <c r="F10" s="154"/>
+      <c r="F10" s="148"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="151">
+      <c r="A11" s="145">
         <v>43263</v>
       </c>
-      <c r="B11" s="152"/>
-      <c r="C11" s="150">
+      <c r="B11" s="146"/>
+      <c r="C11" s="144">
         <f>Etanol[[#This Row],[preço]]*Etanol[[#This Row],[litros]]</f>
         <v>40</v>
       </c>
-      <c r="D11" s="150">
+      <c r="D11" s="144">
         <v>3.67</v>
       </c>
-      <c r="E11" s="153">
+      <c r="E11" s="147">
         <v>10.899182561307903</v>
       </c>
-      <c r="F11" s="154"/>
+      <c r="F11" s="148"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="151">
+      <c r="A12" s="145">
         <v>43290</v>
       </c>
-      <c r="B12" s="152"/>
-      <c r="C12" s="150">
+      <c r="B12" s="146"/>
+      <c r="C12" s="144">
         <f>Etanol[[#This Row],[preço]]*Etanol[[#This Row],[litros]]</f>
         <v>40</v>
       </c>
-      <c r="D12" s="150">
+      <c r="D12" s="144">
         <v>3.69</v>
       </c>
-      <c r="E12" s="153">
+      <c r="E12" s="147">
         <v>10.840108401084011</v>
       </c>
-      <c r="F12" s="154">
+      <c r="F12" s="148">
         <v>76592</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="151">
+      <c r="A13" s="145">
         <v>43341</v>
       </c>
-      <c r="B13" s="152"/>
-      <c r="C13" s="150">
+      <c r="B13" s="146"/>
+      <c r="C13" s="144">
         <f>Etanol[[#This Row],[preço]]*Etanol[[#This Row],[litros]]</f>
         <v>55.984000000000002</v>
       </c>
-      <c r="D13" s="150">
+      <c r="D13" s="144">
         <v>3.4990000000000001</v>
       </c>
-      <c r="E13" s="153">
+      <c r="E13" s="147">
         <v>16</v>
       </c>
-      <c r="F13" s="154">
+      <c r="F13" s="148">
         <v>77312</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="151">
+      <c r="A14" s="145">
         <v>43349</v>
       </c>
-      <c r="B14" s="152"/>
-      <c r="C14" s="150">
+      <c r="B14" s="146"/>
+      <c r="C14" s="144">
         <f>Etanol[[#This Row],[preço]]*Etanol[[#This Row],[litros]]</f>
         <v>28.72</v>
       </c>
-      <c r="D14" s="150">
+      <c r="D14" s="144">
         <v>3.59</v>
       </c>
-      <c r="E14" s="153">
+      <c r="E14" s="147">
         <v>8</v>
       </c>
-      <c r="F14" s="154">
+      <c r="F14" s="148">
         <v>77437</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="151">
+      <c r="A15" s="145">
         <v>43355</v>
       </c>
-      <c r="B15" s="152"/>
-      <c r="C15" s="150">
+      <c r="B15" s="146"/>
+      <c r="C15" s="144">
         <f>Etanol[[#This Row],[preço]]*Etanol[[#This Row],[litros]]</f>
         <v>28.56</v>
       </c>
-      <c r="D15" s="150">
+      <c r="D15" s="144">
         <v>3.57</v>
       </c>
-      <c r="E15" s="153">
+      <c r="E15" s="147">
         <v>8</v>
       </c>
-      <c r="F15" s="154">
+      <c r="F15" s="148">
         <v>78273</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="151">
+      <c r="A16" s="145">
         <v>43388</v>
       </c>
-      <c r="B16" s="152"/>
-      <c r="C16" s="150">
+      <c r="B16" s="146"/>
+      <c r="C16" s="144">
         <f>Etanol[[#This Row],[preço]]*Etanol[[#This Row],[litros]]</f>
         <v>56</v>
       </c>
-      <c r="D16" s="150">
+      <c r="D16" s="144">
         <v>3.5</v>
       </c>
-      <c r="E16" s="153">
+      <c r="E16" s="147">
         <v>16</v>
       </c>
-      <c r="F16" s="154">
+      <c r="F16" s="148">
         <v>79364</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="151">
+      <c r="A17" s="145">
         <v>43393</v>
       </c>
-      <c r="B17" s="152"/>
-      <c r="C17" s="150">
+      <c r="B17" s="146"/>
+      <c r="C17" s="144">
         <f>Etanol[[#This Row],[preço]]*Etanol[[#This Row],[litros]]</f>
         <v>56.72</v>
       </c>
-      <c r="D17" s="150">
+      <c r="D17" s="144">
         <v>3.5449999999999999</v>
       </c>
-      <c r="E17" s="153">
+      <c r="E17" s="147">
         <v>16</v>
       </c>
-      <c r="F17" s="154">
+      <c r="F17" s="148">
         <v>79498</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="151">
+      <c r="A18" s="145">
         <v>43410</v>
       </c>
-      <c r="B18" s="152"/>
-      <c r="C18" s="150">
+      <c r="B18" s="146"/>
+      <c r="C18" s="144">
         <f>Etanol[[#This Row],[preço]]*Etanol[[#This Row],[litros]]</f>
         <v>57.44</v>
       </c>
-      <c r="D18" s="150">
+      <c r="D18" s="144">
         <v>3.59</v>
       </c>
-      <c r="E18" s="153">
+      <c r="E18" s="147">
         <v>16</v>
       </c>
-      <c r="F18" s="154">
+      <c r="F18" s="148">
         <v>79632</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="151">
+      <c r="A19" s="145">
         <v>43455</v>
       </c>
-      <c r="B19" s="152">
+      <c r="B19" s="146">
         <v>0.38194444444444442</v>
       </c>
-      <c r="C19" s="150">
+      <c r="C19" s="144">
         <f>Etanol[[#This Row],[preço]]*Etanol[[#This Row],[litros]]</f>
         <v>54.4</v>
       </c>
-      <c r="D19" s="150">
+      <c r="D19" s="144">
         <v>3.4</v>
       </c>
-      <c r="E19" s="153">
+      <c r="E19" s="147">
         <v>16</v>
       </c>
-      <c r="F19" s="154">
+      <c r="F19" s="148">
         <v>80148</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="151">
+      <c r="A20" s="145">
         <v>43467</v>
       </c>
-      <c r="B20" s="152">
+      <c r="B20" s="146">
         <v>0.4861111111111111</v>
       </c>
-      <c r="C20" s="150">
+      <c r="C20" s="144">
         <f>Etanol[[#This Row],[preço]]*Etanol[[#This Row],[litros]]</f>
         <v>54.24</v>
       </c>
-      <c r="D20" s="150">
+      <c r="D20" s="144">
         <v>3.39</v>
       </c>
-      <c r="E20" s="153">
+      <c r="E20" s="147">
         <v>16</v>
       </c>
-      <c r="F20" s="154">
+      <c r="F20" s="148">
         <v>81020</v>
       </c>
     </row>

--- a/Aurora.xlsx
+++ b/Aurora.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ec562523a0c953df/Documentos/planilhas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="6_{74847523-0B1B-4C18-AEEF-86C307F5E899}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{C1405C4B-942E-4722-936B-6CB9A84F7768}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="114_{06BF43D2-EAE6-441D-81AB-00E691AD3800}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{23AC8ADD-034C-4D0B-ACD3-A422DEF0B0A4}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3600" windowWidth="20490" windowHeight="7665" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3600" windowWidth="20490" windowHeight="7665" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2017.1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="viagens" sheetId="5" r:id="rId6"/>
     <sheet name="Etanol" sheetId="8" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191028" iterate="1" iterateCount="10"/>
+  <calcPr calcId="191028"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1169,11 +1169,630 @@
   </cellStyles>
   <dxfs count="92">
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Constantia"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Constantia"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Constantia"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Constantia"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1216,6 +1835,16 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1249,639 +1878,6 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Constantia"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Constantia"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Constantia"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Constantia"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
       <fill>
         <patternFill patternType="none">
@@ -1909,6 +1905,10 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2423,8 +2423,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{707C8E72-449F-434C-81D2-E6CAE60FDC64}" name="G_20184" displayName="G_20184" ref="A1:G8" tableBorderDxfId="91" dataCellStyle="Normal">
-  <autoFilter ref="A1:G8" xr:uid="{1BB8EF35-A1C5-4DA1-AE25-87B25A5E3E01}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{707C8E72-449F-434C-81D2-E6CAE60FDC64}" name="G_20184" displayName="G_20184" ref="A1:G9" tableBorderDxfId="91" dataCellStyle="Normal">
+  <autoFilter ref="A1:G9" xr:uid="{1BB8EF35-A1C5-4DA1-AE25-87B25A5E3E01}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{359F37B9-9617-418F-81F4-00F8F142D6C9}" name="data" dataDxfId="90" totalsRowDxfId="89" dataCellStyle="Normal"/>
     <tableColumn id="2" xr3:uid="{5B407B50-7529-43FD-BA94-ADB3D3459328}" name="km ini" totalsRowFunction="min" dataDxfId="88" totalsRowDxfId="87" dataCellStyle="Normal"/>
@@ -2495,26 +2495,26 @@
     <sortCondition ref="A1:A24"/>
   </sortState>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{943F9AB6-E0CE-4D16-8D0D-D6CD20DB4E3D}" name="começo/fim da viagem" totalsRowLabel="22/12/2016" dataDxfId="42" totalsRowDxfId="0" dataCellStyle="Normal"/>
-    <tableColumn id="8" xr3:uid="{8B7A80CD-1D41-4286-9AE6-30D2E4669859}" name="hora ini" totalsRowFunction="average" dataDxfId="41" totalsRowDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{F79333F5-CCDB-4E3B-A65F-7954CDBED5AC}" name="hora fim" totalsRowFunction="average" dataDxfId="40" totalsRowDxfId="2" dataCellStyle="Normal"/>
-    <tableColumn id="14" xr3:uid="{595493D2-D75D-41DE-91AD-11281D062CA9}" name="horas" totalsRowFunction="average" dataDxfId="39" totalsRowDxfId="3">
+    <tableColumn id="1" xr3:uid="{943F9AB6-E0CE-4D16-8D0D-D6CD20DB4E3D}" name="começo/fim da viagem" totalsRowLabel="22/12/2016" dataDxfId="42" totalsRowDxfId="41" dataCellStyle="Normal"/>
+    <tableColumn id="8" xr3:uid="{8B7A80CD-1D41-4286-9AE6-30D2E4669859}" name="hora ini" totalsRowFunction="average" dataDxfId="40" totalsRowDxfId="39"/>
+    <tableColumn id="2" xr3:uid="{F79333F5-CCDB-4E3B-A65F-7954CDBED5AC}" name="hora fim" totalsRowFunction="average" dataDxfId="38" totalsRowDxfId="37" dataCellStyle="Normal"/>
+    <tableColumn id="14" xr3:uid="{595493D2-D75D-41DE-91AD-11281D062CA9}" name="horas" totalsRowFunction="average" dataDxfId="36" totalsRowDxfId="35">
       <calculatedColumnFormula>Viagens[[#This Row],[hora fim]]-Viagens[[#This Row],[hora ini]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{254E01DF-E2FE-4492-9476-CAE2652CB982}" name="km ini" totalsRowFunction="min" dataDxfId="38" totalsRowDxfId="4" dataCellStyle="Normal"/>
-    <tableColumn id="4" xr3:uid="{B85A4F29-C8A5-4E05-A6C0-542D9DF6CB11}" name="km fim" totalsRowFunction="average" dataDxfId="37" totalsRowDxfId="5" dataCellStyle="Normal"/>
-    <tableColumn id="11" xr3:uid="{B2109811-F1C6-4D1C-9E75-85349990007B}" name="km" totalsRowFunction="average" dataDxfId="36" totalsRowDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{A504539A-42D5-4734-99A3-1C79CBD10ADD}" name="L ini" totalsRowFunction="average" dataDxfId="35" totalsRowDxfId="7" dataCellStyle="Normal"/>
-    <tableColumn id="6" xr3:uid="{5168ADB9-DA6A-4473-9847-62692963BE45}" name="L fim" totalsRowFunction="average" dataDxfId="34" totalsRowDxfId="8" dataCellStyle="Normal"/>
-    <tableColumn id="7" xr3:uid="{7A851BFB-669C-4DCC-AB14-044369ECFE05}" name="L" totalsRowFunction="average" dataDxfId="33" totalsRowDxfId="9" dataCellStyle="Normal">
+    <tableColumn id="3" xr3:uid="{254E01DF-E2FE-4492-9476-CAE2652CB982}" name="km ini" totalsRowFunction="min" dataDxfId="34" totalsRowDxfId="33" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{B85A4F29-C8A5-4E05-A6C0-542D9DF6CB11}" name="km fim" totalsRowFunction="average" dataDxfId="32" totalsRowDxfId="31" dataCellStyle="Normal"/>
+    <tableColumn id="11" xr3:uid="{B2109811-F1C6-4D1C-9E75-85349990007B}" name="km" totalsRowFunction="average" dataDxfId="30" totalsRowDxfId="29"/>
+    <tableColumn id="5" xr3:uid="{A504539A-42D5-4734-99A3-1C79CBD10ADD}" name="L ini" totalsRowFunction="average" dataDxfId="28" totalsRowDxfId="27" dataCellStyle="Normal"/>
+    <tableColumn id="6" xr3:uid="{5168ADB9-DA6A-4473-9847-62692963BE45}" name="L fim" totalsRowFunction="average" dataDxfId="26" totalsRowDxfId="25" dataCellStyle="Normal"/>
+    <tableColumn id="7" xr3:uid="{7A851BFB-669C-4DCC-AB14-044369ECFE05}" name="L" totalsRowFunction="average" dataDxfId="24" totalsRowDxfId="23" dataCellStyle="Normal">
       <calculatedColumnFormula>Viagens[[#This Row],[L ini]]-Viagens[[#This Row],[L fim]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{B57F3DE7-B27D-49F3-962C-E191C7F39D71}" name="consumo" totalsRowFunction="average" dataDxfId="32" totalsRowDxfId="10" dataCellStyle="Normal"/>
-    <tableColumn id="10" xr3:uid="{DF9137D7-756E-494C-BCFA-15BA5349D04E}" name="preço" totalsRowFunction="average" dataDxfId="31" totalsRowDxfId="11" dataCellStyle="Normal"/>
-    <tableColumn id="12" xr3:uid="{9BBF57AB-EB30-47D6-BE16-889D42E241F3}" name="custo km" totalsRowFunction="average" dataDxfId="30" totalsRowDxfId="12" dataCellStyle="Normal">
+    <tableColumn id="9" xr3:uid="{B57F3DE7-B27D-49F3-962C-E191C7F39D71}" name="consumo" totalsRowFunction="average" dataDxfId="22" totalsRowDxfId="21" dataCellStyle="Normal"/>
+    <tableColumn id="10" xr3:uid="{DF9137D7-756E-494C-BCFA-15BA5349D04E}" name="preço" totalsRowFunction="average" dataDxfId="20" totalsRowDxfId="19" dataCellStyle="Normal"/>
+    <tableColumn id="12" xr3:uid="{9BBF57AB-EB30-47D6-BE16-889D42E241F3}" name="custo km" totalsRowFunction="average" dataDxfId="18" totalsRowDxfId="17" dataCellStyle="Normal">
       <calculatedColumnFormula>Viagens[[#This Row],[preço]]/Viagens[[#This Row],[consumo]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{1573DC55-E347-4C35-96EE-F132F6B74719}" name="custo total" totalsRowFunction="average" dataDxfId="29" totalsRowDxfId="13" dataCellStyle="Normal">
+    <tableColumn id="13" xr3:uid="{1573DC55-E347-4C35-96EE-F132F6B74719}" name="custo total" totalsRowFunction="average" dataDxfId="16" totalsRowDxfId="15" dataCellStyle="Normal">
       <calculatedColumnFormula>Viagens[[#This Row],[L]]*Viagens[[#This Row],[preço]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2523,17 +2523,17 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{137CCE77-ADDB-4C8C-995A-CD5917FE5216}" name="Etanol" displayName="Etanol" ref="A1:F20" headerRowDxfId="28" dataDxfId="27" totalsRowDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{137CCE77-ADDB-4C8C-995A-CD5917FE5216}" name="Etanol" displayName="Etanol" ref="A1:F20" headerRowDxfId="14" dataDxfId="13" totalsRowDxfId="12">
   <autoFilter ref="A1:F20" xr:uid="{BA0B08BB-754D-4819-AC93-39A0554A2FF6}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{FC48604D-710C-4BBA-B35F-209384F01637}" name="data" dataDxfId="25" totalsRowDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{A139AE0A-C5DF-448F-8E20-931AD1CD8489}" name="hora" totalsRowFunction="average" dataDxfId="23" totalsRowDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{69037EB3-F18F-4F01-86AC-2F03E2616671}" name="valor" totalsRowFunction="sum" dataDxfId="21" totalsRowDxfId="20">
+    <tableColumn id="1" xr3:uid="{FC48604D-710C-4BBA-B35F-209384F01637}" name="data" dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{A139AE0A-C5DF-448F-8E20-931AD1CD8489}" name="hora" totalsRowFunction="average" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{69037EB3-F18F-4F01-86AC-2F03E2616671}" name="valor" totalsRowFunction="sum" dataDxfId="7" totalsRowDxfId="6">
       <calculatedColumnFormula>Etanol[[#This Row],[preço]]*Etanol[[#This Row],[litros]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{D7C46694-E6CD-4C31-9617-E21EBBD7D56E}" name="preço" totalsRowFunction="average" dataDxfId="19" totalsRowDxfId="18"/>
-    <tableColumn id="7" xr3:uid="{F099CEFF-1A72-4F01-8112-F305B04A303E}" name="litros" totalsRowFunction="sum" dataDxfId="17" totalsRowDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{539451E7-6D16-4B47-A7EF-A1E0AFF83B9A}" name="km" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{D7C46694-E6CD-4C31-9617-E21EBBD7D56E}" name="preço" totalsRowFunction="average" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{F099CEFF-1A72-4F01-8112-F305B04A303E}" name="litros" totalsRowFunction="sum" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{539451E7-6D16-4B47-A7EF-A1E0AFF83B9A}" name="km" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -3777,7 +3777,7 @@
   <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4519,10 +4519,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82D5A34F-EB28-41C8-A1E3-151E9E71FB07}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4563,176 +4563,200 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="98">
-        <v>42991</v>
-      </c>
-      <c r="B2" s="154">
+        <v>42970</v>
+      </c>
+      <c r="B2" s="154"/>
+      <c r="C2" s="154">
         <v>69437</v>
-      </c>
-      <c r="C2" s="155">
-        <v>69611</v>
       </c>
       <c r="D2" s="127">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
-        <v>174</v>
+        <v>69437</v>
       </c>
       <c r="E2" s="125">
         <v>80</v>
       </c>
       <c r="F2" s="125">
-        <v>4.1900000000000004</v>
+        <v>3.89</v>
       </c>
       <c r="G2" s="126">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
-        <v>19.093078758949879</v>
+        <v>20.565552699228792</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="98">
-        <v>43020</v>
-      </c>
-      <c r="B3" s="155">
-        <v>69760</v>
-      </c>
-      <c r="C3" s="154">
-        <v>69879</v>
+        <v>42991</v>
+      </c>
+      <c r="B3" s="154">
+        <f>C2</f>
+        <v>69437</v>
+      </c>
+      <c r="C3" s="155">
+        <v>69611</v>
       </c>
       <c r="D3" s="127">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
-        <v>119</v>
+        <v>174</v>
       </c>
       <c r="E3" s="125">
         <v>80</v>
       </c>
       <c r="F3" s="125">
-        <v>3.9489999999999998</v>
+        <v>4.1900000000000004</v>
       </c>
       <c r="G3" s="126">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
-        <v>20.258293238794632</v>
+        <v>19.093078758949879</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="98">
-        <v>43034</v>
-      </c>
-      <c r="B4" s="154">
-        <f>C3</f>
+        <v>43020</v>
+      </c>
+      <c r="B4" s="155">
+        <v>69760</v>
+      </c>
+      <c r="C4" s="154">
         <v>69879</v>
-      </c>
-      <c r="C4" s="124">
-        <v>70001</v>
       </c>
       <c r="D4" s="127">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E4" s="125">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="F4" s="125">
-        <v>3.9</v>
+        <v>3.9489999999999998</v>
       </c>
       <c r="G4" s="126">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
-        <v>30.76923076923077</v>
+        <v>20.258293238794632</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="98">
-        <v>43042</v>
-      </c>
-      <c r="B5" s="134">
-        <v>70379</v>
+        <v>43034</v>
+      </c>
+      <c r="B5" s="154">
+        <f>C4</f>
+        <v>69879</v>
       </c>
       <c r="C5" s="124">
-        <v>70431</v>
+        <v>70001</v>
       </c>
       <c r="D5" s="127">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
-        <v>52</v>
+        <v>122</v>
       </c>
       <c r="E5" s="125">
-        <v>158.99</v>
+        <v>120</v>
       </c>
       <c r="F5" s="125">
-        <v>4.09</v>
+        <v>3.9</v>
       </c>
       <c r="G5" s="126">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
-        <v>38.872860635696824</v>
+        <v>30.76923076923077</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="98">
-        <v>43057</v>
-      </c>
-      <c r="B6" s="124">
-        <v>70809</v>
-      </c>
-      <c r="C6" s="155">
-        <v>70965</v>
+        <v>43042</v>
+      </c>
+      <c r="B6" s="134">
+        <v>70379</v>
+      </c>
+      <c r="C6" s="124">
+        <v>70431</v>
       </c>
       <c r="D6" s="127">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
-        <v>156</v>
+        <v>52</v>
       </c>
       <c r="E6" s="125">
-        <v>80</v>
+        <v>158.99</v>
       </c>
       <c r="F6" s="125">
-        <v>4.17</v>
+        <v>4.09</v>
       </c>
       <c r="G6" s="126">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
-        <v>19.18465227817746</v>
+        <v>38.872860635696824</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="98">
-        <v>43087</v>
-      </c>
-      <c r="B7" s="155">
-        <v>71109</v>
-      </c>
-      <c r="C7" s="124">
-        <v>71219</v>
+        <v>43057</v>
+      </c>
+      <c r="B7" s="124">
+        <v>70809</v>
+      </c>
+      <c r="C7" s="155">
+        <v>70965</v>
       </c>
       <c r="D7" s="127">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
-        <v>110</v>
+        <v>156</v>
       </c>
       <c r="E7" s="125">
-        <v>120.06</v>
+        <v>80</v>
       </c>
       <c r="F7" s="125">
-        <v>4.1790000000000003</v>
+        <v>4.17</v>
       </c>
       <c r="G7" s="126">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
-        <v>28.729361091170134</v>
+        <v>19.18465227817746</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="98">
-        <v>43093</v>
-      </c>
-      <c r="B8" s="124">
-        <v>71683</v>
-      </c>
-      <c r="C8" s="123">
-        <v>71872</v>
+        <v>43087</v>
+      </c>
+      <c r="B8" s="155">
+        <v>71109</v>
+      </c>
+      <c r="C8" s="124">
+        <v>71219</v>
       </c>
       <c r="D8" s="127">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
+        <v>110</v>
+      </c>
+      <c r="E8" s="125">
+        <v>120.06</v>
+      </c>
+      <c r="F8" s="125">
+        <v>4.1790000000000003</v>
+      </c>
+      <c r="G8" s="126">
+        <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
+        <v>28.729361091170134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="98">
+        <v>43093</v>
+      </c>
+      <c r="B9" s="124">
+        <v>71683</v>
+      </c>
+      <c r="C9" s="123">
+        <v>71872</v>
+      </c>
+      <c r="D9" s="127">
+        <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
         <v>189</v>
       </c>
-      <c r="E8" s="125">
+      <c r="E9" s="125">
         <v>120</v>
       </c>
-      <c r="F8" s="125">
+      <c r="F9" s="125">
         <v>4.17</v>
       </c>
-      <c r="G8" s="126">
+      <c r="G9" s="126">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>28.776978417266186</v>
       </c>
@@ -5759,7 +5783,7 @@
   </sheetPr>
   <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>

--- a/Aurora.xlsx
+++ b/Aurora.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ec562523a0c953df/Documentos/planilhas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="114_{06BF43D2-EAE6-441D-81AB-00E691AD3800}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{23AC8ADD-034C-4D0B-ACD3-A422DEF0B0A4}"/>
+  <xr:revisionPtr revIDLastSave="49" documentId="6_{2D352E4E-2D80-4156-B972-103D246BDE74}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{2F752175-1CAA-4F6D-8A13-51AA37FFCEB7}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="3600" windowWidth="20490" windowHeight="7665" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2423,8 +2423,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{707C8E72-449F-434C-81D2-E6CAE60FDC64}" name="G_20184" displayName="G_20184" ref="A1:G9" tableBorderDxfId="91" dataCellStyle="Normal">
-  <autoFilter ref="A1:G9" xr:uid="{1BB8EF35-A1C5-4DA1-AE25-87B25A5E3E01}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{707C8E72-449F-434C-81D2-E6CAE60FDC64}" name="G_20184" displayName="G_20184" ref="A1:G13" tableBorderDxfId="91" dataCellStyle="Normal">
+  <autoFilter ref="A1:G13" xr:uid="{1BB8EF35-A1C5-4DA1-AE25-87B25A5E3E01}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{359F37B9-9617-418F-81F4-00F8F142D6C9}" name="data" dataDxfId="90" totalsRowDxfId="89" dataCellStyle="Normal"/>
     <tableColumn id="2" xr3:uid="{5B407B50-7529-43FD-BA94-ADB3D3459328}" name="km ini" totalsRowFunction="min" dataDxfId="88" totalsRowDxfId="87" dataCellStyle="Normal"/>
@@ -2839,7 +2839,7 @@
   <dimension ref="A1:V21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3777,7 +3777,7 @@
   <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="B3" sqref="B3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4519,10 +4519,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82D5A34F-EB28-41C8-A1E3-151E9E71FB07}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4563,200 +4563,303 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="98">
-        <v>42970</v>
-      </c>
-      <c r="B2" s="154"/>
-      <c r="C2" s="154">
-        <v>69437</v>
+        <v>42940</v>
+      </c>
+      <c r="B2" s="154">
+        <v>67245</v>
+      </c>
+      <c r="C2" s="155">
+        <v>67312</v>
       </c>
       <c r="D2" s="127">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
-        <v>69437</v>
+        <v>67</v>
       </c>
       <c r="E2" s="125">
-        <v>80</v>
+        <v>170</v>
       </c>
       <c r="F2" s="125">
-        <v>3.89</v>
+        <v>4</v>
       </c>
       <c r="G2" s="126">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
-        <v>20.565552699228792</v>
+        <v>42.5</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="98">
-        <v>42991</v>
-      </c>
-      <c r="B3" s="154">
-        <f>C2</f>
-        <v>69437</v>
-      </c>
-      <c r="C3" s="155">
-        <v>69611</v>
+        <v>42946</v>
+      </c>
+      <c r="B3" s="155">
+        <v>67937</v>
+      </c>
+      <c r="C3" s="124">
+        <v>68001</v>
       </c>
       <c r="D3" s="127">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
-        <v>174</v>
+        <v>64</v>
       </c>
       <c r="E3" s="125">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="F3" s="125">
-        <v>4.1900000000000004</v>
+        <v>3.9</v>
       </c>
       <c r="G3" s="126">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
-        <v>19.093078758949879</v>
+        <v>30.76923076923077</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="98">
-        <v>43020</v>
-      </c>
-      <c r="B4" s="155">
-        <v>69760</v>
+        <v>42950</v>
+      </c>
+      <c r="B4" s="124">
+        <v>68729</v>
       </c>
       <c r="C4" s="154">
-        <v>69879</v>
+        <v>68792</v>
       </c>
       <c r="D4" s="127">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
-        <v>119</v>
+        <v>63</v>
       </c>
       <c r="E4" s="125">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="F4" s="125">
-        <v>3.9489999999999998</v>
+        <v>4.1900000000000004</v>
       </c>
       <c r="G4" s="126">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
-        <v>20.258293238794632</v>
+        <v>35.799522673031021</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="98">
-        <v>43034</v>
+        <v>42961</v>
       </c>
       <c r="B5" s="154">
         <f>C4</f>
-        <v>69879</v>
+        <v>68792</v>
       </c>
       <c r="C5" s="124">
-        <v>70001</v>
+        <v>68995</v>
       </c>
       <c r="D5" s="127">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
-        <v>122</v>
+        <v>203</v>
       </c>
       <c r="E5" s="125">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="F5" s="125">
-        <v>3.9</v>
+        <v>4.1900000000000004</v>
       </c>
       <c r="G5" s="126">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
-        <v>30.76923076923077</v>
+        <v>33.41288782816229</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="98">
-        <v>43042</v>
-      </c>
-      <c r="B6" s="134">
-        <v>70379</v>
-      </c>
-      <c r="C6" s="124">
-        <v>70431</v>
+        <v>42970</v>
+      </c>
+      <c r="B6" s="124">
+        <v>69370</v>
+      </c>
+      <c r="C6" s="154">
+        <v>69437</v>
       </c>
       <c r="D6" s="127">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="E6" s="125">
-        <v>158.99</v>
+        <v>80</v>
       </c>
       <c r="F6" s="125">
-        <v>4.09</v>
+        <v>3.89</v>
       </c>
       <c r="G6" s="126">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
-        <v>38.872860635696824</v>
+        <v>20.565552699228792</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="98">
-        <v>43057</v>
-      </c>
-      <c r="B7" s="124">
-        <v>70809</v>
+        <v>42991</v>
+      </c>
+      <c r="B7" s="154">
+        <f>C6</f>
+        <v>69437</v>
       </c>
       <c r="C7" s="155">
-        <v>70965</v>
+        <v>69611</v>
       </c>
       <c r="D7" s="127">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="E7" s="125">
         <v>80</v>
       </c>
       <c r="F7" s="125">
-        <v>4.17</v>
+        <v>4.1900000000000004</v>
       </c>
       <c r="G7" s="126">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
-        <v>19.18465227817746</v>
+        <v>19.093078758949879</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="98">
-        <v>43087</v>
+        <v>43020</v>
       </c>
       <c r="B8" s="155">
-        <v>71109</v>
-      </c>
-      <c r="C8" s="124">
-        <v>71219</v>
+        <v>69760</v>
+      </c>
+      <c r="C8" s="154">
+        <v>69879</v>
       </c>
       <c r="D8" s="127">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="E8" s="125">
-        <v>120.06</v>
+        <v>80</v>
       </c>
       <c r="F8" s="125">
-        <v>4.1790000000000003</v>
+        <v>3.9489999999999998</v>
       </c>
       <c r="G8" s="126">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
-        <v>28.729361091170134</v>
+        <v>20.258293238794632</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="98">
-        <v>43093</v>
-      </c>
-      <c r="B9" s="124">
-        <v>71683</v>
-      </c>
-      <c r="C9" s="123">
-        <v>71872</v>
+        <v>43034</v>
+      </c>
+      <c r="B9" s="154">
+        <f>C8</f>
+        <v>69879</v>
+      </c>
+      <c r="C9" s="124">
+        <v>70001</v>
       </c>
       <c r="D9" s="127">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
-        <v>189</v>
+        <v>122</v>
       </c>
       <c r="E9" s="125">
         <v>120</v>
       </c>
       <c r="F9" s="125">
+        <v>3.9</v>
+      </c>
+      <c r="G9" s="126">
+        <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
+        <v>30.76923076923077</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="98">
+        <v>43042</v>
+      </c>
+      <c r="B10" s="134">
+        <v>70379</v>
+      </c>
+      <c r="C10" s="124">
+        <v>70431</v>
+      </c>
+      <c r="D10" s="127">
+        <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
+        <v>52</v>
+      </c>
+      <c r="E10" s="125">
+        <v>158.99</v>
+      </c>
+      <c r="F10" s="125">
+        <v>4.09</v>
+      </c>
+      <c r="G10" s="126">
+        <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
+        <v>38.872860635696824</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="98">
+        <v>43057</v>
+      </c>
+      <c r="B11" s="124">
+        <v>70809</v>
+      </c>
+      <c r="C11" s="155">
+        <v>70965</v>
+      </c>
+      <c r="D11" s="127">
+        <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
+        <v>156</v>
+      </c>
+      <c r="E11" s="125">
+        <v>80</v>
+      </c>
+      <c r="F11" s="125">
         <v>4.17</v>
       </c>
-      <c r="G9" s="126">
+      <c r="G11" s="126">
+        <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
+        <v>19.18465227817746</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="98">
+        <v>43087</v>
+      </c>
+      <c r="B12" s="155">
+        <v>71109</v>
+      </c>
+      <c r="C12" s="124">
+        <v>71219</v>
+      </c>
+      <c r="D12" s="127">
+        <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
+        <v>110</v>
+      </c>
+      <c r="E12" s="125">
+        <v>120.06</v>
+      </c>
+      <c r="F12" s="125">
+        <v>4.1790000000000003</v>
+      </c>
+      <c r="G12" s="126">
+        <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
+        <v>28.729361091170134</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="98">
+        <v>43093</v>
+      </c>
+      <c r="B13" s="124">
+        <v>71683</v>
+      </c>
+      <c r="C13" s="123">
+        <v>71872</v>
+      </c>
+      <c r="D13" s="127">
+        <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
+        <v>189</v>
+      </c>
+      <c r="E13" s="125">
+        <v>120</v>
+      </c>
+      <c r="F13" s="125">
+        <v>4.17</v>
+      </c>
+      <c r="G13" s="126">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>28.776978417266186</v>
       </c>
@@ -4775,7 +4878,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5784,7 +5887,7 @@
   <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Aurora.xlsx
+++ b/Aurora.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ec562523a0c953df/Documentos/planilhas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="49" documentId="6_{2D352E4E-2D80-4156-B972-103D246BDE74}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{2F752175-1CAA-4F6D-8A13-51AA37FFCEB7}"/>
+  <xr:revisionPtr revIDLastSave="43" documentId="6_{BE551580-2F1B-4E1B-B6CC-00E0C1905560}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{3BDEAAA3-56AA-4240-8CF1-5753343EA7E2}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="3600" windowWidth="20490" windowHeight="7665" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -394,7 +394,7 @@
     <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="167" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -554,6 +554,12 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -723,7 +729,7 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="157">
+  <cellXfs count="159">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
@@ -1157,6 +1163,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="20% - Ênfase4" xfId="3" builtinId="42"/>
@@ -2423,8 +2431,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{707C8E72-449F-434C-81D2-E6CAE60FDC64}" name="G_20184" displayName="G_20184" ref="A1:G13" tableBorderDxfId="91" dataCellStyle="Normal">
-  <autoFilter ref="A1:G13" xr:uid="{1BB8EF35-A1C5-4DA1-AE25-87B25A5E3E01}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{707C8E72-449F-434C-81D2-E6CAE60FDC64}" name="G_20184" displayName="G_20184" ref="A1:G17" tableBorderDxfId="91" dataCellStyle="Normal">
+  <autoFilter ref="A1:G17" xr:uid="{1BB8EF35-A1C5-4DA1-AE25-87B25A5E3E01}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{359F37B9-9617-418F-81F4-00F8F142D6C9}" name="data" dataDxfId="90" totalsRowDxfId="89" dataCellStyle="Normal"/>
     <tableColumn id="2" xr3:uid="{5B407B50-7529-43FD-BA94-ADB3D3459328}" name="km ini" totalsRowFunction="min" dataDxfId="88" totalsRowDxfId="87" dataCellStyle="Normal"/>
@@ -2839,7 +2847,7 @@
   <dimension ref="A1:V21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+      <selection activeCell="H13" sqref="H13:I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3777,7 +3785,7 @@
   <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:C3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4519,10 +4527,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82D5A34F-EB28-41C8-A1E3-151E9E71FB07}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E3" sqref="E3:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4562,304 +4570,396 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="98">
-        <v>42940</v>
-      </c>
-      <c r="B2" s="154">
-        <v>67245</v>
-      </c>
-      <c r="C2" s="155">
-        <v>67312</v>
-      </c>
+      <c r="A2" s="98"/>
+      <c r="B2" s="154"/>
+      <c r="C2" s="157"/>
       <c r="D2" s="127">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="125"/>
+      <c r="F2" s="125"/>
+      <c r="G2" s="126" t="e">
+        <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="98">
+        <v>42880</v>
+      </c>
+      <c r="B3" s="154">
+        <v>66894</v>
+      </c>
+      <c r="C3" s="155">
+        <v>67088</v>
+      </c>
+      <c r="D3" s="127">
+        <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
+        <v>194</v>
+      </c>
+      <c r="E3" s="125">
+        <v>80</v>
+      </c>
+      <c r="F3" s="125">
+        <v>3.89</v>
+      </c>
+      <c r="G3" s="126">
+        <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
+        <v>20.565552699228792</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="98">
+        <v>42907</v>
+      </c>
+      <c r="B4" s="155">
+        <v>67245</v>
+      </c>
+      <c r="C4" s="157">
+        <v>67312</v>
+      </c>
+      <c r="D4" s="127">
+        <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
         <v>67</v>
       </c>
-      <c r="E2" s="125">
+      <c r="E4" s="125">
+        <v>80</v>
+      </c>
+      <c r="F4" s="125">
+        <v>3.84</v>
+      </c>
+      <c r="G4" s="126">
+        <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
+        <v>20.833333333333336</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="98">
+        <v>42935</v>
+      </c>
+      <c r="B5" s="154">
+        <f t="shared" ref="B3:B5" si="0">C4</f>
+        <v>67312</v>
+      </c>
+      <c r="C5" s="157">
+        <v>67477</v>
+      </c>
+      <c r="D5" s="127">
+        <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
+        <v>165</v>
+      </c>
+      <c r="E5" s="125">
+        <v>120</v>
+      </c>
+      <c r="F5" s="125">
+        <v>3.62</v>
+      </c>
+      <c r="G5" s="126">
+        <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
+        <v>33.149171270718234</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="98">
+        <v>42937</v>
+      </c>
+      <c r="B6" s="154">
+        <f>C5</f>
+        <v>67477</v>
+      </c>
+      <c r="C6" s="158">
+        <v>67538</v>
+      </c>
+      <c r="D6" s="127">
+        <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
+        <v>61</v>
+      </c>
+      <c r="E6" s="125">
         <v>170</v>
       </c>
-      <c r="F2" s="125">
+      <c r="F6" s="125">
         <v>4</v>
       </c>
-      <c r="G2" s="126">
+      <c r="G6" s="126">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>42.5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="98">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="98">
         <v>42946</v>
       </c>
-      <c r="B3" s="155">
+      <c r="B7" s="158">
         <v>67937</v>
       </c>
-      <c r="C3" s="124">
+      <c r="C7" s="124">
         <v>68001</v>
       </c>
-      <c r="D3" s="127">
+      <c r="D7" s="127">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
         <v>64</v>
       </c>
-      <c r="E3" s="125">
+      <c r="E7" s="125">
         <v>120</v>
       </c>
-      <c r="F3" s="125">
+      <c r="F7" s="125">
         <v>3.9</v>
       </c>
-      <c r="G3" s="126">
+      <c r="G7" s="126">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>30.76923076923077</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="98">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="98">
         <v>42950</v>
       </c>
-      <c r="B4" s="124">
+      <c r="B8" s="124">
         <v>68729</v>
       </c>
-      <c r="C4" s="154">
+      <c r="C8" s="154">
         <v>68792</v>
       </c>
-      <c r="D4" s="127">
+      <c r="D8" s="127">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
         <v>63</v>
       </c>
-      <c r="E4" s="125">
+      <c r="E8" s="125">
         <v>150</v>
       </c>
-      <c r="F4" s="125">
+      <c r="F8" s="125">
         <v>4.1900000000000004</v>
       </c>
-      <c r="G4" s="126">
+      <c r="G8" s="126">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>35.799522673031021</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="98">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="98">
         <v>42961</v>
       </c>
-      <c r="B5" s="154">
-        <f>C4</f>
+      <c r="B9" s="154">
+        <f>C8</f>
         <v>68792</v>
       </c>
-      <c r="C5" s="124">
+      <c r="C9" s="124">
         <v>68995</v>
       </c>
-      <c r="D5" s="127">
+      <c r="D9" s="127">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
         <v>203</v>
       </c>
-      <c r="E5" s="125">
+      <c r="E9" s="125">
         <v>140</v>
       </c>
-      <c r="F5" s="125">
+      <c r="F9" s="125">
         <v>4.1900000000000004</v>
       </c>
-      <c r="G5" s="126">
+      <c r="G9" s="126">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>33.41288782816229</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="98">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="98">
         <v>42970</v>
       </c>
-      <c r="B6" s="124">
+      <c r="B10" s="124">
         <v>69370</v>
       </c>
-      <c r="C6" s="154">
+      <c r="C10" s="154">
         <v>69437</v>
       </c>
-      <c r="D6" s="127">
+      <c r="D10" s="127">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
         <v>67</v>
       </c>
-      <c r="E6" s="125">
+      <c r="E10" s="125">
         <v>80</v>
       </c>
-      <c r="F6" s="125">
+      <c r="F10" s="125">
         <v>3.89</v>
       </c>
-      <c r="G6" s="126">
+      <c r="G10" s="126">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>20.565552699228792</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="98">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="98">
         <v>42991</v>
       </c>
-      <c r="B7" s="154">
-        <f>C6</f>
+      <c r="B11" s="154">
+        <f>C10</f>
         <v>69437</v>
       </c>
-      <c r="C7" s="155">
+      <c r="C11" s="155">
         <v>69611</v>
       </c>
-      <c r="D7" s="127">
+      <c r="D11" s="127">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
         <v>174</v>
       </c>
-      <c r="E7" s="125">
+      <c r="E11" s="125">
         <v>80</v>
       </c>
-      <c r="F7" s="125">
+      <c r="F11" s="125">
         <v>4.1900000000000004</v>
       </c>
-      <c r="G7" s="126">
+      <c r="G11" s="126">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>19.093078758949879</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="98">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="98">
         <v>43020</v>
       </c>
-      <c r="B8" s="155">
+      <c r="B12" s="155">
         <v>69760</v>
       </c>
-      <c r="C8" s="154">
+      <c r="C12" s="154">
         <v>69879</v>
       </c>
-      <c r="D8" s="127">
+      <c r="D12" s="127">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
         <v>119</v>
       </c>
-      <c r="E8" s="125">
+      <c r="E12" s="125">
         <v>80</v>
       </c>
-      <c r="F8" s="125">
+      <c r="F12" s="125">
         <v>3.9489999999999998</v>
       </c>
-      <c r="G8" s="126">
+      <c r="G12" s="126">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>20.258293238794632</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="98">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="98">
         <v>43034</v>
       </c>
-      <c r="B9" s="154">
-        <f>C8</f>
+      <c r="B13" s="154">
+        <f>C12</f>
         <v>69879</v>
       </c>
-      <c r="C9" s="124">
+      <c r="C13" s="124">
         <v>70001</v>
       </c>
-      <c r="D9" s="127">
+      <c r="D13" s="127">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
         <v>122</v>
       </c>
-      <c r="E9" s="125">
+      <c r="E13" s="125">
         <v>120</v>
       </c>
-      <c r="F9" s="125">
+      <c r="F13" s="125">
         <v>3.9</v>
       </c>
-      <c r="G9" s="126">
+      <c r="G13" s="126">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>30.76923076923077</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="98">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="98">
         <v>43042</v>
       </c>
-      <c r="B10" s="134">
+      <c r="B14" s="134">
         <v>70379</v>
       </c>
-      <c r="C10" s="124">
+      <c r="C14" s="124">
         <v>70431</v>
       </c>
-      <c r="D10" s="127">
+      <c r="D14" s="127">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
         <v>52</v>
       </c>
-      <c r="E10" s="125">
+      <c r="E14" s="125">
         <v>158.99</v>
       </c>
-      <c r="F10" s="125">
+      <c r="F14" s="125">
         <v>4.09</v>
       </c>
-      <c r="G10" s="126">
+      <c r="G14" s="126">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>38.872860635696824</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="98">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="98">
         <v>43057</v>
       </c>
-      <c r="B11" s="124">
+      <c r="B15" s="124">
         <v>70809</v>
       </c>
-      <c r="C11" s="155">
+      <c r="C15" s="155">
         <v>70965</v>
       </c>
-      <c r="D11" s="127">
+      <c r="D15" s="127">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
         <v>156</v>
       </c>
-      <c r="E11" s="125">
+      <c r="E15" s="125">
         <v>80</v>
       </c>
-      <c r="F11" s="125">
+      <c r="F15" s="125">
         <v>4.17</v>
       </c>
-      <c r="G11" s="126">
+      <c r="G15" s="126">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>19.18465227817746</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="98">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="98">
         <v>43087</v>
       </c>
-      <c r="B12" s="155">
+      <c r="B16" s="155">
         <v>71109</v>
       </c>
-      <c r="C12" s="124">
+      <c r="C16" s="124">
         <v>71219</v>
       </c>
-      <c r="D12" s="127">
+      <c r="D16" s="127">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
         <v>110</v>
       </c>
-      <c r="E12" s="125">
+      <c r="E16" s="125">
         <v>120.06</v>
       </c>
-      <c r="F12" s="125">
+      <c r="F16" s="125">
         <v>4.1790000000000003</v>
       </c>
-      <c r="G12" s="126">
+      <c r="G16" s="126">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>28.729361091170134</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="98">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="98">
         <v>43093</v>
       </c>
-      <c r="B13" s="124">
+      <c r="B17" s="124">
         <v>71683</v>
       </c>
-      <c r="C13" s="123">
+      <c r="C17" s="123">
         <v>71872</v>
       </c>
-      <c r="D13" s="127">
+      <c r="D17" s="127">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
         <v>189</v>
       </c>
-      <c r="E13" s="125">
+      <c r="E17" s="125">
         <v>120</v>
       </c>
-      <c r="F13" s="125">
+      <c r="F17" s="125">
         <v>4.17</v>
       </c>
-      <c r="G13" s="126">
+      <c r="G17" s="126">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>28.776978417266186</v>
       </c>
@@ -4878,7 +4978,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Aurora.xlsx
+++ b/Aurora.xlsx
@@ -8,18 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ec562523a0c953df/Documentos/planilhas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="43" documentId="6_{BE551580-2F1B-4E1B-B6CC-00E0C1905560}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{3BDEAAA3-56AA-4240-8CF1-5753343EA7E2}"/>
+  <xr:revisionPtr revIDLastSave="45" documentId="6_{8859351E-CF57-4E34-AC2D-F0C034338FBD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{3EBFA788-EF67-45CC-A2BE-218C83204D1D}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3600" windowWidth="20490" windowHeight="7665" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3600" windowWidth="20490" windowHeight="7665" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2017.1" sheetId="1" r:id="rId1"/>
-    <sheet name="2017.2" sheetId="2" r:id="rId2"/>
-    <sheet name="2017" sheetId="10" r:id="rId3"/>
-    <sheet name="2018" sheetId="7" r:id="rId4"/>
-    <sheet name="2019" sheetId="9" r:id="rId5"/>
-    <sheet name="viagens" sheetId="5" r:id="rId6"/>
-    <sheet name="Etanol" sheetId="8" r:id="rId7"/>
+    <sheet name="2017" sheetId="10" r:id="rId2"/>
+    <sheet name="2018" sheetId="7" r:id="rId3"/>
+    <sheet name="2019" sheetId="9" r:id="rId4"/>
+    <sheet name="viagens" sheetId="5" r:id="rId5"/>
+    <sheet name="Etanol" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191028"/>
   <fileRecoveryPr autoRecover="0"/>
@@ -232,43 +231,8 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Manoel J. de Lima Neto</author>
-  </authors>
-  <commentList>
-    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t>Manoel J. de Lima Neto:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-I quantidade de km rodados sobre a quantidade de combustível, levando em conta o combustível residual
-II consumo calculado até o abastecimento</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="31">
   <si>
     <t>janeiro</t>
   </si>
@@ -316,27 +280,6 @@
   </si>
   <si>
     <t>junho</t>
-  </si>
-  <si>
-    <t>julho</t>
-  </si>
-  <si>
-    <t>agosto</t>
-  </si>
-  <si>
-    <t>setembro</t>
-  </si>
-  <si>
-    <t>Preço médio</t>
-  </si>
-  <si>
-    <t>outubro</t>
-  </si>
-  <si>
-    <t>novembro</t>
-  </si>
-  <si>
-    <t>dezembro</t>
   </si>
   <si>
     <t>valor</t>
@@ -394,7 +337,7 @@
     <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="167" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -509,21 +452,9 @@
       <family val="1"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Constantia"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Constantia"/>
-      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -729,7 +660,7 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="159">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
@@ -968,56 +899,7 @@
     <xf numFmtId="2" fontId="5" fillId="5" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="11" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="16" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="16" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="16" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="16" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="16" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="5" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="19" fillId="5" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="19" fillId="5" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="19" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="19" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="19" fillId="5" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1078,13 +960,13 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1119,52 +1001,52 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="20% - Ênfase4" xfId="3" builtinId="42"/>
@@ -2847,7 +2729,7 @@
   <dimension ref="A1:V21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13:I13"/>
+      <selection activeCell="B10" sqref="B10:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2876,30 +2758,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="156" t="s">
+      <c r="A1" s="141" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="156"/>
-      <c r="C1" s="156"/>
-      <c r="D1" s="156"/>
-      <c r="E1" s="156"/>
-      <c r="F1" s="156"/>
-      <c r="G1" s="156" t="s">
+      <c r="B1" s="141"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="156"/>
-      <c r="I1" s="156"/>
-      <c r="J1" s="156"/>
-      <c r="K1" s="156"/>
-      <c r="L1" s="156"/>
-      <c r="M1" s="156" t="s">
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="141"/>
+      <c r="K1" s="141"/>
+      <c r="L1" s="141"/>
+      <c r="M1" s="141" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="156"/>
-      <c r="O1" s="156"/>
-      <c r="P1" s="156"/>
-      <c r="Q1" s="156"/>
-      <c r="R1" s="156"/>
+      <c r="N1" s="141"/>
+      <c r="O1" s="141"/>
+      <c r="P1" s="141"/>
+      <c r="Q1" s="141"/>
+      <c r="R1" s="141"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="6"/>
@@ -2977,7 +2859,7 @@
       <c r="D3" s="39">
         <v>63615</v>
       </c>
-      <c r="E3" s="100">
+      <c r="E3" s="83">
         <v>6</v>
       </c>
       <c r="F3" s="30" t="s">
@@ -3717,30 +3599,30 @@
       <c r="V15" s="6"/>
     </row>
     <row r="16" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="156" t="s">
+      <c r="A16" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="156"/>
-      <c r="C16" s="156"/>
-      <c r="D16" s="156"/>
-      <c r="E16" s="156"/>
-      <c r="F16" s="156" t="s">
+      <c r="B16" s="141"/>
+      <c r="C16" s="141"/>
+      <c r="D16" s="141"/>
+      <c r="E16" s="141"/>
+      <c r="F16" s="141" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="156"/>
-      <c r="H16" s="156"/>
-      <c r="I16" s="156"/>
-      <c r="J16" s="156"/>
-      <c r="K16" s="156"/>
-      <c r="L16" s="156"/>
-      <c r="M16" s="156" t="s">
+      <c r="G16" s="141"/>
+      <c r="H16" s="141"/>
+      <c r="I16" s="141"/>
+      <c r="J16" s="141"/>
+      <c r="K16" s="141"/>
+      <c r="L16" s="141"/>
+      <c r="M16" s="141" t="s">
         <v>15</v>
       </c>
-      <c r="N16" s="156"/>
-      <c r="O16" s="156"/>
-      <c r="P16" s="156"/>
-      <c r="Q16" s="156"/>
-      <c r="R16" s="156"/>
+      <c r="N16" s="141"/>
+      <c r="O16" s="141"/>
+      <c r="P16" s="141"/>
+      <c r="Q16" s="141"/>
+      <c r="R16" s="141"/>
       <c r="S16" s="6"/>
       <c r="T16" s="6"/>
       <c r="U16" s="6"/>
@@ -3781,756 +3663,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:T18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.5703125" customWidth="1"/>
-    <col min="6" max="6" width="7.28515625" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.140625" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.28515625" customWidth="1"/>
-    <col min="17" max="17" width="7.28515625" customWidth="1"/>
-    <col min="19" max="19" width="16.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="156" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="156"/>
-      <c r="C1" s="156"/>
-      <c r="D1" s="156"/>
-      <c r="E1" s="156"/>
-      <c r="F1" s="156"/>
-      <c r="G1" s="156" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="156"/>
-      <c r="I1" s="156"/>
-      <c r="J1" s="156"/>
-      <c r="K1" s="156"/>
-      <c r="L1" s="156"/>
-      <c r="M1" s="156" t="s">
-        <v>18</v>
-      </c>
-      <c r="N1" s="156"/>
-      <c r="O1" s="156"/>
-      <c r="P1" s="156"/>
-      <c r="Q1" s="156"/>
-      <c r="R1" s="156"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-    </row>
-    <row r="2" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="L2" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="P2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="R2" s="58" t="s">
-        <v>8</v>
-      </c>
-      <c r="S2" s="57" t="s">
-        <v>9</v>
-      </c>
-      <c r="T2" s="28">
-        <f>SUM(B8,H8,N8,B9,H9,N9)</f>
-        <v>1178.99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>42940</v>
-      </c>
-      <c r="B3" s="3">
-        <v>170</v>
-      </c>
-      <c r="C3" s="5">
-        <v>4</v>
-      </c>
-      <c r="D3" s="40">
-        <v>67937</v>
-      </c>
-      <c r="E3" s="51">
-        <f>B3/C3</f>
-        <v>42.5</v>
-      </c>
-      <c r="F3" s="36">
-        <f>D4/8</f>
-        <v>8</v>
-      </c>
-      <c r="G3" s="12">
-        <v>42950</v>
-      </c>
-      <c r="H3" s="15">
-        <v>150</v>
-      </c>
-      <c r="I3" s="16">
-        <v>4.1900000000000004</v>
-      </c>
-      <c r="J3" s="47">
-        <f>68792-SUM($D$3:$D$6)</f>
-        <v>63</v>
-      </c>
-      <c r="K3" s="53">
-        <f t="shared" ref="K3" si="0">H3/I3</f>
-        <v>35.799522673031021</v>
-      </c>
-      <c r="L3" s="33">
-        <f>J4/(K3-9)</f>
-        <v>7.5747617775402993</v>
-      </c>
-      <c r="M3" s="84">
-        <v>42991</v>
-      </c>
-      <c r="N3" s="13">
-        <v>80</v>
-      </c>
-      <c r="O3" s="81">
-        <v>4.1900000000000004</v>
-      </c>
-      <c r="P3" s="48">
-        <f>69611-SUM($D$3:$D$6)-SUM($J$3:$J$6)</f>
-        <v>174</v>
-      </c>
-      <c r="Q3" s="43">
-        <f>N3/O3</f>
-        <v>19.093078758949879</v>
-      </c>
-      <c r="R3" s="60">
-        <f>P4/(Q3-3.5)</f>
-        <v>0</v>
-      </c>
-      <c r="S3" s="57" t="s">
-        <v>11</v>
-      </c>
-      <c r="T3" s="28">
-        <f>SUM(E8,K8,Q8,Q9,K9,E9)</f>
-        <v>270.65975695127366</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>42946</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="40">
-        <f>68001-D3</f>
-        <v>64</v>
-      </c>
-      <c r="E4" s="51"/>
-      <c r="F4" s="34">
-        <f>D5/(E3-8-6)</f>
-        <v>13.333333333333334</v>
-      </c>
-      <c r="G4" s="12">
-        <v>42961</v>
-      </c>
-      <c r="H4" s="15">
-        <v>140</v>
-      </c>
-      <c r="I4" s="16">
-        <v>4.1900000000000004</v>
-      </c>
-      <c r="J4" s="47">
-        <f>68995-SUM($D$3:$D$6)-SUM($J$3:J3)</f>
-        <v>203</v>
-      </c>
-      <c r="K4" s="53">
-        <f>H4/I4</f>
-        <v>33.41288782816229</v>
-      </c>
-      <c r="L4" s="83">
-        <f>J5/(K4-1.5)</f>
-        <v>11.750738511012228</v>
-      </c>
-      <c r="M4" s="75"/>
-      <c r="N4" s="76"/>
-      <c r="O4" s="77"/>
-      <c r="P4" s="78"/>
-      <c r="Q4" s="79"/>
-      <c r="R4" s="60"/>
-      <c r="S4" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="T4" s="29">
-        <f>SUM(D8,J8,P8,D9,J9,P9)</f>
-        <v>3028</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>42946</v>
-      </c>
-      <c r="B5" s="3">
-        <v>120</v>
-      </c>
-      <c r="C5" s="5">
-        <v>3.9</v>
-      </c>
-      <c r="D5" s="40">
-        <f>68381-SUM($D$3:D4)</f>
-        <v>380</v>
-      </c>
-      <c r="E5" s="51">
-        <f t="shared" ref="E5" si="1">B5/C5</f>
-        <v>30.76923076923077</v>
-      </c>
-      <c r="F5" s="35">
-        <f>D6/(E5-3)</f>
-        <v>12.531855955678671</v>
-      </c>
-      <c r="G5" s="26">
-        <v>42961</v>
-      </c>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="46">
-        <f>69370-SUM($D$3:$D$6)-SUM($J$3:J4)</f>
-        <v>375</v>
-      </c>
-      <c r="K5" s="54"/>
-      <c r="L5" s="33">
-        <f>J6/10.5</f>
-        <v>6.3809523809523814</v>
-      </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="81"/>
-      <c r="P5" s="48"/>
-      <c r="Q5" s="43"/>
-      <c r="R5" s="60"/>
-      <c r="S5" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="T5" s="28">
-        <f>T2/T3</f>
-        <v>4.3559855860369048</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="17">
-        <v>42946</v>
-      </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="82"/>
-      <c r="D6" s="41">
-        <f>68729-SUM($D$3:D5)</f>
-        <v>348</v>
-      </c>
-      <c r="E6" s="52"/>
-      <c r="F6" s="85">
-        <f>J3/9</f>
-        <v>7</v>
-      </c>
-      <c r="G6" s="12">
-        <v>42970</v>
-      </c>
-      <c r="H6" s="15">
-        <v>80</v>
-      </c>
-      <c r="I6" s="16">
-        <v>3.89</v>
-      </c>
-      <c r="J6" s="47">
-        <f>69437-SUM($D$3:$D$6)-SUM($J$3:J5)</f>
-        <v>67</v>
-      </c>
-      <c r="K6" s="53">
-        <f>H6/I6</f>
-        <v>20.565552699228792</v>
-      </c>
-      <c r="L6" s="60">
-        <f>P3/K6</f>
-        <v>8.4607499999999991</v>
-      </c>
-      <c r="M6" s="84"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="81"/>
-      <c r="P6" s="48"/>
-      <c r="Q6" s="43"/>
-      <c r="R6" s="60"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="84"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="81"/>
-      <c r="P7" s="48"/>
-      <c r="Q7" s="43"/>
-      <c r="R7" s="60"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-    </row>
-    <row r="8" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="67"/>
-      <c r="B8" s="68">
-        <f>SUM(B3:B7)</f>
-        <v>290</v>
-      </c>
-      <c r="C8" s="67">
-        <f>AVERAGE(C3:C7)</f>
-        <v>3.95</v>
-      </c>
-      <c r="D8" s="69">
-        <f>SUM(D4:D7)</f>
-        <v>792</v>
-      </c>
-      <c r="E8" s="70">
-        <f>SUM(E3:E6)</f>
-        <v>73.269230769230774</v>
-      </c>
-      <c r="F8" s="73"/>
-      <c r="G8" s="72"/>
-      <c r="H8" s="68">
-        <f>SUM(H3:H7)</f>
-        <v>370</v>
-      </c>
-      <c r="I8" s="67">
-        <f>AVERAGE(I3:I7)</f>
-        <v>4.0900000000000007</v>
-      </c>
-      <c r="J8" s="69">
-        <f>SUM(J3:J7)</f>
-        <v>708</v>
-      </c>
-      <c r="K8" s="70">
-        <f>SUM(K3:K5)</f>
-        <v>69.212410501193318</v>
-      </c>
-      <c r="L8" s="73"/>
-      <c r="M8" s="72"/>
-      <c r="N8" s="68">
-        <f>SUM(N3:N7)</f>
-        <v>80</v>
-      </c>
-      <c r="O8" s="67"/>
-      <c r="P8" s="74">
-        <f>SUM(P3:P5)</f>
-        <v>174</v>
-      </c>
-      <c r="Q8" s="71">
-        <f>SUM(Q3,K7)</f>
-        <v>19.093078758949879</v>
-      </c>
-      <c r="R8" s="73"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
-    </row>
-    <row r="9" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="61"/>
-      <c r="B9" s="62">
-        <f>SUM(B10:B11)</f>
-        <v>200</v>
-      </c>
-      <c r="C9" s="61">
-        <f>AVERAGE(C10:C11)</f>
-        <v>3.9245000000000001</v>
-      </c>
-      <c r="D9" s="62">
-        <f t="shared" ref="D9:E9" si="2">SUM(D10:D11)</f>
-        <v>390</v>
-      </c>
-      <c r="E9" s="62">
-        <f t="shared" si="2"/>
-        <v>51.027524008025402</v>
-      </c>
-      <c r="F9" s="73"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="68">
-        <f>SUM(H11:H13)</f>
-        <v>238.99</v>
-      </c>
-      <c r="I9" s="61">
-        <f>AVERAGE(I10:I13)</f>
-        <v>4.13</v>
-      </c>
-      <c r="J9" s="68">
-        <f>SUM(J10:J13)</f>
-        <v>964</v>
-      </c>
-      <c r="K9" s="67">
-        <f>SUM(K11:K13)</f>
-        <v>58.057512913874284</v>
-      </c>
-      <c r="L9" s="73"/>
-      <c r="M9" s="66"/>
-      <c r="N9" s="68">
-        <f>N11</f>
-        <v>0</v>
-      </c>
-      <c r="O9" s="67">
-        <f>O11</f>
-        <v>0</v>
-      </c>
-      <c r="P9" s="68">
-        <f t="shared" ref="P9:Q9" si="3">P11</f>
-        <v>0</v>
-      </c>
-      <c r="Q9" s="68">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R9" s="65"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>43020</v>
-      </c>
-      <c r="B10" s="3">
-        <v>80</v>
-      </c>
-      <c r="C10" s="5">
-        <v>3.9489999999999998</v>
-      </c>
-      <c r="D10" s="40">
-        <f>69879-SUM($D$3:$D$6)-SUM($J$3:$J$6)-SUM($P$3:$P$4)</f>
-        <v>268</v>
-      </c>
-      <c r="E10" s="51">
-        <f>B10/C10</f>
-        <v>20.258293238794632</v>
-      </c>
-      <c r="F10" s="31">
-        <f>D11/(E10-5)</f>
-        <v>7.9956518131275409</v>
-      </c>
-      <c r="G10" s="26">
-        <v>43040</v>
-      </c>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="46">
-        <f>70379-SUM($D$3:$D$6)-SUM($J$3:$J$6)-SUM($P$3:$P$4)-SUM($D$10:$D$11)</f>
-        <v>378</v>
-      </c>
-      <c r="K10" s="54"/>
-      <c r="L10" s="33"/>
-      <c r="M10" s="75"/>
-      <c r="N10" s="76"/>
-      <c r="O10" s="77"/>
-      <c r="P10" s="78"/>
-      <c r="Q10" s="79"/>
-      <c r="R10" s="80"/>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>43034</v>
-      </c>
-      <c r="B11" s="3">
-        <v>120</v>
-      </c>
-      <c r="C11" s="5">
-        <v>3.9</v>
-      </c>
-      <c r="D11" s="40">
-        <f>70001-SUM($D$3:$D$6)-SUM($J$3:$J$6)-SUM($P$3:$P$4)-SUM($D$10)</f>
-        <v>122</v>
-      </c>
-      <c r="E11" s="51">
-        <f>B11/C11</f>
-        <v>30.76923076923077</v>
-      </c>
-      <c r="F11" s="83"/>
-      <c r="G11" s="12">
-        <v>43042</v>
-      </c>
-      <c r="H11" s="15">
-        <v>158.99</v>
-      </c>
-      <c r="I11" s="16">
-        <v>4.09</v>
-      </c>
-      <c r="J11" s="47">
-        <f>70431-SUM($D$3:$D$6)-SUM($J$3:$J$6)-SUM($P$3:$P$4)-SUM($D$10:$D$11)-SUM($J$10)</f>
-        <v>52</v>
-      </c>
-      <c r="K11" s="53">
-        <f>H11/I11</f>
-        <v>38.872860635696824</v>
-      </c>
-      <c r="L11" s="83"/>
-      <c r="M11" s="92"/>
-      <c r="N11" s="93"/>
-      <c r="O11" s="94"/>
-      <c r="P11" s="95"/>
-      <c r="Q11" s="79"/>
-      <c r="R11" s="97"/>
-      <c r="S11" s="6"/>
-      <c r="T11" s="6"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="26">
-        <v>43044</v>
-      </c>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="46">
-        <f>70809-SUM($D$3:$D$6)-SUM($J$3:$J$6)-SUM($P$3:$P$4)-SUM($D$10:$D$11)-SUM($J$10:$J$11)</f>
-        <v>378</v>
-      </c>
-      <c r="K12" s="54"/>
-      <c r="L12" s="33"/>
-      <c r="M12" s="92"/>
-      <c r="N12" s="93"/>
-      <c r="O12" s="94"/>
-      <c r="P12" s="95"/>
-      <c r="Q12" s="96"/>
-      <c r="R12" s="97"/>
-      <c r="S12" s="6"/>
-      <c r="T12" s="6"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="12">
-        <v>43057</v>
-      </c>
-      <c r="H13" s="15">
-        <v>80</v>
-      </c>
-      <c r="I13" s="16">
-        <v>4.17</v>
-      </c>
-      <c r="J13" s="47">
-        <f>70965-SUM($D$3:$D$6)-SUM($J$3:$J$6)-SUM($P$3:$P$4)-SUM($D$10:$D$11)-SUM($J$10:$J$12)</f>
-        <v>156</v>
-      </c>
-      <c r="K13" s="53">
-        <f>H13/I13</f>
-        <v>19.18465227817746</v>
-      </c>
-      <c r="L13" s="33"/>
-      <c r="M13" s="92"/>
-      <c r="N13" s="93"/>
-      <c r="O13" s="94"/>
-      <c r="P13" s="95"/>
-      <c r="Q13" s="96"/>
-      <c r="R13" s="97"/>
-      <c r="S13" s="6"/>
-      <c r="T13" s="6"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="86"/>
-      <c r="H14" s="87"/>
-      <c r="I14" s="88"/>
-      <c r="J14" s="89"/>
-      <c r="K14" s="90"/>
-      <c r="L14" s="91"/>
-      <c r="M14" s="92"/>
-      <c r="N14" s="93"/>
-      <c r="O14" s="94"/>
-      <c r="P14" s="95"/>
-      <c r="Q14" s="96"/>
-      <c r="R14" s="97"/>
-      <c r="S14" s="6"/>
-      <c r="T14" s="6"/>
-    </row>
-    <row r="15" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="I15" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="J15" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="K15" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="L15" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="M15" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="N15" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="O15" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="R15" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="S15" s="6"/>
-      <c r="T15" s="6"/>
-    </row>
-    <row r="16" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="156" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="156"/>
-      <c r="C16" s="156"/>
-      <c r="D16" s="156"/>
-      <c r="E16" s="156"/>
-      <c r="F16" s="156" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" s="156"/>
-      <c r="H16" s="156"/>
-      <c r="I16" s="156"/>
-      <c r="J16" s="156"/>
-      <c r="K16" s="156"/>
-      <c r="L16" s="156"/>
-      <c r="M16" s="156" t="s">
-        <v>22</v>
-      </c>
-      <c r="N16" s="156"/>
-      <c r="O16" s="156"/>
-      <c r="P16" s="156"/>
-      <c r="Q16" s="156"/>
-      <c r="R16" s="156"/>
-      <c r="S16" s="6"/>
-      <c r="T16" s="6"/>
-    </row>
-    <row r="18" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J18" s="99"/>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="G1:L1"/>
-    <mergeCell ref="M1:R1"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="F16:L16"/>
-    <mergeCell ref="M16:R16"/>
-  </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="I8" emptyCellReference="1"/>
-    <ignoredError sqref="H9:I9" formulaRange="1"/>
-  </ignoredErrors>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82D5A34F-EB28-41C8-A1E3-151E9E71FB07}">
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:F3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4551,415 +3688,426 @@
         <v>3</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="139" t="s">
-        <v>23</v>
+      <c r="E1" s="122" t="s">
+        <v>16</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="98"/>
-      <c r="B2" s="154"/>
-      <c r="C2" s="157"/>
-      <c r="D2" s="127">
+      <c r="A2" s="82">
+        <v>42848</v>
+      </c>
+      <c r="B2" s="107">
+        <v>66672</v>
+      </c>
+      <c r="C2" s="137">
+        <v>66754</v>
+      </c>
+      <c r="D2" s="110">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
-        <v>0</v>
-      </c>
-      <c r="E2" s="125"/>
-      <c r="F2" s="125"/>
-      <c r="G2" s="126" t="e">
+        <v>82</v>
+      </c>
+      <c r="E2" s="108">
+        <v>80</v>
+      </c>
+      <c r="F2" s="108">
+        <v>3.89</v>
+      </c>
+      <c r="G2" s="109">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
-        <v>#DIV/0!</v>
+        <v>20.565552699228792</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="98">
+      <c r="A3" s="82">
+        <v>42855</v>
+      </c>
+      <c r="B3" s="137">
+        <f>C2</f>
+        <v>66754</v>
+      </c>
+      <c r="C3" s="137">
+        <v>66894</v>
+      </c>
+      <c r="D3" s="110">
+        <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
+        <v>140</v>
+      </c>
+      <c r="E3" s="108">
+        <v>100</v>
+      </c>
+      <c r="F3" s="108">
+        <v>3.87</v>
+      </c>
+      <c r="G3" s="109">
+        <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
+        <v>25.839793281653748</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="82">
         <v>42880</v>
       </c>
-      <c r="B3" s="154">
+      <c r="B4" s="137">
+        <f>C3</f>
         <v>66894</v>
       </c>
-      <c r="C3" s="155">
+      <c r="C4" s="138">
         <v>67088</v>
       </c>
-      <c r="D3" s="127">
+      <c r="D4" s="110">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
         <v>194</v>
       </c>
-      <c r="E3" s="125">
+      <c r="E4" s="108">
         <v>80</v>
       </c>
-      <c r="F3" s="125">
+      <c r="F4" s="108">
         <v>3.89</v>
       </c>
-      <c r="G3" s="126">
+      <c r="G4" s="109">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>20.565552699228792</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="98">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="82">
         <v>42907</v>
       </c>
-      <c r="B4" s="155">
+      <c r="B5" s="138">
         <v>67245</v>
       </c>
-      <c r="C4" s="157">
+      <c r="C5" s="139">
         <v>67312</v>
       </c>
-      <c r="D4" s="127">
+      <c r="D5" s="110">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
         <v>67</v>
       </c>
-      <c r="E4" s="125">
+      <c r="E5" s="108">
         <v>80</v>
       </c>
-      <c r="F4" s="125">
+      <c r="F5" s="108">
         <v>3.84</v>
       </c>
-      <c r="G4" s="126">
+      <c r="G5" s="109">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>20.833333333333336</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="98">
-        <v>42935</v>
-      </c>
-      <c r="B5" s="154">
-        <f t="shared" ref="B3:B5" si="0">C4</f>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="82">
+        <v>42940</v>
+      </c>
+      <c r="B6" s="137">
+        <f>C5</f>
         <v>67312</v>
       </c>
-      <c r="C5" s="157">
-        <v>67477</v>
-      </c>
-      <c r="D5" s="127">
+      <c r="C6" s="140">
+        <v>67538</v>
+      </c>
+      <c r="D6" s="110">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
-        <v>165</v>
-      </c>
-      <c r="E5" s="125">
-        <v>120</v>
-      </c>
-      <c r="F5" s="125">
-        <v>3.62</v>
-      </c>
-      <c r="G5" s="126">
-        <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
-        <v>33.149171270718234</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="98">
-        <v>42937</v>
-      </c>
-      <c r="B6" s="154">
-        <f>C5</f>
-        <v>67477</v>
-      </c>
-      <c r="C6" s="158">
-        <v>67538</v>
-      </c>
-      <c r="D6" s="127">
-        <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
-        <v>61</v>
-      </c>
-      <c r="E6" s="125">
+        <v>226</v>
+      </c>
+      <c r="E6" s="108">
         <v>170</v>
       </c>
-      <c r="F6" s="125">
+      <c r="F6" s="108">
         <v>4</v>
       </c>
-      <c r="G6" s="126">
+      <c r="G6" s="109">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>42.5</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="98">
+      <c r="A7" s="82">
         <v>42946</v>
       </c>
-      <c r="B7" s="158">
+      <c r="B7" s="140">
         <v>67937</v>
       </c>
-      <c r="C7" s="124">
+      <c r="C7" s="107">
         <v>68001</v>
       </c>
-      <c r="D7" s="127">
+      <c r="D7" s="110">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
         <v>64</v>
       </c>
-      <c r="E7" s="125">
+      <c r="E7" s="108">
         <v>120</v>
       </c>
-      <c r="F7" s="125">
+      <c r="F7" s="108">
         <v>3.9</v>
       </c>
-      <c r="G7" s="126">
+      <c r="G7" s="109">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>30.76923076923077</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="98">
+      <c r="A8" s="82">
         <v>42950</v>
       </c>
-      <c r="B8" s="124">
+      <c r="B8" s="107">
         <v>68729</v>
       </c>
-      <c r="C8" s="154">
+      <c r="C8" s="137">
         <v>68792</v>
       </c>
-      <c r="D8" s="127">
+      <c r="D8" s="110">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
         <v>63</v>
       </c>
-      <c r="E8" s="125">
+      <c r="E8" s="108">
         <v>150</v>
       </c>
-      <c r="F8" s="125">
+      <c r="F8" s="108">
         <v>4.1900000000000004</v>
       </c>
-      <c r="G8" s="126">
+      <c r="G8" s="109">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>35.799522673031021</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="98">
+      <c r="A9" s="82">
         <v>42961</v>
       </c>
-      <c r="B9" s="154">
+      <c r="B9" s="137">
         <f>C8</f>
         <v>68792</v>
       </c>
-      <c r="C9" s="124">
+      <c r="C9" s="107">
         <v>68995</v>
       </c>
-      <c r="D9" s="127">
+      <c r="D9" s="110">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
         <v>203</v>
       </c>
-      <c r="E9" s="125">
+      <c r="E9" s="108">
         <v>140</v>
       </c>
-      <c r="F9" s="125">
+      <c r="F9" s="108">
         <v>4.1900000000000004</v>
       </c>
-      <c r="G9" s="126">
+      <c r="G9" s="109">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>33.41288782816229</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="98">
+      <c r="A10" s="82">
         <v>42970</v>
       </c>
-      <c r="B10" s="124">
+      <c r="B10" s="107">
         <v>69370</v>
       </c>
-      <c r="C10" s="154">
+      <c r="C10" s="137">
         <v>69437</v>
       </c>
-      <c r="D10" s="127">
+      <c r="D10" s="110">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
         <v>67</v>
       </c>
-      <c r="E10" s="125">
+      <c r="E10" s="108">
         <v>80</v>
       </c>
-      <c r="F10" s="125">
+      <c r="F10" s="108">
         <v>3.89</v>
       </c>
-      <c r="G10" s="126">
+      <c r="G10" s="109">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>20.565552699228792</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="98">
+      <c r="A11" s="82">
         <v>42991</v>
       </c>
-      <c r="B11" s="154">
+      <c r="B11" s="137">
         <f>C10</f>
         <v>69437</v>
       </c>
-      <c r="C11" s="155">
+      <c r="C11" s="138">
         <v>69611</v>
       </c>
-      <c r="D11" s="127">
+      <c r="D11" s="110">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
         <v>174</v>
       </c>
-      <c r="E11" s="125">
+      <c r="E11" s="108">
         <v>80</v>
       </c>
-      <c r="F11" s="125">
+      <c r="F11" s="108">
         <v>4.1900000000000004</v>
       </c>
-      <c r="G11" s="126">
+      <c r="G11" s="109">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>19.093078758949879</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="98">
+      <c r="A12" s="82">
         <v>43020</v>
       </c>
-      <c r="B12" s="155">
+      <c r="B12" s="138">
         <v>69760</v>
       </c>
-      <c r="C12" s="154">
+      <c r="C12" s="137">
         <v>69879</v>
       </c>
-      <c r="D12" s="127">
+      <c r="D12" s="110">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
         <v>119</v>
       </c>
-      <c r="E12" s="125">
+      <c r="E12" s="108">
         <v>80</v>
       </c>
-      <c r="F12" s="125">
+      <c r="F12" s="108">
         <v>3.9489999999999998</v>
       </c>
-      <c r="G12" s="126">
+      <c r="G12" s="109">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>20.258293238794632</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="98">
+      <c r="A13" s="82">
         <v>43034</v>
       </c>
-      <c r="B13" s="154">
+      <c r="B13" s="137">
         <f>C12</f>
         <v>69879</v>
       </c>
-      <c r="C13" s="124">
+      <c r="C13" s="107">
         <v>70001</v>
       </c>
-      <c r="D13" s="127">
+      <c r="D13" s="110">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
         <v>122</v>
       </c>
-      <c r="E13" s="125">
+      <c r="E13" s="108">
         <v>120</v>
       </c>
-      <c r="F13" s="125">
+      <c r="F13" s="108">
         <v>3.9</v>
       </c>
-      <c r="G13" s="126">
+      <c r="G13" s="109">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>30.76923076923077</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="98">
+      <c r="A14" s="82">
         <v>43042</v>
       </c>
-      <c r="B14" s="134">
+      <c r="B14" s="117">
         <v>70379</v>
       </c>
-      <c r="C14" s="124">
+      <c r="C14" s="107">
         <v>70431</v>
       </c>
-      <c r="D14" s="127">
+      <c r="D14" s="110">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
         <v>52</v>
       </c>
-      <c r="E14" s="125">
+      <c r="E14" s="108">
         <v>158.99</v>
       </c>
-      <c r="F14" s="125">
+      <c r="F14" s="108">
         <v>4.09</v>
       </c>
-      <c r="G14" s="126">
+      <c r="G14" s="109">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>38.872860635696824</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="98">
+      <c r="A15" s="82">
         <v>43057</v>
       </c>
-      <c r="B15" s="124">
+      <c r="B15" s="107">
         <v>70809</v>
       </c>
-      <c r="C15" s="155">
+      <c r="C15" s="138">
         <v>70965</v>
       </c>
-      <c r="D15" s="127">
+      <c r="D15" s="110">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
         <v>156</v>
       </c>
-      <c r="E15" s="125">
+      <c r="E15" s="108">
         <v>80</v>
       </c>
-      <c r="F15" s="125">
+      <c r="F15" s="108">
         <v>4.17</v>
       </c>
-      <c r="G15" s="126">
+      <c r="G15" s="109">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>19.18465227817746</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="98">
+      <c r="A16" s="82">
         <v>43087</v>
       </c>
-      <c r="B16" s="155">
+      <c r="B16" s="138">
         <v>71109</v>
       </c>
-      <c r="C16" s="124">
+      <c r="C16" s="107">
         <v>71219</v>
       </c>
-      <c r="D16" s="127">
+      <c r="D16" s="110">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
         <v>110</v>
       </c>
-      <c r="E16" s="125">
+      <c r="E16" s="108">
         <v>120.06</v>
       </c>
-      <c r="F16" s="125">
+      <c r="F16" s="108">
         <v>4.1790000000000003</v>
       </c>
-      <c r="G16" s="126">
+      <c r="G16" s="109">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>28.729361091170134</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="98">
+      <c r="A17" s="82">
         <v>43093</v>
       </c>
-      <c r="B17" s="124">
+      <c r="B17" s="107">
         <v>71683</v>
       </c>
-      <c r="C17" s="123">
+      <c r="C17" s="106">
         <v>71872</v>
       </c>
-      <c r="D17" s="127">
+      <c r="D17" s="110">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
         <v>189</v>
       </c>
-      <c r="E17" s="125">
+      <c r="E17" s="108">
         <v>120</v>
       </c>
-      <c r="F17" s="125">
+      <c r="F17" s="108">
         <v>4.17</v>
       </c>
-      <c r="G17" s="126">
+      <c r="G17" s="109">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>28.776978417266186</v>
       </c>
@@ -4973,7 +4121,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB98AEA6-30EA-4D94-808F-A65CE5265EE7}">
   <dimension ref="A1:G34"/>
   <sheetViews>
@@ -4995,384 +4143,384 @@
         <v>3</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="139" t="s">
-        <v>23</v>
+      <c r="E1" s="122" t="s">
+        <v>16</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="98">
+      <c r="A2" s="82">
         <v>43105</v>
       </c>
-      <c r="B2" s="123">
+      <c r="B2" s="106">
         <v>71872</v>
       </c>
-      <c r="C2" s="123">
+      <c r="C2" s="106">
         <v>72053</v>
       </c>
-      <c r="D2" s="127">
+      <c r="D2" s="110">
         <f>G_2018[[#This Row],[km fim]]-G_2018[[#This Row],[km ini]]</f>
         <v>181</v>
       </c>
-      <c r="E2" s="125">
+      <c r="E2" s="108">
         <v>120</v>
       </c>
-      <c r="F2" s="125">
+      <c r="F2" s="108">
         <v>4.1900000000000004</v>
       </c>
-      <c r="G2" s="126">
+      <c r="G2" s="109">
         <f>G_2018[[#This Row],[valor]]/G_2018[[#This Row],[preço]]</f>
         <v>28.639618138424819</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="98">
+      <c r="A3" s="82">
         <v>43115</v>
       </c>
-      <c r="B3" s="123">
+      <c r="B3" s="106">
         <f>C2</f>
         <v>72053</v>
       </c>
-      <c r="C3" s="124">
+      <c r="C3" s="107">
         <v>72158</v>
       </c>
-      <c r="D3" s="127">
+      <c r="D3" s="110">
         <f>G_2018[[#This Row],[km fim]]-G_2018[[#This Row],[km ini]]</f>
         <v>105</v>
       </c>
-      <c r="E3" s="125">
+      <c r="E3" s="108">
         <v>120</v>
       </c>
-      <c r="F3" s="125">
+      <c r="F3" s="108">
         <v>4.1900000000000004</v>
       </c>
-      <c r="G3" s="126">
+      <c r="G3" s="109">
         <f>G_2018[[#This Row],[valor]]/G_2018[[#This Row],[preço]]</f>
         <v>28.639618138424819</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="98">
+      <c r="A4" s="82">
         <v>43119</v>
       </c>
-      <c r="B4" s="124">
+      <c r="B4" s="107">
         <v>72533</v>
       </c>
-      <c r="C4" s="123">
+      <c r="C4" s="106">
         <v>72612</v>
       </c>
-      <c r="D4" s="127">
+      <c r="D4" s="110">
         <f>G_2018[[#This Row],[km fim]]-G_2018[[#This Row],[km ini]]</f>
         <v>79</v>
       </c>
-      <c r="E4" s="125">
+      <c r="E4" s="108">
         <v>145</v>
       </c>
-      <c r="F4" s="125">
+      <c r="F4" s="108">
         <v>4.29</v>
       </c>
-      <c r="G4" s="126">
+      <c r="G4" s="109">
         <f>G_2018[[#This Row],[valor]]/G_2018[[#This Row],[preço]]</f>
         <v>33.799533799533798</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="98">
+      <c r="A5" s="82">
         <v>43122</v>
       </c>
-      <c r="B5" s="123">
+      <c r="B5" s="106">
         <f>C4</f>
         <v>72612</v>
       </c>
-      <c r="C5" s="124">
+      <c r="C5" s="107">
         <v>72667</v>
       </c>
-      <c r="D5" s="127">
+      <c r="D5" s="110">
         <f>G_2018[[#This Row],[km fim]]-G_2018[[#This Row],[km ini]]</f>
         <v>55</v>
       </c>
-      <c r="E5" s="125">
+      <c r="E5" s="108">
         <v>120</v>
       </c>
-      <c r="F5" s="125">
+      <c r="F5" s="108">
         <v>4.29</v>
       </c>
-      <c r="G5" s="126">
+      <c r="G5" s="109">
         <f>G_2018[[#This Row],[valor]]/G_2018[[#This Row],[preço]]</f>
         <v>27.972027972027973</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="98">
+      <c r="A6" s="82">
         <v>43128</v>
       </c>
-      <c r="B6" s="124">
+      <c r="B6" s="107">
         <v>73042</v>
       </c>
-      <c r="C6" s="123">
+      <c r="C6" s="106">
         <v>73123</v>
       </c>
-      <c r="D6" s="127">
+      <c r="D6" s="110">
         <f>G_2018[[#This Row],[km fim]]-G_2018[[#This Row],[km ini]]</f>
         <v>81</v>
       </c>
-      <c r="E6" s="125">
+      <c r="E6" s="108">
         <v>85.61</v>
       </c>
-      <c r="F6" s="125">
+      <c r="F6" s="108">
         <v>4.2699999999999996</v>
       </c>
-      <c r="G6" s="126">
+      <c r="G6" s="109">
         <f>G_2018[[#This Row],[valor]]/G_2018[[#This Row],[preço]]</f>
         <v>20.049180327868854</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="98">
+      <c r="A7" s="82">
         <v>43136</v>
       </c>
-      <c r="B7" s="123">
+      <c r="B7" s="106">
         <f>C6</f>
         <v>73123</v>
       </c>
-      <c r="C7" s="124">
+      <c r="C7" s="107">
         <v>73312</v>
       </c>
-      <c r="D7" s="127">
+      <c r="D7" s="110">
         <f>G_2018[[#This Row],[km fim]]-G_2018[[#This Row],[km ini]]</f>
         <v>189</v>
       </c>
-      <c r="E7" s="125">
+      <c r="E7" s="108">
         <v>120</v>
       </c>
-      <c r="F7" s="125">
+      <c r="F7" s="108">
         <v>4.49</v>
       </c>
-      <c r="G7" s="126">
+      <c r="G7" s="109">
         <f>G_2018[[#This Row],[valor]]/G_2018[[#This Row],[preço]]</f>
         <v>26.726057906458795</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="98">
+      <c r="A8" s="82">
         <v>43148</v>
       </c>
-      <c r="B8" s="124">
+      <c r="B8" s="107">
         <v>73666</v>
       </c>
-      <c r="C8" s="123">
+      <c r="C8" s="106">
         <v>73760</v>
       </c>
-      <c r="D8" s="127">
+      <c r="D8" s="110">
         <f>G_2018[[#This Row],[km fim]]-G_2018[[#This Row],[km ini]]</f>
         <v>94</v>
       </c>
-      <c r="E8" s="125">
+      <c r="E8" s="108">
         <v>175.03</v>
       </c>
-      <c r="F8" s="125">
+      <c r="F8" s="108">
         <v>4.49</v>
       </c>
-      <c r="G8" s="126">
+      <c r="G8" s="109">
         <f>G_2018[[#This Row],[valor]]/G_2018[[#This Row],[preço]]</f>
         <v>38.982182628062361</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="98">
+      <c r="A9" s="82">
         <v>43158</v>
       </c>
-      <c r="B9" s="123">
+      <c r="B9" s="106">
         <f>C8</f>
         <v>73760</v>
       </c>
-      <c r="C9" s="123">
+      <c r="C9" s="106">
         <v>73913</v>
       </c>
-      <c r="D9" s="127">
+      <c r="D9" s="110">
         <f>G_2018[[#This Row],[km fim]]-G_2018[[#This Row],[km ini]]</f>
         <v>153</v>
       </c>
-      <c r="E9" s="125">
+      <c r="E9" s="108">
         <v>120</v>
       </c>
-      <c r="F9" s="125">
+      <c r="F9" s="108">
         <v>4.09</v>
       </c>
-      <c r="G9" s="126">
+      <c r="G9" s="109">
         <f>G_2018[[#This Row],[valor]]/G_2018[[#This Row],[preço]]</f>
         <v>29.339853300733498</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="98">
+      <c r="A10" s="82">
         <v>43186</v>
       </c>
-      <c r="B10" s="130">
+      <c r="B10" s="113">
         <f>C9</f>
         <v>73913</v>
       </c>
-      <c r="C10" s="124">
+      <c r="C10" s="107">
         <v>74082</v>
       </c>
-      <c r="D10" s="127">
+      <c r="D10" s="110">
         <f>G_2018[[#This Row],[km fim]]-G_2018[[#This Row],[km ini]]</f>
         <v>169</v>
       </c>
-      <c r="E10" s="125">
+      <c r="E10" s="108">
         <v>150</v>
       </c>
-      <c r="F10" s="125">
+      <c r="F10" s="108">
         <v>4.3899999999999997</v>
       </c>
-      <c r="G10" s="126">
+      <c r="G10" s="109">
         <f>G_2018[[#This Row],[valor]]/G_2018[[#This Row],[preço]]</f>
         <v>34.168564920273354</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="98">
+      <c r="A11" s="82">
         <v>43207</v>
       </c>
-      <c r="B11" s="129">
+      <c r="B11" s="112">
         <v>74825</v>
       </c>
-      <c r="C11" s="123">
+      <c r="C11" s="106">
         <v>75015</v>
       </c>
-      <c r="D11" s="127">
+      <c r="D11" s="110">
         <f>G_2018[[#This Row],[km fim]]-G_2018[[#This Row],[km ini]]</f>
         <v>190</v>
       </c>
-      <c r="E11" s="125">
+      <c r="E11" s="108">
         <v>80</v>
       </c>
-      <c r="F11" s="125">
+      <c r="F11" s="108">
         <v>4.29</v>
       </c>
-      <c r="G11" s="126">
+      <c r="G11" s="109">
         <f>G_2018[[#This Row],[valor]]/G_2018[[#This Row],[preço]]</f>
         <v>18.648018648018649</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="98">
+      <c r="A12" s="82">
         <v>43222</v>
       </c>
-      <c r="B12" s="130">
+      <c r="B12" s="113">
         <v>75188</v>
       </c>
-      <c r="C12" s="123">
+      <c r="C12" s="106">
         <v>75309</v>
       </c>
-      <c r="D12" s="127">
+      <c r="D12" s="110">
         <f>G_2018[[#This Row],[km fim]]-G_2018[[#This Row],[km ini]]</f>
         <v>121</v>
       </c>
-      <c r="E12" s="125">
+      <c r="E12" s="108">
         <v>40</v>
       </c>
-      <c r="F12" s="125">
+      <c r="F12" s="108">
         <v>4.49</v>
       </c>
-      <c r="G12" s="126">
+      <c r="G12" s="109">
         <f>G_2018[[#This Row],[valor]]/G_2018[[#This Row],[preço]]</f>
         <v>8.908685968819599</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="98">
+      <c r="A13" s="82">
         <v>43237</v>
       </c>
-      <c r="B13" s="123">
+      <c r="B13" s="106">
         <f>C12</f>
         <v>75309</v>
       </c>
-      <c r="C13" s="123">
+      <c r="C13" s="106">
         <v>75424</v>
       </c>
-      <c r="D13" s="127">
+      <c r="D13" s="110">
         <f>G_2018[[#This Row],[km fim]]-G_2018[[#This Row],[km ini]]</f>
         <v>115</v>
       </c>
-      <c r="E13" s="125">
+      <c r="E13" s="108">
         <v>80</v>
       </c>
-      <c r="F13" s="125">
+      <c r="F13" s="108">
         <v>4.59</v>
       </c>
-      <c r="G13" s="126">
+      <c r="G13" s="109">
         <f>G_2018[[#This Row],[valor]]/G_2018[[#This Row],[preço]]</f>
         <v>17.429193899782135</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="98">
+      <c r="A14" s="82">
         <v>43243</v>
       </c>
-      <c r="B14" s="130">
+      <c r="B14" s="113">
         <f>C13</f>
         <v>75424</v>
       </c>
-      <c r="C14" s="123">
+      <c r="C14" s="106">
         <v>75758</v>
       </c>
-      <c r="D14" s="127">
+      <c r="D14" s="110">
         <f>G_2018[[#This Row],[km fim]]-G_2018[[#This Row],[km ini]]</f>
         <v>334</v>
       </c>
-      <c r="E14" s="125">
+      <c r="E14" s="108">
         <v>60</v>
       </c>
-      <c r="F14" s="125">
+      <c r="F14" s="108">
         <v>4.49</v>
       </c>
-      <c r="G14" s="126">
+      <c r="G14" s="109">
         <f>G_2018[[#This Row],[valor]]/G_2018[[#This Row],[preço]]</f>
         <v>13.363028953229398</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="98">
+      <c r="A15" s="82">
         <v>43271</v>
       </c>
-      <c r="B15" s="130">
+      <c r="B15" s="113">
         <f>C14</f>
         <v>75758</v>
       </c>
-      <c r="C15" s="123">
+      <c r="C15" s="106">
         <v>75867</v>
       </c>
-      <c r="D15" s="127">
+      <c r="D15" s="110">
         <f>G_2018[[#This Row],[km fim]]-G_2018[[#This Row],[km ini]]</f>
         <v>109</v>
       </c>
-      <c r="E15" s="125">
+      <c r="E15" s="108">
         <v>60</v>
       </c>
-      <c r="F15" s="125">
+      <c r="F15" s="108">
         <v>4.6900000000000004</v>
       </c>
-      <c r="G15" s="126">
+      <c r="G15" s="109">
         <f>G_2018[[#This Row],[valor]]/G_2018[[#This Row],[preço]]</f>
         <v>12.793176972281449</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="98">
+      <c r="A16" s="82">
         <v>43285</v>
       </c>
       <c r="B16" s="6">
@@ -5382,479 +4530,479 @@
       <c r="C16" s="6">
         <v>75885</v>
       </c>
-      <c r="D16" s="127">
+      <c r="D16" s="110">
         <f>G_2018[[#This Row],[km fim]]-G_2018[[#This Row],[km ini]]</f>
         <v>18</v>
       </c>
-      <c r="E16" s="125">
+      <c r="E16" s="108">
         <v>60</v>
       </c>
-      <c r="F16" s="101">
+      <c r="F16" s="84">
         <v>4.79</v>
       </c>
-      <c r="G16" s="126">
+      <c r="G16" s="109">
         <f>G_2018[[#This Row],[valor]]/G_2018[[#This Row],[preço]]</f>
         <v>12.526096033402922</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="98">
+      <c r="A17" s="82">
         <v>43286</v>
       </c>
       <c r="B17" s="6">
         <f>C16</f>
         <v>75885</v>
       </c>
-      <c r="C17" s="129">
+      <c r="C17" s="112">
         <v>75894</v>
       </c>
-      <c r="D17" s="127">
+      <c r="D17" s="110">
         <f>G_2018[[#This Row],[km fim]]-G_2018[[#This Row],[km ini]]</f>
         <v>9</v>
       </c>
-      <c r="E17" s="125">
+      <c r="E17" s="108">
         <v>133.83000000000001</v>
       </c>
-      <c r="F17" s="101">
+      <c r="F17" s="84">
         <v>4.59</v>
       </c>
-      <c r="G17" s="126">
+      <c r="G17" s="109">
         <f>G_2018[[#This Row],[valor]]/G_2018[[#This Row],[preço]]</f>
         <v>29.156862745098042</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="98">
+      <c r="A18" s="82">
         <v>43289</v>
       </c>
-      <c r="B18" s="138">
+      <c r="B18" s="121">
         <v>76265</v>
       </c>
-      <c r="C18" s="138">
+      <c r="C18" s="121">
         <v>76308</v>
       </c>
-      <c r="D18" s="127">
+      <c r="D18" s="110">
         <f>G_2018[[#This Row],[km fim]]-G_2018[[#This Row],[km ini]]</f>
         <v>43</v>
       </c>
-      <c r="E18" s="125">
+      <c r="E18" s="108">
         <v>157.03</v>
       </c>
-      <c r="F18" s="101">
+      <c r="F18" s="84">
         <v>4.79</v>
       </c>
-      <c r="G18" s="126">
+      <c r="G18" s="109">
         <f>G_2018[[#This Row],[valor]]/G_2018[[#This Row],[preço]]</f>
         <v>32.782881002087684</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="133">
+      <c r="A19" s="116">
         <v>43306</v>
       </c>
-      <c r="B19" s="134">
+      <c r="B19" s="117">
         <v>76660</v>
       </c>
-      <c r="C19" s="128">
+      <c r="C19" s="111">
         <v>76814</v>
       </c>
-      <c r="D19" s="127">
+      <c r="D19" s="110">
         <f>G_2018[[#This Row],[km fim]]-G_2018[[#This Row],[km ini]]</f>
         <v>154</v>
       </c>
-      <c r="E19" s="125">
+      <c r="E19" s="108">
         <v>100</v>
       </c>
-      <c r="F19" s="101">
+      <c r="F19" s="84">
         <v>4.49</v>
       </c>
-      <c r="G19" s="126">
+      <c r="G19" s="109">
         <f>G_2018[[#This Row],[valor]]/G_2018[[#This Row],[preço]]</f>
         <v>22.271714922048996</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="98">
+      <c r="A20" s="82">
         <v>43318</v>
       </c>
-      <c r="B20" s="128">
+      <c r="B20" s="111">
         <f>C19</f>
         <v>76814</v>
       </c>
-      <c r="C20" s="128">
+      <c r="C20" s="111">
         <v>76951</v>
       </c>
-      <c r="D20" s="111">
+      <c r="D20" s="94">
         <f>G_2018[[#This Row],[km fim]]-G_2018[[#This Row],[km ini]]</f>
         <v>137</v>
       </c>
-      <c r="E20" s="140">
+      <c r="E20" s="123">
         <v>100</v>
       </c>
-      <c r="F20" s="132">
+      <c r="F20" s="115">
         <v>4.49</v>
       </c>
-      <c r="G20" s="117">
+      <c r="G20" s="100">
         <f>G_2018[[#This Row],[valor]]/G_2018[[#This Row],[preço]]</f>
         <v>22.271714922048996</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="98">
+      <c r="A21" s="82">
         <v>43333</v>
       </c>
-      <c r="B21" s="128">
+      <c r="B21" s="111">
         <f>C20</f>
         <v>76951</v>
       </c>
-      <c r="C21" s="128">
+      <c r="C21" s="111">
         <v>77139</v>
       </c>
-      <c r="D21" s="111">
+      <c r="D21" s="94">
         <f>G_2018[[#This Row],[km fim]]-G_2018[[#This Row],[km ini]]</f>
         <v>188</v>
       </c>
-      <c r="E21" s="140">
+      <c r="E21" s="123">
         <v>100</v>
       </c>
-      <c r="F21" s="132">
+      <c r="F21" s="115">
         <v>4.3899999999999997</v>
       </c>
-      <c r="G21" s="117">
+      <c r="G21" s="100">
         <f>G_2018[[#This Row],[valor]]/G_2018[[#This Row],[preço]]</f>
         <v>22.779043280182233</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="98">
+      <c r="A22" s="82">
         <v>43340</v>
       </c>
-      <c r="B22" s="128">
+      <c r="B22" s="111">
         <f>C21</f>
         <v>77139</v>
       </c>
-      <c r="C22" s="128">
+      <c r="C22" s="111">
         <v>77296</v>
       </c>
-      <c r="D22" s="111">
+      <c r="D22" s="94">
         <f>G_2018[[#This Row],[km fim]]-G_2018[[#This Row],[km ini]]</f>
         <v>157</v>
       </c>
-      <c r="E22" s="140">
+      <c r="E22" s="123">
         <v>80</v>
       </c>
-      <c r="F22" s="132">
+      <c r="F22" s="115">
         <v>4.29</v>
       </c>
-      <c r="G22" s="117">
+      <c r="G22" s="100">
         <f>G_2018[[#This Row],[valor]]/G_2018[[#This Row],[preço]]</f>
         <v>18.648018648018649</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="131">
+      <c r="A23" s="114">
         <v>43349</v>
       </c>
-      <c r="B23" s="134">
+      <c r="B23" s="117">
         <f>C22</f>
         <v>77296</v>
       </c>
-      <c r="C23" s="137">
+      <c r="C23" s="120">
         <v>77444</v>
       </c>
-      <c r="D23" s="111">
+      <c r="D23" s="94">
         <f>G_2018[[#This Row],[km fim]]-G_2018[[#This Row],[km ini]]</f>
         <v>148</v>
       </c>
-      <c r="E23" s="140">
+      <c r="E23" s="123">
         <v>60</v>
       </c>
-      <c r="F23" s="132">
+      <c r="F23" s="115">
         <v>4.29</v>
       </c>
-      <c r="G23" s="117">
+      <c r="G23" s="100">
         <f>G_2018[[#This Row],[valor]]/G_2018[[#This Row],[preço]]</f>
         <v>13.986013986013987</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="131">
+      <c r="A24" s="114">
         <v>43352</v>
       </c>
-      <c r="B24" s="137">
+      <c r="B24" s="120">
         <v>77816</v>
       </c>
-      <c r="C24" s="137">
+      <c r="C24" s="120">
         <v>77858</v>
       </c>
-      <c r="D24" s="111">
+      <c r="D24" s="94">
         <f>G_2018[[#This Row],[km fim]]-G_2018[[#This Row],[km ini]]</f>
         <v>42</v>
       </c>
-      <c r="E24" s="140">
+      <c r="E24" s="123">
         <v>102.6</v>
       </c>
-      <c r="F24" s="132">
+      <c r="F24" s="115">
         <v>4.79</v>
       </c>
-      <c r="G24" s="117">
+      <c r="G24" s="100">
         <f>G_2018[[#This Row],[valor]]/G_2018[[#This Row],[preço]]</f>
         <v>21.419624217118997</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="131">
+      <c r="A25" s="114">
         <v>43355</v>
       </c>
-      <c r="B25" s="128">
+      <c r="B25" s="111">
         <v>78222</v>
       </c>
-      <c r="C25" s="134">
+      <c r="C25" s="117">
         <v>78278</v>
       </c>
-      <c r="D25" s="111">
+      <c r="D25" s="94">
         <f>G_2018[[#This Row],[km fim]]-G_2018[[#This Row],[km ini]]</f>
         <v>56</v>
       </c>
-      <c r="E25" s="140">
+      <c r="E25" s="123">
         <v>181.01</v>
       </c>
-      <c r="F25" s="132">
+      <c r="F25" s="115">
         <v>4.79</v>
       </c>
-      <c r="G25" s="117">
+      <c r="G25" s="100">
         <f>G_2018[[#This Row],[valor]]/G_2018[[#This Row],[preço]]</f>
         <v>37.789144050104383</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="131">
+      <c r="A26" s="114">
         <v>43373</v>
       </c>
-      <c r="B26" s="128">
+      <c r="B26" s="111">
         <f>C25</f>
         <v>78278</v>
       </c>
-      <c r="C26" s="128">
+      <c r="C26" s="111">
         <v>78474</v>
       </c>
-      <c r="D26" s="111">
+      <c r="D26" s="94">
         <f>G_2018[[#This Row],[km fim]]-G_2018[[#This Row],[km ini]]</f>
         <v>196</v>
       </c>
-      <c r="E26" s="140">
+      <c r="E26" s="123">
         <v>100</v>
       </c>
-      <c r="F26" s="132">
+      <c r="F26" s="115">
         <v>4.59</v>
       </c>
-      <c r="G26" s="117">
+      <c r="G26" s="100">
         <f>G_2018[[#This Row],[valor]]/G_2018[[#This Row],[preço]]</f>
         <v>21.786492374727668</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="131">
+      <c r="A27" s="114">
         <v>43384</v>
       </c>
-      <c r="B27" s="128">
+      <c r="B27" s="111">
         <f>C26</f>
         <v>78474</v>
       </c>
-      <c r="C27" s="134">
+      <c r="C27" s="117">
         <v>78567</v>
       </c>
-      <c r="D27" s="111">
+      <c r="D27" s="94">
         <f>G_2018[[#This Row],[km fim]]-G_2018[[#This Row],[km ini]]</f>
         <v>93</v>
       </c>
-      <c r="E27" s="140">
+      <c r="E27" s="123">
         <v>60</v>
       </c>
-      <c r="F27" s="132">
+      <c r="F27" s="115">
         <v>4.79</v>
       </c>
-      <c r="G27" s="117">
+      <c r="G27" s="100">
         <f>G_2018[[#This Row],[valor]]/G_2018[[#This Row],[preço]]</f>
         <v>12.526096033402922</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="131">
+      <c r="A28" s="114">
         <v>43386</v>
       </c>
-      <c r="B28" s="128">
+      <c r="B28" s="111">
         <v>78960</v>
       </c>
-      <c r="C28" s="137">
+      <c r="C28" s="120">
         <v>78983</v>
       </c>
-      <c r="D28" s="111">
+      <c r="D28" s="94">
         <f>G_2018[[#This Row],[km fim]]-G_2018[[#This Row],[km ini]]</f>
         <v>23</v>
       </c>
-      <c r="E28" s="140">
+      <c r="E28" s="123">
         <v>148.19999999999999</v>
       </c>
-      <c r="F28" s="132">
+      <c r="F28" s="115">
         <v>4.9400000000000004</v>
       </c>
-      <c r="G28" s="117">
+      <c r="G28" s="100">
         <f>G_2018[[#This Row],[valor]]/G_2018[[#This Row],[preço]]</f>
         <v>29.999999999999996</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="131">
+      <c r="A29" s="114">
         <v>43399</v>
       </c>
-      <c r="B29" s="134">
+      <c r="B29" s="117">
         <v>79431</v>
       </c>
-      <c r="C29" s="128">
+      <c r="C29" s="111">
         <v>79502</v>
       </c>
-      <c r="D29" s="111">
+      <c r="D29" s="94">
         <f>G_2018[[#This Row],[km fim]]-G_2018[[#This Row],[km ini]]</f>
         <v>71</v>
       </c>
-      <c r="E29" s="140">
+      <c r="E29" s="123">
         <v>60</v>
       </c>
-      <c r="F29" s="132">
+      <c r="F29" s="115">
         <v>4.99</v>
       </c>
-      <c r="G29" s="117">
+      <c r="G29" s="100">
         <f>G_2018[[#This Row],[valor]]/G_2018[[#This Row],[preço]]</f>
         <v>12.024048096192384</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="131">
+      <c r="A30" s="114">
         <v>43410</v>
       </c>
-      <c r="B30" s="128">
+      <c r="B30" s="111">
         <f>C29</f>
         <v>79502</v>
       </c>
-      <c r="C30" s="128">
+      <c r="C30" s="111">
         <v>79730</v>
       </c>
-      <c r="D30" s="111">
+      <c r="D30" s="94">
         <f>G_2018[[#This Row],[km fim]]-G_2018[[#This Row],[km ini]]</f>
         <v>228</v>
       </c>
-      <c r="E30" s="140">
+      <c r="E30" s="123">
         <v>120</v>
       </c>
-      <c r="F30" s="132">
+      <c r="F30" s="115">
         <v>4.99</v>
       </c>
-      <c r="G30" s="117">
+      <c r="G30" s="100">
         <f>G_2018[[#This Row],[valor]]/G_2018[[#This Row],[preço]]</f>
         <v>24.048096192384769</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="131">
+      <c r="A31" s="114">
         <v>43418</v>
       </c>
-      <c r="B31" s="128">
+      <c r="B31" s="111">
         <f>C30</f>
         <v>79730</v>
       </c>
-      <c r="C31" s="128">
+      <c r="C31" s="111">
         <v>79820</v>
       </c>
-      <c r="D31" s="111">
+      <c r="D31" s="94">
         <f>G_2018[[#This Row],[km fim]]-G_2018[[#This Row],[km ini]]</f>
         <v>90</v>
       </c>
-      <c r="E31" s="140">
+      <c r="E31" s="123">
         <v>80</v>
       </c>
-      <c r="F31" s="125">
+      <c r="F31" s="108">
         <v>4.6900000000000004</v>
       </c>
-      <c r="G31" s="126">
+      <c r="G31" s="109">
         <f>G_2018[[#This Row],[valor]]/G_2018[[#This Row],[preço]]</f>
         <v>17.057569296375267</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="131">
+      <c r="A32" s="114">
         <v>43426</v>
       </c>
-      <c r="B32" s="128">
+      <c r="B32" s="111">
         <f>C31</f>
         <v>79820</v>
       </c>
-      <c r="C32" s="128">
+      <c r="C32" s="111">
         <v>79915</v>
       </c>
-      <c r="D32" s="111">
+      <c r="D32" s="94">
         <f>G_2018[[#This Row],[km fim]]-G_2018[[#This Row],[km ini]]</f>
         <v>95</v>
       </c>
-      <c r="E32" s="140">
+      <c r="E32" s="123">
         <v>60</v>
       </c>
-      <c r="F32" s="132">
+      <c r="F32" s="115">
         <v>4.87</v>
       </c>
-      <c r="G32" s="117">
+      <c r="G32" s="100">
         <f>G_2018[[#This Row],[valor]]/G_2018[[#This Row],[preço]]</f>
         <v>12.320328542094456</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="131">
+      <c r="A33" s="114">
         <v>43433</v>
       </c>
-      <c r="B33" s="128">
+      <c r="B33" s="111">
         <f>C32</f>
         <v>79915</v>
       </c>
-      <c r="C33" s="128">
+      <c r="C33" s="111">
         <v>80030</v>
       </c>
-      <c r="D33" s="111">
+      <c r="D33" s="94">
         <f>G_2018[[#This Row],[km fim]]-G_2018[[#This Row],[km ini]]</f>
         <v>115</v>
       </c>
-      <c r="E33" s="140">
+      <c r="E33" s="123">
         <v>60</v>
       </c>
-      <c r="F33" s="132">
+      <c r="F33" s="115">
         <v>4.59</v>
       </c>
-      <c r="G33" s="117">
+      <c r="G33" s="100">
         <f>G_2018[[#This Row],[valor]]/G_2018[[#This Row],[preço]]</f>
         <v>13.071895424836601</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="131">
+      <c r="A34" s="114">
         <v>43442</v>
       </c>
-      <c r="B34" s="128">
+      <c r="B34" s="111">
         <f>C33</f>
         <v>80030</v>
       </c>
-      <c r="C34" s="128">
+      <c r="C34" s="111">
         <v>80148</v>
       </c>
-      <c r="D34" s="111">
+      <c r="D34" s="94">
         <f>G_2018[[#This Row],[km fim]]-G_2018[[#This Row],[km ini]]</f>
         <v>118</v>
       </c>
-      <c r="E34" s="140">
+      <c r="E34" s="123">
         <v>80</v>
       </c>
-      <c r="F34" s="132">
+      <c r="F34" s="115">
         <v>4.79</v>
       </c>
-      <c r="G34" s="117">
+      <c r="G34" s="100">
         <f>G_2018[[#This Row],[valor]]/G_2018[[#This Row],[preço]]</f>
         <v>16.701461377870565</v>
       </c>
@@ -5868,7 +5016,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B43933D-4CC7-4766-9778-D69CB537A172}">
   <dimension ref="A1:H3"/>
   <sheetViews>
@@ -5894,78 +5042,78 @@
         <v>3</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="139" t="s">
-        <v>23</v>
+      <c r="F1" s="122" t="s">
+        <v>16</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="131">
+      <c r="A2" s="114">
         <v>43476</v>
       </c>
-      <c r="B2" s="143">
+      <c r="B2" s="126">
         <v>0.70833333333333337</v>
       </c>
-      <c r="C2" s="128">
+      <c r="C2" s="111">
         <v>81120</v>
       </c>
-      <c r="D2" s="128">
+      <c r="D2" s="111">
         <v>81216</v>
       </c>
-      <c r="E2" s="111">
+      <c r="E2" s="94">
         <f>G_2019[[#This Row],[km fim]]-G_2019[[#This Row],[km ini]]</f>
         <v>96</v>
       </c>
-      <c r="F2" s="140">
+      <c r="F2" s="123">
         <v>60</v>
       </c>
-      <c r="G2" s="132">
+      <c r="G2" s="115">
         <v>4.1500000000000004</v>
       </c>
-      <c r="H2" s="117">
+      <c r="H2" s="100">
         <f>G_2019[[#This Row],[valor]]/G_2019[[#This Row],[preço]]</f>
         <v>14.457831325301203</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="131">
+      <c r="A3" s="114">
         <v>43487</v>
       </c>
-      <c r="B3" s="143">
+      <c r="B3" s="126">
         <v>0.4861111111111111</v>
       </c>
-      <c r="C3" s="128">
+      <c r="C3" s="111">
         <f>D2</f>
         <v>81216</v>
       </c>
-      <c r="D3" s="128"/>
-      <c r="E3" s="111">
+      <c r="D3" s="111"/>
+      <c r="E3" s="94">
         <f>G_2019[[#This Row],[km fim]]-G_2019[[#This Row],[km ini]]</f>
         <v>-81216</v>
       </c>
-      <c r="F3" s="140">
+      <c r="F3" s="123">
         <v>60</v>
       </c>
-      <c r="G3" s="132">
+      <c r="G3" s="115">
         <v>4.25</v>
       </c>
-      <c r="H3" s="117">
+      <c r="H3" s="100">
         <f>G_2019[[#This Row],[valor]]/G_2019[[#This Row],[preço]]</f>
         <v>14.117647058823529</v>
       </c>
@@ -5979,7 +5127,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60EBE3EB-7212-496F-8DCC-20D09D5C0D53}">
   <sheetPr>
     <tabColor theme="0" tint="-0.499984740745262"/>
@@ -5987,7 +5135,7 @@
   <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6009,1307 +5157,1307 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="87" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="102" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="102" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="102" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" s="102" t="s">
+      <c r="C1" s="85" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="85" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="85" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="85" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="101" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="88" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="85" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="101" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="102" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" s="118" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="105" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" s="102" t="s">
+      <c r="K1" s="85" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" s="133" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="125" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="118" t="s">
-        <v>33</v>
-      </c>
-      <c r="K1" s="102" t="s">
+      <c r="N1" s="133" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="150" t="s">
-        <v>24</v>
-      </c>
-      <c r="M1" s="142" t="s">
-        <v>36</v>
-      </c>
-      <c r="N1" s="150" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="135">
+      <c r="A2" s="118">
         <v>42737</v>
       </c>
-      <c r="B2" s="116"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="119">
+      <c r="B2" s="99"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="102">
         <v>63873</v>
       </c>
-      <c r="F2" s="119">
+      <c r="F2" s="102">
         <v>64224</v>
       </c>
-      <c r="G2" s="120">
+      <c r="G2" s="103">
         <f t="shared" ref="G2:G26" si="0">F2-E2</f>
         <v>351</v>
       </c>
-      <c r="H2" s="111">
+      <c r="H2" s="94">
         <v>39.75</v>
       </c>
-      <c r="I2" s="111">
+      <c r="I2" s="94">
         <v>12</v>
       </c>
-      <c r="J2" s="122">
+      <c r="J2" s="105">
         <f>Viagens[[#This Row],[L ini]]-Viagens[[#This Row],[L fim]]</f>
         <v>27.75</v>
       </c>
-      <c r="K2" s="117">
+      <c r="K2" s="100">
         <f>Viagens[[#This Row],[km]]/Viagens[[#This Row],[L]]</f>
         <v>12.648648648648649</v>
       </c>
-      <c r="L2" s="151">
+      <c r="L2" s="134">
         <v>4</v>
       </c>
-      <c r="M2" s="141">
+      <c r="M2" s="124">
         <f>Viagens[[#This Row],[preço]]/Viagens[[#This Row],[consumo]]</f>
         <v>0.31623931623931623</v>
       </c>
-      <c r="N2" s="153">
+      <c r="N2" s="136">
         <f>Viagens[[#This Row],[L]]*Viagens[[#This Row],[preço]]</f>
         <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="135">
+      <c r="A3" s="118">
         <v>42790</v>
       </c>
-      <c r="B3" s="116"/>
-      <c r="C3" s="115"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="119">
+      <c r="B3" s="99"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="102">
         <v>64569</v>
       </c>
-      <c r="F3" s="119">
+      <c r="F3" s="102">
         <v>64947</v>
       </c>
-      <c r="G3" s="120">
+      <c r="G3" s="103">
         <f t="shared" si="0"/>
         <v>378</v>
       </c>
-      <c r="H3" s="111">
+      <c r="H3" s="94">
         <v>37.81</v>
       </c>
-      <c r="I3" s="111">
+      <c r="I3" s="94">
         <v>10</v>
       </c>
-      <c r="J3" s="122">
+      <c r="J3" s="105">
         <f>Viagens[[#This Row],[L ini]]-Viagens[[#This Row],[L fim]]</f>
         <v>27.810000000000002</v>
       </c>
-      <c r="K3" s="117">
+      <c r="K3" s="100">
         <f>Viagens[[#This Row],[km]]/Viagens[[#This Row],[L]]</f>
         <v>13.592233009708737</v>
       </c>
-      <c r="L3" s="151">
+      <c r="L3" s="134">
         <v>3.93</v>
       </c>
-      <c r="M3" s="141">
+      <c r="M3" s="124">
         <f>Viagens[[#This Row],[preço]]/Viagens[[#This Row],[consumo]]</f>
         <v>0.28913571428571433</v>
       </c>
-      <c r="N3" s="153">
+      <c r="N3" s="136">
         <f>Viagens[[#This Row],[L]]*Viagens[[#This Row],[preço]]</f>
         <v>109.29330000000002</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="135">
+      <c r="A4" s="118">
         <v>42806</v>
       </c>
-      <c r="B4" s="116"/>
-      <c r="C4" s="115"/>
-      <c r="D4" s="115"/>
-      <c r="E4" s="119">
+      <c r="B4" s="99"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="102">
         <v>65175</v>
       </c>
-      <c r="F4" s="119">
+      <c r="F4" s="102">
         <v>65574</v>
       </c>
-      <c r="G4" s="120">
+      <c r="G4" s="103">
         <f t="shared" si="0"/>
         <v>399</v>
       </c>
-      <c r="H4" s="111">
+      <c r="H4" s="94">
         <v>47.26</v>
       </c>
-      <c r="I4" s="111">
+      <c r="I4" s="94">
         <v>15.5</v>
       </c>
-      <c r="J4" s="122">
+      <c r="J4" s="105">
         <f>Viagens[[#This Row],[L ini]]-Viagens[[#This Row],[L fim]]</f>
         <v>31.759999999999998</v>
       </c>
-      <c r="K4" s="117">
+      <c r="K4" s="100">
         <f>Viagens[[#This Row],[km]]/Viagens[[#This Row],[L]]</f>
         <v>12.562972292191436</v>
       </c>
-      <c r="L4" s="151">
+      <c r="L4" s="134">
         <v>4</v>
       </c>
-      <c r="M4" s="141">
+      <c r="M4" s="124">
         <f>Viagens[[#This Row],[preço]]/Viagens[[#This Row],[consumo]]</f>
         <v>0.31839598997493734</v>
       </c>
-      <c r="N4" s="153">
+      <c r="N4" s="136">
         <f>Viagens[[#This Row],[L]]*Viagens[[#This Row],[preço]]</f>
         <v>127.03999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="135">
+      <c r="A5" s="118">
         <v>42838</v>
       </c>
-      <c r="B5" s="116"/>
-      <c r="C5" s="115"/>
-      <c r="D5" s="115"/>
-      <c r="E5" s="119">
+      <c r="B5" s="99"/>
+      <c r="C5" s="98"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="102">
         <v>65820</v>
       </c>
-      <c r="F5" s="119">
+      <c r="F5" s="102">
         <v>66204</v>
       </c>
-      <c r="G5" s="120">
+      <c r="G5" s="103">
         <f t="shared" si="0"/>
         <v>384</v>
       </c>
-      <c r="H5" s="111">
+      <c r="H5" s="94">
         <v>37.659999999999997</v>
       </c>
-      <c r="I5" s="111">
+      <c r="I5" s="94">
         <v>12</v>
       </c>
-      <c r="J5" s="122">
+      <c r="J5" s="105">
         <f>Viagens[[#This Row],[L ini]]-Viagens[[#This Row],[L fim]]</f>
         <v>25.659999999999997</v>
       </c>
-      <c r="K5" s="117">
+      <c r="K5" s="100">
         <f>Viagens[[#This Row],[km]]/Viagens[[#This Row],[L]]</f>
         <v>14.964925954793454</v>
       </c>
-      <c r="L5" s="151">
+      <c r="L5" s="134">
         <v>3.79</v>
       </c>
-      <c r="M5" s="141">
+      <c r="M5" s="124">
         <f>Viagens[[#This Row],[preço]]/Viagens[[#This Row],[consumo]]</f>
         <v>0.25325885416666666</v>
       </c>
-      <c r="N5" s="153">
+      <c r="N5" s="136">
         <f>Viagens[[#This Row],[L]]*Viagens[[#This Row],[preço]]</f>
         <v>97.25139999999999</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="135">
+      <c r="A6" s="118">
         <v>42841</v>
       </c>
-      <c r="B6" s="116"/>
-      <c r="C6" s="115"/>
-      <c r="D6" s="115"/>
-      <c r="E6" s="119">
+      <c r="B6" s="99"/>
+      <c r="C6" s="98"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="102">
         <v>66301</v>
       </c>
-      <c r="F6" s="119">
+      <c r="F6" s="102">
         <v>66672</v>
       </c>
-      <c r="G6" s="120">
+      <c r="G6" s="103">
         <f t="shared" si="0"/>
         <v>371</v>
       </c>
-      <c r="H6" s="111">
+      <c r="H6" s="94">
         <v>39.19</v>
       </c>
-      <c r="I6" s="111">
+      <c r="I6" s="94">
         <v>10</v>
       </c>
-      <c r="J6" s="122">
+      <c r="J6" s="105">
         <f>Viagens[[#This Row],[L ini]]-Viagens[[#This Row],[L fim]]</f>
         <v>29.189999999999998</v>
       </c>
-      <c r="K6" s="117">
+      <c r="K6" s="100">
         <f>Viagens[[#This Row],[km]]/Viagens[[#This Row],[L]]</f>
         <v>12.709832134292567</v>
       </c>
-      <c r="L6" s="151">
+      <c r="L6" s="134">
         <v>3.89</v>
       </c>
-      <c r="M6" s="141">
+      <c r="M6" s="124">
         <f>Viagens[[#This Row],[preço]]/Viagens[[#This Row],[consumo]]</f>
         <v>0.3060622641509434</v>
       </c>
-      <c r="N6" s="153">
+      <c r="N6" s="136">
         <f>Viagens[[#This Row],[L]]*Viagens[[#This Row],[preço]]</f>
         <v>113.5491</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="135">
+      <c r="A7" s="118">
         <v>42935</v>
       </c>
-      <c r="B7" s="116"/>
-      <c r="C7" s="115"/>
-      <c r="D7" s="115"/>
-      <c r="E7" s="119">
+      <c r="B7" s="99"/>
+      <c r="C7" s="98"/>
+      <c r="D7" s="98"/>
+      <c r="E7" s="102">
         <v>67538</v>
       </c>
-      <c r="F7" s="119">
+      <c r="F7" s="102">
         <v>67937</v>
       </c>
-      <c r="G7" s="120">
+      <c r="G7" s="103">
         <f t="shared" si="0"/>
         <v>399</v>
       </c>
-      <c r="H7" s="111">
+      <c r="H7" s="94">
         <v>39.15</v>
       </c>
-      <c r="I7" s="111">
+      <c r="I7" s="94">
         <v>6</v>
       </c>
-      <c r="J7" s="122">
+      <c r="J7" s="105">
         <f>Viagens[[#This Row],[L ini]]-Viagens[[#This Row],[L fim]]</f>
         <v>33.15</v>
       </c>
-      <c r="K7" s="117">
+      <c r="K7" s="100">
         <f>Viagens[[#This Row],[km]]/Viagens[[#This Row],[L]]</f>
         <v>12.036199095022624</v>
       </c>
-      <c r="L7" s="151">
+      <c r="L7" s="134">
         <v>3.62</v>
       </c>
-      <c r="M7" s="141">
+      <c r="M7" s="124">
         <f>Viagens[[#This Row],[preço]]/Viagens[[#This Row],[consumo]]</f>
         <v>0.30075939849624062</v>
       </c>
-      <c r="N7" s="153">
+      <c r="N7" s="136">
         <f>Viagens[[#This Row],[L]]*Viagens[[#This Row],[preço]]</f>
         <v>120.003</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="135">
+      <c r="A8" s="118">
         <v>42945</v>
       </c>
-      <c r="B8" s="116"/>
-      <c r="C8" s="115"/>
-      <c r="D8" s="115"/>
-      <c r="E8" s="119">
+      <c r="B8" s="99"/>
+      <c r="C8" s="98"/>
+      <c r="D8" s="98"/>
+      <c r="E8" s="102">
         <v>68001</v>
       </c>
-      <c r="F8" s="119">
+      <c r="F8" s="102">
         <v>68381</v>
       </c>
-      <c r="G8" s="120">
+      <c r="G8" s="103">
         <f t="shared" si="0"/>
         <v>380</v>
       </c>
-      <c r="H8" s="111">
+      <c r="H8" s="94">
         <v>41</v>
       </c>
-      <c r="I8" s="111">
+      <c r="I8" s="94">
         <v>12</v>
       </c>
-      <c r="J8" s="122">
+      <c r="J8" s="105">
         <f>Viagens[[#This Row],[L ini]]-Viagens[[#This Row],[L fim]]</f>
         <v>29</v>
       </c>
-      <c r="K8" s="117">
+      <c r="K8" s="100">
         <f>Viagens[[#This Row],[km]]/Viagens[[#This Row],[L]]</f>
         <v>13.103448275862069</v>
       </c>
-      <c r="L8" s="151">
+      <c r="L8" s="134">
         <v>4</v>
       </c>
-      <c r="M8" s="141">
+      <c r="M8" s="124">
         <f>Viagens[[#This Row],[preço]]/Viagens[[#This Row],[consumo]]</f>
         <v>0.30526315789473685</v>
       </c>
-      <c r="N8" s="153">
+      <c r="N8" s="136">
         <f>Viagens[[#This Row],[L]]*Viagens[[#This Row],[preço]]</f>
         <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="135">
+      <c r="A9" s="118">
         <v>42946</v>
       </c>
-      <c r="B9" s="116"/>
-      <c r="C9" s="115"/>
-      <c r="D9" s="115"/>
-      <c r="E9" s="119">
+      <c r="B9" s="99"/>
+      <c r="C9" s="98"/>
+      <c r="D9" s="98"/>
+      <c r="E9" s="102">
         <v>68381</v>
       </c>
-      <c r="F9" s="119">
+      <c r="F9" s="102">
         <v>68729</v>
       </c>
-      <c r="G9" s="120">
+      <c r="G9" s="103">
         <f t="shared" si="0"/>
         <v>348</v>
       </c>
-      <c r="H9" s="111">
+      <c r="H9" s="94">
         <v>43</v>
       </c>
-      <c r="I9" s="111">
+      <c r="I9" s="94">
         <v>15</v>
       </c>
-      <c r="J9" s="122">
+      <c r="J9" s="105">
         <f>Viagens[[#This Row],[L ini]]-Viagens[[#This Row],[L fim]]</f>
         <v>28</v>
       </c>
-      <c r="K9" s="117">
+      <c r="K9" s="100">
         <f>Viagens[[#This Row],[km]]/Viagens[[#This Row],[L]]</f>
         <v>12.428571428571429</v>
       </c>
-      <c r="L9" s="151">
+      <c r="L9" s="134">
         <v>3.9</v>
       </c>
-      <c r="M9" s="141">
+      <c r="M9" s="124">
         <f>Viagens[[#This Row],[preço]]/Viagens[[#This Row],[consumo]]</f>
         <v>0.31379310344827582</v>
       </c>
-      <c r="N9" s="153">
+      <c r="N9" s="136">
         <f>Viagens[[#This Row],[L]]*Viagens[[#This Row],[preço]]</f>
         <v>109.2</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="135">
+      <c r="A10" s="118">
         <v>42961</v>
       </c>
-      <c r="B10" s="116"/>
-      <c r="C10" s="115"/>
-      <c r="D10" s="115"/>
-      <c r="E10" s="119">
+      <c r="B10" s="99"/>
+      <c r="C10" s="98"/>
+      <c r="D10" s="98"/>
+      <c r="E10" s="102">
         <v>68995</v>
       </c>
-      <c r="F10" s="119">
+      <c r="F10" s="102">
         <v>69370</v>
       </c>
-      <c r="G10" s="120">
+      <c r="G10" s="103">
         <f t="shared" si="0"/>
         <v>375</v>
       </c>
-      <c r="H10" s="111">
+      <c r="H10" s="94">
         <v>42.41</v>
       </c>
-      <c r="I10" s="111">
+      <c r="I10" s="94">
         <v>10.5</v>
       </c>
-      <c r="J10" s="122">
+      <c r="J10" s="105">
         <f>Viagens[[#This Row],[L ini]]-Viagens[[#This Row],[L fim]]</f>
         <v>31.909999999999997</v>
       </c>
-      <c r="K10" s="117">
+      <c r="K10" s="100">
         <f>Viagens[[#This Row],[km]]/Viagens[[#This Row],[L]]</f>
         <v>11.751801942964589</v>
       </c>
-      <c r="L10" s="151">
+      <c r="L10" s="134">
         <v>4.1900000000000004</v>
       </c>
-      <c r="M10" s="141">
+      <c r="M10" s="124">
         <f>Viagens[[#This Row],[preço]]/Viagens[[#This Row],[consumo]]</f>
         <v>0.35654106666666668</v>
       </c>
-      <c r="N10" s="153">
+      <c r="N10" s="136">
         <f>Viagens[[#This Row],[L]]*Viagens[[#This Row],[preço]]</f>
         <v>133.7029</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="135">
+      <c r="A11" s="118">
         <v>43040</v>
       </c>
-      <c r="B11" s="116"/>
-      <c r="C11" s="115"/>
-      <c r="D11" s="115"/>
-      <c r="E11" s="119">
+      <c r="B11" s="99"/>
+      <c r="C11" s="98"/>
+      <c r="D11" s="98"/>
+      <c r="E11" s="102">
         <v>70001</v>
       </c>
-      <c r="F11" s="119">
+      <c r="F11" s="102">
         <v>70379</v>
       </c>
-      <c r="G11" s="120">
+      <c r="G11" s="103">
         <f t="shared" si="0"/>
         <v>378</v>
       </c>
-      <c r="H11" s="111">
+      <c r="H11" s="94">
         <v>35.770000000000003</v>
       </c>
-      <c r="I11" s="111">
+      <c r="I11" s="94">
         <v>9</v>
       </c>
-      <c r="J11" s="122">
+      <c r="J11" s="105">
         <f>Viagens[[#This Row],[L ini]]-Viagens[[#This Row],[L fim]]</f>
         <v>26.770000000000003</v>
       </c>
-      <c r="K11" s="117">
+      <c r="K11" s="100">
         <f>Viagens[[#This Row],[km]]/Viagens[[#This Row],[L]]</f>
         <v>14.120283899887932</v>
       </c>
-      <c r="L11" s="151">
+      <c r="L11" s="134">
         <v>3.92</v>
       </c>
-      <c r="M11" s="141">
+      <c r="M11" s="124">
         <f>Viagens[[#This Row],[preço]]/Viagens[[#This Row],[consumo]]</f>
         <v>0.27761481481481487</v>
       </c>
-      <c r="N11" s="153">
+      <c r="N11" s="136">
         <f>Viagens[[#This Row],[L]]*Viagens[[#This Row],[preço]]</f>
         <v>104.93840000000002</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="135">
+      <c r="A12" s="118">
         <v>43044</v>
       </c>
-      <c r="B12" s="116"/>
-      <c r="C12" s="115"/>
-      <c r="D12" s="115"/>
-      <c r="E12" s="119">
+      <c r="B12" s="99"/>
+      <c r="C12" s="98"/>
+      <c r="D12" s="98"/>
+      <c r="E12" s="102">
         <v>70431</v>
       </c>
-      <c r="F12" s="119">
+      <c r="F12" s="102">
         <v>70809</v>
       </c>
-      <c r="G12" s="120">
+      <c r="G12" s="103">
         <f t="shared" si="0"/>
         <v>378</v>
       </c>
-      <c r="H12" s="111">
+      <c r="H12" s="94">
         <v>38.869999999999997</v>
       </c>
-      <c r="I12" s="111">
+      <c r="I12" s="94">
         <v>10</v>
       </c>
-      <c r="J12" s="122">
+      <c r="J12" s="105">
         <f>Viagens[[#This Row],[L ini]]-Viagens[[#This Row],[L fim]]</f>
         <v>28.869999999999997</v>
       </c>
-      <c r="K12" s="117">
+      <c r="K12" s="100">
         <f>Viagens[[#This Row],[km]]/Viagens[[#This Row],[L]]</f>
         <v>13.093176307585731</v>
       </c>
-      <c r="L12" s="151">
+      <c r="L12" s="134">
         <v>4.09</v>
       </c>
-      <c r="M12" s="141">
+      <c r="M12" s="124">
         <f>Viagens[[#This Row],[preço]]/Viagens[[#This Row],[consumo]]</f>
         <v>0.312376455026455</v>
       </c>
-      <c r="N12" s="153">
+      <c r="N12" s="136">
         <f>Viagens[[#This Row],[L]]*Viagens[[#This Row],[preço]]</f>
         <v>118.07829999999998</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="135">
+      <c r="A13" s="118">
         <v>43087</v>
       </c>
-      <c r="B13" s="116"/>
-      <c r="C13" s="115"/>
-      <c r="D13" s="115"/>
-      <c r="E13" s="119">
+      <c r="B13" s="99"/>
+      <c r="C13" s="98"/>
+      <c r="D13" s="98"/>
+      <c r="E13" s="102">
         <v>71219</v>
       </c>
-      <c r="F13" s="119">
+      <c r="F13" s="102">
         <v>71611</v>
       </c>
-      <c r="G13" s="120">
+      <c r="G13" s="103">
         <f t="shared" si="0"/>
         <v>392</v>
       </c>
-      <c r="H13" s="111">
+      <c r="H13" s="94">
         <v>38.869999999999997</v>
       </c>
-      <c r="I13" s="111">
+      <c r="I13" s="94">
         <v>10</v>
       </c>
-      <c r="J13" s="122">
+      <c r="J13" s="105">
         <f>Viagens[[#This Row],[L ini]]-Viagens[[#This Row],[L fim]]</f>
         <v>28.869999999999997</v>
       </c>
-      <c r="K13" s="117">
+      <c r="K13" s="100">
         <f>Viagens[[#This Row],[km]]/Viagens[[#This Row],[L]]</f>
         <v>13.578108763422239</v>
       </c>
-      <c r="L13" s="151">
+      <c r="L13" s="134">
         <v>4.17</v>
       </c>
-      <c r="M13" s="141">
+      <c r="M13" s="124">
         <f>Viagens[[#This Row],[preço]]/Viagens[[#This Row],[consumo]]</f>
         <v>0.30711198979591831</v>
       </c>
-      <c r="N13" s="153">
+      <c r="N13" s="136">
         <f>Viagens[[#This Row],[L]]*Viagens[[#This Row],[preço]]</f>
         <v>120.38789999999999</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="135">
+      <c r="A14" s="118">
         <v>43119</v>
       </c>
-      <c r="B14" s="116">
+      <c r="B14" s="99">
         <v>0.34375</v>
       </c>
-      <c r="C14" s="115">
+      <c r="C14" s="98">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D14" s="115">
+      <c r="D14" s="98">
         <f>Viagens[[#This Row],[hora fim]]-Viagens[[#This Row],[hora ini]]</f>
         <v>0.19791666666666663</v>
       </c>
-      <c r="E14" s="119">
+      <c r="E14" s="102">
         <v>72158</v>
       </c>
-      <c r="F14" s="119">
+      <c r="F14" s="102">
         <v>72533</v>
       </c>
-      <c r="G14" s="120">
+      <c r="G14" s="103">
         <f t="shared" si="0"/>
         <v>375</v>
       </c>
-      <c r="H14" s="111">
+      <c r="H14" s="94">
         <v>42.8</v>
       </c>
-      <c r="I14" s="111">
+      <c r="I14" s="94">
         <v>16</v>
       </c>
-      <c r="J14" s="122">
+      <c r="J14" s="105">
         <f>Viagens[[#This Row],[L ini]]-Viagens[[#This Row],[L fim]]</f>
         <v>26.799999999999997</v>
       </c>
-      <c r="K14" s="117">
+      <c r="K14" s="100">
         <f>Viagens[[#This Row],[km]]/Viagens[[#This Row],[L]]</f>
         <v>13.992537313432837</v>
       </c>
-      <c r="L14" s="151">
+      <c r="L14" s="134">
         <v>4.29</v>
       </c>
-      <c r="M14" s="141">
+      <c r="M14" s="124">
         <f>Viagens[[#This Row],[preço]]/Viagens[[#This Row],[consumo]]</f>
         <v>0.30659199999999998</v>
       </c>
-      <c r="N14" s="153">
+      <c r="N14" s="136">
         <f>Viagens[[#This Row],[L]]*Viagens[[#This Row],[preço]]</f>
         <v>114.97199999999999</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="135">
+      <c r="A15" s="118">
         <v>43128</v>
       </c>
-      <c r="B15" s="116">
+      <c r="B15" s="99">
         <v>0.55277777777777781</v>
       </c>
-      <c r="C15" s="115">
+      <c r="C15" s="98">
         <v>0.78194444444444444</v>
       </c>
-      <c r="D15" s="115">
+      <c r="D15" s="98">
         <f>Viagens[[#This Row],[hora fim]]-Viagens[[#This Row],[hora ini]]</f>
         <v>0.22916666666666663</v>
       </c>
-      <c r="E15" s="119">
+      <c r="E15" s="102">
         <v>72667</v>
       </c>
-      <c r="F15" s="119">
+      <c r="F15" s="102">
         <v>73042</v>
       </c>
-      <c r="G15" s="120">
+      <c r="G15" s="103">
         <f t="shared" si="0"/>
         <v>375</v>
       </c>
-      <c r="H15" s="111">
+      <c r="H15" s="94">
         <v>35.972000000000001</v>
       </c>
-      <c r="I15" s="111">
+      <c r="I15" s="94">
         <v>9</v>
       </c>
-      <c r="J15" s="122">
+      <c r="J15" s="105">
         <f>Viagens[[#This Row],[L ini]]-Viagens[[#This Row],[L fim]]</f>
         <v>26.972000000000001</v>
       </c>
-      <c r="K15" s="117">
+      <c r="K15" s="100">
         <f>Viagens[[#This Row],[km]]/Viagens[[#This Row],[L]]</f>
         <v>13.903307133323446</v>
       </c>
-      <c r="L15" s="151">
+      <c r="L15" s="134">
         <v>4.2699999999999996</v>
       </c>
-      <c r="M15" s="141">
+      <c r="M15" s="124">
         <f>Viagens[[#This Row],[preço]]/Viagens[[#This Row],[consumo]]</f>
         <v>0.30712117333333333</v>
       </c>
-      <c r="N15" s="153">
+      <c r="N15" s="136">
         <f>Viagens[[#This Row],[L]]*Viagens[[#This Row],[preço]]</f>
         <v>115.17044</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="135">
+      <c r="A16" s="118">
         <v>43148</v>
       </c>
-      <c r="B16" s="116"/>
-      <c r="C16" s="115"/>
-      <c r="D16" s="115"/>
-      <c r="E16" s="119">
+      <c r="B16" s="99"/>
+      <c r="C16" s="98"/>
+      <c r="D16" s="98"/>
+      <c r="E16" s="102">
         <v>73312</v>
       </c>
-      <c r="F16" s="119">
+      <c r="F16" s="102">
         <v>73666</v>
       </c>
-      <c r="G16" s="120">
+      <c r="G16" s="103">
         <f t="shared" si="0"/>
         <v>354</v>
       </c>
-      <c r="H16" s="111">
+      <c r="H16" s="94">
         <v>44.981999999999999</v>
       </c>
-      <c r="I16" s="111">
+      <c r="I16" s="94">
         <v>18</v>
       </c>
-      <c r="J16" s="122">
+      <c r="J16" s="105">
         <f>Viagens[[#This Row],[L ini]]-Viagens[[#This Row],[L fim]]</f>
         <v>26.981999999999999</v>
       </c>
-      <c r="K16" s="117">
+      <c r="K16" s="100">
         <f>Viagens[[#This Row],[km]]/Viagens[[#This Row],[L]]</f>
         <v>13.119857682899712</v>
       </c>
-      <c r="L16" s="152">
+      <c r="L16" s="135">
         <v>4.49</v>
       </c>
-      <c r="M16" s="141">
+      <c r="M16" s="124">
         <f>Viagens[[#This Row],[preço]]/Viagens[[#This Row],[consumo]]</f>
         <v>0.34222932203389833</v>
       </c>
-      <c r="N16" s="153">
+      <c r="N16" s="136">
         <f>Viagens[[#This Row],[L]]*Viagens[[#This Row],[preço]]</f>
         <v>121.14918</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="135">
+      <c r="A17" s="118">
         <v>43187</v>
       </c>
-      <c r="B17" s="116">
+      <c r="B17" s="99">
         <v>0.57986111111111105</v>
       </c>
-      <c r="C17" s="115">
+      <c r="C17" s="98">
         <v>0.79791666666666661</v>
       </c>
-      <c r="D17" s="115">
+      <c r="D17" s="98">
         <f>Viagens[[#This Row],[hora fim]]-Viagens[[#This Row],[hora ini]]</f>
         <v>0.21805555555555556</v>
       </c>
-      <c r="E17" s="119">
+      <c r="E17" s="102">
         <v>74082</v>
       </c>
-      <c r="F17" s="119">
+      <c r="F17" s="102">
         <v>74449</v>
       </c>
-      <c r="G17" s="120">
+      <c r="G17" s="103">
         <f t="shared" si="0"/>
         <v>367</v>
       </c>
-      <c r="H17" s="111">
+      <c r="H17" s="94">
         <v>34.168564920273354</v>
       </c>
-      <c r="I17" s="111">
+      <c r="I17" s="94">
         <v>8</v>
       </c>
-      <c r="J17" s="122">
+      <c r="J17" s="105">
         <f>Viagens[[#This Row],[L ini]]-Viagens[[#This Row],[L fim]]</f>
         <v>26.168564920273354</v>
       </c>
-      <c r="K17" s="117">
+      <c r="K17" s="100">
         <f>Viagens[[#This Row],[km]]/Viagens[[#This Row],[L]]</f>
         <v>14.024460306406683</v>
       </c>
-      <c r="L17" s="152">
+      <c r="L17" s="135">
         <v>4.3899999999999997</v>
       </c>
-      <c r="M17" s="141">
+      <c r="M17" s="124">
         <f>Viagens[[#This Row],[preço]]/Viagens[[#This Row],[consumo]]</f>
         <v>0.31302452316076296</v>
       </c>
-      <c r="N17" s="153">
+      <c r="N17" s="136">
         <f>Viagens[[#This Row],[L]]*Viagens[[#This Row],[preço]]</f>
         <v>114.88000000000002</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="135">
+      <c r="A18" s="118">
         <v>43190</v>
       </c>
-      <c r="B18" s="116">
+      <c r="B18" s="99">
         <v>0.56944444444444442</v>
       </c>
-      <c r="C18" s="115">
+      <c r="C18" s="98">
         <v>0.75347222222222221</v>
       </c>
-      <c r="D18" s="115">
+      <c r="D18" s="98">
         <f>Viagens[[#This Row],[hora fim]]-Viagens[[#This Row],[hora ini]]</f>
         <v>0.18402777777777779</v>
       </c>
-      <c r="E18" s="119">
+      <c r="E18" s="102">
         <v>74474</v>
       </c>
-      <c r="F18" s="119">
+      <c r="F18" s="102">
         <v>74825</v>
       </c>
-      <c r="G18" s="120">
+      <c r="G18" s="103">
         <f t="shared" si="0"/>
         <v>351</v>
       </c>
-      <c r="H18" s="111">
+      <c r="H18" s="94">
         <v>48</v>
       </c>
-      <c r="I18" s="111">
+      <c r="I18" s="94">
         <v>22</v>
       </c>
-      <c r="J18" s="122">
+      <c r="J18" s="105">
         <f>Viagens[[#This Row],[L ini]]-Viagens[[#This Row],[L fim]]</f>
         <v>26</v>
       </c>
-      <c r="K18" s="117">
+      <c r="K18" s="100">
         <f>Viagens[[#This Row],[km]]/Viagens[[#This Row],[L]]</f>
         <v>13.5</v>
       </c>
-      <c r="L18" s="152">
+      <c r="L18" s="135">
         <v>4.49</v>
       </c>
-      <c r="M18" s="141">
+      <c r="M18" s="124">
         <f>Viagens[[#This Row],[preço]]/Viagens[[#This Row],[consumo]]</f>
         <v>0.33259259259259261</v>
       </c>
-      <c r="N18" s="153">
+      <c r="N18" s="136">
         <f>Viagens[[#This Row],[L]]*Viagens[[#This Row],[preço]]</f>
         <v>116.74000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="135">
+      <c r="A19" s="118">
         <v>43287</v>
       </c>
-      <c r="B19" s="116">
+      <c r="B19" s="99">
         <v>0.24166666666666667</v>
       </c>
-      <c r="C19" s="115">
+      <c r="C19" s="98">
         <v>0.46111111111111108</v>
       </c>
-      <c r="D19" s="115">
+      <c r="D19" s="98">
         <f>Viagens[[#This Row],[hora fim]]-Viagens[[#This Row],[hora ini]]</f>
         <v>0.21944444444444441</v>
       </c>
-      <c r="E19" s="119">
+      <c r="E19" s="102">
         <v>75894</v>
       </c>
-      <c r="F19" s="119">
+      <c r="F19" s="102">
         <v>76265</v>
       </c>
-      <c r="G19" s="120">
+      <c r="G19" s="103">
         <f t="shared" si="0"/>
         <v>371</v>
       </c>
-      <c r="H19" s="111">
+      <c r="H19" s="94">
         <v>48</v>
       </c>
-      <c r="I19" s="111">
+      <c r="I19" s="94">
         <v>20</v>
       </c>
-      <c r="J19" s="122">
+      <c r="J19" s="105">
         <f>Viagens[[#This Row],[L ini]]-Viagens[[#This Row],[L fim]]</f>
         <v>28</v>
       </c>
-      <c r="K19" s="117">
+      <c r="K19" s="100">
         <f>Viagens[[#This Row],[km]]/Viagens[[#This Row],[L]]</f>
         <v>13.25</v>
       </c>
-      <c r="L19" s="152">
+      <c r="L19" s="135">
         <v>4.59</v>
       </c>
-      <c r="M19" s="141">
+      <c r="M19" s="124">
         <f>Viagens[[#This Row],[preço]]/Viagens[[#This Row],[consumo]]</f>
         <v>0.34641509433962264</v>
       </c>
-      <c r="N19" s="153">
+      <c r="N19" s="136">
         <f>Viagens[[#This Row],[L]]*Viagens[[#This Row],[preço]]</f>
         <v>128.51999999999998</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="135">
+      <c r="A20" s="118">
         <v>43289</v>
       </c>
-      <c r="B20" s="116">
+      <c r="B20" s="99">
         <v>0.61111111111111105</v>
       </c>
-      <c r="C20" s="115">
+      <c r="C20" s="98">
         <v>0.7597222222222223</v>
       </c>
-      <c r="D20" s="115">
+      <c r="D20" s="98">
         <f>Viagens[[#This Row],[hora fim]]-Viagens[[#This Row],[hora ini]]</f>
         <v>0.14861111111111125</v>
       </c>
-      <c r="E20" s="119">
+      <c r="E20" s="102">
         <v>76308</v>
       </c>
-      <c r="F20" s="119">
+      <c r="F20" s="102">
         <v>76660</v>
       </c>
-      <c r="G20" s="120">
+      <c r="G20" s="103">
         <f t="shared" si="0"/>
         <v>352</v>
       </c>
-      <c r="H20" s="111">
+      <c r="H20" s="94">
         <v>48</v>
       </c>
-      <c r="I20" s="111">
+      <c r="I20" s="94">
         <v>23</v>
       </c>
-      <c r="J20" s="122">
+      <c r="J20" s="105">
         <f>Viagens[[#This Row],[L ini]]-Viagens[[#This Row],[L fim]]</f>
         <v>25</v>
       </c>
-      <c r="K20" s="117">
+      <c r="K20" s="100">
         <f>Viagens[[#This Row],[km]]/Viagens[[#This Row],[L]]</f>
         <v>14.08</v>
       </c>
-      <c r="L20" s="152">
+      <c r="L20" s="135">
         <v>4.79</v>
       </c>
-      <c r="M20" s="141">
+      <c r="M20" s="124">
         <f>Viagens[[#This Row],[preço]]/Viagens[[#This Row],[consumo]]</f>
         <v>0.34019886363636365</v>
       </c>
-      <c r="N20" s="153">
+      <c r="N20" s="136">
         <f>Viagens[[#This Row],[L]]*Viagens[[#This Row],[preço]]</f>
         <v>119.75</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="136">
+      <c r="A21" s="119">
         <v>43350</v>
       </c>
-      <c r="B21" s="116">
+      <c r="B21" s="99">
         <v>0.35347222222222219</v>
       </c>
-      <c r="C21" s="115">
+      <c r="C21" s="98">
         <v>0.5493055555555556</v>
       </c>
-      <c r="D21" s="115">
+      <c r="D21" s="98">
         <f>Viagens[[#This Row],[hora fim]]-Viagens[[#This Row],[hora ini]]</f>
         <v>0.19583333333333341</v>
       </c>
-      <c r="E21" s="119">
+      <c r="E21" s="102">
         <v>77444</v>
       </c>
-      <c r="F21" s="119">
+      <c r="F21" s="102">
         <v>77816</v>
       </c>
-      <c r="G21" s="121">
+      <c r="G21" s="104">
         <f t="shared" si="0"/>
         <v>372</v>
       </c>
-      <c r="H21" s="111">
+      <c r="H21" s="94">
         <v>40</v>
       </c>
-      <c r="I21" s="111">
+      <c r="I21" s="94">
         <v>14</v>
       </c>
-      <c r="J21" s="122">
+      <c r="J21" s="105">
         <f>Viagens[[#This Row],[L ini]]-Viagens[[#This Row],[L fim]]</f>
         <v>26</v>
       </c>
-      <c r="K21" s="117">
+      <c r="K21" s="100">
         <f>Viagens[[#This Row],[km]]/Viagens[[#This Row],[L]]</f>
         <v>14.307692307692308</v>
       </c>
-      <c r="L21" s="152">
+      <c r="L21" s="135">
         <v>4.79</v>
       </c>
-      <c r="M21" s="141">
+      <c r="M21" s="124">
         <f>Viagens[[#This Row],[preço]]/Viagens[[#This Row],[consumo]]</f>
         <v>0.33478494623655913</v>
       </c>
-      <c r="N21" s="153">
+      <c r="N21" s="136">
         <f>Viagens[[#This Row],[L]]*Viagens[[#This Row],[preço]]</f>
         <v>124.54</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="136">
+      <c r="A22" s="119">
         <v>43352</v>
       </c>
-      <c r="B22" s="116">
+      <c r="B22" s="99">
         <v>0.47013888888888888</v>
       </c>
-      <c r="C22" s="115">
+      <c r="C22" s="98">
         <v>0.67638888888888893</v>
       </c>
-      <c r="D22" s="115">
+      <c r="D22" s="98">
         <f>Viagens[[#This Row],[hora fim]]-Viagens[[#This Row],[hora ini]]</f>
         <v>0.20625000000000004</v>
       </c>
-      <c r="E22" s="119">
+      <c r="E22" s="102">
         <v>77858</v>
       </c>
-      <c r="F22" s="119">
+      <c r="F22" s="102">
         <v>78222</v>
       </c>
-      <c r="G22" s="121">
+      <c r="G22" s="104">
         <f t="shared" si="0"/>
         <v>364</v>
       </c>
-      <c r="H22" s="111">
+      <c r="H22" s="94">
         <v>48</v>
       </c>
-      <c r="I22" s="111">
+      <c r="I22" s="94">
         <v>18</v>
       </c>
-      <c r="J22" s="122">
+      <c r="J22" s="105">
         <f>Viagens[[#This Row],[L ini]]-Viagens[[#This Row],[L fim]]</f>
         <v>30</v>
       </c>
-      <c r="K22" s="117">
+      <c r="K22" s="100">
         <f>Viagens[[#This Row],[km]]/Viagens[[#This Row],[L]]</f>
         <v>12.133333333333333</v>
       </c>
-      <c r="L22" s="152">
+      <c r="L22" s="135">
         <v>4.79</v>
       </c>
-      <c r="M22" s="141">
+      <c r="M22" s="124">
         <f>Viagens[[#This Row],[preço]]/Viagens[[#This Row],[consumo]]</f>
         <v>0.39478021978021982</v>
       </c>
-      <c r="N22" s="153">
+      <c r="N22" s="136">
         <f>Viagens[[#This Row],[L]]*Viagens[[#This Row],[preço]]</f>
         <v>143.69999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="136">
+      <c r="A23" s="119">
         <v>43385</v>
       </c>
-      <c r="B23" s="116">
+      <c r="B23" s="99">
         <v>0.38125000000000003</v>
       </c>
-      <c r="C23" s="115">
+      <c r="C23" s="98">
         <v>0.58402777777777781</v>
       </c>
-      <c r="D23" s="115">
+      <c r="D23" s="98">
         <f>Viagens[[#This Row],[hora fim]]-Viagens[[#This Row],[hora ini]]</f>
         <v>0.20277777777777778</v>
       </c>
-      <c r="E23" s="119">
+      <c r="E23" s="102">
         <v>78597</v>
       </c>
-      <c r="F23" s="119">
+      <c r="F23" s="102">
         <v>78960</v>
       </c>
-      <c r="G23" s="121">
+      <c r="G23" s="104">
         <f t="shared" si="0"/>
         <v>363</v>
       </c>
-      <c r="H23" s="111">
+      <c r="H23" s="94">
         <v>45</v>
       </c>
-      <c r="I23" s="111">
+      <c r="I23" s="94">
         <v>12</v>
       </c>
-      <c r="J23" s="122">
+      <c r="J23" s="105">
         <f>Viagens[[#This Row],[L ini]]-Viagens[[#This Row],[L fim]]</f>
         <v>33</v>
       </c>
-      <c r="K23" s="117">
+      <c r="K23" s="100">
         <f>Viagens[[#This Row],[km]]/Viagens[[#This Row],[L]]</f>
         <v>11</v>
       </c>
-      <c r="L23" s="152">
+      <c r="L23" s="135">
         <v>4.79</v>
       </c>
-      <c r="M23" s="141">
+      <c r="M23" s="124">
         <f>Viagens[[#This Row],[preço]]/Viagens[[#This Row],[consumo]]</f>
         <v>0.43545454545454548</v>
       </c>
-      <c r="N23" s="153">
+      <c r="N23" s="136">
         <f>Viagens[[#This Row],[L]]*Viagens[[#This Row],[preço]]</f>
         <v>158.07</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="136">
+      <c r="A24" s="119">
         <v>43388</v>
       </c>
-      <c r="B24" s="115">
+      <c r="B24" s="98">
         <v>0.33194444444444443</v>
       </c>
-      <c r="C24" s="115">
+      <c r="C24" s="98">
         <v>0.51111111111111118</v>
       </c>
-      <c r="D24" s="115">
+      <c r="D24" s="98">
         <f>Viagens[[#This Row],[hora fim]]-Viagens[[#This Row],[hora ini]]</f>
         <v>0.17916666666666675</v>
       </c>
-      <c r="E24" s="119">
+      <c r="E24" s="102">
         <v>79000</v>
       </c>
-      <c r="F24" s="119">
+      <c r="F24" s="102">
         <v>79352</v>
       </c>
-      <c r="G24" s="121">
+      <c r="G24" s="104">
         <f t="shared" si="0"/>
         <v>352</v>
       </c>
-      <c r="H24" s="111">
+      <c r="H24" s="94">
         <v>34</v>
       </c>
-      <c r="I24" s="111">
+      <c r="I24" s="94">
         <v>6</v>
       </c>
-      <c r="J24" s="122">
+      <c r="J24" s="105">
         <f>Viagens[[#This Row],[L ini]]-Viagens[[#This Row],[L fim]]</f>
         <v>28</v>
       </c>
-      <c r="K24" s="117">
+      <c r="K24" s="100">
         <f>Viagens[[#This Row],[km]]/Viagens[[#This Row],[L]]</f>
         <v>12.571428571428571</v>
       </c>
-      <c r="L24" s="152">
+      <c r="L24" s="135">
         <v>4.9400000000000004</v>
       </c>
-      <c r="M24" s="141">
+      <c r="M24" s="124">
         <f>Viagens[[#This Row],[preço]]/Viagens[[#This Row],[consumo]]</f>
         <v>0.3929545454545455</v>
       </c>
-      <c r="N24" s="153">
+      <c r="N24" s="136">
         <f>Viagens[[#This Row],[L]]*Viagens[[#This Row],[preço]]</f>
         <v>138.32000000000002</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="136">
+      <c r="A25" s="119">
         <v>43456</v>
       </c>
-      <c r="B25" s="115">
+      <c r="B25" s="98">
         <v>0.40416666666666662</v>
       </c>
-      <c r="C25" s="115">
+      <c r="C25" s="98">
         <v>0.6166666666666667</v>
       </c>
-      <c r="D25" s="115">
+      <c r="D25" s="98">
         <f>Viagens[[#This Row],[hora fim]]-Viagens[[#This Row],[hora ini]]</f>
         <v>0.21250000000000008</v>
       </c>
-      <c r="E25" s="119">
+      <c r="E25" s="102">
         <v>80192</v>
       </c>
-      <c r="F25" s="119">
+      <c r="F25" s="102">
         <v>80548</v>
       </c>
-      <c r="G25" s="121">
+      <c r="G25" s="104">
         <f t="shared" si="0"/>
         <v>356</v>
       </c>
-      <c r="H25" s="111">
+      <c r="H25" s="94">
         <v>43</v>
       </c>
-      <c r="I25" s="111">
+      <c r="I25" s="94">
         <v>13</v>
       </c>
-      <c r="J25" s="122">
+      <c r="J25" s="105">
         <f>Viagens[[#This Row],[L ini]]-Viagens[[#This Row],[L fim]]</f>
         <v>30</v>
       </c>
-      <c r="K25" s="117">
+      <c r="K25" s="100">
         <f>Viagens[[#This Row],[km]]/Viagens[[#This Row],[L]]</f>
         <v>11.866666666666667</v>
       </c>
-      <c r="L25" s="152">
+      <c r="L25" s="135">
         <v>4.3499999999999996</v>
       </c>
-      <c r="M25" s="141">
+      <c r="M25" s="124">
         <f>Viagens[[#This Row],[preço]]/Viagens[[#This Row],[consumo]]</f>
         <v>0.36657303370786515</v>
       </c>
-      <c r="N25" s="153">
+      <c r="N25" s="136">
         <f>Viagens[[#This Row],[L]]*Viagens[[#This Row],[preço]]</f>
         <v>130.5</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="135">
+      <c r="A26" s="118">
         <v>43824</v>
       </c>
-      <c r="B26" s="115">
+      <c r="B26" s="98">
         <v>0.60416666666666663</v>
       </c>
-      <c r="C26" s="115">
+      <c r="C26" s="98">
         <v>0.80208333333333337</v>
       </c>
-      <c r="D26" s="115">
+      <c r="D26" s="98">
         <f>Viagens[[#This Row],[hora fim]]-Viagens[[#This Row],[hora ini]]</f>
         <v>0.19791666666666674</v>
       </c>
-      <c r="E26" s="119">
+      <c r="E26" s="102">
         <v>80565</v>
       </c>
-      <c r="F26" s="119">
+      <c r="F26" s="102">
         <v>80925</v>
       </c>
-      <c r="G26" s="121">
+      <c r="G26" s="104">
         <f t="shared" si="0"/>
         <v>360</v>
       </c>
-      <c r="H26" s="111">
+      <c r="H26" s="94">
         <v>48</v>
       </c>
-      <c r="I26" s="111">
+      <c r="I26" s="94">
         <v>19</v>
       </c>
-      <c r="J26" s="122">
+      <c r="J26" s="105">
         <f>Viagens[[#This Row],[L ini]]-Viagens[[#This Row],[L fim]]</f>
         <v>29</v>
       </c>
-      <c r="K26" s="117">
+      <c r="K26" s="100">
         <f>Viagens[[#This Row],[km]]/Viagens[[#This Row],[L]]</f>
         <v>12.413793103448276</v>
       </c>
-      <c r="L26" s="152">
+      <c r="L26" s="135">
         <v>4.6399999999999997</v>
       </c>
-      <c r="M26" s="141">
+      <c r="M26" s="124">
         <f>Viagens[[#This Row],[preço]]/Viagens[[#This Row],[consumo]]</f>
         <v>0.37377777777777776</v>
       </c>
-      <c r="N26" s="153">
+      <c r="N26" s="136">
         <f>Viagens[[#This Row],[L]]*Viagens[[#This Row],[preço]]</f>
         <v>134.56</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="112"/>
-      <c r="B27" s="107"/>
-      <c r="C27" s="103"/>
-      <c r="D27" s="111"/>
-      <c r="E27" s="108"/>
-      <c r="F27" s="109"/>
-      <c r="G27" s="106"/>
-      <c r="H27" s="106"/>
+      <c r="A27" s="95"/>
+      <c r="B27" s="90"/>
+      <c r="C27" s="86"/>
+      <c r="D27" s="94"/>
+      <c r="E27" s="91"/>
+      <c r="F27" s="92"/>
+      <c r="G27" s="89"/>
+      <c r="H27" s="89"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="112"/>
-      <c r="B28" s="107"/>
-      <c r="C28" s="103"/>
-      <c r="D28" s="111"/>
-      <c r="E28" s="108"/>
-      <c r="F28" s="109"/>
-      <c r="G28" s="106"/>
-      <c r="H28" s="106"/>
+      <c r="A28" s="95"/>
+      <c r="B28" s="90"/>
+      <c r="C28" s="86"/>
+      <c r="D28" s="94"/>
+      <c r="E28" s="91"/>
+      <c r="F28" s="92"/>
+      <c r="G28" s="89"/>
+      <c r="H28" s="89"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="113"/>
-      <c r="B29" s="113"/>
-      <c r="C29" s="106"/>
-      <c r="D29" s="110"/>
-      <c r="E29" s="114"/>
-      <c r="F29" s="109"/>
-      <c r="G29" s="106"/>
-      <c r="H29" s="106"/>
+      <c r="A29" s="96"/>
+      <c r="B29" s="96"/>
+      <c r="C29" s="89"/>
+      <c r="D29" s="93"/>
+      <c r="E29" s="97"/>
+      <c r="F29" s="92"/>
+      <c r="G29" s="89"/>
+      <c r="H29" s="89"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="113"/>
-      <c r="B30" s="113"/>
-      <c r="C30" s="106"/>
-      <c r="D30" s="110"/>
-      <c r="E30" s="114"/>
-      <c r="F30" s="109"/>
-      <c r="G30" s="106"/>
-      <c r="H30" s="106"/>
+      <c r="A30" s="96"/>
+      <c r="B30" s="96"/>
+      <c r="C30" s="89"/>
+      <c r="D30" s="93"/>
+      <c r="E30" s="97"/>
+      <c r="F30" s="92"/>
+      <c r="G30" s="89"/>
+      <c r="H30" s="89"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="113"/>
-      <c r="B31" s="113"/>
-      <c r="C31" s="106"/>
-      <c r="D31" s="110"/>
-      <c r="E31" s="114"/>
-      <c r="F31" s="109"/>
-      <c r="G31" s="106"/>
-      <c r="H31" s="106"/>
+      <c r="A31" s="96"/>
+      <c r="B31" s="96"/>
+      <c r="C31" s="89"/>
+      <c r="D31" s="93"/>
+      <c r="E31" s="97"/>
+      <c r="F31" s="92"/>
+      <c r="G31" s="89"/>
+      <c r="H31" s="89"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="113"/>
-      <c r="B32" s="113"/>
-      <c r="C32" s="106"/>
-      <c r="D32" s="110"/>
-      <c r="E32" s="114"/>
-      <c r="F32" s="109"/>
-      <c r="G32" s="106"/>
-      <c r="H32" s="106"/>
+      <c r="A32" s="96"/>
+      <c r="B32" s="96"/>
+      <c r="C32" s="89"/>
+      <c r="D32" s="93"/>
+      <c r="E32" s="97"/>
+      <c r="F32" s="92"/>
+      <c r="G32" s="89"/>
+      <c r="H32" s="89"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="113"/>
-      <c r="B33" s="113"/>
-      <c r="C33" s="106"/>
-      <c r="D33" s="110"/>
-      <c r="E33" s="114"/>
-      <c r="F33" s="109"/>
-      <c r="G33" s="106"/>
-      <c r="H33" s="106"/>
+      <c r="A33" s="96"/>
+      <c r="B33" s="96"/>
+      <c r="C33" s="89"/>
+      <c r="D33" s="93"/>
+      <c r="E33" s="97"/>
+      <c r="F33" s="92"/>
+      <c r="G33" s="89"/>
+      <c r="H33" s="89"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="113"/>
-      <c r="B34" s="113"/>
-      <c r="C34" s="106"/>
-      <c r="D34" s="110"/>
-      <c r="E34" s="114"/>
-      <c r="F34" s="109"/>
-      <c r="G34" s="106"/>
-      <c r="H34" s="106"/>
+      <c r="A34" s="96"/>
+      <c r="B34" s="96"/>
+      <c r="C34" s="89"/>
+      <c r="D34" s="93"/>
+      <c r="E34" s="97"/>
+      <c r="F34" s="92"/>
+      <c r="G34" s="89"/>
+      <c r="H34" s="89"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="113"/>
-      <c r="B35" s="113"/>
-      <c r="C35" s="106"/>
-      <c r="D35" s="110"/>
-      <c r="E35" s="114"/>
-      <c r="F35" s="109"/>
-      <c r="G35" s="106"/>
-      <c r="H35" s="106"/>
+      <c r="A35" s="96"/>
+      <c r="B35" s="96"/>
+      <c r="C35" s="89"/>
+      <c r="D35" s="93"/>
+      <c r="E35" s="97"/>
+      <c r="F35" s="92"/>
+      <c r="G35" s="89"/>
+      <c r="H35" s="89"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="113"/>
-      <c r="B36" s="113"/>
-      <c r="C36" s="106"/>
-      <c r="D36" s="110"/>
-      <c r="E36" s="114"/>
-      <c r="F36" s="109"/>
-      <c r="G36" s="106"/>
-      <c r="H36" s="106"/>
+      <c r="A36" s="96"/>
+      <c r="B36" s="96"/>
+      <c r="C36" s="89"/>
+      <c r="D36" s="93"/>
+      <c r="E36" s="97"/>
+      <c r="F36" s="92"/>
+      <c r="G36" s="89"/>
+      <c r="H36" s="89"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -7320,7 +6468,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0205F9E8-3143-4E71-8CB5-0888B6153C93}">
   <sheetPr>
     <tabColor theme="9" tint="-0.499984740745262"/>
@@ -7337,371 +6485,371 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="149" t="s">
+      <c r="A1" s="132" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="149" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="149" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="149" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="149" t="s">
+      <c r="B1" s="132" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="132" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="132" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="132" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="149" t="s">
+      <c r="F1" s="132" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="145">
+      <c r="A2" s="128">
         <v>42900</v>
       </c>
-      <c r="B2" s="146"/>
-      <c r="C2" s="144">
+      <c r="B2" s="129"/>
+      <c r="C2" s="127">
         <f>Etanol[[#This Row],[preço]]*Etanol[[#This Row],[litros]]</f>
         <v>29.999999999999996</v>
       </c>
-      <c r="D2" s="144">
+      <c r="D2" s="127">
         <v>3.29</v>
       </c>
-      <c r="E2" s="147">
+      <c r="E2" s="130">
         <v>9.1185410334346493</v>
       </c>
-      <c r="F2" s="148">
+      <c r="F2" s="131">
         <v>67245</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="145">
+      <c r="A3" s="128">
         <v>43006</v>
       </c>
-      <c r="B3" s="146"/>
-      <c r="C3" s="144">
+      <c r="B3" s="129"/>
+      <c r="C3" s="127">
         <f>Etanol[[#This Row],[preço]]*Etanol[[#This Row],[litros]]</f>
         <v>40</v>
       </c>
-      <c r="D3" s="144">
+      <c r="D3" s="127">
         <v>3.25</v>
       </c>
-      <c r="E3" s="147">
+      <c r="E3" s="130">
         <v>12.307692307692308</v>
       </c>
-      <c r="F3" s="148">
+      <c r="F3" s="131">
         <v>69760</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="145">
+      <c r="A4" s="128">
         <v>43069</v>
       </c>
-      <c r="B4" s="146"/>
-      <c r="C4" s="144">
+      <c r="B4" s="129"/>
+      <c r="C4" s="127">
         <f>Etanol[[#This Row],[preço]]*Etanol[[#This Row],[litros]]</f>
         <v>40</v>
       </c>
-      <c r="D4" s="144">
+      <c r="D4" s="127">
         <v>3.37</v>
       </c>
-      <c r="E4" s="147">
+      <c r="E4" s="130">
         <v>11.869436201780415</v>
       </c>
-      <c r="F4" s="148"/>
+      <c r="F4" s="131"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="145">
+      <c r="A5" s="128">
         <v>43078</v>
       </c>
-      <c r="B5" s="146"/>
-      <c r="C5" s="144">
+      <c r="B5" s="129"/>
+      <c r="C5" s="127">
         <f>Etanol[[#This Row],[preço]]*Etanol[[#This Row],[litros]]</f>
         <v>40</v>
       </c>
-      <c r="D5" s="144">
+      <c r="D5" s="127">
         <v>3.27</v>
       </c>
-      <c r="E5" s="147">
+      <c r="E5" s="130">
         <v>12.232415902140673</v>
       </c>
-      <c r="F5" s="148"/>
+      <c r="F5" s="131"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="145">
+      <c r="A6" s="128">
         <v>43169</v>
       </c>
-      <c r="B6" s="146"/>
-      <c r="C6" s="144">
+      <c r="B6" s="129"/>
+      <c r="C6" s="127">
         <f>Etanol[[#This Row],[preço]]*Etanol[[#This Row],[litros]]</f>
         <v>40</v>
       </c>
-      <c r="D6" s="144">
+      <c r="D6" s="127">
         <v>3.59</v>
       </c>
-      <c r="E6" s="147">
+      <c r="E6" s="130">
         <v>11.142061281337048</v>
       </c>
-      <c r="F6" s="148"/>
+      <c r="F6" s="131"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="145">
+      <c r="A7" s="128">
         <v>43194</v>
       </c>
-      <c r="B7" s="146"/>
-      <c r="C7" s="144">
+      <c r="B7" s="129"/>
+      <c r="C7" s="127">
         <f>Etanol[[#This Row],[preço]]*Etanol[[#This Row],[litros]]</f>
         <v>40</v>
       </c>
-      <c r="D7" s="144">
+      <c r="D7" s="127">
         <v>3.59</v>
       </c>
-      <c r="E7" s="147">
+      <c r="E7" s="130">
         <v>11.142061281337048</v>
       </c>
-      <c r="F7" s="148"/>
+      <c r="F7" s="131"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="145">
+      <c r="A8" s="128">
         <v>43207</v>
       </c>
-      <c r="B8" s="146"/>
-      <c r="C8" s="144">
+      <c r="B8" s="129"/>
+      <c r="C8" s="127">
         <f>Etanol[[#This Row],[preço]]*Etanol[[#This Row],[litros]]</f>
         <v>20</v>
       </c>
-      <c r="D8" s="144">
+      <c r="D8" s="127">
         <v>3.59</v>
       </c>
-      <c r="E8" s="147">
+      <c r="E8" s="130">
         <v>5.5710306406685239</v>
       </c>
-      <c r="F8" s="148"/>
+      <c r="F8" s="131"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="145">
+      <c r="A9" s="128">
         <v>43222</v>
       </c>
-      <c r="B9" s="146"/>
-      <c r="C9" s="144">
+      <c r="B9" s="129"/>
+      <c r="C9" s="127">
         <f>Etanol[[#This Row],[preço]]*Etanol[[#This Row],[litros]]</f>
         <v>40</v>
       </c>
-      <c r="D9" s="144">
+      <c r="D9" s="127">
         <v>3.59</v>
       </c>
-      <c r="E9" s="147">
+      <c r="E9" s="130">
         <v>11.142061281337048</v>
       </c>
-      <c r="F9" s="148"/>
+      <c r="F9" s="131"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="145">
+      <c r="A10" s="128">
         <v>43243</v>
       </c>
-      <c r="B10" s="146"/>
-      <c r="C10" s="144">
+      <c r="B10" s="129"/>
+      <c r="C10" s="127">
         <f>Etanol[[#This Row],[preço]]*Etanol[[#This Row],[litros]]</f>
         <v>60</v>
       </c>
-      <c r="D10" s="144">
+      <c r="D10" s="127">
         <v>3.59</v>
       </c>
-      <c r="E10" s="147">
+      <c r="E10" s="130">
         <v>16.713091922005571</v>
       </c>
-      <c r="F10" s="148"/>
+      <c r="F10" s="131"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="145">
+      <c r="A11" s="128">
         <v>43263</v>
       </c>
-      <c r="B11" s="146"/>
-      <c r="C11" s="144">
+      <c r="B11" s="129"/>
+      <c r="C11" s="127">
         <f>Etanol[[#This Row],[preço]]*Etanol[[#This Row],[litros]]</f>
         <v>40</v>
       </c>
-      <c r="D11" s="144">
+      <c r="D11" s="127">
         <v>3.67</v>
       </c>
-      <c r="E11" s="147">
+      <c r="E11" s="130">
         <v>10.899182561307903</v>
       </c>
-      <c r="F11" s="148"/>
+      <c r="F11" s="131"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="145">
+      <c r="A12" s="128">
         <v>43290</v>
       </c>
-      <c r="B12" s="146"/>
-      <c r="C12" s="144">
+      <c r="B12" s="129"/>
+      <c r="C12" s="127">
         <f>Etanol[[#This Row],[preço]]*Etanol[[#This Row],[litros]]</f>
         <v>40</v>
       </c>
-      <c r="D12" s="144">
+      <c r="D12" s="127">
         <v>3.69</v>
       </c>
-      <c r="E12" s="147">
+      <c r="E12" s="130">
         <v>10.840108401084011</v>
       </c>
-      <c r="F12" s="148">
+      <c r="F12" s="131">
         <v>76592</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="145">
+      <c r="A13" s="128">
         <v>43341</v>
       </c>
-      <c r="B13" s="146"/>
-      <c r="C13" s="144">
+      <c r="B13" s="129"/>
+      <c r="C13" s="127">
         <f>Etanol[[#This Row],[preço]]*Etanol[[#This Row],[litros]]</f>
         <v>55.984000000000002</v>
       </c>
-      <c r="D13" s="144">
+      <c r="D13" s="127">
         <v>3.4990000000000001</v>
       </c>
-      <c r="E13" s="147">
+      <c r="E13" s="130">
         <v>16</v>
       </c>
-      <c r="F13" s="148">
+      <c r="F13" s="131">
         <v>77312</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="145">
+      <c r="A14" s="128">
         <v>43349</v>
       </c>
-      <c r="B14" s="146"/>
-      <c r="C14" s="144">
+      <c r="B14" s="129"/>
+      <c r="C14" s="127">
         <f>Etanol[[#This Row],[preço]]*Etanol[[#This Row],[litros]]</f>
         <v>28.72</v>
       </c>
-      <c r="D14" s="144">
+      <c r="D14" s="127">
         <v>3.59</v>
       </c>
-      <c r="E14" s="147">
+      <c r="E14" s="130">
         <v>8</v>
       </c>
-      <c r="F14" s="148">
+      <c r="F14" s="131">
         <v>77437</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="145">
+      <c r="A15" s="128">
         <v>43355</v>
       </c>
-      <c r="B15" s="146"/>
-      <c r="C15" s="144">
+      <c r="B15" s="129"/>
+      <c r="C15" s="127">
         <f>Etanol[[#This Row],[preço]]*Etanol[[#This Row],[litros]]</f>
         <v>28.56</v>
       </c>
-      <c r="D15" s="144">
+      <c r="D15" s="127">
         <v>3.57</v>
       </c>
-      <c r="E15" s="147">
+      <c r="E15" s="130">
         <v>8</v>
       </c>
-      <c r="F15" s="148">
+      <c r="F15" s="131">
         <v>78273</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="145">
+      <c r="A16" s="128">
         <v>43388</v>
       </c>
-      <c r="B16" s="146"/>
-      <c r="C16" s="144">
+      <c r="B16" s="129"/>
+      <c r="C16" s="127">
         <f>Etanol[[#This Row],[preço]]*Etanol[[#This Row],[litros]]</f>
         <v>56</v>
       </c>
-      <c r="D16" s="144">
+      <c r="D16" s="127">
         <v>3.5</v>
       </c>
-      <c r="E16" s="147">
+      <c r="E16" s="130">
         <v>16</v>
       </c>
-      <c r="F16" s="148">
+      <c r="F16" s="131">
         <v>79364</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="145">
+      <c r="A17" s="128">
         <v>43393</v>
       </c>
-      <c r="B17" s="146"/>
-      <c r="C17" s="144">
+      <c r="B17" s="129"/>
+      <c r="C17" s="127">
         <f>Etanol[[#This Row],[preço]]*Etanol[[#This Row],[litros]]</f>
         <v>56.72</v>
       </c>
-      <c r="D17" s="144">
+      <c r="D17" s="127">
         <v>3.5449999999999999</v>
       </c>
-      <c r="E17" s="147">
+      <c r="E17" s="130">
         <v>16</v>
       </c>
-      <c r="F17" s="148">
+      <c r="F17" s="131">
         <v>79498</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="145">
+      <c r="A18" s="128">
         <v>43410</v>
       </c>
-      <c r="B18" s="146"/>
-      <c r="C18" s="144">
+      <c r="B18" s="129"/>
+      <c r="C18" s="127">
         <f>Etanol[[#This Row],[preço]]*Etanol[[#This Row],[litros]]</f>
         <v>57.44</v>
       </c>
-      <c r="D18" s="144">
+      <c r="D18" s="127">
         <v>3.59</v>
       </c>
-      <c r="E18" s="147">
+      <c r="E18" s="130">
         <v>16</v>
       </c>
-      <c r="F18" s="148">
+      <c r="F18" s="131">
         <v>79632</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="145">
+      <c r="A19" s="128">
         <v>43455</v>
       </c>
-      <c r="B19" s="146">
+      <c r="B19" s="129">
         <v>0.38194444444444442</v>
       </c>
-      <c r="C19" s="144">
+      <c r="C19" s="127">
         <f>Etanol[[#This Row],[preço]]*Etanol[[#This Row],[litros]]</f>
         <v>54.4</v>
       </c>
-      <c r="D19" s="144">
+      <c r="D19" s="127">
         <v>3.4</v>
       </c>
-      <c r="E19" s="147">
+      <c r="E19" s="130">
         <v>16</v>
       </c>
-      <c r="F19" s="148">
+      <c r="F19" s="131">
         <v>80148</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="145">
+      <c r="A20" s="128">
         <v>43467</v>
       </c>
-      <c r="B20" s="146">
+      <c r="B20" s="129">
         <v>0.4861111111111111</v>
       </c>
-      <c r="C20" s="144">
+      <c r="C20" s="127">
         <f>Etanol[[#This Row],[preço]]*Etanol[[#This Row],[litros]]</f>
         <v>54.24</v>
       </c>
-      <c r="D20" s="144">
+      <c r="D20" s="127">
         <v>3.39</v>
       </c>
-      <c r="E20" s="147">
+      <c r="E20" s="130">
         <v>16</v>
       </c>
-      <c r="F20" s="148">
+      <c r="F20" s="131">
         <v>81020</v>
       </c>
     </row>

--- a/Aurora.xlsx
+++ b/Aurora.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ec562523a0c953df/Documentos/planilhas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="45" documentId="6_{8859351E-CF57-4E34-AC2D-F0C034338FBD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{3EBFA788-EF67-45CC-A2BE-218C83204D1D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="6_{82169F9A-98EB-4157-8E8A-C317F949519A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3600" windowWidth="20490" windowHeight="7665" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3600" windowWidth="20490" windowHeight="7665" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2017.1" sheetId="1" r:id="rId1"/>
@@ -3666,7 +3666,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82D5A34F-EB28-41C8-A1E3-151E9E71FB07}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -5134,8 +5134,8 @@
   </sheetPr>
   <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6311,7 +6311,7 @@
     </row>
     <row r="26" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="118">
-        <v>43824</v>
+        <v>43459</v>
       </c>
       <c r="B26" s="98">
         <v>0.60416666666666663</v>

--- a/Aurora.xlsx
+++ b/Aurora.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ec562523a0c953df/Documentos/planilhas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="6_{82169F9A-98EB-4157-8E8A-C317F949519A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="58" documentId="6_{82169F9A-98EB-4157-8E8A-C317F949519A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{0A2A6E5C-665E-4088-96CA-0974C20BE94D}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3600" windowWidth="20490" windowHeight="7665" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3600" windowWidth="20490" windowHeight="7665" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2017.1" sheetId="1" r:id="rId1"/>
@@ -337,7 +337,7 @@
     <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="167" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -491,6 +491,13 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -660,7 +667,7 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
@@ -1046,6 +1053,12 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2313,8 +2326,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{707C8E72-449F-434C-81D2-E6CAE60FDC64}" name="G_20184" displayName="G_20184" ref="A1:G17" tableBorderDxfId="91" dataCellStyle="Normal">
-  <autoFilter ref="A1:G17" xr:uid="{1BB8EF35-A1C5-4DA1-AE25-87B25A5E3E01}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{707C8E72-449F-434C-81D2-E6CAE60FDC64}" name="G_20184" displayName="G_20184" ref="A1:G21" tableBorderDxfId="91" dataCellStyle="Normal">
+  <autoFilter ref="A1:G21" xr:uid="{1BB8EF35-A1C5-4DA1-AE25-87B25A5E3E01}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{359F37B9-9617-418F-81F4-00F8F142D6C9}" name="data" dataDxfId="90" totalsRowDxfId="89" dataCellStyle="Normal"/>
     <tableColumn id="2" xr3:uid="{5B407B50-7529-43FD-BA94-ADB3D3459328}" name="km ini" totalsRowFunction="min" dataDxfId="88" totalsRowDxfId="87" dataCellStyle="Normal"/>
@@ -2729,7 +2742,7 @@
   <dimension ref="A1:V21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:C10"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3664,10 +3677,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82D5A34F-EB28-41C8-A1E3-151E9E71FB07}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3708,406 +3721,507 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="82">
-        <v>42848</v>
-      </c>
-      <c r="B2" s="107">
-        <v>66672</v>
+        <v>42804</v>
+      </c>
+      <c r="B2" s="137">
+        <v>64985</v>
       </c>
       <c r="C2" s="137">
-        <v>66754</v>
+        <v>65175</v>
       </c>
       <c r="D2" s="110">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
-        <v>82</v>
+        <v>190</v>
       </c>
       <c r="E2" s="108">
-        <v>80</v>
+        <v>165.01</v>
       </c>
       <c r="F2" s="108">
-        <v>3.89</v>
+        <v>3.9990000000000001</v>
       </c>
       <c r="G2" s="109">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
-        <v>20.565552699228792</v>
+        <v>41.26281570392598</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="82">
-        <v>42855</v>
+        <v>42816</v>
       </c>
       <c r="B3" s="137">
-        <f>C2</f>
-        <v>66754</v>
+        <v>65574</v>
       </c>
       <c r="C3" s="137">
-        <v>66894</v>
+        <v>65635</v>
       </c>
       <c r="D3" s="110">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
-        <v>140</v>
+        <v>61</v>
       </c>
       <c r="E3" s="108">
         <v>100</v>
       </c>
       <c r="F3" s="108">
-        <v>3.87</v>
+        <v>3.84</v>
       </c>
       <c r="G3" s="109">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
-        <v>25.839793281653748</v>
+        <v>26.041666666666668</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="82">
-        <v>42880</v>
+        <v>42836</v>
       </c>
       <c r="B4" s="137">
         <f>C3</f>
-        <v>66894</v>
-      </c>
-      <c r="C4" s="138">
-        <v>67088</v>
+        <v>65635</v>
+      </c>
+      <c r="C4" s="107">
+        <v>65820</v>
       </c>
       <c r="D4" s="110">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="E4" s="108">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="F4" s="108">
-        <v>3.89</v>
+        <v>3.79</v>
       </c>
       <c r="G4" s="109">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
-        <v>20.565552699228792</v>
+        <v>31.662269129287598</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="82">
-        <v>42907</v>
-      </c>
-      <c r="B5" s="138">
-        <v>67245</v>
-      </c>
-      <c r="C5" s="139">
-        <v>67312</v>
+        <v>42839</v>
+      </c>
+      <c r="B5" s="107">
+        <v>66204</v>
+      </c>
+      <c r="C5" s="107">
+        <v>66301</v>
       </c>
       <c r="D5" s="110">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
+        <v>97</v>
+      </c>
+      <c r="E5" s="142">
+        <v>46.012749999999997</v>
+      </c>
+      <c r="F5" s="142">
+        <v>3.835</v>
+      </c>
+      <c r="G5" s="143">
+        <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
+        <v>11.998109517601042</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="82">
+        <v>42848</v>
+      </c>
+      <c r="B6" s="107">
+        <v>66672</v>
+      </c>
+      <c r="C6" s="137">
+        <v>66754</v>
+      </c>
+      <c r="D6" s="110">
+        <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
+        <v>82</v>
+      </c>
+      <c r="E6" s="108">
+        <v>80</v>
+      </c>
+      <c r="F6" s="108">
+        <v>3.89</v>
+      </c>
+      <c r="G6" s="109">
+        <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
+        <v>20.565552699228792</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="82">
+        <v>42855</v>
+      </c>
+      <c r="B7" s="137">
+        <f>C6</f>
+        <v>66754</v>
+      </c>
+      <c r="C7" s="137">
+        <v>66894</v>
+      </c>
+      <c r="D7" s="110">
+        <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
+        <v>140</v>
+      </c>
+      <c r="E7" s="108">
+        <v>100</v>
+      </c>
+      <c r="F7" s="108">
+        <v>3.87</v>
+      </c>
+      <c r="G7" s="109">
+        <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
+        <v>25.839793281653748</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="82">
+        <v>42880</v>
+      </c>
+      <c r="B8" s="137">
+        <f>C7</f>
+        <v>66894</v>
+      </c>
+      <c r="C8" s="138">
+        <v>67088</v>
+      </c>
+      <c r="D8" s="110">
+        <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
+        <v>194</v>
+      </c>
+      <c r="E8" s="108">
+        <v>80</v>
+      </c>
+      <c r="F8" s="108">
+        <v>3.89</v>
+      </c>
+      <c r="G8" s="109">
+        <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
+        <v>20.565552699228792</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="82">
+        <v>42907</v>
+      </c>
+      <c r="B9" s="138">
+        <v>67245</v>
+      </c>
+      <c r="C9" s="139">
+        <v>67312</v>
+      </c>
+      <c r="D9" s="110">
+        <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
         <v>67</v>
       </c>
-      <c r="E5" s="108">
+      <c r="E9" s="108">
         <v>80</v>
       </c>
-      <c r="F5" s="108">
+      <c r="F9" s="108">
         <v>3.84</v>
       </c>
-      <c r="G5" s="109">
+      <c r="G9" s="109">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>20.833333333333336</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="82">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="82">
         <v>42940</v>
       </c>
-      <c r="B6" s="137">
-        <f>C5</f>
+      <c r="B10" s="137">
+        <f>C9</f>
         <v>67312</v>
       </c>
-      <c r="C6" s="140">
+      <c r="C10" s="140">
         <v>67538</v>
       </c>
-      <c r="D6" s="110">
+      <c r="D10" s="110">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
         <v>226</v>
       </c>
-      <c r="E6" s="108">
+      <c r="E10" s="108">
         <v>170</v>
       </c>
-      <c r="F6" s="108">
+      <c r="F10" s="108">
         <v>4</v>
       </c>
-      <c r="G6" s="109">
+      <c r="G10" s="109">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>42.5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="82">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="82">
         <v>42946</v>
       </c>
-      <c r="B7" s="140">
+      <c r="B11" s="140">
         <v>67937</v>
       </c>
-      <c r="C7" s="107">
+      <c r="C11" s="107">
         <v>68001</v>
       </c>
-      <c r="D7" s="110">
+      <c r="D11" s="110">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
         <v>64</v>
       </c>
-      <c r="E7" s="108">
+      <c r="E11" s="108">
         <v>120</v>
       </c>
-      <c r="F7" s="108">
+      <c r="F11" s="108">
         <v>3.9</v>
       </c>
-      <c r="G7" s="109">
+      <c r="G11" s="109">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>30.76923076923077</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="82">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="82">
         <v>42950</v>
       </c>
-      <c r="B8" s="107">
+      <c r="B12" s="107">
         <v>68729</v>
       </c>
-      <c r="C8" s="137">
+      <c r="C12" s="137">
         <v>68792</v>
       </c>
-      <c r="D8" s="110">
+      <c r="D12" s="110">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
         <v>63</v>
       </c>
-      <c r="E8" s="108">
+      <c r="E12" s="108">
         <v>150</v>
       </c>
-      <c r="F8" s="108">
+      <c r="F12" s="108">
         <v>4.1900000000000004</v>
       </c>
-      <c r="G8" s="109">
+      <c r="G12" s="109">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>35.799522673031021</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="82">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="82">
         <v>42961</v>
       </c>
-      <c r="B9" s="137">
-        <f>C8</f>
+      <c r="B13" s="137">
+        <f>C12</f>
         <v>68792</v>
       </c>
-      <c r="C9" s="107">
+      <c r="C13" s="107">
         <v>68995</v>
       </c>
-      <c r="D9" s="110">
+      <c r="D13" s="110">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
         <v>203</v>
       </c>
-      <c r="E9" s="108">
+      <c r="E13" s="108">
         <v>140</v>
       </c>
-      <c r="F9" s="108">
+      <c r="F13" s="108">
         <v>4.1900000000000004</v>
       </c>
-      <c r="G9" s="109">
+      <c r="G13" s="109">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>33.41288782816229</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="82">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="82">
         <v>42970</v>
       </c>
-      <c r="B10" s="107">
+      <c r="B14" s="107">
         <v>69370</v>
       </c>
-      <c r="C10" s="137">
+      <c r="C14" s="137">
         <v>69437</v>
       </c>
-      <c r="D10" s="110">
+      <c r="D14" s="110">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
         <v>67</v>
       </c>
-      <c r="E10" s="108">
+      <c r="E14" s="108">
         <v>80</v>
       </c>
-      <c r="F10" s="108">
+      <c r="F14" s="108">
         <v>3.89</v>
       </c>
-      <c r="G10" s="109">
+      <c r="G14" s="109">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>20.565552699228792</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="82">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="82">
         <v>42991</v>
       </c>
-      <c r="B11" s="137">
-        <f>C10</f>
+      <c r="B15" s="137">
+        <f>C14</f>
         <v>69437</v>
       </c>
-      <c r="C11" s="138">
+      <c r="C15" s="138">
         <v>69611</v>
       </c>
-      <c r="D11" s="110">
+      <c r="D15" s="110">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
         <v>174</v>
       </c>
-      <c r="E11" s="108">
+      <c r="E15" s="108">
         <v>80</v>
       </c>
-      <c r="F11" s="108">
+      <c r="F15" s="108">
         <v>4.1900000000000004</v>
       </c>
-      <c r="G11" s="109">
+      <c r="G15" s="109">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>19.093078758949879</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="82">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="82">
         <v>43020</v>
       </c>
-      <c r="B12" s="138">
+      <c r="B16" s="138">
         <v>69760</v>
       </c>
-      <c r="C12" s="137">
+      <c r="C16" s="137">
         <v>69879</v>
       </c>
-      <c r="D12" s="110">
+      <c r="D16" s="110">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
         <v>119</v>
       </c>
-      <c r="E12" s="108">
+      <c r="E16" s="108">
         <v>80</v>
       </c>
-      <c r="F12" s="108">
+      <c r="F16" s="108">
         <v>3.9489999999999998</v>
       </c>
-      <c r="G12" s="109">
+      <c r="G16" s="109">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>20.258293238794632</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="82">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="82">
         <v>43034</v>
       </c>
-      <c r="B13" s="137">
-        <f>C12</f>
+      <c r="B17" s="137">
+        <f>C16</f>
         <v>69879</v>
       </c>
-      <c r="C13" s="107">
+      <c r="C17" s="107">
         <v>70001</v>
       </c>
-      <c r="D13" s="110">
+      <c r="D17" s="110">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
         <v>122</v>
       </c>
-      <c r="E13" s="108">
+      <c r="E17" s="108">
         <v>120</v>
       </c>
-      <c r="F13" s="108">
+      <c r="F17" s="108">
         <v>3.9</v>
       </c>
-      <c r="G13" s="109">
+      <c r="G17" s="109">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>30.76923076923077</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="82">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="82">
         <v>43042</v>
       </c>
-      <c r="B14" s="117">
+      <c r="B18" s="117">
         <v>70379</v>
       </c>
-      <c r="C14" s="107">
+      <c r="C18" s="107">
         <v>70431</v>
       </c>
-      <c r="D14" s="110">
+      <c r="D18" s="110">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
         <v>52</v>
       </c>
-      <c r="E14" s="108">
+      <c r="E18" s="108">
         <v>158.99</v>
       </c>
-      <c r="F14" s="108">
+      <c r="F18" s="108">
         <v>4.09</v>
       </c>
-      <c r="G14" s="109">
+      <c r="G18" s="109">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>38.872860635696824</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="82">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="82">
         <v>43057</v>
       </c>
-      <c r="B15" s="107">
+      <c r="B19" s="107">
         <v>70809</v>
       </c>
-      <c r="C15" s="138">
+      <c r="C19" s="138">
         <v>70965</v>
       </c>
-      <c r="D15" s="110">
+      <c r="D19" s="110">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
         <v>156</v>
       </c>
-      <c r="E15" s="108">
+      <c r="E19" s="108">
         <v>80</v>
       </c>
-      <c r="F15" s="108">
+      <c r="F19" s="108">
         <v>4.17</v>
       </c>
-      <c r="G15" s="109">
+      <c r="G19" s="109">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>19.18465227817746</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="82">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="82">
         <v>43087</v>
       </c>
-      <c r="B16" s="138">
+      <c r="B20" s="138">
         <v>71109</v>
       </c>
-      <c r="C16" s="107">
+      <c r="C20" s="107">
         <v>71219</v>
       </c>
-      <c r="D16" s="110">
+      <c r="D20" s="110">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
         <v>110</v>
       </c>
-      <c r="E16" s="108">
+      <c r="E20" s="108">
         <v>120.06</v>
       </c>
-      <c r="F16" s="108">
+      <c r="F20" s="108">
         <v>4.1790000000000003</v>
       </c>
-      <c r="G16" s="109">
+      <c r="G20" s="109">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>28.729361091170134</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="82">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="82">
         <v>43093</v>
       </c>
-      <c r="B17" s="107">
+      <c r="B21" s="107">
         <v>71683</v>
       </c>
-      <c r="C17" s="106">
+      <c r="C21" s="106">
         <v>71872</v>
       </c>
-      <c r="D17" s="110">
+      <c r="D21" s="110">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
         <v>189</v>
       </c>
-      <c r="E17" s="108">
+      <c r="E21" s="108">
         <v>120</v>
       </c>
-      <c r="F17" s="108">
+      <c r="F21" s="108">
         <v>4.17</v>
       </c>
-      <c r="G17" s="109">
+      <c r="G21" s="109">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>28.776978417266186</v>
       </c>
@@ -5134,8 +5248,8 @@
   </sheetPr>
   <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5204,9 +5318,16 @@
       <c r="A2" s="118">
         <v>42737</v>
       </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
+      <c r="B2" s="99">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C2" s="98">
+        <v>0.50208333333333333</v>
+      </c>
+      <c r="D2" s="98">
+        <f>Viagens[[#This Row],[hora fim]]-Viagens[[#This Row],[hora ini]]</f>
+        <v>0.16875000000000001</v>
+      </c>
       <c r="E2" s="102">
         <v>63873</v>
       </c>
@@ -5247,9 +5368,16 @@
       <c r="A3" s="118">
         <v>42790</v>
       </c>
-      <c r="B3" s="99"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
+      <c r="B3" s="99">
+        <v>0.34513888888888888</v>
+      </c>
+      <c r="C3" s="98">
+        <v>0.5395833333333333</v>
+      </c>
+      <c r="D3" s="98">
+        <f>Viagens[[#This Row],[hora fim]]-Viagens[[#This Row],[hora ini]]</f>
+        <v>0.19444444444444442</v>
+      </c>
       <c r="E3" s="102">
         <v>64569</v>
       </c>
@@ -5290,9 +5418,16 @@
       <c r="A4" s="118">
         <v>42806</v>
       </c>
-      <c r="B4" s="99"/>
-      <c r="C4" s="98"/>
-      <c r="D4" s="98"/>
+      <c r="B4" s="99">
+        <v>0.56805555555555554</v>
+      </c>
+      <c r="C4" s="98">
+        <v>0.76736111111111116</v>
+      </c>
+      <c r="D4" s="98">
+        <f>Viagens[[#This Row],[hora fim]]-Viagens[[#This Row],[hora ini]]</f>
+        <v>0.19930555555555562</v>
+      </c>
       <c r="E4" s="102">
         <v>65175</v>
       </c>
@@ -5333,9 +5468,16 @@
       <c r="A5" s="118">
         <v>42838</v>
       </c>
-      <c r="B5" s="99"/>
-      <c r="C5" s="98"/>
-      <c r="D5" s="98"/>
+      <c r="B5" s="99">
+        <v>0.30486111111111108</v>
+      </c>
+      <c r="C5" s="98">
+        <v>0.52708333333333335</v>
+      </c>
+      <c r="D5" s="98">
+        <f>Viagens[[#This Row],[hora fim]]-Viagens[[#This Row],[hora ini]]</f>
+        <v>0.22222222222222227</v>
+      </c>
       <c r="E5" s="102">
         <v>65820</v>
       </c>

--- a/Aurora.xlsx
+++ b/Aurora.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ec562523a0c953df/Documentos/planilhas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="58" documentId="6_{82169F9A-98EB-4157-8E8A-C317F949519A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{0A2A6E5C-665E-4088-96CA-0974C20BE94D}"/>
+  <xr:revisionPtr revIDLastSave="60" documentId="6_{82169F9A-98EB-4157-8E8A-C317F949519A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{BF14EB38-896C-4060-8244-AEEA50A9D69C}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="3600" windowWidth="20490" windowHeight="7665" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1051,14 +1051,14 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2742,7 +2742,7 @@
   <dimension ref="A1:V21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2771,30 +2771,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="141" t="s">
+      <c r="A1" s="143" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="141"/>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141" t="s">
+      <c r="B1" s="143"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="143" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="141"/>
-      <c r="I1" s="141"/>
-      <c r="J1" s="141"/>
-      <c r="K1" s="141"/>
-      <c r="L1" s="141"/>
-      <c r="M1" s="141" t="s">
+      <c r="H1" s="143"/>
+      <c r="I1" s="143"/>
+      <c r="J1" s="143"/>
+      <c r="K1" s="143"/>
+      <c r="L1" s="143"/>
+      <c r="M1" s="143" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="141"/>
-      <c r="O1" s="141"/>
-      <c r="P1" s="141"/>
-      <c r="Q1" s="141"/>
-      <c r="R1" s="141"/>
+      <c r="N1" s="143"/>
+      <c r="O1" s="143"/>
+      <c r="P1" s="143"/>
+      <c r="Q1" s="143"/>
+      <c r="R1" s="143"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="6"/>
@@ -3612,30 +3612,30 @@
       <c r="V15" s="6"/>
     </row>
     <row r="16" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="141" t="s">
+      <c r="A16" s="143" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="141"/>
-      <c r="C16" s="141"/>
-      <c r="D16" s="141"/>
-      <c r="E16" s="141"/>
-      <c r="F16" s="141" t="s">
+      <c r="B16" s="143"/>
+      <c r="C16" s="143"/>
+      <c r="D16" s="143"/>
+      <c r="E16" s="143"/>
+      <c r="F16" s="143" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="141"/>
-      <c r="H16" s="141"/>
-      <c r="I16" s="141"/>
-      <c r="J16" s="141"/>
-      <c r="K16" s="141"/>
-      <c r="L16" s="141"/>
-      <c r="M16" s="141" t="s">
+      <c r="G16" s="143"/>
+      <c r="H16" s="143"/>
+      <c r="I16" s="143"/>
+      <c r="J16" s="143"/>
+      <c r="K16" s="143"/>
+      <c r="L16" s="143"/>
+      <c r="M16" s="143" t="s">
         <v>15</v>
       </c>
-      <c r="N16" s="141"/>
-      <c r="O16" s="141"/>
-      <c r="P16" s="141"/>
-      <c r="Q16" s="141"/>
-      <c r="R16" s="141"/>
+      <c r="N16" s="143"/>
+      <c r="O16" s="143"/>
+      <c r="P16" s="143"/>
+      <c r="Q16" s="143"/>
+      <c r="R16" s="143"/>
       <c r="S16" s="6"/>
       <c r="T16" s="6"/>
       <c r="U16" s="6"/>
@@ -3680,7 +3680,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3809,13 +3809,13 @@
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
         <v>97</v>
       </c>
-      <c r="E5" s="142">
+      <c r="E5" s="141">
         <v>46.012749999999997</v>
       </c>
-      <c r="F5" s="142">
+      <c r="F5" s="141">
         <v>3.835</v>
       </c>
-      <c r="G5" s="143">
+      <c r="G5" s="142">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>11.998109517601042</v>
       </c>

--- a/Aurora.xlsx
+++ b/Aurora.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ec562523a0c953df/Documentos/planilhas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="60" documentId="6_{82169F9A-98EB-4157-8E8A-C317F949519A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{BF14EB38-896C-4060-8244-AEEA50A9D69C}"/>
+  <xr:revisionPtr revIDLastSave="65" documentId="6_{82169F9A-98EB-4157-8E8A-C317F949519A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{7F9D9C73-4923-45DA-98D3-CB8406D44559}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3600" windowWidth="20490" windowHeight="7665" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3600" windowWidth="20490" windowHeight="7665" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2017.1" sheetId="1" r:id="rId1"/>
@@ -2369,8 +2369,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8D4DA0DB-1768-4A87-8BAC-0BC3711A5C7C}" name="G_2019" displayName="G_2019" ref="A1:H3" tableBorderDxfId="61" dataCellStyle="Normal">
-  <autoFilter ref="A1:H3" xr:uid="{1BB8EF35-A1C5-4DA1-AE25-87B25A5E3E01}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8D4DA0DB-1768-4A87-8BAC-0BC3711A5C7C}" name="G_2019" displayName="G_2019" ref="A1:H4" tableBorderDxfId="61" dataCellStyle="Normal">
+  <autoFilter ref="A1:H4" xr:uid="{1BB8EF35-A1C5-4DA1-AE25-87B25A5E3E01}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{0CA686D4-5E48-4762-9327-629FEB3146B0}" name="data" dataDxfId="60" totalsRowDxfId="59" dataCellStyle="Normal"/>
     <tableColumn id="8" xr3:uid="{C4E19C72-93B2-4837-B485-42F08F5ECEBF}" name="hora" totalsRowFunction="average" dataDxfId="58" totalsRowDxfId="57"/>
@@ -3679,7 +3679,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82D5A34F-EB28-41C8-A1E3-151E9E71FB07}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
@@ -4240,7 +4240,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5132,10 +5132,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B43933D-4CC7-4766-9778-D69CB537A172}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5216,10 +5216,12 @@
         <f>D2</f>
         <v>81216</v>
       </c>
-      <c r="D3" s="111"/>
+      <c r="D3" s="111">
+        <v>81333</v>
+      </c>
       <c r="E3" s="94">
         <f>G_2019[[#This Row],[km fim]]-G_2019[[#This Row],[km ini]]</f>
-        <v>-81216</v>
+        <v>117</v>
       </c>
       <c r="F3" s="123">
         <v>60</v>
@@ -5230,6 +5232,36 @@
       <c r="H3" s="100">
         <f>G_2019[[#This Row],[valor]]/G_2019[[#This Row],[preço]]</f>
         <v>14.117647058823529</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="114">
+        <v>43497</v>
+      </c>
+      <c r="B4" s="126">
+        <v>0.79513888888888884</v>
+      </c>
+      <c r="C4" s="111">
+        <f>D3</f>
+        <v>81333</v>
+      </c>
+      <c r="D4" s="111">
+        <f>C5</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="94">
+        <f>G_2019[[#This Row],[km fim]]-G_2019[[#This Row],[km ini]]</f>
+        <v>-81333</v>
+      </c>
+      <c r="F4" s="123">
+        <v>60</v>
+      </c>
+      <c r="G4" s="115">
+        <v>4.29</v>
+      </c>
+      <c r="H4" s="100">
+        <f>G_2019[[#This Row],[valor]]/G_2019[[#This Row],[preço]]</f>
+        <v>13.986013986013987</v>
       </c>
     </row>
   </sheetData>

--- a/Aurora.xlsx
+++ b/Aurora.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ec562523a0c953df/Documentos/planilhas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="65" documentId="6_{82169F9A-98EB-4157-8E8A-C317F949519A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{7F9D9C73-4923-45DA-98D3-CB8406D44559}"/>
+  <xr:revisionPtr revIDLastSave="76" documentId="6_{82169F9A-98EB-4157-8E8A-C317F949519A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{77137E41-918A-8B4B-B260-FEB4DD64929C}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3600" windowWidth="20490" windowHeight="7665" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3600" windowWidth="20490" windowHeight="7665" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2017.1" sheetId="1" r:id="rId1"/>
@@ -337,7 +337,7 @@
     <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="167" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -667,7 +667,7 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="144">
+  <cellXfs count="146">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
@@ -1060,6 +1060,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="20% - Ênfase4" xfId="3" builtinId="42"/>
@@ -2369,8 +2371,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8D4DA0DB-1768-4A87-8BAC-0BC3711A5C7C}" name="G_2019" displayName="G_2019" ref="A1:H4" tableBorderDxfId="61" dataCellStyle="Normal">
-  <autoFilter ref="A1:H4" xr:uid="{1BB8EF35-A1C5-4DA1-AE25-87B25A5E3E01}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8D4DA0DB-1768-4A87-8BAC-0BC3711A5C7C}" name="G_2019" displayName="G_2019" ref="A1:H5" tableBorderDxfId="61" dataCellStyle="Normal">
+  <autoFilter ref="A1:H5" xr:uid="{1BB8EF35-A1C5-4DA1-AE25-87B25A5E3E01}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{0CA686D4-5E48-4762-9327-629FEB3146B0}" name="data" dataDxfId="60" totalsRowDxfId="59" dataCellStyle="Normal"/>
     <tableColumn id="8" xr3:uid="{C4E19C72-93B2-4837-B485-42F08F5ECEBF}" name="hora" totalsRowFunction="average" dataDxfId="58" totalsRowDxfId="57"/>
@@ -2426,8 +2428,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{137CCE77-ADDB-4C8C-995A-CD5917FE5216}" name="Etanol" displayName="Etanol" ref="A1:F20" headerRowDxfId="14" dataDxfId="13" totalsRowDxfId="12">
-  <autoFilter ref="A1:F20" xr:uid="{BA0B08BB-754D-4819-AC93-39A0554A2FF6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{137CCE77-ADDB-4C8C-995A-CD5917FE5216}" name="Etanol" displayName="Etanol" ref="A1:F21" headerRowDxfId="14" dataDxfId="13" totalsRowDxfId="12">
+  <autoFilter ref="A1:F21" xr:uid="{BA0B08BB-754D-4819-AC93-39A0554A2FF6}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{FC48604D-710C-4BBA-B35F-209384F01637}" name="data" dataDxfId="11" totalsRowDxfId="10"/>
     <tableColumn id="2" xr3:uid="{A139AE0A-C5DF-448F-8E20-931AD1CD8489}" name="hora" totalsRowFunction="average" dataDxfId="9" totalsRowDxfId="8"/>
@@ -2741,36 +2743,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
       <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" customWidth="1"/>
-    <col min="3" max="3" width="6" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" customWidth="1"/>
-    <col min="5" max="5" width="7" customWidth="1"/>
-    <col min="6" max="6" width="6.85546875" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" customWidth="1"/>
-    <col min="9" max="9" width="6" customWidth="1"/>
-    <col min="10" max="10" width="5.7109375" customWidth="1"/>
-    <col min="11" max="11" width="7" customWidth="1"/>
-    <col min="12" max="12" width="6.85546875" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" customWidth="1"/>
-    <col min="15" max="15" width="6" customWidth="1"/>
-    <col min="16" max="16" width="6.28515625" customWidth="1"/>
-    <col min="17" max="17" width="7" customWidth="1"/>
-    <col min="18" max="18" width="7.140625" customWidth="1"/>
-    <col min="19" max="19" width="16.7109375" customWidth="1"/>
-    <col min="20" max="20" width="16.42578125" customWidth="1"/>
-    <col min="21" max="21" width="10.28515625" customWidth="1"/>
+    <col min="1" max="1" width="10.76171875" customWidth="1"/>
+    <col min="2" max="2" width="9.14453125" customWidth="1"/>
+    <col min="3" max="3" width="6.05078125" customWidth="1"/>
+    <col min="4" max="4" width="6.72265625" customWidth="1"/>
+    <col min="5" max="5" width="6.9921875" customWidth="1"/>
+    <col min="6" max="6" width="6.859375" customWidth="1"/>
+    <col min="7" max="7" width="10.76171875" customWidth="1"/>
+    <col min="8" max="8" width="9.14453125" customWidth="1"/>
+    <col min="9" max="9" width="6.05078125" customWidth="1"/>
+    <col min="10" max="10" width="5.6484375" customWidth="1"/>
+    <col min="11" max="11" width="6.9921875" customWidth="1"/>
+    <col min="12" max="12" width="6.859375" customWidth="1"/>
+    <col min="13" max="13" width="10.76171875" customWidth="1"/>
+    <col min="14" max="14" width="9.14453125" customWidth="1"/>
+    <col min="15" max="15" width="6.05078125" customWidth="1"/>
+    <col min="16" max="16" width="6.3203125" customWidth="1"/>
+    <col min="17" max="17" width="6.9921875" customWidth="1"/>
+    <col min="18" max="18" width="7.12890625" customWidth="1"/>
+    <col min="19" max="19" width="16.6796875" customWidth="1"/>
+    <col min="20" max="20" width="16.41015625" customWidth="1"/>
+    <col min="21" max="21" width="10.22265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22">
       <c r="A1" s="143" t="s">
         <v>0</v>
       </c>
@@ -2800,7 +2802,7 @@
       <c r="U1" s="6"/>
       <c r="V1" s="6"/>
     </row>
-    <row r="2" spans="1:22" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" s="6" customFormat="1">
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
@@ -2863,7 +2865,7 @@
         <v>1767.03</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22">
       <c r="A3" s="19">
         <v>42726</v>
       </c>
@@ -2930,7 +2932,7 @@
       <c r="U3" s="6"/>
       <c r="V3" s="6"/>
     </row>
-    <row r="4" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22">
       <c r="A4" s="2">
         <v>42728</v>
       </c>
@@ -2997,7 +2999,7 @@
       <c r="U4" s="6"/>
       <c r="V4" s="6"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22">
       <c r="A5" s="2">
         <v>42733</v>
       </c>
@@ -3066,7 +3068,7 @@
       <c r="U5" s="6"/>
       <c r="V5" s="6"/>
     </row>
-    <row r="6" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" ht="15" customHeight="1">
       <c r="A6" s="17">
         <v>42737</v>
       </c>
@@ -3128,7 +3130,7 @@
       <c r="U6" s="6"/>
       <c r="V6" s="6"/>
     </row>
-    <row r="7" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" ht="15" customHeight="1">
       <c r="A7" s="2">
         <v>42744</v>
       </c>
@@ -3182,7 +3184,7 @@
       <c r="U7" s="6"/>
       <c r="V7" s="6"/>
     </row>
-    <row r="8" spans="1:22" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="A8" s="67"/>
       <c r="B8" s="68">
         <f>SUM(B4:B7)</f>
@@ -3238,7 +3240,7 @@
       </c>
       <c r="R8" s="73"/>
     </row>
-    <row r="9" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" ht="18" customHeight="1">
       <c r="A9" s="61"/>
       <c r="B9" s="62">
         <f>SUM(B10:B14,H14)</f>
@@ -3298,7 +3300,7 @@
       <c r="U9" s="6"/>
       <c r="V9" s="6"/>
     </row>
-    <row r="10" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" ht="15" customHeight="1">
       <c r="A10" s="2">
         <v>42848</v>
       </c>
@@ -3337,7 +3339,7 @@
       <c r="U10" s="6"/>
       <c r="V10" s="6"/>
     </row>
-    <row r="11" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" ht="15" customHeight="1">
       <c r="A11" s="17">
         <v>42841</v>
       </c>
@@ -3376,7 +3378,7 @@
       <c r="U11" s="6"/>
       <c r="V11" s="6"/>
     </row>
-    <row r="12" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" ht="15" customHeight="1">
       <c r="A12" s="2">
         <v>42841</v>
       </c>
@@ -3420,7 +3422,7 @@
       <c r="U12" s="6"/>
       <c r="V12" s="6"/>
     </row>
-    <row r="13" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" ht="15" customHeight="1">
       <c r="A13" s="2">
         <v>42839</v>
       </c>
@@ -3489,7 +3491,7 @@
       <c r="U13" s="6"/>
       <c r="V13" s="6"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22">
       <c r="A14" s="17">
         <v>42838</v>
       </c>
@@ -3551,7 +3553,7 @@
       <c r="U14" s="6"/>
       <c r="V14" s="6"/>
     </row>
-    <row r="15" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22">
       <c r="A15" s="8" t="s">
         <v>3</v>
       </c>
@@ -3611,7 +3613,7 @@
       <c r="U15" s="6"/>
       <c r="V15" s="6"/>
     </row>
-    <row r="16" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22">
       <c r="A16" s="143" t="s">
         <v>13</v>
       </c>
@@ -3641,19 +3643,19 @@
       <c r="U16" s="6"/>
       <c r="V16" s="6"/>
     </row>
-    <row r="17" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:3" ht="15.75" customHeight="1">
       <c r="C17" s="6"/>
     </row>
-    <row r="18" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:3" ht="15" customHeight="1">
       <c r="C18" s="6"/>
     </row>
-    <row r="19" spans="3:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:3" ht="18" customHeight="1">
       <c r="C19" s="6"/>
     </row>
-    <row r="20" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:3" ht="15.75" customHeight="1">
       <c r="C20" s="6"/>
     </row>
-    <row r="21" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:3" ht="15" customHeight="1">
       <c r="C21" s="6"/>
     </row>
   </sheetData>
@@ -3679,24 +3681,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82D5A34F-EB28-41C8-A1E3-151E9E71FB07}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView workbookViewId="0" xr3:uid="{8D3781B8-FEA9-57BA-A236-8A0110A48394}">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="6"/>
-    <col min="3" max="3" width="9.28515625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="6"/>
-    <col min="5" max="5" width="9.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.140625" style="6"/>
-    <col min="8" max="8" width="9" style="6" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="12.10546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="9.14453125" style="6"/>
+    <col min="3" max="3" width="9.28125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="9.14453125" style="6"/>
+    <col min="5" max="5" width="9.4140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.14453125" style="6"/>
+    <col min="8" max="8" width="9.01171875" style="6" customWidth="1"/>
+    <col min="9" max="9" width="10.76171875" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.14453125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="6" t="s">
         <v>3</v>
       </c>
@@ -3719,7 +3721,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="82">
         <v>42804</v>
       </c>
@@ -3744,7 +3746,7 @@
         <v>41.26281570392598</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="82">
         <v>42816</v>
       </c>
@@ -3769,7 +3771,7 @@
         <v>26.041666666666668</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="82">
         <v>42836</v>
       </c>
@@ -3795,7 +3797,7 @@
         <v>31.662269129287598</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="82">
         <v>42839</v>
       </c>
@@ -3820,7 +3822,7 @@
         <v>11.998109517601042</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="82">
         <v>42848</v>
       </c>
@@ -3845,7 +3847,7 @@
         <v>20.565552699228792</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" s="82">
         <v>42855</v>
       </c>
@@ -3871,7 +3873,7 @@
         <v>25.839793281653748</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" s="82">
         <v>42880</v>
       </c>
@@ -3897,7 +3899,7 @@
         <v>20.565552699228792</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="82">
         <v>42907</v>
       </c>
@@ -3922,7 +3924,7 @@
         <v>20.833333333333336</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" s="82">
         <v>42940</v>
       </c>
@@ -3948,7 +3950,7 @@
         <v>42.5</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" s="82">
         <v>42946</v>
       </c>
@@ -3973,7 +3975,7 @@
         <v>30.76923076923077</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" s="82">
         <v>42950</v>
       </c>
@@ -3998,7 +4000,7 @@
         <v>35.799522673031021</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" s="82">
         <v>42961</v>
       </c>
@@ -4024,7 +4026,7 @@
         <v>33.41288782816229</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" s="82">
         <v>42970</v>
       </c>
@@ -4049,7 +4051,7 @@
         <v>20.565552699228792</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" s="82">
         <v>42991</v>
       </c>
@@ -4075,7 +4077,7 @@
         <v>19.093078758949879</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" s="82">
         <v>43020</v>
       </c>
@@ -4100,7 +4102,7 @@
         <v>20.258293238794632</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" s="82">
         <v>43034</v>
       </c>
@@ -4126,7 +4128,7 @@
         <v>30.76923076923077</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" s="82">
         <v>43042</v>
       </c>
@@ -4151,7 +4153,7 @@
         <v>38.872860635696824</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" s="82">
         <v>43057</v>
       </c>
@@ -4176,7 +4178,7 @@
         <v>19.18465227817746</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20" s="82">
         <v>43087</v>
       </c>
@@ -4201,7 +4203,7 @@
         <v>28.729361091170134</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" s="82">
         <v>43093</v>
       </c>
@@ -4239,20 +4241,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB98AEA6-30EA-4D94-808F-A65CE5265EE7}">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView workbookViewId="0" xr3:uid="{57EF5C90-13A6-5C11-B0DA-7A714F44E738}">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.140625" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.10546875" customWidth="1"/>
+    <col min="3" max="3" width="9.28125" customWidth="1"/>
+    <col min="5" max="5" width="10.76171875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.01171875" customWidth="1"/>
+    <col min="9" max="9" width="10.76171875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="6" customFormat="1">
       <c r="A1" s="6" t="s">
         <v>3</v>
       </c>
@@ -4275,7 +4277,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="82">
         <v>43105</v>
       </c>
@@ -4300,7 +4302,7 @@
         <v>28.639618138424819</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="82">
         <v>43115</v>
       </c>
@@ -4326,7 +4328,7 @@
         <v>28.639618138424819</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="82">
         <v>43119</v>
       </c>
@@ -4351,7 +4353,7 @@
         <v>33.799533799533798</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="82">
         <v>43122</v>
       </c>
@@ -4377,7 +4379,7 @@
         <v>27.972027972027973</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="82">
         <v>43128</v>
       </c>
@@ -4402,7 +4404,7 @@
         <v>20.049180327868854</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" s="82">
         <v>43136</v>
       </c>
@@ -4428,7 +4430,7 @@
         <v>26.726057906458795</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" s="82">
         <v>43148</v>
       </c>
@@ -4453,7 +4455,7 @@
         <v>38.982182628062361</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="82">
         <v>43158</v>
       </c>
@@ -4479,7 +4481,7 @@
         <v>29.339853300733498</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" s="82">
         <v>43186</v>
       </c>
@@ -4505,7 +4507,7 @@
         <v>34.168564920273354</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" s="82">
         <v>43207</v>
       </c>
@@ -4530,7 +4532,7 @@
         <v>18.648018648018649</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" s="82">
         <v>43222</v>
       </c>
@@ -4555,7 +4557,7 @@
         <v>8.908685968819599</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" s="82">
         <v>43237</v>
       </c>
@@ -4581,7 +4583,7 @@
         <v>17.429193899782135</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" s="82">
         <v>43243</v>
       </c>
@@ -4607,7 +4609,7 @@
         <v>13.363028953229398</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" s="82">
         <v>43271</v>
       </c>
@@ -4633,7 +4635,7 @@
         <v>12.793176972281449</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" s="82">
         <v>43285</v>
       </c>
@@ -4659,7 +4661,7 @@
         <v>12.526096033402922</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" s="82">
         <v>43286</v>
       </c>
@@ -4685,7 +4687,7 @@
         <v>29.156862745098042</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" s="82">
         <v>43289</v>
       </c>
@@ -4710,7 +4712,7 @@
         <v>32.782881002087684</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" s="116">
         <v>43306</v>
       </c>
@@ -4735,7 +4737,7 @@
         <v>22.271714922048996</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20" s="82">
         <v>43318</v>
       </c>
@@ -4761,7 +4763,7 @@
         <v>22.271714922048996</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" s="82">
         <v>43333</v>
       </c>
@@ -4787,7 +4789,7 @@
         <v>22.779043280182233</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22" s="82">
         <v>43340</v>
       </c>
@@ -4813,7 +4815,7 @@
         <v>18.648018648018649</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" s="114">
         <v>43349</v>
       </c>
@@ -4839,7 +4841,7 @@
         <v>13.986013986013987</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="A24" s="114">
         <v>43352</v>
       </c>
@@ -4864,7 +4866,7 @@
         <v>21.419624217118997</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="A25" s="114">
         <v>43355</v>
       </c>
@@ -4889,7 +4891,7 @@
         <v>37.789144050104383</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7">
       <c r="A26" s="114">
         <v>43373</v>
       </c>
@@ -4915,7 +4917,7 @@
         <v>21.786492374727668</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7">
       <c r="A27" s="114">
         <v>43384</v>
       </c>
@@ -4941,7 +4943,7 @@
         <v>12.526096033402922</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7">
       <c r="A28" s="114">
         <v>43386</v>
       </c>
@@ -4966,7 +4968,7 @@
         <v>29.999999999999996</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7">
       <c r="A29" s="114">
         <v>43399</v>
       </c>
@@ -4991,7 +4993,7 @@
         <v>12.024048096192384</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7">
       <c r="A30" s="114">
         <v>43410</v>
       </c>
@@ -5017,7 +5019,7 @@
         <v>24.048096192384769</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7">
       <c r="A31" s="114">
         <v>43418</v>
       </c>
@@ -5043,7 +5045,7 @@
         <v>17.057569296375267</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7">
       <c r="A32" s="114">
         <v>43426</v>
       </c>
@@ -5069,7 +5071,7 @@
         <v>12.320328542094456</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7">
       <c r="A33" s="114">
         <v>43433</v>
       </c>
@@ -5095,7 +5097,7 @@
         <v>13.071895424836601</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7">
       <c r="A34" s="114">
         <v>43442</v>
       </c>
@@ -5132,26 +5134,26 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B43933D-4CC7-4766-9778-D69CB537A172}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView topLeftCell="B1" workbookViewId="0" xr3:uid="{8AA1B97D-5C90-5FD5-A4E7-F81983934B23}">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="6"/>
-    <col min="5" max="5" width="9.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.140625" style="6"/>
-    <col min="8" max="8" width="9" style="6" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="12.10546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="11.8359375" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="9.14453125" style="6"/>
+    <col min="5" max="5" width="9.4140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.14453125" style="6"/>
+    <col min="8" max="8" width="9.01171875" style="6" customWidth="1"/>
+    <col min="9" max="9" width="10.76171875" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.14453125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="6" t="s">
         <v>3</v>
       </c>
@@ -5177,7 +5179,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="114">
         <v>43476</v>
       </c>
@@ -5205,7 +5207,7 @@
         <v>14.457831325301203</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="114">
         <v>43487</v>
       </c>
@@ -5234,7 +5236,7 @@
         <v>14.117647058823529</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" s="114">
         <v>43497</v>
       </c>
@@ -5246,12 +5248,12 @@
         <v>81333</v>
       </c>
       <c r="D4" s="111">
-        <f>C5</f>
-        <v>0</v>
+        <f>81454</f>
+        <v>81454</v>
       </c>
       <c r="E4" s="94">
         <f>G_2019[[#This Row],[km fim]]-G_2019[[#This Row],[km ini]]</f>
-        <v>-81333</v>
+        <v>121</v>
       </c>
       <c r="F4" s="123">
         <v>60</v>
@@ -5262,6 +5264,32 @@
       <c r="H4" s="100">
         <f>G_2019[[#This Row],[valor]]/G_2019[[#This Row],[preço]]</f>
         <v>13.986013986013987</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="114">
+        <v>43505</v>
+      </c>
+      <c r="B5" s="145">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="C5" s="111">
+        <f>D4</f>
+        <v>81454</v>
+      </c>
+      <c r="D5" s="144">
+        <f>C6</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="94">
+        <f>G_2019[[#This Row],[km fim]]-G_2019[[#This Row],[km ini]]</f>
+        <v>-81454</v>
+      </c>
+      <c r="F5" s="123"/>
+      <c r="G5" s="115"/>
+      <c r="H5" s="100" t="e">
+        <f>G_2019[[#This Row],[valor]]/G_2019[[#This Row],[preço]]</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
@@ -5280,29 +5308,29 @@
   </sheetPr>
   <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView workbookViewId="0" xr3:uid="{C90B185E-D5F8-5C1D-B199-BFB8565D8E33}">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.7109375" customWidth="1"/>
-    <col min="11" max="11" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.76171875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7421875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.4140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.72265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.859375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.53125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.6484375" customWidth="1"/>
+    <col min="11" max="11" width="11.296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.33984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.609375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.56640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
       <c r="A1" s="87" t="s">
         <v>18</v>
       </c>
@@ -5346,7 +5374,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="A2" s="118">
         <v>42737</v>
       </c>
@@ -5396,7 +5424,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="A3" s="118">
         <v>42790</v>
       </c>
@@ -5446,7 +5474,7 @@
         <v>109.29330000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="A4" s="118">
         <v>42806</v>
       </c>
@@ -5496,7 +5524,7 @@
         <v>127.03999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
       <c r="A5" s="118">
         <v>42838</v>
       </c>
@@ -5546,7 +5574,7 @@
         <v>97.25139999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14">
       <c r="A6" s="118">
         <v>42841</v>
       </c>
@@ -5589,7 +5617,7 @@
         <v>113.5491</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14">
       <c r="A7" s="118">
         <v>42935</v>
       </c>
@@ -5632,7 +5660,7 @@
         <v>120.003</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14">
       <c r="A8" s="118">
         <v>42945</v>
       </c>
@@ -5675,7 +5703,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14">
       <c r="A9" s="118">
         <v>42946</v>
       </c>
@@ -5718,7 +5746,7 @@
         <v>109.2</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14">
       <c r="A10" s="118">
         <v>42961</v>
       </c>
@@ -5761,7 +5789,7 @@
         <v>133.7029</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14">
       <c r="A11" s="118">
         <v>43040</v>
       </c>
@@ -5804,7 +5832,7 @@
         <v>104.93840000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14">
       <c r="A12" s="118">
         <v>43044</v>
       </c>
@@ -5847,7 +5875,7 @@
         <v>118.07829999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14">
       <c r="A13" s="118">
         <v>43087</v>
       </c>
@@ -5890,7 +5918,7 @@
         <v>120.38789999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14">
       <c r="A14" s="118">
         <v>43119</v>
       </c>
@@ -5940,7 +5968,7 @@
         <v>114.97199999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14">
       <c r="A15" s="118">
         <v>43128</v>
       </c>
@@ -5990,7 +6018,7 @@
         <v>115.17044</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14">
       <c r="A16" s="118">
         <v>43148</v>
       </c>
@@ -6033,7 +6061,7 @@
         <v>121.14918</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14">
       <c r="A17" s="118">
         <v>43187</v>
       </c>
@@ -6083,7 +6111,7 @@
         <v>114.88000000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14">
       <c r="A18" s="118">
         <v>43190</v>
       </c>
@@ -6133,7 +6161,7 @@
         <v>116.74000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14">
       <c r="A19" s="118">
         <v>43287</v>
       </c>
@@ -6183,7 +6211,7 @@
         <v>128.51999999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14">
       <c r="A20" s="118">
         <v>43289</v>
       </c>
@@ -6233,7 +6261,7 @@
         <v>119.75</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14">
       <c r="A21" s="119">
         <v>43350</v>
       </c>
@@ -6283,7 +6311,7 @@
         <v>124.54</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14">
       <c r="A22" s="119">
         <v>43352</v>
       </c>
@@ -6333,7 +6361,7 @@
         <v>143.69999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14">
       <c r="A23" s="119">
         <v>43385</v>
       </c>
@@ -6383,7 +6411,7 @@
         <v>158.07</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14">
       <c r="A24" s="119">
         <v>43388</v>
       </c>
@@ -6433,7 +6461,7 @@
         <v>138.32000000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14">
       <c r="A25" s="119">
         <v>43456</v>
       </c>
@@ -6483,7 +6511,7 @@
         <v>130.5</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14">
       <c r="A26" s="118">
         <v>43459</v>
       </c>
@@ -6533,7 +6561,7 @@
         <v>134.56</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" ht="18" customHeight="1">
       <c r="A27" s="95"/>
       <c r="B27" s="90"/>
       <c r="C27" s="86"/>
@@ -6543,7 +6571,7 @@
       <c r="G27" s="89"/>
       <c r="H27" s="89"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14">
       <c r="A28" s="95"/>
       <c r="B28" s="90"/>
       <c r="C28" s="86"/>
@@ -6553,7 +6581,7 @@
       <c r="G28" s="89"/>
       <c r="H28" s="89"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14">
       <c r="A29" s="96"/>
       <c r="B29" s="96"/>
       <c r="C29" s="89"/>
@@ -6563,7 +6591,7 @@
       <c r="G29" s="89"/>
       <c r="H29" s="89"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14">
       <c r="A30" s="96"/>
       <c r="B30" s="96"/>
       <c r="C30" s="89"/>
@@ -6573,7 +6601,7 @@
       <c r="G30" s="89"/>
       <c r="H30" s="89"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14">
       <c r="A31" s="96"/>
       <c r="B31" s="96"/>
       <c r="C31" s="89"/>
@@ -6583,7 +6611,7 @@
       <c r="G31" s="89"/>
       <c r="H31" s="89"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14">
       <c r="A32" s="96"/>
       <c r="B32" s="96"/>
       <c r="C32" s="89"/>
@@ -6593,7 +6621,7 @@
       <c r="G32" s="89"/>
       <c r="H32" s="89"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8">
       <c r="A33" s="96"/>
       <c r="B33" s="96"/>
       <c r="C33" s="89"/>
@@ -6603,7 +6631,7 @@
       <c r="G33" s="89"/>
       <c r="H33" s="89"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8">
       <c r="A34" s="96"/>
       <c r="B34" s="96"/>
       <c r="C34" s="89"/>
@@ -6613,7 +6641,7 @@
       <c r="G34" s="89"/>
       <c r="H34" s="89"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8">
       <c r="A35" s="96"/>
       <c r="B35" s="96"/>
       <c r="C35" s="89"/>
@@ -6623,7 +6651,7 @@
       <c r="G35" s="89"/>
       <c r="H35" s="89"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8">
       <c r="A36" s="96"/>
       <c r="B36" s="96"/>
       <c r="C36" s="89"/>
@@ -6647,18 +6675,18 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0" xr3:uid="{1811AD09-42D4-5ED3-9404-4B34E85B0196}">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.76171875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="132" t="s">
         <v>3</v>
       </c>
@@ -6678,7 +6706,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="128">
         <v>42900</v>
       </c>
@@ -6697,7 +6725,7 @@
         <v>67245</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="128">
         <v>43006</v>
       </c>
@@ -6716,7 +6744,7 @@
         <v>69760</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="128">
         <v>43069</v>
       </c>
@@ -6733,7 +6761,7 @@
       </c>
       <c r="F4" s="131"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="128">
         <v>43078</v>
       </c>
@@ -6750,7 +6778,7 @@
       </c>
       <c r="F5" s="131"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="128">
         <v>43169</v>
       </c>
@@ -6767,7 +6795,7 @@
       </c>
       <c r="F6" s="131"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="128">
         <v>43194</v>
       </c>
@@ -6784,7 +6812,7 @@
       </c>
       <c r="F7" s="131"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="128">
         <v>43207</v>
       </c>
@@ -6801,7 +6829,7 @@
       </c>
       <c r="F8" s="131"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="128">
         <v>43222</v>
       </c>
@@ -6818,7 +6846,7 @@
       </c>
       <c r="F9" s="131"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="128">
         <v>43243</v>
       </c>
@@ -6835,7 +6863,7 @@
       </c>
       <c r="F10" s="131"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="128">
         <v>43263</v>
       </c>
@@ -6852,7 +6880,7 @@
       </c>
       <c r="F11" s="131"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="128">
         <v>43290</v>
       </c>
@@ -6871,7 +6899,7 @@
         <v>76592</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="128">
         <v>43341</v>
       </c>
@@ -6890,7 +6918,7 @@
         <v>77312</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="128">
         <v>43349</v>
       </c>
@@ -6909,7 +6937,7 @@
         <v>77437</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="128">
         <v>43355</v>
       </c>
@@ -6928,7 +6956,7 @@
         <v>78273</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" s="128">
         <v>43388</v>
       </c>
@@ -6947,7 +6975,7 @@
         <v>79364</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="128">
         <v>43393</v>
       </c>
@@ -6966,7 +6994,7 @@
         <v>79498</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="128">
         <v>43410</v>
       </c>
@@ -6985,7 +7013,7 @@
         <v>79632</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" s="128">
         <v>43455</v>
       </c>
@@ -7006,7 +7034,7 @@
         <v>80148</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" s="128">
         <v>43467</v>
       </c>
@@ -7025,6 +7053,27 @@
       </c>
       <c r="F20" s="131">
         <v>81020</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="128">
+        <v>43505</v>
+      </c>
+      <c r="B21" s="129">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="C21" s="127">
+        <f>Etanol[[#This Row],[preço]]*Etanol[[#This Row],[litros]]</f>
+        <v>53.6</v>
+      </c>
+      <c r="D21" s="127">
+        <v>3.35</v>
+      </c>
+      <c r="E21" s="130">
+        <v>16</v>
+      </c>
+      <c r="F21" s="131">
+        <v>81454</v>
       </c>
     </row>
   </sheetData>

--- a/Aurora.xlsx
+++ b/Aurora.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ec562523a0c953df/Documentos/planilhas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="76" documentId="6_{82169F9A-98EB-4157-8E8A-C317F949519A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{77137E41-918A-8B4B-B260-FEB4DD64929C}"/>
+  <xr:revisionPtr revIDLastSave="77" documentId="6_{82169F9A-98EB-4157-8E8A-C317F949519A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{D7E06A89-59F5-2542-8B80-9B840C4E05CB}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3600" windowWidth="20490" windowHeight="7665" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3600" windowWidth="20490" windowHeight="7665" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2017.1" sheetId="1" r:id="rId1"/>
@@ -667,7 +667,7 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="146">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
@@ -1060,8 +1060,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="20% - Ênfase4" xfId="3" builtinId="42"/>
@@ -2371,8 +2369,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8D4DA0DB-1768-4A87-8BAC-0BC3711A5C7C}" name="G_2019" displayName="G_2019" ref="A1:H5" tableBorderDxfId="61" dataCellStyle="Normal">
-  <autoFilter ref="A1:H5" xr:uid="{1BB8EF35-A1C5-4DA1-AE25-87B25A5E3E01}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8D4DA0DB-1768-4A87-8BAC-0BC3711A5C7C}" name="G_2019" displayName="G_2019" ref="A1:H4" tableBorderDxfId="61" dataCellStyle="Normal">
+  <autoFilter ref="A1:H4" xr:uid="{1BB8EF35-A1C5-4DA1-AE25-87B25A5E3E01}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{0CA686D4-5E48-4762-9327-629FEB3146B0}" name="data" dataDxfId="60" totalsRowDxfId="59" dataCellStyle="Normal"/>
     <tableColumn id="8" xr3:uid="{C4E19C72-93B2-4837-B485-42F08F5ECEBF}" name="hora" totalsRowFunction="average" dataDxfId="58" totalsRowDxfId="57"/>
@@ -5134,10 +5132,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B43933D-4CC7-4766-9778-D69CB537A172}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0" xr3:uid="{8AA1B97D-5C90-5FD5-A4E7-F81983934B23}">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{8AA1B97D-5C90-5FD5-A4E7-F81983934B23}">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15"/>
@@ -5264,32 +5262,6 @@
       <c r="H4" s="100">
         <f>G_2019[[#This Row],[valor]]/G_2019[[#This Row],[preço]]</f>
         <v>13.986013986013987</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="114">
-        <v>43505</v>
-      </c>
-      <c r="B5" s="145">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="C5" s="111">
-        <f>D4</f>
-        <v>81454</v>
-      </c>
-      <c r="D5" s="144">
-        <f>C6</f>
-        <v>0</v>
-      </c>
-      <c r="E5" s="94">
-        <f>G_2019[[#This Row],[km fim]]-G_2019[[#This Row],[km ini]]</f>
-        <v>-81454</v>
-      </c>
-      <c r="F5" s="123"/>
-      <c r="G5" s="115"/>
-      <c r="H5" s="100" t="e">
-        <f>G_2019[[#This Row],[valor]]/G_2019[[#This Row],[preço]]</f>
-        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
@@ -6677,7 +6649,7 @@
   </sheetPr>
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0" xr3:uid="{1811AD09-42D4-5ED3-9404-4B34E85B0196}">
+    <sheetView topLeftCell="A3" workbookViewId="0" xr3:uid="{1811AD09-42D4-5ED3-9404-4B34E85B0196}">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>

--- a/Aurora.xlsx
+++ b/Aurora.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ec562523a0c953df/Documentos/planilhas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="77" documentId="6_{82169F9A-98EB-4157-8E8A-C317F949519A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{D7E06A89-59F5-2542-8B80-9B840C4E05CB}"/>
+  <xr:revisionPtr revIDLastSave="109" documentId="6_{82169F9A-98EB-4157-8E8A-C317F949519A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{F0CCA967-3522-4ACD-AEAF-141E3F031FAE}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3600" windowWidth="20490" windowHeight="7665" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2017.1" sheetId="1" r:id="rId1"/>
@@ -337,7 +337,7 @@
     <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="167" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -667,9 +667,9 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="144">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -682,17 +682,16 @@
     <xf numFmtId="2" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="5" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
@@ -833,8 +832,8 @@
     <xf numFmtId="2" fontId="5" fillId="10" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="10" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -916,7 +915,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -925,96 +924,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1041,16 +990,11 @@
     <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2326,8 +2270,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{707C8E72-449F-434C-81D2-E6CAE60FDC64}" name="G_20184" displayName="G_20184" ref="A1:G21" tableBorderDxfId="91" dataCellStyle="Normal">
-  <autoFilter ref="A1:G21" xr:uid="{1BB8EF35-A1C5-4DA1-AE25-87B25A5E3E01}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{707C8E72-449F-434C-81D2-E6CAE60FDC64}" name="G_20184" displayName="G_20184" ref="A1:G23" tableBorderDxfId="91" dataCellStyle="Normal">
+  <autoFilter ref="A1:G23" xr:uid="{1BB8EF35-A1C5-4DA1-AE25-87B25A5E3E01}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{359F37B9-9617-418F-81F4-00F8F142D6C9}" name="data" dataDxfId="90" totalsRowDxfId="89" dataCellStyle="Normal"/>
     <tableColumn id="2" xr3:uid="{5B407B50-7529-43FD-BA94-ADB3D3459328}" name="km ini" totalsRowFunction="min" dataDxfId="88" totalsRowDxfId="87" dataCellStyle="Normal"/>
@@ -2739,198 +2683,194 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V21"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="R6" sqref="R6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.76171875" customWidth="1"/>
-    <col min="2" max="2" width="9.14453125" customWidth="1"/>
-    <col min="3" max="3" width="6.05078125" customWidth="1"/>
-    <col min="4" max="4" width="6.72265625" customWidth="1"/>
-    <col min="5" max="5" width="6.9921875" customWidth="1"/>
-    <col min="6" max="6" width="6.859375" customWidth="1"/>
-    <col min="7" max="7" width="10.76171875" customWidth="1"/>
-    <col min="8" max="8" width="9.14453125" customWidth="1"/>
-    <col min="9" max="9" width="6.05078125" customWidth="1"/>
-    <col min="10" max="10" width="5.6484375" customWidth="1"/>
-    <col min="11" max="11" width="6.9921875" customWidth="1"/>
-    <col min="12" max="12" width="6.859375" customWidth="1"/>
-    <col min="13" max="13" width="10.76171875" customWidth="1"/>
-    <col min="14" max="14" width="9.14453125" customWidth="1"/>
-    <col min="15" max="15" width="6.05078125" customWidth="1"/>
-    <col min="16" max="16" width="6.3203125" customWidth="1"/>
-    <col min="17" max="17" width="6.9921875" customWidth="1"/>
-    <col min="18" max="18" width="7.12890625" customWidth="1"/>
-    <col min="19" max="19" width="16.6796875" customWidth="1"/>
-    <col min="20" max="20" width="16.41015625" customWidth="1"/>
-    <col min="21" max="21" width="10.22265625" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="6" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" customWidth="1"/>
+    <col min="5" max="5" width="7" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" customWidth="1"/>
+    <col min="9" max="9" width="6" customWidth="1"/>
+    <col min="10" max="10" width="5.7109375" customWidth="1"/>
+    <col min="11" max="11" width="7" customWidth="1"/>
+    <col min="12" max="12" width="6.85546875" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" customWidth="1"/>
+    <col min="15" max="15" width="6" customWidth="1"/>
+    <col min="16" max="16" width="6.28515625" customWidth="1"/>
+    <col min="17" max="17" width="7" customWidth="1"/>
+    <col min="18" max="18" width="7.140625" customWidth="1"/>
+    <col min="19" max="19" width="16.7109375" customWidth="1"/>
+    <col min="20" max="20" width="16.42578125" customWidth="1"/>
+    <col min="21" max="21" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
-      <c r="A1" s="143" t="s">
+    <row r="1" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
-      <c r="G1" s="143" t="s">
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="143"/>
-      <c r="I1" s="143"/>
-      <c r="J1" s="143"/>
-      <c r="K1" s="143"/>
-      <c r="L1" s="143"/>
-      <c r="M1" s="143" t="s">
+      <c r="H1" s="117"/>
+      <c r="I1" s="117"/>
+      <c r="J1" s="117"/>
+      <c r="K1" s="117"/>
+      <c r="L1" s="117"/>
+      <c r="M1" s="117" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="143"/>
-      <c r="O1" s="143"/>
-      <c r="P1" s="143"/>
-      <c r="Q1" s="143"/>
-      <c r="R1" s="143"/>
+      <c r="N1" s="117"/>
+      <c r="O1" s="117"/>
+      <c r="P1" s="117"/>
+      <c r="Q1" s="117"/>
+      <c r="R1" s="117"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-    </row>
-    <row r="2" spans="1:22" s="6" customFormat="1">
-      <c r="A2" s="8" t="s">
+    </row>
+    <row r="2" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="N2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="O2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="P2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="Q2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="R2" s="58" t="s">
+      <c r="R2" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="S2" s="57" t="s">
+      <c r="S2" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="T2" s="28">
+      <c r="T2" s="27">
         <f>SUM(B8,H8,N8,B9,H9,N9)</f>
         <v>1767.03</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
-      <c r="A3" s="19">
+    <row r="3" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="18">
         <v>42726</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="39">
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="38">
         <v>63615</v>
       </c>
-      <c r="E3" s="83">
+      <c r="E3" s="82">
         <v>6</v>
       </c>
-      <c r="F3" s="30" t="s">
+      <c r="F3" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="11">
         <v>42767</v>
       </c>
-      <c r="H3" s="15">
+      <c r="H3" s="14">
         <v>40</v>
       </c>
-      <c r="I3" s="16">
+      <c r="I3" s="15">
         <v>4.1399999999999997</v>
       </c>
-      <c r="J3" s="47">
+      <c r="J3" s="46">
         <f>64377-SUM($D$3:D7)</f>
         <v>94</v>
       </c>
-      <c r="K3" s="53">
+      <c r="K3" s="52">
         <f>PRODUCT(H3,1/I3)</f>
         <v>9.6618357487922708</v>
       </c>
-      <c r="L3" s="33">
+      <c r="L3" s="32">
         <f>J4/K3</f>
         <v>5.6924999999999999</v>
       </c>
-      <c r="M3" s="11">
+      <c r="M3" s="10">
         <v>42804</v>
       </c>
-      <c r="N3" s="13">
+      <c r="N3" s="12">
         <v>165.01</v>
       </c>
-      <c r="O3" s="14">
+      <c r="O3" s="13">
         <v>3.9990000000000001</v>
       </c>
-      <c r="P3" s="48">
+      <c r="P3" s="47">
         <f>65175-(SUM($D$3:$D$7)+SUM($J$3:$J$7))</f>
         <v>190</v>
       </c>
-      <c r="Q3" s="55">
+      <c r="Q3" s="54">
         <f>PRODUCT(N3,1/O3)</f>
         <v>41.26281570392598</v>
       </c>
-      <c r="R3" s="59">
+      <c r="R3" s="58">
         <f>P4/(Q3-9.5)</f>
         <v>12.561858612260323</v>
       </c>
-      <c r="S3" s="57" t="s">
+      <c r="S3" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="T3" s="28">
+      <c r="T3" s="27">
         <f>SUM(E8,K8,Q8,Q9,K9,E9)</f>
         <v>427.43246153059158</v>
       </c>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
-    </row>
-    <row r="4" spans="1:22">
+    </row>
+    <row r="4" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>42728</v>
       </c>
@@ -2940,64 +2880,62 @@
       <c r="C4" s="4">
         <v>3.9990000000000001</v>
       </c>
-      <c r="D4" s="40">
+      <c r="D4" s="39">
         <f>63764-$D$3</f>
         <v>149</v>
       </c>
-      <c r="E4" s="51">
+      <c r="E4" s="50">
         <f>PRODUCT(B4,1/C4)</f>
         <v>25.006251562890725</v>
       </c>
-      <c r="F4" s="31">
+      <c r="F4" s="30">
         <f>(D5)/(E4-(15))</f>
         <v>10.89319005372985</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="11">
         <v>42773</v>
       </c>
-      <c r="H4" s="15">
+      <c r="H4" s="14">
         <v>100</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="15">
         <v>3.97</v>
       </c>
-      <c r="J4" s="47">
+      <c r="J4" s="46">
         <f>64432-(SUM($D$3:$D$7,J3))</f>
         <v>55</v>
       </c>
-      <c r="K4" s="53">
+      <c r="K4" s="52">
         <f>PRODUCT(H4,1/I4)</f>
         <v>25.188916876574307</v>
       </c>
-      <c r="L4" s="33">
+      <c r="L4" s="32">
         <f>J5/(K4 -6)</f>
         <v>7.1395379364662643</v>
       </c>
-      <c r="M4" s="22">
+      <c r="M4" s="21">
         <v>42806</v>
       </c>
-      <c r="N4" s="23"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="49">
+      <c r="N4" s="22"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="48">
         <f>65574-(SUM($D$3:$D$7)+SUM($J$3:$J$7)+SUM($P$3))</f>
         <v>399</v>
       </c>
-      <c r="Q4" s="56"/>
-      <c r="R4" s="60">
+      <c r="Q4" s="55"/>
+      <c r="R4" s="59">
         <f>P5/9.5</f>
         <v>6.4210526315789478</v>
       </c>
-      <c r="S4" s="57" t="s">
+      <c r="S4" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="T4" s="29">
+      <c r="T4" s="28">
         <f>SUM(D8,J8,P8,D9,J9,P9)</f>
         <v>3651.8397932816538</v>
       </c>
-      <c r="U4" s="6"/>
-      <c r="V4" s="6"/>
-    </row>
-    <row r="5" spans="1:22">
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>42733</v>
       </c>
@@ -3007,98 +2945,94 @@
       <c r="C5" s="4">
         <v>3.9990000000000001</v>
       </c>
-      <c r="D5" s="40">
+      <c r="D5" s="39">
         <f>63873-SUM($D$3:D4)</f>
         <v>109</v>
       </c>
-      <c r="E5" s="51">
+      <c r="E5" s="50">
         <f>PRODUCT(B5,1/C5)</f>
         <v>37.509377344336087</v>
       </c>
-      <c r="F5" s="32">
+      <c r="F5" s="31">
         <f>(D6)/27</f>
         <v>13</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="11">
         <v>42789</v>
       </c>
-      <c r="H5" s="15">
+      <c r="H5" s="14">
         <v>125</v>
       </c>
-      <c r="I5" s="16">
+      <c r="I5" s="15">
         <v>3.93</v>
       </c>
-      <c r="J5" s="47">
+      <c r="J5" s="46">
         <f>64569-(SUM($D$3:$D$7)+(SUM(J$3:J4)))</f>
         <v>137</v>
       </c>
-      <c r="K5" s="53">
+      <c r="K5" s="52">
         <f>PRODUCT(H5,1/I5)</f>
         <v>31.806615776081426</v>
       </c>
-      <c r="L5" s="42">
+      <c r="L5" s="41">
         <f>J6/(K5 +6 -10)</f>
         <v>13.593887262079061</v>
       </c>
-      <c r="M5" s="11">
+      <c r="M5" s="10">
         <v>42816</v>
       </c>
-      <c r="N5" s="13">
+      <c r="N5" s="12">
         <v>100</v>
       </c>
-      <c r="O5" s="14">
+      <c r="O5" s="13">
         <v>3.84</v>
       </c>
-      <c r="P5" s="48">
+      <c r="P5" s="47">
         <f>65635-(SUM($D$3:$D$7)+SUM($J$3:$J$7)+SUM($P$3:$P$4))</f>
         <v>61</v>
       </c>
-      <c r="Q5" s="55">
+      <c r="Q5" s="54">
         <f>PRODUCT(N5,1/O5)</f>
         <v>26.041666666666668</v>
       </c>
-      <c r="R5" s="31">
+      <c r="R5" s="30">
         <f>P6/Q5</f>
         <v>7.1040000000000001</v>
       </c>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="6"/>
-    </row>
-    <row r="6" spans="1:22" ht="15" customHeight="1">
-      <c r="A6" s="17">
+    </row>
+    <row r="6" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="16">
         <v>42737</v>
       </c>
-      <c r="B6" s="18">
+      <c r="B6" s="17">
         <v>75</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6" s="20">
         <v>3.9990000000000001</v>
       </c>
-      <c r="D6" s="41">
+      <c r="D6" s="40">
         <f>64224-SUM($D$3:D5)</f>
         <v>351</v>
       </c>
-      <c r="E6" s="52">
+      <c r="E6" s="51">
         <f>PRODUCT(B6,1/C6)</f>
         <v>18.754688672168044</v>
       </c>
-      <c r="F6" s="31">
+      <c r="F6" s="30">
         <f>(D7)/(21-($E$3))</f>
         <v>3.9333333333333331</v>
       </c>
-      <c r="G6" s="26">
+      <c r="G6" s="25">
         <v>42790</v>
       </c>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="46">
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="45">
         <f>64947-(SUM($D$3:$D$7)+(SUM(J$3:J5)))</f>
         <v>378</v>
       </c>
-      <c r="K6" s="54"/>
-      <c r="L6" s="33">
+      <c r="K6" s="53"/>
+      <c r="L6" s="32">
         <f>J7/(K5 +6-28)</f>
         <v>3.8749351323300449</v>
       </c>
@@ -3111,24 +3045,20 @@
       <c r="O6" s="5">
         <v>3.79</v>
       </c>
-      <c r="P6" s="50">
+      <c r="P6" s="49">
         <f>65820-(SUM($D$3:$D$7)+SUM($J$3:$J$7)+SUM($P$3:$P$5))</f>
         <v>185</v>
       </c>
-      <c r="Q6" s="34">
+      <c r="Q6" s="33">
         <f>PRODUCT(N6,1/O6)</f>
         <v>31.662269129287598</v>
       </c>
-      <c r="R6" s="35">
+      <c r="R6" s="34">
         <f>D14/(Q6-6)</f>
         <v>14.963602714373843</v>
       </c>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="6"/>
-    </row>
-    <row r="7" spans="1:22" ht="15" customHeight="1">
+    </row>
+    <row r="7" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>42744</v>
       </c>
@@ -3138,167 +3068,159 @@
       <c r="C7" s="5">
         <v>3.99</v>
       </c>
-      <c r="D7" s="40">
+      <c r="D7" s="39">
         <f>64283-SUM($D$3:D6)</f>
         <v>59</v>
       </c>
-      <c r="E7" s="51">
+      <c r="E7" s="50">
         <f>PRODUCT(B7,1/C7)</f>
         <v>20.050125313283207</v>
       </c>
-      <c r="F7" s="33">
+      <c r="F7" s="32">
         <f>J3/E7</f>
         <v>4.68825</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="11">
         <v>42791</v>
       </c>
-      <c r="H7" s="15">
+      <c r="H7" s="14">
         <v>100</v>
       </c>
-      <c r="I7" s="16">
+      <c r="I7" s="15">
         <v>3.9990000000000001</v>
       </c>
-      <c r="J7" s="47">
+      <c r="J7" s="46">
         <f>64985-(SUM($D$3:$D$7)+(SUM(J$3:J6)))</f>
         <v>38</v>
       </c>
-      <c r="K7" s="53">
+      <c r="K7" s="52">
         <f>PRODUCT(H7,1/I7)</f>
         <v>25.006251562890725</v>
       </c>
-      <c r="L7" s="43">
+      <c r="L7" s="42">
         <f>P3/K7</f>
         <v>7.5980999999999996</v>
       </c>
-      <c r="M7" s="27"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="48"/>
-      <c r="Q7" s="55"/>
-      <c r="R7" s="43"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
-    </row>
-    <row r="8" spans="1:22" s="6" customFormat="1" ht="18" customHeight="1">
-      <c r="A8" s="67"/>
-      <c r="B8" s="68">
+      <c r="M7" s="26"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="47"/>
+      <c r="Q7" s="54"/>
+      <c r="R7" s="42"/>
+    </row>
+    <row r="8" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="66"/>
+      <c r="B8" s="67">
         <f>SUM(B4:B7)</f>
         <v>405</v>
       </c>
-      <c r="C8" s="67">
+      <c r="C8" s="66">
         <f>AVERAGE(C4:C7)</f>
         <v>3.99675</v>
       </c>
-      <c r="D8" s="69">
+      <c r="D8" s="68">
         <f>SUM(D4:D7)</f>
         <v>668</v>
       </c>
-      <c r="E8" s="70">
+      <c r="E8" s="69">
         <f>SUM(E4:E6)</f>
         <v>81.270317579394856</v>
       </c>
-      <c r="F8" s="73"/>
-      <c r="G8" s="72"/>
-      <c r="H8" s="68">
+      <c r="F8" s="72"/>
+      <c r="G8" s="71"/>
+      <c r="H8" s="67">
         <f>SUM(H3:H7)</f>
         <v>365</v>
       </c>
-      <c r="I8" s="67">
+      <c r="I8" s="66">
         <f>AVERAGE(I3:I5,I7)</f>
         <v>4.0097499999999995</v>
       </c>
-      <c r="J8" s="69">
+      <c r="J8" s="68">
         <f>SUM(J3:J7)</f>
         <v>702</v>
       </c>
-      <c r="K8" s="70">
+      <c r="K8" s="69">
         <f>SUM(K3:K5,E7)</f>
         <v>86.707493714731214</v>
       </c>
-      <c r="L8" s="73"/>
-      <c r="M8" s="72"/>
-      <c r="N8" s="68">
+      <c r="L8" s="72"/>
+      <c r="M8" s="71"/>
+      <c r="N8" s="67">
         <f>SUM(N3:N7)</f>
         <v>385.01</v>
       </c>
-      <c r="O8" s="67">
+      <c r="O8" s="66">
         <f>AVERAGE(O3,O5)</f>
         <v>3.9195000000000002</v>
       </c>
-      <c r="P8" s="74">
+      <c r="P8" s="73">
         <f>SUM(P3:P5)</f>
         <v>650</v>
       </c>
-      <c r="Q8" s="71">
+      <c r="Q8" s="70">
         <f>SUM(Q3,K7)</f>
         <v>66.269067266816705</v>
       </c>
-      <c r="R8" s="73"/>
-    </row>
-    <row r="9" spans="1:22" ht="18" customHeight="1">
-      <c r="A9" s="61"/>
-      <c r="B9" s="62">
+      <c r="R8" s="72"/>
+    </row>
+    <row r="9" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="60"/>
+      <c r="B9" s="61">
         <f>SUM(B10:B14,H14)</f>
         <v>332.02</v>
       </c>
-      <c r="C9" s="61">
+      <c r="C9" s="60">
         <f>AVERAGE(C10:C14,O6,I14)</f>
         <v>3.8572500000000005</v>
       </c>
-      <c r="D9" s="63">
+      <c r="D9" s="62">
         <f>SUM(D10:D14,P6,K14)</f>
         <v>1144.8397932816538</v>
       </c>
-      <c r="E9" s="64">
+      <c r="E9" s="63">
         <f>SUM(E10:E14,Q5,K14)</f>
         <v>111.63752566636848</v>
       </c>
-      <c r="F9" s="73"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="68">
+      <c r="F9" s="72"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="67">
         <f>SUM(H10:H13)</f>
         <v>80</v>
       </c>
-      <c r="I9" s="67">
+      <c r="I9" s="66">
         <f>AVERAGE(I10:I13)</f>
         <v>3.89</v>
       </c>
-      <c r="J9" s="68">
+      <c r="J9" s="67">
         <f>SUM(J10:J13)</f>
         <v>194</v>
       </c>
-      <c r="K9" s="67">
+      <c r="K9" s="66">
         <f>SUM(K10:K13)</f>
         <v>20.565552699228789</v>
       </c>
-      <c r="L9" s="73"/>
-      <c r="M9" s="66"/>
-      <c r="N9" s="68">
+      <c r="L9" s="72"/>
+      <c r="M9" s="65"/>
+      <c r="N9" s="67">
         <f>SUM(N10:N13)</f>
         <v>200</v>
       </c>
-      <c r="O9" s="67">
+      <c r="O9" s="66">
         <f>AVERAGE(O10:O13)</f>
         <v>3.73</v>
       </c>
-      <c r="P9" s="68">
+      <c r="P9" s="67">
         <f>SUM(P10:P13)</f>
         <v>293</v>
       </c>
-      <c r="Q9" s="65">
+      <c r="Q9" s="64">
         <f>SUM(Q10:Q13)</f>
         <v>60.98250460405157</v>
       </c>
-      <c r="R9" s="65"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
-      <c r="U9" s="6"/>
-      <c r="V9" s="6"/>
-    </row>
-    <row r="10" spans="1:22" ht="15" customHeight="1">
+      <c r="R9" s="64"/>
+    </row>
+    <row r="10" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>42848</v>
       </c>
@@ -3308,95 +3230,87 @@
       <c r="C10" s="5">
         <v>3.89</v>
       </c>
-      <c r="D10" s="40">
+      <c r="D10" s="39">
         <f>66754-(SUM($D$3:$D$7)+SUM($J$3:$J$7)+SUM($P$3:$P$6)+SUM($D$11:$D$14))</f>
         <v>82</v>
       </c>
-      <c r="E10" s="51">
+      <c r="E10" s="50">
         <f>PRODUCT(B10,1/C10)</f>
         <v>20.565552699228789</v>
       </c>
-      <c r="F10" s="31">
+      <c r="F10" s="30">
         <f>J14/E10</f>
         <v>6.807500000000001</v>
       </c>
-      <c r="G10" s="12"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="47"/>
-      <c r="K10" s="45"/>
-      <c r="L10" s="44"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="41"/>
-      <c r="Q10" s="38"/>
-      <c r="R10" s="31"/>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
-      <c r="U10" s="6"/>
-      <c r="V10" s="6"/>
-    </row>
-    <row r="11" spans="1:22" ht="15" customHeight="1">
-      <c r="A11" s="17">
+      <c r="G10" s="11"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="40"/>
+      <c r="Q10" s="37"/>
+      <c r="R10" s="30"/>
+    </row>
+    <row r="11" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="16">
         <v>42841</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="41">
+      <c r="B11" s="17"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="40">
         <f>66672-(SUM($D$3:$D$7)+SUM($J$3:$J$7)+SUM($P$3:$P$6)+SUM($D$12:$D$14))</f>
         <v>371</v>
       </c>
-      <c r="E11" s="38"/>
-      <c r="F11" s="36">
+      <c r="E11" s="37"/>
+      <c r="F11" s="35">
         <f>D10/10</f>
         <v>8.1999999999999993</v>
       </c>
-      <c r="G11" s="12"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="47"/>
-      <c r="K11" s="45"/>
-      <c r="L11" s="44"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="43"/>
       <c r="M11" s="2">
         <v>42937</v>
       </c>
       <c r="N11" s="3"/>
       <c r="O11" s="5"/>
-      <c r="P11" s="40">
+      <c r="P11" s="39">
         <f>67538-(SUM($D$3:$D$7)+SUM($J$3:$J$7)+SUM($P$3:$P$6)+SUM($D$10:$D$14)+SUM($J$13:$J$14)+SUM($P$12:$P$14))</f>
         <v>61</v>
       </c>
-      <c r="Q11" s="51">
+      <c r="Q11" s="50">
         <v>7</v>
       </c>
-      <c r="R11" s="35"/>
-      <c r="S11" s="6"/>
-      <c r="T11" s="6"/>
-      <c r="U11" s="6"/>
-      <c r="V11" s="6"/>
-    </row>
-    <row r="12" spans="1:22" ht="15" customHeight="1">
+      <c r="R11" s="34"/>
+    </row>
+    <row r="12" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>42841</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
-      <c r="D12" s="40">
+      <c r="D12" s="39">
         <f>66301-(SUM($D$3:$D$7)+SUM($J$3:$J$7)+SUM($P$3:$P$6)+SUM($D$13:$D$14))</f>
         <v>57</v>
       </c>
-      <c r="E12" s="37"/>
-      <c r="F12" s="35">
+      <c r="E12" s="36"/>
+      <c r="F12" s="34">
         <f>(D11)/29</f>
         <v>12.793103448275861</v>
       </c>
-      <c r="G12" s="12"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="47"/>
-      <c r="K12" s="45"/>
-      <c r="L12" s="44"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="43"/>
       <c r="M12" s="2">
         <v>42935</v>
       </c>
@@ -3406,21 +3320,17 @@
       <c r="O12" s="5">
         <v>3.62</v>
       </c>
-      <c r="P12" s="40">
+      <c r="P12" s="39">
         <f>67477-(SUM($D$3:$D$7)+SUM($J$3:$J$7)+SUM($P$3:$P$6)+SUM($D$10:$D$14)+SUM($J$13:$J$14)+SUM($P$13:$P$14))</f>
         <v>165</v>
       </c>
-      <c r="Q12" s="51">
+      <c r="Q12" s="50">
         <f>PRODUCT(N12,1/O12)</f>
         <v>33.149171270718234</v>
       </c>
-      <c r="R12" s="36"/>
-      <c r="S12" s="6"/>
-      <c r="T12" s="6"/>
-      <c r="U12" s="6"/>
-      <c r="V12" s="6"/>
-    </row>
-    <row r="13" spans="1:22" ht="15" customHeight="1">
+      <c r="R12" s="35"/>
+    </row>
+    <row r="13" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>42839</v>
       </c>
@@ -3430,77 +3340,73 @@
       <c r="C13" s="5">
         <v>3.879</v>
       </c>
-      <c r="D13" s="40">
+      <c r="D13" s="39">
         <f>66244-(SUM($D$3:$D$7)+SUM($J$3:$J$7)+SUM($P$3:$P$6)+SUM($D$14))</f>
         <v>40</v>
       </c>
-      <c r="E13" s="51">
+      <c r="E13" s="50">
         <f>PRODUCT(B13,1/C13)</f>
         <v>39.190513018819281</v>
       </c>
-      <c r="F13" s="36">
+      <c r="F13" s="35">
         <f>D12/6</f>
         <v>9.5</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="11">
         <v>42880</v>
       </c>
-      <c r="H13" s="15">
+      <c r="H13" s="14">
         <v>80</v>
       </c>
-      <c r="I13" s="16">
+      <c r="I13" s="15">
         <v>3.89</v>
       </c>
-      <c r="J13" s="47">
+      <c r="J13" s="46">
         <f>67088-(SUM($D$3:$D$7)+SUM($J$3:$J$7)+SUM($P$3:$P$6)+SUM($D$10:$D$14)+SUM($J$14))</f>
         <v>194</v>
       </c>
-      <c r="K13" s="53">
+      <c r="K13" s="52">
         <f>PRODUCT(H13,1/I13)</f>
         <v>20.565552699228789</v>
       </c>
-      <c r="L13" s="33">
+      <c r="L13" s="32">
         <f>P14/K13</f>
         <v>7.6341250000000009</v>
       </c>
-      <c r="M13" s="11">
+      <c r="M13" s="10">
         <v>42907</v>
       </c>
-      <c r="N13" s="13">
+      <c r="N13" s="12">
         <v>80</v>
       </c>
-      <c r="O13" s="81">
+      <c r="O13" s="80">
         <v>3.84</v>
       </c>
-      <c r="P13" s="48">
+      <c r="P13" s="47">
         <f>67312-(SUM($D$3:$D$7)+SUM($J$3:$J$7)+SUM($P$3:$P$6)+SUM($D$10:$D$14)+SUM($J$13:$J$14)+P14)</f>
         <v>67</v>
       </c>
-      <c r="Q13" s="55">
+      <c r="Q13" s="54">
         <f>PRODUCT(N13,1/O13)</f>
         <v>20.833333333333336</v>
       </c>
-      <c r="R13" s="80">
+      <c r="R13" s="79">
         <f>P12/Q13</f>
         <v>7.919999999999999</v>
       </c>
-      <c r="S13" s="6"/>
-      <c r="T13" s="6"/>
-      <c r="U13" s="6"/>
-      <c r="V13" s="6"/>
-    </row>
-    <row r="14" spans="1:22">
-      <c r="A14" s="17">
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="16">
         <v>42838</v>
       </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="41">
+      <c r="B14" s="17"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="40">
         <f>66204-(SUM($D$3:$D$7)+SUM($J$3:$J$7)+SUM($P$3:$P$5)+SUM(P6))</f>
         <v>384</v>
       </c>
-      <c r="E14" s="38"/>
-      <c r="F14" s="31">
+      <c r="E14" s="37"/>
+      <c r="F14" s="30">
         <f>D13/6</f>
         <v>6.666666666666667</v>
       </c>
@@ -3513,149 +3419,127 @@
       <c r="I14" s="5">
         <v>3.87</v>
       </c>
-      <c r="J14" s="40">
+      <c r="J14" s="39">
         <f>66894-(SUM($D$3:$D$7)+SUM($J$3:$J$7)+SUM($P$3:$P$6)+SUM($D$10:$D$14))</f>
         <v>140</v>
       </c>
-      <c r="K14" s="51">
+      <c r="K14" s="50">
         <f>PRODUCT(H14,1/I14)</f>
         <v>25.839793281653744</v>
       </c>
-      <c r="L14" s="33">
+      <c r="L14" s="32">
         <f>J13/K14</f>
         <v>7.5078000000000005</v>
       </c>
-      <c r="M14" s="75">
+      <c r="M14" s="74">
         <v>42900</v>
       </c>
-      <c r="N14" s="76">
+      <c r="N14" s="75">
         <v>30</v>
       </c>
-      <c r="O14" s="77">
+      <c r="O14" s="76">
         <v>3.29</v>
       </c>
-      <c r="P14" s="78">
+      <c r="P14" s="77">
         <f>67245-(SUM($D$3:$D$7)+SUM($J$3:$J$7)+SUM($P$3:$P$6)+SUM($D$10:$D$14)+SUM($J$13:$J$14))</f>
         <v>157</v>
       </c>
-      <c r="Q14" s="79">
+      <c r="Q14" s="78">
         <f>PRODUCT(N14,1/O14)</f>
         <v>9.1185410334346493</v>
       </c>
-      <c r="R14" s="80">
+      <c r="R14" s="79">
         <f>P13/Q14</f>
         <v>7.3476666666666679</v>
       </c>
-      <c r="S14" s="6"/>
-      <c r="T14" s="6"/>
-      <c r="U14" s="6"/>
-      <c r="V14" s="6"/>
-    </row>
-    <row r="15" spans="1:22">
-      <c r="A15" s="8" t="s">
+    </row>
+    <row r="15" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="F15" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="G15" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H15" s="10" t="s">
+      <c r="H15" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I15" s="10" t="s">
+      <c r="I15" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J15" s="10" t="s">
+      <c r="J15" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="K15" s="10" t="s">
+      <c r="K15" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="L15" s="10" t="s">
+      <c r="L15" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="M15" s="7" t="s">
+      <c r="M15" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="N15" s="7" t="s">
+      <c r="N15" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="O15" s="7" t="s">
+      <c r="O15" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="P15" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="Q15" s="7" t="s">
+      <c r="Q15" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="R15" s="7" t="s">
+      <c r="R15" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="S15" s="6"/>
-      <c r="T15" s="6"/>
-      <c r="U15" s="6"/>
-      <c r="V15" s="6"/>
-    </row>
-    <row r="16" spans="1:22">
-      <c r="A16" s="143" t="s">
+    </row>
+    <row r="16" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="117" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="143"/>
-      <c r="C16" s="143"/>
-      <c r="D16" s="143"/>
-      <c r="E16" s="143"/>
-      <c r="F16" s="143" t="s">
+      <c r="B16" s="117"/>
+      <c r="C16" s="117"/>
+      <c r="D16" s="117"/>
+      <c r="E16" s="117"/>
+      <c r="F16" s="117" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="143"/>
-      <c r="H16" s="143"/>
-      <c r="I16" s="143"/>
-      <c r="J16" s="143"/>
-      <c r="K16" s="143"/>
-      <c r="L16" s="143"/>
-      <c r="M16" s="143" t="s">
+      <c r="G16" s="117"/>
+      <c r="H16" s="117"/>
+      <c r="I16" s="117"/>
+      <c r="J16" s="117"/>
+      <c r="K16" s="117"/>
+      <c r="L16" s="117"/>
+      <c r="M16" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="N16" s="143"/>
-      <c r="O16" s="143"/>
-      <c r="P16" s="143"/>
-      <c r="Q16" s="143"/>
-      <c r="R16" s="143"/>
-      <c r="S16" s="6"/>
-      <c r="T16" s="6"/>
-      <c r="U16" s="6"/>
-      <c r="V16" s="6"/>
-    </row>
-    <row r="17" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C17" s="6"/>
-    </row>
-    <row r="18" spans="3:3" ht="15" customHeight="1">
-      <c r="C18" s="6"/>
-    </row>
-    <row r="19" spans="3:3" ht="18" customHeight="1">
-      <c r="C19" s="6"/>
-    </row>
-    <row r="20" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C20" s="6"/>
-    </row>
-    <row r="21" spans="3:3" ht="15" customHeight="1">
-      <c r="C21" s="6"/>
-    </row>
+      <c r="N16" s="117"/>
+      <c r="O16" s="117"/>
+      <c r="P16" s="117"/>
+      <c r="Q16" s="117"/>
+      <c r="R16" s="117"/>
+    </row>
+    <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A16:E16"/>
@@ -3677,551 +3561,598 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82D5A34F-EB28-41C8-A1E3-151E9E71FB07}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{8D3781B8-FEA9-57BA-A236-8A0110A48394}">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.10546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="9.14453125" style="6"/>
-    <col min="3" max="3" width="9.28125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="9.14453125" style="6"/>
-    <col min="5" max="5" width="9.4140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.14453125" style="6"/>
-    <col min="8" max="8" width="9.01171875" style="6" customWidth="1"/>
-    <col min="9" max="9" width="10.76171875" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.14453125" style="6"/>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="122" t="s">
+      <c r="E1" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="82">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="81">
+        <v>42789</v>
+      </c>
+      <c r="B2">
+        <v>64432</v>
+      </c>
+      <c r="C2" s="1">
+        <v>64569</v>
+      </c>
+      <c r="D2" s="90">
+        <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
+        <v>137</v>
+      </c>
+      <c r="E2" s="96">
+        <v>125</v>
+      </c>
+      <c r="F2" s="96">
+        <v>3.93</v>
+      </c>
+      <c r="G2" s="92">
+        <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
+        <v>31.806615776081422</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="81">
+        <v>42791</v>
+      </c>
+      <c r="B3" s="1">
+        <v>64947</v>
+      </c>
+      <c r="C3">
+        <v>64985</v>
+      </c>
+      <c r="D3" s="90">
+        <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
+        <v>38</v>
+      </c>
+      <c r="E3" s="96">
+        <v>100</v>
+      </c>
+      <c r="F3" s="96">
+        <v>3.9990000000000001</v>
+      </c>
+      <c r="G3" s="92">
+        <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
+        <v>25.006251562890721</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="81">
         <v>42804</v>
       </c>
-      <c r="B2" s="137">
+      <c r="B4">
+        <f>C3</f>
         <v>64985</v>
       </c>
-      <c r="C2" s="137">
+      <c r="C4">
         <v>65175</v>
       </c>
-      <c r="D2" s="110">
+      <c r="D4" s="90">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
         <v>190</v>
       </c>
-      <c r="E2" s="108">
+      <c r="E4" s="96">
         <v>165.01</v>
       </c>
-      <c r="F2" s="108">
+      <c r="F4" s="96">
         <v>3.9990000000000001</v>
       </c>
-      <c r="G2" s="109">
+      <c r="G4" s="92">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>41.26281570392598</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="82">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="81">
         <v>42816</v>
       </c>
-      <c r="B3" s="137">
+      <c r="B5">
         <v>65574</v>
       </c>
-      <c r="C3" s="137">
+      <c r="C5">
         <v>65635</v>
       </c>
-      <c r="D3" s="110">
+      <c r="D5" s="90">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
         <v>61</v>
       </c>
-      <c r="E3" s="108">
+      <c r="E5" s="96">
         <v>100</v>
       </c>
-      <c r="F3" s="108">
+      <c r="F5" s="96">
         <v>3.84</v>
       </c>
-      <c r="G3" s="109">
+      <c r="G5" s="92">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>26.041666666666668</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="82">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="81">
         <v>42836</v>
       </c>
-      <c r="B4" s="137">
-        <f>C3</f>
+      <c r="B6">
+        <f>C5</f>
         <v>65635</v>
       </c>
-      <c r="C4" s="107">
+      <c r="C6" s="1">
         <v>65820</v>
       </c>
-      <c r="D4" s="110">
+      <c r="D6" s="90">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
         <v>185</v>
       </c>
-      <c r="E4" s="108">
+      <c r="E6" s="96">
         <v>120</v>
       </c>
-      <c r="F4" s="108">
+      <c r="F6" s="96">
         <v>3.79</v>
       </c>
-      <c r="G4" s="109">
+      <c r="G6" s="92">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>31.662269129287598</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="82">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="81">
         <v>42839</v>
       </c>
-      <c r="B5" s="107">
+      <c r="B7" s="1">
         <v>66204</v>
       </c>
-      <c r="C5" s="107">
+      <c r="C7" s="1">
         <v>66301</v>
       </c>
-      <c r="D5" s="110">
+      <c r="D7" s="90">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
         <v>97</v>
       </c>
-      <c r="E5" s="141">
+      <c r="E7" s="115">
         <v>46.012749999999997</v>
       </c>
-      <c r="F5" s="141">
+      <c r="F7" s="115">
         <v>3.835</v>
       </c>
-      <c r="G5" s="142">
+      <c r="G7" s="116">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>11.998109517601042</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="82">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="81">
         <v>42848</v>
       </c>
-      <c r="B6" s="107">
+      <c r="B8" s="1">
         <v>66672</v>
       </c>
-      <c r="C6" s="137">
+      <c r="C8">
         <v>66754</v>
       </c>
-      <c r="D6" s="110">
+      <c r="D8" s="90">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
         <v>82</v>
       </c>
-      <c r="E6" s="108">
+      <c r="E8" s="96">
         <v>80</v>
       </c>
-      <c r="F6" s="108">
+      <c r="F8" s="96">
         <v>3.89</v>
       </c>
-      <c r="G6" s="109">
+      <c r="G8" s="92">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>20.565552699228792</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="82">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="81">
         <v>42855</v>
       </c>
-      <c r="B7" s="137">
-        <f>C6</f>
+      <c r="B9">
+        <f>C8</f>
         <v>66754</v>
       </c>
-      <c r="C7" s="137">
+      <c r="C9">
         <v>66894</v>
       </c>
-      <c r="D7" s="110">
+      <c r="D9" s="90">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
         <v>140</v>
       </c>
-      <c r="E7" s="108">
+      <c r="E9" s="96">
         <v>100</v>
       </c>
-      <c r="F7" s="108">
+      <c r="F9" s="96">
         <v>3.87</v>
       </c>
-      <c r="G7" s="109">
+      <c r="G9" s="92">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>25.839793281653748</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="82">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="81">
         <v>42880</v>
       </c>
-      <c r="B8" s="137">
-        <f>C7</f>
+      <c r="B10">
+        <f>C9</f>
         <v>66894</v>
       </c>
-      <c r="C8" s="138">
+      <c r="C10" s="97">
         <v>67088</v>
       </c>
-      <c r="D8" s="110">
+      <c r="D10" s="90">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
         <v>194</v>
       </c>
-      <c r="E8" s="108">
+      <c r="E10" s="96">
         <v>80</v>
       </c>
-      <c r="F8" s="108">
+      <c r="F10" s="96">
         <v>3.89</v>
       </c>
-      <c r="G8" s="109">
+      <c r="G10" s="92">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>20.565552699228792</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="82">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="81">
         <v>42907</v>
       </c>
-      <c r="B9" s="138">
+      <c r="B11" s="97">
         <v>67245</v>
       </c>
-      <c r="C9" s="139">
+      <c r="C11" s="113">
         <v>67312</v>
       </c>
-      <c r="D9" s="110">
+      <c r="D11" s="90">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
         <v>67</v>
       </c>
-      <c r="E9" s="108">
+      <c r="E11" s="96">
         <v>80</v>
       </c>
-      <c r="F9" s="108">
+      <c r="F11" s="96">
         <v>3.84</v>
       </c>
-      <c r="G9" s="109">
+      <c r="G11" s="92">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>20.833333333333336</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="82">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="81">
         <v>42940</v>
       </c>
-      <c r="B10" s="137">
-        <f>C9</f>
+      <c r="B12">
+        <f>C11</f>
         <v>67312</v>
       </c>
-      <c r="C10" s="140">
+      <c r="C12" s="114">
         <v>67538</v>
       </c>
-      <c r="D10" s="110">
+      <c r="D12" s="90">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
         <v>226</v>
       </c>
-      <c r="E10" s="108">
+      <c r="E12" s="96">
         <v>170</v>
       </c>
-      <c r="F10" s="108">
+      <c r="F12" s="96">
         <v>4</v>
       </c>
-      <c r="G10" s="109">
+      <c r="G12" s="92">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>42.5</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="82">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="81">
         <v>42946</v>
       </c>
-      <c r="B11" s="140">
+      <c r="B13" s="114">
         <v>67937</v>
       </c>
-      <c r="C11" s="107">
+      <c r="C13" s="1">
         <v>68001</v>
       </c>
-      <c r="D11" s="110">
+      <c r="D13" s="90">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
         <v>64</v>
       </c>
-      <c r="E11" s="108">
+      <c r="E13" s="96">
         <v>120</v>
       </c>
-      <c r="F11" s="108">
+      <c r="F13" s="96">
         <v>3.9</v>
       </c>
-      <c r="G11" s="109">
+      <c r="G13" s="92">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>30.76923076923077</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="82">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="81">
         <v>42950</v>
       </c>
-      <c r="B12" s="107">
+      <c r="B14" s="1">
         <v>68729</v>
       </c>
-      <c r="C12" s="137">
+      <c r="C14">
         <v>68792</v>
       </c>
-      <c r="D12" s="110">
+      <c r="D14" s="90">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
         <v>63</v>
       </c>
-      <c r="E12" s="108">
+      <c r="E14" s="96">
         <v>150</v>
       </c>
-      <c r="F12" s="108">
+      <c r="F14" s="96">
         <v>4.1900000000000004</v>
       </c>
-      <c r="G12" s="109">
+      <c r="G14" s="92">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>35.799522673031021</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="82">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="81">
         <v>42961</v>
       </c>
-      <c r="B13" s="137">
-        <f>C12</f>
+      <c r="B15">
+        <f>C14</f>
         <v>68792</v>
       </c>
-      <c r="C13" s="107">
+      <c r="C15" s="1">
         <v>68995</v>
       </c>
-      <c r="D13" s="110">
+      <c r="D15" s="90">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
         <v>203</v>
       </c>
-      <c r="E13" s="108">
+      <c r="E15" s="96">
         <v>140</v>
       </c>
-      <c r="F13" s="108">
+      <c r="F15" s="96">
         <v>4.1900000000000004</v>
       </c>
-      <c r="G13" s="109">
+      <c r="G15" s="92">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>33.41288782816229</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="82">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="81">
         <v>42970</v>
       </c>
-      <c r="B14" s="107">
+      <c r="B16" s="1">
         <v>69370</v>
       </c>
-      <c r="C14" s="137">
+      <c r="C16">
         <v>69437</v>
       </c>
-      <c r="D14" s="110">
+      <c r="D16" s="90">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
         <v>67</v>
       </c>
-      <c r="E14" s="108">
+      <c r="E16" s="96">
         <v>80</v>
       </c>
-      <c r="F14" s="108">
+      <c r="F16" s="96">
         <v>3.89</v>
       </c>
-      <c r="G14" s="109">
+      <c r="G16" s="92">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>20.565552699228792</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="82">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="81">
         <v>42991</v>
       </c>
-      <c r="B15" s="137">
-        <f>C14</f>
+      <c r="B17">
+        <f>C16</f>
         <v>69437</v>
       </c>
-      <c r="C15" s="138">
+      <c r="C17" s="97">
         <v>69611</v>
       </c>
-      <c r="D15" s="110">
+      <c r="D17" s="90">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
         <v>174</v>
       </c>
-      <c r="E15" s="108">
+      <c r="E17" s="96">
         <v>80</v>
       </c>
-      <c r="F15" s="108">
+      <c r="F17" s="96">
         <v>4.1900000000000004</v>
       </c>
-      <c r="G15" s="109">
+      <c r="G17" s="92">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>19.093078758949879</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="82">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="81">
         <v>43020</v>
       </c>
-      <c r="B16" s="138">
+      <c r="B18" s="97">
         <v>69760</v>
       </c>
-      <c r="C16" s="137">
+      <c r="C18">
         <v>69879</v>
       </c>
-      <c r="D16" s="110">
+      <c r="D18" s="90">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
         <v>119</v>
       </c>
-      <c r="E16" s="108">
+      <c r="E18" s="96">
         <v>80</v>
       </c>
-      <c r="F16" s="108">
+      <c r="F18" s="96">
         <v>3.9489999999999998</v>
       </c>
-      <c r="G16" s="109">
+      <c r="G18" s="92">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>20.258293238794632</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="82">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="81">
         <v>43034</v>
       </c>
-      <c r="B17" s="137">
-        <f>C16</f>
+      <c r="B19">
+        <f>C18</f>
         <v>69879</v>
       </c>
-      <c r="C17" s="107">
+      <c r="C19" s="1">
         <v>70001</v>
       </c>
-      <c r="D17" s="110">
+      <c r="D19" s="90">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
         <v>122</v>
       </c>
-      <c r="E17" s="108">
+      <c r="E19" s="96">
         <v>120</v>
       </c>
-      <c r="F17" s="108">
+      <c r="F19" s="96">
         <v>3.9</v>
       </c>
-      <c r="G17" s="109">
+      <c r="G19" s="92">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>30.76923076923077</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="82">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="81">
         <v>43042</v>
       </c>
-      <c r="B18" s="117">
+      <c r="B20" s="1">
         <v>70379</v>
       </c>
-      <c r="C18" s="107">
+      <c r="C20" s="1">
         <v>70431</v>
       </c>
-      <c r="D18" s="110">
+      <c r="D20" s="90">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
         <v>52</v>
       </c>
-      <c r="E18" s="108">
+      <c r="E20" s="96">
         <v>158.99</v>
       </c>
-      <c r="F18" s="108">
+      <c r="F20" s="96">
         <v>4.09</v>
       </c>
-      <c r="G18" s="109">
+      <c r="G20" s="92">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>38.872860635696824</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="82">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="81">
         <v>43057</v>
       </c>
-      <c r="B19" s="107">
+      <c r="B21" s="1">
         <v>70809</v>
       </c>
-      <c r="C19" s="138">
+      <c r="C21" s="97">
         <v>70965</v>
       </c>
-      <c r="D19" s="110">
+      <c r="D21" s="90">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
         <v>156</v>
       </c>
-      <c r="E19" s="108">
+      <c r="E21" s="96">
         <v>80</v>
       </c>
-      <c r="F19" s="108">
+      <c r="F21" s="96">
         <v>4.17</v>
       </c>
-      <c r="G19" s="109">
+      <c r="G21" s="92">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>19.18465227817746</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="82">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="81">
         <v>43087</v>
       </c>
-      <c r="B20" s="138">
+      <c r="B22" s="97">
         <v>71109</v>
       </c>
-      <c r="C20" s="107">
+      <c r="C22" s="1">
         <v>71219</v>
       </c>
-      <c r="D20" s="110">
+      <c r="D22" s="90">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
         <v>110</v>
       </c>
-      <c r="E20" s="108">
+      <c r="E22" s="96">
         <v>120.06</v>
       </c>
-      <c r="F20" s="108">
+      <c r="F22" s="96">
         <v>4.1790000000000003</v>
       </c>
-      <c r="G20" s="109">
+      <c r="G22" s="92">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>28.729361091170134</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="82">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="81">
         <v>43093</v>
       </c>
-      <c r="B21" s="107">
+      <c r="B23" s="1">
         <v>71683</v>
       </c>
-      <c r="C21" s="106">
+      <c r="C23">
         <v>71872</v>
       </c>
-      <c r="D21" s="110">
+      <c r="D23" s="90">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
         <v>189</v>
       </c>
-      <c r="E21" s="108">
+      <c r="E23" s="96">
         <v>120</v>
       </c>
-      <c r="F21" s="108">
+      <c r="F23" s="96">
         <v>4.17</v>
       </c>
-      <c r="G21" s="109">
+      <c r="G23" s="92">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>28.776978417266186</v>
       </c>
@@ -4239,884 +4170,884 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB98AEA6-30EA-4D94-808F-A65CE5265EE7}">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{57EF5C90-13A6-5C11-B0DA-7A714F44E738}">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.10546875" customWidth="1"/>
-    <col min="3" max="3" width="9.28125" customWidth="1"/>
-    <col min="5" max="5" width="10.76171875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.01171875" customWidth="1"/>
-    <col min="9" max="9" width="10.76171875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="6" customFormat="1">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="122" t="s">
+      <c r="E1" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="82">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="81">
         <v>43105</v>
       </c>
-      <c r="B2" s="106">
+      <c r="B2">
         <v>71872</v>
       </c>
-      <c r="C2" s="106">
+      <c r="C2">
         <v>72053</v>
       </c>
-      <c r="D2" s="110">
+      <c r="D2" s="90">
         <f>G_2018[[#This Row],[km fim]]-G_2018[[#This Row],[km ini]]</f>
         <v>181</v>
       </c>
-      <c r="E2" s="108">
+      <c r="E2" s="96">
         <v>120</v>
       </c>
-      <c r="F2" s="108">
+      <c r="F2" s="96">
         <v>4.1900000000000004</v>
       </c>
-      <c r="G2" s="109">
+      <c r="G2" s="92">
         <f>G_2018[[#This Row],[valor]]/G_2018[[#This Row],[preço]]</f>
         <v>28.639618138424819</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="82">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="81">
         <v>43115</v>
       </c>
-      <c r="B3" s="106">
+      <c r="B3">
         <f>C2</f>
         <v>72053</v>
       </c>
-      <c r="C3" s="107">
+      <c r="C3" s="1">
         <v>72158</v>
       </c>
-      <c r="D3" s="110">
+      <c r="D3" s="90">
         <f>G_2018[[#This Row],[km fim]]-G_2018[[#This Row],[km ini]]</f>
         <v>105</v>
       </c>
-      <c r="E3" s="108">
+      <c r="E3" s="96">
         <v>120</v>
       </c>
-      <c r="F3" s="108">
+      <c r="F3" s="96">
         <v>4.1900000000000004</v>
       </c>
-      <c r="G3" s="109">
+      <c r="G3" s="92">
         <f>G_2018[[#This Row],[valor]]/G_2018[[#This Row],[preço]]</f>
         <v>28.639618138424819</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="82">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="81">
         <v>43119</v>
       </c>
-      <c r="B4" s="107">
+      <c r="B4" s="1">
         <v>72533</v>
       </c>
-      <c r="C4" s="106">
+      <c r="C4">
         <v>72612</v>
       </c>
-      <c r="D4" s="110">
+      <c r="D4" s="90">
         <f>G_2018[[#This Row],[km fim]]-G_2018[[#This Row],[km ini]]</f>
         <v>79</v>
       </c>
-      <c r="E4" s="108">
+      <c r="E4" s="96">
         <v>145</v>
       </c>
-      <c r="F4" s="108">
+      <c r="F4" s="96">
         <v>4.29</v>
       </c>
-      <c r="G4" s="109">
+      <c r="G4" s="92">
         <f>G_2018[[#This Row],[valor]]/G_2018[[#This Row],[preço]]</f>
         <v>33.799533799533798</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="82">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="81">
         <v>43122</v>
       </c>
-      <c r="B5" s="106">
+      <c r="B5">
         <f>C4</f>
         <v>72612</v>
       </c>
-      <c r="C5" s="107">
+      <c r="C5" s="1">
         <v>72667</v>
       </c>
-      <c r="D5" s="110">
+      <c r="D5" s="90">
         <f>G_2018[[#This Row],[km fim]]-G_2018[[#This Row],[km ini]]</f>
         <v>55</v>
       </c>
-      <c r="E5" s="108">
+      <c r="E5" s="96">
         <v>120</v>
       </c>
-      <c r="F5" s="108">
+      <c r="F5" s="96">
         <v>4.29</v>
       </c>
-      <c r="G5" s="109">
+      <c r="G5" s="92">
         <f>G_2018[[#This Row],[valor]]/G_2018[[#This Row],[preço]]</f>
         <v>27.972027972027973</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="82">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="81">
         <v>43128</v>
       </c>
-      <c r="B6" s="107">
+      <c r="B6" s="1">
         <v>73042</v>
       </c>
-      <c r="C6" s="106">
+      <c r="C6">
         <v>73123</v>
       </c>
-      <c r="D6" s="110">
+      <c r="D6" s="90">
         <f>G_2018[[#This Row],[km fim]]-G_2018[[#This Row],[km ini]]</f>
         <v>81</v>
       </c>
-      <c r="E6" s="108">
+      <c r="E6" s="96">
         <v>85.61</v>
       </c>
-      <c r="F6" s="108">
+      <c r="F6" s="96">
         <v>4.2699999999999996</v>
       </c>
-      <c r="G6" s="109">
+      <c r="G6" s="92">
         <f>G_2018[[#This Row],[valor]]/G_2018[[#This Row],[preço]]</f>
         <v>20.049180327868854</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="82">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="81">
         <v>43136</v>
       </c>
-      <c r="B7" s="106">
+      <c r="B7">
         <f>C6</f>
         <v>73123</v>
       </c>
-      <c r="C7" s="107">
+      <c r="C7" s="1">
         <v>73312</v>
       </c>
-      <c r="D7" s="110">
+      <c r="D7" s="90">
         <f>G_2018[[#This Row],[km fim]]-G_2018[[#This Row],[km ini]]</f>
         <v>189</v>
       </c>
-      <c r="E7" s="108">
+      <c r="E7" s="96">
         <v>120</v>
       </c>
-      <c r="F7" s="108">
+      <c r="F7" s="96">
         <v>4.49</v>
       </c>
-      <c r="G7" s="109">
+      <c r="G7" s="92">
         <f>G_2018[[#This Row],[valor]]/G_2018[[#This Row],[preço]]</f>
         <v>26.726057906458795</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="82">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="81">
         <v>43148</v>
       </c>
-      <c r="B8" s="107">
+      <c r="B8" s="1">
         <v>73666</v>
       </c>
-      <c r="C8" s="106">
+      <c r="C8">
         <v>73760</v>
       </c>
-      <c r="D8" s="110">
+      <c r="D8" s="90">
         <f>G_2018[[#This Row],[km fim]]-G_2018[[#This Row],[km ini]]</f>
         <v>94</v>
       </c>
-      <c r="E8" s="108">
+      <c r="E8" s="96">
         <v>175.03</v>
       </c>
-      <c r="F8" s="108">
+      <c r="F8" s="96">
         <v>4.49</v>
       </c>
-      <c r="G8" s="109">
+      <c r="G8" s="92">
         <f>G_2018[[#This Row],[valor]]/G_2018[[#This Row],[preço]]</f>
         <v>38.982182628062361</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="82">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="81">
         <v>43158</v>
       </c>
-      <c r="B9" s="106">
+      <c r="B9">
         <f>C8</f>
         <v>73760</v>
       </c>
-      <c r="C9" s="106">
+      <c r="C9">
         <v>73913</v>
       </c>
-      <c r="D9" s="110">
+      <c r="D9" s="90">
         <f>G_2018[[#This Row],[km fim]]-G_2018[[#This Row],[km ini]]</f>
         <v>153</v>
       </c>
-      <c r="E9" s="108">
+      <c r="E9" s="96">
         <v>120</v>
       </c>
-      <c r="F9" s="108">
+      <c r="F9" s="96">
         <v>4.09</v>
       </c>
-      <c r="G9" s="109">
+      <c r="G9" s="92">
         <f>G_2018[[#This Row],[valor]]/G_2018[[#This Row],[preço]]</f>
         <v>29.339853300733498</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="82">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="81">
         <v>43186</v>
       </c>
-      <c r="B10" s="113">
+      <c r="B10" s="97">
         <f>C9</f>
         <v>73913</v>
       </c>
-      <c r="C10" s="107">
+      <c r="C10" s="1">
         <v>74082</v>
       </c>
-      <c r="D10" s="110">
+      <c r="D10" s="90">
         <f>G_2018[[#This Row],[km fim]]-G_2018[[#This Row],[km ini]]</f>
         <v>169</v>
       </c>
-      <c r="E10" s="108">
+      <c r="E10" s="96">
         <v>150</v>
       </c>
-      <c r="F10" s="108">
+      <c r="F10" s="96">
         <v>4.3899999999999997</v>
       </c>
-      <c r="G10" s="109">
+      <c r="G10" s="92">
         <f>G_2018[[#This Row],[valor]]/G_2018[[#This Row],[preço]]</f>
         <v>34.168564920273354</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="82">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="81">
         <v>43207</v>
       </c>
-      <c r="B11" s="112">
+      <c r="B11" s="1">
         <v>74825</v>
       </c>
-      <c r="C11" s="106">
+      <c r="C11">
         <v>75015</v>
       </c>
-      <c r="D11" s="110">
+      <c r="D11" s="90">
         <f>G_2018[[#This Row],[km fim]]-G_2018[[#This Row],[km ini]]</f>
         <v>190</v>
       </c>
-      <c r="E11" s="108">
+      <c r="E11" s="96">
         <v>80</v>
       </c>
-      <c r="F11" s="108">
+      <c r="F11" s="96">
         <v>4.29</v>
       </c>
-      <c r="G11" s="109">
+      <c r="G11" s="92">
         <f>G_2018[[#This Row],[valor]]/G_2018[[#This Row],[preço]]</f>
         <v>18.648018648018649</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="82">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="81">
         <v>43222</v>
       </c>
-      <c r="B12" s="113">
+      <c r="B12" s="97">
         <v>75188</v>
       </c>
-      <c r="C12" s="106">
+      <c r="C12">
         <v>75309</v>
       </c>
-      <c r="D12" s="110">
+      <c r="D12" s="90">
         <f>G_2018[[#This Row],[km fim]]-G_2018[[#This Row],[km ini]]</f>
         <v>121</v>
       </c>
-      <c r="E12" s="108">
+      <c r="E12" s="96">
         <v>40</v>
       </c>
-      <c r="F12" s="108">
+      <c r="F12" s="96">
         <v>4.49</v>
       </c>
-      <c r="G12" s="109">
+      <c r="G12" s="92">
         <f>G_2018[[#This Row],[valor]]/G_2018[[#This Row],[preço]]</f>
         <v>8.908685968819599</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="82">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="81">
         <v>43237</v>
       </c>
-      <c r="B13" s="106">
+      <c r="B13">
         <f>C12</f>
         <v>75309</v>
       </c>
-      <c r="C13" s="106">
+      <c r="C13">
         <v>75424</v>
       </c>
-      <c r="D13" s="110">
+      <c r="D13" s="90">
         <f>G_2018[[#This Row],[km fim]]-G_2018[[#This Row],[km ini]]</f>
         <v>115</v>
       </c>
-      <c r="E13" s="108">
+      <c r="E13" s="96">
         <v>80</v>
       </c>
-      <c r="F13" s="108">
+      <c r="F13" s="96">
         <v>4.59</v>
       </c>
-      <c r="G13" s="109">
+      <c r="G13" s="92">
         <f>G_2018[[#This Row],[valor]]/G_2018[[#This Row],[preço]]</f>
         <v>17.429193899782135</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="82">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="81">
         <v>43243</v>
       </c>
-      <c r="B14" s="113">
+      <c r="B14" s="97">
         <f>C13</f>
         <v>75424</v>
       </c>
-      <c r="C14" s="106">
+      <c r="C14">
         <v>75758</v>
       </c>
-      <c r="D14" s="110">
+      <c r="D14" s="90">
         <f>G_2018[[#This Row],[km fim]]-G_2018[[#This Row],[km ini]]</f>
         <v>334</v>
       </c>
-      <c r="E14" s="108">
+      <c r="E14" s="96">
         <v>60</v>
       </c>
-      <c r="F14" s="108">
+      <c r="F14" s="96">
         <v>4.49</v>
       </c>
-      <c r="G14" s="109">
+      <c r="G14" s="92">
         <f>G_2018[[#This Row],[valor]]/G_2018[[#This Row],[preço]]</f>
         <v>13.363028953229398</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="82">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="81">
         <v>43271</v>
       </c>
-      <c r="B15" s="113">
+      <c r="B15" s="97">
         <f>C14</f>
         <v>75758</v>
       </c>
-      <c r="C15" s="106">
+      <c r="C15">
         <v>75867</v>
       </c>
-      <c r="D15" s="110">
+      <c r="D15" s="90">
         <f>G_2018[[#This Row],[km fim]]-G_2018[[#This Row],[km ini]]</f>
         <v>109</v>
       </c>
-      <c r="E15" s="108">
+      <c r="E15" s="96">
         <v>60</v>
       </c>
-      <c r="F15" s="108">
+      <c r="F15" s="96">
         <v>4.6900000000000004</v>
       </c>
-      <c r="G15" s="109">
+      <c r="G15" s="92">
         <f>G_2018[[#This Row],[valor]]/G_2018[[#This Row],[preço]]</f>
         <v>12.793176972281449</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="82">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="81">
         <v>43285</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16">
         <f>C15</f>
         <v>75867</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16">
         <v>75885</v>
       </c>
-      <c r="D16" s="110">
+      <c r="D16" s="90">
         <f>G_2018[[#This Row],[km fim]]-G_2018[[#This Row],[km ini]]</f>
         <v>18</v>
       </c>
-      <c r="E16" s="108">
+      <c r="E16" s="96">
         <v>60</v>
       </c>
-      <c r="F16" s="84">
+      <c r="F16" s="83">
         <v>4.79</v>
       </c>
-      <c r="G16" s="109">
+      <c r="G16" s="92">
         <f>G_2018[[#This Row],[valor]]/G_2018[[#This Row],[preço]]</f>
         <v>12.526096033402922</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="82">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="81">
         <v>43286</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17">
         <f>C16</f>
         <v>75885</v>
       </c>
-      <c r="C17" s="112">
+      <c r="C17" s="1">
         <v>75894</v>
       </c>
-      <c r="D17" s="110">
+      <c r="D17" s="90">
         <f>G_2018[[#This Row],[km fim]]-G_2018[[#This Row],[km ini]]</f>
         <v>9</v>
       </c>
-      <c r="E17" s="108">
+      <c r="E17" s="96">
         <v>133.83000000000001</v>
       </c>
-      <c r="F17" s="84">
+      <c r="F17" s="83">
         <v>4.59</v>
       </c>
-      <c r="G17" s="109">
+      <c r="G17" s="92">
         <f>G_2018[[#This Row],[valor]]/G_2018[[#This Row],[preço]]</f>
         <v>29.156862745098042</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="82">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="81">
         <v>43289</v>
       </c>
-      <c r="B18" s="121">
+      <c r="B18">
         <v>76265</v>
       </c>
-      <c r="C18" s="121">
+      <c r="C18">
         <v>76308</v>
       </c>
-      <c r="D18" s="110">
+      <c r="D18" s="90">
         <f>G_2018[[#This Row],[km fim]]-G_2018[[#This Row],[km ini]]</f>
         <v>43</v>
       </c>
-      <c r="E18" s="108">
+      <c r="E18" s="96">
         <v>157.03</v>
       </c>
-      <c r="F18" s="84">
+      <c r="F18" s="83">
         <v>4.79</v>
       </c>
-      <c r="G18" s="109">
+      <c r="G18" s="92">
         <f>G_2018[[#This Row],[valor]]/G_2018[[#This Row],[preço]]</f>
         <v>32.782881002087684</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="116">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="98">
         <v>43306</v>
       </c>
-      <c r="B19" s="117">
+      <c r="B19" s="1">
         <v>76660</v>
       </c>
-      <c r="C19" s="111">
+      <c r="C19">
         <v>76814</v>
       </c>
-      <c r="D19" s="110">
+      <c r="D19" s="90">
         <f>G_2018[[#This Row],[km fim]]-G_2018[[#This Row],[km ini]]</f>
         <v>154</v>
       </c>
-      <c r="E19" s="108">
+      <c r="E19" s="96">
         <v>100</v>
       </c>
-      <c r="F19" s="84">
+      <c r="F19" s="83">
         <v>4.49</v>
       </c>
-      <c r="G19" s="109">
+      <c r="G19" s="92">
         <f>G_2018[[#This Row],[valor]]/G_2018[[#This Row],[preço]]</f>
         <v>22.271714922048996</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="82">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="81">
         <v>43318</v>
       </c>
-      <c r="B20" s="111">
+      <c r="B20">
         <f>C19</f>
         <v>76814</v>
       </c>
-      <c r="C20" s="111">
+      <c r="C20">
         <v>76951</v>
       </c>
-      <c r="D20" s="94">
+      <c r="D20" s="90">
         <f>G_2018[[#This Row],[km fim]]-G_2018[[#This Row],[km ini]]</f>
         <v>137</v>
       </c>
-      <c r="E20" s="123">
+      <c r="E20" s="96">
         <v>100</v>
       </c>
-      <c r="F20" s="115">
+      <c r="F20" s="83">
         <v>4.49</v>
       </c>
-      <c r="G20" s="100">
+      <c r="G20" s="92">
         <f>G_2018[[#This Row],[valor]]/G_2018[[#This Row],[preço]]</f>
         <v>22.271714922048996</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="82">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="81">
         <v>43333</v>
       </c>
-      <c r="B21" s="111">
+      <c r="B21">
         <f>C20</f>
         <v>76951</v>
       </c>
-      <c r="C21" s="111">
+      <c r="C21">
         <v>77139</v>
       </c>
-      <c r="D21" s="94">
+      <c r="D21" s="90">
         <f>G_2018[[#This Row],[km fim]]-G_2018[[#This Row],[km ini]]</f>
         <v>188</v>
       </c>
-      <c r="E21" s="123">
+      <c r="E21" s="96">
         <v>100</v>
       </c>
-      <c r="F21" s="115">
+      <c r="F21" s="83">
         <v>4.3899999999999997</v>
       </c>
-      <c r="G21" s="100">
+      <c r="G21" s="92">
         <f>G_2018[[#This Row],[valor]]/G_2018[[#This Row],[preço]]</f>
         <v>22.779043280182233</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="82">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="81">
         <v>43340</v>
       </c>
-      <c r="B22" s="111">
+      <c r="B22">
         <f>C21</f>
         <v>77139</v>
       </c>
-      <c r="C22" s="111">
+      <c r="C22">
         <v>77296</v>
       </c>
-      <c r="D22" s="94">
+      <c r="D22" s="90">
         <f>G_2018[[#This Row],[km fim]]-G_2018[[#This Row],[km ini]]</f>
         <v>157</v>
       </c>
-      <c r="E22" s="123">
+      <c r="E22" s="96">
         <v>80</v>
       </c>
-      <c r="F22" s="115">
+      <c r="F22" s="83">
         <v>4.29</v>
       </c>
-      <c r="G22" s="100">
+      <c r="G22" s="92">
         <f>G_2018[[#This Row],[valor]]/G_2018[[#This Row],[preço]]</f>
         <v>18.648018648018649</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="114">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="81">
         <v>43349</v>
       </c>
-      <c r="B23" s="117">
+      <c r="B23" s="1">
         <f>C22</f>
         <v>77296</v>
       </c>
-      <c r="C23" s="120">
+      <c r="C23">
         <v>77444</v>
       </c>
-      <c r="D23" s="94">
+      <c r="D23" s="90">
         <f>G_2018[[#This Row],[km fim]]-G_2018[[#This Row],[km ini]]</f>
         <v>148</v>
       </c>
-      <c r="E23" s="123">
+      <c r="E23" s="96">
         <v>60</v>
       </c>
-      <c r="F23" s="115">
+      <c r="F23" s="83">
         <v>4.29</v>
       </c>
-      <c r="G23" s="100">
+      <c r="G23" s="92">
         <f>G_2018[[#This Row],[valor]]/G_2018[[#This Row],[preço]]</f>
         <v>13.986013986013987</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="114">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="81">
         <v>43352</v>
       </c>
-      <c r="B24" s="120">
+      <c r="B24">
         <v>77816</v>
       </c>
-      <c r="C24" s="120">
+      <c r="C24">
         <v>77858</v>
       </c>
-      <c r="D24" s="94">
+      <c r="D24" s="90">
         <f>G_2018[[#This Row],[km fim]]-G_2018[[#This Row],[km ini]]</f>
         <v>42</v>
       </c>
-      <c r="E24" s="123">
+      <c r="E24" s="96">
         <v>102.6</v>
       </c>
-      <c r="F24" s="115">
+      <c r="F24" s="83">
         <v>4.79</v>
       </c>
-      <c r="G24" s="100">
+      <c r="G24" s="92">
         <f>G_2018[[#This Row],[valor]]/G_2018[[#This Row],[preço]]</f>
         <v>21.419624217118997</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="114">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="81">
         <v>43355</v>
       </c>
-      <c r="B25" s="111">
+      <c r="B25">
         <v>78222</v>
       </c>
-      <c r="C25" s="117">
+      <c r="C25" s="1">
         <v>78278</v>
       </c>
-      <c r="D25" s="94">
+      <c r="D25" s="90">
         <f>G_2018[[#This Row],[km fim]]-G_2018[[#This Row],[km ini]]</f>
         <v>56</v>
       </c>
-      <c r="E25" s="123">
+      <c r="E25" s="96">
         <v>181.01</v>
       </c>
-      <c r="F25" s="115">
+      <c r="F25" s="83">
         <v>4.79</v>
       </c>
-      <c r="G25" s="100">
+      <c r="G25" s="92">
         <f>G_2018[[#This Row],[valor]]/G_2018[[#This Row],[preço]]</f>
         <v>37.789144050104383</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="114">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="81">
         <v>43373</v>
       </c>
-      <c r="B26" s="111">
+      <c r="B26">
         <f>C25</f>
         <v>78278</v>
       </c>
-      <c r="C26" s="111">
+      <c r="C26">
         <v>78474</v>
       </c>
-      <c r="D26" s="94">
+      <c r="D26" s="90">
         <f>G_2018[[#This Row],[km fim]]-G_2018[[#This Row],[km ini]]</f>
         <v>196</v>
       </c>
-      <c r="E26" s="123">
+      <c r="E26" s="96">
         <v>100</v>
       </c>
-      <c r="F26" s="115">
+      <c r="F26" s="83">
         <v>4.59</v>
       </c>
-      <c r="G26" s="100">
+      <c r="G26" s="92">
         <f>G_2018[[#This Row],[valor]]/G_2018[[#This Row],[preço]]</f>
         <v>21.786492374727668</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="114">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="81">
         <v>43384</v>
       </c>
-      <c r="B27" s="111">
+      <c r="B27">
         <f>C26</f>
         <v>78474</v>
       </c>
-      <c r="C27" s="117">
+      <c r="C27" s="1">
         <v>78567</v>
       </c>
-      <c r="D27" s="94">
+      <c r="D27" s="90">
         <f>G_2018[[#This Row],[km fim]]-G_2018[[#This Row],[km ini]]</f>
         <v>93</v>
       </c>
-      <c r="E27" s="123">
+      <c r="E27" s="96">
         <v>60</v>
       </c>
-      <c r="F27" s="115">
+      <c r="F27" s="83">
         <v>4.79</v>
       </c>
-      <c r="G27" s="100">
+      <c r="G27" s="92">
         <f>G_2018[[#This Row],[valor]]/G_2018[[#This Row],[preço]]</f>
         <v>12.526096033402922</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="114">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="81">
         <v>43386</v>
       </c>
-      <c r="B28" s="111">
+      <c r="B28">
         <v>78960</v>
       </c>
-      <c r="C28" s="120">
+      <c r="C28">
         <v>78983</v>
       </c>
-      <c r="D28" s="94">
+      <c r="D28" s="90">
         <f>G_2018[[#This Row],[km fim]]-G_2018[[#This Row],[km ini]]</f>
         <v>23</v>
       </c>
-      <c r="E28" s="123">
+      <c r="E28" s="96">
         <v>148.19999999999999</v>
       </c>
-      <c r="F28" s="115">
+      <c r="F28" s="83">
         <v>4.9400000000000004</v>
       </c>
-      <c r="G28" s="100">
+      <c r="G28" s="92">
         <f>G_2018[[#This Row],[valor]]/G_2018[[#This Row],[preço]]</f>
         <v>29.999999999999996</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="114">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="81">
         <v>43399</v>
       </c>
-      <c r="B29" s="117">
+      <c r="B29" s="1">
         <v>79431</v>
       </c>
-      <c r="C29" s="111">
+      <c r="C29">
         <v>79502</v>
       </c>
-      <c r="D29" s="94">
+      <c r="D29" s="90">
         <f>G_2018[[#This Row],[km fim]]-G_2018[[#This Row],[km ini]]</f>
         <v>71</v>
       </c>
-      <c r="E29" s="123">
+      <c r="E29" s="96">
         <v>60</v>
       </c>
-      <c r="F29" s="115">
+      <c r="F29" s="83">
         <v>4.99</v>
       </c>
-      <c r="G29" s="100">
+      <c r="G29" s="92">
         <f>G_2018[[#This Row],[valor]]/G_2018[[#This Row],[preço]]</f>
         <v>12.024048096192384</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="114">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="81">
         <v>43410</v>
       </c>
-      <c r="B30" s="111">
+      <c r="B30">
         <f>C29</f>
         <v>79502</v>
       </c>
-      <c r="C30" s="111">
+      <c r="C30">
         <v>79730</v>
       </c>
-      <c r="D30" s="94">
+      <c r="D30" s="90">
         <f>G_2018[[#This Row],[km fim]]-G_2018[[#This Row],[km ini]]</f>
         <v>228</v>
       </c>
-      <c r="E30" s="123">
+      <c r="E30" s="96">
         <v>120</v>
       </c>
-      <c r="F30" s="115">
+      <c r="F30" s="83">
         <v>4.99</v>
       </c>
-      <c r="G30" s="100">
+      <c r="G30" s="92">
         <f>G_2018[[#This Row],[valor]]/G_2018[[#This Row],[preço]]</f>
         <v>24.048096192384769</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="114">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="81">
         <v>43418</v>
       </c>
-      <c r="B31" s="111">
+      <c r="B31">
         <f>C30</f>
         <v>79730</v>
       </c>
-      <c r="C31" s="111">
+      <c r="C31">
         <v>79820</v>
       </c>
-      <c r="D31" s="94">
+      <c r="D31" s="90">
         <f>G_2018[[#This Row],[km fim]]-G_2018[[#This Row],[km ini]]</f>
         <v>90</v>
       </c>
-      <c r="E31" s="123">
+      <c r="E31" s="96">
         <v>80</v>
       </c>
-      <c r="F31" s="108">
+      <c r="F31" s="96">
         <v>4.6900000000000004</v>
       </c>
-      <c r="G31" s="109">
+      <c r="G31" s="92">
         <f>G_2018[[#This Row],[valor]]/G_2018[[#This Row],[preço]]</f>
         <v>17.057569296375267</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="114">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="81">
         <v>43426</v>
       </c>
-      <c r="B32" s="111">
+      <c r="B32">
         <f>C31</f>
         <v>79820</v>
       </c>
-      <c r="C32" s="111">
+      <c r="C32">
         <v>79915</v>
       </c>
-      <c r="D32" s="94">
+      <c r="D32" s="90">
         <f>G_2018[[#This Row],[km fim]]-G_2018[[#This Row],[km ini]]</f>
         <v>95</v>
       </c>
-      <c r="E32" s="123">
+      <c r="E32" s="96">
         <v>60</v>
       </c>
-      <c r="F32" s="115">
+      <c r="F32" s="83">
         <v>4.87</v>
       </c>
-      <c r="G32" s="100">
+      <c r="G32" s="92">
         <f>G_2018[[#This Row],[valor]]/G_2018[[#This Row],[preço]]</f>
         <v>12.320328542094456</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="114">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="81">
         <v>43433</v>
       </c>
-      <c r="B33" s="111">
+      <c r="B33">
         <f>C32</f>
         <v>79915</v>
       </c>
-      <c r="C33" s="111">
+      <c r="C33">
         <v>80030</v>
       </c>
-      <c r="D33" s="94">
+      <c r="D33" s="90">
         <f>G_2018[[#This Row],[km fim]]-G_2018[[#This Row],[km ini]]</f>
         <v>115</v>
       </c>
-      <c r="E33" s="123">
+      <c r="E33" s="96">
         <v>60</v>
       </c>
-      <c r="F33" s="115">
+      <c r="F33" s="83">
         <v>4.59</v>
       </c>
-      <c r="G33" s="100">
+      <c r="G33" s="92">
         <f>G_2018[[#This Row],[valor]]/G_2018[[#This Row],[preço]]</f>
         <v>13.071895424836601</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="114">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="81">
         <v>43442</v>
       </c>
-      <c r="B34" s="111">
+      <c r="B34">
         <f>C33</f>
         <v>80030</v>
       </c>
-      <c r="C34" s="111">
+      <c r="C34">
         <v>80148</v>
       </c>
-      <c r="D34" s="94">
+      <c r="D34" s="90">
         <f>G_2018[[#This Row],[km fim]]-G_2018[[#This Row],[km ini]]</f>
         <v>118</v>
       </c>
-      <c r="E34" s="123">
+      <c r="E34" s="96">
         <v>80</v>
       </c>
-      <c r="F34" s="115">
+      <c r="F34" s="83">
         <v>4.79</v>
       </c>
-      <c r="G34" s="100">
+      <c r="G34" s="92">
         <f>G_2018[[#This Row],[valor]]/G_2018[[#This Row],[preço]]</f>
         <v>16.701461377870565</v>
       </c>
@@ -5134,132 +5065,129 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B43933D-4CC7-4766-9778-D69CB537A172}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{8AA1B97D-5C90-5FD5-A4E7-F81983934B23}">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.10546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="11.8359375" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="9.14453125" style="6"/>
-    <col min="5" max="5" width="9.4140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.14453125" style="6"/>
-    <col min="8" max="8" width="9.01171875" style="6" customWidth="1"/>
-    <col min="9" max="9" width="10.76171875" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.14453125" style="6"/>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="122" t="s">
+      <c r="F1" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="114">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="81">
         <v>43476</v>
       </c>
-      <c r="B2" s="126">
+      <c r="B2" s="103">
         <v>0.70833333333333337</v>
       </c>
-      <c r="C2" s="111">
+      <c r="C2">
         <v>81120</v>
       </c>
-      <c r="D2" s="111">
+      <c r="D2">
         <v>81216</v>
       </c>
-      <c r="E2" s="94">
+      <c r="E2" s="90">
         <f>G_2019[[#This Row],[km fim]]-G_2019[[#This Row],[km ini]]</f>
         <v>96</v>
       </c>
-      <c r="F2" s="123">
+      <c r="F2" s="96">
         <v>60</v>
       </c>
-      <c r="G2" s="115">
+      <c r="G2" s="83">
         <v>4.1500000000000004</v>
       </c>
-      <c r="H2" s="100">
+      <c r="H2" s="92">
         <f>G_2019[[#This Row],[valor]]/G_2019[[#This Row],[preço]]</f>
         <v>14.457831325301203</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="114">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="81">
         <v>43487</v>
       </c>
-      <c r="B3" s="126">
+      <c r="B3" s="103">
         <v>0.4861111111111111</v>
       </c>
-      <c r="C3" s="111">
+      <c r="C3">
         <f>D2</f>
         <v>81216</v>
       </c>
-      <c r="D3" s="111">
+      <c r="D3">
         <v>81333</v>
       </c>
-      <c r="E3" s="94">
+      <c r="E3" s="90">
         <f>G_2019[[#This Row],[km fim]]-G_2019[[#This Row],[km ini]]</f>
         <v>117</v>
       </c>
-      <c r="F3" s="123">
+      <c r="F3" s="96">
         <v>60</v>
       </c>
-      <c r="G3" s="115">
+      <c r="G3" s="83">
         <v>4.25</v>
       </c>
-      <c r="H3" s="100">
+      <c r="H3" s="92">
         <f>G_2019[[#This Row],[valor]]/G_2019[[#This Row],[preço]]</f>
         <v>14.117647058823529</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="114">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="81">
         <v>43497</v>
       </c>
-      <c r="B4" s="126">
+      <c r="B4" s="103">
         <v>0.79513888888888884</v>
       </c>
-      <c r="C4" s="111">
+      <c r="C4">
         <f>D3</f>
         <v>81333</v>
       </c>
-      <c r="D4" s="111">
+      <c r="D4">
         <f>81454</f>
         <v>81454</v>
       </c>
-      <c r="E4" s="94">
+      <c r="E4" s="90">
         <f>G_2019[[#This Row],[km fim]]-G_2019[[#This Row],[km ini]]</f>
         <v>121</v>
       </c>
-      <c r="F4" s="123">
+      <c r="F4" s="96">
         <v>60</v>
       </c>
-      <c r="G4" s="115">
+      <c r="G4" s="83">
         <v>4.29</v>
       </c>
-      <c r="H4" s="100">
+      <c r="H4" s="92">
         <f>G_2019[[#This Row],[valor]]/G_2019[[#This Row],[preço]]</f>
         <v>13.986013986013987</v>
       </c>
@@ -5280,1358 +5208,1358 @@
   </sheetPr>
   <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{C90B185E-D5F8-5C1D-B199-BFB8565D8E33}">
+    <sheetView workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.76171875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7421875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.4140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.72265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.859375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.53125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.6484375" customWidth="1"/>
-    <col min="11" max="11" width="11.296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.33984375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.609375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.56640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.7109375" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" s="87" t="s">
+    <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="85" t="s">
+      <c r="B1" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="85" t="s">
+      <c r="C1" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="85" t="s">
+      <c r="D1" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="85" t="s">
+      <c r="E1" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="85" t="s">
+      <c r="F1" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="101" t="s">
+      <c r="G1" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="88" t="s">
+      <c r="H1" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="85" t="s">
+      <c r="I1" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="101" t="s">
+      <c r="J1" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="85" t="s">
+      <c r="K1" s="84" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="133" t="s">
+      <c r="L1" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="125" t="s">
+      <c r="M1" s="102" t="s">
         <v>29</v>
       </c>
-      <c r="N1" s="133" t="s">
+      <c r="N1" s="110" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="118">
+    <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="99">
         <v>42737</v>
       </c>
-      <c r="B2" s="99">
+      <c r="B2" s="91">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C2" s="98">
+      <c r="C2" s="91">
         <v>0.50208333333333333</v>
       </c>
-      <c r="D2" s="98">
+      <c r="D2" s="91">
         <f>Viagens[[#This Row],[hora fim]]-Viagens[[#This Row],[hora ini]]</f>
         <v>0.16875000000000001</v>
       </c>
-      <c r="E2" s="102">
+      <c r="E2" s="90">
         <v>63873</v>
       </c>
-      <c r="F2" s="102">
+      <c r="F2" s="90">
         <v>64224</v>
       </c>
-      <c r="G2" s="103">
+      <c r="G2" s="94">
         <f t="shared" ref="G2:G26" si="0">F2-E2</f>
         <v>351</v>
       </c>
-      <c r="H2" s="94">
+      <c r="H2" s="90">
         <v>39.75</v>
       </c>
-      <c r="I2" s="94">
+      <c r="I2" s="90">
         <v>12</v>
       </c>
-      <c r="J2" s="105">
+      <c r="J2" s="95">
         <f>Viagens[[#This Row],[L ini]]-Viagens[[#This Row],[L fim]]</f>
         <v>27.75</v>
       </c>
-      <c r="K2" s="100">
+      <c r="K2" s="92">
         <f>Viagens[[#This Row],[km]]/Viagens[[#This Row],[L]]</f>
         <v>12.648648648648649</v>
       </c>
-      <c r="L2" s="134">
+      <c r="L2" s="111">
         <v>4</v>
       </c>
-      <c r="M2" s="124">
+      <c r="M2" s="101">
         <f>Viagens[[#This Row],[preço]]/Viagens[[#This Row],[consumo]]</f>
         <v>0.31623931623931623</v>
       </c>
-      <c r="N2" s="136">
+      <c r="N2" s="112">
         <f>Viagens[[#This Row],[L]]*Viagens[[#This Row],[preço]]</f>
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="118">
+    <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="99">
         <v>42790</v>
       </c>
-      <c r="B3" s="99">
+      <c r="B3" s="91">
         <v>0.34513888888888888</v>
       </c>
-      <c r="C3" s="98">
+      <c r="C3" s="91">
         <v>0.5395833333333333</v>
       </c>
-      <c r="D3" s="98">
+      <c r="D3" s="91">
         <f>Viagens[[#This Row],[hora fim]]-Viagens[[#This Row],[hora ini]]</f>
         <v>0.19444444444444442</v>
       </c>
-      <c r="E3" s="102">
+      <c r="E3" s="90">
         <v>64569</v>
       </c>
-      <c r="F3" s="102">
+      <c r="F3" s="90">
         <v>64947</v>
       </c>
-      <c r="G3" s="103">
+      <c r="G3" s="94">
         <f t="shared" si="0"/>
         <v>378</v>
       </c>
-      <c r="H3" s="94">
+      <c r="H3" s="90">
         <v>37.81</v>
       </c>
-      <c r="I3" s="94">
+      <c r="I3" s="90">
         <v>10</v>
       </c>
-      <c r="J3" s="105">
+      <c r="J3" s="95">
         <f>Viagens[[#This Row],[L ini]]-Viagens[[#This Row],[L fim]]</f>
         <v>27.810000000000002</v>
       </c>
-      <c r="K3" s="100">
+      <c r="K3" s="92">
         <f>Viagens[[#This Row],[km]]/Viagens[[#This Row],[L]]</f>
         <v>13.592233009708737</v>
       </c>
-      <c r="L3" s="134">
+      <c r="L3" s="111">
         <v>3.93</v>
       </c>
-      <c r="M3" s="124">
+      <c r="M3" s="101">
         <f>Viagens[[#This Row],[preço]]/Viagens[[#This Row],[consumo]]</f>
         <v>0.28913571428571433</v>
       </c>
-      <c r="N3" s="136">
+      <c r="N3" s="112">
         <f>Viagens[[#This Row],[L]]*Viagens[[#This Row],[preço]]</f>
         <v>109.29330000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="118">
+    <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="99">
         <v>42806</v>
       </c>
-      <c r="B4" s="99">
+      <c r="B4" s="91">
         <v>0.56805555555555554</v>
       </c>
-      <c r="C4" s="98">
+      <c r="C4" s="91">
         <v>0.76736111111111116</v>
       </c>
-      <c r="D4" s="98">
+      <c r="D4" s="91">
         <f>Viagens[[#This Row],[hora fim]]-Viagens[[#This Row],[hora ini]]</f>
         <v>0.19930555555555562</v>
       </c>
-      <c r="E4" s="102">
+      <c r="E4" s="90">
         <v>65175</v>
       </c>
-      <c r="F4" s="102">
+      <c r="F4" s="90">
         <v>65574</v>
       </c>
-      <c r="G4" s="103">
+      <c r="G4" s="94">
         <f t="shared" si="0"/>
         <v>399</v>
       </c>
-      <c r="H4" s="94">
+      <c r="H4" s="90">
         <v>47.26</v>
       </c>
-      <c r="I4" s="94">
+      <c r="I4" s="90">
         <v>15.5</v>
       </c>
-      <c r="J4" s="105">
+      <c r="J4" s="95">
         <f>Viagens[[#This Row],[L ini]]-Viagens[[#This Row],[L fim]]</f>
         <v>31.759999999999998</v>
       </c>
-      <c r="K4" s="100">
+      <c r="K4" s="92">
         <f>Viagens[[#This Row],[km]]/Viagens[[#This Row],[L]]</f>
         <v>12.562972292191436</v>
       </c>
-      <c r="L4" s="134">
+      <c r="L4" s="111">
         <v>4</v>
       </c>
-      <c r="M4" s="124">
+      <c r="M4" s="101">
         <f>Viagens[[#This Row],[preço]]/Viagens[[#This Row],[consumo]]</f>
         <v>0.31839598997493734</v>
       </c>
-      <c r="N4" s="136">
+      <c r="N4" s="112">
         <f>Viagens[[#This Row],[L]]*Viagens[[#This Row],[preço]]</f>
         <v>127.03999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="118">
+    <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="99">
         <v>42838</v>
       </c>
-      <c r="B5" s="99">
+      <c r="B5" s="91">
         <v>0.30486111111111108</v>
       </c>
-      <c r="C5" s="98">
+      <c r="C5" s="91">
         <v>0.52708333333333335</v>
       </c>
-      <c r="D5" s="98">
+      <c r="D5" s="91">
         <f>Viagens[[#This Row],[hora fim]]-Viagens[[#This Row],[hora ini]]</f>
         <v>0.22222222222222227</v>
       </c>
-      <c r="E5" s="102">
+      <c r="E5" s="90">
         <v>65820</v>
       </c>
-      <c r="F5" s="102">
+      <c r="F5" s="90">
         <v>66204</v>
       </c>
-      <c r="G5" s="103">
+      <c r="G5" s="94">
         <f t="shared" si="0"/>
         <v>384</v>
       </c>
-      <c r="H5" s="94">
+      <c r="H5" s="90">
         <v>37.659999999999997</v>
       </c>
-      <c r="I5" s="94">
+      <c r="I5" s="90">
         <v>12</v>
       </c>
-      <c r="J5" s="105">
+      <c r="J5" s="95">
         <f>Viagens[[#This Row],[L ini]]-Viagens[[#This Row],[L fim]]</f>
         <v>25.659999999999997</v>
       </c>
-      <c r="K5" s="100">
+      <c r="K5" s="92">
         <f>Viagens[[#This Row],[km]]/Viagens[[#This Row],[L]]</f>
         <v>14.964925954793454</v>
       </c>
-      <c r="L5" s="134">
+      <c r="L5" s="111">
         <v>3.79</v>
       </c>
-      <c r="M5" s="124">
+      <c r="M5" s="101">
         <f>Viagens[[#This Row],[preço]]/Viagens[[#This Row],[consumo]]</f>
         <v>0.25325885416666666</v>
       </c>
-      <c r="N5" s="136">
+      <c r="N5" s="112">
         <f>Viagens[[#This Row],[L]]*Viagens[[#This Row],[preço]]</f>
         <v>97.25139999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="118">
+    <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="99">
         <v>42841</v>
       </c>
-      <c r="B6" s="99"/>
-      <c r="C6" s="98"/>
-      <c r="D6" s="98"/>
-      <c r="E6" s="102">
+      <c r="B6" s="91"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="90">
         <v>66301</v>
       </c>
-      <c r="F6" s="102">
+      <c r="F6" s="90">
         <v>66672</v>
       </c>
-      <c r="G6" s="103">
+      <c r="G6" s="94">
         <f t="shared" si="0"/>
         <v>371</v>
       </c>
-      <c r="H6" s="94">
+      <c r="H6" s="90">
         <v>39.19</v>
       </c>
-      <c r="I6" s="94">
+      <c r="I6" s="90">
         <v>10</v>
       </c>
-      <c r="J6" s="105">
+      <c r="J6" s="95">
         <f>Viagens[[#This Row],[L ini]]-Viagens[[#This Row],[L fim]]</f>
         <v>29.189999999999998</v>
       </c>
-      <c r="K6" s="100">
+      <c r="K6" s="92">
         <f>Viagens[[#This Row],[km]]/Viagens[[#This Row],[L]]</f>
         <v>12.709832134292567</v>
       </c>
-      <c r="L6" s="134">
+      <c r="L6" s="111">
         <v>3.89</v>
       </c>
-      <c r="M6" s="124">
+      <c r="M6" s="101">
         <f>Viagens[[#This Row],[preço]]/Viagens[[#This Row],[consumo]]</f>
         <v>0.3060622641509434</v>
       </c>
-      <c r="N6" s="136">
+      <c r="N6" s="112">
         <f>Viagens[[#This Row],[L]]*Viagens[[#This Row],[preço]]</f>
         <v>113.5491</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="118">
+    <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="99">
         <v>42935</v>
       </c>
-      <c r="B7" s="99"/>
-      <c r="C7" s="98"/>
-      <c r="D7" s="98"/>
-      <c r="E7" s="102">
+      <c r="B7" s="91"/>
+      <c r="C7" s="91"/>
+      <c r="D7" s="91"/>
+      <c r="E7" s="90">
         <v>67538</v>
       </c>
-      <c r="F7" s="102">
+      <c r="F7" s="90">
         <v>67937</v>
       </c>
-      <c r="G7" s="103">
+      <c r="G7" s="94">
         <f t="shared" si="0"/>
         <v>399</v>
       </c>
-      <c r="H7" s="94">
+      <c r="H7" s="90">
         <v>39.15</v>
       </c>
-      <c r="I7" s="94">
+      <c r="I7" s="90">
         <v>6</v>
       </c>
-      <c r="J7" s="105">
+      <c r="J7" s="95">
         <f>Viagens[[#This Row],[L ini]]-Viagens[[#This Row],[L fim]]</f>
         <v>33.15</v>
       </c>
-      <c r="K7" s="100">
+      <c r="K7" s="92">
         <f>Viagens[[#This Row],[km]]/Viagens[[#This Row],[L]]</f>
         <v>12.036199095022624</v>
       </c>
-      <c r="L7" s="134">
+      <c r="L7" s="111">
         <v>3.62</v>
       </c>
-      <c r="M7" s="124">
+      <c r="M7" s="101">
         <f>Viagens[[#This Row],[preço]]/Viagens[[#This Row],[consumo]]</f>
         <v>0.30075939849624062</v>
       </c>
-      <c r="N7" s="136">
+      <c r="N7" s="112">
         <f>Viagens[[#This Row],[L]]*Viagens[[#This Row],[preço]]</f>
         <v>120.003</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="118">
+    <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="99">
         <v>42945</v>
       </c>
-      <c r="B8" s="99"/>
-      <c r="C8" s="98"/>
-      <c r="D8" s="98"/>
-      <c r="E8" s="102">
+      <c r="B8" s="91"/>
+      <c r="C8" s="91"/>
+      <c r="D8" s="91"/>
+      <c r="E8" s="90">
         <v>68001</v>
       </c>
-      <c r="F8" s="102">
+      <c r="F8" s="90">
         <v>68381</v>
       </c>
-      <c r="G8" s="103">
+      <c r="G8" s="94">
         <f t="shared" si="0"/>
         <v>380</v>
       </c>
-      <c r="H8" s="94">
+      <c r="H8" s="90">
         <v>41</v>
       </c>
-      <c r="I8" s="94">
+      <c r="I8" s="90">
         <v>12</v>
       </c>
-      <c r="J8" s="105">
+      <c r="J8" s="95">
         <f>Viagens[[#This Row],[L ini]]-Viagens[[#This Row],[L fim]]</f>
         <v>29</v>
       </c>
-      <c r="K8" s="100">
+      <c r="K8" s="92">
         <f>Viagens[[#This Row],[km]]/Viagens[[#This Row],[L]]</f>
         <v>13.103448275862069</v>
       </c>
-      <c r="L8" s="134">
+      <c r="L8" s="111">
         <v>4</v>
       </c>
-      <c r="M8" s="124">
+      <c r="M8" s="101">
         <f>Viagens[[#This Row],[preço]]/Viagens[[#This Row],[consumo]]</f>
         <v>0.30526315789473685</v>
       </c>
-      <c r="N8" s="136">
+      <c r="N8" s="112">
         <f>Viagens[[#This Row],[L]]*Viagens[[#This Row],[preço]]</f>
         <v>116</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="118">
+    <row r="9" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="99">
         <v>42946</v>
       </c>
-      <c r="B9" s="99"/>
-      <c r="C9" s="98"/>
-      <c r="D9" s="98"/>
-      <c r="E9" s="102">
+      <c r="B9" s="91"/>
+      <c r="C9" s="91"/>
+      <c r="D9" s="91"/>
+      <c r="E9" s="90">
         <v>68381</v>
       </c>
-      <c r="F9" s="102">
+      <c r="F9" s="90">
         <v>68729</v>
       </c>
-      <c r="G9" s="103">
+      <c r="G9" s="94">
         <f t="shared" si="0"/>
         <v>348</v>
       </c>
-      <c r="H9" s="94">
+      <c r="H9" s="90">
         <v>43</v>
       </c>
-      <c r="I9" s="94">
+      <c r="I9" s="90">
         <v>15</v>
       </c>
-      <c r="J9" s="105">
+      <c r="J9" s="95">
         <f>Viagens[[#This Row],[L ini]]-Viagens[[#This Row],[L fim]]</f>
         <v>28</v>
       </c>
-      <c r="K9" s="100">
+      <c r="K9" s="92">
         <f>Viagens[[#This Row],[km]]/Viagens[[#This Row],[L]]</f>
         <v>12.428571428571429</v>
       </c>
-      <c r="L9" s="134">
+      <c r="L9" s="111">
         <v>3.9</v>
       </c>
-      <c r="M9" s="124">
+      <c r="M9" s="101">
         <f>Viagens[[#This Row],[preço]]/Viagens[[#This Row],[consumo]]</f>
         <v>0.31379310344827582</v>
       </c>
-      <c r="N9" s="136">
+      <c r="N9" s="112">
         <f>Viagens[[#This Row],[L]]*Viagens[[#This Row],[preço]]</f>
         <v>109.2</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="118">
+    <row r="10" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="99">
         <v>42961</v>
       </c>
-      <c r="B10" s="99"/>
-      <c r="C10" s="98"/>
-      <c r="D10" s="98"/>
-      <c r="E10" s="102">
+      <c r="B10" s="91"/>
+      <c r="C10" s="91"/>
+      <c r="D10" s="91"/>
+      <c r="E10" s="90">
         <v>68995</v>
       </c>
-      <c r="F10" s="102">
+      <c r="F10" s="90">
         <v>69370</v>
       </c>
-      <c r="G10" s="103">
+      <c r="G10" s="94">
         <f t="shared" si="0"/>
         <v>375</v>
       </c>
-      <c r="H10" s="94">
+      <c r="H10" s="90">
         <v>42.41</v>
       </c>
-      <c r="I10" s="94">
+      <c r="I10" s="90">
         <v>10.5</v>
       </c>
-      <c r="J10" s="105">
+      <c r="J10" s="95">
         <f>Viagens[[#This Row],[L ini]]-Viagens[[#This Row],[L fim]]</f>
         <v>31.909999999999997</v>
       </c>
-      <c r="K10" s="100">
+      <c r="K10" s="92">
         <f>Viagens[[#This Row],[km]]/Viagens[[#This Row],[L]]</f>
         <v>11.751801942964589</v>
       </c>
-      <c r="L10" s="134">
+      <c r="L10" s="111">
         <v>4.1900000000000004</v>
       </c>
-      <c r="M10" s="124">
+      <c r="M10" s="101">
         <f>Viagens[[#This Row],[preço]]/Viagens[[#This Row],[consumo]]</f>
         <v>0.35654106666666668</v>
       </c>
-      <c r="N10" s="136">
+      <c r="N10" s="112">
         <f>Viagens[[#This Row],[L]]*Viagens[[#This Row],[preço]]</f>
         <v>133.7029</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
-      <c r="A11" s="118">
+    <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="99">
         <v>43040</v>
       </c>
-      <c r="B11" s="99"/>
-      <c r="C11" s="98"/>
-      <c r="D11" s="98"/>
-      <c r="E11" s="102">
+      <c r="B11" s="91"/>
+      <c r="C11" s="91"/>
+      <c r="D11" s="91"/>
+      <c r="E11" s="90">
         <v>70001</v>
       </c>
-      <c r="F11" s="102">
+      <c r="F11" s="90">
         <v>70379</v>
       </c>
-      <c r="G11" s="103">
+      <c r="G11" s="94">
         <f t="shared" si="0"/>
         <v>378</v>
       </c>
-      <c r="H11" s="94">
+      <c r="H11" s="90">
         <v>35.770000000000003</v>
       </c>
-      <c r="I11" s="94">
+      <c r="I11" s="90">
         <v>9</v>
       </c>
-      <c r="J11" s="105">
+      <c r="J11" s="95">
         <f>Viagens[[#This Row],[L ini]]-Viagens[[#This Row],[L fim]]</f>
         <v>26.770000000000003</v>
       </c>
-      <c r="K11" s="100">
+      <c r="K11" s="92">
         <f>Viagens[[#This Row],[km]]/Viagens[[#This Row],[L]]</f>
         <v>14.120283899887932</v>
       </c>
-      <c r="L11" s="134">
+      <c r="L11" s="111">
         <v>3.92</v>
       </c>
-      <c r="M11" s="124">
+      <c r="M11" s="101">
         <f>Viagens[[#This Row],[preço]]/Viagens[[#This Row],[consumo]]</f>
         <v>0.27761481481481487</v>
       </c>
-      <c r="N11" s="136">
+      <c r="N11" s="112">
         <f>Viagens[[#This Row],[L]]*Viagens[[#This Row],[preço]]</f>
         <v>104.93840000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="118">
+    <row r="12" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="99">
         <v>43044</v>
       </c>
-      <c r="B12" s="99"/>
-      <c r="C12" s="98"/>
-      <c r="D12" s="98"/>
-      <c r="E12" s="102">
+      <c r="B12" s="91"/>
+      <c r="C12" s="91"/>
+      <c r="D12" s="91"/>
+      <c r="E12" s="90">
         <v>70431</v>
       </c>
-      <c r="F12" s="102">
+      <c r="F12" s="90">
         <v>70809</v>
       </c>
-      <c r="G12" s="103">
+      <c r="G12" s="94">
         <f t="shared" si="0"/>
         <v>378</v>
       </c>
-      <c r="H12" s="94">
+      <c r="H12" s="90">
         <v>38.869999999999997</v>
       </c>
-      <c r="I12" s="94">
+      <c r="I12" s="90">
         <v>10</v>
       </c>
-      <c r="J12" s="105">
+      <c r="J12" s="95">
         <f>Viagens[[#This Row],[L ini]]-Viagens[[#This Row],[L fim]]</f>
         <v>28.869999999999997</v>
       </c>
-      <c r="K12" s="100">
+      <c r="K12" s="92">
         <f>Viagens[[#This Row],[km]]/Viagens[[#This Row],[L]]</f>
         <v>13.093176307585731</v>
       </c>
-      <c r="L12" s="134">
+      <c r="L12" s="111">
         <v>4.09</v>
       </c>
-      <c r="M12" s="124">
+      <c r="M12" s="101">
         <f>Viagens[[#This Row],[preço]]/Viagens[[#This Row],[consumo]]</f>
         <v>0.312376455026455</v>
       </c>
-      <c r="N12" s="136">
+      <c r="N12" s="112">
         <f>Viagens[[#This Row],[L]]*Viagens[[#This Row],[preço]]</f>
         <v>118.07829999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
-      <c r="A13" s="118">
+    <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="99">
         <v>43087</v>
       </c>
-      <c r="B13" s="99"/>
-      <c r="C13" s="98"/>
-      <c r="D13" s="98"/>
-      <c r="E13" s="102">
+      <c r="B13" s="91"/>
+      <c r="C13" s="91"/>
+      <c r="D13" s="91"/>
+      <c r="E13" s="90">
         <v>71219</v>
       </c>
-      <c r="F13" s="102">
+      <c r="F13" s="90">
         <v>71611</v>
       </c>
-      <c r="G13" s="103">
+      <c r="G13" s="94">
         <f t="shared" si="0"/>
         <v>392</v>
       </c>
-      <c r="H13" s="94">
+      <c r="H13" s="90">
         <v>38.869999999999997</v>
       </c>
-      <c r="I13" s="94">
+      <c r="I13" s="90">
         <v>10</v>
       </c>
-      <c r="J13" s="105">
+      <c r="J13" s="95">
         <f>Viagens[[#This Row],[L ini]]-Viagens[[#This Row],[L fim]]</f>
         <v>28.869999999999997</v>
       </c>
-      <c r="K13" s="100">
+      <c r="K13" s="92">
         <f>Viagens[[#This Row],[km]]/Viagens[[#This Row],[L]]</f>
         <v>13.578108763422239</v>
       </c>
-      <c r="L13" s="134">
+      <c r="L13" s="111">
         <v>4.17</v>
       </c>
-      <c r="M13" s="124">
+      <c r="M13" s="101">
         <f>Viagens[[#This Row],[preço]]/Viagens[[#This Row],[consumo]]</f>
         <v>0.30711198979591831</v>
       </c>
-      <c r="N13" s="136">
+      <c r="N13" s="112">
         <f>Viagens[[#This Row],[L]]*Viagens[[#This Row],[preço]]</f>
         <v>120.38789999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
-      <c r="A14" s="118">
+    <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="99">
         <v>43119</v>
       </c>
-      <c r="B14" s="99">
+      <c r="B14" s="91">
         <v>0.34375</v>
       </c>
-      <c r="C14" s="98">
+      <c r="C14" s="91">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D14" s="98">
+      <c r="D14" s="91">
         <f>Viagens[[#This Row],[hora fim]]-Viagens[[#This Row],[hora ini]]</f>
         <v>0.19791666666666663</v>
       </c>
-      <c r="E14" s="102">
+      <c r="E14" s="90">
         <v>72158</v>
       </c>
-      <c r="F14" s="102">
+      <c r="F14" s="90">
         <v>72533</v>
       </c>
-      <c r="G14" s="103">
+      <c r="G14" s="94">
         <f t="shared" si="0"/>
         <v>375</v>
       </c>
-      <c r="H14" s="94">
+      <c r="H14" s="90">
         <v>42.8</v>
       </c>
-      <c r="I14" s="94">
+      <c r="I14" s="90">
         <v>16</v>
       </c>
-      <c r="J14" s="105">
+      <c r="J14" s="95">
         <f>Viagens[[#This Row],[L ini]]-Viagens[[#This Row],[L fim]]</f>
         <v>26.799999999999997</v>
       </c>
-      <c r="K14" s="100">
+      <c r="K14" s="92">
         <f>Viagens[[#This Row],[km]]/Viagens[[#This Row],[L]]</f>
         <v>13.992537313432837</v>
       </c>
-      <c r="L14" s="134">
+      <c r="L14" s="111">
         <v>4.29</v>
       </c>
-      <c r="M14" s="124">
+      <c r="M14" s="101">
         <f>Viagens[[#This Row],[preço]]/Viagens[[#This Row],[consumo]]</f>
         <v>0.30659199999999998</v>
       </c>
-      <c r="N14" s="136">
+      <c r="N14" s="112">
         <f>Viagens[[#This Row],[L]]*Viagens[[#This Row],[preço]]</f>
         <v>114.97199999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
-      <c r="A15" s="118">
+    <row r="15" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="99">
         <v>43128</v>
       </c>
-      <c r="B15" s="99">
+      <c r="B15" s="91">
         <v>0.55277777777777781</v>
       </c>
-      <c r="C15" s="98">
+      <c r="C15" s="91">
         <v>0.78194444444444444</v>
       </c>
-      <c r="D15" s="98">
+      <c r="D15" s="91">
         <f>Viagens[[#This Row],[hora fim]]-Viagens[[#This Row],[hora ini]]</f>
         <v>0.22916666666666663</v>
       </c>
-      <c r="E15" s="102">
+      <c r="E15" s="90">
         <v>72667</v>
       </c>
-      <c r="F15" s="102">
+      <c r="F15" s="90">
         <v>73042</v>
       </c>
-      <c r="G15" s="103">
+      <c r="G15" s="94">
         <f t="shared" si="0"/>
         <v>375</v>
       </c>
-      <c r="H15" s="94">
+      <c r="H15" s="90">
         <v>35.972000000000001</v>
       </c>
-      <c r="I15" s="94">
+      <c r="I15" s="90">
         <v>9</v>
       </c>
-      <c r="J15" s="105">
+      <c r="J15" s="95">
         <f>Viagens[[#This Row],[L ini]]-Viagens[[#This Row],[L fim]]</f>
         <v>26.972000000000001</v>
       </c>
-      <c r="K15" s="100">
+      <c r="K15" s="92">
         <f>Viagens[[#This Row],[km]]/Viagens[[#This Row],[L]]</f>
         <v>13.903307133323446</v>
       </c>
-      <c r="L15" s="134">
+      <c r="L15" s="111">
         <v>4.2699999999999996</v>
       </c>
-      <c r="M15" s="124">
+      <c r="M15" s="101">
         <f>Viagens[[#This Row],[preço]]/Viagens[[#This Row],[consumo]]</f>
         <v>0.30712117333333333</v>
       </c>
-      <c r="N15" s="136">
+      <c r="N15" s="112">
         <f>Viagens[[#This Row],[L]]*Viagens[[#This Row],[preço]]</f>
         <v>115.17044</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
-      <c r="A16" s="118">
+    <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="99">
         <v>43148</v>
       </c>
-      <c r="B16" s="99"/>
-      <c r="C16" s="98"/>
-      <c r="D16" s="98"/>
-      <c r="E16" s="102">
+      <c r="B16" s="91"/>
+      <c r="C16" s="91"/>
+      <c r="D16" s="91"/>
+      <c r="E16" s="90">
         <v>73312</v>
       </c>
-      <c r="F16" s="102">
+      <c r="F16" s="90">
         <v>73666</v>
       </c>
-      <c r="G16" s="103">
+      <c r="G16" s="94">
         <f t="shared" si="0"/>
         <v>354</v>
       </c>
-      <c r="H16" s="94">
+      <c r="H16" s="90">
         <v>44.981999999999999</v>
       </c>
-      <c r="I16" s="94">
+      <c r="I16" s="90">
         <v>18</v>
       </c>
-      <c r="J16" s="105">
+      <c r="J16" s="95">
         <f>Viagens[[#This Row],[L ini]]-Viagens[[#This Row],[L fim]]</f>
         <v>26.981999999999999</v>
       </c>
-      <c r="K16" s="100">
+      <c r="K16" s="92">
         <f>Viagens[[#This Row],[km]]/Viagens[[#This Row],[L]]</f>
         <v>13.119857682899712</v>
       </c>
-      <c r="L16" s="135">
+      <c r="L16" s="111">
         <v>4.49</v>
       </c>
-      <c r="M16" s="124">
+      <c r="M16" s="101">
         <f>Viagens[[#This Row],[preço]]/Viagens[[#This Row],[consumo]]</f>
         <v>0.34222932203389833</v>
       </c>
-      <c r="N16" s="136">
+      <c r="N16" s="112">
         <f>Viagens[[#This Row],[L]]*Viagens[[#This Row],[preço]]</f>
         <v>121.14918</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
-      <c r="A17" s="118">
+    <row r="17" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="99">
         <v>43187</v>
       </c>
-      <c r="B17" s="99">
+      <c r="B17" s="91">
         <v>0.57986111111111105</v>
       </c>
-      <c r="C17" s="98">
+      <c r="C17" s="91">
         <v>0.79791666666666661</v>
       </c>
-      <c r="D17" s="98">
+      <c r="D17" s="91">
         <f>Viagens[[#This Row],[hora fim]]-Viagens[[#This Row],[hora ini]]</f>
         <v>0.21805555555555556</v>
       </c>
-      <c r="E17" s="102">
+      <c r="E17" s="90">
         <v>74082</v>
       </c>
-      <c r="F17" s="102">
+      <c r="F17" s="90">
         <v>74449</v>
       </c>
-      <c r="G17" s="103">
+      <c r="G17" s="94">
         <f t="shared" si="0"/>
         <v>367</v>
       </c>
-      <c r="H17" s="94">
+      <c r="H17" s="90">
         <v>34.168564920273354</v>
       </c>
-      <c r="I17" s="94">
+      <c r="I17" s="90">
         <v>8</v>
       </c>
-      <c r="J17" s="105">
+      <c r="J17" s="95">
         <f>Viagens[[#This Row],[L ini]]-Viagens[[#This Row],[L fim]]</f>
         <v>26.168564920273354</v>
       </c>
-      <c r="K17" s="100">
+      <c r="K17" s="92">
         <f>Viagens[[#This Row],[km]]/Viagens[[#This Row],[L]]</f>
         <v>14.024460306406683</v>
       </c>
-      <c r="L17" s="135">
+      <c r="L17" s="111">
         <v>4.3899999999999997</v>
       </c>
-      <c r="M17" s="124">
+      <c r="M17" s="101">
         <f>Viagens[[#This Row],[preço]]/Viagens[[#This Row],[consumo]]</f>
         <v>0.31302452316076296</v>
       </c>
-      <c r="N17" s="136">
+      <c r="N17" s="112">
         <f>Viagens[[#This Row],[L]]*Viagens[[#This Row],[preço]]</f>
         <v>114.88000000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
-      <c r="A18" s="118">
+    <row r="18" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="99">
         <v>43190</v>
       </c>
-      <c r="B18" s="99">
+      <c r="B18" s="91">
         <v>0.56944444444444442</v>
       </c>
-      <c r="C18" s="98">
+      <c r="C18" s="91">
         <v>0.75347222222222221</v>
       </c>
-      <c r="D18" s="98">
+      <c r="D18" s="91">
         <f>Viagens[[#This Row],[hora fim]]-Viagens[[#This Row],[hora ini]]</f>
         <v>0.18402777777777779</v>
       </c>
-      <c r="E18" s="102">
+      <c r="E18" s="90">
         <v>74474</v>
       </c>
-      <c r="F18" s="102">
+      <c r="F18" s="90">
         <v>74825</v>
       </c>
-      <c r="G18" s="103">
+      <c r="G18" s="94">
         <f t="shared" si="0"/>
         <v>351</v>
       </c>
-      <c r="H18" s="94">
+      <c r="H18" s="90">
         <v>48</v>
       </c>
-      <c r="I18" s="94">
+      <c r="I18" s="90">
         <v>22</v>
       </c>
-      <c r="J18" s="105">
+      <c r="J18" s="95">
         <f>Viagens[[#This Row],[L ini]]-Viagens[[#This Row],[L fim]]</f>
         <v>26</v>
       </c>
-      <c r="K18" s="100">
+      <c r="K18" s="92">
         <f>Viagens[[#This Row],[km]]/Viagens[[#This Row],[L]]</f>
         <v>13.5</v>
       </c>
-      <c r="L18" s="135">
+      <c r="L18" s="111">
         <v>4.49</v>
       </c>
-      <c r="M18" s="124">
+      <c r="M18" s="101">
         <f>Viagens[[#This Row],[preço]]/Viagens[[#This Row],[consumo]]</f>
         <v>0.33259259259259261</v>
       </c>
-      <c r="N18" s="136">
+      <c r="N18" s="112">
         <f>Viagens[[#This Row],[L]]*Viagens[[#This Row],[preço]]</f>
         <v>116.74000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
-      <c r="A19" s="118">
+    <row r="19" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="99">
         <v>43287</v>
       </c>
-      <c r="B19" s="99">
+      <c r="B19" s="91">
         <v>0.24166666666666667</v>
       </c>
-      <c r="C19" s="98">
+      <c r="C19" s="91">
         <v>0.46111111111111108</v>
       </c>
-      <c r="D19" s="98">
+      <c r="D19" s="91">
         <f>Viagens[[#This Row],[hora fim]]-Viagens[[#This Row],[hora ini]]</f>
         <v>0.21944444444444441</v>
       </c>
-      <c r="E19" s="102">
+      <c r="E19" s="90">
         <v>75894</v>
       </c>
-      <c r="F19" s="102">
+      <c r="F19" s="90">
         <v>76265</v>
       </c>
-      <c r="G19" s="103">
+      <c r="G19" s="94">
         <f t="shared" si="0"/>
         <v>371</v>
       </c>
-      <c r="H19" s="94">
+      <c r="H19" s="90">
         <v>48</v>
       </c>
-      <c r="I19" s="94">
+      <c r="I19" s="90">
         <v>20</v>
       </c>
-      <c r="J19" s="105">
+      <c r="J19" s="95">
         <f>Viagens[[#This Row],[L ini]]-Viagens[[#This Row],[L fim]]</f>
         <v>28</v>
       </c>
-      <c r="K19" s="100">
+      <c r="K19" s="92">
         <f>Viagens[[#This Row],[km]]/Viagens[[#This Row],[L]]</f>
         <v>13.25</v>
       </c>
-      <c r="L19" s="135">
+      <c r="L19" s="111">
         <v>4.59</v>
       </c>
-      <c r="M19" s="124">
+      <c r="M19" s="101">
         <f>Viagens[[#This Row],[preço]]/Viagens[[#This Row],[consumo]]</f>
         <v>0.34641509433962264</v>
       </c>
-      <c r="N19" s="136">
+      <c r="N19" s="112">
         <f>Viagens[[#This Row],[L]]*Viagens[[#This Row],[preço]]</f>
         <v>128.51999999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
-      <c r="A20" s="118">
+    <row r="20" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="99">
         <v>43289</v>
       </c>
-      <c r="B20" s="99">
+      <c r="B20" s="91">
         <v>0.61111111111111105</v>
       </c>
-      <c r="C20" s="98">
+      <c r="C20" s="91">
         <v>0.7597222222222223</v>
       </c>
-      <c r="D20" s="98">
+      <c r="D20" s="91">
         <f>Viagens[[#This Row],[hora fim]]-Viagens[[#This Row],[hora ini]]</f>
         <v>0.14861111111111125</v>
       </c>
-      <c r="E20" s="102">
+      <c r="E20" s="90">
         <v>76308</v>
       </c>
-      <c r="F20" s="102">
+      <c r="F20" s="90">
         <v>76660</v>
       </c>
-      <c r="G20" s="103">
+      <c r="G20" s="94">
         <f t="shared" si="0"/>
         <v>352</v>
       </c>
-      <c r="H20" s="94">
+      <c r="H20" s="90">
         <v>48</v>
       </c>
-      <c r="I20" s="94">
+      <c r="I20" s="90">
         <v>23</v>
       </c>
-      <c r="J20" s="105">
+      <c r="J20" s="95">
         <f>Viagens[[#This Row],[L ini]]-Viagens[[#This Row],[L fim]]</f>
         <v>25</v>
       </c>
-      <c r="K20" s="100">
+      <c r="K20" s="92">
         <f>Viagens[[#This Row],[km]]/Viagens[[#This Row],[L]]</f>
         <v>14.08</v>
       </c>
-      <c r="L20" s="135">
+      <c r="L20" s="111">
         <v>4.79</v>
       </c>
-      <c r="M20" s="124">
+      <c r="M20" s="101">
         <f>Viagens[[#This Row],[preço]]/Viagens[[#This Row],[consumo]]</f>
         <v>0.34019886363636365</v>
       </c>
-      <c r="N20" s="136">
+      <c r="N20" s="112">
         <f>Viagens[[#This Row],[L]]*Viagens[[#This Row],[preço]]</f>
         <v>119.75</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
-      <c r="A21" s="119">
+    <row r="21" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="99">
         <v>43350</v>
       </c>
-      <c r="B21" s="99">
+      <c r="B21" s="91">
         <v>0.35347222222222219</v>
       </c>
-      <c r="C21" s="98">
+      <c r="C21" s="91">
         <v>0.5493055555555556</v>
       </c>
-      <c r="D21" s="98">
+      <c r="D21" s="91">
         <f>Viagens[[#This Row],[hora fim]]-Viagens[[#This Row],[hora ini]]</f>
         <v>0.19583333333333341</v>
       </c>
-      <c r="E21" s="102">
+      <c r="E21" s="90">
         <v>77444</v>
       </c>
-      <c r="F21" s="102">
+      <c r="F21" s="90">
         <v>77816</v>
       </c>
-      <c r="G21" s="104">
+      <c r="G21" s="94">
         <f t="shared" si="0"/>
         <v>372</v>
       </c>
-      <c r="H21" s="94">
+      <c r="H21" s="90">
         <v>40</v>
       </c>
-      <c r="I21" s="94">
+      <c r="I21" s="90">
         <v>14</v>
       </c>
-      <c r="J21" s="105">
+      <c r="J21" s="95">
         <f>Viagens[[#This Row],[L ini]]-Viagens[[#This Row],[L fim]]</f>
         <v>26</v>
       </c>
-      <c r="K21" s="100">
+      <c r="K21" s="92">
         <f>Viagens[[#This Row],[km]]/Viagens[[#This Row],[L]]</f>
         <v>14.307692307692308</v>
       </c>
-      <c r="L21" s="135">
+      <c r="L21" s="111">
         <v>4.79</v>
       </c>
-      <c r="M21" s="124">
+      <c r="M21" s="101">
         <f>Viagens[[#This Row],[preço]]/Viagens[[#This Row],[consumo]]</f>
         <v>0.33478494623655913</v>
       </c>
-      <c r="N21" s="136">
+      <c r="N21" s="112">
         <f>Viagens[[#This Row],[L]]*Viagens[[#This Row],[preço]]</f>
         <v>124.54</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
-      <c r="A22" s="119">
+    <row r="22" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="99">
         <v>43352</v>
       </c>
-      <c r="B22" s="99">
+      <c r="B22" s="91">
         <v>0.47013888888888888</v>
       </c>
-      <c r="C22" s="98">
+      <c r="C22" s="91">
         <v>0.67638888888888893</v>
       </c>
-      <c r="D22" s="98">
+      <c r="D22" s="91">
         <f>Viagens[[#This Row],[hora fim]]-Viagens[[#This Row],[hora ini]]</f>
         <v>0.20625000000000004</v>
       </c>
-      <c r="E22" s="102">
+      <c r="E22" s="90">
         <v>77858</v>
       </c>
-      <c r="F22" s="102">
+      <c r="F22" s="90">
         <v>78222</v>
       </c>
-      <c r="G22" s="104">
+      <c r="G22" s="94">
         <f t="shared" si="0"/>
         <v>364</v>
       </c>
-      <c r="H22" s="94">
+      <c r="H22" s="90">
         <v>48</v>
       </c>
-      <c r="I22" s="94">
+      <c r="I22" s="90">
         <v>18</v>
       </c>
-      <c r="J22" s="105">
+      <c r="J22" s="95">
         <f>Viagens[[#This Row],[L ini]]-Viagens[[#This Row],[L fim]]</f>
         <v>30</v>
       </c>
-      <c r="K22" s="100">
+      <c r="K22" s="92">
         <f>Viagens[[#This Row],[km]]/Viagens[[#This Row],[L]]</f>
         <v>12.133333333333333</v>
       </c>
-      <c r="L22" s="135">
+      <c r="L22" s="111">
         <v>4.79</v>
       </c>
-      <c r="M22" s="124">
+      <c r="M22" s="101">
         <f>Viagens[[#This Row],[preço]]/Viagens[[#This Row],[consumo]]</f>
         <v>0.39478021978021982</v>
       </c>
-      <c r="N22" s="136">
+      <c r="N22" s="112">
         <f>Viagens[[#This Row],[L]]*Viagens[[#This Row],[preço]]</f>
         <v>143.69999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
-      <c r="A23" s="119">
+    <row r="23" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="99">
         <v>43385</v>
       </c>
-      <c r="B23" s="99">
+      <c r="B23" s="91">
         <v>0.38125000000000003</v>
       </c>
-      <c r="C23" s="98">
+      <c r="C23" s="91">
         <v>0.58402777777777781</v>
       </c>
-      <c r="D23" s="98">
+      <c r="D23" s="91">
         <f>Viagens[[#This Row],[hora fim]]-Viagens[[#This Row],[hora ini]]</f>
         <v>0.20277777777777778</v>
       </c>
-      <c r="E23" s="102">
+      <c r="E23" s="90">
         <v>78597</v>
       </c>
-      <c r="F23" s="102">
+      <c r="F23" s="90">
         <v>78960</v>
       </c>
-      <c r="G23" s="104">
+      <c r="G23" s="94">
         <f t="shared" si="0"/>
         <v>363</v>
       </c>
-      <c r="H23" s="94">
+      <c r="H23" s="90">
         <v>45</v>
       </c>
-      <c r="I23" s="94">
+      <c r="I23" s="90">
         <v>12</v>
       </c>
-      <c r="J23" s="105">
+      <c r="J23" s="95">
         <f>Viagens[[#This Row],[L ini]]-Viagens[[#This Row],[L fim]]</f>
         <v>33</v>
       </c>
-      <c r="K23" s="100">
+      <c r="K23" s="92">
         <f>Viagens[[#This Row],[km]]/Viagens[[#This Row],[L]]</f>
         <v>11</v>
       </c>
-      <c r="L23" s="135">
+      <c r="L23" s="111">
         <v>4.79</v>
       </c>
-      <c r="M23" s="124">
+      <c r="M23" s="101">
         <f>Viagens[[#This Row],[preço]]/Viagens[[#This Row],[consumo]]</f>
         <v>0.43545454545454548</v>
       </c>
-      <c r="N23" s="136">
+      <c r="N23" s="112">
         <f>Viagens[[#This Row],[L]]*Viagens[[#This Row],[preço]]</f>
         <v>158.07</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
-      <c r="A24" s="119">
+    <row r="24" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="99">
         <v>43388</v>
       </c>
-      <c r="B24" s="98">
+      <c r="B24" s="91">
         <v>0.33194444444444443</v>
       </c>
-      <c r="C24" s="98">
+      <c r="C24" s="91">
         <v>0.51111111111111118</v>
       </c>
-      <c r="D24" s="98">
+      <c r="D24" s="91">
         <f>Viagens[[#This Row],[hora fim]]-Viagens[[#This Row],[hora ini]]</f>
         <v>0.17916666666666675</v>
       </c>
-      <c r="E24" s="102">
+      <c r="E24" s="90">
         <v>79000</v>
       </c>
-      <c r="F24" s="102">
+      <c r="F24" s="90">
         <v>79352</v>
       </c>
-      <c r="G24" s="104">
+      <c r="G24" s="94">
         <f t="shared" si="0"/>
         <v>352</v>
       </c>
-      <c r="H24" s="94">
+      <c r="H24" s="90">
         <v>34</v>
       </c>
-      <c r="I24" s="94">
+      <c r="I24" s="90">
         <v>6</v>
       </c>
-      <c r="J24" s="105">
+      <c r="J24" s="95">
         <f>Viagens[[#This Row],[L ini]]-Viagens[[#This Row],[L fim]]</f>
         <v>28</v>
       </c>
-      <c r="K24" s="100">
+      <c r="K24" s="92">
         <f>Viagens[[#This Row],[km]]/Viagens[[#This Row],[L]]</f>
         <v>12.571428571428571</v>
       </c>
-      <c r="L24" s="135">
+      <c r="L24" s="111">
         <v>4.9400000000000004</v>
       </c>
-      <c r="M24" s="124">
+      <c r="M24" s="101">
         <f>Viagens[[#This Row],[preço]]/Viagens[[#This Row],[consumo]]</f>
         <v>0.3929545454545455</v>
       </c>
-      <c r="N24" s="136">
+      <c r="N24" s="112">
         <f>Viagens[[#This Row],[L]]*Viagens[[#This Row],[preço]]</f>
         <v>138.32000000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
-      <c r="A25" s="119">
+    <row r="25" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="99">
         <v>43456</v>
       </c>
-      <c r="B25" s="98">
+      <c r="B25" s="91">
         <v>0.40416666666666662</v>
       </c>
-      <c r="C25" s="98">
+      <c r="C25" s="91">
         <v>0.6166666666666667</v>
       </c>
-      <c r="D25" s="98">
+      <c r="D25" s="91">
         <f>Viagens[[#This Row],[hora fim]]-Viagens[[#This Row],[hora ini]]</f>
         <v>0.21250000000000008</v>
       </c>
-      <c r="E25" s="102">
+      <c r="E25" s="90">
         <v>80192</v>
       </c>
-      <c r="F25" s="102">
+      <c r="F25" s="90">
         <v>80548</v>
       </c>
-      <c r="G25" s="104">
+      <c r="G25" s="94">
         <f t="shared" si="0"/>
         <v>356</v>
       </c>
-      <c r="H25" s="94">
+      <c r="H25" s="90">
         <v>43</v>
       </c>
-      <c r="I25" s="94">
+      <c r="I25" s="90">
         <v>13</v>
       </c>
-      <c r="J25" s="105">
+      <c r="J25" s="95">
         <f>Viagens[[#This Row],[L ini]]-Viagens[[#This Row],[L fim]]</f>
         <v>30</v>
       </c>
-      <c r="K25" s="100">
+      <c r="K25" s="92">
         <f>Viagens[[#This Row],[km]]/Viagens[[#This Row],[L]]</f>
         <v>11.866666666666667</v>
       </c>
-      <c r="L25" s="135">
+      <c r="L25" s="111">
         <v>4.3499999999999996</v>
       </c>
-      <c r="M25" s="124">
+      <c r="M25" s="101">
         <f>Viagens[[#This Row],[preço]]/Viagens[[#This Row],[consumo]]</f>
         <v>0.36657303370786515</v>
       </c>
-      <c r="N25" s="136">
+      <c r="N25" s="112">
         <f>Viagens[[#This Row],[L]]*Viagens[[#This Row],[preço]]</f>
         <v>130.5</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
-      <c r="A26" s="118">
+    <row r="26" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="99">
         <v>43459</v>
       </c>
-      <c r="B26" s="98">
+      <c r="B26" s="91">
         <v>0.60416666666666663</v>
       </c>
-      <c r="C26" s="98">
+      <c r="C26" s="91">
         <v>0.80208333333333337</v>
       </c>
-      <c r="D26" s="98">
+      <c r="D26" s="91">
         <f>Viagens[[#This Row],[hora fim]]-Viagens[[#This Row],[hora ini]]</f>
         <v>0.19791666666666674</v>
       </c>
-      <c r="E26" s="102">
+      <c r="E26" s="90">
         <v>80565</v>
       </c>
-      <c r="F26" s="102">
+      <c r="F26" s="90">
         <v>80925</v>
       </c>
-      <c r="G26" s="104">
+      <c r="G26" s="94">
         <f t="shared" si="0"/>
         <v>360</v>
       </c>
-      <c r="H26" s="94">
+      <c r="H26" s="90">
         <v>48</v>
       </c>
-      <c r="I26" s="94">
+      <c r="I26" s="90">
         <v>19</v>
       </c>
-      <c r="J26" s="105">
+      <c r="J26" s="95">
         <f>Viagens[[#This Row],[L ini]]-Viagens[[#This Row],[L fim]]</f>
         <v>29</v>
       </c>
-      <c r="K26" s="100">
+      <c r="K26" s="92">
         <f>Viagens[[#This Row],[km]]/Viagens[[#This Row],[L]]</f>
         <v>12.413793103448276</v>
       </c>
-      <c r="L26" s="135">
+      <c r="L26" s="111">
         <v>4.6399999999999997</v>
       </c>
-      <c r="M26" s="124">
+      <c r="M26" s="101">
         <f>Viagens[[#This Row],[preço]]/Viagens[[#This Row],[consumo]]</f>
         <v>0.37377777777777776</v>
       </c>
-      <c r="N26" s="136">
+      <c r="N26" s="112">
         <f>Viagens[[#This Row],[L]]*Viagens[[#This Row],[preço]]</f>
         <v>134.56</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="18" customHeight="1">
-      <c r="A27" s="95"/>
-      <c r="B27" s="90"/>
-      <c r="C27" s="86"/>
-      <c r="D27" s="94"/>
-      <c r="E27" s="91"/>
-      <c r="F27" s="92"/>
-      <c r="G27" s="89"/>
-      <c r="H27" s="89"/>
-    </row>
-    <row r="28" spans="1:14">
-      <c r="A28" s="95"/>
-      <c r="B28" s="90"/>
-      <c r="C28" s="86"/>
-      <c r="D28" s="94"/>
-      <c r="E28" s="91"/>
-      <c r="F28" s="92"/>
-      <c r="G28" s="89"/>
-      <c r="H28" s="89"/>
-    </row>
-    <row r="29" spans="1:14">
-      <c r="A29" s="96"/>
-      <c r="B29" s="96"/>
-      <c r="C29" s="89"/>
-      <c r="D29" s="93"/>
-      <c r="E29" s="97"/>
-      <c r="F29" s="92"/>
-      <c r="G29" s="89"/>
-      <c r="H29" s="89"/>
-    </row>
-    <row r="30" spans="1:14">
-      <c r="A30" s="96"/>
-      <c r="B30" s="96"/>
-      <c r="C30" s="89"/>
-      <c r="D30" s="93"/>
-      <c r="E30" s="97"/>
-      <c r="F30" s="92"/>
-      <c r="G30" s="89"/>
-      <c r="H30" s="89"/>
-    </row>
-    <row r="31" spans="1:14">
-      <c r="A31" s="96"/>
-      <c r="B31" s="96"/>
-      <c r="C31" s="89"/>
-      <c r="D31" s="93"/>
-      <c r="E31" s="97"/>
-      <c r="F31" s="92"/>
-      <c r="G31" s="89"/>
-      <c r="H31" s="89"/>
-    </row>
-    <row r="32" spans="1:14">
-      <c r="A32" s="96"/>
-      <c r="B32" s="96"/>
-      <c r="C32" s="89"/>
-      <c r="D32" s="93"/>
-      <c r="E32" s="97"/>
-      <c r="F32" s="92"/>
-      <c r="G32" s="89"/>
-      <c r="H32" s="89"/>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="96"/>
-      <c r="B33" s="96"/>
-      <c r="C33" s="89"/>
-      <c r="D33" s="93"/>
-      <c r="E33" s="97"/>
-      <c r="F33" s="92"/>
-      <c r="G33" s="89"/>
-      <c r="H33" s="89"/>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="96"/>
-      <c r="B34" s="96"/>
-      <c r="C34" s="89"/>
-      <c r="D34" s="93"/>
-      <c r="E34" s="97"/>
-      <c r="F34" s="92"/>
-      <c r="G34" s="89"/>
-      <c r="H34" s="89"/>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="96"/>
-      <c r="B35" s="96"/>
-      <c r="C35" s="89"/>
-      <c r="D35" s="93"/>
-      <c r="E35" s="97"/>
-      <c r="F35" s="92"/>
-      <c r="G35" s="89"/>
-      <c r="H35" s="89"/>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="96"/>
-      <c r="B36" s="96"/>
-      <c r="C36" s="89"/>
-      <c r="D36" s="93"/>
-      <c r="E36" s="97"/>
-      <c r="F36" s="92"/>
-      <c r="G36" s="89"/>
-      <c r="H36" s="89"/>
+    <row r="27" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="88"/>
+      <c r="B27" s="88"/>
+      <c r="C27" s="85"/>
+      <c r="D27" s="90"/>
+      <c r="E27" s="89"/>
+      <c r="F27" s="84"/>
+      <c r="G27" s="85"/>
+      <c r="H27" s="85"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="88"/>
+      <c r="B28" s="88"/>
+      <c r="C28" s="85"/>
+      <c r="D28" s="90"/>
+      <c r="E28" s="89"/>
+      <c r="F28" s="84"/>
+      <c r="G28" s="85"/>
+      <c r="H28" s="85"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="88"/>
+      <c r="B29" s="88"/>
+      <c r="C29" s="85"/>
+      <c r="D29" s="90"/>
+      <c r="E29" s="89"/>
+      <c r="F29" s="84"/>
+      <c r="G29" s="85"/>
+      <c r="H29" s="85"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="88"/>
+      <c r="B30" s="88"/>
+      <c r="C30" s="85"/>
+      <c r="D30" s="90"/>
+      <c r="E30" s="89"/>
+      <c r="F30" s="84"/>
+      <c r="G30" s="85"/>
+      <c r="H30" s="85"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="88"/>
+      <c r="B31" s="88"/>
+      <c r="C31" s="85"/>
+      <c r="D31" s="90"/>
+      <c r="E31" s="89"/>
+      <c r="F31" s="84"/>
+      <c r="G31" s="85"/>
+      <c r="H31" s="85"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="88"/>
+      <c r="B32" s="88"/>
+      <c r="C32" s="85"/>
+      <c r="D32" s="90"/>
+      <c r="E32" s="89"/>
+      <c r="F32" s="84"/>
+      <c r="G32" s="85"/>
+      <c r="H32" s="85"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="88"/>
+      <c r="B33" s="88"/>
+      <c r="C33" s="85"/>
+      <c r="D33" s="90"/>
+      <c r="E33" s="89"/>
+      <c r="F33" s="84"/>
+      <c r="G33" s="85"/>
+      <c r="H33" s="85"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="88"/>
+      <c r="B34" s="88"/>
+      <c r="C34" s="85"/>
+      <c r="D34" s="90"/>
+      <c r="E34" s="89"/>
+      <c r="F34" s="84"/>
+      <c r="G34" s="85"/>
+      <c r="H34" s="85"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="88"/>
+      <c r="B35" s="88"/>
+      <c r="C35" s="85"/>
+      <c r="D35" s="90"/>
+      <c r="E35" s="89"/>
+      <c r="F35" s="84"/>
+      <c r="G35" s="85"/>
+      <c r="H35" s="85"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="88"/>
+      <c r="B36" s="88"/>
+      <c r="C36" s="85"/>
+      <c r="D36" s="90"/>
+      <c r="E36" s="89"/>
+      <c r="F36" s="84"/>
+      <c r="G36" s="85"/>
+      <c r="H36" s="85"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -6649,402 +6577,402 @@
   </sheetPr>
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0" xr3:uid="{1811AD09-42D4-5ED3-9404-4B34E85B0196}">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.76171875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="132" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="132" t="s">
+      <c r="B1" s="109" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="132" t="s">
+      <c r="C1" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="132" t="s">
+      <c r="D1" s="109" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="132" t="s">
+      <c r="E1" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="132" t="s">
+      <c r="F1" s="109" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="128">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="105">
         <v>42900</v>
       </c>
-      <c r="B2" s="129"/>
-      <c r="C2" s="127">
+      <c r="B2" s="106"/>
+      <c r="C2" s="104">
         <f>Etanol[[#This Row],[preço]]*Etanol[[#This Row],[litros]]</f>
         <v>29.999999999999996</v>
       </c>
-      <c r="D2" s="127">
+      <c r="D2" s="104">
         <v>3.29</v>
       </c>
-      <c r="E2" s="130">
+      <c r="E2" s="107">
         <v>9.1185410334346493</v>
       </c>
-      <c r="F2" s="131">
+      <c r="F2" s="108">
         <v>67245</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="128">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="105">
         <v>43006</v>
       </c>
-      <c r="B3" s="129"/>
-      <c r="C3" s="127">
+      <c r="B3" s="106"/>
+      <c r="C3" s="104">
         <f>Etanol[[#This Row],[preço]]*Etanol[[#This Row],[litros]]</f>
         <v>40</v>
       </c>
-      <c r="D3" s="127">
+      <c r="D3" s="104">
         <v>3.25</v>
       </c>
-      <c r="E3" s="130">
+      <c r="E3" s="107">
         <v>12.307692307692308</v>
       </c>
-      <c r="F3" s="131">
+      <c r="F3" s="108">
         <v>69760</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="128">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="105">
         <v>43069</v>
       </c>
-      <c r="B4" s="129"/>
-      <c r="C4" s="127">
+      <c r="B4" s="106"/>
+      <c r="C4" s="104">
         <f>Etanol[[#This Row],[preço]]*Etanol[[#This Row],[litros]]</f>
         <v>40</v>
       </c>
-      <c r="D4" s="127">
+      <c r="D4" s="104">
         <v>3.37</v>
       </c>
-      <c r="E4" s="130">
+      <c r="E4" s="107">
         <v>11.869436201780415</v>
       </c>
-      <c r="F4" s="131"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="128">
+      <c r="F4" s="108"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="105">
         <v>43078</v>
       </c>
-      <c r="B5" s="129"/>
-      <c r="C5" s="127">
+      <c r="B5" s="106"/>
+      <c r="C5" s="104">
         <f>Etanol[[#This Row],[preço]]*Etanol[[#This Row],[litros]]</f>
         <v>40</v>
       </c>
-      <c r="D5" s="127">
+      <c r="D5" s="104">
         <v>3.27</v>
       </c>
-      <c r="E5" s="130">
+      <c r="E5" s="107">
         <v>12.232415902140673</v>
       </c>
-      <c r="F5" s="131"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="128">
+      <c r="F5" s="108"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="105">
         <v>43169</v>
       </c>
-      <c r="B6" s="129"/>
-      <c r="C6" s="127">
+      <c r="B6" s="106"/>
+      <c r="C6" s="104">
         <f>Etanol[[#This Row],[preço]]*Etanol[[#This Row],[litros]]</f>
         <v>40</v>
       </c>
-      <c r="D6" s="127">
+      <c r="D6" s="104">
         <v>3.59</v>
       </c>
-      <c r="E6" s="130">
+      <c r="E6" s="107">
         <v>11.142061281337048</v>
       </c>
-      <c r="F6" s="131"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="128">
+      <c r="F6" s="108"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="105">
         <v>43194</v>
       </c>
-      <c r="B7" s="129"/>
-      <c r="C7" s="127">
+      <c r="B7" s="106"/>
+      <c r="C7" s="104">
         <f>Etanol[[#This Row],[preço]]*Etanol[[#This Row],[litros]]</f>
         <v>40</v>
       </c>
-      <c r="D7" s="127">
+      <c r="D7" s="104">
         <v>3.59</v>
       </c>
-      <c r="E7" s="130">
+      <c r="E7" s="107">
         <v>11.142061281337048</v>
       </c>
-      <c r="F7" s="131"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="128">
+      <c r="F7" s="108"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="105">
         <v>43207</v>
       </c>
-      <c r="B8" s="129"/>
-      <c r="C8" s="127">
+      <c r="B8" s="106"/>
+      <c r="C8" s="104">
         <f>Etanol[[#This Row],[preço]]*Etanol[[#This Row],[litros]]</f>
         <v>20</v>
       </c>
-      <c r="D8" s="127">
+      <c r="D8" s="104">
         <v>3.59</v>
       </c>
-      <c r="E8" s="130">
+      <c r="E8" s="107">
         <v>5.5710306406685239</v>
       </c>
-      <c r="F8" s="131"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="128">
+      <c r="F8" s="108"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="105">
         <v>43222</v>
       </c>
-      <c r="B9" s="129"/>
-      <c r="C9" s="127">
+      <c r="B9" s="106"/>
+      <c r="C9" s="104">
         <f>Etanol[[#This Row],[preço]]*Etanol[[#This Row],[litros]]</f>
         <v>40</v>
       </c>
-      <c r="D9" s="127">
+      <c r="D9" s="104">
         <v>3.59</v>
       </c>
-      <c r="E9" s="130">
+      <c r="E9" s="107">
         <v>11.142061281337048</v>
       </c>
-      <c r="F9" s="131"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="128">
+      <c r="F9" s="108"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="105">
         <v>43243</v>
       </c>
-      <c r="B10" s="129"/>
-      <c r="C10" s="127">
+      <c r="B10" s="106"/>
+      <c r="C10" s="104">
         <f>Etanol[[#This Row],[preço]]*Etanol[[#This Row],[litros]]</f>
         <v>60</v>
       </c>
-      <c r="D10" s="127">
+      <c r="D10" s="104">
         <v>3.59</v>
       </c>
-      <c r="E10" s="130">
+      <c r="E10" s="107">
         <v>16.713091922005571</v>
       </c>
-      <c r="F10" s="131"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="128">
+      <c r="F10" s="108"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="105">
         <v>43263</v>
       </c>
-      <c r="B11" s="129"/>
-      <c r="C11" s="127">
+      <c r="B11" s="106"/>
+      <c r="C11" s="104">
         <f>Etanol[[#This Row],[preço]]*Etanol[[#This Row],[litros]]</f>
         <v>40</v>
       </c>
-      <c r="D11" s="127">
+      <c r="D11" s="104">
         <v>3.67</v>
       </c>
-      <c r="E11" s="130">
+      <c r="E11" s="107">
         <v>10.899182561307903</v>
       </c>
-      <c r="F11" s="131"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="128">
+      <c r="F11" s="108"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="105">
         <v>43290</v>
       </c>
-      <c r="B12" s="129"/>
-      <c r="C12" s="127">
+      <c r="B12" s="106"/>
+      <c r="C12" s="104">
         <f>Etanol[[#This Row],[preço]]*Etanol[[#This Row],[litros]]</f>
         <v>40</v>
       </c>
-      <c r="D12" s="127">
+      <c r="D12" s="104">
         <v>3.69</v>
       </c>
-      <c r="E12" s="130">
+      <c r="E12" s="107">
         <v>10.840108401084011</v>
       </c>
-      <c r="F12" s="131">
+      <c r="F12" s="108">
         <v>76592</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="128">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="105">
         <v>43341</v>
       </c>
-      <c r="B13" s="129"/>
-      <c r="C13" s="127">
+      <c r="B13" s="106"/>
+      <c r="C13" s="104">
         <f>Etanol[[#This Row],[preço]]*Etanol[[#This Row],[litros]]</f>
         <v>55.984000000000002</v>
       </c>
-      <c r="D13" s="127">
+      <c r="D13" s="104">
         <v>3.4990000000000001</v>
       </c>
-      <c r="E13" s="130">
+      <c r="E13" s="107">
         <v>16</v>
       </c>
-      <c r="F13" s="131">
+      <c r="F13" s="108">
         <v>77312</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="128">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="105">
         <v>43349</v>
       </c>
-      <c r="B14" s="129"/>
-      <c r="C14" s="127">
+      <c r="B14" s="106"/>
+      <c r="C14" s="104">
         <f>Etanol[[#This Row],[preço]]*Etanol[[#This Row],[litros]]</f>
         <v>28.72</v>
       </c>
-      <c r="D14" s="127">
+      <c r="D14" s="104">
         <v>3.59</v>
       </c>
-      <c r="E14" s="130">
+      <c r="E14" s="107">
         <v>8</v>
       </c>
-      <c r="F14" s="131">
+      <c r="F14" s="108">
         <v>77437</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="128">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="105">
         <v>43355</v>
       </c>
-      <c r="B15" s="129"/>
-      <c r="C15" s="127">
+      <c r="B15" s="106"/>
+      <c r="C15" s="104">
         <f>Etanol[[#This Row],[preço]]*Etanol[[#This Row],[litros]]</f>
         <v>28.56</v>
       </c>
-      <c r="D15" s="127">
+      <c r="D15" s="104">
         <v>3.57</v>
       </c>
-      <c r="E15" s="130">
+      <c r="E15" s="107">
         <v>8</v>
       </c>
-      <c r="F15" s="131">
+      <c r="F15" s="108">
         <v>78273</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="128">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="105">
         <v>43388</v>
       </c>
-      <c r="B16" s="129"/>
-      <c r="C16" s="127">
+      <c r="B16" s="106"/>
+      <c r="C16" s="104">
         <f>Etanol[[#This Row],[preço]]*Etanol[[#This Row],[litros]]</f>
         <v>56</v>
       </c>
-      <c r="D16" s="127">
+      <c r="D16" s="104">
         <v>3.5</v>
       </c>
-      <c r="E16" s="130">
+      <c r="E16" s="107">
         <v>16</v>
       </c>
-      <c r="F16" s="131">
+      <c r="F16" s="108">
         <v>79364</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="128">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="105">
         <v>43393</v>
       </c>
-      <c r="B17" s="129"/>
-      <c r="C17" s="127">
+      <c r="B17" s="106"/>
+      <c r="C17" s="104">
         <f>Etanol[[#This Row],[preço]]*Etanol[[#This Row],[litros]]</f>
         <v>56.72</v>
       </c>
-      <c r="D17" s="127">
+      <c r="D17" s="104">
         <v>3.5449999999999999</v>
       </c>
-      <c r="E17" s="130">
+      <c r="E17" s="107">
         <v>16</v>
       </c>
-      <c r="F17" s="131">
+      <c r="F17" s="108">
         <v>79498</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="128">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="105">
         <v>43410</v>
       </c>
-      <c r="B18" s="129"/>
-      <c r="C18" s="127">
+      <c r="B18" s="106"/>
+      <c r="C18" s="104">
         <f>Etanol[[#This Row],[preço]]*Etanol[[#This Row],[litros]]</f>
         <v>57.44</v>
       </c>
-      <c r="D18" s="127">
+      <c r="D18" s="104">
         <v>3.59</v>
       </c>
-      <c r="E18" s="130">
+      <c r="E18" s="107">
         <v>16</v>
       </c>
-      <c r="F18" s="131">
+      <c r="F18" s="108">
         <v>79632</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="128">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="105">
         <v>43455</v>
       </c>
-      <c r="B19" s="129">
+      <c r="B19" s="106">
         <v>0.38194444444444442</v>
       </c>
-      <c r="C19" s="127">
+      <c r="C19" s="104">
         <f>Etanol[[#This Row],[preço]]*Etanol[[#This Row],[litros]]</f>
         <v>54.4</v>
       </c>
-      <c r="D19" s="127">
+      <c r="D19" s="104">
         <v>3.4</v>
       </c>
-      <c r="E19" s="130">
+      <c r="E19" s="107">
         <v>16</v>
       </c>
-      <c r="F19" s="131">
+      <c r="F19" s="108">
         <v>80148</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="128">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="105">
         <v>43467</v>
       </c>
-      <c r="B20" s="129">
+      <c r="B20" s="106">
         <v>0.4861111111111111</v>
       </c>
-      <c r="C20" s="127">
+      <c r="C20" s="104">
         <f>Etanol[[#This Row],[preço]]*Etanol[[#This Row],[litros]]</f>
         <v>54.24</v>
       </c>
-      <c r="D20" s="127">
+      <c r="D20" s="104">
         <v>3.39</v>
       </c>
-      <c r="E20" s="130">
+      <c r="E20" s="107">
         <v>16</v>
       </c>
-      <c r="F20" s="131">
+      <c r="F20" s="108">
         <v>81020</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="128">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="105">
         <v>43505</v>
       </c>
-      <c r="B21" s="129">
+      <c r="B21" s="106">
         <v>0.52083333333333337</v>
       </c>
-      <c r="C21" s="127">
+      <c r="C21" s="104">
         <f>Etanol[[#This Row],[preço]]*Etanol[[#This Row],[litros]]</f>
         <v>53.6</v>
       </c>
-      <c r="D21" s="127">
+      <c r="D21" s="104">
         <v>3.35</v>
       </c>
-      <c r="E21" s="130">
+      <c r="E21" s="107">
         <v>16</v>
       </c>
-      <c r="F21" s="131">
+      <c r="F21" s="108">
         <v>81454</v>
       </c>
     </row>

--- a/Aurora.xlsx
+++ b/Aurora.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ec562523a0c953df/Documentos/planilhas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="109" documentId="6_{82169F9A-98EB-4157-8E8A-C317F949519A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{F0CCA967-3522-4ACD-AEAF-141E3F031FAE}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="6_{9B8CFF0F-5B1B-4C73-AFE1-E9D32D72FCEF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{08C05962-F472-4920-B116-D93440187B18}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2270,8 +2270,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{707C8E72-449F-434C-81D2-E6CAE60FDC64}" name="G_20184" displayName="G_20184" ref="A1:G23" tableBorderDxfId="91" dataCellStyle="Normal">
-  <autoFilter ref="A1:G23" xr:uid="{1BB8EF35-A1C5-4DA1-AE25-87B25A5E3E01}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{707C8E72-449F-434C-81D2-E6CAE60FDC64}" name="G_20184" displayName="G_20184" ref="A1:G25" tableBorderDxfId="91" dataCellStyle="Normal">
+  <autoFilter ref="A1:G25" xr:uid="{1BB8EF35-A1C5-4DA1-AE25-87B25A5E3E01}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{359F37B9-9617-418F-81F4-00F8F142D6C9}" name="data" dataDxfId="90" totalsRowDxfId="89" dataCellStyle="Normal"/>
     <tableColumn id="2" xr3:uid="{5B407B50-7529-43FD-BA94-ADB3D3459328}" name="km ini" totalsRowFunction="min" dataDxfId="88" totalsRowDxfId="87" dataCellStyle="Normal"/>
@@ -2686,7 +2686,7 @@
   <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3561,7 +3561,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82D5A34F-EB28-41C8-A1E3-151E9E71FB07}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
@@ -3601,221 +3601,221 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="81">
-        <v>42789</v>
+        <v>42767</v>
       </c>
       <c r="B2">
-        <v>64432</v>
-      </c>
-      <c r="C2" s="1">
-        <v>64569</v>
+        <v>64283</v>
+      </c>
+      <c r="C2">
+        <v>64377</v>
       </c>
       <c r="D2" s="90">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
-        <v>137</v>
+        <v>94</v>
       </c>
       <c r="E2" s="96">
-        <v>125</v>
+        <v>40</v>
       </c>
       <c r="F2" s="96">
-        <v>3.93</v>
+        <v>4.1399999999999997</v>
       </c>
       <c r="G2" s="92">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
-        <v>31.806615776081422</v>
+        <v>9.6618357487922708</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="81">
-        <v>42791</v>
-      </c>
-      <c r="B3" s="1">
-        <v>64947</v>
+        <v>42773</v>
+      </c>
+      <c r="B3">
+        <f>C2</f>
+        <v>64377</v>
       </c>
       <c r="C3">
-        <v>64985</v>
+        <v>64432</v>
       </c>
       <c r="D3" s="90">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="E3" s="96">
         <v>100</v>
       </c>
       <c r="F3" s="96">
-        <v>3.9990000000000001</v>
+        <v>3.97</v>
       </c>
       <c r="G3" s="92">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
-        <v>25.006251562890721</v>
+        <v>25.188916876574307</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="81">
-        <v>42804</v>
+        <v>42789</v>
       </c>
       <c r="B4">
         <f>C3</f>
-        <v>64985</v>
-      </c>
-      <c r="C4">
-        <v>65175</v>
+        <v>64432</v>
+      </c>
+      <c r="C4" s="1">
+        <v>64569</v>
       </c>
       <c r="D4" s="90">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
-        <v>190</v>
+        <v>137</v>
       </c>
       <c r="E4" s="96">
-        <v>165.01</v>
+        <v>125</v>
       </c>
       <c r="F4" s="96">
-        <v>3.9990000000000001</v>
+        <v>3.93</v>
       </c>
       <c r="G4" s="92">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
-        <v>41.26281570392598</v>
+        <v>31.806615776081422</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="81">
-        <v>42816</v>
-      </c>
-      <c r="B5">
-        <v>65574</v>
+        <v>42791</v>
+      </c>
+      <c r="B5" s="1">
+        <v>64947</v>
       </c>
       <c r="C5">
-        <v>65635</v>
+        <v>64985</v>
       </c>
       <c r="D5" s="90">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="E5" s="96">
         <v>100</v>
       </c>
       <c r="F5" s="96">
-        <v>3.84</v>
+        <v>3.9990000000000001</v>
       </c>
       <c r="G5" s="92">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
-        <v>26.041666666666668</v>
+        <v>25.006251562890721</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="81">
-        <v>42836</v>
+        <v>42804</v>
       </c>
       <c r="B6">
         <f>C5</f>
-        <v>65635</v>
-      </c>
-      <c r="C6" s="1">
-        <v>65820</v>
+        <v>64985</v>
+      </c>
+      <c r="C6">
+        <v>65175</v>
       </c>
       <c r="D6" s="90">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="E6" s="96">
-        <v>120</v>
+        <v>165.01</v>
       </c>
       <c r="F6" s="96">
-        <v>3.79</v>
+        <v>3.9990000000000001</v>
       </c>
       <c r="G6" s="92">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
-        <v>31.662269129287598</v>
+        <v>41.26281570392598</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="81">
-        <v>42839</v>
-      </c>
-      <c r="B7" s="1">
-        <v>66204</v>
-      </c>
-      <c r="C7" s="1">
-        <v>66301</v>
+        <v>42816</v>
+      </c>
+      <c r="B7">
+        <v>65574</v>
+      </c>
+      <c r="C7">
+        <v>65635</v>
       </c>
       <c r="D7" s="90">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
+        <v>61</v>
+      </c>
+      <c r="E7" s="96">
+        <v>100</v>
+      </c>
+      <c r="F7" s="96">
+        <v>3.84</v>
+      </c>
+      <c r="G7" s="92">
+        <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
+        <v>26.041666666666668</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="81">
+        <v>42836</v>
+      </c>
+      <c r="B8">
+        <f>C7</f>
+        <v>65635</v>
+      </c>
+      <c r="C8" s="1">
+        <v>65820</v>
+      </c>
+      <c r="D8" s="90">
+        <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
+        <v>185</v>
+      </c>
+      <c r="E8" s="96">
+        <v>120</v>
+      </c>
+      <c r="F8" s="96">
+        <v>3.79</v>
+      </c>
+      <c r="G8" s="92">
+        <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
+        <v>31.662269129287598</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="81">
+        <v>42839</v>
+      </c>
+      <c r="B9" s="1">
+        <v>66204</v>
+      </c>
+      <c r="C9" s="1">
+        <v>66301</v>
+      </c>
+      <c r="D9" s="90">
+        <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
         <v>97</v>
       </c>
-      <c r="E7" s="115">
+      <c r="E9" s="115">
         <v>46.012749999999997</v>
       </c>
-      <c r="F7" s="115">
+      <c r="F9" s="115">
         <v>3.835</v>
       </c>
-      <c r="G7" s="116">
+      <c r="G9" s="116">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>11.998109517601042</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="81">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="81">
         <v>42848</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B10" s="1">
         <v>66672</v>
       </c>
-      <c r="C8">
+      <c r="C10">
         <v>66754</v>
       </c>
-      <c r="D8" s="90">
+      <c r="D10" s="90">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
         <v>82</v>
-      </c>
-      <c r="E8" s="96">
-        <v>80</v>
-      </c>
-      <c r="F8" s="96">
-        <v>3.89</v>
-      </c>
-      <c r="G8" s="92">
-        <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
-        <v>20.565552699228792</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="81">
-        <v>42855</v>
-      </c>
-      <c r="B9">
-        <f>C8</f>
-        <v>66754</v>
-      </c>
-      <c r="C9">
-        <v>66894</v>
-      </c>
-      <c r="D9" s="90">
-        <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
-        <v>140</v>
-      </c>
-      <c r="E9" s="96">
-        <v>100</v>
-      </c>
-      <c r="F9" s="96">
-        <v>3.87</v>
-      </c>
-      <c r="G9" s="92">
-        <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
-        <v>25.839793281653748</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="81">
-        <v>42880</v>
-      </c>
-      <c r="B10">
-        <f>C9</f>
-        <v>66894</v>
-      </c>
-      <c r="C10" s="97">
-        <v>67088</v>
-      </c>
-      <c r="D10" s="90">
-        <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
-        <v>194</v>
       </c>
       <c r="E10" s="96">
         <v>80</v>
@@ -3830,329 +3830,381 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="81">
-        <v>42907</v>
-      </c>
-      <c r="B11" s="97">
-        <v>67245</v>
-      </c>
-      <c r="C11" s="113">
-        <v>67312</v>
+        <v>42855</v>
+      </c>
+      <c r="B11">
+        <f>C10</f>
+        <v>66754</v>
+      </c>
+      <c r="C11">
+        <v>66894</v>
       </c>
       <c r="D11" s="90">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
-        <v>67</v>
+        <v>140</v>
       </c>
       <c r="E11" s="96">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="F11" s="96">
-        <v>3.84</v>
+        <v>3.87</v>
       </c>
       <c r="G11" s="92">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
-        <v>20.833333333333336</v>
+        <v>25.839793281653748</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="81">
-        <v>42940</v>
+        <v>42880</v>
       </c>
       <c r="B12">
         <f>C11</f>
-        <v>67312</v>
-      </c>
-      <c r="C12" s="114">
-        <v>67538</v>
+        <v>66894</v>
+      </c>
+      <c r="C12" s="97">
+        <v>67088</v>
       </c>
       <c r="D12" s="90">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
-        <v>226</v>
+        <v>194</v>
       </c>
       <c r="E12" s="96">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="F12" s="96">
-        <v>4</v>
+        <v>3.89</v>
       </c>
       <c r="G12" s="92">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
-        <v>42.5</v>
+        <v>20.565552699228792</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="81">
-        <v>42946</v>
-      </c>
-      <c r="B13" s="114">
-        <v>67937</v>
-      </c>
-      <c r="C13" s="1">
-        <v>68001</v>
+        <v>42907</v>
+      </c>
+      <c r="B13" s="97">
+        <v>67245</v>
+      </c>
+      <c r="C13" s="113">
+        <v>67312</v>
       </c>
       <c r="D13" s="90">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E13" s="96">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="F13" s="96">
-        <v>3.9</v>
+        <v>3.84</v>
       </c>
       <c r="G13" s="92">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
-        <v>30.76923076923077</v>
+        <v>20.833333333333336</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="81">
-        <v>42950</v>
-      </c>
-      <c r="B14" s="1">
-        <v>68729</v>
-      </c>
-      <c r="C14">
-        <v>68792</v>
+        <v>42940</v>
+      </c>
+      <c r="B14">
+        <f>C13</f>
+        <v>67312</v>
+      </c>
+      <c r="C14" s="114">
+        <v>67538</v>
       </c>
       <c r="D14" s="90">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
-        <v>63</v>
+        <v>226</v>
       </c>
       <c r="E14" s="96">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="F14" s="96">
-        <v>4.1900000000000004</v>
+        <v>4</v>
       </c>
       <c r="G14" s="92">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
-        <v>35.799522673031021</v>
+        <v>42.5</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="81">
-        <v>42961</v>
-      </c>
-      <c r="B15">
-        <f>C14</f>
-        <v>68792</v>
+        <v>42946</v>
+      </c>
+      <c r="B15" s="114">
+        <v>67937</v>
       </c>
       <c r="C15" s="1">
-        <v>68995</v>
+        <v>68001</v>
       </c>
       <c r="D15" s="90">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
-        <v>203</v>
+        <v>64</v>
       </c>
       <c r="E15" s="96">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="F15" s="96">
-        <v>4.1900000000000004</v>
+        <v>3.9</v>
       </c>
       <c r="G15" s="92">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
-        <v>33.41288782816229</v>
+        <v>30.76923076923077</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="81">
-        <v>42970</v>
+        <v>42950</v>
       </c>
       <c r="B16" s="1">
-        <v>69370</v>
+        <v>68729</v>
       </c>
       <c r="C16">
-        <v>69437</v>
+        <v>68792</v>
       </c>
       <c r="D16" s="90">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E16" s="96">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="F16" s="96">
-        <v>3.89</v>
+        <v>4.1900000000000004</v>
       </c>
       <c r="G16" s="92">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
-        <v>20.565552699228792</v>
+        <v>35.799522673031021</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="81">
-        <v>42991</v>
+        <v>42961</v>
       </c>
       <c r="B17">
         <f>C16</f>
-        <v>69437</v>
-      </c>
-      <c r="C17" s="97">
-        <v>69611</v>
+        <v>68792</v>
+      </c>
+      <c r="C17" s="1">
+        <v>68995</v>
       </c>
       <c r="D17" s="90">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
-        <v>174</v>
+        <v>203</v>
       </c>
       <c r="E17" s="96">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="F17" s="96">
         <v>4.1900000000000004</v>
       </c>
       <c r="G17" s="92">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
-        <v>19.093078758949879</v>
+        <v>33.41288782816229</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="81">
-        <v>43020</v>
-      </c>
-      <c r="B18" s="97">
-        <v>69760</v>
+        <v>42970</v>
+      </c>
+      <c r="B18" s="1">
+        <v>69370</v>
       </c>
       <c r="C18">
-        <v>69879</v>
+        <v>69437</v>
       </c>
       <c r="D18" s="90">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
-        <v>119</v>
+        <v>67</v>
       </c>
       <c r="E18" s="96">
         <v>80</v>
       </c>
       <c r="F18" s="96">
-        <v>3.9489999999999998</v>
+        <v>3.89</v>
       </c>
       <c r="G18" s="92">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
-        <v>20.258293238794632</v>
+        <v>20.565552699228792</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="81">
-        <v>43034</v>
+        <v>42991</v>
       </c>
       <c r="B19">
         <f>C18</f>
-        <v>69879</v>
-      </c>
-      <c r="C19" s="1">
-        <v>70001</v>
+        <v>69437</v>
+      </c>
+      <c r="C19" s="97">
+        <v>69611</v>
       </c>
       <c r="D19" s="90">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
-        <v>122</v>
+        <v>174</v>
       </c>
       <c r="E19" s="96">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="F19" s="96">
-        <v>3.9</v>
+        <v>4.1900000000000004</v>
       </c>
       <c r="G19" s="92">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
-        <v>30.76923076923077</v>
+        <v>19.093078758949879</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="81">
-        <v>43042</v>
-      </c>
-      <c r="B20" s="1">
-        <v>70379</v>
-      </c>
-      <c r="C20" s="1">
-        <v>70431</v>
+        <v>43020</v>
+      </c>
+      <c r="B20" s="97">
+        <v>69760</v>
+      </c>
+      <c r="C20">
+        <v>69879</v>
       </c>
       <c r="D20" s="90">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="E20" s="96">
-        <v>158.99</v>
+        <v>80</v>
       </c>
       <c r="F20" s="96">
-        <v>4.09</v>
+        <v>3.9489999999999998</v>
       </c>
       <c r="G20" s="92">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
-        <v>38.872860635696824</v>
+        <v>20.258293238794632</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="81">
-        <v>43057</v>
-      </c>
-      <c r="B21" s="1">
-        <v>70809</v>
-      </c>
-      <c r="C21" s="97">
-        <v>70965</v>
+        <v>43034</v>
+      </c>
+      <c r="B21">
+        <f>C20</f>
+        <v>69879</v>
+      </c>
+      <c r="C21" s="1">
+        <v>70001</v>
       </c>
       <c r="D21" s="90">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
-        <v>156</v>
+        <v>122</v>
       </c>
       <c r="E21" s="96">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="F21" s="96">
-        <v>4.17</v>
+        <v>3.9</v>
       </c>
       <c r="G21" s="92">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
-        <v>19.18465227817746</v>
+        <v>30.76923076923077</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="81">
-        <v>43087</v>
-      </c>
-      <c r="B22" s="97">
-        <v>71109</v>
+        <v>43042</v>
+      </c>
+      <c r="B22" s="1">
+        <v>70379</v>
       </c>
       <c r="C22" s="1">
-        <v>71219</v>
+        <v>70431</v>
       </c>
       <c r="D22" s="90">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
-        <v>110</v>
+        <v>52</v>
       </c>
       <c r="E22" s="96">
-        <v>120.06</v>
+        <v>158.99</v>
       </c>
       <c r="F22" s="96">
-        <v>4.1790000000000003</v>
+        <v>4.09</v>
       </c>
       <c r="G22" s="92">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
-        <v>28.729361091170134</v>
+        <v>38.872860635696824</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="81">
-        <v>43093</v>
+        <v>43057</v>
       </c>
       <c r="B23" s="1">
-        <v>71683</v>
-      </c>
-      <c r="C23">
-        <v>71872</v>
+        <v>70809</v>
+      </c>
+      <c r="C23" s="97">
+        <v>70965</v>
       </c>
       <c r="D23" s="90">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
-        <v>189</v>
+        <v>156</v>
       </c>
       <c r="E23" s="96">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="F23" s="96">
         <v>4.17</v>
       </c>
       <c r="G23" s="92">
+        <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
+        <v>19.18465227817746</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="81">
+        <v>43087</v>
+      </c>
+      <c r="B24" s="97">
+        <v>71109</v>
+      </c>
+      <c r="C24" s="1">
+        <v>71219</v>
+      </c>
+      <c r="D24" s="90">
+        <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
+        <v>110</v>
+      </c>
+      <c r="E24" s="96">
+        <v>120.06</v>
+      </c>
+      <c r="F24" s="96">
+        <v>4.1790000000000003</v>
+      </c>
+      <c r="G24" s="92">
+        <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
+        <v>28.729361091170134</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="81">
+        <v>43093</v>
+      </c>
+      <c r="B25" s="1">
+        <v>71683</v>
+      </c>
+      <c r="C25">
+        <v>71872</v>
+      </c>
+      <c r="D25" s="90">
+        <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
+        <v>189</v>
+      </c>
+      <c r="E25" s="96">
+        <v>120</v>
+      </c>
+      <c r="F25" s="96">
+        <v>4.17</v>
+      </c>
+      <c r="G25" s="92">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>28.776978417266186</v>
       </c>

--- a/Aurora.xlsx
+++ b/Aurora.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ec562523a0c953df/Documentos/planilhas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="6_{9B8CFF0F-5B1B-4C73-AFE1-E9D32D72FCEF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{08C05962-F472-4920-B116-D93440187B18}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="114_{FF1BAE2A-D111-46F0-9180-2E080FD97E3A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <sheet name="viagens" sheetId="5" r:id="rId5"/>
     <sheet name="Etanol" sheetId="8" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" iterate="1" iterateCount="10"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">

--- a/Aurora.xlsx
+++ b/Aurora.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ec562523a0c953df/Documentos/planilhas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="114_{FF1BAE2A-D111-46F0-9180-2E080FD97E3A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="114_{FF1BAE2A-D111-46F0-9180-2E080FD97E3A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{33EBE661-271C-4E75-8BBB-53125F2AC002}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2270,8 +2270,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{707C8E72-449F-434C-81D2-E6CAE60FDC64}" name="G_20184" displayName="G_20184" ref="A1:G25" tableBorderDxfId="91" dataCellStyle="Normal">
-  <autoFilter ref="A1:G25" xr:uid="{1BB8EF35-A1C5-4DA1-AE25-87B25A5E3E01}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{707C8E72-449F-434C-81D2-E6CAE60FDC64}" name="G_20184" displayName="G_20184" ref="A1:G26" tableBorderDxfId="91" dataCellStyle="Normal">
+  <autoFilter ref="A1:G26" xr:uid="{1BB8EF35-A1C5-4DA1-AE25-87B25A5E3E01}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{359F37B9-9617-418F-81F4-00F8F142D6C9}" name="data" dataDxfId="90" totalsRowDxfId="89" dataCellStyle="Normal"/>
     <tableColumn id="2" xr3:uid="{5B407B50-7529-43FD-BA94-ADB3D3459328}" name="km ini" totalsRowFunction="min" dataDxfId="88" totalsRowDxfId="87" dataCellStyle="Normal"/>
@@ -2686,7 +2686,7 @@
   <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3561,7 +3561,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82D5A34F-EB28-41C8-A1E3-151E9E71FB07}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
@@ -3601,610 +3601,636 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="81">
-        <v>42767</v>
+        <v>42744</v>
       </c>
       <c r="B2">
+        <v>64224</v>
+      </c>
+      <c r="C2">
         <v>64283</v>
-      </c>
-      <c r="C2">
-        <v>64377</v>
       </c>
       <c r="D2" s="90">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="E2" s="96">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="F2" s="96">
-        <v>4.1399999999999997</v>
+        <v>3.99</v>
       </c>
       <c r="G2" s="92">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
-        <v>9.6618357487922708</v>
+        <v>20.050125313283207</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="81">
-        <v>42773</v>
+        <v>42767</v>
       </c>
       <c r="B3">
         <f>C2</f>
+        <v>64283</v>
+      </c>
+      <c r="C3">
         <v>64377</v>
-      </c>
-      <c r="C3">
-        <v>64432</v>
       </c>
       <c r="D3" s="90">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="E3" s="96">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="F3" s="96">
-        <v>3.97</v>
+        <v>4.1399999999999997</v>
       </c>
       <c r="G3" s="92">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
-        <v>25.188916876574307</v>
+        <v>9.6618357487922708</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="81">
-        <v>42789</v>
+        <v>42773</v>
       </c>
       <c r="B4">
         <f>C3</f>
+        <v>64377</v>
+      </c>
+      <c r="C4">
         <v>64432</v>
-      </c>
-      <c r="C4" s="1">
-        <v>64569</v>
       </c>
       <c r="D4" s="90">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
-        <v>137</v>
+        <v>55</v>
       </c>
       <c r="E4" s="96">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="F4" s="96">
-        <v>3.93</v>
+        <v>3.97</v>
       </c>
       <c r="G4" s="92">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
-        <v>31.806615776081422</v>
+        <v>25.188916876574307</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="81">
-        <v>42791</v>
-      </c>
-      <c r="B5" s="1">
-        <v>64947</v>
-      </c>
-      <c r="C5">
-        <v>64985</v>
+        <v>42789</v>
+      </c>
+      <c r="B5">
+        <f>C4</f>
+        <v>64432</v>
+      </c>
+      <c r="C5" s="1">
+        <v>64569</v>
       </c>
       <c r="D5" s="90">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
-        <v>38</v>
+        <v>137</v>
       </c>
       <c r="E5" s="96">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="F5" s="96">
-        <v>3.9990000000000001</v>
+        <v>3.93</v>
       </c>
       <c r="G5" s="92">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
-        <v>25.006251562890721</v>
+        <v>31.806615776081422</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="81">
-        <v>42804</v>
-      </c>
-      <c r="B6">
-        <f>C5</f>
+        <v>42791</v>
+      </c>
+      <c r="B6" s="1">
+        <v>64947</v>
+      </c>
+      <c r="C6">
         <v>64985</v>
-      </c>
-      <c r="C6">
-        <v>65175</v>
       </c>
       <c r="D6" s="90">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
-        <v>190</v>
+        <v>38</v>
       </c>
       <c r="E6" s="96">
-        <v>165.01</v>
+        <v>100</v>
       </c>
       <c r="F6" s="96">
         <v>3.9990000000000001</v>
       </c>
       <c r="G6" s="92">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
-        <v>41.26281570392598</v>
+        <v>25.006251562890721</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="81">
-        <v>42816</v>
+        <v>42804</v>
       </c>
       <c r="B7">
-        <v>65574</v>
+        <f>C6</f>
+        <v>64985</v>
       </c>
       <c r="C7">
-        <v>65635</v>
+        <v>65175</v>
       </c>
       <c r="D7" s="90">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
-        <v>61</v>
+        <v>190</v>
       </c>
       <c r="E7" s="96">
-        <v>100</v>
+        <v>165.01</v>
       </c>
       <c r="F7" s="96">
-        <v>3.84</v>
+        <v>3.9990000000000001</v>
       </c>
       <c r="G7" s="92">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
-        <v>26.041666666666668</v>
+        <v>41.26281570392598</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="81">
-        <v>42836</v>
+        <v>42816</v>
       </c>
       <c r="B8">
-        <f>C7</f>
+        <v>65574</v>
+      </c>
+      <c r="C8">
         <v>65635</v>
-      </c>
-      <c r="C8" s="1">
-        <v>65820</v>
       </c>
       <c r="D8" s="90">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
-        <v>185</v>
+        <v>61</v>
       </c>
       <c r="E8" s="96">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="F8" s="96">
-        <v>3.79</v>
+        <v>3.84</v>
       </c>
       <c r="G8" s="92">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
-        <v>31.662269129287598</v>
+        <v>26.041666666666668</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="81">
-        <v>42839</v>
-      </c>
-      <c r="B9" s="1">
-        <v>66204</v>
+        <v>42836</v>
+      </c>
+      <c r="B9">
+        <f>C8</f>
+        <v>65635</v>
       </c>
       <c r="C9" s="1">
-        <v>66301</v>
+        <v>65820</v>
       </c>
       <c r="D9" s="90">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
+        <v>185</v>
+      </c>
+      <c r="E9" s="96">
+        <v>120</v>
+      </c>
+      <c r="F9" s="96">
+        <v>3.79</v>
+      </c>
+      <c r="G9" s="92">
+        <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
+        <v>31.662269129287598</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="81">
+        <v>42839</v>
+      </c>
+      <c r="B10" s="1">
+        <v>66204</v>
+      </c>
+      <c r="C10" s="1">
+        <v>66301</v>
+      </c>
+      <c r="D10" s="90">
+        <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
         <v>97</v>
       </c>
-      <c r="E9" s="115">
+      <c r="E10" s="115">
         <v>46.012749999999997</v>
       </c>
-      <c r="F9" s="115">
+      <c r="F10" s="115">
         <v>3.835</v>
       </c>
-      <c r="G9" s="116">
+      <c r="G10" s="116">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>11.998109517601042</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="81">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="81">
         <v>42848</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B11" s="1">
         <v>66672</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <v>66754</v>
       </c>
-      <c r="D10" s="90">
+      <c r="D11" s="90">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
         <v>82</v>
       </c>
-      <c r="E10" s="96">
+      <c r="E11" s="96">
         <v>80</v>
       </c>
-      <c r="F10" s="96">
+      <c r="F11" s="96">
         <v>3.89</v>
       </c>
-      <c r="G10" s="92">
+      <c r="G11" s="92">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>20.565552699228792</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="81">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="81">
         <v>42855</v>
       </c>
-      <c r="B11">
-        <f>C10</f>
+      <c r="B12">
+        <f>C11</f>
         <v>66754</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <v>66894</v>
       </c>
-      <c r="D11" s="90">
+      <c r="D12" s="90">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
         <v>140</v>
       </c>
-      <c r="E11" s="96">
+      <c r="E12" s="96">
         <v>100</v>
       </c>
-      <c r="F11" s="96">
+      <c r="F12" s="96">
         <v>3.87</v>
       </c>
-      <c r="G11" s="92">
+      <c r="G12" s="92">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>25.839793281653748</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="81">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="81">
         <v>42880</v>
       </c>
-      <c r="B12">
-        <f>C11</f>
+      <c r="B13">
+        <f>C12</f>
         <v>66894</v>
       </c>
-      <c r="C12" s="97">
+      <c r="C13" s="97">
         <v>67088</v>
       </c>
-      <c r="D12" s="90">
+      <c r="D13" s="90">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
         <v>194</v>
       </c>
-      <c r="E12" s="96">
+      <c r="E13" s="96">
         <v>80</v>
       </c>
-      <c r="F12" s="96">
+      <c r="F13" s="96">
         <v>3.89</v>
       </c>
-      <c r="G12" s="92">
+      <c r="G13" s="92">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>20.565552699228792</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="81">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="81">
         <v>42907</v>
       </c>
-      <c r="B13" s="97">
+      <c r="B14" s="97">
         <v>67245</v>
       </c>
-      <c r="C13" s="113">
+      <c r="C14" s="113">
         <v>67312</v>
       </c>
-      <c r="D13" s="90">
+      <c r="D14" s="90">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
         <v>67</v>
       </c>
-      <c r="E13" s="96">
+      <c r="E14" s="96">
         <v>80</v>
       </c>
-      <c r="F13" s="96">
+      <c r="F14" s="96">
         <v>3.84</v>
       </c>
-      <c r="G13" s="92">
+      <c r="G14" s="92">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>20.833333333333336</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="81">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="81">
         <v>42940</v>
       </c>
-      <c r="B14">
-        <f>C13</f>
+      <c r="B15">
+        <f>C14</f>
         <v>67312</v>
       </c>
-      <c r="C14" s="114">
+      <c r="C15" s="114">
         <v>67538</v>
       </c>
-      <c r="D14" s="90">
+      <c r="D15" s="90">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
         <v>226</v>
       </c>
-      <c r="E14" s="96">
+      <c r="E15" s="96">
         <v>170</v>
       </c>
-      <c r="F14" s="96">
+      <c r="F15" s="96">
         <v>4</v>
       </c>
-      <c r="G14" s="92">
+      <c r="G15" s="92">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>42.5</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="81">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="81">
         <v>42946</v>
       </c>
-      <c r="B15" s="114">
+      <c r="B16" s="114">
         <v>67937</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C16" s="1">
         <v>68001</v>
       </c>
-      <c r="D15" s="90">
+      <c r="D16" s="90">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
         <v>64</v>
       </c>
-      <c r="E15" s="96">
+      <c r="E16" s="96">
         <v>120</v>
       </c>
-      <c r="F15" s="96">
+      <c r="F16" s="96">
         <v>3.9</v>
       </c>
-      <c r="G15" s="92">
+      <c r="G16" s="92">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>30.76923076923077</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="81">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="81">
         <v>42950</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B17" s="1">
         <v>68729</v>
       </c>
-      <c r="C16">
+      <c r="C17">
         <v>68792</v>
       </c>
-      <c r="D16" s="90">
+      <c r="D17" s="90">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
         <v>63</v>
       </c>
-      <c r="E16" s="96">
+      <c r="E17" s="96">
         <v>150</v>
       </c>
-      <c r="F16" s="96">
+      <c r="F17" s="96">
         <v>4.1900000000000004</v>
       </c>
-      <c r="G16" s="92">
+      <c r="G17" s="92">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>35.799522673031021</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="81">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="81">
         <v>42961</v>
       </c>
-      <c r="B17">
-        <f>C16</f>
+      <c r="B18">
+        <f>C17</f>
         <v>68792</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C18" s="1">
         <v>68995</v>
       </c>
-      <c r="D17" s="90">
+      <c r="D18" s="90">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
         <v>203</v>
       </c>
-      <c r="E17" s="96">
+      <c r="E18" s="96">
         <v>140</v>
       </c>
-      <c r="F17" s="96">
+      <c r="F18" s="96">
         <v>4.1900000000000004</v>
       </c>
-      <c r="G17" s="92">
+      <c r="G18" s="92">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>33.41288782816229</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="81">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="81">
         <v>42970</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B19" s="1">
         <v>69370</v>
       </c>
-      <c r="C18">
+      <c r="C19">
         <v>69437</v>
       </c>
-      <c r="D18" s="90">
+      <c r="D19" s="90">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
         <v>67</v>
       </c>
-      <c r="E18" s="96">
+      <c r="E19" s="96">
         <v>80</v>
       </c>
-      <c r="F18" s="96">
+      <c r="F19" s="96">
         <v>3.89</v>
       </c>
-      <c r="G18" s="92">
+      <c r="G19" s="92">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>20.565552699228792</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="81">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="81">
         <v>42991</v>
       </c>
-      <c r="B19">
-        <f>C18</f>
+      <c r="B20">
+        <f>C19</f>
         <v>69437</v>
       </c>
-      <c r="C19" s="97">
+      <c r="C20" s="97">
         <v>69611</v>
       </c>
-      <c r="D19" s="90">
+      <c r="D20" s="90">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
         <v>174</v>
       </c>
-      <c r="E19" s="96">
+      <c r="E20" s="96">
         <v>80</v>
       </c>
-      <c r="F19" s="96">
+      <c r="F20" s="96">
         <v>4.1900000000000004</v>
       </c>
-      <c r="G19" s="92">
+      <c r="G20" s="92">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>19.093078758949879</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="81">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="81">
         <v>43020</v>
       </c>
-      <c r="B20" s="97">
+      <c r="B21" s="97">
         <v>69760</v>
       </c>
-      <c r="C20">
+      <c r="C21">
         <v>69879</v>
       </c>
-      <c r="D20" s="90">
+      <c r="D21" s="90">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
         <v>119</v>
       </c>
-      <c r="E20" s="96">
+      <c r="E21" s="96">
         <v>80</v>
       </c>
-      <c r="F20" s="96">
+      <c r="F21" s="96">
         <v>3.9489999999999998</v>
       </c>
-      <c r="G20" s="92">
+      <c r="G21" s="92">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>20.258293238794632</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="81">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="81">
         <v>43034</v>
       </c>
-      <c r="B21">
-        <f>C20</f>
+      <c r="B22">
+        <f>C21</f>
         <v>69879</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C22" s="1">
         <v>70001</v>
       </c>
-      <c r="D21" s="90">
+      <c r="D22" s="90">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
         <v>122</v>
       </c>
-      <c r="E21" s="96">
+      <c r="E22" s="96">
         <v>120</v>
       </c>
-      <c r="F21" s="96">
+      <c r="F22" s="96">
         <v>3.9</v>
       </c>
-      <c r="G21" s="92">
+      <c r="G22" s="92">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>30.76923076923077</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="81">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="81">
         <v>43042</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B23" s="1">
         <v>70379</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C23" s="1">
         <v>70431</v>
       </c>
-      <c r="D22" s="90">
+      <c r="D23" s="90">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
         <v>52</v>
       </c>
-      <c r="E22" s="96">
+      <c r="E23" s="96">
         <v>158.99</v>
       </c>
-      <c r="F22" s="96">
+      <c r="F23" s="96">
         <v>4.09</v>
       </c>
-      <c r="G22" s="92">
+      <c r="G23" s="92">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>38.872860635696824</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="81">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="81">
         <v>43057</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B24" s="1">
         <v>70809</v>
       </c>
-      <c r="C23" s="97">
+      <c r="C24" s="97">
         <v>70965</v>
       </c>
-      <c r="D23" s="90">
+      <c r="D24" s="90">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
         <v>156</v>
       </c>
-      <c r="E23" s="96">
+      <c r="E24" s="96">
         <v>80</v>
       </c>
-      <c r="F23" s="96">
+      <c r="F24" s="96">
         <v>4.17</v>
       </c>
-      <c r="G23" s="92">
+      <c r="G24" s="92">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>19.18465227817746</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="81">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="81">
         <v>43087</v>
       </c>
-      <c r="B24" s="97">
+      <c r="B25" s="97">
         <v>71109</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C25" s="1">
         <v>71219</v>
       </c>
-      <c r="D24" s="90">
+      <c r="D25" s="90">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
         <v>110</v>
       </c>
-      <c r="E24" s="96">
+      <c r="E25" s="96">
         <v>120.06</v>
       </c>
-      <c r="F24" s="96">
+      <c r="F25" s="96">
         <v>4.1790000000000003</v>
       </c>
-      <c r="G24" s="92">
+      <c r="G25" s="92">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>28.729361091170134</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="81">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="81">
         <v>43093</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B26" s="1">
         <v>71683</v>
       </c>
-      <c r="C25">
+      <c r="C26">
         <v>71872</v>
       </c>
-      <c r="D25" s="90">
+      <c r="D26" s="90">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
         <v>189</v>
       </c>
-      <c r="E25" s="96">
+      <c r="E26" s="96">
         <v>120</v>
       </c>
-      <c r="F25" s="96">
+      <c r="F26" s="96">
         <v>4.17</v>
       </c>
-      <c r="G25" s="92">
+      <c r="G26" s="92">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>28.776978417266186</v>
       </c>

--- a/Aurora.xlsx
+++ b/Aurora.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ec562523a0c953df/Documentos/planilhas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="114_{FF1BAE2A-D111-46F0-9180-2E080FD97E3A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{33EBE661-271C-4E75-8BBB-53125F2AC002}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="114_{FF1BAE2A-D111-46F0-9180-2E080FD97E3A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{4F2AD378-A57A-4ECC-B643-6A81B6B0FFCD}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2270,8 +2270,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{707C8E72-449F-434C-81D2-E6CAE60FDC64}" name="G_20184" displayName="G_20184" ref="A1:G26" tableBorderDxfId="91" dataCellStyle="Normal">
-  <autoFilter ref="A1:G26" xr:uid="{1BB8EF35-A1C5-4DA1-AE25-87B25A5E3E01}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{707C8E72-449F-434C-81D2-E6CAE60FDC64}" name="G_20184" displayName="G_20184" ref="A1:G27" tableBorderDxfId="91" dataCellStyle="Normal">
+  <autoFilter ref="A1:G27" xr:uid="{1BB8EF35-A1C5-4DA1-AE25-87B25A5E3E01}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{359F37B9-9617-418F-81F4-00F8F142D6C9}" name="data" dataDxfId="90" totalsRowDxfId="89" dataCellStyle="Normal"/>
     <tableColumn id="2" xr3:uid="{5B407B50-7529-43FD-BA94-ADB3D3459328}" name="km ini" totalsRowFunction="min" dataDxfId="88" totalsRowDxfId="87" dataCellStyle="Normal"/>
@@ -2686,7 +2686,7 @@
   <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3561,7 +3561,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82D5A34F-EB28-41C8-A1E3-151E9E71FB07}">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
@@ -3601,636 +3601,661 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="81">
-        <v>42744</v>
+        <v>42733</v>
       </c>
       <c r="B2">
-        <v>64224</v>
-      </c>
-      <c r="C2">
-        <v>64283</v>
+        <v>63764</v>
+      </c>
+      <c r="C2" s="1">
+        <v>63873</v>
       </c>
       <c r="D2" s="90">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
-        <v>59</v>
+        <v>109</v>
       </c>
       <c r="E2" s="96">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="F2" s="96">
-        <v>3.99</v>
+        <v>3.9990000000000001</v>
       </c>
       <c r="G2" s="92">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
-        <v>20.050125313283207</v>
+        <v>37.50937734433608</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="81">
-        <v>42767</v>
-      </c>
-      <c r="B3">
-        <f>C2</f>
+        <v>42744</v>
+      </c>
+      <c r="B3" s="1">
+        <v>64224</v>
+      </c>
+      <c r="C3">
         <v>64283</v>
-      </c>
-      <c r="C3">
-        <v>64377</v>
       </c>
       <c r="D3" s="90">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="E3" s="96">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="F3" s="96">
-        <v>4.1399999999999997</v>
+        <v>3.99</v>
       </c>
       <c r="G3" s="92">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
-        <v>9.6618357487922708</v>
+        <v>20.050125313283207</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="81">
-        <v>42773</v>
+        <v>42767</v>
       </c>
       <c r="B4">
         <f>C3</f>
+        <v>64283</v>
+      </c>
+      <c r="C4">
         <v>64377</v>
-      </c>
-      <c r="C4">
-        <v>64432</v>
       </c>
       <c r="D4" s="90">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="E4" s="96">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="F4" s="96">
-        <v>3.97</v>
+        <v>4.1399999999999997</v>
       </c>
       <c r="G4" s="92">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
-        <v>25.188916876574307</v>
+        <v>9.6618357487922708</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="81">
-        <v>42789</v>
+        <v>42773</v>
       </c>
       <c r="B5">
         <f>C4</f>
+        <v>64377</v>
+      </c>
+      <c r="C5">
         <v>64432</v>
-      </c>
-      <c r="C5" s="1">
-        <v>64569</v>
       </c>
       <c r="D5" s="90">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
-        <v>137</v>
+        <v>55</v>
       </c>
       <c r="E5" s="96">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="F5" s="96">
-        <v>3.93</v>
+        <v>3.97</v>
       </c>
       <c r="G5" s="92">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
-        <v>31.806615776081422</v>
+        <v>25.188916876574307</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="81">
-        <v>42791</v>
-      </c>
-      <c r="B6" s="1">
-        <v>64947</v>
-      </c>
-      <c r="C6">
-        <v>64985</v>
+        <v>42789</v>
+      </c>
+      <c r="B6">
+        <f>C5</f>
+        <v>64432</v>
+      </c>
+      <c r="C6" s="1">
+        <v>64569</v>
       </c>
       <c r="D6" s="90">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
-        <v>38</v>
+        <v>137</v>
       </c>
       <c r="E6" s="96">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="F6" s="96">
-        <v>3.9990000000000001</v>
+        <v>3.93</v>
       </c>
       <c r="G6" s="92">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
-        <v>25.006251562890721</v>
+        <v>31.806615776081422</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="81">
-        <v>42804</v>
-      </c>
-      <c r="B7">
-        <f>C6</f>
+        <v>42791</v>
+      </c>
+      <c r="B7" s="1">
+        <v>64947</v>
+      </c>
+      <c r="C7">
         <v>64985</v>
-      </c>
-      <c r="C7">
-        <v>65175</v>
       </c>
       <c r="D7" s="90">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
-        <v>190</v>
+        <v>38</v>
       </c>
       <c r="E7" s="96">
-        <v>165.01</v>
+        <v>100</v>
       </c>
       <c r="F7" s="96">
         <v>3.9990000000000001</v>
       </c>
       <c r="G7" s="92">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
-        <v>41.26281570392598</v>
+        <v>25.006251562890721</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="81">
-        <v>42816</v>
+        <v>42804</v>
       </c>
       <c r="B8">
-        <v>65574</v>
+        <f>C7</f>
+        <v>64985</v>
       </c>
       <c r="C8">
-        <v>65635</v>
+        <v>65175</v>
       </c>
       <c r="D8" s="90">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
-        <v>61</v>
+        <v>190</v>
       </c>
       <c r="E8" s="96">
-        <v>100</v>
+        <v>165.01</v>
       </c>
       <c r="F8" s="96">
-        <v>3.84</v>
+        <v>3.9990000000000001</v>
       </c>
       <c r="G8" s="92">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
-        <v>26.041666666666668</v>
+        <v>41.26281570392598</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="81">
-        <v>42836</v>
+        <v>42816</v>
       </c>
       <c r="B9">
-        <f>C8</f>
+        <v>65574</v>
+      </c>
+      <c r="C9">
         <v>65635</v>
-      </c>
-      <c r="C9" s="1">
-        <v>65820</v>
       </c>
       <c r="D9" s="90">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
-        <v>185</v>
+        <v>61</v>
       </c>
       <c r="E9" s="96">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="F9" s="96">
-        <v>3.79</v>
+        <v>3.84</v>
       </c>
       <c r="G9" s="92">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
-        <v>31.662269129287598</v>
+        <v>26.041666666666668</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="81">
-        <v>42839</v>
-      </c>
-      <c r="B10" s="1">
-        <v>66204</v>
+        <v>42836</v>
+      </c>
+      <c r="B10">
+        <f>C9</f>
+        <v>65635</v>
       </c>
       <c r="C10" s="1">
-        <v>66301</v>
+        <v>65820</v>
       </c>
       <c r="D10" s="90">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
+        <v>185</v>
+      </c>
+      <c r="E10" s="96">
+        <v>120</v>
+      </c>
+      <c r="F10" s="96">
+        <v>3.79</v>
+      </c>
+      <c r="G10" s="92">
+        <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
+        <v>31.662269129287598</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="81">
+        <v>42839</v>
+      </c>
+      <c r="B11" s="1">
+        <v>66204</v>
+      </c>
+      <c r="C11" s="1">
+        <v>66301</v>
+      </c>
+      <c r="D11" s="90">
+        <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
         <v>97</v>
       </c>
-      <c r="E10" s="115">
+      <c r="E11" s="115">
         <v>46.012749999999997</v>
       </c>
-      <c r="F10" s="115">
+      <c r="F11" s="115">
         <v>3.835</v>
       </c>
-      <c r="G10" s="116">
+      <c r="G11" s="116">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>11.998109517601042</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="81">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="81">
         <v>42848</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B12" s="1">
         <v>66672</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <v>66754</v>
       </c>
-      <c r="D11" s="90">
+      <c r="D12" s="90">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
         <v>82</v>
       </c>
-      <c r="E11" s="96">
+      <c r="E12" s="96">
         <v>80</v>
       </c>
-      <c r="F11" s="96">
+      <c r="F12" s="96">
         <v>3.89</v>
       </c>
-      <c r="G11" s="92">
+      <c r="G12" s="92">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>20.565552699228792</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="81">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="81">
         <v>42855</v>
       </c>
-      <c r="B12">
-        <f>C11</f>
+      <c r="B13">
+        <f>C12</f>
         <v>66754</v>
       </c>
-      <c r="C12">
+      <c r="C13">
         <v>66894</v>
       </c>
-      <c r="D12" s="90">
+      <c r="D13" s="90">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
         <v>140</v>
       </c>
-      <c r="E12" s="96">
+      <c r="E13" s="96">
         <v>100</v>
       </c>
-      <c r="F12" s="96">
+      <c r="F13" s="96">
         <v>3.87</v>
       </c>
-      <c r="G12" s="92">
+      <c r="G13" s="92">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>25.839793281653748</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="81">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="81">
         <v>42880</v>
       </c>
-      <c r="B13">
-        <f>C12</f>
+      <c r="B14">
+        <f>C13</f>
         <v>66894</v>
       </c>
-      <c r="C13" s="97">
+      <c r="C14" s="97">
         <v>67088</v>
       </c>
-      <c r="D13" s="90">
+      <c r="D14" s="90">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
         <v>194</v>
       </c>
-      <c r="E13" s="96">
+      <c r="E14" s="96">
         <v>80</v>
       </c>
-      <c r="F13" s="96">
+      <c r="F14" s="96">
         <v>3.89</v>
       </c>
-      <c r="G13" s="92">
+      <c r="G14" s="92">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>20.565552699228792</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="81">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="81">
         <v>42907</v>
       </c>
-      <c r="B14" s="97">
+      <c r="B15" s="97">
         <v>67245</v>
       </c>
-      <c r="C14" s="113">
+      <c r="C15" s="113">
         <v>67312</v>
       </c>
-      <c r="D14" s="90">
+      <c r="D15" s="90">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
         <v>67</v>
       </c>
-      <c r="E14" s="96">
+      <c r="E15" s="96">
         <v>80</v>
       </c>
-      <c r="F14" s="96">
+      <c r="F15" s="96">
         <v>3.84</v>
       </c>
-      <c r="G14" s="92">
+      <c r="G15" s="92">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>20.833333333333336</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="81">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="81">
         <v>42940</v>
       </c>
-      <c r="B15">
-        <f>C14</f>
+      <c r="B16">
+        <f>C15</f>
         <v>67312</v>
       </c>
-      <c r="C15" s="114">
+      <c r="C16" s="114">
         <v>67538</v>
       </c>
-      <c r="D15" s="90">
+      <c r="D16" s="90">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
         <v>226</v>
       </c>
-      <c r="E15" s="96">
+      <c r="E16" s="96">
         <v>170</v>
       </c>
-      <c r="F15" s="96">
+      <c r="F16" s="96">
         <v>4</v>
       </c>
-      <c r="G15" s="92">
+      <c r="G16" s="92">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>42.5</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="81">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="81">
         <v>42946</v>
       </c>
-      <c r="B16" s="114">
+      <c r="B17" s="114">
         <v>67937</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C17" s="1">
         <v>68001</v>
       </c>
-      <c r="D16" s="90">
+      <c r="D17" s="90">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
         <v>64</v>
       </c>
-      <c r="E16" s="96">
+      <c r="E17" s="96">
         <v>120</v>
       </c>
-      <c r="F16" s="96">
+      <c r="F17" s="96">
         <v>3.9</v>
       </c>
-      <c r="G16" s="92">
+      <c r="G17" s="92">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>30.76923076923077</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="81">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="81">
         <v>42950</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B18" s="1">
         <v>68729</v>
       </c>
-      <c r="C17">
+      <c r="C18">
         <v>68792</v>
       </c>
-      <c r="D17" s="90">
+      <c r="D18" s="90">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
         <v>63</v>
       </c>
-      <c r="E17" s="96">
+      <c r="E18" s="96">
         <v>150</v>
       </c>
-      <c r="F17" s="96">
+      <c r="F18" s="96">
         <v>4.1900000000000004</v>
       </c>
-      <c r="G17" s="92">
+      <c r="G18" s="92">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>35.799522673031021</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="81">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="81">
         <v>42961</v>
       </c>
-      <c r="B18">
-        <f>C17</f>
+      <c r="B19">
+        <f>C18</f>
         <v>68792</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C19" s="1">
         <v>68995</v>
       </c>
-      <c r="D18" s="90">
+      <c r="D19" s="90">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
         <v>203</v>
       </c>
-      <c r="E18" s="96">
+      <c r="E19" s="96">
         <v>140</v>
       </c>
-      <c r="F18" s="96">
+      <c r="F19" s="96">
         <v>4.1900000000000004</v>
       </c>
-      <c r="G18" s="92">
+      <c r="G19" s="92">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>33.41288782816229</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="81">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="81">
         <v>42970</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B20" s="1">
         <v>69370</v>
       </c>
-      <c r="C19">
+      <c r="C20">
         <v>69437</v>
       </c>
-      <c r="D19" s="90">
+      <c r="D20" s="90">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
         <v>67</v>
       </c>
-      <c r="E19" s="96">
+      <c r="E20" s="96">
         <v>80</v>
       </c>
-      <c r="F19" s="96">
+      <c r="F20" s="96">
         <v>3.89</v>
       </c>
-      <c r="G19" s="92">
+      <c r="G20" s="92">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>20.565552699228792</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="81">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="81">
         <v>42991</v>
       </c>
-      <c r="B20">
-        <f>C19</f>
+      <c r="B21">
+        <f>C20</f>
         <v>69437</v>
       </c>
-      <c r="C20" s="97">
+      <c r="C21" s="97">
         <v>69611</v>
       </c>
-      <c r="D20" s="90">
+      <c r="D21" s="90">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
         <v>174</v>
       </c>
-      <c r="E20" s="96">
+      <c r="E21" s="96">
         <v>80</v>
       </c>
-      <c r="F20" s="96">
+      <c r="F21" s="96">
         <v>4.1900000000000004</v>
       </c>
-      <c r="G20" s="92">
+      <c r="G21" s="92">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>19.093078758949879</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="81">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="81">
         <v>43020</v>
       </c>
-      <c r="B21" s="97">
+      <c r="B22" s="97">
         <v>69760</v>
       </c>
-      <c r="C21">
+      <c r="C22">
         <v>69879</v>
       </c>
-      <c r="D21" s="90">
+      <c r="D22" s="90">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
         <v>119</v>
       </c>
-      <c r="E21" s="96">
+      <c r="E22" s="96">
         <v>80</v>
       </c>
-      <c r="F21" s="96">
+      <c r="F22" s="96">
         <v>3.9489999999999998</v>
       </c>
-      <c r="G21" s="92">
+      <c r="G22" s="92">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>20.258293238794632</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="81">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="81">
         <v>43034</v>
       </c>
-      <c r="B22">
-        <f>C21</f>
+      <c r="B23">
+        <f>C22</f>
         <v>69879</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C23" s="1">
         <v>70001</v>
       </c>
-      <c r="D22" s="90">
+      <c r="D23" s="90">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
         <v>122</v>
       </c>
-      <c r="E22" s="96">
+      <c r="E23" s="96">
         <v>120</v>
       </c>
-      <c r="F22" s="96">
+      <c r="F23" s="96">
         <v>3.9</v>
       </c>
-      <c r="G22" s="92">
+      <c r="G23" s="92">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>30.76923076923077</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="81">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="81">
         <v>43042</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B24" s="1">
         <v>70379</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C24" s="1">
         <v>70431</v>
       </c>
-      <c r="D23" s="90">
+      <c r="D24" s="90">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
         <v>52</v>
       </c>
-      <c r="E23" s="96">
+      <c r="E24" s="96">
         <v>158.99</v>
       </c>
-      <c r="F23" s="96">
+      <c r="F24" s="96">
         <v>4.09</v>
       </c>
-      <c r="G23" s="92">
+      <c r="G24" s="92">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>38.872860635696824</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="81">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="81">
         <v>43057</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B25" s="1">
         <v>70809</v>
       </c>
-      <c r="C24" s="97">
+      <c r="C25" s="97">
         <v>70965</v>
       </c>
-      <c r="D24" s="90">
+      <c r="D25" s="90">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
         <v>156</v>
       </c>
-      <c r="E24" s="96">
+      <c r="E25" s="96">
         <v>80</v>
       </c>
-      <c r="F24" s="96">
+      <c r="F25" s="96">
         <v>4.17</v>
       </c>
-      <c r="G24" s="92">
+      <c r="G25" s="92">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>19.18465227817746</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="81">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="81">
         <v>43087</v>
       </c>
-      <c r="B25" s="97">
+      <c r="B26" s="97">
         <v>71109</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C26" s="1">
         <v>71219</v>
       </c>
-      <c r="D25" s="90">
+      <c r="D26" s="90">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
         <v>110</v>
       </c>
-      <c r="E25" s="96">
+      <c r="E26" s="96">
         <v>120.06</v>
       </c>
-      <c r="F25" s="96">
+      <c r="F26" s="96">
         <v>4.1790000000000003</v>
       </c>
-      <c r="G25" s="92">
+      <c r="G26" s="92">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>28.729361091170134</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="81">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="81">
         <v>43093</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B27" s="1">
         <v>71683</v>
       </c>
-      <c r="C26">
+      <c r="C27">
         <v>71872</v>
       </c>
-      <c r="D26" s="90">
+      <c r="D27" s="90">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
         <v>189</v>
       </c>
-      <c r="E26" s="96">
+      <c r="E27" s="96">
         <v>120</v>
       </c>
-      <c r="F26" s="96">
+      <c r="F27" s="96">
         <v>4.17</v>
       </c>
-      <c r="G26" s="92">
+      <c r="G27" s="92">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>28.776978417266186</v>
       </c>

--- a/Aurora.xlsx
+++ b/Aurora.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ec562523a0c953df/Documentos/planilhas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="114_{FF1BAE2A-D111-46F0-9180-2E080FD97E3A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{4F2AD378-A57A-4ECC-B643-6A81B6B0FFCD}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="6_{C72C01C6-6748-4065-AAF1-B36A9293F136}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{46110114-F69A-4D3E-AF31-74C84CD0D778}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2270,8 +2270,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{707C8E72-449F-434C-81D2-E6CAE60FDC64}" name="G_20184" displayName="G_20184" ref="A1:G27" tableBorderDxfId="91" dataCellStyle="Normal">
-  <autoFilter ref="A1:G27" xr:uid="{1BB8EF35-A1C5-4DA1-AE25-87B25A5E3E01}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{707C8E72-449F-434C-81D2-E6CAE60FDC64}" name="G_20184" displayName="G_20184" ref="A1:G28" tableBorderDxfId="91" dataCellStyle="Normal">
+  <autoFilter ref="A1:G28" xr:uid="{1BB8EF35-A1C5-4DA1-AE25-87B25A5E3E01}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{359F37B9-9617-418F-81F4-00F8F142D6C9}" name="data" dataDxfId="90" totalsRowDxfId="89" dataCellStyle="Normal"/>
     <tableColumn id="2" xr3:uid="{5B407B50-7529-43FD-BA94-ADB3D3459328}" name="km ini" totalsRowFunction="min" dataDxfId="88" totalsRowDxfId="87" dataCellStyle="Normal"/>
@@ -2686,7 +2686,7 @@
   <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3561,7 +3561,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82D5A34F-EB28-41C8-A1E3-151E9E71FB07}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
@@ -3601,661 +3601,687 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="81">
-        <v>42733</v>
+        <v>42728</v>
       </c>
       <c r="B2">
+        <v>63615</v>
+      </c>
+      <c r="C2">
         <v>63764</v>
-      </c>
-      <c r="C2" s="1">
-        <v>63873</v>
       </c>
       <c r="D2" s="90">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
-        <v>109</v>
+        <v>149</v>
       </c>
       <c r="E2" s="96">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="F2" s="96">
         <v>3.9990000000000001</v>
       </c>
       <c r="G2" s="92">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
-        <v>37.50937734433608</v>
+        <v>25.006251562890721</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="81">
-        <v>42744</v>
-      </c>
-      <c r="B3" s="1">
-        <v>64224</v>
-      </c>
-      <c r="C3">
-        <v>64283</v>
+        <v>42733</v>
+      </c>
+      <c r="B3">
+        <f>C2</f>
+        <v>63764</v>
+      </c>
+      <c r="C3" s="1">
+        <v>63873</v>
       </c>
       <c r="D3" s="90">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
-        <v>59</v>
+        <v>109</v>
       </c>
       <c r="E3" s="96">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="F3" s="96">
-        <v>3.99</v>
+        <v>3.9990000000000001</v>
       </c>
       <c r="G3" s="92">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
-        <v>20.050125313283207</v>
+        <v>37.50937734433608</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="81">
-        <v>42767</v>
-      </c>
-      <c r="B4">
-        <f>C3</f>
+        <v>42744</v>
+      </c>
+      <c r="B4" s="1">
+        <v>64224</v>
+      </c>
+      <c r="C4">
         <v>64283</v>
-      </c>
-      <c r="C4">
-        <v>64377</v>
       </c>
       <c r="D4" s="90">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="E4" s="96">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="F4" s="96">
-        <v>4.1399999999999997</v>
+        <v>3.99</v>
       </c>
       <c r="G4" s="92">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
-        <v>9.6618357487922708</v>
+        <v>20.050125313283207</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="81">
-        <v>42773</v>
+        <v>42767</v>
       </c>
       <c r="B5">
         <f>C4</f>
+        <v>64283</v>
+      </c>
+      <c r="C5">
         <v>64377</v>
-      </c>
-      <c r="C5">
-        <v>64432</v>
       </c>
       <c r="D5" s="90">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="E5" s="96">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="F5" s="96">
-        <v>3.97</v>
+        <v>4.1399999999999997</v>
       </c>
       <c r="G5" s="92">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
-        <v>25.188916876574307</v>
+        <v>9.6618357487922708</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="81">
-        <v>42789</v>
+        <v>42773</v>
       </c>
       <c r="B6">
         <f>C5</f>
+        <v>64377</v>
+      </c>
+      <c r="C6">
         <v>64432</v>
-      </c>
-      <c r="C6" s="1">
-        <v>64569</v>
       </c>
       <c r="D6" s="90">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
-        <v>137</v>
+        <v>55</v>
       </c>
       <c r="E6" s="96">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="F6" s="96">
-        <v>3.93</v>
+        <v>3.97</v>
       </c>
       <c r="G6" s="92">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
-        <v>31.806615776081422</v>
+        <v>25.188916876574307</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="81">
-        <v>42791</v>
-      </c>
-      <c r="B7" s="1">
-        <v>64947</v>
-      </c>
-      <c r="C7">
-        <v>64985</v>
+        <v>42789</v>
+      </c>
+      <c r="B7">
+        <f>C6</f>
+        <v>64432</v>
+      </c>
+      <c r="C7" s="1">
+        <v>64569</v>
       </c>
       <c r="D7" s="90">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
-        <v>38</v>
+        <v>137</v>
       </c>
       <c r="E7" s="96">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="F7" s="96">
-        <v>3.9990000000000001</v>
+        <v>3.93</v>
       </c>
       <c r="G7" s="92">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
-        <v>25.006251562890721</v>
+        <v>31.806615776081422</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="81">
-        <v>42804</v>
-      </c>
-      <c r="B8">
-        <f>C7</f>
+        <v>42791</v>
+      </c>
+      <c r="B8" s="1">
+        <v>64947</v>
+      </c>
+      <c r="C8">
         <v>64985</v>
-      </c>
-      <c r="C8">
-        <v>65175</v>
       </c>
       <c r="D8" s="90">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
-        <v>190</v>
+        <v>38</v>
       </c>
       <c r="E8" s="96">
-        <v>165.01</v>
+        <v>100</v>
       </c>
       <c r="F8" s="96">
         <v>3.9990000000000001</v>
       </c>
       <c r="G8" s="92">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
-        <v>41.26281570392598</v>
+        <v>25.006251562890721</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="81">
-        <v>42816</v>
+        <v>42804</v>
       </c>
       <c r="B9">
-        <v>65574</v>
+        <f>C8</f>
+        <v>64985</v>
       </c>
       <c r="C9">
-        <v>65635</v>
+        <v>65175</v>
       </c>
       <c r="D9" s="90">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
-        <v>61</v>
+        <v>190</v>
       </c>
       <c r="E9" s="96">
-        <v>100</v>
+        <v>165.01</v>
       </c>
       <c r="F9" s="96">
-        <v>3.84</v>
+        <v>3.9990000000000001</v>
       </c>
       <c r="G9" s="92">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
-        <v>26.041666666666668</v>
+        <v>41.26281570392598</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="81">
-        <v>42836</v>
+        <v>42816</v>
       </c>
       <c r="B10">
-        <f>C9</f>
+        <v>65574</v>
+      </c>
+      <c r="C10">
         <v>65635</v>
-      </c>
-      <c r="C10" s="1">
-        <v>65820</v>
       </c>
       <c r="D10" s="90">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
-        <v>185</v>
+        <v>61</v>
       </c>
       <c r="E10" s="96">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="F10" s="96">
-        <v>3.79</v>
+        <v>3.84</v>
       </c>
       <c r="G10" s="92">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
-        <v>31.662269129287598</v>
+        <v>26.041666666666668</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="81">
-        <v>42839</v>
-      </c>
-      <c r="B11" s="1">
-        <v>66204</v>
+        <v>42836</v>
+      </c>
+      <c r="B11">
+        <f>C10</f>
+        <v>65635</v>
       </c>
       <c r="C11" s="1">
-        <v>66301</v>
+        <v>65820</v>
       </c>
       <c r="D11" s="90">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
+        <v>185</v>
+      </c>
+      <c r="E11" s="96">
+        <v>120</v>
+      </c>
+      <c r="F11" s="96">
+        <v>3.79</v>
+      </c>
+      <c r="G11" s="92">
+        <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
+        <v>31.662269129287598</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="81">
+        <v>42839</v>
+      </c>
+      <c r="B12" s="1">
+        <v>66204</v>
+      </c>
+      <c r="C12" s="1">
+        <v>66301</v>
+      </c>
+      <c r="D12" s="90">
+        <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
         <v>97</v>
       </c>
-      <c r="E11" s="115">
+      <c r="E12" s="115">
         <v>46.012749999999997</v>
       </c>
-      <c r="F11" s="115">
+      <c r="F12" s="115">
         <v>3.835</v>
       </c>
-      <c r="G11" s="116">
+      <c r="G12" s="116">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>11.998109517601042</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="81">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="81">
         <v>42848</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B13" s="1">
         <v>66672</v>
       </c>
-      <c r="C12">
+      <c r="C13">
         <v>66754</v>
       </c>
-      <c r="D12" s="90">
+      <c r="D13" s="90">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
         <v>82</v>
       </c>
-      <c r="E12" s="96">
+      <c r="E13" s="96">
         <v>80</v>
       </c>
-      <c r="F12" s="96">
+      <c r="F13" s="96">
         <v>3.89</v>
       </c>
-      <c r="G12" s="92">
+      <c r="G13" s="92">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>20.565552699228792</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="81">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="81">
         <v>42855</v>
       </c>
-      <c r="B13">
-        <f>C12</f>
+      <c r="B14">
+        <f>C13</f>
         <v>66754</v>
       </c>
-      <c r="C13">
+      <c r="C14">
         <v>66894</v>
       </c>
-      <c r="D13" s="90">
+      <c r="D14" s="90">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
         <v>140</v>
       </c>
-      <c r="E13" s="96">
+      <c r="E14" s="96">
         <v>100</v>
       </c>
-      <c r="F13" s="96">
+      <c r="F14" s="96">
         <v>3.87</v>
       </c>
-      <c r="G13" s="92">
+      <c r="G14" s="92">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>25.839793281653748</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="81">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="81">
         <v>42880</v>
       </c>
-      <c r="B14">
-        <f>C13</f>
+      <c r="B15">
+        <f>C14</f>
         <v>66894</v>
       </c>
-      <c r="C14" s="97">
+      <c r="C15" s="97">
         <v>67088</v>
       </c>
-      <c r="D14" s="90">
+      <c r="D15" s="90">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
         <v>194</v>
       </c>
-      <c r="E14" s="96">
+      <c r="E15" s="96">
         <v>80</v>
       </c>
-      <c r="F14" s="96">
+      <c r="F15" s="96">
         <v>3.89</v>
       </c>
-      <c r="G14" s="92">
+      <c r="G15" s="92">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>20.565552699228792</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="81">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="81">
         <v>42907</v>
       </c>
-      <c r="B15" s="97">
+      <c r="B16" s="97">
         <v>67245</v>
       </c>
-      <c r="C15" s="113">
+      <c r="C16" s="113">
         <v>67312</v>
       </c>
-      <c r="D15" s="90">
+      <c r="D16" s="90">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
         <v>67</v>
       </c>
-      <c r="E15" s="96">
+      <c r="E16" s="96">
         <v>80</v>
       </c>
-      <c r="F15" s="96">
+      <c r="F16" s="96">
         <v>3.84</v>
       </c>
-      <c r="G15" s="92">
+      <c r="G16" s="92">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>20.833333333333336</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="81">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="81">
         <v>42940</v>
       </c>
-      <c r="B16">
-        <f>C15</f>
+      <c r="B17">
+        <f>C16</f>
         <v>67312</v>
       </c>
-      <c r="C16" s="114">
+      <c r="C17" s="114">
         <v>67538</v>
       </c>
-      <c r="D16" s="90">
+      <c r="D17" s="90">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
         <v>226</v>
       </c>
-      <c r="E16" s="96">
+      <c r="E17" s="96">
         <v>170</v>
       </c>
-      <c r="F16" s="96">
+      <c r="F17" s="96">
         <v>4</v>
       </c>
-      <c r="G16" s="92">
+      <c r="G17" s="92">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>42.5</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="81">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="81">
         <v>42946</v>
       </c>
-      <c r="B17" s="114">
+      <c r="B18" s="114">
         <v>67937</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C18" s="1">
         <v>68001</v>
       </c>
-      <c r="D17" s="90">
+      <c r="D18" s="90">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
         <v>64</v>
       </c>
-      <c r="E17" s="96">
+      <c r="E18" s="96">
         <v>120</v>
       </c>
-      <c r="F17" s="96">
+      <c r="F18" s="96">
         <v>3.9</v>
       </c>
-      <c r="G17" s="92">
+      <c r="G18" s="92">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>30.76923076923077</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="81">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="81">
         <v>42950</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B19" s="1">
         <v>68729</v>
       </c>
-      <c r="C18">
+      <c r="C19">
         <v>68792</v>
       </c>
-      <c r="D18" s="90">
+      <c r="D19" s="90">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
         <v>63</v>
       </c>
-      <c r="E18" s="96">
+      <c r="E19" s="96">
         <v>150</v>
       </c>
-      <c r="F18" s="96">
+      <c r="F19" s="96">
         <v>4.1900000000000004</v>
       </c>
-      <c r="G18" s="92">
+      <c r="G19" s="92">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>35.799522673031021</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="81">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="81">
         <v>42961</v>
       </c>
-      <c r="B19">
-        <f>C18</f>
+      <c r="B20">
+        <f>C19</f>
         <v>68792</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C20" s="1">
         <v>68995</v>
       </c>
-      <c r="D19" s="90">
+      <c r="D20" s="90">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
         <v>203</v>
       </c>
-      <c r="E19" s="96">
+      <c r="E20" s="96">
         <v>140</v>
       </c>
-      <c r="F19" s="96">
+      <c r="F20" s="96">
         <v>4.1900000000000004</v>
       </c>
-      <c r="G19" s="92">
+      <c r="G20" s="92">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>33.41288782816229</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="81">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="81">
         <v>42970</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B21" s="1">
         <v>69370</v>
       </c>
-      <c r="C20">
+      <c r="C21">
         <v>69437</v>
       </c>
-      <c r="D20" s="90">
+      <c r="D21" s="90">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
         <v>67</v>
       </c>
-      <c r="E20" s="96">
+      <c r="E21" s="96">
         <v>80</v>
       </c>
-      <c r="F20" s="96">
+      <c r="F21" s="96">
         <v>3.89</v>
       </c>
-      <c r="G20" s="92">
+      <c r="G21" s="92">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>20.565552699228792</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="81">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="81">
         <v>42991</v>
       </c>
-      <c r="B21">
-        <f>C20</f>
+      <c r="B22">
+        <f>C21</f>
         <v>69437</v>
       </c>
-      <c r="C21" s="97">
+      <c r="C22" s="97">
         <v>69611</v>
       </c>
-      <c r="D21" s="90">
+      <c r="D22" s="90">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
         <v>174</v>
       </c>
-      <c r="E21" s="96">
+      <c r="E22" s="96">
         <v>80</v>
       </c>
-      <c r="F21" s="96">
+      <c r="F22" s="96">
         <v>4.1900000000000004</v>
       </c>
-      <c r="G21" s="92">
+      <c r="G22" s="92">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>19.093078758949879</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="81">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="81">
         <v>43020</v>
       </c>
-      <c r="B22" s="97">
+      <c r="B23" s="97">
         <v>69760</v>
       </c>
-      <c r="C22">
+      <c r="C23">
         <v>69879</v>
       </c>
-      <c r="D22" s="90">
+      <c r="D23" s="90">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
         <v>119</v>
       </c>
-      <c r="E22" s="96">
+      <c r="E23" s="96">
         <v>80</v>
       </c>
-      <c r="F22" s="96">
+      <c r="F23" s="96">
         <v>3.9489999999999998</v>
       </c>
-      <c r="G22" s="92">
+      <c r="G23" s="92">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>20.258293238794632</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="81">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="81">
         <v>43034</v>
       </c>
-      <c r="B23">
-        <f>C22</f>
+      <c r="B24">
+        <f>C23</f>
         <v>69879</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C24" s="1">
         <v>70001</v>
       </c>
-      <c r="D23" s="90">
+      <c r="D24" s="90">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
         <v>122</v>
       </c>
-      <c r="E23" s="96">
+      <c r="E24" s="96">
         <v>120</v>
       </c>
-      <c r="F23" s="96">
+      <c r="F24" s="96">
         <v>3.9</v>
       </c>
-      <c r="G23" s="92">
+      <c r="G24" s="92">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>30.76923076923077</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="81">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="81">
         <v>43042</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B25" s="1">
         <v>70379</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C25" s="1">
         <v>70431</v>
       </c>
-      <c r="D24" s="90">
+      <c r="D25" s="90">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
         <v>52</v>
       </c>
-      <c r="E24" s="96">
+      <c r="E25" s="96">
         <v>158.99</v>
       </c>
-      <c r="F24" s="96">
+      <c r="F25" s="96">
         <v>4.09</v>
       </c>
-      <c r="G24" s="92">
+      <c r="G25" s="92">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>38.872860635696824</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="81">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="81">
         <v>43057</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B26" s="1">
         <v>70809</v>
       </c>
-      <c r="C25" s="97">
+      <c r="C26" s="97">
         <v>70965</v>
       </c>
-      <c r="D25" s="90">
+      <c r="D26" s="90">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
         <v>156</v>
       </c>
-      <c r="E25" s="96">
+      <c r="E26" s="96">
         <v>80</v>
       </c>
-      <c r="F25" s="96">
+      <c r="F26" s="96">
         <v>4.17</v>
       </c>
-      <c r="G25" s="92">
+      <c r="G26" s="92">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>19.18465227817746</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="81">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="81">
         <v>43087</v>
       </c>
-      <c r="B26" s="97">
+      <c r="B27" s="97">
         <v>71109</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C27" s="1">
         <v>71219</v>
       </c>
-      <c r="D26" s="90">
+      <c r="D27" s="90">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
         <v>110</v>
       </c>
-      <c r="E26" s="96">
+      <c r="E27" s="96">
         <v>120.06</v>
       </c>
-      <c r="F26" s="96">
+      <c r="F27" s="96">
         <v>4.1790000000000003</v>
       </c>
-      <c r="G26" s="92">
+      <c r="G27" s="92">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>28.729361091170134</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="81">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="81">
         <v>43093</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B28" s="1">
         <v>71683</v>
       </c>
-      <c r="C27">
+      <c r="C28">
         <v>71872</v>
       </c>
-      <c r="D27" s="90">
+      <c r="D28" s="90">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
         <v>189</v>
       </c>
-      <c r="E27" s="96">
+      <c r="E28" s="96">
         <v>120</v>
       </c>
-      <c r="F27" s="96">
+      <c r="F28" s="96">
         <v>4.17</v>
       </c>
-      <c r="G27" s="92">
+      <c r="G28" s="92">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>28.776978417266186</v>
       </c>

--- a/Aurora.xlsx
+++ b/Aurora.xlsx
@@ -8,17 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ec562523a0c953df/Documentos/planilhas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="6_{C72C01C6-6748-4065-AAF1-B36A9293F136}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{46110114-F69A-4D3E-AF31-74C84CD0D778}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="6_{705B49AA-CB81-4D45-8E43-6C84CB649A8A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="2017.1" sheetId="1" r:id="rId1"/>
-    <sheet name="2017" sheetId="10" r:id="rId2"/>
-    <sheet name="2018" sheetId="7" r:id="rId3"/>
-    <sheet name="2019" sheetId="9" r:id="rId4"/>
-    <sheet name="viagens" sheetId="5" r:id="rId5"/>
-    <sheet name="Etanol" sheetId="8" r:id="rId6"/>
+    <sheet name="2017" sheetId="10" r:id="rId1"/>
+    <sheet name="2018" sheetId="7" r:id="rId2"/>
+    <sheet name="2019" sheetId="9" r:id="rId3"/>
+    <sheet name="viagens" sheetId="5" r:id="rId4"/>
+    <sheet name="Etanol" sheetId="8" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191028" iterate="1" iterateCount="10"/>
   <fileRecoveryPr autoRecover="0"/>
@@ -36,250 +35,16 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Manoel J. de Lima Neto</author>
-  </authors>
-  <commentList>
-    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t>Manoel J. de Lima Neto:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-I quantidade de km rodados sobre a quantidade de combustível, levando em conta o combustível residual
-II consumo calculado até o abastecimento</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t>Manoel J. de Lima Neto:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t>Iguatu</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> 13:38 - </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Fortaleza </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t>18:25</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t>Manoel J. de Lima Neto:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Iguatu 8 h - Fortaleza 12:30 3/1/17</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t>Manoel J. de Lima Neto:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Fortaleza 8:17 - Iguatu 12:57</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t>Manoel J. de Lima Neto:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Fortaleza 7:19 - Iguatu 12:39 
-P</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t>Manoel J. de Lima Neto:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Fortaleza 7:19 - Iguatu 12:39 
-P</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="31">
-  <si>
-    <t>janeiro</t>
-  </si>
-  <si>
-    <t>fevereiro</t>
-  </si>
-  <si>
-    <t>março</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="18">
   <si>
     <t>data</t>
-  </si>
-  <si>
-    <t>valor (R$)</t>
-  </si>
-  <si>
-    <t>R$/L</t>
   </si>
   <si>
     <t>km</t>
   </si>
   <si>
     <t>litros</t>
-  </si>
-  <si>
-    <t>gasto</t>
-  </si>
-  <si>
-    <t>Gasto (R$)</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>Litros</t>
-  </si>
-  <si>
-    <t>Distância (km)</t>
-  </si>
-  <si>
-    <t>abril</t>
-  </si>
-  <si>
-    <t>maio</t>
-  </si>
-  <si>
-    <t>junho</t>
   </si>
   <si>
     <t>valor</t>
@@ -337,20 +102,7 @@
     <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="167" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -373,83 +125,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Constantia"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri Light"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="0"/>
-      <name val="Calibri Light"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="0"/>
-      <name val="Constantia"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="0"/>
-      <name val="Constantia"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="0"/>
-      <name val="Calibri Light"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="9" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="9" tint="-0.499984740745262"/>
-      <name val="Constantia"/>
-      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -502,81 +180,15 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF002060"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7030A0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="8">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -584,331 +196,14 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="5" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="5" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="5" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="10" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="10" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="10" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="11" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="11" borderId="0" xfId="6" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="5" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="12" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="12" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="11" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="11" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="10" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="11" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="10" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="10" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="5" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="9" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="9" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="9" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="9" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="9" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="9" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="9" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="9" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="9" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="9" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="9" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="9" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="9" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="9" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="5" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="16" fillId="5" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="16" fillId="5" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="16" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="16" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="16" fillId="5" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="5" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -918,7 +213,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -939,46 +234,46 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -987,31 +282,22 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="20% - Ênfase4" xfId="3" builtinId="42"/>
-    <cellStyle name="20% - Ênfase5" xfId="4" builtinId="46"/>
-    <cellStyle name="20% - Ênfase6" xfId="1" builtinId="50"/>
-    <cellStyle name="40% - Ênfase4" xfId="6" builtinId="43"/>
-    <cellStyle name="40% - Ênfase5" xfId="5" builtinId="47"/>
-    <cellStyle name="40% - Ênfase6" xfId="2" builtinId="51"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="92">
@@ -2682,889 +1968,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T21"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" customWidth="1"/>
-    <col min="3" max="3" width="6" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" customWidth="1"/>
-    <col min="5" max="5" width="7" customWidth="1"/>
-    <col min="6" max="6" width="6.85546875" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" customWidth="1"/>
-    <col min="9" max="9" width="6" customWidth="1"/>
-    <col min="10" max="10" width="5.7109375" customWidth="1"/>
-    <col min="11" max="11" width="7" customWidth="1"/>
-    <col min="12" max="12" width="6.85546875" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" customWidth="1"/>
-    <col min="15" max="15" width="6" customWidth="1"/>
-    <col min="16" max="16" width="6.28515625" customWidth="1"/>
-    <col min="17" max="17" width="7" customWidth="1"/>
-    <col min="18" max="18" width="7.140625" customWidth="1"/>
-    <col min="19" max="19" width="16.7109375" customWidth="1"/>
-    <col min="20" max="20" width="16.42578125" customWidth="1"/>
-    <col min="21" max="21" width="10.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="117" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="117"/>
-      <c r="I1" s="117"/>
-      <c r="J1" s="117"/>
-      <c r="K1" s="117"/>
-      <c r="L1" s="117"/>
-      <c r="M1" s="117" t="s">
-        <v>2</v>
-      </c>
-      <c r="N1" s="117"/>
-      <c r="O1" s="117"/>
-      <c r="P1" s="117"/>
-      <c r="Q1" s="117"/>
-      <c r="R1" s="117"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-    </row>
-    <row r="2" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="R2" s="57" t="s">
-        <v>8</v>
-      </c>
-      <c r="S2" s="56" t="s">
-        <v>9</v>
-      </c>
-      <c r="T2" s="27">
-        <f>SUM(B8,H8,N8,B9,H9,N9)</f>
-        <v>1767.03</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="18">
-        <v>42726</v>
-      </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="38">
-        <v>63615</v>
-      </c>
-      <c r="E3" s="82">
-        <v>6</v>
-      </c>
-      <c r="F3" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="11">
-        <v>42767</v>
-      </c>
-      <c r="H3" s="14">
-        <v>40</v>
-      </c>
-      <c r="I3" s="15">
-        <v>4.1399999999999997</v>
-      </c>
-      <c r="J3" s="46">
-        <f>64377-SUM($D$3:D7)</f>
-        <v>94</v>
-      </c>
-      <c r="K3" s="52">
-        <f>PRODUCT(H3,1/I3)</f>
-        <v>9.6618357487922708</v>
-      </c>
-      <c r="L3" s="32">
-        <f>J4/K3</f>
-        <v>5.6924999999999999</v>
-      </c>
-      <c r="M3" s="10">
-        <v>42804</v>
-      </c>
-      <c r="N3" s="12">
-        <v>165.01</v>
-      </c>
-      <c r="O3" s="13">
-        <v>3.9990000000000001</v>
-      </c>
-      <c r="P3" s="47">
-        <f>65175-(SUM($D$3:$D$7)+SUM($J$3:$J$7))</f>
-        <v>190</v>
-      </c>
-      <c r="Q3" s="54">
-        <f>PRODUCT(N3,1/O3)</f>
-        <v>41.26281570392598</v>
-      </c>
-      <c r="R3" s="58">
-        <f>P4/(Q3-9.5)</f>
-        <v>12.561858612260323</v>
-      </c>
-      <c r="S3" s="56" t="s">
-        <v>11</v>
-      </c>
-      <c r="T3" s="27">
-        <f>SUM(E8,K8,Q8,Q9,K9,E9)</f>
-        <v>427.43246153059158</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>42728</v>
-      </c>
-      <c r="B4" s="3">
-        <v>100</v>
-      </c>
-      <c r="C4" s="4">
-        <v>3.9990000000000001</v>
-      </c>
-      <c r="D4" s="39">
-        <f>63764-$D$3</f>
-        <v>149</v>
-      </c>
-      <c r="E4" s="50">
-        <f>PRODUCT(B4,1/C4)</f>
-        <v>25.006251562890725</v>
-      </c>
-      <c r="F4" s="30">
-        <f>(D5)/(E4-(15))</f>
-        <v>10.89319005372985</v>
-      </c>
-      <c r="G4" s="11">
-        <v>42773</v>
-      </c>
-      <c r="H4" s="14">
-        <v>100</v>
-      </c>
-      <c r="I4" s="15">
-        <v>3.97</v>
-      </c>
-      <c r="J4" s="46">
-        <f>64432-(SUM($D$3:$D$7,J3))</f>
-        <v>55</v>
-      </c>
-      <c r="K4" s="52">
-        <f>PRODUCT(H4,1/I4)</f>
-        <v>25.188916876574307</v>
-      </c>
-      <c r="L4" s="32">
-        <f>J5/(K4 -6)</f>
-        <v>7.1395379364662643</v>
-      </c>
-      <c r="M4" s="21">
-        <v>42806</v>
-      </c>
-      <c r="N4" s="22"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="48">
-        <f>65574-(SUM($D$3:$D$7)+SUM($J$3:$J$7)+SUM($P$3))</f>
-        <v>399</v>
-      </c>
-      <c r="Q4" s="55"/>
-      <c r="R4" s="59">
-        <f>P5/9.5</f>
-        <v>6.4210526315789478</v>
-      </c>
-      <c r="S4" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="T4" s="28">
-        <f>SUM(D8,J8,P8,D9,J9,P9)</f>
-        <v>3651.8397932816538</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>42733</v>
-      </c>
-      <c r="B5" s="3">
-        <v>150</v>
-      </c>
-      <c r="C5" s="4">
-        <v>3.9990000000000001</v>
-      </c>
-      <c r="D5" s="39">
-        <f>63873-SUM($D$3:D4)</f>
-        <v>109</v>
-      </c>
-      <c r="E5" s="50">
-        <f>PRODUCT(B5,1/C5)</f>
-        <v>37.509377344336087</v>
-      </c>
-      <c r="F5" s="31">
-        <f>(D6)/27</f>
-        <v>13</v>
-      </c>
-      <c r="G5" s="11">
-        <v>42789</v>
-      </c>
-      <c r="H5" s="14">
-        <v>125</v>
-      </c>
-      <c r="I5" s="15">
-        <v>3.93</v>
-      </c>
-      <c r="J5" s="46">
-        <f>64569-(SUM($D$3:$D$7)+(SUM(J$3:J4)))</f>
-        <v>137</v>
-      </c>
-      <c r="K5" s="52">
-        <f>PRODUCT(H5,1/I5)</f>
-        <v>31.806615776081426</v>
-      </c>
-      <c r="L5" s="41">
-        <f>J6/(K5 +6 -10)</f>
-        <v>13.593887262079061</v>
-      </c>
-      <c r="M5" s="10">
-        <v>42816</v>
-      </c>
-      <c r="N5" s="12">
-        <v>100</v>
-      </c>
-      <c r="O5" s="13">
-        <v>3.84</v>
-      </c>
-      <c r="P5" s="47">
-        <f>65635-(SUM($D$3:$D$7)+SUM($J$3:$J$7)+SUM($P$3:$P$4))</f>
-        <v>61</v>
-      </c>
-      <c r="Q5" s="54">
-        <f>PRODUCT(N5,1/O5)</f>
-        <v>26.041666666666668</v>
-      </c>
-      <c r="R5" s="30">
-        <f>P6/Q5</f>
-        <v>7.1040000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16">
-        <v>42737</v>
-      </c>
-      <c r="B6" s="17">
-        <v>75</v>
-      </c>
-      <c r="C6" s="20">
-        <v>3.9990000000000001</v>
-      </c>
-      <c r="D6" s="40">
-        <f>64224-SUM($D$3:D5)</f>
-        <v>351</v>
-      </c>
-      <c r="E6" s="51">
-        <f>PRODUCT(B6,1/C6)</f>
-        <v>18.754688672168044</v>
-      </c>
-      <c r="F6" s="30">
-        <f>(D7)/(21-($E$3))</f>
-        <v>3.9333333333333331</v>
-      </c>
-      <c r="G6" s="25">
-        <v>42790</v>
-      </c>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="45">
-        <f>64947-(SUM($D$3:$D$7)+(SUM(J$3:J5)))</f>
-        <v>378</v>
-      </c>
-      <c r="K6" s="53"/>
-      <c r="L6" s="32">
-        <f>J7/(K5 +6-28)</f>
-        <v>3.8749351323300449</v>
-      </c>
-      <c r="M6" s="2">
-        <v>42836</v>
-      </c>
-      <c r="N6" s="3">
-        <v>120</v>
-      </c>
-      <c r="O6" s="5">
-        <v>3.79</v>
-      </c>
-      <c r="P6" s="49">
-        <f>65820-(SUM($D$3:$D$7)+SUM($J$3:$J$7)+SUM($P$3:$P$5))</f>
-        <v>185</v>
-      </c>
-      <c r="Q6" s="33">
-        <f>PRODUCT(N6,1/O6)</f>
-        <v>31.662269129287598</v>
-      </c>
-      <c r="R6" s="34">
-        <f>D14/(Q6-6)</f>
-        <v>14.963602714373843</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>42744</v>
-      </c>
-      <c r="B7" s="3">
-        <v>80</v>
-      </c>
-      <c r="C7" s="5">
-        <v>3.99</v>
-      </c>
-      <c r="D7" s="39">
-        <f>64283-SUM($D$3:D6)</f>
-        <v>59</v>
-      </c>
-      <c r="E7" s="50">
-        <f>PRODUCT(B7,1/C7)</f>
-        <v>20.050125313283207</v>
-      </c>
-      <c r="F7" s="32">
-        <f>J3/E7</f>
-        <v>4.68825</v>
-      </c>
-      <c r="G7" s="11">
-        <v>42791</v>
-      </c>
-      <c r="H7" s="14">
-        <v>100</v>
-      </c>
-      <c r="I7" s="15">
-        <v>3.9990000000000001</v>
-      </c>
-      <c r="J7" s="46">
-        <f>64985-(SUM($D$3:$D$7)+(SUM(J$3:J6)))</f>
-        <v>38</v>
-      </c>
-      <c r="K7" s="52">
-        <f>PRODUCT(H7,1/I7)</f>
-        <v>25.006251562890725</v>
-      </c>
-      <c r="L7" s="42">
-        <f>P3/K7</f>
-        <v>7.5980999999999996</v>
-      </c>
-      <c r="M7" s="26"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="47"/>
-      <c r="Q7" s="54"/>
-      <c r="R7" s="42"/>
-    </row>
-    <row r="8" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="66"/>
-      <c r="B8" s="67">
-        <f>SUM(B4:B7)</f>
-        <v>405</v>
-      </c>
-      <c r="C8" s="66">
-        <f>AVERAGE(C4:C7)</f>
-        <v>3.99675</v>
-      </c>
-      <c r="D8" s="68">
-        <f>SUM(D4:D7)</f>
-        <v>668</v>
-      </c>
-      <c r="E8" s="69">
-        <f>SUM(E4:E6)</f>
-        <v>81.270317579394856</v>
-      </c>
-      <c r="F8" s="72"/>
-      <c r="G8" s="71"/>
-      <c r="H8" s="67">
-        <f>SUM(H3:H7)</f>
-        <v>365</v>
-      </c>
-      <c r="I8" s="66">
-        <f>AVERAGE(I3:I5,I7)</f>
-        <v>4.0097499999999995</v>
-      </c>
-      <c r="J8" s="68">
-        <f>SUM(J3:J7)</f>
-        <v>702</v>
-      </c>
-      <c r="K8" s="69">
-        <f>SUM(K3:K5,E7)</f>
-        <v>86.707493714731214</v>
-      </c>
-      <c r="L8" s="72"/>
-      <c r="M8" s="71"/>
-      <c r="N8" s="67">
-        <f>SUM(N3:N7)</f>
-        <v>385.01</v>
-      </c>
-      <c r="O8" s="66">
-        <f>AVERAGE(O3,O5)</f>
-        <v>3.9195000000000002</v>
-      </c>
-      <c r="P8" s="73">
-        <f>SUM(P3:P5)</f>
-        <v>650</v>
-      </c>
-      <c r="Q8" s="70">
-        <f>SUM(Q3,K7)</f>
-        <v>66.269067266816705</v>
-      </c>
-      <c r="R8" s="72"/>
-    </row>
-    <row r="9" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="60"/>
-      <c r="B9" s="61">
-        <f>SUM(B10:B14,H14)</f>
-        <v>332.02</v>
-      </c>
-      <c r="C9" s="60">
-        <f>AVERAGE(C10:C14,O6,I14)</f>
-        <v>3.8572500000000005</v>
-      </c>
-      <c r="D9" s="62">
-        <f>SUM(D10:D14,P6,K14)</f>
-        <v>1144.8397932816538</v>
-      </c>
-      <c r="E9" s="63">
-        <f>SUM(E10:E14,Q5,K14)</f>
-        <v>111.63752566636848</v>
-      </c>
-      <c r="F9" s="72"/>
-      <c r="G9" s="65"/>
-      <c r="H9" s="67">
-        <f>SUM(H10:H13)</f>
-        <v>80</v>
-      </c>
-      <c r="I9" s="66">
-        <f>AVERAGE(I10:I13)</f>
-        <v>3.89</v>
-      </c>
-      <c r="J9" s="67">
-        <f>SUM(J10:J13)</f>
-        <v>194</v>
-      </c>
-      <c r="K9" s="66">
-        <f>SUM(K10:K13)</f>
-        <v>20.565552699228789</v>
-      </c>
-      <c r="L9" s="72"/>
-      <c r="M9" s="65"/>
-      <c r="N9" s="67">
-        <f>SUM(N10:N13)</f>
-        <v>200</v>
-      </c>
-      <c r="O9" s="66">
-        <f>AVERAGE(O10:O13)</f>
-        <v>3.73</v>
-      </c>
-      <c r="P9" s="67">
-        <f>SUM(P10:P13)</f>
-        <v>293</v>
-      </c>
-      <c r="Q9" s="64">
-        <f>SUM(Q10:Q13)</f>
-        <v>60.98250460405157</v>
-      </c>
-      <c r="R9" s="64"/>
-    </row>
-    <row r="10" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>42848</v>
-      </c>
-      <c r="B10" s="3">
-        <v>80</v>
-      </c>
-      <c r="C10" s="5">
-        <v>3.89</v>
-      </c>
-      <c r="D10" s="39">
-        <f>66754-(SUM($D$3:$D$7)+SUM($J$3:$J$7)+SUM($P$3:$P$6)+SUM($D$11:$D$14))</f>
-        <v>82</v>
-      </c>
-      <c r="E10" s="50">
-        <f>PRODUCT(B10,1/C10)</f>
-        <v>20.565552699228789</v>
-      </c>
-      <c r="F10" s="30">
-        <f>J14/E10</f>
-        <v>6.807500000000001</v>
-      </c>
-      <c r="G10" s="11"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="46"/>
-      <c r="K10" s="44"/>
-      <c r="L10" s="43"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="40"/>
-      <c r="Q10" s="37"/>
-      <c r="R10" s="30"/>
-    </row>
-    <row r="11" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="16">
-        <v>42841</v>
-      </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="40">
-        <f>66672-(SUM($D$3:$D$7)+SUM($J$3:$J$7)+SUM($P$3:$P$6)+SUM($D$12:$D$14))</f>
-        <v>371</v>
-      </c>
-      <c r="E11" s="37"/>
-      <c r="F11" s="35">
-        <f>D10/10</f>
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="G11" s="11"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="46"/>
-      <c r="K11" s="44"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="2">
-        <v>42937</v>
-      </c>
-      <c r="N11" s="3"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="39">
-        <f>67538-(SUM($D$3:$D$7)+SUM($J$3:$J$7)+SUM($P$3:$P$6)+SUM($D$10:$D$14)+SUM($J$13:$J$14)+SUM($P$12:$P$14))</f>
-        <v>61</v>
-      </c>
-      <c r="Q11" s="50">
-        <v>7</v>
-      </c>
-      <c r="R11" s="34"/>
-    </row>
-    <row r="12" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>42841</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="39">
-        <f>66301-(SUM($D$3:$D$7)+SUM($J$3:$J$7)+SUM($P$3:$P$6)+SUM($D$13:$D$14))</f>
-        <v>57</v>
-      </c>
-      <c r="E12" s="36"/>
-      <c r="F12" s="34">
-        <f>(D11)/29</f>
-        <v>12.793103448275861</v>
-      </c>
-      <c r="G12" s="11"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="46"/>
-      <c r="K12" s="44"/>
-      <c r="L12" s="43"/>
-      <c r="M12" s="2">
-        <v>42935</v>
-      </c>
-      <c r="N12" s="3">
-        <v>120</v>
-      </c>
-      <c r="O12" s="5">
-        <v>3.62</v>
-      </c>
-      <c r="P12" s="39">
-        <f>67477-(SUM($D$3:$D$7)+SUM($J$3:$J$7)+SUM($P$3:$P$6)+SUM($D$10:$D$14)+SUM($J$13:$J$14)+SUM($P$13:$P$14))</f>
-        <v>165</v>
-      </c>
-      <c r="Q12" s="50">
-        <f>PRODUCT(N12,1/O12)</f>
-        <v>33.149171270718234</v>
-      </c>
-      <c r="R12" s="35"/>
-    </row>
-    <row r="13" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>42839</v>
-      </c>
-      <c r="B13" s="5">
-        <v>152.02000000000001</v>
-      </c>
-      <c r="C13" s="5">
-        <v>3.879</v>
-      </c>
-      <c r="D13" s="39">
-        <f>66244-(SUM($D$3:$D$7)+SUM($J$3:$J$7)+SUM($P$3:$P$6)+SUM($D$14))</f>
-        <v>40</v>
-      </c>
-      <c r="E13" s="50">
-        <f>PRODUCT(B13,1/C13)</f>
-        <v>39.190513018819281</v>
-      </c>
-      <c r="F13" s="35">
-        <f>D12/6</f>
-        <v>9.5</v>
-      </c>
-      <c r="G13" s="11">
-        <v>42880</v>
-      </c>
-      <c r="H13" s="14">
-        <v>80</v>
-      </c>
-      <c r="I13" s="15">
-        <v>3.89</v>
-      </c>
-      <c r="J13" s="46">
-        <f>67088-(SUM($D$3:$D$7)+SUM($J$3:$J$7)+SUM($P$3:$P$6)+SUM($D$10:$D$14)+SUM($J$14))</f>
-        <v>194</v>
-      </c>
-      <c r="K13" s="52">
-        <f>PRODUCT(H13,1/I13)</f>
-        <v>20.565552699228789</v>
-      </c>
-      <c r="L13" s="32">
-        <f>P14/K13</f>
-        <v>7.6341250000000009</v>
-      </c>
-      <c r="M13" s="10">
-        <v>42907</v>
-      </c>
-      <c r="N13" s="12">
-        <v>80</v>
-      </c>
-      <c r="O13" s="80">
-        <v>3.84</v>
-      </c>
-      <c r="P13" s="47">
-        <f>67312-(SUM($D$3:$D$7)+SUM($J$3:$J$7)+SUM($P$3:$P$6)+SUM($D$10:$D$14)+SUM($J$13:$J$14)+P14)</f>
-        <v>67</v>
-      </c>
-      <c r="Q13" s="54">
-        <f>PRODUCT(N13,1/O13)</f>
-        <v>20.833333333333336</v>
-      </c>
-      <c r="R13" s="79">
-        <f>P12/Q13</f>
-        <v>7.919999999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="16">
-        <v>42838</v>
-      </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="40">
-        <f>66204-(SUM($D$3:$D$7)+SUM($J$3:$J$7)+SUM($P$3:$P$5)+SUM(P6))</f>
-        <v>384</v>
-      </c>
-      <c r="E14" s="37"/>
-      <c r="F14" s="30">
-        <f>D13/6</f>
-        <v>6.666666666666667</v>
-      </c>
-      <c r="G14" s="2">
-        <v>42855</v>
-      </c>
-      <c r="H14" s="3">
-        <v>100</v>
-      </c>
-      <c r="I14" s="5">
-        <v>3.87</v>
-      </c>
-      <c r="J14" s="39">
-        <f>66894-(SUM($D$3:$D$7)+SUM($J$3:$J$7)+SUM($P$3:$P$6)+SUM($D$10:$D$14))</f>
-        <v>140</v>
-      </c>
-      <c r="K14" s="50">
-        <f>PRODUCT(H14,1/I14)</f>
-        <v>25.839793281653744</v>
-      </c>
-      <c r="L14" s="32">
-        <f>J13/K14</f>
-        <v>7.5078000000000005</v>
-      </c>
-      <c r="M14" s="74">
-        <v>42900</v>
-      </c>
-      <c r="N14" s="75">
-        <v>30</v>
-      </c>
-      <c r="O14" s="76">
-        <v>3.29</v>
-      </c>
-      <c r="P14" s="77">
-        <f>67245-(SUM($D$3:$D$7)+SUM($J$3:$J$7)+SUM($P$3:$P$6)+SUM($D$10:$D$14)+SUM($J$13:$J$14))</f>
-        <v>157</v>
-      </c>
-      <c r="Q14" s="78">
-        <f>PRODUCT(N14,1/O14)</f>
-        <v>9.1185410334346493</v>
-      </c>
-      <c r="R14" s="79">
-        <f>P13/Q14</f>
-        <v>7.3476666666666679</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="I15" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="J15" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="K15" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="L15" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="M15" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="N15" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="O15" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="P15" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q15" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="R15" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="117" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="117"/>
-      <c r="C16" s="117"/>
-      <c r="D16" s="117"/>
-      <c r="E16" s="117"/>
-      <c r="F16" s="117" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" s="117"/>
-      <c r="H16" s="117"/>
-      <c r="I16" s="117"/>
-      <c r="J16" s="117"/>
-      <c r="K16" s="117"/>
-      <c r="L16" s="117"/>
-      <c r="M16" s="117" t="s">
-        <v>15</v>
-      </c>
-      <c r="N16" s="117"/>
-      <c r="O16" s="117"/>
-      <c r="P16" s="117"/>
-      <c r="Q16" s="117"/>
-      <c r="R16" s="117"/>
-    </row>
-    <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="G1:L1"/>
-    <mergeCell ref="M1:R1"/>
-    <mergeCell ref="M16:R16"/>
-    <mergeCell ref="F16:L16"/>
-  </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="I8" formula="1"/>
-    <ignoredError sqref="H9:I9 N9:O9" formulaRange="1"/>
-  </ignoredErrors>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82D5A34F-EB28-41C8-A1E3-151E9E71FB07}">
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3578,29 +1986,29 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="100" t="s">
-        <v>16</v>
-      </c>
       <c r="F1" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="81">
+      <c r="A2" s="2">
         <v>42728</v>
       </c>
       <c r="B2">
@@ -3609,23 +2017,23 @@
       <c r="C2">
         <v>63764</v>
       </c>
-      <c r="D2" s="90">
+      <c r="D2" s="10">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
         <v>149</v>
       </c>
-      <c r="E2" s="96">
+      <c r="E2" s="16">
         <v>100</v>
       </c>
-      <c r="F2" s="96">
+      <c r="F2" s="16">
         <v>3.9990000000000001</v>
       </c>
-      <c r="G2" s="92">
+      <c r="G2" s="12">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>25.006251562890721</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="81">
+      <c r="A3" s="2">
         <v>42733</v>
       </c>
       <c r="B3">
@@ -3635,23 +2043,23 @@
       <c r="C3" s="1">
         <v>63873</v>
       </c>
-      <c r="D3" s="90">
+      <c r="D3" s="10">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
         <v>109</v>
       </c>
-      <c r="E3" s="96">
+      <c r="E3" s="16">
         <v>150</v>
       </c>
-      <c r="F3" s="96">
+      <c r="F3" s="16">
         <v>3.9990000000000001</v>
       </c>
-      <c r="G3" s="92">
+      <c r="G3" s="12">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>37.50937734433608</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="81">
+      <c r="A4" s="2">
         <v>42744</v>
       </c>
       <c r="B4" s="1">
@@ -3660,23 +2068,23 @@
       <c r="C4">
         <v>64283</v>
       </c>
-      <c r="D4" s="90">
+      <c r="D4" s="10">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
         <v>59</v>
       </c>
-      <c r="E4" s="96">
+      <c r="E4" s="16">
         <v>80</v>
       </c>
-      <c r="F4" s="96">
+      <c r="F4" s="16">
         <v>3.99</v>
       </c>
-      <c r="G4" s="92">
+      <c r="G4" s="12">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>20.050125313283207</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="81">
+      <c r="A5" s="2">
         <v>42767</v>
       </c>
       <c r="B5">
@@ -3686,23 +2094,23 @@
       <c r="C5">
         <v>64377</v>
       </c>
-      <c r="D5" s="90">
+      <c r="D5" s="10">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
         <v>94</v>
       </c>
-      <c r="E5" s="96">
+      <c r="E5" s="16">
         <v>40</v>
       </c>
-      <c r="F5" s="96">
+      <c r="F5" s="16">
         <v>4.1399999999999997</v>
       </c>
-      <c r="G5" s="92">
+      <c r="G5" s="12">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>9.6618357487922708</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="81">
+      <c r="A6" s="2">
         <v>42773</v>
       </c>
       <c r="B6">
@@ -3712,23 +2120,23 @@
       <c r="C6">
         <v>64432</v>
       </c>
-      <c r="D6" s="90">
+      <c r="D6" s="10">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
         <v>55</v>
       </c>
-      <c r="E6" s="96">
+      <c r="E6" s="16">
         <v>100</v>
       </c>
-      <c r="F6" s="96">
+      <c r="F6" s="16">
         <v>3.97</v>
       </c>
-      <c r="G6" s="92">
+      <c r="G6" s="12">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>25.188916876574307</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="81">
+      <c r="A7" s="2">
         <v>42789</v>
       </c>
       <c r="B7">
@@ -3738,23 +2146,23 @@
       <c r="C7" s="1">
         <v>64569</v>
       </c>
-      <c r="D7" s="90">
+      <c r="D7" s="10">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
         <v>137</v>
       </c>
-      <c r="E7" s="96">
+      <c r="E7" s="16">
         <v>125</v>
       </c>
-      <c r="F7" s="96">
+      <c r="F7" s="16">
         <v>3.93</v>
       </c>
-      <c r="G7" s="92">
+      <c r="G7" s="12">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>31.806615776081422</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="81">
+      <c r="A8" s="2">
         <v>42791</v>
       </c>
       <c r="B8" s="1">
@@ -3763,23 +2171,23 @@
       <c r="C8">
         <v>64985</v>
       </c>
-      <c r="D8" s="90">
+      <c r="D8" s="10">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
         <v>38</v>
       </c>
-      <c r="E8" s="96">
+      <c r="E8" s="16">
         <v>100</v>
       </c>
-      <c r="F8" s="96">
+      <c r="F8" s="16">
         <v>3.9990000000000001</v>
       </c>
-      <c r="G8" s="92">
+      <c r="G8" s="12">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>25.006251562890721</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="81">
+      <c r="A9" s="2">
         <v>42804</v>
       </c>
       <c r="B9">
@@ -3789,23 +2197,23 @@
       <c r="C9">
         <v>65175</v>
       </c>
-      <c r="D9" s="90">
+      <c r="D9" s="10">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
         <v>190</v>
       </c>
-      <c r="E9" s="96">
+      <c r="E9" s="16">
         <v>165.01</v>
       </c>
-      <c r="F9" s="96">
+      <c r="F9" s="16">
         <v>3.9990000000000001</v>
       </c>
-      <c r="G9" s="92">
+      <c r="G9" s="12">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>41.26281570392598</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="81">
+      <c r="A10" s="2">
         <v>42816</v>
       </c>
       <c r="B10">
@@ -3814,23 +2222,23 @@
       <c r="C10">
         <v>65635</v>
       </c>
-      <c r="D10" s="90">
+      <c r="D10" s="10">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
         <v>61</v>
       </c>
-      <c r="E10" s="96">
+      <c r="E10" s="16">
         <v>100</v>
       </c>
-      <c r="F10" s="96">
+      <c r="F10" s="16">
         <v>3.84</v>
       </c>
-      <c r="G10" s="92">
+      <c r="G10" s="12">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>26.041666666666668</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="81">
+      <c r="A11" s="2">
         <v>42836</v>
       </c>
       <c r="B11">
@@ -3840,23 +2248,23 @@
       <c r="C11" s="1">
         <v>65820</v>
       </c>
-      <c r="D11" s="90">
+      <c r="D11" s="10">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
         <v>185</v>
       </c>
-      <c r="E11" s="96">
+      <c r="E11" s="16">
         <v>120</v>
       </c>
-      <c r="F11" s="96">
+      <c r="F11" s="16">
         <v>3.79</v>
       </c>
-      <c r="G11" s="92">
+      <c r="G11" s="12">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>31.662269129287598</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="81">
+      <c r="A12" s="2">
         <v>42839</v>
       </c>
       <c r="B12" s="1">
@@ -3865,23 +2273,23 @@
       <c r="C12" s="1">
         <v>66301</v>
       </c>
-      <c r="D12" s="90">
+      <c r="D12" s="10">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
         <v>97</v>
       </c>
-      <c r="E12" s="115">
+      <c r="E12" s="35">
         <v>46.012749999999997</v>
       </c>
-      <c r="F12" s="115">
+      <c r="F12" s="35">
         <v>3.835</v>
       </c>
-      <c r="G12" s="116">
+      <c r="G12" s="36">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>11.998109517601042</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="81">
+      <c r="A13" s="2">
         <v>42848</v>
       </c>
       <c r="B13" s="1">
@@ -3890,23 +2298,23 @@
       <c r="C13">
         <v>66754</v>
       </c>
-      <c r="D13" s="90">
+      <c r="D13" s="10">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
         <v>82</v>
       </c>
-      <c r="E13" s="96">
+      <c r="E13" s="16">
         <v>80</v>
       </c>
-      <c r="F13" s="96">
+      <c r="F13" s="16">
         <v>3.89</v>
       </c>
-      <c r="G13" s="92">
+      <c r="G13" s="12">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>20.565552699228792</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="81">
+      <c r="A14" s="2">
         <v>42855</v>
       </c>
       <c r="B14">
@@ -3916,125 +2324,125 @@
       <c r="C14">
         <v>66894</v>
       </c>
-      <c r="D14" s="90">
+      <c r="D14" s="10">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
         <v>140</v>
       </c>
-      <c r="E14" s="96">
+      <c r="E14" s="16">
         <v>100</v>
       </c>
-      <c r="F14" s="96">
+      <c r="F14" s="16">
         <v>3.87</v>
       </c>
-      <c r="G14" s="92">
+      <c r="G14" s="12">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>25.839793281653748</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="81">
+      <c r="A15" s="2">
         <v>42880</v>
       </c>
       <c r="B15">
         <f>C14</f>
         <v>66894</v>
       </c>
-      <c r="C15" s="97">
+      <c r="C15" s="17">
         <v>67088</v>
       </c>
-      <c r="D15" s="90">
+      <c r="D15" s="10">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
         <v>194</v>
       </c>
-      <c r="E15" s="96">
+      <c r="E15" s="16">
         <v>80</v>
       </c>
-      <c r="F15" s="96">
+      <c r="F15" s="16">
         <v>3.89</v>
       </c>
-      <c r="G15" s="92">
+      <c r="G15" s="12">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>20.565552699228792</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="81">
+      <c r="A16" s="2">
         <v>42907</v>
       </c>
-      <c r="B16" s="97">
+      <c r="B16" s="17">
         <v>67245</v>
       </c>
-      <c r="C16" s="113">
+      <c r="C16" s="33">
         <v>67312</v>
       </c>
-      <c r="D16" s="90">
+      <c r="D16" s="10">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
         <v>67</v>
       </c>
-      <c r="E16" s="96">
+      <c r="E16" s="16">
         <v>80</v>
       </c>
-      <c r="F16" s="96">
+      <c r="F16" s="16">
         <v>3.84</v>
       </c>
-      <c r="G16" s="92">
+      <c r="G16" s="12">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>20.833333333333336</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="81">
+      <c r="A17" s="2">
         <v>42940</v>
       </c>
       <c r="B17">
         <f>C16</f>
         <v>67312</v>
       </c>
-      <c r="C17" s="114">
+      <c r="C17" s="34">
         <v>67538</v>
       </c>
-      <c r="D17" s="90">
+      <c r="D17" s="10">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
         <v>226</v>
       </c>
-      <c r="E17" s="96">
+      <c r="E17" s="16">
         <v>170</v>
       </c>
-      <c r="F17" s="96">
+      <c r="F17" s="16">
         <v>4</v>
       </c>
-      <c r="G17" s="92">
+      <c r="G17" s="12">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>42.5</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="81">
+      <c r="A18" s="2">
         <v>42946</v>
       </c>
-      <c r="B18" s="114">
+      <c r="B18" s="34">
         <v>67937</v>
       </c>
       <c r="C18" s="1">
         <v>68001</v>
       </c>
-      <c r="D18" s="90">
+      <c r="D18" s="10">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
         <v>64</v>
       </c>
-      <c r="E18" s="96">
+      <c r="E18" s="16">
         <v>120</v>
       </c>
-      <c r="F18" s="96">
+      <c r="F18" s="16">
         <v>3.9</v>
       </c>
-      <c r="G18" s="92">
+      <c r="G18" s="12">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>30.76923076923077</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="81">
+      <c r="A19" s="2">
         <v>42950</v>
       </c>
       <c r="B19" s="1">
@@ -4043,23 +2451,23 @@
       <c r="C19">
         <v>68792</v>
       </c>
-      <c r="D19" s="90">
+      <c r="D19" s="10">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
         <v>63</v>
       </c>
-      <c r="E19" s="96">
+      <c r="E19" s="16">
         <v>150</v>
       </c>
-      <c r="F19" s="96">
+      <c r="F19" s="16">
         <v>4.1900000000000004</v>
       </c>
-      <c r="G19" s="92">
+      <c r="G19" s="12">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>35.799522673031021</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="81">
+      <c r="A20" s="2">
         <v>42961</v>
       </c>
       <c r="B20">
@@ -4069,23 +2477,23 @@
       <c r="C20" s="1">
         <v>68995</v>
       </c>
-      <c r="D20" s="90">
+      <c r="D20" s="10">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
         <v>203</v>
       </c>
-      <c r="E20" s="96">
+      <c r="E20" s="16">
         <v>140</v>
       </c>
-      <c r="F20" s="96">
+      <c r="F20" s="16">
         <v>4.1900000000000004</v>
       </c>
-      <c r="G20" s="92">
+      <c r="G20" s="12">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>33.41288782816229</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="81">
+      <c r="A21" s="2">
         <v>42970</v>
       </c>
       <c r="B21" s="1">
@@ -4094,74 +2502,74 @@
       <c r="C21">
         <v>69437</v>
       </c>
-      <c r="D21" s="90">
+      <c r="D21" s="10">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
         <v>67</v>
       </c>
-      <c r="E21" s="96">
+      <c r="E21" s="16">
         <v>80</v>
       </c>
-      <c r="F21" s="96">
+      <c r="F21" s="16">
         <v>3.89</v>
       </c>
-      <c r="G21" s="92">
+      <c r="G21" s="12">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>20.565552699228792</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="81">
+      <c r="A22" s="2">
         <v>42991</v>
       </c>
       <c r="B22">
         <f>C21</f>
         <v>69437</v>
       </c>
-      <c r="C22" s="97">
+      <c r="C22" s="17">
         <v>69611</v>
       </c>
-      <c r="D22" s="90">
+      <c r="D22" s="10">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
         <v>174</v>
       </c>
-      <c r="E22" s="96">
+      <c r="E22" s="16">
         <v>80</v>
       </c>
-      <c r="F22" s="96">
+      <c r="F22" s="16">
         <v>4.1900000000000004</v>
       </c>
-      <c r="G22" s="92">
+      <c r="G22" s="12">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>19.093078758949879</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="81">
+      <c r="A23" s="2">
         <v>43020</v>
       </c>
-      <c r="B23" s="97">
+      <c r="B23" s="17">
         <v>69760</v>
       </c>
       <c r="C23">
         <v>69879</v>
       </c>
-      <c r="D23" s="90">
+      <c r="D23" s="10">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
         <v>119</v>
       </c>
-      <c r="E23" s="96">
+      <c r="E23" s="16">
         <v>80</v>
       </c>
-      <c r="F23" s="96">
+      <c r="F23" s="16">
         <v>3.9489999999999998</v>
       </c>
-      <c r="G23" s="92">
+      <c r="G23" s="12">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>20.258293238794632</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="81">
+      <c r="A24" s="2">
         <v>43034</v>
       </c>
       <c r="B24">
@@ -4171,23 +2579,23 @@
       <c r="C24" s="1">
         <v>70001</v>
       </c>
-      <c r="D24" s="90">
+      <c r="D24" s="10">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
         <v>122</v>
       </c>
-      <c r="E24" s="96">
+      <c r="E24" s="16">
         <v>120</v>
       </c>
-      <c r="F24" s="96">
+      <c r="F24" s="16">
         <v>3.9</v>
       </c>
-      <c r="G24" s="92">
+      <c r="G24" s="12">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>30.76923076923077</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="81">
+      <c r="A25" s="2">
         <v>43042</v>
       </c>
       <c r="B25" s="1">
@@ -4196,73 +2604,73 @@
       <c r="C25" s="1">
         <v>70431</v>
       </c>
-      <c r="D25" s="90">
+      <c r="D25" s="10">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
         <v>52</v>
       </c>
-      <c r="E25" s="96">
+      <c r="E25" s="16">
         <v>158.99</v>
       </c>
-      <c r="F25" s="96">
+      <c r="F25" s="16">
         <v>4.09</v>
       </c>
-      <c r="G25" s="92">
+      <c r="G25" s="12">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>38.872860635696824</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="81">
+      <c r="A26" s="2">
         <v>43057</v>
       </c>
       <c r="B26" s="1">
         <v>70809</v>
       </c>
-      <c r="C26" s="97">
+      <c r="C26" s="17">
         <v>70965</v>
       </c>
-      <c r="D26" s="90">
+      <c r="D26" s="10">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
         <v>156</v>
       </c>
-      <c r="E26" s="96">
+      <c r="E26" s="16">
         <v>80</v>
       </c>
-      <c r="F26" s="96">
+      <c r="F26" s="16">
         <v>4.17</v>
       </c>
-      <c r="G26" s="92">
+      <c r="G26" s="12">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>19.18465227817746</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="81">
+      <c r="A27" s="2">
         <v>43087</v>
       </c>
-      <c r="B27" s="97">
+      <c r="B27" s="17">
         <v>71109</v>
       </c>
       <c r="C27" s="1">
         <v>71219</v>
       </c>
-      <c r="D27" s="90">
+      <c r="D27" s="10">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
         <v>110</v>
       </c>
-      <c r="E27" s="96">
+      <c r="E27" s="16">
         <v>120.06</v>
       </c>
-      <c r="F27" s="96">
+      <c r="F27" s="16">
         <v>4.1790000000000003</v>
       </c>
-      <c r="G27" s="92">
+      <c r="G27" s="12">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>28.729361091170134</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="81">
+      <c r="A28" s="2">
         <v>43093</v>
       </c>
       <c r="B28" s="1">
@@ -4271,17 +2679,17 @@
       <c r="C28">
         <v>71872</v>
       </c>
-      <c r="D28" s="90">
+      <c r="D28" s="10">
         <f>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</f>
         <v>189</v>
       </c>
-      <c r="E28" s="96">
+      <c r="E28" s="16">
         <v>120</v>
       </c>
-      <c r="F28" s="96">
+      <c r="F28" s="16">
         <v>4.17</v>
       </c>
-      <c r="G28" s="92">
+      <c r="G28" s="12">
         <f>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</f>
         <v>28.776978417266186</v>
       </c>
@@ -4295,7 +2703,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB98AEA6-30EA-4D94-808F-A65CE5265EE7}">
   <dimension ref="A1:G34"/>
   <sheetViews>
@@ -4314,29 +2722,29 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="100" t="s">
-        <v>16</v>
-      </c>
       <c r="F1" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="81">
+      <c r="A2" s="2">
         <v>43105</v>
       </c>
       <c r="B2">
@@ -4345,23 +2753,23 @@
       <c r="C2">
         <v>72053</v>
       </c>
-      <c r="D2" s="90">
+      <c r="D2" s="10">
         <f>G_2018[[#This Row],[km fim]]-G_2018[[#This Row],[km ini]]</f>
         <v>181</v>
       </c>
-      <c r="E2" s="96">
+      <c r="E2" s="16">
         <v>120</v>
       </c>
-      <c r="F2" s="96">
+      <c r="F2" s="16">
         <v>4.1900000000000004</v>
       </c>
-      <c r="G2" s="92">
+      <c r="G2" s="12">
         <f>G_2018[[#This Row],[valor]]/G_2018[[#This Row],[preço]]</f>
         <v>28.639618138424819</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="81">
+      <c r="A3" s="2">
         <v>43115</v>
       </c>
       <c r="B3">
@@ -4371,23 +2779,23 @@
       <c r="C3" s="1">
         <v>72158</v>
       </c>
-      <c r="D3" s="90">
+      <c r="D3" s="10">
         <f>G_2018[[#This Row],[km fim]]-G_2018[[#This Row],[km ini]]</f>
         <v>105</v>
       </c>
-      <c r="E3" s="96">
+      <c r="E3" s="16">
         <v>120</v>
       </c>
-      <c r="F3" s="96">
+      <c r="F3" s="16">
         <v>4.1900000000000004</v>
       </c>
-      <c r="G3" s="92">
+      <c r="G3" s="12">
         <f>G_2018[[#This Row],[valor]]/G_2018[[#This Row],[preço]]</f>
         <v>28.639618138424819</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="81">
+      <c r="A4" s="2">
         <v>43119</v>
       </c>
       <c r="B4" s="1">
@@ -4396,23 +2804,23 @@
       <c r="C4">
         <v>72612</v>
       </c>
-      <c r="D4" s="90">
+      <c r="D4" s="10">
         <f>G_2018[[#This Row],[km fim]]-G_2018[[#This Row],[km ini]]</f>
         <v>79</v>
       </c>
-      <c r="E4" s="96">
+      <c r="E4" s="16">
         <v>145</v>
       </c>
-      <c r="F4" s="96">
+      <c r="F4" s="16">
         <v>4.29</v>
       </c>
-      <c r="G4" s="92">
+      <c r="G4" s="12">
         <f>G_2018[[#This Row],[valor]]/G_2018[[#This Row],[preço]]</f>
         <v>33.799533799533798</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="81">
+      <c r="A5" s="2">
         <v>43122</v>
       </c>
       <c r="B5">
@@ -4422,23 +2830,23 @@
       <c r="C5" s="1">
         <v>72667</v>
       </c>
-      <c r="D5" s="90">
+      <c r="D5" s="10">
         <f>G_2018[[#This Row],[km fim]]-G_2018[[#This Row],[km ini]]</f>
         <v>55</v>
       </c>
-      <c r="E5" s="96">
+      <c r="E5" s="16">
         <v>120</v>
       </c>
-      <c r="F5" s="96">
+      <c r="F5" s="16">
         <v>4.29</v>
       </c>
-      <c r="G5" s="92">
+      <c r="G5" s="12">
         <f>G_2018[[#This Row],[valor]]/G_2018[[#This Row],[preço]]</f>
         <v>27.972027972027973</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="81">
+      <c r="A6" s="2">
         <v>43128</v>
       </c>
       <c r="B6" s="1">
@@ -4447,23 +2855,23 @@
       <c r="C6">
         <v>73123</v>
       </c>
-      <c r="D6" s="90">
+      <c r="D6" s="10">
         <f>G_2018[[#This Row],[km fim]]-G_2018[[#This Row],[km ini]]</f>
         <v>81</v>
       </c>
-      <c r="E6" s="96">
+      <c r="E6" s="16">
         <v>85.61</v>
       </c>
-      <c r="F6" s="96">
+      <c r="F6" s="16">
         <v>4.2699999999999996</v>
       </c>
-      <c r="G6" s="92">
+      <c r="G6" s="12">
         <f>G_2018[[#This Row],[valor]]/G_2018[[#This Row],[preço]]</f>
         <v>20.049180327868854</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="81">
+      <c r="A7" s="2">
         <v>43136</v>
       </c>
       <c r="B7">
@@ -4473,23 +2881,23 @@
       <c r="C7" s="1">
         <v>73312</v>
       </c>
-      <c r="D7" s="90">
+      <c r="D7" s="10">
         <f>G_2018[[#This Row],[km fim]]-G_2018[[#This Row],[km ini]]</f>
         <v>189</v>
       </c>
-      <c r="E7" s="96">
+      <c r="E7" s="16">
         <v>120</v>
       </c>
-      <c r="F7" s="96">
+      <c r="F7" s="16">
         <v>4.49</v>
       </c>
-      <c r="G7" s="92">
+      <c r="G7" s="12">
         <f>G_2018[[#This Row],[valor]]/G_2018[[#This Row],[preço]]</f>
         <v>26.726057906458795</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="81">
+      <c r="A8" s="2">
         <v>43148</v>
       </c>
       <c r="B8" s="1">
@@ -4498,23 +2906,23 @@
       <c r="C8">
         <v>73760</v>
       </c>
-      <c r="D8" s="90">
+      <c r="D8" s="10">
         <f>G_2018[[#This Row],[km fim]]-G_2018[[#This Row],[km ini]]</f>
         <v>94</v>
       </c>
-      <c r="E8" s="96">
+      <c r="E8" s="16">
         <v>175.03</v>
       </c>
-      <c r="F8" s="96">
+      <c r="F8" s="16">
         <v>4.49</v>
       </c>
-      <c r="G8" s="92">
+      <c r="G8" s="12">
         <f>G_2018[[#This Row],[valor]]/G_2018[[#This Row],[preço]]</f>
         <v>38.982182628062361</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="81">
+      <c r="A9" s="2">
         <v>43158</v>
       </c>
       <c r="B9">
@@ -4524,49 +2932,49 @@
       <c r="C9">
         <v>73913</v>
       </c>
-      <c r="D9" s="90">
+      <c r="D9" s="10">
         <f>G_2018[[#This Row],[km fim]]-G_2018[[#This Row],[km ini]]</f>
         <v>153</v>
       </c>
-      <c r="E9" s="96">
+      <c r="E9" s="16">
         <v>120</v>
       </c>
-      <c r="F9" s="96">
+      <c r="F9" s="16">
         <v>4.09</v>
       </c>
-      <c r="G9" s="92">
+      <c r="G9" s="12">
         <f>G_2018[[#This Row],[valor]]/G_2018[[#This Row],[preço]]</f>
         <v>29.339853300733498</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="81">
+      <c r="A10" s="2">
         <v>43186</v>
       </c>
-      <c r="B10" s="97">
+      <c r="B10" s="17">
         <f>C9</f>
         <v>73913</v>
       </c>
       <c r="C10" s="1">
         <v>74082</v>
       </c>
-      <c r="D10" s="90">
+      <c r="D10" s="10">
         <f>G_2018[[#This Row],[km fim]]-G_2018[[#This Row],[km ini]]</f>
         <v>169</v>
       </c>
-      <c r="E10" s="96">
+      <c r="E10" s="16">
         <v>150</v>
       </c>
-      <c r="F10" s="96">
+      <c r="F10" s="16">
         <v>4.3899999999999997</v>
       </c>
-      <c r="G10" s="92">
+      <c r="G10" s="12">
         <f>G_2018[[#This Row],[valor]]/G_2018[[#This Row],[preço]]</f>
         <v>34.168564920273354</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="81">
+      <c r="A11" s="2">
         <v>43207</v>
       </c>
       <c r="B11" s="1">
@@ -4575,48 +2983,48 @@
       <c r="C11">
         <v>75015</v>
       </c>
-      <c r="D11" s="90">
+      <c r="D11" s="10">
         <f>G_2018[[#This Row],[km fim]]-G_2018[[#This Row],[km ini]]</f>
         <v>190</v>
       </c>
-      <c r="E11" s="96">
+      <c r="E11" s="16">
         <v>80</v>
       </c>
-      <c r="F11" s="96">
+      <c r="F11" s="16">
         <v>4.29</v>
       </c>
-      <c r="G11" s="92">
+      <c r="G11" s="12">
         <f>G_2018[[#This Row],[valor]]/G_2018[[#This Row],[preço]]</f>
         <v>18.648018648018649</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="81">
+      <c r="A12" s="2">
         <v>43222</v>
       </c>
-      <c r="B12" s="97">
+      <c r="B12" s="17">
         <v>75188</v>
       </c>
       <c r="C12">
         <v>75309</v>
       </c>
-      <c r="D12" s="90">
+      <c r="D12" s="10">
         <f>G_2018[[#This Row],[km fim]]-G_2018[[#This Row],[km ini]]</f>
         <v>121</v>
       </c>
-      <c r="E12" s="96">
+      <c r="E12" s="16">
         <v>40</v>
       </c>
-      <c r="F12" s="96">
+      <c r="F12" s="16">
         <v>4.49</v>
       </c>
-      <c r="G12" s="92">
+      <c r="G12" s="12">
         <f>G_2018[[#This Row],[valor]]/G_2018[[#This Row],[preço]]</f>
         <v>8.908685968819599</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="81">
+      <c r="A13" s="2">
         <v>43237</v>
       </c>
       <c r="B13">
@@ -4626,75 +3034,75 @@
       <c r="C13">
         <v>75424</v>
       </c>
-      <c r="D13" s="90">
+      <c r="D13" s="10">
         <f>G_2018[[#This Row],[km fim]]-G_2018[[#This Row],[km ini]]</f>
         <v>115</v>
       </c>
-      <c r="E13" s="96">
+      <c r="E13" s="16">
         <v>80</v>
       </c>
-      <c r="F13" s="96">
+      <c r="F13" s="16">
         <v>4.59</v>
       </c>
-      <c r="G13" s="92">
+      <c r="G13" s="12">
         <f>G_2018[[#This Row],[valor]]/G_2018[[#This Row],[preço]]</f>
         <v>17.429193899782135</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="81">
+      <c r="A14" s="2">
         <v>43243</v>
       </c>
-      <c r="B14" s="97">
+      <c r="B14" s="17">
         <f>C13</f>
         <v>75424</v>
       </c>
       <c r="C14">
         <v>75758</v>
       </c>
-      <c r="D14" s="90">
+      <c r="D14" s="10">
         <f>G_2018[[#This Row],[km fim]]-G_2018[[#This Row],[km ini]]</f>
         <v>334</v>
       </c>
-      <c r="E14" s="96">
+      <c r="E14" s="16">
         <v>60</v>
       </c>
-      <c r="F14" s="96">
+      <c r="F14" s="16">
         <v>4.49</v>
       </c>
-      <c r="G14" s="92">
+      <c r="G14" s="12">
         <f>G_2018[[#This Row],[valor]]/G_2018[[#This Row],[preço]]</f>
         <v>13.363028953229398</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="81">
+      <c r="A15" s="2">
         <v>43271</v>
       </c>
-      <c r="B15" s="97">
+      <c r="B15" s="17">
         <f>C14</f>
         <v>75758</v>
       </c>
       <c r="C15">
         <v>75867</v>
       </c>
-      <c r="D15" s="90">
+      <c r="D15" s="10">
         <f>G_2018[[#This Row],[km fim]]-G_2018[[#This Row],[km ini]]</f>
         <v>109</v>
       </c>
-      <c r="E15" s="96">
+      <c r="E15" s="16">
         <v>60</v>
       </c>
-      <c r="F15" s="96">
+      <c r="F15" s="16">
         <v>4.6900000000000004</v>
       </c>
-      <c r="G15" s="92">
+      <c r="G15" s="12">
         <f>G_2018[[#This Row],[valor]]/G_2018[[#This Row],[preço]]</f>
         <v>12.793176972281449</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="81">
+      <c r="A16" s="2">
         <v>43285</v>
       </c>
       <c r="B16">
@@ -4704,23 +3112,23 @@
       <c r="C16">
         <v>75885</v>
       </c>
-      <c r="D16" s="90">
+      <c r="D16" s="10">
         <f>G_2018[[#This Row],[km fim]]-G_2018[[#This Row],[km ini]]</f>
         <v>18</v>
       </c>
-      <c r="E16" s="96">
+      <c r="E16" s="16">
         <v>60</v>
       </c>
-      <c r="F16" s="83">
+      <c r="F16" s="3">
         <v>4.79</v>
       </c>
-      <c r="G16" s="92">
+      <c r="G16" s="12">
         <f>G_2018[[#This Row],[valor]]/G_2018[[#This Row],[preço]]</f>
         <v>12.526096033402922</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="81">
+      <c r="A17" s="2">
         <v>43286</v>
       </c>
       <c r="B17">
@@ -4730,23 +3138,23 @@
       <c r="C17" s="1">
         <v>75894</v>
       </c>
-      <c r="D17" s="90">
+      <c r="D17" s="10">
         <f>G_2018[[#This Row],[km fim]]-G_2018[[#This Row],[km ini]]</f>
         <v>9</v>
       </c>
-      <c r="E17" s="96">
+      <c r="E17" s="16">
         <v>133.83000000000001</v>
       </c>
-      <c r="F17" s="83">
+      <c r="F17" s="3">
         <v>4.59</v>
       </c>
-      <c r="G17" s="92">
+      <c r="G17" s="12">
         <f>G_2018[[#This Row],[valor]]/G_2018[[#This Row],[preço]]</f>
         <v>29.156862745098042</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="81">
+      <c r="A18" s="2">
         <v>43289</v>
       </c>
       <c r="B18">
@@ -4755,23 +3163,23 @@
       <c r="C18">
         <v>76308</v>
       </c>
-      <c r="D18" s="90">
+      <c r="D18" s="10">
         <f>G_2018[[#This Row],[km fim]]-G_2018[[#This Row],[km ini]]</f>
         <v>43</v>
       </c>
-      <c r="E18" s="96">
+      <c r="E18" s="16">
         <v>157.03</v>
       </c>
-      <c r="F18" s="83">
+      <c r="F18" s="3">
         <v>4.79</v>
       </c>
-      <c r="G18" s="92">
+      <c r="G18" s="12">
         <f>G_2018[[#This Row],[valor]]/G_2018[[#This Row],[preço]]</f>
         <v>32.782881002087684</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="98">
+      <c r="A19" s="18">
         <v>43306</v>
       </c>
       <c r="B19" s="1">
@@ -4780,23 +3188,23 @@
       <c r="C19">
         <v>76814</v>
       </c>
-      <c r="D19" s="90">
+      <c r="D19" s="10">
         <f>G_2018[[#This Row],[km fim]]-G_2018[[#This Row],[km ini]]</f>
         <v>154</v>
       </c>
-      <c r="E19" s="96">
+      <c r="E19" s="16">
         <v>100</v>
       </c>
-      <c r="F19" s="83">
+      <c r="F19" s="3">
         <v>4.49</v>
       </c>
-      <c r="G19" s="92">
+      <c r="G19" s="12">
         <f>G_2018[[#This Row],[valor]]/G_2018[[#This Row],[preço]]</f>
         <v>22.271714922048996</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="81">
+      <c r="A20" s="2">
         <v>43318</v>
       </c>
       <c r="B20">
@@ -4806,23 +3214,23 @@
       <c r="C20">
         <v>76951</v>
       </c>
-      <c r="D20" s="90">
+      <c r="D20" s="10">
         <f>G_2018[[#This Row],[km fim]]-G_2018[[#This Row],[km ini]]</f>
         <v>137</v>
       </c>
-      <c r="E20" s="96">
+      <c r="E20" s="16">
         <v>100</v>
       </c>
-      <c r="F20" s="83">
+      <c r="F20" s="3">
         <v>4.49</v>
       </c>
-      <c r="G20" s="92">
+      <c r="G20" s="12">
         <f>G_2018[[#This Row],[valor]]/G_2018[[#This Row],[preço]]</f>
         <v>22.271714922048996</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="81">
+      <c r="A21" s="2">
         <v>43333</v>
       </c>
       <c r="B21">
@@ -4832,23 +3240,23 @@
       <c r="C21">
         <v>77139</v>
       </c>
-      <c r="D21" s="90">
+      <c r="D21" s="10">
         <f>G_2018[[#This Row],[km fim]]-G_2018[[#This Row],[km ini]]</f>
         <v>188</v>
       </c>
-      <c r="E21" s="96">
+      <c r="E21" s="16">
         <v>100</v>
       </c>
-      <c r="F21" s="83">
+      <c r="F21" s="3">
         <v>4.3899999999999997</v>
       </c>
-      <c r="G21" s="92">
+      <c r="G21" s="12">
         <f>G_2018[[#This Row],[valor]]/G_2018[[#This Row],[preço]]</f>
         <v>22.779043280182233</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="81">
+      <c r="A22" s="2">
         <v>43340</v>
       </c>
       <c r="B22">
@@ -4858,23 +3266,23 @@
       <c r="C22">
         <v>77296</v>
       </c>
-      <c r="D22" s="90">
+      <c r="D22" s="10">
         <f>G_2018[[#This Row],[km fim]]-G_2018[[#This Row],[km ini]]</f>
         <v>157</v>
       </c>
-      <c r="E22" s="96">
+      <c r="E22" s="16">
         <v>80</v>
       </c>
-      <c r="F22" s="83">
+      <c r="F22" s="3">
         <v>4.29</v>
       </c>
-      <c r="G22" s="92">
+      <c r="G22" s="12">
         <f>G_2018[[#This Row],[valor]]/G_2018[[#This Row],[preço]]</f>
         <v>18.648018648018649</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="81">
+      <c r="A23" s="2">
         <v>43349</v>
       </c>
       <c r="B23" s="1">
@@ -4884,23 +3292,23 @@
       <c r="C23">
         <v>77444</v>
       </c>
-      <c r="D23" s="90">
+      <c r="D23" s="10">
         <f>G_2018[[#This Row],[km fim]]-G_2018[[#This Row],[km ini]]</f>
         <v>148</v>
       </c>
-      <c r="E23" s="96">
+      <c r="E23" s="16">
         <v>60</v>
       </c>
-      <c r="F23" s="83">
+      <c r="F23" s="3">
         <v>4.29</v>
       </c>
-      <c r="G23" s="92">
+      <c r="G23" s="12">
         <f>G_2018[[#This Row],[valor]]/G_2018[[#This Row],[preço]]</f>
         <v>13.986013986013987</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="81">
+      <c r="A24" s="2">
         <v>43352</v>
       </c>
       <c r="B24">
@@ -4909,23 +3317,23 @@
       <c r="C24">
         <v>77858</v>
       </c>
-      <c r="D24" s="90">
+      <c r="D24" s="10">
         <f>G_2018[[#This Row],[km fim]]-G_2018[[#This Row],[km ini]]</f>
         <v>42</v>
       </c>
-      <c r="E24" s="96">
+      <c r="E24" s="16">
         <v>102.6</v>
       </c>
-      <c r="F24" s="83">
+      <c r="F24" s="3">
         <v>4.79</v>
       </c>
-      <c r="G24" s="92">
+      <c r="G24" s="12">
         <f>G_2018[[#This Row],[valor]]/G_2018[[#This Row],[preço]]</f>
         <v>21.419624217118997</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="81">
+      <c r="A25" s="2">
         <v>43355</v>
       </c>
       <c r="B25">
@@ -4934,23 +3342,23 @@
       <c r="C25" s="1">
         <v>78278</v>
       </c>
-      <c r="D25" s="90">
+      <c r="D25" s="10">
         <f>G_2018[[#This Row],[km fim]]-G_2018[[#This Row],[km ini]]</f>
         <v>56</v>
       </c>
-      <c r="E25" s="96">
+      <c r="E25" s="16">
         <v>181.01</v>
       </c>
-      <c r="F25" s="83">
+      <c r="F25" s="3">
         <v>4.79</v>
       </c>
-      <c r="G25" s="92">
+      <c r="G25" s="12">
         <f>G_2018[[#This Row],[valor]]/G_2018[[#This Row],[preço]]</f>
         <v>37.789144050104383</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="81">
+      <c r="A26" s="2">
         <v>43373</v>
       </c>
       <c r="B26">
@@ -4960,23 +3368,23 @@
       <c r="C26">
         <v>78474</v>
       </c>
-      <c r="D26" s="90">
+      <c r="D26" s="10">
         <f>G_2018[[#This Row],[km fim]]-G_2018[[#This Row],[km ini]]</f>
         <v>196</v>
       </c>
-      <c r="E26" s="96">
+      <c r="E26" s="16">
         <v>100</v>
       </c>
-      <c r="F26" s="83">
+      <c r="F26" s="3">
         <v>4.59</v>
       </c>
-      <c r="G26" s="92">
+      <c r="G26" s="12">
         <f>G_2018[[#This Row],[valor]]/G_2018[[#This Row],[preço]]</f>
         <v>21.786492374727668</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="81">
+      <c r="A27" s="2">
         <v>43384</v>
       </c>
       <c r="B27">
@@ -4986,23 +3394,23 @@
       <c r="C27" s="1">
         <v>78567</v>
       </c>
-      <c r="D27" s="90">
+      <c r="D27" s="10">
         <f>G_2018[[#This Row],[km fim]]-G_2018[[#This Row],[km ini]]</f>
         <v>93</v>
       </c>
-      <c r="E27" s="96">
+      <c r="E27" s="16">
         <v>60</v>
       </c>
-      <c r="F27" s="83">
+      <c r="F27" s="3">
         <v>4.79</v>
       </c>
-      <c r="G27" s="92">
+      <c r="G27" s="12">
         <f>G_2018[[#This Row],[valor]]/G_2018[[#This Row],[preço]]</f>
         <v>12.526096033402922</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="81">
+      <c r="A28" s="2">
         <v>43386</v>
       </c>
       <c r="B28">
@@ -5011,23 +3419,23 @@
       <c r="C28">
         <v>78983</v>
       </c>
-      <c r="D28" s="90">
+      <c r="D28" s="10">
         <f>G_2018[[#This Row],[km fim]]-G_2018[[#This Row],[km ini]]</f>
         <v>23</v>
       </c>
-      <c r="E28" s="96">
+      <c r="E28" s="16">
         <v>148.19999999999999</v>
       </c>
-      <c r="F28" s="83">
+      <c r="F28" s="3">
         <v>4.9400000000000004</v>
       </c>
-      <c r="G28" s="92">
+      <c r="G28" s="12">
         <f>G_2018[[#This Row],[valor]]/G_2018[[#This Row],[preço]]</f>
         <v>29.999999999999996</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="81">
+      <c r="A29" s="2">
         <v>43399</v>
       </c>
       <c r="B29" s="1">
@@ -5036,23 +3444,23 @@
       <c r="C29">
         <v>79502</v>
       </c>
-      <c r="D29" s="90">
+      <c r="D29" s="10">
         <f>G_2018[[#This Row],[km fim]]-G_2018[[#This Row],[km ini]]</f>
         <v>71</v>
       </c>
-      <c r="E29" s="96">
+      <c r="E29" s="16">
         <v>60</v>
       </c>
-      <c r="F29" s="83">
+      <c r="F29" s="3">
         <v>4.99</v>
       </c>
-      <c r="G29" s="92">
+      <c r="G29" s="12">
         <f>G_2018[[#This Row],[valor]]/G_2018[[#This Row],[preço]]</f>
         <v>12.024048096192384</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="81">
+      <c r="A30" s="2">
         <v>43410</v>
       </c>
       <c r="B30">
@@ -5062,23 +3470,23 @@
       <c r="C30">
         <v>79730</v>
       </c>
-      <c r="D30" s="90">
+      <c r="D30" s="10">
         <f>G_2018[[#This Row],[km fim]]-G_2018[[#This Row],[km ini]]</f>
         <v>228</v>
       </c>
-      <c r="E30" s="96">
+      <c r="E30" s="16">
         <v>120</v>
       </c>
-      <c r="F30" s="83">
+      <c r="F30" s="3">
         <v>4.99</v>
       </c>
-      <c r="G30" s="92">
+      <c r="G30" s="12">
         <f>G_2018[[#This Row],[valor]]/G_2018[[#This Row],[preço]]</f>
         <v>24.048096192384769</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="81">
+      <c r="A31" s="2">
         <v>43418</v>
       </c>
       <c r="B31">
@@ -5088,23 +3496,23 @@
       <c r="C31">
         <v>79820</v>
       </c>
-      <c r="D31" s="90">
+      <c r="D31" s="10">
         <f>G_2018[[#This Row],[km fim]]-G_2018[[#This Row],[km ini]]</f>
         <v>90</v>
       </c>
-      <c r="E31" s="96">
+      <c r="E31" s="16">
         <v>80</v>
       </c>
-      <c r="F31" s="96">
+      <c r="F31" s="16">
         <v>4.6900000000000004</v>
       </c>
-      <c r="G31" s="92">
+      <c r="G31" s="12">
         <f>G_2018[[#This Row],[valor]]/G_2018[[#This Row],[preço]]</f>
         <v>17.057569296375267</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="81">
+      <c r="A32" s="2">
         <v>43426</v>
       </c>
       <c r="B32">
@@ -5114,23 +3522,23 @@
       <c r="C32">
         <v>79915</v>
       </c>
-      <c r="D32" s="90">
+      <c r="D32" s="10">
         <f>G_2018[[#This Row],[km fim]]-G_2018[[#This Row],[km ini]]</f>
         <v>95</v>
       </c>
-      <c r="E32" s="96">
+      <c r="E32" s="16">
         <v>60</v>
       </c>
-      <c r="F32" s="83">
+      <c r="F32" s="3">
         <v>4.87</v>
       </c>
-      <c r="G32" s="92">
+      <c r="G32" s="12">
         <f>G_2018[[#This Row],[valor]]/G_2018[[#This Row],[preço]]</f>
         <v>12.320328542094456</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="81">
+      <c r="A33" s="2">
         <v>43433</v>
       </c>
       <c r="B33">
@@ -5140,23 +3548,23 @@
       <c r="C33">
         <v>80030</v>
       </c>
-      <c r="D33" s="90">
+      <c r="D33" s="10">
         <f>G_2018[[#This Row],[km fim]]-G_2018[[#This Row],[km ini]]</f>
         <v>115</v>
       </c>
-      <c r="E33" s="96">
+      <c r="E33" s="16">
         <v>60</v>
       </c>
-      <c r="F33" s="83">
+      <c r="F33" s="3">
         <v>4.59</v>
       </c>
-      <c r="G33" s="92">
+      <c r="G33" s="12">
         <f>G_2018[[#This Row],[valor]]/G_2018[[#This Row],[preço]]</f>
         <v>13.071895424836601</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="81">
+      <c r="A34" s="2">
         <v>43442</v>
       </c>
       <c r="B34">
@@ -5166,17 +3574,17 @@
       <c r="C34">
         <v>80148</v>
       </c>
-      <c r="D34" s="90">
+      <c r="D34" s="10">
         <f>G_2018[[#This Row],[km fim]]-G_2018[[#This Row],[km ini]]</f>
         <v>118</v>
       </c>
-      <c r="E34" s="96">
+      <c r="E34" s="16">
         <v>80</v>
       </c>
-      <c r="F34" s="83">
+      <c r="F34" s="3">
         <v>4.79</v>
       </c>
-      <c r="G34" s="92">
+      <c r="G34" s="12">
         <f>G_2018[[#This Row],[valor]]/G_2018[[#This Row],[preço]]</f>
         <v>16.701461377870565</v>
       </c>
@@ -5190,7 +3598,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B43933D-4CC7-4766-9778-D69CB537A172}">
   <dimension ref="A1:H4"/>
   <sheetViews>
@@ -5210,35 +3618,35 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="100" t="s">
-        <v>16</v>
-      </c>
       <c r="G1" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="81">
+      <c r="A2" s="2">
         <v>43476</v>
       </c>
-      <c r="B2" s="103">
+      <c r="B2" s="23">
         <v>0.70833333333333337</v>
       </c>
       <c r="C2">
@@ -5247,26 +3655,26 @@
       <c r="D2">
         <v>81216</v>
       </c>
-      <c r="E2" s="90">
+      <c r="E2" s="10">
         <f>G_2019[[#This Row],[km fim]]-G_2019[[#This Row],[km ini]]</f>
         <v>96</v>
       </c>
-      <c r="F2" s="96">
+      <c r="F2" s="16">
         <v>60</v>
       </c>
-      <c r="G2" s="83">
+      <c r="G2" s="3">
         <v>4.1500000000000004</v>
       </c>
-      <c r="H2" s="92">
+      <c r="H2" s="12">
         <f>G_2019[[#This Row],[valor]]/G_2019[[#This Row],[preço]]</f>
         <v>14.457831325301203</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="81">
+      <c r="A3" s="2">
         <v>43487</v>
       </c>
-      <c r="B3" s="103">
+      <c r="B3" s="23">
         <v>0.4861111111111111</v>
       </c>
       <c r="C3">
@@ -5276,26 +3684,26 @@
       <c r="D3">
         <v>81333</v>
       </c>
-      <c r="E3" s="90">
+      <c r="E3" s="10">
         <f>G_2019[[#This Row],[km fim]]-G_2019[[#This Row],[km ini]]</f>
         <v>117</v>
       </c>
-      <c r="F3" s="96">
+      <c r="F3" s="16">
         <v>60</v>
       </c>
-      <c r="G3" s="83">
+      <c r="G3" s="3">
         <v>4.25</v>
       </c>
-      <c r="H3" s="92">
+      <c r="H3" s="12">
         <f>G_2019[[#This Row],[valor]]/G_2019[[#This Row],[preço]]</f>
         <v>14.117647058823529</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="81">
+      <c r="A4" s="2">
         <v>43497</v>
       </c>
-      <c r="B4" s="103">
+      <c r="B4" s="23">
         <v>0.79513888888888884</v>
       </c>
       <c r="C4">
@@ -5306,17 +3714,17 @@
         <f>81454</f>
         <v>81454</v>
       </c>
-      <c r="E4" s="90">
+      <c r="E4" s="10">
         <f>G_2019[[#This Row],[km fim]]-G_2019[[#This Row],[km ini]]</f>
         <v>121</v>
       </c>
-      <c r="F4" s="96">
+      <c r="F4" s="16">
         <v>60</v>
       </c>
-      <c r="G4" s="83">
+      <c r="G4" s="3">
         <v>4.29</v>
       </c>
-      <c r="H4" s="92">
+      <c r="H4" s="12">
         <f>G_2019[[#This Row],[valor]]/G_2019[[#This Row],[preço]]</f>
         <v>13.986013986013987</v>
       </c>
@@ -5330,15 +3738,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60EBE3EB-7212-496F-8DCC-20D09D5C0D53}">
   <sheetPr>
     <tabColor theme="0" tint="-0.499984740745262"/>
   </sheetPr>
   <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5360,1335 +3768,1335 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="86" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="84" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="84" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="84" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="84" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="84" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="93" t="s">
+      <c r="A1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="87" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="84" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" s="93" t="s">
-        <v>26</v>
-      </c>
-      <c r="K1" s="84" t="s">
-        <v>23</v>
-      </c>
-      <c r="L1" s="110" t="s">
+      <c r="F1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="N1" s="110" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="99">
+      <c r="A2" s="19">
         <v>42737</v>
       </c>
-      <c r="B2" s="91">
+      <c r="B2" s="11">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C2" s="91">
+      <c r="C2" s="11">
         <v>0.50208333333333333</v>
       </c>
-      <c r="D2" s="91">
+      <c r="D2" s="11">
         <f>Viagens[[#This Row],[hora fim]]-Viagens[[#This Row],[hora ini]]</f>
         <v>0.16875000000000001</v>
       </c>
-      <c r="E2" s="90">
+      <c r="E2" s="10">
         <v>63873</v>
       </c>
-      <c r="F2" s="90">
+      <c r="F2" s="10">
         <v>64224</v>
       </c>
-      <c r="G2" s="94">
+      <c r="G2" s="14">
         <f t="shared" ref="G2:G26" si="0">F2-E2</f>
         <v>351</v>
       </c>
-      <c r="H2" s="90">
+      <c r="H2" s="10">
         <v>39.75</v>
       </c>
-      <c r="I2" s="90">
+      <c r="I2" s="10">
         <v>12</v>
       </c>
-      <c r="J2" s="95">
+      <c r="J2" s="15">
         <f>Viagens[[#This Row],[L ini]]-Viagens[[#This Row],[L fim]]</f>
         <v>27.75</v>
       </c>
-      <c r="K2" s="92">
+      <c r="K2" s="12">
         <f>Viagens[[#This Row],[km]]/Viagens[[#This Row],[L]]</f>
         <v>12.648648648648649</v>
       </c>
-      <c r="L2" s="111">
+      <c r="L2" s="31">
         <v>4</v>
       </c>
-      <c r="M2" s="101">
+      <c r="M2" s="21">
         <f>Viagens[[#This Row],[preço]]/Viagens[[#This Row],[consumo]]</f>
         <v>0.31623931623931623</v>
       </c>
-      <c r="N2" s="112">
+      <c r="N2" s="32">
         <f>Viagens[[#This Row],[L]]*Viagens[[#This Row],[preço]]</f>
         <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="99">
+      <c r="A3" s="19">
         <v>42790</v>
       </c>
-      <c r="B3" s="91">
+      <c r="B3" s="11">
         <v>0.34513888888888888</v>
       </c>
-      <c r="C3" s="91">
+      <c r="C3" s="11">
         <v>0.5395833333333333</v>
       </c>
-      <c r="D3" s="91">
+      <c r="D3" s="11">
         <f>Viagens[[#This Row],[hora fim]]-Viagens[[#This Row],[hora ini]]</f>
         <v>0.19444444444444442</v>
       </c>
-      <c r="E3" s="90">
+      <c r="E3" s="10">
         <v>64569</v>
       </c>
-      <c r="F3" s="90">
+      <c r="F3" s="10">
         <v>64947</v>
       </c>
-      <c r="G3" s="94">
+      <c r="G3" s="14">
         <f t="shared" si="0"/>
         <v>378</v>
       </c>
-      <c r="H3" s="90">
+      <c r="H3" s="10">
         <v>37.81</v>
       </c>
-      <c r="I3" s="90">
+      <c r="I3" s="10">
         <v>10</v>
       </c>
-      <c r="J3" s="95">
+      <c r="J3" s="15">
         <f>Viagens[[#This Row],[L ini]]-Viagens[[#This Row],[L fim]]</f>
         <v>27.810000000000002</v>
       </c>
-      <c r="K3" s="92">
+      <c r="K3" s="12">
         <f>Viagens[[#This Row],[km]]/Viagens[[#This Row],[L]]</f>
         <v>13.592233009708737</v>
       </c>
-      <c r="L3" s="111">
+      <c r="L3" s="31">
         <v>3.93</v>
       </c>
-      <c r="M3" s="101">
+      <c r="M3" s="21">
         <f>Viagens[[#This Row],[preço]]/Viagens[[#This Row],[consumo]]</f>
         <v>0.28913571428571433</v>
       </c>
-      <c r="N3" s="112">
+      <c r="N3" s="32">
         <f>Viagens[[#This Row],[L]]*Viagens[[#This Row],[preço]]</f>
         <v>109.29330000000002</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="99">
+      <c r="A4" s="19">
         <v>42806</v>
       </c>
-      <c r="B4" s="91">
+      <c r="B4" s="11">
         <v>0.56805555555555554</v>
       </c>
-      <c r="C4" s="91">
+      <c r="C4" s="11">
         <v>0.76736111111111116</v>
       </c>
-      <c r="D4" s="91">
+      <c r="D4" s="11">
         <f>Viagens[[#This Row],[hora fim]]-Viagens[[#This Row],[hora ini]]</f>
         <v>0.19930555555555562</v>
       </c>
-      <c r="E4" s="90">
+      <c r="E4" s="10">
         <v>65175</v>
       </c>
-      <c r="F4" s="90">
+      <c r="F4" s="10">
         <v>65574</v>
       </c>
-      <c r="G4" s="94">
+      <c r="G4" s="14">
         <f t="shared" si="0"/>
         <v>399</v>
       </c>
-      <c r="H4" s="90">
+      <c r="H4" s="10">
         <v>47.26</v>
       </c>
-      <c r="I4" s="90">
+      <c r="I4" s="10">
         <v>15.5</v>
       </c>
-      <c r="J4" s="95">
+      <c r="J4" s="15">
         <f>Viagens[[#This Row],[L ini]]-Viagens[[#This Row],[L fim]]</f>
         <v>31.759999999999998</v>
       </c>
-      <c r="K4" s="92">
+      <c r="K4" s="12">
         <f>Viagens[[#This Row],[km]]/Viagens[[#This Row],[L]]</f>
         <v>12.562972292191436</v>
       </c>
-      <c r="L4" s="111">
+      <c r="L4" s="31">
         <v>4</v>
       </c>
-      <c r="M4" s="101">
+      <c r="M4" s="21">
         <f>Viagens[[#This Row],[preço]]/Viagens[[#This Row],[consumo]]</f>
         <v>0.31839598997493734</v>
       </c>
-      <c r="N4" s="112">
+      <c r="N4" s="32">
         <f>Viagens[[#This Row],[L]]*Viagens[[#This Row],[preço]]</f>
         <v>127.03999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="99">
+      <c r="A5" s="19">
         <v>42838</v>
       </c>
-      <c r="B5" s="91">
+      <c r="B5" s="11">
         <v>0.30486111111111108</v>
       </c>
-      <c r="C5" s="91">
+      <c r="C5" s="11">
         <v>0.52708333333333335</v>
       </c>
-      <c r="D5" s="91">
+      <c r="D5" s="11">
         <f>Viagens[[#This Row],[hora fim]]-Viagens[[#This Row],[hora ini]]</f>
         <v>0.22222222222222227</v>
       </c>
-      <c r="E5" s="90">
+      <c r="E5" s="10">
         <v>65820</v>
       </c>
-      <c r="F5" s="90">
+      <c r="F5" s="10">
         <v>66204</v>
       </c>
-      <c r="G5" s="94">
+      <c r="G5" s="14">
         <f t="shared" si="0"/>
         <v>384</v>
       </c>
-      <c r="H5" s="90">
+      <c r="H5" s="10">
         <v>37.659999999999997</v>
       </c>
-      <c r="I5" s="90">
+      <c r="I5" s="10">
         <v>12</v>
       </c>
-      <c r="J5" s="95">
+      <c r="J5" s="15">
         <f>Viagens[[#This Row],[L ini]]-Viagens[[#This Row],[L fim]]</f>
         <v>25.659999999999997</v>
       </c>
-      <c r="K5" s="92">
+      <c r="K5" s="12">
         <f>Viagens[[#This Row],[km]]/Viagens[[#This Row],[L]]</f>
         <v>14.964925954793454</v>
       </c>
-      <c r="L5" s="111">
+      <c r="L5" s="31">
         <v>3.79</v>
       </c>
-      <c r="M5" s="101">
+      <c r="M5" s="21">
         <f>Viagens[[#This Row],[preço]]/Viagens[[#This Row],[consumo]]</f>
         <v>0.25325885416666666</v>
       </c>
-      <c r="N5" s="112">
+      <c r="N5" s="32">
         <f>Viagens[[#This Row],[L]]*Viagens[[#This Row],[preço]]</f>
         <v>97.25139999999999</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="99">
+      <c r="A6" s="19">
         <v>42841</v>
       </c>
-      <c r="B6" s="91"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="90">
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="10">
         <v>66301</v>
       </c>
-      <c r="F6" s="90">
+      <c r="F6" s="10">
         <v>66672</v>
       </c>
-      <c r="G6" s="94">
+      <c r="G6" s="14">
         <f t="shared" si="0"/>
         <v>371</v>
       </c>
-      <c r="H6" s="90">
+      <c r="H6" s="10">
         <v>39.19</v>
       </c>
-      <c r="I6" s="90">
+      <c r="I6" s="10">
         <v>10</v>
       </c>
-      <c r="J6" s="95">
+      <c r="J6" s="15">
         <f>Viagens[[#This Row],[L ini]]-Viagens[[#This Row],[L fim]]</f>
         <v>29.189999999999998</v>
       </c>
-      <c r="K6" s="92">
+      <c r="K6" s="12">
         <f>Viagens[[#This Row],[km]]/Viagens[[#This Row],[L]]</f>
         <v>12.709832134292567</v>
       </c>
-      <c r="L6" s="111">
+      <c r="L6" s="31">
         <v>3.89</v>
       </c>
-      <c r="M6" s="101">
+      <c r="M6" s="21">
         <f>Viagens[[#This Row],[preço]]/Viagens[[#This Row],[consumo]]</f>
         <v>0.3060622641509434</v>
       </c>
-      <c r="N6" s="112">
+      <c r="N6" s="32">
         <f>Viagens[[#This Row],[L]]*Viagens[[#This Row],[preço]]</f>
         <v>113.5491</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="99">
+      <c r="A7" s="19">
         <v>42935</v>
       </c>
-      <c r="B7" s="91"/>
-      <c r="C7" s="91"/>
-      <c r="D7" s="91"/>
-      <c r="E7" s="90">
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="10">
         <v>67538</v>
       </c>
-      <c r="F7" s="90">
+      <c r="F7" s="10">
         <v>67937</v>
       </c>
-      <c r="G7" s="94">
+      <c r="G7" s="14">
         <f t="shared" si="0"/>
         <v>399</v>
       </c>
-      <c r="H7" s="90">
+      <c r="H7" s="10">
         <v>39.15</v>
       </c>
-      <c r="I7" s="90">
+      <c r="I7" s="10">
         <v>6</v>
       </c>
-      <c r="J7" s="95">
+      <c r="J7" s="15">
         <f>Viagens[[#This Row],[L ini]]-Viagens[[#This Row],[L fim]]</f>
         <v>33.15</v>
       </c>
-      <c r="K7" s="92">
+      <c r="K7" s="12">
         <f>Viagens[[#This Row],[km]]/Viagens[[#This Row],[L]]</f>
         <v>12.036199095022624</v>
       </c>
-      <c r="L7" s="111">
+      <c r="L7" s="31">
         <v>3.62</v>
       </c>
-      <c r="M7" s="101">
+      <c r="M7" s="21">
         <f>Viagens[[#This Row],[preço]]/Viagens[[#This Row],[consumo]]</f>
         <v>0.30075939849624062</v>
       </c>
-      <c r="N7" s="112">
+      <c r="N7" s="32">
         <f>Viagens[[#This Row],[L]]*Viagens[[#This Row],[preço]]</f>
         <v>120.003</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="99">
+      <c r="A8" s="19">
         <v>42945</v>
       </c>
-      <c r="B8" s="91"/>
-      <c r="C8" s="91"/>
-      <c r="D8" s="91"/>
-      <c r="E8" s="90">
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="10">
         <v>68001</v>
       </c>
-      <c r="F8" s="90">
+      <c r="F8" s="10">
         <v>68381</v>
       </c>
-      <c r="G8" s="94">
+      <c r="G8" s="14">
         <f t="shared" si="0"/>
         <v>380</v>
       </c>
-      <c r="H8" s="90">
+      <c r="H8" s="10">
         <v>41</v>
       </c>
-      <c r="I8" s="90">
+      <c r="I8" s="10">
         <v>12</v>
       </c>
-      <c r="J8" s="95">
+      <c r="J8" s="15">
         <f>Viagens[[#This Row],[L ini]]-Viagens[[#This Row],[L fim]]</f>
         <v>29</v>
       </c>
-      <c r="K8" s="92">
+      <c r="K8" s="12">
         <f>Viagens[[#This Row],[km]]/Viagens[[#This Row],[L]]</f>
         <v>13.103448275862069</v>
       </c>
-      <c r="L8" s="111">
+      <c r="L8" s="31">
         <v>4</v>
       </c>
-      <c r="M8" s="101">
+      <c r="M8" s="21">
         <f>Viagens[[#This Row],[preço]]/Viagens[[#This Row],[consumo]]</f>
         <v>0.30526315789473685</v>
       </c>
-      <c r="N8" s="112">
+      <c r="N8" s="32">
         <f>Viagens[[#This Row],[L]]*Viagens[[#This Row],[preço]]</f>
         <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="99">
+      <c r="A9" s="19">
         <v>42946</v>
       </c>
-      <c r="B9" s="91"/>
-      <c r="C9" s="91"/>
-      <c r="D9" s="91"/>
-      <c r="E9" s="90">
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="10">
         <v>68381</v>
       </c>
-      <c r="F9" s="90">
+      <c r="F9" s="10">
         <v>68729</v>
       </c>
-      <c r="G9" s="94">
+      <c r="G9" s="14">
         <f t="shared" si="0"/>
         <v>348</v>
       </c>
-      <c r="H9" s="90">
+      <c r="H9" s="10">
         <v>43</v>
       </c>
-      <c r="I9" s="90">
+      <c r="I9" s="10">
         <v>15</v>
       </c>
-      <c r="J9" s="95">
+      <c r="J9" s="15">
         <f>Viagens[[#This Row],[L ini]]-Viagens[[#This Row],[L fim]]</f>
         <v>28</v>
       </c>
-      <c r="K9" s="92">
+      <c r="K9" s="12">
         <f>Viagens[[#This Row],[km]]/Viagens[[#This Row],[L]]</f>
         <v>12.428571428571429</v>
       </c>
-      <c r="L9" s="111">
+      <c r="L9" s="31">
         <v>3.9</v>
       </c>
-      <c r="M9" s="101">
+      <c r="M9" s="21">
         <f>Viagens[[#This Row],[preço]]/Viagens[[#This Row],[consumo]]</f>
         <v>0.31379310344827582</v>
       </c>
-      <c r="N9" s="112">
+      <c r="N9" s="32">
         <f>Viagens[[#This Row],[L]]*Viagens[[#This Row],[preço]]</f>
         <v>109.2</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="99">
+      <c r="A10" s="19">
         <v>42961</v>
       </c>
-      <c r="B10" s="91"/>
-      <c r="C10" s="91"/>
-      <c r="D10" s="91"/>
-      <c r="E10" s="90">
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="10">
         <v>68995</v>
       </c>
-      <c r="F10" s="90">
+      <c r="F10" s="10">
         <v>69370</v>
       </c>
-      <c r="G10" s="94">
+      <c r="G10" s="14">
         <f t="shared" si="0"/>
         <v>375</v>
       </c>
-      <c r="H10" s="90">
+      <c r="H10" s="10">
         <v>42.41</v>
       </c>
-      <c r="I10" s="90">
+      <c r="I10" s="10">
         <v>10.5</v>
       </c>
-      <c r="J10" s="95">
+      <c r="J10" s="15">
         <f>Viagens[[#This Row],[L ini]]-Viagens[[#This Row],[L fim]]</f>
         <v>31.909999999999997</v>
       </c>
-      <c r="K10" s="92">
+      <c r="K10" s="12">
         <f>Viagens[[#This Row],[km]]/Viagens[[#This Row],[L]]</f>
         <v>11.751801942964589</v>
       </c>
-      <c r="L10" s="111">
+      <c r="L10" s="31">
         <v>4.1900000000000004</v>
       </c>
-      <c r="M10" s="101">
+      <c r="M10" s="21">
         <f>Viagens[[#This Row],[preço]]/Viagens[[#This Row],[consumo]]</f>
         <v>0.35654106666666668</v>
       </c>
-      <c r="N10" s="112">
+      <c r="N10" s="32">
         <f>Viagens[[#This Row],[L]]*Viagens[[#This Row],[preço]]</f>
         <v>133.7029</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="99">
+      <c r="A11" s="19">
         <v>43040</v>
       </c>
-      <c r="B11" s="91"/>
-      <c r="C11" s="91"/>
-      <c r="D11" s="91"/>
-      <c r="E11" s="90">
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="10">
         <v>70001</v>
       </c>
-      <c r="F11" s="90">
+      <c r="F11" s="10">
         <v>70379</v>
       </c>
-      <c r="G11" s="94">
+      <c r="G11" s="14">
         <f t="shared" si="0"/>
         <v>378</v>
       </c>
-      <c r="H11" s="90">
+      <c r="H11" s="10">
         <v>35.770000000000003</v>
       </c>
-      <c r="I11" s="90">
+      <c r="I11" s="10">
         <v>9</v>
       </c>
-      <c r="J11" s="95">
+      <c r="J11" s="15">
         <f>Viagens[[#This Row],[L ini]]-Viagens[[#This Row],[L fim]]</f>
         <v>26.770000000000003</v>
       </c>
-      <c r="K11" s="92">
+      <c r="K11" s="12">
         <f>Viagens[[#This Row],[km]]/Viagens[[#This Row],[L]]</f>
         <v>14.120283899887932</v>
       </c>
-      <c r="L11" s="111">
+      <c r="L11" s="31">
         <v>3.92</v>
       </c>
-      <c r="M11" s="101">
+      <c r="M11" s="21">
         <f>Viagens[[#This Row],[preço]]/Viagens[[#This Row],[consumo]]</f>
         <v>0.27761481481481487</v>
       </c>
-      <c r="N11" s="112">
+      <c r="N11" s="32">
         <f>Viagens[[#This Row],[L]]*Viagens[[#This Row],[preço]]</f>
         <v>104.93840000000002</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="99">
+      <c r="A12" s="19">
         <v>43044</v>
       </c>
-      <c r="B12" s="91"/>
-      <c r="C12" s="91"/>
-      <c r="D12" s="91"/>
-      <c r="E12" s="90">
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="10">
         <v>70431</v>
       </c>
-      <c r="F12" s="90">
+      <c r="F12" s="10">
         <v>70809</v>
       </c>
-      <c r="G12" s="94">
+      <c r="G12" s="14">
         <f t="shared" si="0"/>
         <v>378</v>
       </c>
-      <c r="H12" s="90">
+      <c r="H12" s="10">
         <v>38.869999999999997</v>
       </c>
-      <c r="I12" s="90">
+      <c r="I12" s="10">
         <v>10</v>
       </c>
-      <c r="J12" s="95">
+      <c r="J12" s="15">
         <f>Viagens[[#This Row],[L ini]]-Viagens[[#This Row],[L fim]]</f>
         <v>28.869999999999997</v>
       </c>
-      <c r="K12" s="92">
+      <c r="K12" s="12">
         <f>Viagens[[#This Row],[km]]/Viagens[[#This Row],[L]]</f>
         <v>13.093176307585731</v>
       </c>
-      <c r="L12" s="111">
+      <c r="L12" s="31">
         <v>4.09</v>
       </c>
-      <c r="M12" s="101">
+      <c r="M12" s="21">
         <f>Viagens[[#This Row],[preço]]/Viagens[[#This Row],[consumo]]</f>
         <v>0.312376455026455</v>
       </c>
-      <c r="N12" s="112">
+      <c r="N12" s="32">
         <f>Viagens[[#This Row],[L]]*Viagens[[#This Row],[preço]]</f>
         <v>118.07829999999998</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="99">
+      <c r="A13" s="19">
         <v>43087</v>
       </c>
-      <c r="B13" s="91"/>
-      <c r="C13" s="91"/>
-      <c r="D13" s="91"/>
-      <c r="E13" s="90">
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="10">
         <v>71219</v>
       </c>
-      <c r="F13" s="90">
+      <c r="F13" s="10">
         <v>71611</v>
       </c>
-      <c r="G13" s="94">
+      <c r="G13" s="14">
         <f t="shared" si="0"/>
         <v>392</v>
       </c>
-      <c r="H13" s="90">
+      <c r="H13" s="10">
         <v>38.869999999999997</v>
       </c>
-      <c r="I13" s="90">
+      <c r="I13" s="10">
         <v>10</v>
       </c>
-      <c r="J13" s="95">
+      <c r="J13" s="15">
         <f>Viagens[[#This Row],[L ini]]-Viagens[[#This Row],[L fim]]</f>
         <v>28.869999999999997</v>
       </c>
-      <c r="K13" s="92">
+      <c r="K13" s="12">
         <f>Viagens[[#This Row],[km]]/Viagens[[#This Row],[L]]</f>
         <v>13.578108763422239</v>
       </c>
-      <c r="L13" s="111">
+      <c r="L13" s="31">
         <v>4.17</v>
       </c>
-      <c r="M13" s="101">
+      <c r="M13" s="21">
         <f>Viagens[[#This Row],[preço]]/Viagens[[#This Row],[consumo]]</f>
         <v>0.30711198979591831</v>
       </c>
-      <c r="N13" s="112">
+      <c r="N13" s="32">
         <f>Viagens[[#This Row],[L]]*Viagens[[#This Row],[preço]]</f>
         <v>120.38789999999999</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="99">
+      <c r="A14" s="19">
         <v>43119</v>
       </c>
-      <c r="B14" s="91">
+      <c r="B14" s="11">
         <v>0.34375</v>
       </c>
-      <c r="C14" s="91">
+      <c r="C14" s="11">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D14" s="91">
+      <c r="D14" s="11">
         <f>Viagens[[#This Row],[hora fim]]-Viagens[[#This Row],[hora ini]]</f>
         <v>0.19791666666666663</v>
       </c>
-      <c r="E14" s="90">
+      <c r="E14" s="10">
         <v>72158</v>
       </c>
-      <c r="F14" s="90">
+      <c r="F14" s="10">
         <v>72533</v>
       </c>
-      <c r="G14" s="94">
+      <c r="G14" s="14">
         <f t="shared" si="0"/>
         <v>375</v>
       </c>
-      <c r="H14" s="90">
+      <c r="H14" s="10">
         <v>42.8</v>
       </c>
-      <c r="I14" s="90">
+      <c r="I14" s="10">
         <v>16</v>
       </c>
-      <c r="J14" s="95">
+      <c r="J14" s="15">
         <f>Viagens[[#This Row],[L ini]]-Viagens[[#This Row],[L fim]]</f>
         <v>26.799999999999997</v>
       </c>
-      <c r="K14" s="92">
+      <c r="K14" s="12">
         <f>Viagens[[#This Row],[km]]/Viagens[[#This Row],[L]]</f>
         <v>13.992537313432837</v>
       </c>
-      <c r="L14" s="111">
+      <c r="L14" s="31">
         <v>4.29</v>
       </c>
-      <c r="M14" s="101">
+      <c r="M14" s="21">
         <f>Viagens[[#This Row],[preço]]/Viagens[[#This Row],[consumo]]</f>
         <v>0.30659199999999998</v>
       </c>
-      <c r="N14" s="112">
+      <c r="N14" s="32">
         <f>Viagens[[#This Row],[L]]*Viagens[[#This Row],[preço]]</f>
         <v>114.97199999999999</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="99">
+      <c r="A15" s="19">
         <v>43128</v>
       </c>
-      <c r="B15" s="91">
+      <c r="B15" s="11">
         <v>0.55277777777777781</v>
       </c>
-      <c r="C15" s="91">
+      <c r="C15" s="11">
         <v>0.78194444444444444</v>
       </c>
-      <c r="D15" s="91">
+      <c r="D15" s="11">
         <f>Viagens[[#This Row],[hora fim]]-Viagens[[#This Row],[hora ini]]</f>
         <v>0.22916666666666663</v>
       </c>
-      <c r="E15" s="90">
+      <c r="E15" s="10">
         <v>72667</v>
       </c>
-      <c r="F15" s="90">
+      <c r="F15" s="10">
         <v>73042</v>
       </c>
-      <c r="G15" s="94">
+      <c r="G15" s="14">
         <f t="shared" si="0"/>
         <v>375</v>
       </c>
-      <c r="H15" s="90">
+      <c r="H15" s="10">
         <v>35.972000000000001</v>
       </c>
-      <c r="I15" s="90">
+      <c r="I15" s="10">
         <v>9</v>
       </c>
-      <c r="J15" s="95">
+      <c r="J15" s="15">
         <f>Viagens[[#This Row],[L ini]]-Viagens[[#This Row],[L fim]]</f>
         <v>26.972000000000001</v>
       </c>
-      <c r="K15" s="92">
+      <c r="K15" s="12">
         <f>Viagens[[#This Row],[km]]/Viagens[[#This Row],[L]]</f>
         <v>13.903307133323446</v>
       </c>
-      <c r="L15" s="111">
+      <c r="L15" s="31">
         <v>4.2699999999999996</v>
       </c>
-      <c r="M15" s="101">
+      <c r="M15" s="21">
         <f>Viagens[[#This Row],[preço]]/Viagens[[#This Row],[consumo]]</f>
         <v>0.30712117333333333</v>
       </c>
-      <c r="N15" s="112">
+      <c r="N15" s="32">
         <f>Viagens[[#This Row],[L]]*Viagens[[#This Row],[preço]]</f>
         <v>115.17044</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="99">
+      <c r="A16" s="19">
         <v>43148</v>
       </c>
-      <c r="B16" s="91"/>
-      <c r="C16" s="91"/>
-      <c r="D16" s="91"/>
-      <c r="E16" s="90">
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="10">
         <v>73312</v>
       </c>
-      <c r="F16" s="90">
+      <c r="F16" s="10">
         <v>73666</v>
       </c>
-      <c r="G16" s="94">
+      <c r="G16" s="14">
         <f t="shared" si="0"/>
         <v>354</v>
       </c>
-      <c r="H16" s="90">
+      <c r="H16" s="10">
         <v>44.981999999999999</v>
       </c>
-      <c r="I16" s="90">
+      <c r="I16" s="10">
         <v>18</v>
       </c>
-      <c r="J16" s="95">
+      <c r="J16" s="15">
         <f>Viagens[[#This Row],[L ini]]-Viagens[[#This Row],[L fim]]</f>
         <v>26.981999999999999</v>
       </c>
-      <c r="K16" s="92">
+      <c r="K16" s="12">
         <f>Viagens[[#This Row],[km]]/Viagens[[#This Row],[L]]</f>
         <v>13.119857682899712</v>
       </c>
-      <c r="L16" s="111">
+      <c r="L16" s="31">
         <v>4.49</v>
       </c>
-      <c r="M16" s="101">
+      <c r="M16" s="21">
         <f>Viagens[[#This Row],[preço]]/Viagens[[#This Row],[consumo]]</f>
         <v>0.34222932203389833</v>
       </c>
-      <c r="N16" s="112">
+      <c r="N16" s="32">
         <f>Viagens[[#This Row],[L]]*Viagens[[#This Row],[preço]]</f>
         <v>121.14918</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="99">
+      <c r="A17" s="19">
         <v>43187</v>
       </c>
-      <c r="B17" s="91">
+      <c r="B17" s="11">
         <v>0.57986111111111105</v>
       </c>
-      <c r="C17" s="91">
+      <c r="C17" s="11">
         <v>0.79791666666666661</v>
       </c>
-      <c r="D17" s="91">
+      <c r="D17" s="11">
         <f>Viagens[[#This Row],[hora fim]]-Viagens[[#This Row],[hora ini]]</f>
         <v>0.21805555555555556</v>
       </c>
-      <c r="E17" s="90">
+      <c r="E17" s="10">
         <v>74082</v>
       </c>
-      <c r="F17" s="90">
+      <c r="F17" s="10">
         <v>74449</v>
       </c>
-      <c r="G17" s="94">
+      <c r="G17" s="14">
         <f t="shared" si="0"/>
         <v>367</v>
       </c>
-      <c r="H17" s="90">
+      <c r="H17" s="10">
         <v>34.168564920273354</v>
       </c>
-      <c r="I17" s="90">
+      <c r="I17" s="10">
         <v>8</v>
       </c>
-      <c r="J17" s="95">
+      <c r="J17" s="15">
         <f>Viagens[[#This Row],[L ini]]-Viagens[[#This Row],[L fim]]</f>
         <v>26.168564920273354</v>
       </c>
-      <c r="K17" s="92">
+      <c r="K17" s="12">
         <f>Viagens[[#This Row],[km]]/Viagens[[#This Row],[L]]</f>
         <v>14.024460306406683</v>
       </c>
-      <c r="L17" s="111">
+      <c r="L17" s="31">
         <v>4.3899999999999997</v>
       </c>
-      <c r="M17" s="101">
+      <c r="M17" s="21">
         <f>Viagens[[#This Row],[preço]]/Viagens[[#This Row],[consumo]]</f>
         <v>0.31302452316076296</v>
       </c>
-      <c r="N17" s="112">
+      <c r="N17" s="32">
         <f>Viagens[[#This Row],[L]]*Viagens[[#This Row],[preço]]</f>
         <v>114.88000000000002</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="99">
+      <c r="A18" s="19">
         <v>43190</v>
       </c>
-      <c r="B18" s="91">
+      <c r="B18" s="11">
         <v>0.56944444444444442</v>
       </c>
-      <c r="C18" s="91">
+      <c r="C18" s="11">
         <v>0.75347222222222221</v>
       </c>
-      <c r="D18" s="91">
+      <c r="D18" s="11">
         <f>Viagens[[#This Row],[hora fim]]-Viagens[[#This Row],[hora ini]]</f>
         <v>0.18402777777777779</v>
       </c>
-      <c r="E18" s="90">
+      <c r="E18" s="10">
         <v>74474</v>
       </c>
-      <c r="F18" s="90">
+      <c r="F18" s="10">
         <v>74825</v>
       </c>
-      <c r="G18" s="94">
+      <c r="G18" s="14">
         <f t="shared" si="0"/>
         <v>351</v>
       </c>
-      <c r="H18" s="90">
+      <c r="H18" s="10">
         <v>48</v>
       </c>
-      <c r="I18" s="90">
+      <c r="I18" s="10">
         <v>22</v>
       </c>
-      <c r="J18" s="95">
+      <c r="J18" s="15">
         <f>Viagens[[#This Row],[L ini]]-Viagens[[#This Row],[L fim]]</f>
         <v>26</v>
       </c>
-      <c r="K18" s="92">
+      <c r="K18" s="12">
         <f>Viagens[[#This Row],[km]]/Viagens[[#This Row],[L]]</f>
         <v>13.5</v>
       </c>
-      <c r="L18" s="111">
+      <c r="L18" s="31">
         <v>4.49</v>
       </c>
-      <c r="M18" s="101">
+      <c r="M18" s="21">
         <f>Viagens[[#This Row],[preço]]/Viagens[[#This Row],[consumo]]</f>
         <v>0.33259259259259261</v>
       </c>
-      <c r="N18" s="112">
+      <c r="N18" s="32">
         <f>Viagens[[#This Row],[L]]*Viagens[[#This Row],[preço]]</f>
         <v>116.74000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="99">
+      <c r="A19" s="19">
         <v>43287</v>
       </c>
-      <c r="B19" s="91">
+      <c r="B19" s="11">
         <v>0.24166666666666667</v>
       </c>
-      <c r="C19" s="91">
+      <c r="C19" s="11">
         <v>0.46111111111111108</v>
       </c>
-      <c r="D19" s="91">
+      <c r="D19" s="11">
         <f>Viagens[[#This Row],[hora fim]]-Viagens[[#This Row],[hora ini]]</f>
         <v>0.21944444444444441</v>
       </c>
-      <c r="E19" s="90">
+      <c r="E19" s="10">
         <v>75894</v>
       </c>
-      <c r="F19" s="90">
+      <c r="F19" s="10">
         <v>76265</v>
       </c>
-      <c r="G19" s="94">
+      <c r="G19" s="14">
         <f t="shared" si="0"/>
         <v>371</v>
       </c>
-      <c r="H19" s="90">
+      <c r="H19" s="10">
         <v>48</v>
       </c>
-      <c r="I19" s="90">
+      <c r="I19" s="10">
         <v>20</v>
       </c>
-      <c r="J19" s="95">
+      <c r="J19" s="15">
         <f>Viagens[[#This Row],[L ini]]-Viagens[[#This Row],[L fim]]</f>
         <v>28</v>
       </c>
-      <c r="K19" s="92">
+      <c r="K19" s="12">
         <f>Viagens[[#This Row],[km]]/Viagens[[#This Row],[L]]</f>
         <v>13.25</v>
       </c>
-      <c r="L19" s="111">
+      <c r="L19" s="31">
         <v>4.59</v>
       </c>
-      <c r="M19" s="101">
+      <c r="M19" s="21">
         <f>Viagens[[#This Row],[preço]]/Viagens[[#This Row],[consumo]]</f>
         <v>0.34641509433962264</v>
       </c>
-      <c r="N19" s="112">
+      <c r="N19" s="32">
         <f>Viagens[[#This Row],[L]]*Viagens[[#This Row],[preço]]</f>
         <v>128.51999999999998</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="99">
+      <c r="A20" s="19">
         <v>43289</v>
       </c>
-      <c r="B20" s="91">
+      <c r="B20" s="11">
         <v>0.61111111111111105</v>
       </c>
-      <c r="C20" s="91">
+      <c r="C20" s="11">
         <v>0.7597222222222223</v>
       </c>
-      <c r="D20" s="91">
+      <c r="D20" s="11">
         <f>Viagens[[#This Row],[hora fim]]-Viagens[[#This Row],[hora ini]]</f>
         <v>0.14861111111111125</v>
       </c>
-      <c r="E20" s="90">
+      <c r="E20" s="10">
         <v>76308</v>
       </c>
-      <c r="F20" s="90">
+      <c r="F20" s="10">
         <v>76660</v>
       </c>
-      <c r="G20" s="94">
+      <c r="G20" s="14">
         <f t="shared" si="0"/>
         <v>352</v>
       </c>
-      <c r="H20" s="90">
+      <c r="H20" s="10">
         <v>48</v>
       </c>
-      <c r="I20" s="90">
+      <c r="I20" s="10">
         <v>23</v>
       </c>
-      <c r="J20" s="95">
+      <c r="J20" s="15">
         <f>Viagens[[#This Row],[L ini]]-Viagens[[#This Row],[L fim]]</f>
         <v>25</v>
       </c>
-      <c r="K20" s="92">
+      <c r="K20" s="12">
         <f>Viagens[[#This Row],[km]]/Viagens[[#This Row],[L]]</f>
         <v>14.08</v>
       </c>
-      <c r="L20" s="111">
+      <c r="L20" s="31">
         <v>4.79</v>
       </c>
-      <c r="M20" s="101">
+      <c r="M20" s="21">
         <f>Viagens[[#This Row],[preço]]/Viagens[[#This Row],[consumo]]</f>
         <v>0.34019886363636365</v>
       </c>
-      <c r="N20" s="112">
+      <c r="N20" s="32">
         <f>Viagens[[#This Row],[L]]*Viagens[[#This Row],[preço]]</f>
         <v>119.75</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="99">
+      <c r="A21" s="19">
         <v>43350</v>
       </c>
-      <c r="B21" s="91">
+      <c r="B21" s="11">
         <v>0.35347222222222219</v>
       </c>
-      <c r="C21" s="91">
+      <c r="C21" s="11">
         <v>0.5493055555555556</v>
       </c>
-      <c r="D21" s="91">
+      <c r="D21" s="11">
         <f>Viagens[[#This Row],[hora fim]]-Viagens[[#This Row],[hora ini]]</f>
         <v>0.19583333333333341</v>
       </c>
-      <c r="E21" s="90">
+      <c r="E21" s="10">
         <v>77444</v>
       </c>
-      <c r="F21" s="90">
+      <c r="F21" s="10">
         <v>77816</v>
       </c>
-      <c r="G21" s="94">
+      <c r="G21" s="14">
         <f t="shared" si="0"/>
         <v>372</v>
       </c>
-      <c r="H21" s="90">
+      <c r="H21" s="10">
         <v>40</v>
       </c>
-      <c r="I21" s="90">
+      <c r="I21" s="10">
         <v>14</v>
       </c>
-      <c r="J21" s="95">
+      <c r="J21" s="15">
         <f>Viagens[[#This Row],[L ini]]-Viagens[[#This Row],[L fim]]</f>
         <v>26</v>
       </c>
-      <c r="K21" s="92">
+      <c r="K21" s="12">
         <f>Viagens[[#This Row],[km]]/Viagens[[#This Row],[L]]</f>
         <v>14.307692307692308</v>
       </c>
-      <c r="L21" s="111">
+      <c r="L21" s="31">
         <v>4.79</v>
       </c>
-      <c r="M21" s="101">
+      <c r="M21" s="21">
         <f>Viagens[[#This Row],[preço]]/Viagens[[#This Row],[consumo]]</f>
         <v>0.33478494623655913</v>
       </c>
-      <c r="N21" s="112">
+      <c r="N21" s="32">
         <f>Viagens[[#This Row],[L]]*Viagens[[#This Row],[preço]]</f>
         <v>124.54</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="99">
+      <c r="A22" s="19">
         <v>43352</v>
       </c>
-      <c r="B22" s="91">
+      <c r="B22" s="11">
         <v>0.47013888888888888</v>
       </c>
-      <c r="C22" s="91">
+      <c r="C22" s="11">
         <v>0.67638888888888893</v>
       </c>
-      <c r="D22" s="91">
+      <c r="D22" s="11">
         <f>Viagens[[#This Row],[hora fim]]-Viagens[[#This Row],[hora ini]]</f>
         <v>0.20625000000000004</v>
       </c>
-      <c r="E22" s="90">
+      <c r="E22" s="10">
         <v>77858</v>
       </c>
-      <c r="F22" s="90">
+      <c r="F22" s="10">
         <v>78222</v>
       </c>
-      <c r="G22" s="94">
+      <c r="G22" s="14">
         <f t="shared" si="0"/>
         <v>364</v>
       </c>
-      <c r="H22" s="90">
+      <c r="H22" s="10">
         <v>48</v>
       </c>
-      <c r="I22" s="90">
+      <c r="I22" s="10">
         <v>18</v>
       </c>
-      <c r="J22" s="95">
+      <c r="J22" s="15">
         <f>Viagens[[#This Row],[L ini]]-Viagens[[#This Row],[L fim]]</f>
         <v>30</v>
       </c>
-      <c r="K22" s="92">
+      <c r="K22" s="12">
         <f>Viagens[[#This Row],[km]]/Viagens[[#This Row],[L]]</f>
         <v>12.133333333333333</v>
       </c>
-      <c r="L22" s="111">
+      <c r="L22" s="31">
         <v>4.79</v>
       </c>
-      <c r="M22" s="101">
+      <c r="M22" s="21">
         <f>Viagens[[#This Row],[preço]]/Viagens[[#This Row],[consumo]]</f>
         <v>0.39478021978021982</v>
       </c>
-      <c r="N22" s="112">
+      <c r="N22" s="32">
         <f>Viagens[[#This Row],[L]]*Viagens[[#This Row],[preço]]</f>
         <v>143.69999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="99">
+      <c r="A23" s="19">
         <v>43385</v>
       </c>
-      <c r="B23" s="91">
+      <c r="B23" s="11">
         <v>0.38125000000000003</v>
       </c>
-      <c r="C23" s="91">
+      <c r="C23" s="11">
         <v>0.58402777777777781</v>
       </c>
-      <c r="D23" s="91">
+      <c r="D23" s="11">
         <f>Viagens[[#This Row],[hora fim]]-Viagens[[#This Row],[hora ini]]</f>
         <v>0.20277777777777778</v>
       </c>
-      <c r="E23" s="90">
+      <c r="E23" s="10">
         <v>78597</v>
       </c>
-      <c r="F23" s="90">
+      <c r="F23" s="10">
         <v>78960</v>
       </c>
-      <c r="G23" s="94">
+      <c r="G23" s="14">
         <f t="shared" si="0"/>
         <v>363</v>
       </c>
-      <c r="H23" s="90">
+      <c r="H23" s="10">
         <v>45</v>
       </c>
-      <c r="I23" s="90">
+      <c r="I23" s="10">
         <v>12</v>
       </c>
-      <c r="J23" s="95">
+      <c r="J23" s="15">
         <f>Viagens[[#This Row],[L ini]]-Viagens[[#This Row],[L fim]]</f>
         <v>33</v>
       </c>
-      <c r="K23" s="92">
+      <c r="K23" s="12">
         <f>Viagens[[#This Row],[km]]/Viagens[[#This Row],[L]]</f>
         <v>11</v>
       </c>
-      <c r="L23" s="111">
+      <c r="L23" s="31">
         <v>4.79</v>
       </c>
-      <c r="M23" s="101">
+      <c r="M23" s="21">
         <f>Viagens[[#This Row],[preço]]/Viagens[[#This Row],[consumo]]</f>
         <v>0.43545454545454548</v>
       </c>
-      <c r="N23" s="112">
+      <c r="N23" s="32">
         <f>Viagens[[#This Row],[L]]*Viagens[[#This Row],[preço]]</f>
         <v>158.07</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="99">
+      <c r="A24" s="19">
         <v>43388</v>
       </c>
-      <c r="B24" s="91">
+      <c r="B24" s="11">
         <v>0.33194444444444443</v>
       </c>
-      <c r="C24" s="91">
+      <c r="C24" s="11">
         <v>0.51111111111111118</v>
       </c>
-      <c r="D24" s="91">
+      <c r="D24" s="11">
         <f>Viagens[[#This Row],[hora fim]]-Viagens[[#This Row],[hora ini]]</f>
         <v>0.17916666666666675</v>
       </c>
-      <c r="E24" s="90">
+      <c r="E24" s="10">
         <v>79000</v>
       </c>
-      <c r="F24" s="90">
+      <c r="F24" s="10">
         <v>79352</v>
       </c>
-      <c r="G24" s="94">
+      <c r="G24" s="14">
         <f t="shared" si="0"/>
         <v>352</v>
       </c>
-      <c r="H24" s="90">
+      <c r="H24" s="10">
         <v>34</v>
       </c>
-      <c r="I24" s="90">
+      <c r="I24" s="10">
         <v>6</v>
       </c>
-      <c r="J24" s="95">
+      <c r="J24" s="15">
         <f>Viagens[[#This Row],[L ini]]-Viagens[[#This Row],[L fim]]</f>
         <v>28</v>
       </c>
-      <c r="K24" s="92">
+      <c r="K24" s="12">
         <f>Viagens[[#This Row],[km]]/Viagens[[#This Row],[L]]</f>
         <v>12.571428571428571</v>
       </c>
-      <c r="L24" s="111">
+      <c r="L24" s="31">
         <v>4.9400000000000004</v>
       </c>
-      <c r="M24" s="101">
+      <c r="M24" s="21">
         <f>Viagens[[#This Row],[preço]]/Viagens[[#This Row],[consumo]]</f>
         <v>0.3929545454545455</v>
       </c>
-      <c r="N24" s="112">
+      <c r="N24" s="32">
         <f>Viagens[[#This Row],[L]]*Viagens[[#This Row],[preço]]</f>
         <v>138.32000000000002</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="99">
+      <c r="A25" s="19">
         <v>43456</v>
       </c>
-      <c r="B25" s="91">
+      <c r="B25" s="11">
         <v>0.40416666666666662</v>
       </c>
-      <c r="C25" s="91">
+      <c r="C25" s="11">
         <v>0.6166666666666667</v>
       </c>
-      <c r="D25" s="91">
+      <c r="D25" s="11">
         <f>Viagens[[#This Row],[hora fim]]-Viagens[[#This Row],[hora ini]]</f>
         <v>0.21250000000000008</v>
       </c>
-      <c r="E25" s="90">
+      <c r="E25" s="10">
         <v>80192</v>
       </c>
-      <c r="F25" s="90">
+      <c r="F25" s="10">
         <v>80548</v>
       </c>
-      <c r="G25" s="94">
+      <c r="G25" s="14">
         <f t="shared" si="0"/>
         <v>356</v>
       </c>
-      <c r="H25" s="90">
+      <c r="H25" s="10">
         <v>43</v>
       </c>
-      <c r="I25" s="90">
+      <c r="I25" s="10">
         <v>13</v>
       </c>
-      <c r="J25" s="95">
+      <c r="J25" s="15">
         <f>Viagens[[#This Row],[L ini]]-Viagens[[#This Row],[L fim]]</f>
         <v>30</v>
       </c>
-      <c r="K25" s="92">
+      <c r="K25" s="12">
         <f>Viagens[[#This Row],[km]]/Viagens[[#This Row],[L]]</f>
         <v>11.866666666666667</v>
       </c>
-      <c r="L25" s="111">
+      <c r="L25" s="31">
         <v>4.3499999999999996</v>
       </c>
-      <c r="M25" s="101">
+      <c r="M25" s="21">
         <f>Viagens[[#This Row],[preço]]/Viagens[[#This Row],[consumo]]</f>
         <v>0.36657303370786515</v>
       </c>
-      <c r="N25" s="112">
+      <c r="N25" s="32">
         <f>Viagens[[#This Row],[L]]*Viagens[[#This Row],[preço]]</f>
         <v>130.5</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="99">
+      <c r="A26" s="19">
         <v>43459</v>
       </c>
-      <c r="B26" s="91">
+      <c r="B26" s="11">
         <v>0.60416666666666663</v>
       </c>
-      <c r="C26" s="91">
+      <c r="C26" s="11">
         <v>0.80208333333333337</v>
       </c>
-      <c r="D26" s="91">
+      <c r="D26" s="11">
         <f>Viagens[[#This Row],[hora fim]]-Viagens[[#This Row],[hora ini]]</f>
         <v>0.19791666666666674</v>
       </c>
-      <c r="E26" s="90">
+      <c r="E26" s="10">
         <v>80565</v>
       </c>
-      <c r="F26" s="90">
+      <c r="F26" s="10">
         <v>80925</v>
       </c>
-      <c r="G26" s="94">
+      <c r="G26" s="14">
         <f t="shared" si="0"/>
         <v>360</v>
       </c>
-      <c r="H26" s="90">
+      <c r="H26" s="10">
         <v>48</v>
       </c>
-      <c r="I26" s="90">
+      <c r="I26" s="10">
         <v>19</v>
       </c>
-      <c r="J26" s="95">
+      <c r="J26" s="15">
         <f>Viagens[[#This Row],[L ini]]-Viagens[[#This Row],[L fim]]</f>
         <v>29</v>
       </c>
-      <c r="K26" s="92">
+      <c r="K26" s="12">
         <f>Viagens[[#This Row],[km]]/Viagens[[#This Row],[L]]</f>
         <v>12.413793103448276</v>
       </c>
-      <c r="L26" s="111">
+      <c r="L26" s="31">
         <v>4.6399999999999997</v>
       </c>
-      <c r="M26" s="101">
+      <c r="M26" s="21">
         <f>Viagens[[#This Row],[preço]]/Viagens[[#This Row],[consumo]]</f>
         <v>0.37377777777777776</v>
       </c>
-      <c r="N26" s="112">
+      <c r="N26" s="32">
         <f>Viagens[[#This Row],[L]]*Viagens[[#This Row],[preço]]</f>
         <v>134.56</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="88"/>
-      <c r="B27" s="88"/>
-      <c r="C27" s="85"/>
-      <c r="D27" s="90"/>
-      <c r="E27" s="89"/>
-      <c r="F27" s="84"/>
-      <c r="G27" s="85"/>
-      <c r="H27" s="85"/>
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="88"/>
-      <c r="B28" s="88"/>
-      <c r="C28" s="85"/>
-      <c r="D28" s="90"/>
-      <c r="E28" s="89"/>
-      <c r="F28" s="84"/>
-      <c r="G28" s="85"/>
-      <c r="H28" s="85"/>
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="88"/>
-      <c r="B29" s="88"/>
-      <c r="C29" s="85"/>
-      <c r="D29" s="90"/>
-      <c r="E29" s="89"/>
-      <c r="F29" s="84"/>
-      <c r="G29" s="85"/>
-      <c r="H29" s="85"/>
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="88"/>
-      <c r="B30" s="88"/>
-      <c r="C30" s="85"/>
-      <c r="D30" s="90"/>
-      <c r="E30" s="89"/>
-      <c r="F30" s="84"/>
-      <c r="G30" s="85"/>
-      <c r="H30" s="85"/>
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="88"/>
-      <c r="B31" s="88"/>
-      <c r="C31" s="85"/>
-      <c r="D31" s="90"/>
-      <c r="E31" s="89"/>
-      <c r="F31" s="84"/>
-      <c r="G31" s="85"/>
-      <c r="H31" s="85"/>
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="88"/>
-      <c r="B32" s="88"/>
-      <c r="C32" s="85"/>
-      <c r="D32" s="90"/>
-      <c r="E32" s="89"/>
-      <c r="F32" s="84"/>
-      <c r="G32" s="85"/>
-      <c r="H32" s="85"/>
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="88"/>
-      <c r="B33" s="88"/>
-      <c r="C33" s="85"/>
-      <c r="D33" s="90"/>
-      <c r="E33" s="89"/>
-      <c r="F33" s="84"/>
-      <c r="G33" s="85"/>
-      <c r="H33" s="85"/>
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="88"/>
-      <c r="B34" s="88"/>
-      <c r="C34" s="85"/>
-      <c r="D34" s="90"/>
-      <c r="E34" s="89"/>
-      <c r="F34" s="84"/>
-      <c r="G34" s="85"/>
-      <c r="H34" s="85"/>
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="88"/>
-      <c r="B35" s="88"/>
-      <c r="C35" s="85"/>
-      <c r="D35" s="90"/>
-      <c r="E35" s="89"/>
-      <c r="F35" s="84"/>
-      <c r="G35" s="85"/>
-      <c r="H35" s="85"/>
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="88"/>
-      <c r="B36" s="88"/>
-      <c r="C36" s="85"/>
-      <c r="D36" s="90"/>
-      <c r="E36" s="89"/>
-      <c r="F36" s="84"/>
-      <c r="G36" s="85"/>
-      <c r="H36" s="85"/>
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -6699,7 +5107,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0205F9E8-3143-4E71-8CB5-0888B6153C93}">
   <sheetPr>
     <tabColor theme="9" tint="-0.499984740745262"/>
@@ -6707,7 +5115,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6716,392 +5124,392 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="109" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="109" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="109" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="109" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="109" t="s">
-        <v>6</v>
+      <c r="D1" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="29" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="105">
+      <c r="A2" s="25">
         <v>42900</v>
       </c>
-      <c r="B2" s="106"/>
-      <c r="C2" s="104">
+      <c r="B2" s="26"/>
+      <c r="C2" s="24">
         <f>Etanol[[#This Row],[preço]]*Etanol[[#This Row],[litros]]</f>
         <v>29.999999999999996</v>
       </c>
-      <c r="D2" s="104">
+      <c r="D2" s="24">
         <v>3.29</v>
       </c>
-      <c r="E2" s="107">
+      <c r="E2" s="27">
         <v>9.1185410334346493</v>
       </c>
-      <c r="F2" s="108">
+      <c r="F2" s="28">
         <v>67245</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="105">
+      <c r="A3" s="25">
         <v>43006</v>
       </c>
-      <c r="B3" s="106"/>
-      <c r="C3" s="104">
+      <c r="B3" s="26"/>
+      <c r="C3" s="24">
         <f>Etanol[[#This Row],[preço]]*Etanol[[#This Row],[litros]]</f>
         <v>40</v>
       </c>
-      <c r="D3" s="104">
+      <c r="D3" s="24">
         <v>3.25</v>
       </c>
-      <c r="E3" s="107">
+      <c r="E3" s="27">
         <v>12.307692307692308</v>
       </c>
-      <c r="F3" s="108">
+      <c r="F3" s="28">
         <v>69760</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="105">
+      <c r="A4" s="25">
         <v>43069</v>
       </c>
-      <c r="B4" s="106"/>
-      <c r="C4" s="104">
+      <c r="B4" s="26"/>
+      <c r="C4" s="24">
         <f>Etanol[[#This Row],[preço]]*Etanol[[#This Row],[litros]]</f>
         <v>40</v>
       </c>
-      <c r="D4" s="104">
+      <c r="D4" s="24">
         <v>3.37</v>
       </c>
-      <c r="E4" s="107">
+      <c r="E4" s="27">
         <v>11.869436201780415</v>
       </c>
-      <c r="F4" s="108"/>
+      <c r="F4" s="28"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="105">
+      <c r="A5" s="25">
         <v>43078</v>
       </c>
-      <c r="B5" s="106"/>
-      <c r="C5" s="104">
+      <c r="B5" s="26"/>
+      <c r="C5" s="24">
         <f>Etanol[[#This Row],[preço]]*Etanol[[#This Row],[litros]]</f>
         <v>40</v>
       </c>
-      <c r="D5" s="104">
+      <c r="D5" s="24">
         <v>3.27</v>
       </c>
-      <c r="E5" s="107">
+      <c r="E5" s="27">
         <v>12.232415902140673</v>
       </c>
-      <c r="F5" s="108"/>
+      <c r="F5" s="28"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="105">
+      <c r="A6" s="25">
         <v>43169</v>
       </c>
-      <c r="B6" s="106"/>
-      <c r="C6" s="104">
+      <c r="B6" s="26"/>
+      <c r="C6" s="24">
         <f>Etanol[[#This Row],[preço]]*Etanol[[#This Row],[litros]]</f>
         <v>40</v>
       </c>
-      <c r="D6" s="104">
+      <c r="D6" s="24">
         <v>3.59</v>
       </c>
-      <c r="E6" s="107">
+      <c r="E6" s="27">
         <v>11.142061281337048</v>
       </c>
-      <c r="F6" s="108"/>
+      <c r="F6" s="28"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="105">
+      <c r="A7" s="25">
         <v>43194</v>
       </c>
-      <c r="B7" s="106"/>
-      <c r="C7" s="104">
+      <c r="B7" s="26"/>
+      <c r="C7" s="24">
         <f>Etanol[[#This Row],[preço]]*Etanol[[#This Row],[litros]]</f>
         <v>40</v>
       </c>
-      <c r="D7" s="104">
+      <c r="D7" s="24">
         <v>3.59</v>
       </c>
-      <c r="E7" s="107">
+      <c r="E7" s="27">
         <v>11.142061281337048</v>
       </c>
-      <c r="F7" s="108"/>
+      <c r="F7" s="28"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="105">
+      <c r="A8" s="25">
         <v>43207</v>
       </c>
-      <c r="B8" s="106"/>
-      <c r="C8" s="104">
+      <c r="B8" s="26"/>
+      <c r="C8" s="24">
         <f>Etanol[[#This Row],[preço]]*Etanol[[#This Row],[litros]]</f>
         <v>20</v>
       </c>
-      <c r="D8" s="104">
+      <c r="D8" s="24">
         <v>3.59</v>
       </c>
-      <c r="E8" s="107">
+      <c r="E8" s="27">
         <v>5.5710306406685239</v>
       </c>
-      <c r="F8" s="108"/>
+      <c r="F8" s="28"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="105">
+      <c r="A9" s="25">
         <v>43222</v>
       </c>
-      <c r="B9" s="106"/>
-      <c r="C9" s="104">
+      <c r="B9" s="26"/>
+      <c r="C9" s="24">
         <f>Etanol[[#This Row],[preço]]*Etanol[[#This Row],[litros]]</f>
         <v>40</v>
       </c>
-      <c r="D9" s="104">
+      <c r="D9" s="24">
         <v>3.59</v>
       </c>
-      <c r="E9" s="107">
+      <c r="E9" s="27">
         <v>11.142061281337048</v>
       </c>
-      <c r="F9" s="108"/>
+      <c r="F9" s="28"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="105">
+      <c r="A10" s="25">
         <v>43243</v>
       </c>
-      <c r="B10" s="106"/>
-      <c r="C10" s="104">
+      <c r="B10" s="26"/>
+      <c r="C10" s="24">
         <f>Etanol[[#This Row],[preço]]*Etanol[[#This Row],[litros]]</f>
         <v>60</v>
       </c>
-      <c r="D10" s="104">
+      <c r="D10" s="24">
         <v>3.59</v>
       </c>
-      <c r="E10" s="107">
+      <c r="E10" s="27">
         <v>16.713091922005571</v>
       </c>
-      <c r="F10" s="108"/>
+      <c r="F10" s="28"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="105">
+      <c r="A11" s="25">
         <v>43263</v>
       </c>
-      <c r="B11" s="106"/>
-      <c r="C11" s="104">
+      <c r="B11" s="26"/>
+      <c r="C11" s="24">
         <f>Etanol[[#This Row],[preço]]*Etanol[[#This Row],[litros]]</f>
         <v>40</v>
       </c>
-      <c r="D11" s="104">
+      <c r="D11" s="24">
         <v>3.67</v>
       </c>
-      <c r="E11" s="107">
+      <c r="E11" s="27">
         <v>10.899182561307903</v>
       </c>
-      <c r="F11" s="108"/>
+      <c r="F11" s="28"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="105">
+      <c r="A12" s="25">
         <v>43290</v>
       </c>
-      <c r="B12" s="106"/>
-      <c r="C12" s="104">
+      <c r="B12" s="26"/>
+      <c r="C12" s="24">
         <f>Etanol[[#This Row],[preço]]*Etanol[[#This Row],[litros]]</f>
         <v>40</v>
       </c>
-      <c r="D12" s="104">
+      <c r="D12" s="24">
         <v>3.69</v>
       </c>
-      <c r="E12" s="107">
+      <c r="E12" s="27">
         <v>10.840108401084011</v>
       </c>
-      <c r="F12" s="108">
+      <c r="F12" s="28">
         <v>76592</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="105">
+      <c r="A13" s="25">
         <v>43341</v>
       </c>
-      <c r="B13" s="106"/>
-      <c r="C13" s="104">
+      <c r="B13" s="26"/>
+      <c r="C13" s="24">
         <f>Etanol[[#This Row],[preço]]*Etanol[[#This Row],[litros]]</f>
         <v>55.984000000000002</v>
       </c>
-      <c r="D13" s="104">
+      <c r="D13" s="24">
         <v>3.4990000000000001</v>
       </c>
-      <c r="E13" s="107">
+      <c r="E13" s="27">
         <v>16</v>
       </c>
-      <c r="F13" s="108">
+      <c r="F13" s="28">
         <v>77312</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="105">
+      <c r="A14" s="25">
         <v>43349</v>
       </c>
-      <c r="B14" s="106"/>
-      <c r="C14" s="104">
+      <c r="B14" s="26"/>
+      <c r="C14" s="24">
         <f>Etanol[[#This Row],[preço]]*Etanol[[#This Row],[litros]]</f>
         <v>28.72</v>
       </c>
-      <c r="D14" s="104">
+      <c r="D14" s="24">
         <v>3.59</v>
       </c>
-      <c r="E14" s="107">
+      <c r="E14" s="27">
         <v>8</v>
       </c>
-      <c r="F14" s="108">
+      <c r="F14" s="28">
         <v>77437</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="105">
+      <c r="A15" s="25">
         <v>43355</v>
       </c>
-      <c r="B15" s="106"/>
-      <c r="C15" s="104">
+      <c r="B15" s="26"/>
+      <c r="C15" s="24">
         <f>Etanol[[#This Row],[preço]]*Etanol[[#This Row],[litros]]</f>
         <v>28.56</v>
       </c>
-      <c r="D15" s="104">
+      <c r="D15" s="24">
         <v>3.57</v>
       </c>
-      <c r="E15" s="107">
+      <c r="E15" s="27">
         <v>8</v>
       </c>
-      <c r="F15" s="108">
+      <c r="F15" s="28">
         <v>78273</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="105">
+      <c r="A16" s="25">
         <v>43388</v>
       </c>
-      <c r="B16" s="106"/>
-      <c r="C16" s="104">
+      <c r="B16" s="26"/>
+      <c r="C16" s="24">
         <f>Etanol[[#This Row],[preço]]*Etanol[[#This Row],[litros]]</f>
         <v>56</v>
       </c>
-      <c r="D16" s="104">
+      <c r="D16" s="24">
         <v>3.5</v>
       </c>
-      <c r="E16" s="107">
+      <c r="E16" s="27">
         <v>16</v>
       </c>
-      <c r="F16" s="108">
+      <c r="F16" s="28">
         <v>79364</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="105">
+      <c r="A17" s="25">
         <v>43393</v>
       </c>
-      <c r="B17" s="106"/>
-      <c r="C17" s="104">
+      <c r="B17" s="26"/>
+      <c r="C17" s="24">
         <f>Etanol[[#This Row],[preço]]*Etanol[[#This Row],[litros]]</f>
         <v>56.72</v>
       </c>
-      <c r="D17" s="104">
+      <c r="D17" s="24">
         <v>3.5449999999999999</v>
       </c>
-      <c r="E17" s="107">
+      <c r="E17" s="27">
         <v>16</v>
       </c>
-      <c r="F17" s="108">
+      <c r="F17" s="28">
         <v>79498</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="105">
+      <c r="A18" s="25">
         <v>43410</v>
       </c>
-      <c r="B18" s="106"/>
-      <c r="C18" s="104">
+      <c r="B18" s="26"/>
+      <c r="C18" s="24">
         <f>Etanol[[#This Row],[preço]]*Etanol[[#This Row],[litros]]</f>
         <v>57.44</v>
       </c>
-      <c r="D18" s="104">
+      <c r="D18" s="24">
         <v>3.59</v>
       </c>
-      <c r="E18" s="107">
+      <c r="E18" s="27">
         <v>16</v>
       </c>
-      <c r="F18" s="108">
+      <c r="F18" s="28">
         <v>79632</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="105">
+      <c r="A19" s="25">
         <v>43455</v>
       </c>
-      <c r="B19" s="106">
+      <c r="B19" s="26">
         <v>0.38194444444444442</v>
       </c>
-      <c r="C19" s="104">
+      <c r="C19" s="24">
         <f>Etanol[[#This Row],[preço]]*Etanol[[#This Row],[litros]]</f>
         <v>54.4</v>
       </c>
-      <c r="D19" s="104">
+      <c r="D19" s="24">
         <v>3.4</v>
       </c>
-      <c r="E19" s="107">
+      <c r="E19" s="27">
         <v>16</v>
       </c>
-      <c r="F19" s="108">
+      <c r="F19" s="28">
         <v>80148</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="105">
+      <c r="A20" s="25">
         <v>43467</v>
       </c>
-      <c r="B20" s="106">
+      <c r="B20" s="26">
         <v>0.4861111111111111</v>
       </c>
-      <c r="C20" s="104">
+      <c r="C20" s="24">
         <f>Etanol[[#This Row],[preço]]*Etanol[[#This Row],[litros]]</f>
         <v>54.24</v>
       </c>
-      <c r="D20" s="104">
+      <c r="D20" s="24">
         <v>3.39</v>
       </c>
-      <c r="E20" s="107">
+      <c r="E20" s="27">
         <v>16</v>
       </c>
-      <c r="F20" s="108">
+      <c r="F20" s="28">
         <v>81020</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="105">
+      <c r="A21" s="25">
         <v>43505</v>
       </c>
-      <c r="B21" s="106">
+      <c r="B21" s="26">
         <v>0.52083333333333337</v>
       </c>
-      <c r="C21" s="104">
+      <c r="C21" s="24">
         <f>Etanol[[#This Row],[preço]]*Etanol[[#This Row],[litros]]</f>
         <v>53.6</v>
       </c>
-      <c r="D21" s="104">
+      <c r="D21" s="24">
         <v>3.35</v>
       </c>
-      <c r="E21" s="107">
+      <c r="E21" s="27">
         <v>16</v>
       </c>
-      <c r="F21" s="108">
+      <c r="F21" s="28">
         <v>81454</v>
       </c>
     </row>

--- a/Aurora.xlsx
+++ b/Aurora.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ec562523a0c953df/Documentos/planilhas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="6_{705B49AA-CB81-4D45-8E43-6C84CB649A8A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="6_{705B49AA-CB81-4D45-8E43-6C84CB649A8A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{B4B10DD0-3B84-42AB-87E7-9C140892433C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1972,7 +1972,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2194,7 +2194,7 @@
         <f>C8</f>
         <v>64985</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>65175</v>
       </c>
       <c r="D9" s="10">
@@ -2216,7 +2216,7 @@
       <c r="A10" s="2">
         <v>42816</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>65574</v>
       </c>
       <c r="C10">
@@ -3746,7 +3746,7 @@
   <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Aurora.xlsx
+++ b/Aurora.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ec562523a0c953df/Documentos/planilhas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="6_{705B49AA-CB81-4D45-8E43-6C84CB649A8A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{B4B10DD0-3B84-42AB-87E7-9C140892433C}"/>
+  <xr:revisionPtr revIDLastSave="43" documentId="6_{F78300A6-3EB5-44C8-B6A3-AA27A2E1D71E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="41" xr10:uidLastSave="{D81EE874-B6B2-4D3B-B3B2-D372C1913755}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2017" sheetId="10" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="19">
   <si>
     <t>data</t>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t>custo total</t>
+  </si>
+  <si>
+    <t>emissão</t>
   </si>
 </sst>
 </file>
@@ -300,7 +303,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="92">
+  <dxfs count="93">
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1061,6 +1064,9 @@
       <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
       <fill>
         <patternFill patternType="none">
@@ -1556,18 +1562,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{707C8E72-449F-434C-81D2-E6CAE60FDC64}" name="G_20184" displayName="G_20184" ref="A1:G28" tableBorderDxfId="91" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{707C8E72-449F-434C-81D2-E6CAE60FDC64}" name="G_20184" displayName="G_20184" ref="A1:G28" tableBorderDxfId="92" dataCellStyle="Normal">
   <autoFilter ref="A1:G28" xr:uid="{1BB8EF35-A1C5-4DA1-AE25-87B25A5E3E01}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{359F37B9-9617-418F-81F4-00F8F142D6C9}" name="data" dataDxfId="90" totalsRowDxfId="89" dataCellStyle="Normal"/>
-    <tableColumn id="2" xr3:uid="{5B407B50-7529-43FD-BA94-ADB3D3459328}" name="km ini" totalsRowFunction="min" dataDxfId="88" totalsRowDxfId="87" dataCellStyle="Normal"/>
-    <tableColumn id="3" xr3:uid="{08934F92-A85D-4FCC-AAF8-CE32E5CED8EC}" name="km fim" totalsRowFunction="max" dataDxfId="86" totalsRowDxfId="85" dataCellStyle="Normal"/>
-    <tableColumn id="4" xr3:uid="{53CA1E60-5853-464E-B828-BFEECE0B41CF}" name="km" totalsRowFunction="average" dataDxfId="84" totalsRowDxfId="83" dataCellStyle="Normal">
+    <tableColumn id="1" xr3:uid="{359F37B9-9617-418F-81F4-00F8F142D6C9}" name="data" dataDxfId="91" totalsRowDxfId="90" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{5B407B50-7529-43FD-BA94-ADB3D3459328}" name="km ini" totalsRowFunction="min" dataDxfId="89" totalsRowDxfId="88" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{08934F92-A85D-4FCC-AAF8-CE32E5CED8EC}" name="km fim" totalsRowFunction="max" dataDxfId="87" totalsRowDxfId="86" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{53CA1E60-5853-464E-B828-BFEECE0B41CF}" name="km" totalsRowFunction="average" dataDxfId="85" totalsRowDxfId="84" dataCellStyle="Normal">
       <calculatedColumnFormula>G_20184[[#This Row],[km fim]]-G_20184[[#This Row],[km ini]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{57D64090-3B83-46A5-A370-00C001CC3A22}" name="valor" totalsRowFunction="sum" dataDxfId="82" totalsRowDxfId="81" dataCellStyle="Normal"/>
-    <tableColumn id="6" xr3:uid="{EA59C9C8-15C0-4DBA-A159-0B2B8BDC9698}" name="preço" totalsRowFunction="average" dataDxfId="80" totalsRowDxfId="79" dataCellStyle="Normal"/>
-    <tableColumn id="7" xr3:uid="{051A8F7F-91AF-40BD-BAE4-405E1FF53171}" name="litros" totalsRowFunction="sum" dataDxfId="78" totalsRowDxfId="77" dataCellStyle="Normal">
+    <tableColumn id="5" xr3:uid="{57D64090-3B83-46A5-A370-00C001CC3A22}" name="valor" totalsRowFunction="sum" dataDxfId="83" totalsRowDxfId="82" dataCellStyle="Normal"/>
+    <tableColumn id="6" xr3:uid="{EA59C9C8-15C0-4DBA-A159-0B2B8BDC9698}" name="preço" totalsRowFunction="average" dataDxfId="81" totalsRowDxfId="80" dataCellStyle="Normal"/>
+    <tableColumn id="7" xr3:uid="{051A8F7F-91AF-40BD-BAE4-405E1FF53171}" name="litros" totalsRowFunction="sum" dataDxfId="79" totalsRowDxfId="78" dataCellStyle="Normal">
       <calculatedColumnFormula>G_20184[[#This Row],[valor]]/G_20184[[#This Row],[preço]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1576,21 +1582,21 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{F4E8D315-69AB-466D-B82A-109C081FA398}" name="G_2018" displayName="G_2018" ref="A1:G34" tableBorderDxfId="76" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{F4E8D315-69AB-466D-B82A-109C081FA398}" name="G_2018" displayName="G_2018" ref="A1:G34" tableBorderDxfId="77" dataCellStyle="Normal">
   <autoFilter ref="A1:G34" xr:uid="{1BB8EF35-A1C5-4DA1-AE25-87B25A5E3E01}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G34">
     <sortCondition ref="A1:A34"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{87768D9A-701C-45DE-920E-7BFC2026C313}" name="data" dataDxfId="75" totalsRowDxfId="74" dataCellStyle="Normal"/>
-    <tableColumn id="2" xr3:uid="{A4AC1043-1F00-40C3-A363-30D037C79583}" name="km ini" totalsRowFunction="min" dataDxfId="73" totalsRowDxfId="72" dataCellStyle="Normal"/>
-    <tableColumn id="3" xr3:uid="{0E5B3C2A-0DDB-40AB-96C9-1BE6758D96EA}" name="km fim" totalsRowFunction="max" dataDxfId="71" totalsRowDxfId="70" dataCellStyle="Normal"/>
-    <tableColumn id="4" xr3:uid="{60E1EC99-F30E-4DB1-A214-9390FFB3442F}" name="km" totalsRowFunction="sum" dataDxfId="69" totalsRowDxfId="68" dataCellStyle="Normal">
+    <tableColumn id="1" xr3:uid="{87768D9A-701C-45DE-920E-7BFC2026C313}" name="data" dataDxfId="76" totalsRowDxfId="75" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{A4AC1043-1F00-40C3-A363-30D037C79583}" name="km ini" totalsRowFunction="min" dataDxfId="74" totalsRowDxfId="73" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{0E5B3C2A-0DDB-40AB-96C9-1BE6758D96EA}" name="km fim" totalsRowFunction="max" dataDxfId="72" totalsRowDxfId="71" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{60E1EC99-F30E-4DB1-A214-9390FFB3442F}" name="km" totalsRowFunction="sum" dataDxfId="70" totalsRowDxfId="69" dataCellStyle="Normal">
       <calculatedColumnFormula>G_2018[[#This Row],[km fim]]-G_2018[[#This Row],[km ini]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{E2DE9863-217C-4C16-A993-DD1B8782AA27}" name="valor" totalsRowFunction="sum" dataDxfId="67" totalsRowDxfId="66" dataCellStyle="Normal"/>
-    <tableColumn id="6" xr3:uid="{1150101B-6F63-4A48-ADE5-664BEE3344D7}" name="preço" totalsRowFunction="average" dataDxfId="65" totalsRowDxfId="64" dataCellStyle="Normal"/>
-    <tableColumn id="7" xr3:uid="{B21A0A4B-7255-42FE-8E4A-B5C699477A83}" name="litros" totalsRowFunction="sum" dataDxfId="63" totalsRowDxfId="62" dataCellStyle="Normal">
+    <tableColumn id="5" xr3:uid="{E2DE9863-217C-4C16-A993-DD1B8782AA27}" name="valor" totalsRowFunction="sum" dataDxfId="68" totalsRowDxfId="67" dataCellStyle="Normal"/>
+    <tableColumn id="6" xr3:uid="{1150101B-6F63-4A48-ADE5-664BEE3344D7}" name="preço" totalsRowFunction="average" dataDxfId="66" totalsRowDxfId="65" dataCellStyle="Normal"/>
+    <tableColumn id="7" xr3:uid="{B21A0A4B-7255-42FE-8E4A-B5C699477A83}" name="litros" totalsRowFunction="sum" dataDxfId="64" totalsRowDxfId="63" dataCellStyle="Normal">
       <calculatedColumnFormula>G_2018[[#This Row],[valor]]/G_2018[[#This Row],[preço]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1599,22 +1605,25 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8D4DA0DB-1768-4A87-8BAC-0BC3711A5C7C}" name="G_2019" displayName="G_2019" ref="A1:H4" tableBorderDxfId="61" dataCellStyle="Normal">
-  <autoFilter ref="A1:H4" xr:uid="{1BB8EF35-A1C5-4DA1-AE25-87B25A5E3E01}"/>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{0CA686D4-5E48-4762-9327-629FEB3146B0}" name="data" dataDxfId="60" totalsRowDxfId="59" dataCellStyle="Normal"/>
-    <tableColumn id="8" xr3:uid="{C4E19C72-93B2-4837-B485-42F08F5ECEBF}" name="hora" totalsRowFunction="average" dataDxfId="58" totalsRowDxfId="57"/>
-    <tableColumn id="2" xr3:uid="{A24831E8-3DCE-4E6E-B7B2-ED8EF5796F22}" name="km ini" totalsRowFunction="min" dataDxfId="56" totalsRowDxfId="55" dataCellStyle="Normal"/>
-    <tableColumn id="3" xr3:uid="{8E05EFCC-4A39-40D2-A035-793B1708027E}" name="km fim" totalsRowFunction="max" dataDxfId="54" totalsRowDxfId="53" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8D4DA0DB-1768-4A87-8BAC-0BC3711A5C7C}" name="G_2019" displayName="G_2019" ref="A1:I6" tableBorderDxfId="62" dataCellStyle="Normal">
+  <autoFilter ref="A1:I6" xr:uid="{1BB8EF35-A1C5-4DA1-AE25-87B25A5E3E01}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{0CA686D4-5E48-4762-9327-629FEB3146B0}" name="data" dataDxfId="61" totalsRowDxfId="60" dataCellStyle="Normal"/>
+    <tableColumn id="8" xr3:uid="{C4E19C72-93B2-4837-B485-42F08F5ECEBF}" name="hora" totalsRowFunction="average" dataDxfId="59" totalsRowDxfId="58"/>
+    <tableColumn id="2" xr3:uid="{A24831E8-3DCE-4E6E-B7B2-ED8EF5796F22}" name="km ini" totalsRowFunction="min" dataDxfId="57" totalsRowDxfId="56" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{8E05EFCC-4A39-40D2-A035-793B1708027E}" name="km fim" totalsRowFunction="max" dataDxfId="55" totalsRowDxfId="54" dataCellStyle="Normal">
       <calculatedColumnFormula>C3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{76C9D5C3-4417-44BE-9E71-9E5CAEE19B17}" name="km" totalsRowFunction="sum" dataDxfId="52" totalsRowDxfId="51" dataCellStyle="Normal">
+    <tableColumn id="4" xr3:uid="{76C9D5C3-4417-44BE-9E71-9E5CAEE19B17}" name="km" totalsRowFunction="sum" dataDxfId="53" totalsRowDxfId="52" dataCellStyle="Normal">
       <calculatedColumnFormula>G_2019[[#This Row],[km fim]]-G_2019[[#This Row],[km ini]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{98628619-61B6-4221-97AB-017207261795}" name="valor" totalsRowFunction="sum" dataDxfId="50" totalsRowDxfId="49" dataCellStyle="Normal"/>
-    <tableColumn id="6" xr3:uid="{7269D260-3F9C-4B41-A43E-C2AC48A542E9}" name="preço" totalsRowFunction="average" dataDxfId="48" totalsRowDxfId="47" dataCellStyle="Normal"/>
-    <tableColumn id="7" xr3:uid="{24937D08-B4ED-442D-9694-24626A006DBC}" name="litros" totalsRowFunction="sum" dataDxfId="46" totalsRowDxfId="45" dataCellStyle="Normal">
+    <tableColumn id="5" xr3:uid="{98628619-61B6-4221-97AB-017207261795}" name="valor" totalsRowFunction="sum" dataDxfId="51" totalsRowDxfId="50" dataCellStyle="Normal"/>
+    <tableColumn id="6" xr3:uid="{7269D260-3F9C-4B41-A43E-C2AC48A542E9}" name="preço" totalsRowFunction="average" dataDxfId="49" totalsRowDxfId="48" dataCellStyle="Normal"/>
+    <tableColumn id="7" xr3:uid="{24937D08-B4ED-442D-9694-24626A006DBC}" name="litros" totalsRowFunction="sum" dataDxfId="47" totalsRowDxfId="46" dataCellStyle="Normal">
       <calculatedColumnFormula>G_2019[[#This Row],[valor]]/G_2019[[#This Row],[preço]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{5FFBC374-1279-4113-B9B1-DD7AFDCA12D8}" name="emissão" dataDxfId="45" dataCellStyle="Normal">
+      <calculatedColumnFormula>(G_2019[[#This Row],[km]]*0.11)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium17" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
@@ -1622,10 +1631,10 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{8349ADA9-D7F2-436E-8D85-D66EBD35D289}" name="Viagens" displayName="Viagens" ref="A1:N26" headerRowDxfId="44" dataDxfId="43" dataCellStyle="Normal">
-  <autoFilter ref="A1:N26" xr:uid="{91B7E7A6-3E74-4A30-BB6B-4EEBB1B73D97}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N24">
-    <sortCondition ref="A1:A24"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{8349ADA9-D7F2-436E-8D85-D66EBD35D289}" name="Viagens" displayName="Viagens" ref="A1:N28" headerRowDxfId="44" dataDxfId="43" dataCellStyle="Normal">
+  <autoFilter ref="A1:N28" xr:uid="{91B7E7A6-3E74-4A30-BB6B-4EEBB1B73D97}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N28">
+    <sortCondition ref="A1:A28"/>
   </sortState>
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{943F9AB6-E0CE-4D16-8D0D-D6CD20DB4E3D}" name="começo/fim da viagem" totalsRowLabel="22/12/2016" dataDxfId="42" totalsRowDxfId="41" dataCellStyle="Normal"/>
@@ -1636,7 +1645,9 @@
     </tableColumn>
     <tableColumn id="3" xr3:uid="{254E01DF-E2FE-4492-9476-CAE2652CB982}" name="km ini" totalsRowFunction="min" dataDxfId="34" totalsRowDxfId="33" dataCellStyle="Normal"/>
     <tableColumn id="4" xr3:uid="{B85A4F29-C8A5-4E05-A6C0-542D9DF6CB11}" name="km fim" totalsRowFunction="average" dataDxfId="32" totalsRowDxfId="31" dataCellStyle="Normal"/>
-    <tableColumn id="11" xr3:uid="{B2109811-F1C6-4D1C-9E75-85349990007B}" name="km" totalsRowFunction="average" dataDxfId="30" totalsRowDxfId="29"/>
+    <tableColumn id="11" xr3:uid="{B2109811-F1C6-4D1C-9E75-85349990007B}" name="km" totalsRowFunction="average" dataDxfId="30" totalsRowDxfId="29">
+      <calculatedColumnFormula>Viagens[[#This Row],[km fim]]-Viagens[[#This Row],[km ini]]</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="5" xr3:uid="{A504539A-42D5-4734-99A3-1C79CBD10ADD}" name="L ini" totalsRowFunction="average" dataDxfId="28" totalsRowDxfId="27" dataCellStyle="Normal"/>
     <tableColumn id="6" xr3:uid="{5168ADB9-DA6A-4473-9847-62692963BE45}" name="L fim" totalsRowFunction="average" dataDxfId="26" totalsRowDxfId="25" dataCellStyle="Normal"/>
     <tableColumn id="7" xr3:uid="{7A851BFB-669C-4DCC-AB14-044369ECFE05}" name="L" totalsRowFunction="average" dataDxfId="24" totalsRowDxfId="23" dataCellStyle="Normal">
@@ -1656,8 +1667,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{137CCE77-ADDB-4C8C-995A-CD5917FE5216}" name="Etanol" displayName="Etanol" ref="A1:F21" headerRowDxfId="14" dataDxfId="13" totalsRowDxfId="12">
-  <autoFilter ref="A1:F21" xr:uid="{BA0B08BB-754D-4819-AC93-39A0554A2FF6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{137CCE77-ADDB-4C8C-995A-CD5917FE5216}" name="Etanol" displayName="Etanol" ref="A1:F22" headerRowDxfId="14" dataDxfId="13" totalsRowDxfId="12">
+  <autoFilter ref="A1:F22" xr:uid="{BA0B08BB-754D-4819-AC93-39A0554A2FF6}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{FC48604D-710C-4BBA-B35F-209384F01637}" name="data" dataDxfId="11" totalsRowDxfId="10"/>
     <tableColumn id="2" xr3:uid="{A139AE0A-C5DF-448F-8E20-931AD1CD8489}" name="hora" totalsRowFunction="average" dataDxfId="9" totalsRowDxfId="8"/>
@@ -1971,7 +1982,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82D5A34F-EB28-41C8-A1E3-151E9E71FB07}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -3600,10 +3611,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B43933D-4CC7-4766-9778-D69CB537A172}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="A7:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3616,7 +3627,7 @@
     <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3641,8 +3652,11 @@
       <c r="H1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>43476</v>
       </c>
@@ -3669,8 +3683,12 @@
         <f>G_2019[[#This Row],[valor]]/G_2019[[#This Row],[preço]]</f>
         <v>14.457831325301203</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2">
+        <f>(G_2019[[#This Row],[km]]*0.11)</f>
+        <v>10.56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>43487</v>
       </c>
@@ -3698,8 +3716,12 @@
         <f>G_2019[[#This Row],[valor]]/G_2019[[#This Row],[preço]]</f>
         <v>14.117647058823529</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3">
+        <f>(G_2019[[#This Row],[km]]*0.11)</f>
+        <v>12.87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>43497</v>
       </c>
@@ -3710,8 +3732,7 @@
         <f>D3</f>
         <v>81333</v>
       </c>
-      <c r="D4">
-        <f>81454</f>
+      <c r="D4" s="17">
         <v>81454</v>
       </c>
       <c r="E4" s="10">
@@ -3727,6 +3748,74 @@
       <c r="H4" s="12">
         <f>G_2019[[#This Row],[valor]]/G_2019[[#This Row],[preço]]</f>
         <v>13.986013986013987</v>
+      </c>
+      <c r="I4">
+        <f>(G_2019[[#This Row],[km]]*0.11)</f>
+        <v>13.31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>43523</v>
+      </c>
+      <c r="B5" s="23">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="C5" s="17">
+        <v>81585</v>
+      </c>
+      <c r="D5">
+        <v>81622</v>
+      </c>
+      <c r="E5" s="10">
+        <f>G_2019[[#This Row],[km fim]]-G_2019[[#This Row],[km ini]]</f>
+        <v>37</v>
+      </c>
+      <c r="F5" s="16">
+        <v>12.57</v>
+      </c>
+      <c r="G5" s="3">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="H5" s="12">
+        <f>G_2019[[#This Row],[valor]]/G_2019[[#This Row],[preço]]</f>
+        <v>3</v>
+      </c>
+      <c r="I5">
+        <f>(G_2019[[#This Row],[km]]*0.11)</f>
+        <v>4.07</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>43527</v>
+      </c>
+      <c r="B6" s="23">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C6" s="33">
+        <v>81974</v>
+      </c>
+      <c r="D6">
+        <v>82062</v>
+      </c>
+      <c r="E6" s="10">
+        <f>G_2019[[#This Row],[km fim]]-G_2019[[#This Row],[km ini]]</f>
+        <v>88</v>
+      </c>
+      <c r="F6" s="16">
+        <v>50</v>
+      </c>
+      <c r="G6" s="3">
+        <v>4.49</v>
+      </c>
+      <c r="H6" s="12">
+        <f>G_2019[[#This Row],[valor]]/G_2019[[#This Row],[preço]]</f>
+        <v>11.135857461024498</v>
+      </c>
+      <c r="I6">
+        <f>(G_2019[[#This Row],[km]]*0.11)</f>
+        <v>9.68</v>
       </c>
     </row>
   </sheetData>
@@ -3745,8 +3834,8 @@
   </sheetPr>
   <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3832,7 +3921,7 @@
         <v>64224</v>
       </c>
       <c r="G2" s="14">
-        <f t="shared" ref="G2:G26" si="0">F2-E2</f>
+        <f>Viagens[[#This Row],[km fim]]-Viagens[[#This Row],[km ini]]</f>
         <v>351</v>
       </c>
       <c r="H2" s="10">
@@ -3882,7 +3971,7 @@
         <v>64947</v>
       </c>
       <c r="G3" s="14">
-        <f t="shared" si="0"/>
+        <f>Viagens[[#This Row],[km fim]]-Viagens[[#This Row],[km ini]]</f>
         <v>378</v>
       </c>
       <c r="H3" s="10">
@@ -3932,7 +4021,7 @@
         <v>65574</v>
       </c>
       <c r="G4" s="14">
-        <f t="shared" si="0"/>
+        <f>Viagens[[#This Row],[km fim]]-Viagens[[#This Row],[km ini]]</f>
         <v>399</v>
       </c>
       <c r="H4" s="10">
@@ -3982,7 +4071,7 @@
         <v>66204</v>
       </c>
       <c r="G5" s="14">
-        <f t="shared" si="0"/>
+        <f>Viagens[[#This Row],[km fim]]-Viagens[[#This Row],[km ini]]</f>
         <v>384</v>
       </c>
       <c r="H5" s="10">
@@ -4025,7 +4114,7 @@
         <v>66672</v>
       </c>
       <c r="G6" s="14">
-        <f t="shared" si="0"/>
+        <f>Viagens[[#This Row],[km fim]]-Viagens[[#This Row],[km ini]]</f>
         <v>371</v>
       </c>
       <c r="H6" s="10">
@@ -4068,7 +4157,7 @@
         <v>67937</v>
       </c>
       <c r="G7" s="14">
-        <f t="shared" si="0"/>
+        <f>Viagens[[#This Row],[km fim]]-Viagens[[#This Row],[km ini]]</f>
         <v>399</v>
       </c>
       <c r="H7" s="10">
@@ -4111,7 +4200,7 @@
         <v>68381</v>
       </c>
       <c r="G8" s="14">
-        <f t="shared" si="0"/>
+        <f>Viagens[[#This Row],[km fim]]-Viagens[[#This Row],[km ini]]</f>
         <v>380</v>
       </c>
       <c r="H8" s="10">
@@ -4154,7 +4243,7 @@
         <v>68729</v>
       </c>
       <c r="G9" s="14">
-        <f t="shared" si="0"/>
+        <f>Viagens[[#This Row],[km fim]]-Viagens[[#This Row],[km ini]]</f>
         <v>348</v>
       </c>
       <c r="H9" s="10">
@@ -4197,7 +4286,7 @@
         <v>69370</v>
       </c>
       <c r="G10" s="14">
-        <f t="shared" si="0"/>
+        <f>Viagens[[#This Row],[km fim]]-Viagens[[#This Row],[km ini]]</f>
         <v>375</v>
       </c>
       <c r="H10" s="10">
@@ -4240,7 +4329,7 @@
         <v>70379</v>
       </c>
       <c r="G11" s="14">
-        <f t="shared" si="0"/>
+        <f>Viagens[[#This Row],[km fim]]-Viagens[[#This Row],[km ini]]</f>
         <v>378</v>
       </c>
       <c r="H11" s="10">
@@ -4283,7 +4372,7 @@
         <v>70809</v>
       </c>
       <c r="G12" s="14">
-        <f t="shared" si="0"/>
+        <f>Viagens[[#This Row],[km fim]]-Viagens[[#This Row],[km ini]]</f>
         <v>378</v>
       </c>
       <c r="H12" s="10">
@@ -4326,7 +4415,7 @@
         <v>71611</v>
       </c>
       <c r="G13" s="14">
-        <f t="shared" si="0"/>
+        <f>Viagens[[#This Row],[km fim]]-Viagens[[#This Row],[km ini]]</f>
         <v>392</v>
       </c>
       <c r="H13" s="10">
@@ -4376,7 +4465,7 @@
         <v>72533</v>
       </c>
       <c r="G14" s="14">
-        <f t="shared" si="0"/>
+        <f>Viagens[[#This Row],[km fim]]-Viagens[[#This Row],[km ini]]</f>
         <v>375</v>
       </c>
       <c r="H14" s="10">
@@ -4426,7 +4515,7 @@
         <v>73042</v>
       </c>
       <c r="G15" s="14">
-        <f t="shared" si="0"/>
+        <f>Viagens[[#This Row],[km fim]]-Viagens[[#This Row],[km ini]]</f>
         <v>375</v>
       </c>
       <c r="H15" s="10">
@@ -4469,7 +4558,7 @@
         <v>73666</v>
       </c>
       <c r="G16" s="14">
-        <f t="shared" si="0"/>
+        <f>Viagens[[#This Row],[km fim]]-Viagens[[#This Row],[km ini]]</f>
         <v>354</v>
       </c>
       <c r="H16" s="10">
@@ -4519,7 +4608,7 @@
         <v>74449</v>
       </c>
       <c r="G17" s="14">
-        <f t="shared" si="0"/>
+        <f>Viagens[[#This Row],[km fim]]-Viagens[[#This Row],[km ini]]</f>
         <v>367</v>
       </c>
       <c r="H17" s="10">
@@ -4569,7 +4658,7 @@
         <v>74825</v>
       </c>
       <c r="G18" s="14">
-        <f t="shared" si="0"/>
+        <f>Viagens[[#This Row],[km fim]]-Viagens[[#This Row],[km ini]]</f>
         <v>351</v>
       </c>
       <c r="H18" s="10">
@@ -4619,7 +4708,7 @@
         <v>76265</v>
       </c>
       <c r="G19" s="14">
-        <f t="shared" si="0"/>
+        <f>Viagens[[#This Row],[km fim]]-Viagens[[#This Row],[km ini]]</f>
         <v>371</v>
       </c>
       <c r="H19" s="10">
@@ -4669,7 +4758,7 @@
         <v>76660</v>
       </c>
       <c r="G20" s="14">
-        <f t="shared" si="0"/>
+        <f>Viagens[[#This Row],[km fim]]-Viagens[[#This Row],[km ini]]</f>
         <v>352</v>
       </c>
       <c r="H20" s="10">
@@ -4719,7 +4808,7 @@
         <v>77816</v>
       </c>
       <c r="G21" s="14">
-        <f t="shared" si="0"/>
+        <f>Viagens[[#This Row],[km fim]]-Viagens[[#This Row],[km ini]]</f>
         <v>372</v>
       </c>
       <c r="H21" s="10">
@@ -4769,7 +4858,7 @@
         <v>78222</v>
       </c>
       <c r="G22" s="14">
-        <f t="shared" si="0"/>
+        <f>Viagens[[#This Row],[km fim]]-Viagens[[#This Row],[km ini]]</f>
         <v>364</v>
       </c>
       <c r="H22" s="10">
@@ -4819,7 +4908,7 @@
         <v>78960</v>
       </c>
       <c r="G23" s="14">
-        <f t="shared" si="0"/>
+        <f>Viagens[[#This Row],[km fim]]-Viagens[[#This Row],[km ini]]</f>
         <v>363</v>
       </c>
       <c r="H23" s="10">
@@ -4869,7 +4958,7 @@
         <v>79352</v>
       </c>
       <c r="G24" s="14">
-        <f t="shared" si="0"/>
+        <f>Viagens[[#This Row],[km fim]]-Viagens[[#This Row],[km ini]]</f>
         <v>352</v>
       </c>
       <c r="H24" s="10">
@@ -4919,7 +5008,7 @@
         <v>80548</v>
       </c>
       <c r="G25" s="14">
-        <f t="shared" si="0"/>
+        <f>Viagens[[#This Row],[km fim]]-Viagens[[#This Row],[km ini]]</f>
         <v>356</v>
       </c>
       <c r="H25" s="10">
@@ -4969,7 +5058,7 @@
         <v>80925</v>
       </c>
       <c r="G26" s="14">
-        <f t="shared" si="0"/>
+        <f>Viagens[[#This Row],[km fim]]-Viagens[[#This Row],[km ini]]</f>
         <v>360</v>
       </c>
       <c r="H26" s="10">
@@ -4999,24 +5088,104 @@
       </c>
     </row>
     <row r="27" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
+      <c r="A27" s="19">
+        <v>43526</v>
+      </c>
+      <c r="B27" s="11">
+        <v>0.38819444444444445</v>
+      </c>
+      <c r="C27" s="11">
+        <v>0.57916666666666672</v>
+      </c>
+      <c r="D27" s="11">
+        <f>Viagens[[#This Row],[hora fim]]-Viagens[[#This Row],[hora ini]]</f>
+        <v>0.19097222222222227</v>
+      </c>
+      <c r="E27" s="10">
+        <v>81622</v>
+      </c>
+      <c r="F27" s="10">
+        <v>81974</v>
+      </c>
+      <c r="G27" s="14">
+        <f>Viagens[[#This Row],[km fim]]-Viagens[[#This Row],[km ini]]</f>
+        <v>352</v>
+      </c>
+      <c r="H27" s="10">
+        <v>48</v>
+      </c>
+      <c r="I27" s="10">
+        <v>15</v>
+      </c>
+      <c r="J27" s="15">
+        <f>Viagens[[#This Row],[L ini]]-Viagens[[#This Row],[L fim]]</f>
+        <v>33</v>
+      </c>
+      <c r="K27" s="12">
+        <f>Viagens[[#This Row],[km]]/Viagens[[#This Row],[L]]</f>
+        <v>10.666666666666666</v>
+      </c>
+      <c r="L27" s="31">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="M27" s="21">
+        <f>Viagens[[#This Row],[preço]]/Viagens[[#This Row],[consumo]]</f>
+        <v>0.39281250000000006</v>
+      </c>
+      <c r="N27" s="32">
+        <f>Viagens[[#This Row],[L]]*Viagens[[#This Row],[preço]]</f>
+        <v>138.27000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="19">
+        <v>43529</v>
+      </c>
+      <c r="B28" s="11">
+        <v>0.54791666666666672</v>
+      </c>
+      <c r="C28" s="11">
+        <v>0.75486111111111109</v>
+      </c>
+      <c r="D28" s="11">
+        <f>Viagens[[#This Row],[hora fim]]-Viagens[[#This Row],[hora ini]]</f>
+        <v>0.20694444444444438</v>
+      </c>
+      <c r="E28" s="10">
+        <v>82062</v>
+      </c>
+      <c r="F28" s="10">
+        <v>82413</v>
+      </c>
+      <c r="G28" s="14">
+        <f>Viagens[[#This Row],[km fim]]-Viagens[[#This Row],[km ini]]</f>
+        <v>351</v>
+      </c>
+      <c r="H28" s="10">
+        <v>48</v>
+      </c>
+      <c r="I28" s="10">
+        <v>20</v>
+      </c>
+      <c r="J28" s="15">
+        <f>Viagens[[#This Row],[L ini]]-Viagens[[#This Row],[L fim]]</f>
+        <v>28</v>
+      </c>
+      <c r="K28" s="12">
+        <f>Viagens[[#This Row],[km]]/Viagens[[#This Row],[L]]</f>
+        <v>12.535714285714286</v>
+      </c>
+      <c r="L28" s="31">
+        <v>4.49</v>
+      </c>
+      <c r="M28" s="21">
+        <f>Viagens[[#This Row],[preço]]/Viagens[[#This Row],[consumo]]</f>
+        <v>0.3581766381766382</v>
+      </c>
+      <c r="N28" s="32">
+        <f>Viagens[[#This Row],[L]]*Viagens[[#This Row],[preço]]</f>
+        <v>125.72</v>
+      </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
@@ -5112,10 +5281,10 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5513,6 +5682,27 @@
         <v>81454</v>
       </c>
     </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="25">
+        <v>43519</v>
+      </c>
+      <c r="B22" s="26">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="C22" s="24">
+        <f>Etanol[[#This Row],[preço]]*Etanol[[#This Row],[litros]]</f>
+        <v>35.699999999999996</v>
+      </c>
+      <c r="D22" s="24">
+        <v>3.57</v>
+      </c>
+      <c r="E22" s="27">
+        <v>10</v>
+      </c>
+      <c r="F22" s="28">
+        <v>81544</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <tableParts count="1">
